--- a/Game simulations/Week 16/Lions at Falcons.xlsx
+++ b/Game simulations/Week 16/Lions at Falcons.xlsx
@@ -57,16 +57,16 @@
     <t>FalconsAvg. FPTS</t>
   </si>
   <si>
-    <t>NIG(28.94772103832685, -0.12370219107566144, 1.5757630863660703, 61.77341168572313)</t>
-  </si>
-  <si>
-    <t>6 -3 4 -5 -3 14 14 3 38 -1 -14 4 6 7 6 -1 5 -20 9 4 7 4 10 -9 -10 -14 -3 3 2 11 -21 -10 3 3 18 -25 4 -6 2 20 18 -7 -9 7 10 4 -7 6 -18 16 0 4 14 -4 3 8 2 5 19 3 14 27 3 -8 -7 27 -3 -3 -7 -7 13 -4 4 23 -14 -18 -4 1 17 5 -2 20 16 1 -8 4 3 1 29 12 23 2 14 -3 -14 -3 -4 -13 7 -9 -3 12 -17 -1 4 5 -16 8 -13 -18 -20 -14 -2 7 -16 1 -2 -8 4 3 -14 -11 -9 2 -7 -4 13 -6 7 -3 14 11 -13 -9 -4 12 -7 -6 3 14 -10 18 1 14 10 13 4 8 3 -3 -3 19 9 -4 13 6 5 10 -17 0 6 21 -26 26 -3 -36 -13 14 14 -1 7 -17 11 21 -14 -6 -5 7 14 5 11 12 7 3 7 -13 7 -3 42 4 14 12 -3 3 6 11 -13 -10 17 11 13 -4 -1 -3 4 21 3 3 -5 10 19 -10 8 17 24 7 10 7 24 -3 4 -3 -7 8 -16 10 3 7 8 -2 -4 17 -11 5 14 -7 7 4 17 -9 2 -26 -30 -9 7 -8 -14 8 1 9 9 -11 -4 16 8 13 -6 17 -14 20 -13 3 -20 -1 14 -30 -31 -16 -7 -3 -8 -17 -9 -24 10 -38 -3 3 -2 7 3 3 7 6 -18 7 -7 14 -3 21 -3 -7 22 -1 -5 10 6 3 8 4 -8 -5 -6 -7 -10 -7 4 -22 -3 -4 14 11 19 2 5 15 3 -10 -3 3 5 20 -6 17 -5 -11 32 -5 9 -3 3 28 13 14 -8 7 13 0 4 2 3 11 24 3 -14 -9 4 -7 -3 14 10 -3 11 17 -1 -3 3 -7 1 18 -11 10 -6 6 6 -17 6 -8 -3 -9 7 -6 -26 -3 -4 3 -7 -10 21 -8 2 -7 -14 -21 8 -5 -4 14 -12 9 -3 5 20 -11 15 -1 -1 -3 12 4 -10 2 -15 3 -3 10 6 -1 -10 5 10 19 6 16 4 -6 -2 3 3 4 -11 -5 4 13 -8 -8 10 -4 7 4 10 -12 14 4 -28 -17 1 -3 3 -17 4 0 37 -3 21 16 -10 12 12 7 -2 3 -14 10 -24 -9 -2 14 10 5 3 6 -18 18 6 10 14 7 6 6 21 17 3 -4 -14 6 17 -1 -3 12 -3 17 4 7 -4 -20 7 -3 -5 9 -6 -18 20 4 28 25 -10 15 20 3 3 -3 4 10 -17 3 4 4 -23 -6 -4 27 8 -7 4 5 0 -11 1 -18 13 -1 13 -4 -9 23 -1 4 7 -4 8 -3 4 -7 28 -10 -15 -7 -12 13 -19 12 1 17 -3 5 3 -15 -14 11 7 12 3 -7 9 -9 -7 5 -2 8 3 -6 -3 6 4 8 4 -7 -3 -14 -8 -24 -7 -6 -8 13 7 -6 10 -2 -3 -10 -7 9 -3 -7 -3 10 -14 7 -31 27 18 -3 -15 5 14 7 -9 3 4 3 17 3 -6 9 -1 35 20 -7 3 7 7 -20 -3 21 -20 8 -2 3 7 -1 -3 -11 -10 17 8 -18 -3 21 -4 -7 -3 -10 -7 3 -23 -11 -6 11 -4 3 -11 17 -4 8 6 -24 -20 -16 -5 -3 -15 13 -16 7 -5 3 5 4 -7 17 -6 10 -6 -4 1 -4 3 9 -6 -3 7 6 -8 11 25 6 -2 3 10 13 -3 11 17 -14 1 4 6 -2 -13 7 14 3 -7 -3 1 4 -7 2 -4 12 24 -5 5 25 8 -2 -3 11 -3 -10 -15 7 -5 33 6 24 -3 11 -7 14 -9 -1 0 -1 -17 16 4 7 -23 6 -20 21 -13 17 0 -3 10 14 10 17 21 2 -3 -9 -6 -2 -4 13 3 -2 -14 5 7 11 5 -22 -10 -11 3 -5 18 3 -11 8 2 14 0 -7 18 -31 -15 3 -8 30 9 8 4 -16 4 -4 6 9 -7 6 21 -3 4 -4 18 -4 -7 14 7 -3 -8 4 -26 3 -13 -7 -3 24 3 11 -1 7 -14 -15 3 -6 -4 3 -1 20 -3 -3 -10 13 13 6 -3 -13 16 -3 36 3 -22 12 -7 3 9 -5 -14 -4 -3 17 12 -6 -10 3 3 4 3 7 -20 10 11 -11 -17 24 -5 -3 9 5 -11 -3 -1 -3 11 3 -6 -11 23 6 -13 -7 -12 10 5 18 4 -7 5 12 -2 1 6 -9 6 3 1 3 3 3 14 -19 -7 2 3 10 -7 -3 7 -4 8 3 -4 23 2 3 12 -25 1 18 11 21 -20 -4 12 3 2 18 4 -4 28 -14 -7 1 -34 -10 5 -10 10 -7 4 11 -3 13 -1 4 -9 22 -13 38 14 -9 1 3 -3 -3 8 9 4 -3 14 -17 -13 11 2 -5 -7 3 -15 21 -6 -4 -3 -7 -6 -3 -8 17 -5 -10 -6 -10 -5 1 -9 8 3 -3 10 8 1 -3 20 -12 -3 -15 20 17 8 -9 10 6 3 -8 5 6 15 14 9 -13 -7 18 6 -7 -3 10 -2 11 -10 4 6 -3 8 -6 -10 8 18 34 -14 31 -21 10 3 0 -9 14 -17 6 -18 -4 -12 0 -6 -27 3 32 6 -3 -4 -6 -6 -5 3 4 10 -7 7 -7 11 11 24 14 6 6 -3 2 5 -18 6 -8 -15 -4 -3 6 8 3 4 13 -13 -6 -11 4 -1 10 3 3 18 -9 -9 28 2 -3 19 -5 -9 -3 6 -17 11 -2 1 -4 -7 3 18 -11 -11 -7 -13 -4 -1 -7 13 12 10 19 -8 7 7 7 18 6 -4 -4 4 -6 -2 8 3 -8 2 -2 3 7 -10 2 -11 11 2 -9 -23 -3 -3 -3 4 -6 11 -3 -6 10 -3 19 4 4 -5 -6 -3 -12 18 -4 6 17 6 -10 14 -7 -3 -8 6 3 3 -20 10 -3 3 3 5 -14 -10 -3 -25 13 16 -7 6 -12 10 10 -4 -17 9 6 15 21 10 -23 -11 -6 -18 10 9 14 -7 3 -1 3 7 11 20 -20 -3 3 17 3 7 -4 -13 -10 3 -3 9 16 -11 9 34 13 11 15 16 4 4 6 -3 17 20 3 6 20 5 31 -6 4 6 -14 13 -7 -5 -2 -21 7 0 -7 2 -11 7 17 -14 -14 -4 -17 -4 23 -7 -4 -8 -4 6 -2 -15 3 -4 2 11 7 4 -11 3 -17 5 8 -3 -11 -21 -12 4 4 6 3 7 -7 4 26 9 -1 -14 5 8 0 22 -3 11 -4 6 21 -18 24 -3 4 28 -11 18 -15 19 -3 2 6 2 3 3 25 -5 14 13 -1 14 4 12 4 7 11 -10 21 -6 -4 5 12 -11 9 3 -8 5 17 17 23 6 13 7 -3 -2 9 -7 3 7 4 -5 -7 14 -6 -4 -7 -7 22 -7 4 2 -16 -6 -17 3 3 27 -4 13 1 -7 10 -11 13 13 -15 3 -23 7 -6 6 6 -18 -7 6 -8 -15 -8 -1 7 -3 -10 3 -20 18 13 -27 11 7 -14 10 11 10 -3 13 17 17 6 28 -3 -30 -4 -3 11 3 6 -11 -7 16 -2 7 18 7 10 -7 -8 -6 -7 30 4 -7 14 6 -14 8 7 11 3 1 -7 -4 5 3 30 19 -3 7 13 -6 4 -11 -10 -10 -29 -7 3 -7 -1 2 -3 12 -3 3 5 -3 -1 -7 -3 0 15 6 -3 -14 3 -1 6 2 -3 -10 21 6 20 -7 8 23 8 18 28 -9 -6 10 3 18 -10 -3 21 -5 11 -3 14 -4 18 -4 -8 10 3 21 8 -7 -14 10 -2 19 3 -4 12 -4 -16 7 -6 -3 8 -21 -5 6 -15 13 -18 -35 5 14 4 4 18 3 3 -6 29 3 3 -5 8 -6 -1 4 15 10 -5 20 -10 -12 17 3 6 -3 3 -6 15 3 5 3 -21 7 11 4 -6 -3 -4 -12 10 21 -4 24 -3 6 -7 17 -2 13 -15 -6 3 5 14 -17 2 -10 4 21 -6 -5 -9 -4 22 -4 10 -7 3 3 -9 14 1 -3 -7 15 23 -1 -6 14 20 -3 13 -4 11 18 6 5 -3 8 7 -6 -8 19 -3 20 2 -16 3 -13 -7 -4 7 -7 -6 20 6 -10 4 -2 -10 -7 -14 14 21 -4 -8 3 7 -4 9 6 4 13 2 1 24 -16 3 1 -6 -28 9 18 21 -22 -24 16 11 19 1 2 -3 -7 -3 8 17 10 -18 -11 -1 3 -6 7 -8 -12 -5 -3 -11 8 4 -17 -13 3 14 7 -13 -8 -3 -7 6 -10 18 31 -13 -14 -13 14 14 -6 10 -3 18 2 -15 -8 -6 -3 -11 -3 17 -3 5 6 2 7 3 3 -3 -7 7 -9 15 -10 11 4 2 5 6 13 -11 10 -25 -7 21 25 6 14 3 6 -3 7 -20 3 9 -11 -3 7 -3 6 -5 3 -3 -17 -3 -18 14 -3 3 25 -14 8 -1 13 20 6 14 2 -5 3 15 13 7 3 12 22 23 -31 -3 -3 15 11 5 -5 2 1 -5 -4 -3 20 0 8 4 -8 15 6 2 -11 -6 15 4 -3 -19 19 -10 7 6 -6 -2 -13 7 11 -14 -3 2 -20 10 13 11 4 -14 -2 3 -3 -7 -11 -3 -14 16 -17 -1 -10 1 -14 -20 -10 -5 -5 8 0 -7 21 -6 2 10 -8 3 -15 10 -24 8 -8 5 -8 3 -18 -17 12 -26 38 14 6 -4 -5 2 -8 10 -2 -1 -10 -13 13 7 -2 3 27 10 -3 2 -11 -6 6 7 9 -24 11 3 5 -4 17 -2 3 2 -5 3 -17 -13 -7 3 -8 -8 -4 -20 2 6 20 3 -6 3 14 7 -4 9 4 -6 15 -7 9 6 -8 3 3 6 5 5 19 10 3 3 28 -3 10 -18 5 1 3 -20 -3 -7 7 -3 -6 -23 -15 2 -20 -10 19 -16 25 0 0 -1 3 -3 3 7 9 1 -14 18 -3 -7 8 1 8 -17 7 5 27 3 21 -2 -1 32 0 -2 7 -7 15 -1 -1 21 2 10 -14 -1 4 10 -4 7 17 -3 -6 -7 4 9 7 -10 2 6 -3 -6 -7 -6 24 4 14 3 -8 2 -27 7 -3 -1 5 3 7 5 -4 15 7 -11 21 6 -20 -1 -3 -31 3 -14 -6 6 -5 0 -27 14 -9 -6 14 -28 -4 5 -9 28 -12 -3 6 7 -15 14 -6 3 7 -6 -9 18 -7 27 2 13 4 3 12 7 7 -3 -21 -1 5 -21 -3 7 1 -14 -15 -8 3 -2 17 -17 4 9 -7 2 -3 -3 9 11 -17 21 -11 3 24 -11 -4 -13 -10 2 3 -5 14 -5 -4 9 -3 18 -7 15 3 -12 5 -9 10 16 -2 5 11 -8 -9 7 -21 1 6 6 -6 10 7 1 -5 13 17 -9 4 -3 19 -17 -12 3 24 21 -16 -19 -1 -5 3 26 -20 32 -10 18 -3 4 -16 10 3 -3 -5 18 3 -7 30 5 5 4 11 1 4 2 7 3 -25 12 2 35 4 23 8 -7 -5 -5 -15 4 -2 -17 4 -11 13 -2 -10 1 -3 16 -11 -10 -1 4 -19 -17 -7 17 -13 1 -8 20 -10 5 3 4 -14 -6 18 -6 -2 3 4 4 6 5 14 -17 -3 7 19 -5 13 -10 -3 -13 5 6 27 -20 24 -21 -15 3 -9 5 27 4 17 9 2 10 22 11 -18 -1 4 3 7 8 14 12 -2 -2 3 4 -12 -20 -4 -17 13 13 17 6 11 10 7 -13 -1 12 -10 -3 31 17 3 -20 7 -13 -2 -6 8 -8 -12 2 -6 -3 0 17 7 6 1 -11 -3 19 -6 -6 5 20 -5 -7 -13 -14 -17 -20 -6 -14 11 4 -17 -5 -20 6 3 27 -8 2 -1 -13 -5 -5 -14 3 6 -15 7 9 8 -18 -11 13 28 -17 14 5 -7 13 -3 18 -7 15 -6 -3 7 -3 8 -4 -6 15 10 40 -1 3 -1 -8 0 -11 4 10 -2 -11 -6 10 31 7 3 3 -8 3 13 -3 -4 10 -9 -10 -17 15 14 21 1 -5 -6 -3 -15 -1 10 3 14 18 -11 10 -15 -25 0 16 8 6 9 12 11 -15 -6 -15 -7 7 -13 4 4 -14 10 14 6 16 5 -6 0 5 1 -10 7 18 -3 12 -7 2 3 11 19 -3 -8 -12 17 3 -6 -4 -9 -21 18 -18 -14 4 -4 17 -2 18 3 -7 -6 11 11 11 -3 7 10 3 6 1 -3 -27 7 -13 9 7 15 0 6 -8 -4 -7 9 -1 -5 1 -24 1 -7 -6 4 -2 -21 2 -7 5 -21 8 18 10 -17 -5 -2 4 -14 -14 -1 5 13 3 -24 -1 17 14 -12 -3 6 -14 3 4 -6 21 11 11 14 6 13 -9 -7 6 -3 6 6 7 5 16 7 -11 2 14 7 14 -3 -3 14 -3 -5 -13 -21 28 9 -3 4 42 -21 4 19 4 24 3 -7 10 -2 7 -23 7 -3 14 1 -7 2 -13 -9 -4 -1 -10 7 11 11 18 -6 18 21 -5 -3 20 -6 -6 12 -24 -1 -4 10 13 -3 7 -3 13 -4 4 1 -14 7 -6 -12 -17 15 13 7 13 -20 -20 4 6 -3 7 7 -3 7 6 3 1 -4 3 3 -4 18 21 -3 3 33 -6 13 -14 10 12 -5 3 -14 -13 -14 13 5 -4 6 2 -5 -11 17 10 14 -14 -12 6 -7 -3 -3 16 19 3 -15 -13 -7 6 9 -18 -10 -10 -8 4 -20 6 8 -4 -2 -14 -17 13 4 8 -15 -18 5 4 -5 -11 7 -6 -3 4 7 5 -9 3 -30 3 -7 4 14 6 19 -11 -5 -5 13 -23 6 -13 -3 4 3 15 -10 -14 6 -5 -3 16 9 -11 -4 -7 -12 16 1 7 2 -5 3 3 -10 10 -3 0 -5 8 18 -9 -10 -7 14 -6 -4 -7 10 19 3 -12 -19 14 -12 -1 -20 -21 -16 -18 8 17 -5 6 -4 -4 -6 -13 -16 3 15 11 -8 3 -6 9 4 3 3 10 4 17 12 -13 3 2 4 -10 -9 2 -15 -6 -6 6 -17 -6 2 -6 2 -23 6 -6 -8 3 11 -3 -6 14 8 -14 17 6 -13 25 -3 6 -6 -14 -3 -7 -3 -17 16 -13 -16 10 2 3 -6 9 -6 -15 -7 7 -14 4 -13 13 -8 -3 -4 13 -10 -5 -3 17 -3 -10 6 -21 6 -1 -1 10 -2 -18 4 -5 6 -2 -14 3 2 11 0 3 3 -3 -6 15 3 -2 -3 28 -15 -7 3 8 -14 22 -4 17 -12 4 12 -5 -5 -11 -6 -7 2 9 -1 -7 -25 4 2 -7 -2 15 10 17 20 19 5 -3 -5 13 6 -4 -1 15 21 6 -7 2 7 5 -17 2 -3 -11 17 7 6 -3 -10 14 6 -19 1 -9 -9 28 11 10 -3 21 -21 0 -22 -3 9 -24 -13 -3 17 10 33 0 6 0 7 0 -11 0 6 18 -6 -7 20 6 -6 17 10 18 -9 6 10 -3 20 -6 14 3 8 1 -3 -7 5 -2 4 19 20 4 9 30 -16 9 16 -6 6 5 -3 -3 -4 -4 5 -7 -11 6 24 6 5 4 -7 2 6 -6 10 13 3 -11 -27 3 30 3 3 -7 -1 -7 5 3 7 -1 10 -3 6 -16 3 -6 4 -8 7 7 5 -20 5 6 7 1 -15 -6 9 -1 15 5 -3 -3 -7 21 -8 -3 -8 4 17 2 -3 20 0 13 -5 30 8 20 -10 10 -14 5 -9 3 5 0 8 22 23 -3 3 -7 7 -11 12 15 -10 -9 0 7 -2 -1 3 -17 -17 -14 21 -6 9 8 -14 25 17 5 3 -10 -22 17 -4 8 6 -6 21 -18 -11 12 -19 13 -4 -6 -2 2 35 11 23 -6 5 0 -6 12 16 4 3 4 13 -2 3 6 15 20 -3 4 11 4 -8 -6 8 -1 -6 4 4 3 -10 -13 -32 -24 3 -3 -1 -3 11 4 -25 3 -9 -4 11 1 12 5 -17 3 -3 3 -1 8 19 -6 1 12 -17 -6 20 4 -3 -4 9 -1 -11 28 -1 12 -7 -3 20 16 8 -9 -3 14 -7 16 6 -1 -12 -3 5 -2 2 -13 3 3 14 -6 10 5 11 4 6 5 5 10 14 10 5 -14 13 17 -8 11 -13 17 4 -8 -9 -11 14 9 -7 -16 -7 -11 -6 -9 -3 -10 4 17 -17 -11 4 -5 5 7 -6 21 -16 -14 -9 -27 4 10 11 -18 -2 9 6 13 15 9 -10 16 -16 5 3 -12 -2 -9 -9 7 7 0 2 22 3 -3 -11 20 -11 0 14 -10 -6 17 6 11 -20 -17 3 -12 -13 3 4 11 -6 14 -7 28 3 -15 8 10 4 11 -13 8 0 -6 7 21 -1 21 4 -6 -7 11 -18 -5 7 10 13 -7 7 4 8 10 4 9 -23 -13 -16 7 19 -3 -11 3 -7 3 8 2 9 -11 20 -23 -10 -15 14 2 10 19 11 3 3 19 -1 21 1 12 -12 9 -3 -6 1 3 -24 7 13 6 3 -16 -2 9 -3 -4 -7 3 15 3 3 11 4 3 3 7 24 3 -1 17 3 -28 26 -10 -14 -7 -6 5 10 7 3 24 -10 12 15 5 -10 -18 17 11 10 7 -14 13 -14 -14 6 -14 4 8 3 -6 -3 -1 -11 12 21 -8 -3 7 -14 6 -6 13 -14 15 14 -10 13 -1 -2 3 4 -17 -9 4 -27 -7 -7 -2 -6 -3 -7 11 -10 13 14 2 8 7 -14 5 6 6 20 4 3 28 -7 9 1 -2 0 -14 -6 -4 18 11 -3 -17 -15 5 -4 4 -7 -14 -3 8 13 20 -3 14 9 -4 2 14 9 2 10 29 -4 4 7 -5 5 15 16 24 -3 -17 -2 -7 -4 4 3 7 -15 -4 17 4 2 -10 1 -3 -10 6 -11 -3 4 -14 11 -4 17 17 -36 10 -3 -16 8 18 -4 -10 9 17 5 4 3 5 6 6 -3 -9 3 -1 6 -2 7 -2 -14 -31 7 -6 8 -15 -21 -4 -3 17 4 -4 4 -3 -4 6 -4 3 -24 31 8 9 -3 7 -3 -1 23 -7 2 10 -7 -6 1 -3 14 7 12 22 3 -6 -12 14 -12 3 7 3 9 9 18 -23 -13 10 -10 3 4 7 -16 -3 10 14 -20 9 3 -18 -3 22 21 3 -1 -7 5 7 18 8 5 -6 -17 -5 2 17 -5 3 7 10 -8 0 2 12 3 -1 4 3 -20 28 16 3 4 -8 7 -5 5 9 -7 3 21 7 -4 -6 -17 19 -3 11 5 -17 10 -2 -9 -3 7 -4 6 11 19 -4 -17 -10 21 23 -10 6 3 -10 12 35 -4 3 3 3 6 11 10 3 5 4 -1 14 5 17 -7 1 4 -1 9 -13 3 -14 -3 -1 -4 -16 21 13 -3 -7 25 8 -7 -8 -14 -4 2 0 -11 6 11 -4 12 12 -8 24 -3 -12 7 3 -14 1 -6 -10 -7 -14 -13 8 13 5 15 -7 -11 -7 -20 -1 3 6 -6 -17 20 16 15 -3 -7 -1 3 3 14 3 7 21 -34 -6 -2 6 -9 3 -8 -1 -3 3 25 -14 -26 -4 3 5 16 -15 7 11 -13 -1 0 1 21 -5 -3 -3 -16 22 23 23 -14 5 11 3 11 -6 -6 -3 -6 -15 26 -20 18 -9 3 -13 7 -7 -6 -5 -1 -3 14 -5 -3 9 1 9 -3 -6 -18 3 -3 3 -3 -14 29 -3 -14 -7 0 13 24 -7 -7 3 7 -10 -7 3 -9 -13 -7 7 -6 13 10 -37 10 -10 -5 15 28 -5 11 3 7 37 -11 6 -5 -10 -12 -5 11 10 -11 7 -7 6 4 -3 18 -3 -7 -14 13 19 6 -17 -3 -17 -4 -2 7 10 7 -8 -12 -2 3 -3 17 -3 -3 8 11 14 -17 21 -11 -4 -4 6 32 -3 3 23 -25 -15 17 7 -3 -9 -8 -13 -2 10 -6 20 11 -3 -7 14 7 -3 -21 -13 5 3 3 4 7 9 5 -4 6 1 6 4 -4 -16 1 -7 -15 -18 15 -9 7 4 -27 3 8 -4 14 -3 -3 5 3 17 3 3 -10 -7 17 8 1 -3 18 -10 -15 -9 8 13 20 6 -13 -10 7 -15 -2 -7 20 4 -27 -7 2 4 7 11 5 0 -11 -8 22 -2 14 11 7 -11 -5 24 8 -7 -7 4 -6 -3 13 5 -8 14 7 -11 10 -3 -4 -7 -3 -3 -3 -14 3 14 6 3 4 -4 31 10 13 -3 18 -14 4 -1 24 7 3 11 10 -10 10 -10 -1 -8 4 14 2 9 15 -8 -7 -6 -17 -7 -2 2 18 7 -13 6 4 -3 -7 -9 -9 13 7 3 6 -7 -17 2 19 -9 -6 17 -6 8 3 -10 -3 13 16 6 -17 20 3 1 -17 -11 -11 14 7 -7 -18 4 1 -6 13 6 5 16 -10 14 15 -4 11 -24 4 -6 7 21 -4 -9 5 14 -13 14 0 -44 5 3 4 -3 22 -7 -3 -27 -3 -11 -7 14 3 -6 -3 6 -8 -21 1 13 -8 1 -3 -6 13 -3 -31 -1 -3 -13 -5 -11 16 10 -7 7 3 -3 -5 -16 3 -11 11 -6 -7 -4 3 2 -3 7 4 3 15 -4 -10 -17 -14 -3 -22 2 3 -16 16 6 -4 27 -3 23 -16 -5 13 -8 8 -3 -19 -6 20 -13 -5 11 20 14 -15 3 3 7 -9 -7 -8 11 -11 -16 3 -17 -3 -5 7 11 -14 17 6 -3 20 -1 -6 7 -18 3 24 -10 14 10 11 3 10 3 3 -2 11 7 -20 13 5 24 3 -6 11 -14 18 7 -22 2 -10 2 -1 -3 2 18 -4 3 9 -8 -3 -5 1 3 -7 -20 -6 11 -6 -5 -4 -10 -3 -6 5 5 -18 21 -3 18 10 18 -4 -2 7 6 -16 -10 3 8 -13 3 -8 4 4 -8 -18 10 -4 14 4 1 -4 -11 0 9 -10 -24 -12 14 -7 -6 -30 5 3 -24 -7 -21 3 -13 -4 14 -10 3 -4 16 -6 3 -7 10 11 -12 22 -6 10 -17 -16 3 -7 -5 19 13 -3 -12 -20 -5 19 -3 6 21 24 28 3 10 -14 12 -1 1 3 6 -21 -8 5 9 3 35 -12 1 -8 6 -4 -6 5 27 7 7 -20 -6 -5 -5 -3 -4 21 -3 -10 -3 -16 7 -7 -6 14 -4 -4 11 5 9 20 -7 -1 4 -17 7 -24 3 6 13 13 -7 12 -8 3 13 0 -1 -9 13 6 14 -3 10 -9 1 8 3 -19 24 -14 -18 16 9 -7 -7 -3 -23 8 2 -12 -21 -3 14 6 -14 14 -12 7 7 -7 1 20 -3 7 6 -8 -7 21 -22 5 7 -5 -13 -3 13 -6 7 2 21 9 24 -3 -9 -14 9 -7 -10 3 -6 14 17 4 10 -3 -7 10 -2 6 11 15 -17 17 -7 -2 7 -2 -21 3 20 1 5 -4 6 5 -4 -3 -7 -6 -23 20 -1 14 -7 -9 -5 -18 18 7 -3 6 -6 -1 11 10 2 6 14 14 17 -11 -10 13 3 13 -2 14 -10 25 -12 3 2 3 -7 27 -8 -14 -21 8 8 10 10 3 3 -11 -13 -12 19 -4 -10 3 -3 17 10 -8 26 8 -8 -7 -16 12 -7 4 6 7 -8 7 13 -22 17 7 6 3 -35 -5 18 6 -3 8 -10 -14 20 -7 10 -7 6 -7 11 11 5 3 5 9 10 -11 -5 -17 8 7 -7 -13 29 14 16 1 10 -7 8 -3 14 17 -10 -13 -7 17 11 1 -9 -9 -17 14 -17 4 -7 -9 -7 -10 10 -17 6 -23 17 3 14 21 6 -1 -11 -4 30 -1 2 5 3 14 -11 -5 0 -13 6 7 18 -7 -18 4 -4 3 -1 -7 5 3 -27 14 -12 -7 -4 7 13 20 -6 -3 3 -3 -4 13 -18 0 -10 -6 -7 16 24 6 13 -10 -8 -7 8 0 4 -21 -12 -3 11 -7 -4 -3 -4 -2 8 0 -3 18 5 -2 7 17 -12 12 1 -13 -8 4 -3 2 6 -4 21 -16 11 10 5 -2 -21 19 8 -4 14 3 -10 7 7 -1 -17 23 -17 8 7 -21 -6 3 2 -2 8 -10 -16 5 -13 -10 -7 24 -3 -4 -4 -5 9 -4 -12 -5 0 -7 -10 -3 2 -3 -9 10 15 1 -3 24 14 -4 15 11 -10 3 -24 6 4 7 -15 -7 -17 5 -17 7 6 -13 4 -4 -5 -8 3 3 -4 3 -6 7 -3 9 -5 8 4 4 12 -13 7 -14 -4 10 0 -7 4 -9 -24 -3 9 3 -3 13 9 -11 28 1 17 11 22 25 3 -20 -3 2 11 -6 3 20 -10 3 -10 -3 -5 9 25 14 -8 -4 14 -28 -7 11 -6 25 -2 -26 10 16 26 3 7 8 3 -7 -11 19 -20 -3 7 -4 -3 -4 3 8 -3 12 4 -28 -17 13 4 10 18 1 -7 -1 -7 4 -8 3 3 -17 -4 27 5 14 15 6 -17 7 3 8 3 6 -20 -7 -7 8 -3 13 13 11 -5 -6 -24 -6 3 -8 -9 6 10 -14 -18 7 -6 5 17 4 6 7 4 6 -7 -4 6 -3 -2 6 -5 -2 -3 -5 -4 -3 -13 -7 -4 5 -14 5 -2 -14 -2 3 7 -1 -2 14 -3 -6 -5 14 17 -7 17 -22 -8 16 -15 12 14 -11 -6 -10 -16 6 14 -3 13 7 -4 6 -16 12 8 27 -18 6 10 -1 1 -6 -7 -19 -3 11 -16 5 -5 11 6 -4 7 16 3 -6 -3 8 3 25 -17 7 -22 -5 9 -1 -5 17 -10 -3 14 14 -3 25 9 -2 4 9 5 3 23 13 8 18 -5 4 3 -3 -7 19 13 6 18 -14 12 8 24 4 13 6 10 -19 -6 7 -17 6 6 -12 4 3 -6 -3 -11 -25 6 -19 -13 -7 -6 14 3 -3 -1 -8 3 -11 11 2 7 -10 6 6 4 -4 -6 -7 -9 6 -7 10 -8 23 7 -7 -14 13 9 -6 -11 8 11 -8 3 -14 -3 3 5 -2 4 10 -1 12 22 23 3 -4 -2 -31 17 -10 7 2 23 5 7 18 0 6 -14 3 3 3 3 9 9 -9 3 -10 6 10 14 -20 10 7 15 -10 6 14 -6 15 -7 -7 -6 -3 3 25 -3 -2 -2 15 -5 1 -1 -11 11 -14 6 31 18 -13 2 1 5 3 -4 -16 -3 -17 -3 7 16 2 -2 11 -13 14 -10 -15 -15 19 -4 -3 -1 9 11 10 -14 3 4 23 -2 11 -13 -3 19 10 -3 2 -13 -5 3 -20 -2 -6 1 -3 6 18 3 -3 2 14 -13 -26 -19 -4 6 15 -14 -12 -4 6 -6 11 -3 -3 -9 11 7 -14 -7 27 -1 11 1 -7 23 -3 -11 14 0 -5 3 2 -7 -3 -4 14 14 -3 -3 14 3 -13 -9 -7 -17 8 -3 -5 17 2 -21 -3 6 -3 4 3 -22 20 -14 18 11 -13 13 15 5 -10 -8 11 7 4 25 -8 4 -3 5 3 -13 -16 10 5 3 -41 16 -19 11 -30 3 19 -3 6 18 10 13 -4 -13 -12 -7 -5 21 21 -27 -10 -10 -17 3 -11 13 3 -9 1 17 14 17 -3 5 14 -3 9 -16 7 5 0 7 -3 4 15 2 -3 20 -12 -5 2 -18 -8 17 -13 21 -15 -16 2 -3 16 10 12 11 2 7 25 18 3 -7 3 -10 11 -6 17 7 -11 15 -24 3 -3 6 13 -6 7 10 -6 18 -14 8 -15 24 7 23 -4 7 -5 17 -9 3 -7 28 26 7 -2 2 -3 7 7 13 0 -6 10 -27 11 30 3 3 17 7 -3 28 7 -3 -6 -11 8 -11 -10 -8 1 6 -32 -2 16 18 -14 1 7 30 6 -7 6 14 -15 7 14 -4 -3 -14 13 -6 -10 23 21 8 -2 -2 2 10 14 -3 8 12 6 11 5 -17 -1 -3 -18 -12 -27 26 -8 -15 15 2 -6 7 6 -10 10 6 3 -7 -6 10 20 7 4 6 -24 -7 6 32 -2 13 7 -3 -3 6 8 7 -3 -15 2 7 -10 -16 -19 -11 13 28 -3 -10 20 13 -10 -4 -3 3 5 10 -17 4 -16 -8 2 -10 4 12 -3 -3 -1 -6 14 23 -3 -14 14 8 -6 15 -5 5 4 1 20 -10 4 7 7 -13 30 -17 0 -11 -10 19 -14 10 -3 -3 7 -7 -3 -5 -24 3 6 11 10 17 2 17 14 7 -3 28 -20 7 0 8 7 -25 -5 -8 -22 -7 0 13 -6 -3 4 -6 18 10 -19 7 -11 3 6 26 -2 4 -12 -3 -6 3 21 18 -9 4 3 -6 15 28 -10 3 -28 -9 -3 -4 4 -7 10 4 -2 11 -5 -2 -12 -11 -4 2 -2 -3 5 1 16 -3 -7 3 12 -14 5 17 -1 -1 -20 14 -25 3 -8 -20 5 16 25 -3 10 2 3 2 11 -3 2 3 21 -13 25 -20 -3 -7 -2 8 2 -14 10 1 5 4 13 -8 -12 -14 -18 -14 21 -14 -9 18 -15 13 -22 -1 6 3 -2 3 13 -23 18 4 -6 -13 -3 12 8 3 -32 -4 -22 -3 27 -14 -2 16 -4 17 1 -6 15 7 -18 11 11 -7 -3 -1 12 21 -4 10 -14 -14 -7 -11 -7 20 10 15 22 13 -3 3 3 11 10 2 -3 3 2 -13 11 -10 -3 4 -11 3 -7 -3 7 3 -4 -9 -4 27 -1 -30 -7 11 -4 -16 7 11 19 -21 -18 -10 12 1 -5 -8 13 -7 -14 -3 -10 24 -9 -2 13 7 -9 1 -6 7 20 -7 7 4 30 0 3 -3 7 15 -17 -6 8 1 -3 -4 5 -5 0 -3 -9 -16 20 -24 -2 -3 9 -1 -16 -17 17 -14 7 10 -1 8 -8 -6 -6 -24 -18 3 4 -10 10 14 3 13 7 -25 -14 4 14 -9 3 -10 -14 -11 -11 -3 4 -7 -13 -10 2 12 5 -2 -17 15 21 -3 14 -13 7 5 -17 6 -3 4 6 -3 -20 -4 -28 6 10 11 -11 -3 4 -11 -8 20 -6 3 -13 -10 -6 13 10 -7 -7 8 3 5 9 4 9 -3 7 5 9 -21 8 -4 14 -4 -7 11 28 -17 -2 7 -1 3 -22 3 14 -3 4 3 8 -17 11 1 12 -21 2 17 10 15 17 -10 -30 6 5 8 22 -6 24 -8 -3 6 -11 6 -8 11 -21 13 3 11 -6 17 15 -8 -19 15 23 36 -7 11 15 7 -17 1 2 13 14 -3 -14 22 22 -6 -9 -23 -4 7 -3 16 23 14 2 -7 11 -18 10 -11 6 7 -5 -4 26 0 -3 -5 -11 3 5 14 8 6 -5 20 10 -9 -14 3 16 -6 -4 -13 3 -1 18 3 3 3 6 4 -3 -6 9 6 -10 6 17 6 3 7 -8 3 6 12 -6 -9 12 -3 4 -3 -3 17 -1 6 20 -24 -5 8 4 3 -3 -2 -18 17 2 -1 -8 -18 3 14 12 -17 -7 23 15 -2 24 -3 25 12 -16 13 16 13 3 -6 1 20 7 -5 10 12 -17 6 -14 -4 5 11 11 10 -4 -3 4 -6 3 -8 12 7 3 13 -26 4 -3 6 6 2 29 30 6 -9 -2 10 8 7 3 5 -7 -3 9 34 23 -1 -11 30 20 -9 3 -3 3 3 6 7 -3 -1 -4 -15 13 -13 -9 -6 -15 3 7 7 13 6 -17 -3 24 -5 -12 6 10 14 13 4 5 9 -17 4 7 3 27 -5 16 -7 -5 -7 -3 23 11 -14 -10 6 4 13 5 27 4 8 4 3 -1 4 -17 3 -2 -16 13 -1 32 8 -13 -4 -3 7 -8 25 2 17 -7 -21 3 -6 5 5 -8 29 -3 10 -12 18 9 -13 24 7 20 18 3 10 -20 10 -1 7 0 3 15 -10 26 14 9 -7 26 -7 22 -15 13 -5 -10 13 21 1 10 -7 -14 2 7 27 10 10 -13 23 -3 1 3 6 3 -12 4 -20 9 -3 6 15 7 -7 -14 10 4 6 -3 31 -2 -15 -2 17 3 13 -1 14 7 -8 7 3 -4 -2 -27 -14 7 -7 7 4 -19 7 -3 -9 -4 7 11 17 -7 -7 -6 -3 -9 -5 -14 -14 17 6 3 10 -14 14 -1 18 -4 7 3 11 -7 24 10 8 15 13 -5 3 7 -28 13 9 17 23 6 -9 27 -6 -2 5 5 -14 11 21 -2 7 -3 6 3 2 -6 -8 -17 4 4 -6 -6 5 10 -3 -4 -7 8 0 7 -11 -4 31 6 21 -20 -6 4 2 17 4 -6 -1 -10 -17 -8 -14 -3 15 3 -3 -8 -3 -4 8 6 -3 -8 1 11 -7 -13 3 -3 -8 4 -3 -6 -6 -3 -14 -3 1 7 3 6 5 -9 -4 -2 -6 -13 -9 9 14 3 2 3 3 -14 28 6 -27 -3 -12 21 14 3 19 3 -5 -6 18 4 2 -9 -20 -7 -2 -8 10 10 0 14 6 -4 -15 8 -7 3 10 13 -7 5 -14 -20 -20 -11 3 -32 18 4 6 7 25 7 -2 -3 -13 -3 -7 6 13 14 3 17 -26 25 -4 17 15 1 2 -1 3 25 18 -3 10 -2 -6 12 -6 17 -5 3 -7 10 2 18 10 3 10 33 18 38 -7 17 -1 5 11 20 8 17 24 4 -1 -6 11 17 -19 3 7 14 -6 14 20 5 -11 15 9 -13 7 -5 1 8 14 -7 -7 -3 6 18 -2 14 -4 -8 18 9 4 14 -6 -15 -15 -3 16 27 21 4 4 3 -2 -3 3 14 7 16 -7 -10 -3 4 9 -9 1 -4 9 -2 -9 6 -7 6 11 20 -7 -6 -3 10 -17 1 -16 -3 30 20 6 8 -13 -6 7 17 24 -14 -8 0 -4 -18 -11 -13 -23 7 17 3 13 7 10 -3 -3 13 5 3 -9 -10 12 -12 2 15 -3 -19 7 -10 7 -4 7 1 -6 6 15 -9 10 6 7 -16 0 15 6 3 -19 8 21 -6 10 -4 -3 3 -5 -6 9 -11 10 2 -3 4 -3 -2 8 -7 -5 -10 10 8 18 -13 19 6 5 -31 -10 18 6 10 -6 19 15 3 -3 -3 10 -11 0 11 -7 20 4 -17 -10 15 18 12 4 5 14 3 -15 10 5 -20 2 7 7 -2 8 -3 20 7 -13 -10 -17 4 8 -6 -5 14 -3 3 -21 3 -5 3 6 21 15 -3 17 -3 -19 -6 1 13 20 -3 -7 -4 7 31 -4 6 13 3 -1 2 -6 -11 -15 8 1 13 -1 1 -24 6 -12 -3 -2 3 20 -5 7 6 -2 -6 7 3 -3 -4 1 13 21 3 -2 -20 7 12 -3 15 -20 0 -12 1 -9 -12 0 -6 20 4 4 8 -3 -26 -11 -8 13 7 6 -5 -15 15 -12 -13 2 -6 -9 -5 10 5 -3 -11 15 0 -17 12 -14 -9 3 10 3 -10 13 -10 10 -3 -4 6 32 -1 -1 -1 11 16 24 -3 -3 5 14 -5 2 -6 4 -10 -14 3 12 -10 20 -8 -2 -7 17 -13 1 -13 17 -6 -10 6 11 -3 13 -12 29 3 0 10 4 13 21 -3 6 6 5 3 -3 -5 3 31 -7 14 10 3 -4 7 32 -15 1 3 9 30 -13 -34 -2 3 9 18 -3 -3 11 -16 -14 -4 -19 -7 -4 0 3 -17 15 8 -6 -18 23 -20 3 -3 7 14 19 5 18 -6 -3 3 -6 5 -13 10 -5 -12 5 -26 -3 3 3 20 -8 2 -10 -15 10 -3 17 -6 -11 23 21 26 4 -19 -7 -1 -7 4 -24 4 12 18 8 17 -3 22 26 -4 -6 -16 -4 11 -22 9 24 8 21 27 18 14 -4 -8 -8 3 -3 -7 -3 10 -7 14 6 -1 6 -25 -7 -15 -13 -2 4 -1 6 3 -7 -24 -6 7 21 -11 8 -18 31 1 -6 -3 -7 6 3 -10 17 21 8 -9 -9 2 -12 3 -11 -15 -7 -7 -15 -2 -24 7 12 -5 17 4 9 9 -21 -8 -7 -4 -5 11 11 14 -8 -15 -4 1 15 6 12 7 -18 9 12 -3 -14 -1 -14 -1 -17 -7 -6 5 -17 11 -6 -5 10 -6 -1 0 6 7 8 -4 -9 15 3 -13 -7 9 -4 -7 -14 -10 6 3 7 3 -23 17 -5 -1 -3 11 27 -14 -6 7 14 9 -8 -11 -4 -6 -10 -4 -14 -8 -12 -12 3 -7 -7 18 -3 -4 1 7 10 20 -2 -10 -3 -6 -1 -9 18 -3 -4 18 1 -9 -10 -3 17 -1 18 16 -7 -13 -17 -3 7 9 9 2 3 17 -1 2 -18 -8 6 15 -7 11 -3 -7 -6 -34 4 12 -24 -4 14 4 11 1 -10 -4 -6 9 7 7 16 -3 9 -3 -17 13 18 -20 -17 -21 -1 5 -5 10 0 -13 7 -14 33 -18 -6 1 -10 3 6 4 6 -14 11 -2 8 -17 -4 -3 -21 6 20 -13 -11 -8 -13 38 6 5 -6 -10 -3 -5 1 -9 12 13 7 2 -7 -10 5 -7 -13 4 14 -21 -5 48 5 -14 3 -3 8 3 10 -18 7 -3 20 14 -1 3 10 -7 -1 12 -3 -20 -25 -7 6 23 -29 1 -3 -2 5 6 14 21 10 3 20 3 3 18 -3 6 -7 -1 14 8 -6 14 3 7 -3 15 13 7 7 15 17 6 -20 -3 6 -5 4 -4 6 26 7 -12 4 27 5 -13 1 18 23 6 16 -6 29 -6 -12 10 16 -17 -26 6 -11 -16 16 8 8 1 -9 -2 12 -14 24 -3 4 -8 -19 -24 19 -7 -10 21 -17 10 7 7 18 -12 -1 -13 7 -4 -17 -17 15 3 -5 -14 -3 6 -3 -7 -7 -3 10 -25 25 3 5 -3 -11 12 -15 3 3 -7 14 -21 3 4 -2 -11 -10 -4 -3 17 17 3 -1 24 -10 3 -21 2 23 3 -12 10 18 8 -3 7 25 7 -4 14 2 -6 11 -3 -1 10 11 -4 3 0 4 6 13 -20 3 9 -3 13 2 7 7 12 2 -9 12 10 -7 7 19 -17 -35 1 -3 6 4 -4 11 14 -7 14 6 -3 -6 14 3 6 3 5 -7 -4 -4 5 -24 -8 3 20 -21 4 -3 -7 -5 -7 7 11 5 -20 -2 -17 -7 -11 0 2 -10 5 1 -15 4 12 18 11 -10 -13 8 -7 16 3 3 20 -1 10 20 5 -3 -10 -28 5 4 11 -2 -7 -10 -6 20 15 1 -5 -7 -17 8 -5 19 14 17 7 -3 3 -18 -3 -3 -10 3 17 -17 7 -25 -7 13 13 -7 4 15 -21 3 6 1 -13 -3 7 8 -8 -4 2 3 6 -4 -8 14 1 16 3 18 -3 3 7 -5 17 6 3 -26 -14 2 6 5 -10 -4 4 13 -4 -6 5 1 2 -11 -7 24 14 7 20 14 4 14 -7 3 -6 17 -5 -16 -8 -2 27 -7 25 -3 14 8 21 -22 12 20 17 8 -9 9 4 7 0 -16 -20 -3 18 15 1 -7 16 11 -21 7 -12 4 16 1 -10 -3 -9 -3 5 7 -21 14 -14 7 -6 3 -15 23 -4 14 -5 4 24 -2 -3 -3 -3 4 16 30 -24 -5 15 -7 -3 13 -17 -1 6 -3 14 9 -4 -7 7 -12 12 -31 -11 16 17 3 -13 1 -6 8 13 -13 18 7 -7 6 -1 10 10 3 7 13 17 -4 11 4 6 1 -7 18 -7 5 0 15 -11 -12 14 1 -6 8 0 7 15 20 11 -20 3 -10 2 -14 5 -7 17 3 22 -7 -21 -7 2 -35 3 2 -21 3 -14 13 6 18 24 -13 4 -7 8 17 -3 7 -5 3 -3 -3 -7 -1 7 9 20 3 -13 14 -2 -7 -7 -17 11 -3 -7 -2 6 -5 12 7 4 -6 -4 6 -3 7 12 5 -6 -9 -9 -6 -12 5 -20 -3 -17 12 3 8 4 3 3 -12 -11 10 -6 3 14 -13 7 -6 30 17 -21 -17 -31 -2 9 13 -10 0 7 3 2 -3 11 -17 -4 -3 22 3 -8 -14 -6 10 -10 10 14 3 21 -6 6 7 21 -14 2 -3 -7 4 3 -18 3 4 -6 -5 -14 9 -31 -3 -1 16 0 2 12 -6 -6 -6 17 9 -16 8 6 -1 4 -3 -10 1 7 6 9 2 8 -1 28 4 -10 -6 10 -2 -17 6 3 24 11 -6 -12 -5 4 12 -16 -3 -11 11 -9 20 21 4 8 -9 -13 0 -4 -6 7 -4 21 6 6 -13 4 -3 12 17 14 3 6 -9 -16 -6 17 13 -21 -4 -14 24 -3 4 -23 -6 19 -18 -11 6 14 -7 -21 2 -5 -8 3 7 -21 10 11 11 14 -1 4 4 17 4 -2 14 -18 13 3 10 -5 -8 4 -6 23 23 -7 -7 14 16 -8 -4 6 -3 -10 -4 -5 -3 3 -2 -6 7 7 3 -21 9 -3 -3 -23 3 10 -3 -6 7 -4 -7 -7 -14 -11 10 -6 3 -14 15 -9 -11 -21 5 7 -4 -17 -27 -5 10 -1 38 -5 -21 -1 2 -8 7 6 15 6 1 -3 -7 -4 -6 -5 38 3 -1 8 -10 -2 -4 3 8 14 -9 21 -16 7 -28 12 17 3 -11 -3 6 15 -1 7 -12 -3 11 12 0 8 -6 -5 11 -1 -10 10 -3 3 14 -7 1 14 14 -3 -7 24 -14 -7 -7 -14 -13 2 -13 -1 -3 -1 6 -3 -14 2 -3 -3 -6 -3 10 24 6 13 -6 10 -8 -14 2 7 1 -13 20 12 0 14 3 10 -14 21 7 -3 -3 3 -14 2 6 24 14 7 -7 -5 -3 7 18 14 -1 12 -3 -4 -14 10 6 3 3 4 -3 12 -2 14 7 -17 16 8 15 14 12 3 -11 -3 17 13 15 -3 5 -7 21 -31 -10 -2 7 16 4 21 3 9 -13 -4 10 -10 -24 18 -5 6 -11 -13 6 -17 -10 8 11 -7 -6 -10 6 -6 -6 -9 19 -3 7 -17 8 5 17 3 -4 7 4 -4 3 3 6 2 14 8 -1 9 -23 -7 -4 -14 2 -3 22 -4 -6 10 -6 -3 23 -3 -5 3 -5 9 25 -3 4 3 16 -2 -9 1 -5 -18 -5 3 -12 -9 2 -3 -3 -4 -10 -5 -9 3 14 1 -14 20 3 -7 -4 -1 -3 6 -13 14 -7 7 -2 -3 20 3 2 3 14 -7 -1 -4 20 -3 4 20 26 5 -15 -10 3 7 17 10 14 13 7 8 -3 -3 12 3 -15 13 10 4 24 10 2 10 -10 11 3 -7 -3 4 -3 9 -20 3 -5 -15 13 18 -24 -1 -1 -16 -20 8 -7 -2 6 31 -4 14 -10 -3 3 -6 10 3 -17 8 -10 -4 12 14 17 4 7 3 -3 -3 17 -11 -1 -4 -10 5 3 -6 4 -3 5 14 4 -15 6 2 1 13 -12 -13 -5 14 -4 15 -3 -3 -9 -5 -11 3 -13 5 -20 10 6 -4 6 24 12 12 3 8 -6 -4 -9 4 3 8 -3 -5 9 -3 2 10 10 -3 3 -20 14 3 -7 3 14 1 -19 -8 4 13 7 9 11 -11 10 7 -4 -20 -2 -6 8 13 13 21 -9 -4 7 -7 -2 6 0 10 -7 3 -13 6 -8 17 -3 14 7 14 6 3 -22 13 17 -19 10 -3 -10 -2 26 4 -19 -18 6 17 -6 2 -7 9 -3 -21 -7 13 13 -7 17 -5 14 -16 -7 9 16 27 -3 -4 -13 17 -6 -14 -19 6 -3 -6 20 -7 1 3 -9 -6 2 -8 8 -14 19 25 -7 -7 -10 -11 7 -6 6 -14 14 -9 -11 7 -3 5 -4 13 21 -6 8 -3 -4 14 -15 4 4 -13 -3 12 -10 -3 10 3 1 4 14 13 -15 27 -4 -3 -6 -8 -10 -13 3 2 6 1 4 -7 -1 4 -23 -7 -1 21 10 15 2 -9 -4 12 1 -4 2 11 -6 3 13 15 1 -10 16 -1 -21 -3 14 18 -3 -6 -3 3 11 6 -8 4 -2 -17 4 -4 -1 -13 5 2 -2 -7 -3 3 -4 -7 0 14 7 11 1 4 26 4 3 -3 3 -3 -11 -19 20 4 8 -10 -6 -11 -4 3 -23 13 -16 11 10 3 -1 -3 -3 -5 7 -10 3 14 3 3 13 1 -4 2 -6 8 34 -18 -12 -6 -8 7 14 3 8 7 4 -2 -1 -3 -17 -2 6 13 7 6 35 -4 4 13 -2 3 -1 13 13 -7 -24 7 21 -13 14 -13 -5 3 21 6 -6 18 9 20 6 11 13 7 8 -19 -2 20 3 12 -5 7 -5 3 -17 -6 9 -3 1 7 -25 -2 -6 2 6 3 2 -16 6 18 15 7 34 -3 -8 7 4 -8 -11 11 3 -6 -6 0 -1 5 -23 -7 -5 -3 3 5 -15 6 -10 1 2 7 3 10 -7 3 14 5 -14 -31 4 -5 -7 10 -11 -20 11 -4 6 -10 -7 12 -14 13 -3 6 -11 3 3 -7 7 -3 -11 16 7 -3 3 -3 8 -3 11 -14 3 -18 7 9 24 18 -4 -7 14 7 20 -3 -6 -13 -10 2 10 -6 3 -7 7 -5 -5 8 -10 3 -6 -10 -4 5 5 -8 5 13 22 6 17 -14 24 3 -3 6 3 6 7 3 3 6 3 2 -4 3 -6 9 14 21 4 -17 16 6 6 18 -20 10 20 -8 14 17 4 20 17 -7 20 -3 -10 -12 18 34 25 2 -6 -7 0 15 22 -5 23 5 -4 -3 -4 3 -11 6 18 -3 3 -13 -4 -32 -3 6 -29 -24 10 -5 -3 9 -6 -36 -13 -3 -11 9 6 -3 -11 6 -30 -3 -6 -6 -11 6 22 -16 -6 8 10 2 7 16 10 3 -6 -21 10 5 10 -30 -6 18 14 25 -14 -7 -17 34 8 -3 10 11 -17 21 -4 -30 20 -2 -10 -6 25 8 -2 3 5 -17 -3 2 17 -13 6 20 7 -29 13 14 17 6 18 4 10 3 11 6 -1 11 10 -13 17 10 11 3 -7 -17 -3 -24 16 -4 11 -6 17 7 13 -10 -3 3 20 -6 -14 3 -3 11 1 -14 -7 -24 8 -14 -6 -5 20 4 -11 21 6 3 3 -21 4 -9 0 7 12 33 28 14 8 1 0 -8 -16 0 3 -7 -3 -17 5 -7 -7 -6 14 3 4 -3 16 -8 8 5 0 5 -8 -14 -3 3 3 11 27 21 7 4 -8 8 -2 15 4 -7 14 17 10 7 -7 -15 7 3 -11 13 -7 -18 7 12 -3 -17 12 2 -3 -1 31 14 -10 -3 10 -1 3 3 -7 8 -14 2 -6 -20 15 7 -6 21 11 19 13 6 -13 6 1 5 4 -27 3 -10 -15 5 3 -7 13 -7 -11 22 14 9 -3 -5 -2 -13 -7 7 17 -4 3 9 0 1 7 2 -25 -14 -24 -3 8 6 -4 -26 3 11 10 6 5 8 -3 3 -14 -2 -6 -17 10 -8 -3 4 -14 6 21 -36 8 12 -2 -3 9 -3 7 -15 -4 4 17 8 -10 10 -3 -14 -9 -3 2 26 -18 -2 1 -11 5 2 5 6 3 -1 8 6 21 -3 25 3 3 -7 -7 1 -17 5 20 -6 -10 3 11 6 -16 -18 -3 22 -7 -3 -3 21 -6 -9 -10 10 -2 -16 -3 -10 13 10 10 7 -1 -3 2 -2 -8 -4 -6 4 15 7 13 17 -3 17 17 -3 14 -7 14 -8 3 -18 6 14 13 14 5 -3 14 -5 3 14 -7 15 12 11 3 7 13 -18 -3 18 -17 -1 -4 9 4 4 -4 4 2 8 -1 -5 8 16 -18 -3 24 14 -4 -3 9 -3 -10 -10 -3 -8 -1 -6 6 3 20 12 3 22 -3 11 -14 15 -7 0 -25 25 -4 14 16 21 2 2 13 2 -8 -24 -24 10 -4 28 -1 8 3 14 9 -3 -8 23 -7 2 -2 -24 -20 -3 3 -10 -3 -8 18 9 15 11 11 -4 11 -5 19 -10 6 6 3 -21 14 5 5 -11 5 7 3 -17 2 -2 8 10 11 13 6 -21 4 7 4 1 3 -18 -3 -4 -3 -3 1 -10 7 13 10 -3 21 10 7 5 10 -7 7 -17 -4 10 1 9 9 -16 6 13 -4 3 7 -10 -6 26 11 18 9 -3 3 -6 -4 25 6 7 18 7 0 12 1 3 6 -1 1 2 5 -12 -34 6 17 23 -6 -21 -2 12 -6 8 7 4 -3 -3 29 -3 -16 7 -3 6 6 21 -10 20 0 4 18 3 -8 6 -4 3 3 16 -21 -6 8 -12 -21 18 -38 -6 6 3 33 -7 4 1 3 7 -3 -13 -6 -11 3 6 16 0 -7 17 13 -10 -19 -3 14 -4 7 3 -18 -15 -6 5 -11 -18 -21 3 -8 -3 20 -8 -6 14 21 4 -4 -17 8 -17 13 4 13 -14 21 10 30 -12 10 -10 0 -18 -7 -3 -5 -3 3 3 3 -4 -10 -5 -2 -5 6 8 6 1 -5 3 -3 -24 -16 -7 15 13 -1 -32 16 -3 6 -12 22 -14 -7 17 20 17 -10 14 -22 5 13 -4 -11 -3 -21 2 -4 -10 14 -3 5 -1 -12 7 -4 24 17 7 8 -3 -17 -44 7 -1 23 7 -6 -12 -3 -7 -3 -4 5 -3 7 13 0 4 13 4 6 11 16 -24 6 5 17 10 -7 10 28 -2 7 4 6 5 10 11 -2 3 8 18 19 9 9 3 -6 -3 13 10 -4 -11 9 4 6 22 27 -7 -6 20 -5 6 22 13 4 -12 26 1 4 7 -15 14 -18 -13 20 24 -21 3 -17 8 8 6 -11 -10 5 -4 11 18 3 6 -14 9 -15 -7 -3 3 7 3 3 -25 5 -3 6 6 14 25 24 -10 10 14 10 -6 -3 6 -3 3 -4 -6 10 25 11 6 7 -15 -7 -7 24 -20 5 -9 7 1 -6 19 -17 -3 3 10 3 4 5 -14 25 14 -5 3 -4 20 7 15 -21 -19 10 6 -12 11 3 -13 -3 -21 5 -4 1 3 -8 8 -21 6 1 11 4 -3 8 14 9 11 -25 10 2 -24 -4 -3 -7 10 4 -7 6 -2 -15 2 5 26 5 1 8 5 3 7 1 3 -1 13 15 6 5 4 -7 11 3 7 19 29 6 6 -9 3 9 5 -6 3 -20 -11 -3 -3 -5 -15 6 4 19 10 12 3 3 7 5 6 -18 -6 -16 6 7 -29 5 18 -3 -17 -16 -14 -27 17 -4 -11 -10 10 3 -31 -9 -1 4 -3 5 -15 -1 17 -6 10 17 -3 9 3 9 -3 8 14 -1 -5 -19 3 -7 -17 17 2 -6 6 -7 3 18 3 -9 -20 6 9 5 -20 8 19 -6 10 17 3 24 -3 -3 13 3 -6 3 6 -3 3 -15 3 5 -3 -7 3 2 14 3 20 3 7 -28 -16 3 39 7 9 10 21 4 17 -8 6 -3 -20 9 1 -3 7 -10 10 -6 -10 4 -3 -8 13 3 7 -12 -7 7 4 6 -8 8 -8 3 14 31 1 11 -3 1</t>
-  </si>
-  <si>
-    <t>JSB(3.608975265211444, 5.403080854756508, -45.35063105157943, 235.11697337665828)</t>
-  </si>
-  <si>
-    <t>42 37 30 43 51 26 34 17 44 41 28 30 20 39 46 39 33 32 49 24 55 42 16 25 36 34 15 23 28 31 39 36 21 23 42 31 30 40 30 20 50 33 45 13 58 58 27 48 38 30 48 44 26 32 17 26 38 43 29 37 26 41 37 20 31 55 41 31 25 27 41 36 36 43 32 44 32 25 23 25 42 26 42 25 12 38 9 41 41 46 37 30 28 29 34 35 44 27 33 37 43 40 35 39 22 33 28 34 25 36 34 20 26 41 42 33 30 32 36 45 34 41 23 44 27 30 33 34 41 31 40 37 41 51 24 38 41 40 31 42 60 38 27 48 30 39 52 40 21 43 29 39 21 44 27 26 51 36 37 18 34 39 26 40 29 56 41 40 26 33 33 23 29 33 26 26 23 49 48 23 43 32 25 43 27 25 31 51 48 30 32 46 37 45 28 23 19 44 31 35 19 30 33 37 44 33 29 23 29 44 29 30 46 29 30 35 24 13 36 35 32 43 49 48 68 38 23 39 40 30 44 23 51 43 34 27 41 28 45 29 42 50 30 43 27 20 40 20 41 35 27 23 30 30 24 33 28 29 32 26 33 51 42 53 40 42 45 36 47 23 26 37 31 30 30 52 37 35 34 27 17 29 13 32 36 33 49 54 29 39 23 33 48 33 47 10 46 37 32 22 48 33 32 25 52 47 38 48 31 30 40 29 49 26 19 55 51 28 51 37 29 26 34 23 31 43 44 23 29 29 37 40 33 20 48 33 27 46 36 28 43 37 52 23 40 49 38 27 51 20 44 37 57 37 27 29 37 27 25 30 37 16 20 46 32 31 40 40 29 23 47 20 40 23 44 37 27 30 41 38 38 13 54 39 30 29 52 28 40 41 35 25 32 31 47 33 49 23 26 30 36 40 27 23 35 30 32 33 46 33 32 39 34 36 36 34 36 37 39 30 45 37 36 33 40 22 36 44 21 36 30 44 40 36 40 43 47 43 29 31 36 34 43 45 41 22 28 40 34 25 28 43 26 38 58 29 36 40 42 39 21 32 30 38 26 50 34 19 32 34 47 31 23 38 26 48 23 49 45 44 37 37 36 35 10 26 21 31 29 21 26 44 26 38 34 37 28 29 34 51 51 31 36 30 35 49 30 52 39 46 36 67 32 43 22 33 56 29 33 38 33 27 33 30 37 49 33 22 27 50 20 23 30 41 40 38 47 33 38 27 39 44 39 23 23 37 35 31 34 37 45 24 29 19 23 37 19 37 28 40 35 34 23 26 36 38 38 27 9 48 34 38 19 20 34 25 35 50 58 40 25 44 41 51 37 27 21 44 40 19 43 41 42 29 39 25 48 13 37 51 22 37 23 43 34 23 19 35 26 41 37 21 27 34 29 35 40 20 20 43 49 27 35 37 28 31 50 24 51 39 24 47 37 38 49 31 29 31 32 37 44 37 35 29 30 26 34 40 50 48 43 31 27 43 30 33 51 23 43 28 27 23 44 30 40 30 29 16 31 21 18 43 35 40 36 37 37 46 44 59 30 19 23 37 51 34 13 16 48 30 41 39 26 23 53 43 33 50 25 46 34 36 38 51 31 45 40 40 37 47 23 30 31 21 23 39 40 30 51 37 13 48 31 31 46 39 45 22 16 27 39 40 40 33 27 37 46 29 52 34 30 65 33 26 45 29 34 38 44 39 49 36 46 29 47 33 19 42 22 29 37 47 58 45 45 34 30 28 26 27 36 37 29 37 50 44 15 22 30 16 52 30 32 37 25 52 51 53 38 28 34 30 27 40 27 43 34 10 40 43 47 33 43 44 37 17 33 13 42 43 23 34 44 29 27 20 37 37 38 27 33 26 37 41 22 29 42 43 48 44 41 23 29 19 34 30 31 43 40 30 36 21 37 36 43 33 40 44 37 31 29 50 19 35 35 47 37 51 39 9 49 29 48 29 23 38 39 27 32 16 33 34 44 33 29 44 44 27 34 37 32 45 27 23 31 43 40 43 39 30 43 36 13 43 13 36 34 37 36 23 42 9 46 31 27 36 31 41 40 30 32 29 46 42 28 44 28 26 41 19 40 44 39 42 44 41 30 43 23 19 41 30 15 42 31 38 26 23 41 45 43 33 48 37 28 45 40 37 33 37 30 23 33 17 15 35 34 58 37 33 34 37 38 43 21 44 26 44 33 33 39 32 31 31 24 34 35 27 70 38 23 33 26 51 40 31 16 26 29 32 51 42 33 34 45 47 33 22 38 21 45 30 20 43 36 28 24 15 34 42 38 40 36 46 40 31 27 50 37 34 31 40 29 42 30 44 42 48 34 33 29 44 26 23 38 34 34 23 45 42 44 41 21 27 29 45 30 28 46 18 37 40 37 38 56 26 29 38 35 20 40 37 22 27 41 20 55 38 19 36 39 37 36 43 29 28 36 23 33 33 37 29 46 51 37 46 27 42 27 15 36 35 37 41 41 30 19 33 33 32 44 33 34 25 33 27 38 34 50 28 36 26 32 46 23 26 40 40 17 25 38 28 17 25 42 29 67 23 29 27 38 46 35 31 34 44 37 43 66 30 29 40 9 38 50 30 42 29 26 38 34 27 29 22 40 37 23 34 24 29 23 43 23 20 30 37 31 47 22 35 20 18 38 30 56 23 29 26 47 41 42 45 23 32 36 44 15 34 33 31 31 49 47 43 48 34 31 37 45 31 27 30 25 52 29 21 37 40 37 31 46 33 45 27 38 30 38 26 31 43 40 45 40 32 19 37 18 38 34 28 27 27 19 32 33 33 40 33 32 37 27 39 40 32 30 29 38 29 35 34 34 22 44 30 47 23 52 38 37 47 30 23 49 31 39 40 43 37 27 44 22 50 26 53 13 19 36 40 39 59 40 29 26 56 34 43 23 22 60 27 30 46 31 38 40 45 38 39 25 43 38 32 44 41 43 37 35 40 33 33 20 36 30 22 25 23 36 33 40 24 39 18 43 45 29 32 25 37 29 47 32 27 35 29 30 23 41 29 27 22 39 27 34 40 38 25 41 34 7 22 28 22 32 37 37 31 39 36 33 25 31 48 33 49 33 33 23 37 27 40 42 26 36 13 50 26 47 48 43 33 29 28 31 26 36 25 55 37 33 32 44 37 28 15 39 37 17 46 40 31 36 22 37 23 23 34 23 27 22 34 27 32 35 58 35 54 40 55 36 36 19 40 34 40 26 25 37 43 33 25 22 37 23 44 33 31 35 47 38 46 23 22 16 47 21 37 27 33 30 29 36 29 37 39 31 13 33 51 26 41 26 41 26 43 17 34 46 43 24 33 48 26 21 40 49 36 36 40 43 20 40 45 36 30 31 39 33 17 37 40 28 30 52 38 30 31 27 40 41 34 28 30 47 23 38 24 28 30 41 40 43 26 27 37 40 21 25 38 35 29 28 50 30 36 45 35 32 47 43 23 51 32 42 39 38 43 24 57 32 30 26 29 29 26 37 37 34 47 51 47 35 47 41 37 30 40 37 30 36 44 33 28 52 51 34 47 31 16 33 29 32 51 51 48 23 30 28 30 41 26 29 29 38 44 30 38 27 43 23 23 26 47 43 27 35 39 33 34 14 34 45 39 30 49 30 40 37 51 54 55 34 40 39 23 46 30 36 43 25 39 22 41 21 18 40 30 22 30 36 30 27 42 34 33 24 42 37 19 16 37 26 38 33 30 19 50 44 31 25 20 34 37 38 41 28 38 30 23 47 19 44 23 13 33 44 35 52 38 29 27 29 34 33 40 24 21 23 47 22 30 29 47 23 20 27 27 34 15 33 12 22 46 31 33 48 27 34 28 12 30 17 30 42 29 44 40 31 45 31 31 43 33 32 30 35 37 31 37 25 49 15 21 30 29 30 44 29 34 47 37 36 37 27 39 41 40 54 43 34 43 47 20 31 29 37 43 33 59 26 35 15 51 35 43 42 34 37 9 37 26 26 33 41 26 40 42 30 39 23 27 45 33 23 30 34 37 51 51 37 41 37 29 37 38 19 33 36 23 34 26 20 36 40 33 52 32 45 38 41 22 23 19 43 24 33 48 18 32 33 41 29 28 37 22 20 44 33 23 16 34 30 37 15 41 45 51 34 22 29 35 24 41 26 34 30 43 51 40 40 33 47 48 36 36 26 43 27 36 30 46 48 31 40 51 44 59 26 68 44 42 48 44 33 30 34 44 22 35 30 33 19 35 30 29 47 46 37 36 51 40 40 33 37 30 37 37 35 38 37 30 23 36 37 27 31 33 27 31 28 26 30 32 32 34 40 23 26 23 42 41 36 9 36 38 57 49 45 40 26 31 23 26 37 37 33 44 51 35 40 37 50 24 29 47 51 34 21 19 41 17 48 35 29 30 40 36 25 46 31 48 48 19 37 49 29 47 21 19 26 34 49 25 40 19 32 45 35 47 33 23 41 30 27 38 42 36 41 19 37 35 33 33 8 38 34 27 24 22 22 27 17 29 20 27 16 33 51 30 22 40 51 26 33 34 44 24 28 51 46 30 33 39 37 13 25 31 27 53 16 53 31 31 49 28 40 41 35 31 51 34 54 32 53 28 33 26 23 40 20 40 36 43 41 48 42 37 28 31 43 40 34 35 27 34 15 30 25 33 30 27 24 39 26 41 27 23 61 19 29 27 15 33 39 34 49 32 51 48 53 37 22 35 25 44 37 43 53 41 51 53 37 23 36 37 46 33 44 42 29 35 26 39 30 43 25 36 19 41 37 50 41 33 44 42 46 37 37 22 23 33 21 41 32 40 20 50 41 33 25 33 49 53 38 43 37 29 36 9 44 27 42 61 33 31 23 26 26 56 42 48 37 30 28 58 37 37 23 30 29 19 30 33 29 24 37 19 38 28 19 37 43 30 26 35 30 43 26 25 35 45 35 30 28 39 22 23 47 44 46 13 43 30 39 36 33 36 41 23 21 17 27 21 54 46 22 17 43 44 30 26 34 26 30 31 30 22 40 39 38 29 23 31 33 25 19 38 45 39 43 34 33 56 30 49 33 31 37 53 41 22 43 33 34 16 38 45 24 31 30 43 27 62 46 42 36 30 43 34 44 26 30 37 35 25 37 52 37 16 31 41 49 32 30 51 37 23 45 50 49 33 22 18 32 32 40 30 32 37 28 37 41 34 25 37 31 37 46 42 23 34 39 41 27 42 35 42 32 20 29 22 31 39 34 28 45 33 54 30 19 33 49 23 34 29 46 27 33 37 40 24 23 39 40 29 48 39 27 41 29 38 19 41 40 29 47 29 44 30 48 41 30 40 27 29 35 32 34 31 36 28 28 37 28 30 45 19 65 37 22 23 39 43 16 24 37 16 29 35 34 27 33 43 34 29 29 39 24 17 26 40 31 36 41 43 40 30 40 26 25 36 29 29 26 39 39 27 27 22 30 34 16 40 42 30 43 20 42 33 13 36 47 38 29 38 21 22 29 37 39 29 38 44 37 21 48 28 39 49 50 36 34 28 22 37 30 38 23 33 26 37 23 37 23 27 36 65 26 17 29 55 47 33 39 47 41 46 24 26 30 61 25 39 37 33 36 27 33 32 36 36 33 30 25 19 33 40 36 16 23 33 40 30 34 38 19 33 47 31 36 29 59 34 36 37 36 40 35 30 32 33 43 29 40 52 47 51 27 56 23 26 58 35 25 36 45 37 46 48 27 28 43 45 46 37 37 25 27 48 57 37 38 48 41 16 41 16 44 27 27 16 36 35 43 41 45 28 37 47 28 33 57 44 19 24 33 51 29 44 20 24 39 25 37 32 40 12 46 30 39 30 38 33 37 27 31 39 30 22 51 26 41 18 26 31 29 41 41 45 40 36 58 32 29 49 25 37 35 48 37 41 22 9 51 24 50 33 29 35 33 26 33 20 30 54 41 43 34 19 20 39 43 22 34 36 29 45 23 36 26 26 54 32 25 29 53 30 37 27 39 41 33 42 35 44 52 16 32 24 38 20 26 38 56 42 49 19 36 48 57 36 31 28 25 41 41 32 51 30 33 35 51 15 36 51 25 30 40 28 45 23 47 29 27 43 26 55 51 30 23 35 38 48 40 19 29 22 29 37 30 23 40 32 33 33 22 51 43 31 30 22 45 26 25 20 58 39 30 63 48 34 30 27 24 35 31 46 55 34 52 49 26 41 22 38 34 43 19 34 38 30 26 33 28 29 47 23 26 23 26 41 38 45 45 30 38 31 42 33 31 32 42 30 23 48 37 34 34 20 31 32 44 20 46 43 32 26 34 31 17 31 40 26 46 20 31 32 33 55 43 26 54 32 31 25 23 39 28 27 36 24 26 37 26 33 42 47 27 33 26 44 25 33 32 43 16 41 24 29 23 23 31 44 28 33 40 19 19 58 32 30 30 25 38 28 28 25 58 23 52 57 45 45 32 61 37 34 35 54 31 41 37 42 32 46 44 43 40 30 40 31 33 31 40 35 22 29 13 19 41 50 44 33 26 35 24 31 40 19 43 35 23 19 52 36 39 49 41 26 41 20 47 39 31 44 27 49 23 33 26 45 36 46 6 33 25 31 47 48 37 36 37 39 39 34 34 43 29 24 47 37 29 30 47 48 18 34 33 20 37 26 20 38 34 41 46 34 26 51 16 24 47 34 30 53 32 26 40 37 30 45 31 33 37 26 22 33 40 30 29 42 30 37 38 40 26 43 35 43 38 50 51 35 37 48 36 36 19 44 31 54 36 18 22 13 37 31 55 45 36 37 43 41 39 27 51 29 27 25 38 29 34 38 29 32 44 34 35 33 29 40 23 26 33 27 41 28 43 27 47 29 29 35 13 35 46 31 48 16 35 38 37 34 28 47 53 30 40 68 22 22 32 49 29 37 29 40 38 62 49 43 37 27 47 29 22 43 24 29 26 27 42 47 23 45 17 26 33 36 37 46 34 55 37 35 41 30 48 31 30 58 54 34 35 44 51 26 37 33 44 64 22 40 47 43 51 26 29 44 34 36 30 24 39 30 43 44 31 26 45 38 31 38 17 36 26 40 28 27 20 44 38 23 36 19 38 44 31 29 33 29 29 30 37 51 15 24 29 41 30 43 37 35 35 37 35 34 35 46 33 32 17 26 40 16 43 30 51 33 39 34 19 26 27 43 34 30 38 23 31 34 27 28 34 43 44 29 35 22 22 25 49 35 20 38 38 23 53 38 56 31 35 16 46 24 51 34 33 37 44 35 33 29 38 34 43 23 26 23 21 30 47 31 40 29 51 44 22 37 23 41 42 37 15 33 18 47 30 28 15 33 22 28 31 44 30 45 32 27 33 31 36 44 36 25 31 32 40 37 23 41 41 46 22 40 37 41 37 32 23 40 40 38 20 29 74 23 34 23 29 46 19 43 36 29 24 42 35 34 43 33 30 22 22 43 27 34 32 46 47 33 39 35 16 40 19 37 32 39 49 36 41 33 19 30 38 36 36 37 41 27 28 27 39 45 37 29 33 17 26 30 37 17 48 53 38 35 34 36 30 33 23 29 15 33 19 33 45 48 44 9 37 32 31 43 38 33 39 34 49 36 32 53 23 10 41 51 47 37 57 35 30 51 45 27 50 31 25 23 9 48 44 38 38 33 40 43 38 41 43 30 10 26 47 49 36 38 29 37 36 27 32 41 34 34 40 42 30 24 59 32 35 29 37 26 35 40 43 25 34 40 26 31 46 41 32 36 39 39 42 29 38 29 33 16 33 27 33 16 34 45 13 23 44 33 54 34 46 49 48 47 34 36 40 16 23 48 33 39 19 44 40 40 18 22 30 29 37 31 45 47 30 36 55 26 31 46 53 34 29 26 27 30 40 32 51 32 30 53 30 30 35 29 31 39 36 36 37 23 38 35 52 10 15 31 41 28 37 44 36 38 33 9 52 46 31 51 44 48 43 30 47 31 54 22 31 28 54 44 24 44 43 43 33 22 29 37 18 20 17 29 37 33 38 30 33 36 20 49 35 26 22 29 41 52 45 35 28 30 22 35 30 54 34 51 38 51 34 39 15 33 21 45 43 27 30 30 27 32 19 23 40 27 36 40 51 38 26 34 46 23 21 31 51 41 38 29 19 24 24 43 30 35 32 29 36 34 42 43 31 30 51 54 33 23 55 53 45 35 46 44 51 12 45 29 22 65 33 29 19 36 40 32 44 58 31 19 24 43 20 48 16 37 16 26 33 25 23 51 19 23 41 39 38 32 17 35 51 29 35 51 24 40 15 37 21 24 26 29 37 52 37 46 35 45 42 26 31 44 50 55 22 29 23 23 26 43 38 29 43 24 35 20 47 29 25 33 16 37 29 31 31 20 45 33 22 54 33 47 29 19 37 30 33 32 40 30 26 20 31 26 47 34 32 40 46 30 9 26 27 45 26 39 44 44 27 40 33 46 41 37 21 49 29 31 48 33 37 28 32 29 42 30 35 57 25 31 53 37 40 23 13 55 46 40 42 20 37 43 48 33 51 37 37 34 32 32 37 33 16 47 55 29 27 25 38 33 41 25 45 31 30 48 35 29 48 35 45 43 37 40 54 23 40 53 42 40 44 15 45 19 39 19 46 33 37 43 34 23 37 41 25 23 37 34 38 35 53 17 23 40 55 23 42 33 34 39 38 49 41 41 41 36 27 29 23 33 41 27 26 53 44 37 38 22 19 35 34 43 37 39 27 43 43 36 37 28 40 37 57 30 37 19 27 40 24 15 36 29 35 34 39 25 26 35 29 29 24 24 35 58 35 40 50 46 45 17 23 31 49 54 37 26 37 27 29 36 16 34 60 21 37 35 51 19 37 19 37 29 54 41 32 30 40 48 37 43 39 40 51 29 21 13 43 43 43 30 41 39 33 16 28 47 40 36 30 30 39 33 35 36 21 39 39 42 47 31 26 38 48 15 23 29 51 45 45 23 30 35 29 28 27 43 50 22 47 33 34 19 42 34 13 32 33 27 50 39 38 30 27 27 50 24 53 35 19 34 43 26 36 42 42 23 33 31 33 52 36 19 33 36 40 29 41 23 26 26 31 23 38 29 30 27 41 21 29 28 37 26 36 31 22 38 43 24 39 45 24 54 44 19 36 19 51 29 30 30 22 36 27 24 22 40 16 29 35 36 39 40 37 55 36 22 30 27 27 34 42 17 25 35 23 19 39 17 42 55 29 30 37 29 32 43 26 34 29 44 31 33 44 42 51 26 29 39 31 25 45 34 25 27 44 44 25 20 41 48 19 30 30 48 35 24 29 44 30 50 41 27 22 39 49 20 19 20 32 50 39 57 30 43 58 41 23 33 37 57 41 40 35 40 45 54 52 47 39 33 52 13 17 30 33 17 31 45 23 19 33 31 30 44 33 25 43 29 43 42 37 45 45 28 39 42 53 22 23 39 30 51 55 36 30 31 40 23 46 38 51 36 30 32 36 41 15 41 30 37 47 32 28 35 39 26 26 27 47 51 46 26 27 27 43 33 23 27 40 35 43 32 43 37 43 47 21 45 46 29 40 43 26 47 24 27 30 37 30 30 32 30 37 29 58 41 37 36 23 27 40 41 37 30 43 40 51 40 30 39 54 32 22 30 33 51 30 30 36 37 29 32 3 23 47 37 27 26 28 43 26 21 30 38 31 42 23 39 46 39 31 30 36 24 52 22 21 40 30 30 37 34 33 29 32 30 22 38 30 30 38 48 36 31 44 37 48 9 36 50 32 32 27 24 54 19 29 30 21 35 51 27 30 40 36 23 22 36 50 29 13 16 35 18 54 46 30 29 40 43 33 43 41 27 39 26 40 39 33 37 34 39 50 40 23 22 20 26 33 33 37 34 35 36 29 29 31 41 36 39 46 26 24 40 29 41 21 27 42 26 31 11 23 24 55 23 30 23 30 33 49 34 48 16 44 57 23 29 48 41 27 30 35 41 30 35 34 39 43 41 30 22 45 47 28 11 47 41 32 40 45 30 23 27 32 39 47 36 30 40 36 33 19 27 51 33 40 44 36 27 29 26 26 26 28 46 33 41 21 39 34 31 33 48 32 27 27 44 43 49 35 27 39 43 26 7 22 27 29 36 37 37 34 15 39 30 27 26 26 35 22 36 21 19 38 36 40 23 29 23 59 33 32 33 44 39 15 34 35 51 34 40 25 44 37 27 34 51 26 35 34 47 23 35 30 52 35 37 34 20 19 23 16 30 46 34 42 37 43 30 43 37 33 28 54 28 31 58 67 44 45 47 33 40 40 27 26 20 16 22 37 29 45 33 26 33 36 16 43 43 29 30 26 46 22 34 49 28 32 41 30 46 27 40 47 27 52 37 35 44 23 41 33 50 42 23 54 24 26 34 41 30 41 32 35 37 23 43 45 23 15 16 35 37 17 32 55 35 41 39 26 40 43 22 27 46 53 48 37 36 33 41 29 43 33 37 35 37 56 23 22 47 25 27 44 22 29 40 43 51 37 34 27 20 27 29 36 36 47 36 33 37 34 37 53 48 25 26 33 38 35 50 28 30 53 33 41 29 15 33 28 44 41 44 41 27 34 34 37 31 51 22 27 30 58 36 32 41 36 36 28 25 30 34 27 48 40 24 41 46 43 45 33 36 35 30 46 20 40 65 44 43 30 47 31 40 32 31 33 24 30 37 28 32 28 35 52 27 44 33 36 47 49 26 38 34 21 38 49 27 41 31 35 23 20 27 39 34 29 30 18 20 42 30 35 25 10 55 30 29 30 44 29 37 36 32 37 54 25 22 17 42 45 37 38 41 41 29 52 20 28 53 31 30 43 30 32 38 25 43 55 51 39 29 21 44 37 28 50 43 20 29 29 30 37 40 27 29 35 25 48 38 30 36 41 33 42 16 44 40 39 28 15 44 23 35 37 37 13 45 29 42 29 29 29 36 65 43 26 27 28 29 24 43 40 42 37 42 43 25 43 51 26 40 22 40 34 41 43 18 37 22 46 38 44 54 37 33 40 37 27 37 33 20 29 27 30 35 24 43 54 39 26 22 54 43 19 28 38 44 41 41 33 49 38 36 37 45 31 50 47 33 40 33 40 37 39 23 40 37 32 48 33 47 48 45 39 27 45 37 32 36 26 43 32 37 52 36 40 24 41 40 39 29 30 34 37 22 26 35 36 40 21 34 54 43 36 29 35 30 37 47 47 30 31 34 33 16 38 30 51 39 29 46 36 45 28 39 40 23 13 43 26 34 38 33 30 32 37 46 44 44 26 40 29 33 21 50 54 30 44 40 39 56 48 66 27 29 26 37 55 31 25 36 35 29 23 24 16 27 44 29 38 45 34 23 51 37 41 46 33 15 41 33 35 50 45 34 28 43 51 35 28 58 45 23 29 43 19 36 44 53 30 37 51 27 45 33 42 30 30 12 30 36 22 33 24 58 43 42 27 43 26 32 42 30 65 40 43 17 37 20 37 33 19 30 42 23 37 33 24 29 43 23 30 49 44 18 34 48 38 36 35 31 18 33 38 40 29 27 27 32 33 21 32 23 50 37 32 51 34 23 51 29 36 38 36 33 30 48 23 29 48 30 37 45 30 41 36 37 29 33 30 26 40 32 37 45 43 37 49 33 23 25 44 26 30 40 46 50 33 33 30 26 42 34 41 39 13 40 43 37 37 29 28 58 41 37 31 29 45 35 26 26 37 30 33 28 33 39 39 38 16 37 57 43 33 30 36 14 43 27 46 44 51 47 51 36 23 19 29 37 30 34 23 30 53 44 41 13 37 27 36 23 30 13 25 47 46 44 40 43 49 48 24 29 23 36 20 39 38 33 44 26 33 54 18 16 42 50 23 37 43 23 39 27 20 55 41 41 43 27 27 35 37 31 40 40 37 31 30 33 37 22 32 26 31 37 20 37 47 37 47 29 20 23 57 37 42 33 23 28 41 30 31 36 34 34 24 29 49 25 39 49 36 34 29 39 30 45 32 38 43 37 51 27 44 52 33 41 41 16 33 29 30 51 55 23 34 38 36 27 36 33 36 27 47 61 27 33 44 36 23 59 29 39 35 39 25 45 48 51 41 33 26 29 41 22 33 29 48 27 29 24 43 16 37 32 42 29 30 24 32 37 39 27 27 44 24 49 16 32 26 51 30 23 51 50 45 39 31 44 37 34 37 27 29 47 38 43 29 28 25 20 27 48 26 32 40 32 27 30 41 29 22 39 33 49 37 43 33 34 40 51 18 36 29 27 49 27 34 32 30 27 37 36 43 31 51 47 37 48 35 43 28 57 32 23 30 26 63 46 44 36 36 44 26 47 19 44 28 49 34 34 45 47 26 38 37 14 27 12 30 51 33 26 28 14 32 22 48 31 46 30 42 51 43 37 27 43 40 18 47 26 24 33 41 36 34 33 56 30 24 40 37 21 20 44 34 35 30 32 44 41 54 52 46 33 27 37 37 20 64 33 31 47 50 33 30 22 41 23 33 48 37 34 50 39 22 38 37 37 25 22 23 30 32 26 44 30 36 46 45 43 27 62 34 49 29 48 54 40 26 41 29 29 24 27 26 30 52 39 45 53 36 37 40 29 16 39 26 44 43 29 33 33 23 31 24 37 42 43 30 39 38 43 34 21 17 40 48 13 12 46 19 45 43 40 40 41 38 27 40 15 30 48 38 30 39 47 45 23 26 40 28 30 56 37 32 29 41 30 23 36 23 34 59 40 30 31 40 37 21 24 38 13 44 30 54 35 23 36 36 31 28 26 58 23 43 29 36 31 33 29 30 34 19 39 27 39 32 26 31 43 40 26 29 56 37 17 60 22 31 36 27 43 40 51 41 39 37 40 29 41 50 34 30 28 44 49 47 22 47 32 30 42 30 34 61 34 43 30 29 27 38 33 48 29 46 45 19 37 38 38 26 41 45 38 46 29 52 22 46 37 39 34 40 42 50 37 33 18 27 41 44 29 31 33 37 33 32 21 30 16 26 42 25 23 33 34 38 33 34 33 51 37 29 43 24 26 15 59 52 33 31 52 37 50 35 59 13 43 35 23 44 39 24 27 19 30 47 31 22 22 21 23 41 27 46 10 36 39 43 40 27 27 40 51 22 30 23 30 27 13 31 33 38 35 40 41 33 30 36 42 29 29 19 27 23 40 32 27 37 36 31 25 34 51 25 30 38 30 44 29 33 39 16 39 43 40 13 30 19 26 32 38 40 30 44 21 28 30 10 38 37 27 41 51 42 28 34 37 21 36 48 29 39 35 42 33 33 22 22 32 23 60 29 27 39 23 40 19 27 29 43 46 29 30 34 45 40 50 48 36 44 35 37 43 16 27 36 26 34 45 41 38 20 47 38 27 41 20 59 25 15 30 23 35 21 33 23 47 46 42 26 38 25 43 34 17 38 33 33 45 46 31 34 41 44 31 54 23 29 25 46 27 36 37 24 27 37 28 36 42 31 48 46 32 36 24 31 34 37 34 26 39 35 25 17 51 18 29 37 22 49 47 41 36 53 37 43 19 29 33 36 33 20 37 46 40 34 26 37 23 36 39 35 38 23 26 44 33 45 52 44 41 36 27 33 30 50 42 29 35 29 15 17 48 40 36 31 26 30 33 26 29 48 26 42 41 37 31 24 23 37 53 48 36 37 20 29 40 16 34 37 40 37 27 40 37 26 30 26 45 36 43 30 51 37 31 13 32 32 52 37 20 36 49 23 22 32 29 42 19 26 42 37 34 36 37 21 35 41 36 30 35 31 40 46 47 22 39 43 38 25 26 41 21 16 32 23 24 56 22 33 43 31 36 36 43 24 18 29 26 30 27 29 41 40 32 43 30 26 30 41 50 34 29 58 32 48 25 37 29 33 29 29 48 59 29 37 30 54 35 43 23 29 43 18 33 45 33 30 33 33 27 39 34 35 27 27 41 49 32 31 29 36 25 24 42 30 34 27 36 53 29 37 28 21 21 61 41 46 27 37 27 43 29 31 26 30 48 42 33 39 41 30 40 30 51 33 50 45 37 50 44 25 39 38 30 43 36 17 55 38 65 30 29 19 41 17 46 19 43 36 39 45 28 26 30 37 19 38 35 42 36 39 28 32 38 61 33 48 43 37 36 36 26 33 27 26 47 34 29 25 23 30 39 33 31 22 47 40 16 31 39 10 22 27 45 31 27 45 40 61 32 42 26 35 43 32 53 41 33 40 38 36 34 37 31 42 29 46 23 29 27 25 26 33 18 19 43 22 30 49 32 41 19 33 36 33 47 37 15 30 33 37 37 41 33 30 23 29 43 34 20 29 26 23 36 46 34 25 50 16 41 23 37 21 44 38 26 29 39 33 23 41 40 27 37 29 37 48 25 41 32 40 29 31 14 37 21 32 41 23 34 23 30 26 20 31 38 22 62 26 35 38 51 32 25 34 12 35 33 36 45 40 39 26 18 16 30 59 30 34 27 24 23 36 26 37 51 23 37 34 35 30 24 34 35 32 33 29 41 33 23 45 40 16 29 40 26 43 28 17 25 33 43 34 43 53 16 44 6 69 53 43 34 23 30 45 43 34 46 26 33 31 60 33 40 23 33 51 33 26 50 30 22 45 20 27 16 42 22 38 12 34 40 36 45 26 41 37 22 33 39 33 40 32 26 37 37 44 30 16 32 39 31 33 30 43 27 33 35 28 45 44 43 43 26 45 22 23 45 33 36 27 37 49 36 43 22 28 34 26 48 35 39 35 27 42 30 36 22 27 38 33 36 44 27 31 31 47 49 32 40 45 44 44 33 26 45 35 37 37 33 26 46 34 40 51 45 35 15 33 25 25 43 50 40 33 47 43 34 30 22 46 44 34 38 35 30 40 38 15 29 63 30 27 41 38 38 43 30 51 17 32 25 46 41 42 37 52 49 37 35 16 15 44 45 34 21 40 35 26 33 18 37 16 29 33 28 23 44 40 46 28 33 12 27 37 38 54 34 40 22 50 43 49 43 39 29 23 33 27 30 31 45 33 33 3 59 30 22 44 26 43 43 37 41 36 25 22 27 33 34 28 55 23 38 18 19 42 40 39 40 23 53 26 45 26 28 38 29 15 39 26 35 43 36 42 37 24 37 16 20 33 43 16 36 20 30 47 29 32 29 49 44 44 24 22 26 35 27 43 35 17 36 37 40 35 25 26 42 29 50 53 36 40 44 37 40 35 49 36 29 34 36 27 25 44 38 51 32 27 27 50 37 22 24 26 39 26 23 31 41 49 37 45 34 21 33 31 23 31 41 30 27 25 34 23 35 22 33 45 38 40 31 35 25 30 38 41 47 32 43 25 27 33 42 26 38 45 36 37 48 33 49 28 36 12 19 41 43 22 19 55 53 23 46 48 33 30 37 35 26 26 46 47 45 30 28 26 32 36 16 54 31 46 35 26 33 13 20 49 21 33 32 47 26 32 15 57 38 37 51 43 27 34 23 40 48 37 23 44 31 44 37 36 30 21 44 34 50 19 31 27 37 38 44 51 37 39 28 33 36 20 30 30 26 23 28 30 26 46 44 39 23 33 27 41 23 32 42 26 37 37 33 26 53 45 12 36 36 53 45 39 34 40 37 37 51 43 29 43 19 20 28 17 24 27 38 35 27 31 35 36 39 34 46 37 23 44 67 35 29 30 48 50 33 23 24 34 23 23 27 54 40 50 53 38 37 29 39 36 19 33 44 34 37 43 20 37 33 36 31 32 37 40 45 29 43 56 26 32 46 33 38 35 49 54 25 43 33 40 36 47 33 33 27 36 36 36 42 56 34 23 29 46 40 24 34 30 24 45 46 29 38 40 47 39 30 34 24 46 40 17 23 13 15 30 39 28 40 33 54 49 41 53 33 38 28 33 56 29 19 38 46 39 33 51 40 34 31 47 40 37 27 54 37 38 23 33 46 37 29 56 36 41 23 41 41 21 47 28 24 27 24 19 35 44 9 51 33 44 33 22 29 23 11 40 40 35 30 33 47 50 40 41 44 37 32 51 20 39 48 41 49 27 28 33 37 43 36 29 36 48 39 42 36 27 40 30 15 33 15 19 39 37 36 33 34 38 26 37 67 31 39 45 19 41 23 37 47 26 34 47 20 43 48 29 10 40 22 22 32 34 40 32 15 25 33 30 29 38 33 55 24 34 58 36 27 26 33 37 30 21 30 30 19 43 30 15 29 27 24 30 47 39 37 37 25 37 23 26 43 37 33 54 34 34 34 29 27 23 37 41 26 40 22 24 24 36 20 32 51 27 36 50 42 45 31 13 40 29 35 23 31 27 38 38 29 41 47 33 33 22 20 55 33 40 33 46 40 47 36 31 56 36 42 34 51 32 42 31 22 35 41 30 48 39 37 34 27 52 48 39 40 32 35 29 27 23 26 27 35 34 19 24 31 35 27 24 34 41 37 76 29 40 31 43 34 29 30 52 49 23 40 56 39 21 16 19 47 30 37 48 25 39 40 51 41 25 37 30 37 40 40 33 38 45 34 35 37 24 37 40 27 27 54 40 20 32 43 33 37 47 25 33 27 47 37 18 40 31 40 25 30 44 42 40 27 42 30 43 35 41 33 30 37 42 22 42 41 42 26 30 36 31 46 40 23 30 44 36 48 39 27 36 44 34 30 43 42 26 35 30 31 19 44 33 31 38 57 35 36 26 35 33 41 36 37 23 47 35 39 40 23 38 59 41 47 23 16 37 51 45 33 37 23 40 31 37 23 35 28 27 35 30 36 37 36 36 43 35 39 17 25 42 38 35 33 28 49 45 40 30 38 20 37 33 45 49 28 48 40 46 43 43 27 22 37 42 51 26 44 26 27 48 37 27 23 33 44 33 13 24 28 35 26 42 47 41 49 29 35 19 17 18 22 28 41 56 27 42 26 29 26 40 29 34 31 29 47 30 30 37 30 28 37 26 33 24 37 33 37 19 25 37 51 48 30 29 27 27 54 32 30 57 27 55 22 32 38 43 22 27 22 35 38 51 23 26 27 24 54 29 37 44 42 51 30 43 26 31 36 40 26 21 49 29 39 23 26 29 33 26 37 31 21 31 24 31 45 16 45 17 43 35 37 27 49 27 41 38 21 33 37 42 11 27 29 47 40 52 52 30 45 48 42 46 34 47 46 35 36 43 51 39 19 43 28 37 40 20 36 32 19 38 36 30 45 38 18 37 41 46 45 33 36 46 27 34 40 36 20 19 37 48 37 29 36 32 34 49 47 31 31 40 20 55 38 54 40 49 36 47 29 44 25 34 36 40 45 58 23 19 41 22 17 27 33 18 30 44 27 52 23 9 51 23 33 37 26 52 39 68 35 27 45 36 48 37 30 44 44 23 39 37 22 30 30 58 37 47 19 51 27 23 27 28 29 28 37 24 21 13 42 26 31 37 36 23 29 43 25 48 26 33 25 36 41 39 48 41 16 36 29 33 27 29 30 37 24 34 27 41 44 21 29 20 33 41 50 20 33 20 38 48 41 47 26 23 46 37 50 32 42 23 39 37 21 38 27 27 25 58 53 43 46 27 35 40 39 34 24 44 47 16 31 40 45 31 33 53 39 17 43 19 33 47 27 40 37 33 48 58 33 39 29 43 37 39 38 38 39 32 63 44 40 44 38 37 41 36 33 32 37 23 60 40 29 40 35 45 40 59 32 44 43 45 36 31 36 40 23 34 41 41 48 36 45 47 29 37 28 29 31 44 48 33 17 22 51 29 37 30 37 38 17 40 26 26 36 36 28 28 43 55 34 26 51 21 40 52 29 33 44 37 30 31 22 26 25 32 25 43 51 47 22 40 30 26 26 28 48 31 29 22 30 34 29 44 45 30 41 33 40 29 36 34 27 28 28 44 26 24 50 51 48 29 30 59 26 32 37 38 30 44 51 23 37 31 50 27 30 46 45 33 34 36 34 41 52 27 52 34 19 24 23 36 59 48 23 40 39 52 48 37 41 41 30 34 36 51 30 29 32 37 44 37 40 26 19 41 38 47 26 39 19 21 22 43 31 34 47 16 16 17 36 30 40 30 19 37 46 51 36 24 34 43 35 25 13 20 22 20 16 34 29 30 36 37 51 31 40 26 21 33 43 33 23 45 45 37 49 42 23 46 19 36 33 47 20 35 36 46 23 34 27 37 37 27 33 19 30 29 33 37 16 47 44 25 27 29 22 34 25 34 47 32 41 29 27 38 40 33 38 37 19 40 28 50 44 37 40 38 29 41 28 39 48 26 17 29 23 23 32 33 47 41 40 35 23 30 40 26 26 21 43 19 22 30 51 57 26 19 41 40 20 43 19 44 26 41 41 48 27 28 33 33 51 33 18 37 26 36 31 29 40 37 30 30 40 19 26 30 32 46 36 19 27 25 40 26 36 48 31 24 56 41 27 35 37 41 26 30 46 36 20 49 37 35 29 39 30 32 35 22 37 42 34 30 32 37 37 22 37 12 32 26 27 45 44 22 39 42 46 37 37 45 43 19 35 31 35 33 33 37 24 36 33 28 44 33 15 23 47 22 16 44 36 36 25 32 31 33 34 23 30 40 31 27 50 38 26 40 42 39 25 23 25 31 40 29 43 37 30 47 44 30 15 37 34 16 34 20 33 57 29 39 44 34 44 31 42 22 34 22 68 37 37 45 39 45 33 37 57 49 30 23 36 42 23 27 37 30 47 21 12 37 36 15 23 28 22 37 31 45 32 41 40 26 9 49 44 27 51 26 19 18 35 33 44 37 34 15 36 45 26 27 19 38 34 49 30 20 40 33 33 16 43 33 43 22 42 27 41 40 29 57 56 49 33 19 44 36 52 38 22 44 30 31 51 35 31 24 45 37 56 33 43 37 27 36 44 47 39 30 34 40 21 22 44 51 24 48 24 29 23 34 30 31 37 36 22 36 46 34 37 30 13 45 23 23 37 43 27 36 38 19 23 40 30 23 25 42 42 39 40 30 31 33 26 25 33 26 30 41 21 23 23 29 37 29 47 51 26 16 40 30 48 44 46 30 37 52 12 28 37 44 23 20 51 25 39 43 36 36 24 27 29 42 20 57 47 29 48 33 37 36 24 19 31 39 37 37 30 37 36 34 44 42 20 39 25 39 23 30 39 33 52 26 20 16 27 43 27 32 26 37 23 40 33 46 38 51 40 41 23 25 16 51 16 50 52 38 39 36 32 29 48 30 47 23 43 39 19 19 25 39 31 47 34 38 21 15 36 47 43 38 43 37 26 34 69 34 21 20 54 35 25 37 47 34 30 34 38 46 41 43 27 33 44 37 21 26 26 40 28 45 23 49 37 23 50 55 39 40 26 31 30 20 33 36 24 33 31 26 30 23 36 31 33 22 28 33 27 33 38 37 32 26 30 41 51 34 38 27 28 35 25 22 35 55 31 27 16 45 36 29 24 40 13 34 44 45 12 35 31 35 15 46 44 39 47 37 46 30 29 38 49 37 23 40 26 22 36 45 38 24 33 33 25 28 34 39 43 43 36 27 20 32 27 37 39 22 32 44 49 55 43 23 29 33 40 36 28 52 34 23 28 37 29 47 50 37 36 59 33 43 45 37 49 38 23 28 43 37 19 45 16 34 34 32 34 34 30 26 26 41 48 45 34 27 24 30 33 37 37 16 46 13 41 28 47 36 22 33 44 33 27 41 19 35 30 39 33 55 28 27 29 29 49 34 28 36 33 20 32 37 27 41 62 39 42 40 35 30 25 41 19 29 45 26 23 37 29 27 51 28 20 30 20 43 50 52 40 24 41 27 34 45 34 19 52 46 31 29 45 38 40 34 43 41 29 19 53 31 51 49 33 34 36 51 30 27 23 30 33 31 40 39 34 43 30 23 41 30 31 20 43 44 34 38 39 30 20 41 29 40 49 51 43 33 39 37 37 50 25 39 29 39 40 29 37 26 37 38 35 27 36 18 30 41 34 33 32 59 40 27 16 32 58 30 43 33 25 29 25 48 30 31 40 30 30 43 33 54 37 43 50 40 37 28 44 37 47 46 37 26 27 45 37 32 37 32 28 37 40 27 44 41 24 29 50 40 34 24 32 38 40 26 48 59 30 34 37 19 56 37 16 36 44 40 37 36 24 27 26 19 40 29 43 37 38 45 24 37 37 26 36 37 35 25 10 38 29 40 55 30 30 29 29 37 20 50 19 23 37 35 28 23 23 46 44 29 26 20 23 34 36 26 28 48 30 42 33 22 36 43 42 41 36 43 44 44 64 36 20 37 40 41 47 34 20 15 24 31 29 41 44 30 40 36 50 34 45 34 36 35 29 37 37 36 57 27 34 34 41 47 25 48 29 34 50 36 22 31 51 24 33 37 16 47 43 30 31 39 33 29 51 36 36 22 31 34 31 39 13 44 27 65 34 40 34 37 53 49 41 34 25 24 20 34 40 45 20 30 23 33 54 17 37 49 22 43 54 33 26 33 40 46 32 25 32 32 44 46 23 33 9 37 35 39 27 26 34 31 50 37 46 26 20 39 30 57 24 20 43 31 51 37 41 33 33 30 26 34 36 41 30 27 32 45 36 27 31 51 35 23 51 45 49 30 33 42 45 57 58 58 3 33 31 26 16 31 30 41 51 45 33 54 26 36 34 40 59 19 34 49 29 51 41 48 33 34 33 29 30 41 31 44 33 21 15 33 33 41 23 40 20 47 27 23 44 33 41 41 43 36 31 43 54 45 39 42 31 34 44 43 44 26 36 44 31 31 30 30 29 40 37 37 32 36 20 43 44 36 37 10 34 42 41 36 34 38 44 9 29 43 39 41 48 22 23 26 30 50 43 40 25 31 54 26 34 40 19 17 35 30 19 34 29 39 60 34 41 43 51 23 37 35 25 19 45 23 20 12 32 51 37 26 22 38 31 40 29 23 23 41 40 45 22 28 30 40 43 30 33 38 38 39 33 31 30 30 40 36 48 24 49 33 31 41 43 37 45 51 34 41 40 50 39 24 40 20 59 28 35 29 50 39 29 34 13 41 42 37 43 27 41 30 29 34 37 47 16 59 16 30 30 30 30 38 41 29 48 44 30 45 52 52 38 37 45 23 36 42 23 28 27 26 38 49 50 32 43 56 37 23 40 35 27 34 57 51 52 14 16 21 28 36 45 26 40 30 44 44 38 56 33 28 37 28 37 43 28 29 27 44 30 30 34 43 29 30 45 32 30 29 47 31 37 44 29 35 33 24 26 56 43 41 38 29 33 43 29 33 35 37 30 40 34 44 37 55 26 39 30 25 30 33 31 40 23 28 37 29 29 42 27 25 30 37 33 36 35 33 58 33 37 37 38 38 33 37 51 60 40 41 44 29 19 38 34 38 51 48 39 29 37 32 36 37 40 41 58 47 40 26 37 37 40 55 29 40 33 36 40 48 43 23 38 49 46 42 32 34 19 38 43 37 41 37 30 31 31 48 40 33 16 40 34 36 36 27 34 34 58 57 23 58 33 6 38 56 41 44 44 34 38 29 39 25 44 13 37 19 23 41 26 47 37 34 30 18 41 31 33 24 29 21 48 44 35 35 38 35 46 35 23 48 39 29 40 29 26 22 42 40 21 30 24 37 26 51 33 16 27 20 39 36 44 12 32 44 60 30 27 37 43 15 31 39 31 38 36 39 36 29 38 26 40 27 21 17 45 38 28 19 39 27 61 52 36 49 32 32 50 46 27 35 40 17 30 46 40 19 25 44 29 23 35 16 38 22 38 37 23 47 22 33 44 38 35 35 46 23 59 50 33 45 43 33 32 26 37 35 37 44 33 43 19 27 40 44 33 30 20 37 46 30 34 29 31 38 27 30 40 42 27 58 54 39 38 43 16 31 38 32 45 39 23 31 32 51 53 24 30 35 9 22 56 46 47 41 52 62 35 34 22 33 36 40 32 31 30 55 41 26 38 41 34 38 33 37 43 26 32 40 29 30 33 30 31 44 45 26 34 9 31 21 35 23 43 29 45 37 29 23 34 42 34 45 52 36 28 32 36 34 29 40 29 31 30 34 24 31 37 12 41 39 27 35 30 26 25 23 41 45 34 41 31 23 31 16 29 30 35 42 49 42 29 45 44 34 39 45 33 25 66 40 30 51 49 27 43 27 33 34 33 37 40 32 27 38 25 43 36 29 38 26 37 37 59 36 16 38 30 31 55 30 22 19 24 16 33 28 43 26 37 33 34 23 43 21 39 31 33 27 35 32 29 52 27 21 33 27 37 47 48 24 29 21 37 37 26 43 34 23 29 37 33 35 40 48 39 22 40 49 45 53 35 24 36 38 32 28 33 55 35 36 51 45 36 14 47 35 28 23 22 24 45 37 33 39 30 31 29 27 27 23 46 30 31 23 9 21 43 29 42 40 39 33 33 45 33 37 29 22 26 60 41 23 36 45 37 32 32 37 43 34 42 25 48 24 37 37 36 29 29 33 43 40 43 34 31 43 19 59 51 43 21 31 24 56 35 26 35 19 46 50 49 51 33 45 24 39 50 37 40 26 35 26 35 39 29 19 36 36 28 24 24 29 40 33 23 27 32 33 27 38 20 32 40 32 29 28 51 33 23 55 19</t>
+    <t>N(1.1016, 11.599374010695577)</t>
+  </si>
+  <si>
+    <t>3 28 3 -1 5 18 1 -9 -27 -5 22 -13 -14 -5 -20 -14 4 3 -24 6 7 -14 -6 3 -3 -26 8 20 12 -10 2 -8 -12 -23 0 25 -3 -4 7 8 -18 -7 13 7 -4 -6 -11 -5 -8 11 -10 -13 -16 -7 -7 21 3 -1 10 10 -20 -7 -8 10 6 -14 5 28 10 -17 14 -10 20 20 8 4 17 -18 30 -20 20 7 28 10 -1 14 -8 13 -6 18 -20 4 32 -11 -17 -4 -18 -6 7 -4 -6 6 -7 1 -14 37 11 -4 -2 7 13 -12 7 14 3 -9 -10 -8 -2 4 -2 4 1 3 -19 -17 -8 10 -8 -8 18 -6 -10 7 14 -1 -18 -6 0 21 -3 3 12 -5 3 -11 16 -16 -1 -3 11 -3 -7 5 0 -15 13 -3 -6 8 -7 -6 7 -6 -19 4 -14 -10 17 0 -4 -2 -8 14 5 11 -4 6 3 -16 14 5 -3 -3 -14 -9 -6 -17 -4 -5 -3 -3 13 -14 26 -1 -1 -7 8 -3 3 23 17 -24 3 -14 -12 19 -4 -12 -12 10 4 27 4 -12 2 -3 10 -2 -4 6 6 -5 18 -3 13 7 6 15 -15 14 7 16 18 -2 8 6 -13 -17 3 10 -12 5 -5 9 -31 -9 -3 -6 10 10 -2 -11 -3 -14 -8 16 17 5 -17 31 -11 23 -7 -14 10 7 19 -9 15 -4 3 10 -11 7 5 -7 -23 -3 -1 11 18 -3 -9 21 -18 -4 -7 -7 -6 -7 -32 -3 7 3 -11 -5 -18 -19 2 21 14 1 31 -18 8 -14 1 8 -20 -24 -3 6 -6 5 14 16 -1 -9 7 -16 14 -9 -10 -31 3 3 -17 -7 -3 18 -4 -4 14 -11 -15 14 -3 15 1 -8 -13 -23 8 20 3 6 3 34 -2 -4 8 8 -10 -13 3 4 -3 -8 -4 7 -10 -12 3 10 9 -9 -9 6 -11 10 -7 -11 -3 6 -1 -25 14 18 -31 9 6 6 -3 -5 6 14 5 -14 -3 11 -12 12 6 -10 17 -9 3 5 3 0 4 19 -3 3 -14 -7 -4 -2 -7 -25 -3 -29 -18 -7 6 -20 -3 -16 -18 3 20 -2 -4 7 14 -14 -7 -7 -3 -1 3 -10 -8 6 -17 -3 3 -7 -14 -4 -3 9 -5 3 20 14 7 -17 -15 -7 9 -11 -4 -2 -19 25 3 -14 8 11 14 4 -22 12 -3 -7 -8 -10 -3 9 7 -3 -10 -17 26 21 -14 3 10 13 -13 14 17 1 3 3 5 -10 -6 -16 -23 17 -5 2 -9 0 -6 -14 -3 4 -7 -2 3 3 -4 -4 7 2 8 -6 7 -3 -16 3 -7 12 -3 -6 -14 -1 24 -3 3 10 -2 3 3 3 -1 29 24 -6 1 7 -3 -13 18 1 -6 -18 5 -4 13 -4 3 -23 14 -3 1 3 23 14 -3 6 10 6 -5 -6 -13 3 -21 0 3 -2 -14 -14 10 4 8 11 -4 9 -13 10 5 -37 28 -16 -5 7 6 3 7 11 7 18 24 4 7 -6 2 2 8 9 -3 13 -6 -6 -6 -13 3 6 4 -14 8 -26 -2 -30 8 7 -10 -3 -27 -12 -6 -3 6 16 -18 -13 -2 -9 -24 -23 -4 7 36 -3 -3 -22 5 3 1 -7 1 9 -4 -4 22 9 -6 3 -3 6 3 7 17 -3 -18 6 -7 8 -3 8 -6 7 3 1 3 -8 -6 3 -11 -11 8 3 7 -3 6 -6 2 -10 -1 6 0 1 -9 -6 -20 11 10 -3 -17 3 2 -18 -12 -4 3 -6 12 15 7 10 -5 1 -11 13 11 7 -14 -10 12 -4 -8 -6 -13 -20 -22 4 9 4 -2 1 -11 -13 -6 -5 -6 20 3 31 10 18 -10 6 -24 -1 -3 -17 -8 -13 2 -16 -6 3 -3 -9 4 -10 9 4 7 -16 -1 14 -5 -3 -4 21 -27 -7 -11 4 -1 9 -7 16 -3 7 -6 -4 7 18 3 -11 13 24 14 6 -2 -1 19 -17 -10 -4 34 4 -2 9 9 2 8 -19 9 -6 3 -6 -17 1 -3 18 3 10 -14 10 -7 -3 13 20 6 3 -3 22 -14 -7 -6 3 0 24 7 11 -3 2 7 -1 5 -7 14 9 -9 11 -7 -14 3 -16 3 14 7 7 2 -31 11 -4 6 6 6 5 -7 -4 9 13 7 3 -11 9 14 -11 -7 -4 -2 -2 -18 17 -14 -19 7 -1 15 -6 -17 3 -4 11 12 -9 -3 -3 0 17 -10 17 7 -2 7 -17 10 -15 10 -14 -10 12 -5 -8 -7 12 4 -9 -6 -8 4 -3 -6 -8 -10 -13 7 10 -16 -11 7 18 4 -1 -10 13 -8 -3 -10 -4 10 21 -3 21 18 8 4 -10 -10 -19 3 -3 4 -11 -13 -8 5 17 9 10 -3 -20 11 -31 26 11 -1 -3 -4 6 16 -16 -21 -9 3 -12 -6 29 15 10 -7 15 1 -14 4 12 -10 -3 7 9 3 7 -4 -10 -19 10 4 7 -7 7 16 8 -6 13 18 18 7 -3 -17 14 -6 -14 10 7 1 7 24 -8 9 -19 0 22 7 -3 9 1 -6 7 7 -20 -9 -11 24 2 17 15 -3 -8 3 3 -8 18 -11 -16 11 20 -8 4 7 -1 -6 -7 -6 18 -6 17 13 14 -3 -17 -17 6 -10 -6 -18 -4 -20 3 10 -14 -3 20 4 -11 -4 11 7 3 31 -18 4 11 10 -9 28 -21 -3 -3 11 -6 -1 13 -2 6 -6 3 17 18 5 -3 -1 -9 3 -6 -10 4 -19 6 -2 -6 -3 -3 2 9 9 12 -7 10 14 -4 14 7 18 -7 -4 4 11 -9 -1 10 19 4 7 -9 8 4 -20 -10 11 8 -1 -3 4 -1 -7 6 17 -17 30 12 -11 -3 -3 -9 3 -13 11 -6 9 4 -3 -3 -3 4 3 1 -12 -20 4 -14 27 5 -7 -10 6 17 6 -11 -3 5 -18 4 2 10 -6 6 3 16 5 -16 7 -2 -6 -2 0 -6 -3 16 -5 8 11 3 -10 20 6 -27 23 1 7 9 10 -7 19 -7 18 -6 -21 -14 20 3 11 -19 -10 -11 -15 9 4 3 12 -5 -37 16 -3 23 11 -10 -1 3 7 -6 -3 -15 16 10 -10 -4 2 3 -7 18 0 7 -6 0 -13 12 7 4 2 1 -8 -26 -14 3 11 11 -7 -7 17 9 17 14 -10 19 -20 3 8 2 10 -13 9 0 -14 -3 1 -7 7 14 -3 3 -10 10 -3 -8 -15 -6 2 10 -1 -14 6 17 1 0 2 3 4 1 11 6 -14 -23 7 4 3 -3 28 -10 -21 -10 4 4 3 11 -9 14 17 -4 -20 7 -21 -14 2 -3 10 -19 -14 -10 -24 -10 6 -4 8 -7 -7 -13 11 -10 18 -18 32 -31 -24 6 12 -7 -11 10 3 19 -14 -7 14 3 -3 27 -14 3 3 12 -7 -5 11 7 -3 -7 -6 10 -17 6 -13 10 20 3 -14 13 -3 -21 3 -3 -24 37 10 28 5 15 4 8 -6 7 13 9 -15 -2 25 -12 7 6 12 6 -3 -2 13 10 6 -19 13 -3 4 18 9 3 -5 -7 -12 -17 -18 -4 3 2 1 -4 3 -3 -6 -13 -3 15 1 -1 17 -22 -5 0 -6 -4 3 3 6 2 -10 2 4 11 14 7 13 10 29 -3 -10 13 -26 -9 6 -17 1 5 9 -15 -17 7 -7 -21 -5 3 21 -20 -15 -10 -20 15 -14 -17 -2 -4 17 4 5 3 -17 19 -5 -4 8 -20 -12 13 1 3 4 29 -3 -7 -1 7 14 3 -2 -2 -1 3 3 -11 5 30 -3 -3 -14 -3 -26 -1 30 -19 -3 -11 -18 -3 -3 7 3 -4 10 16 -14 -5 14 3 -21 -3 -6 11 -7 4 7 -10 7 -6 12 0 -1 3 8 8 -13 3 -17 3 8 -1 14 19 -2 -7 2 -9 16 8 -24 7 -5 16 -4 -4 -6 4 -12 -8 17 8 12 15 -11 3 3 6 -3 30 -8 -14 -8 15 -2 10 21 8 23 0 -12 3 8 -21 14 6 2 6 6 23 15 -10 20 15 30 -21 10 6 7 3 -20 -3 -2 -3 2 6 -3 8 7 -1 2 8 -11 14 -13 3 11 15 11 9 4 -18 11 3 1 6 3 -3 11 3 -1 4 2 -3 26 8 -13 5 -8 -10 -5 3 5 7 -4 8 11 3 22 -4 -17 7 14 2 -27 18 13 -31 17 -3 31 3 -4 -18 32 -3 -6 20 7 -23 -5 4 -8 30 -10 8 3 -4 9 11 4 6 17 8 26 1 10 -15 5 8 5 11 19 -20 7 -4 -6 -16 9 5 -24 19 3 14 3 3 17 -11 -4 6 20 1 -28 -7 -7 17 3 28 3 -11 -27 10 18 -5 -7 7 -9 7 -7 18 -3 6 21 -11 -4 -2 7 -10 -6 -6 -21 6 1 -14 -6 2 -7 -2 -9 -7 -3 11 -9 -1 6 7 4 8 10 -3 -3 6 -7 -7 13 -3 4 14 -5 -1 -3 14 -5 3 -9 12 3 -8 6 -7 7 -2 -14 -14 -16 -20 7 -6 16 -24 14 -34 7 3 -7 3 7 -20 10 -12 12 -3 7 34 -9 20 22 13 -4 -3 12 13 6 15 5 -24 15 -1 7 3 3 6 -6 27 3 -9 8 -7 -3 1 15 9 6 0 7 23 10 21 -13 -1 -9 -15 -8 -13 6 -10 4 6 -8 -3 3 -10 15 11 17 3 -11 -21 11 11 14 4 -10 4 1 6 -2 -15 -5 -21 18 -4 -8 11 26 18 16 -3 3 5 -6 7 15 -4 7 -13 -20 -7 -3 4 -15 5 11 2 15 7 -3 -13 14 7 21 13 1 6 -23 -4 -5 18 -27 12 4 3 7 -13 -5 7 -15 18 -31 -3 10 -21 3 -14 -23 -3 -9 8 14 -8 -9 15 8 21 10 17 7 -4 4 -3 -10 -14 13 7 6 -3 3 -9 17 12 -15 9 21 21 3 -3 19 9 -11 18 -3 -14 16 -14 7 15 -2 3 6 8 -3 -3 15 -3 -8 -7 6 4 -1 8 -14 -5 20 6 -5 6 -10 17 -13 17 7 -30 7 11 20 10 3 2 -3 11 14 6 17 -10 7 -3 2 22 18 13 18 -6 17 3 8 -2 28 4 14 -21 2 12 -23 -13 -5 -13 -4 -5 -6 -6 -3 -17 27 5 4 -14 -10 1 10 -8 9 3 -21 -18 15 17 -3 4 13 -16 -9 -4 10 7 10 -15 16 7 -4 24 0 28 9 -8 7 4 -7 -10 3 6 14 -9 -6 3 13 -3 13 3 -10 34 14 1 11 -12 -7 3 3 4 -3 5 6 3 8 18 6 4 5 -6 -30 7 8 8 -1 13 -2 1 -21 -2 -3 -7 7 -5 -9 -9 -2 4 12 17 5 20 -12 6 -3 21 -3 4 7 -5 -4 -11 -3 4 -14 5 10 0 15 18 7 -3 14 6 -7 -10 15 8 -17 2 16 -4 -3 14 7 29 4 -7 -14 -5 -13 -3 -3 -3 -6 5 28 10 11 -14 -1 -7 12 7 3 3 -18 -7 28 19 -24 14 -21 5 -2 0 10 12 3 -2 7 10 9 3 6 -18 10 6 5 -14 0 11 -5 -2 10 -3 -17 -4 -4 6 3 14 -3 -2 18 18 -9 -4 15 -17 8 -3 -18 5 -14 -4 -3 11 -1 4 -11 -3 17 -1 -3 11 -2 -18 4 -3 3 34 -9 -1 -3 -27 -7 7 -3 -6 3 3 -3 6 7 3 -6 -2 -4 -19 -3 7 -6 3 -5 7 9 -7 20 -3 -14 7 -3 -8 3 1 7 -2 10 -13 -2 2 -1 -6 -2 -1 3 -9 -8 17 -3 7 -3 -7 -3 19 24 10 12 -5 7 8 21 5 -4 -9 7 -14 4 -1 -5 2 8 26 -1 20 5 -2 3 -3 -3 -7 6 6 -26 -2 -4 -8 6 -2 1 -2 10 33 4 8 1 13 3 5 -8 -6 7 -4 7 3 3 17 8 -13 23 -4 4 -8 8 15 -6 6 7 -4 1 3 -15 7 7 25 2 3 -2 28 19 -13 16 6 -3 -4 7 3 6 13 14 7 18 -3 -2 -3 -2 28 3 -6 14 -1 13 1 7 4 -24 2 2 11 -11 -13 6 -14 -2 20 14 11 17 -17 -7 -14 -18 -18 6 9 -3 4 10 -11 -7 12 -10 0 -1 -11 8 1 8 7 -3 6 -14 6 -3 -6 -3 -2 21 -10 28 -14 -6 -4 12 14 28 -7 19 -7 -3 10 -16 0 -3 -4 6 11 -6 -31 -6 1 -2 -14 -9 3 -7 -12 -13 -20 -5 24 8 -20 -8 -2 -10 -9 -9 7 -4 16 4 0 -16 -7 -2 3 10 25 0 -29 9 11 -3 4 -3 -3 4 2 17 3 15 -21 -17 3 -6 -17 -7 -1 6 1 -18 6 -24 20 -11 -10 10 6 17 4 7 3 5 6 17 -3 -8 14 -22 10 22 2 -5 12 7 19 13 -5 -7 -11 26 -30 -2 6 30 -7 11 -14 10 6 14 16 7 6 9 -1 -24 12 -9 11 18 7 3 7 -34 7 10 -4 -13 -13 -5 1 -14 -17 -11 -5 15 3 -2 8 15 -3 -12 4 0 -5 19 8 8 -5 1 0 4 -2 18 0 14 6 -18 19 -3 -9 7 3 2 3 1 -5 -25 18 6 -8 10 -4 -3 7 30 -7 -10 3 1 -2 17 -3 -14 -8 -7 3 -3 15 -1 18 -7 20 13 -1 -9 25 12 -5 -3 8 3 -10 3 -19 21 6 22 -6 -2 12 -6 3 -23 13 6 12 7 11 -6 -8 2 -3 -6 27 -13 3 1 -2 -9 11 5 -15 -13 27 -3 -10 -11 -3 -12 -3 16 -15 -3 10 -4 3 -6 2 -14 13 17 -3 13 -3 -5 3 -14 13 -11 7 -18 -7 -3 13 8 -3 -16 3 17 -3 11 -3 -14 -16 7 -3 -3 7 4 -6 7 19 -9 3 6 -3 3 -14 2 -8 -2 1 -18 -21 24 -6 -6 3 7 23 9 -3 -12 -3 1 34 -3 20 3 -4 -21 -4 9 -10 24 -1 23 -6 -4 2 -7 -6 -3 -10 -25 4 -3 -17 20 17 -11 3 -3 -6 -6 20 6 8 -6 -15 -12 19 -18 3 19 -2 -4 11 -22 -3 4 20 -14 -1 4 8 -14 14 -21 4 15 4 -3 26 14 -16 1 -3 -10 -6 -6 7 26 -10 -3 -3 1 12 4 6 9 -12 -4 10 2 -14 -9 7 -10 -6 7 -2 9 3 18 -5 4 -6 3 3 0 3 -10 -9 -8 7 3 3 5 1 -11 11 -6 3 13 -1 7 13 -12 -3 -9 -21 8 15 -3 -2 6 4 26 27 -2 5 6 -3 3 19 3 6 -20 32 4 3 3 -6 13 -8 -3 -3 10 10 13 -7 7 14 -3 -9 -4 -5 -4 -9 -17 3 -7 -19 10 -13 -7 -10 19 -14 9 10 13 -5 -7 -22 6 21 -5 -1 10 7 21 6 5 0 -10 -3 3 -18 14 -4 7 14 4 3 4 3 -12 6 20 -3 -9 -3 3 -8 7 -4 -3 -3 3 -11 9 -4 11 -8 10 22 15 27 -12 -8 -6 -3 -3 20 8 20 17 6 -11 -13 -4 -15 -20 -2 14 8 3 10 -6 6 5 15 4 13 -2 5 -3 -15 -31 14 -14 -2 -5 -17 6 -9 -3 -3 -10 10 3 4 -4 -6 -22 7 -17 -3 5 -2 -10 -4 10 10 15 4 6 -6 -18 7 8 -11 -8 23 -4 -5 2 -3 6 -5 8 7 -16 -15 14 -13 4 -27 -5 -3 18 -2 20 -6 -5 -3 -6 -10 25 -7 12 -3 -8 -6 8 10 -4 -14 -6 6 2 -6 3 -3 -5 -15 -8 -3 4 8 -17 -1 10 16 20 -7 16 -24 13 -9 6 -15 -10 3 28 -17 3 10 16 -3 -11 -9 -12 16 5 -2 7 14 -11 -10 13 -11 4 17 -2 -7 18 20 3 8 -6 6 -27 -6 -3 -18 -6 1 8 -11 1 18 -2 20 -8 1 3 7 20 -9 10 -14 -6 1 3 -2 -3 4 27 4 17 -6 -11 -15 -8 20 11 4 15 6 3 12 11 15 -3 -10 4 -13 17 20 1 3 -14 -6 -3 26 -16 3 15 -3 20 -20 -3 7 6 15 -7 -3 24 -6 16 -5 -3 -17 -6 3 -11 0 -3 -3 -10 -14 -15 2 17 7 1 1 -31 -6 7 -6 15 5 3 -3 20 -1 -14 6 -6 -14 6 25 10 3 17 -1 2 -8 17 -1 3 -15 -11 6 3 -3 -7 17 2 -1 11 8 9 13 19 10 -8 -17 7 -3 9 3 16 18 17 13 -7 -1 -8 17 5 6 -8 11 11 -7 -9 10 1 17 4 3 -9 9 -7 3 7 3 6 5 3 13 8 -6 7 6 9 24 -13 -7 24 13 -17 -13 -11 -7 1 17 -13 -24 4 -11 7 -7 5 0 -7 -8 -17 7 -8 15 4 -6 -7 6 10 28 -1 -6 -3 -34 1 -10 0 -7 20 3 -3 4 28 7 -1 7 20 7 1 14 7 3 5 3 13 7 9 13 21 -5 7 6 4 6 17 3 21 4 -23 14 10 -8 0 -21 22 -6 28 -17 -3 -1 14 18 11 -21 3 -18 -9 -2 -8 13 -10 -7 -11 -6 8 -10 27 -6 5 -6 -10 -3 -4 16 2 17 -14 -10 -17 3 -3 -7 3 4 11 -8 7 -14 -17 17 -24 -7 3 30 -28 7 -1 -6 11 10 15 1 3 10 -7 -1 25 17 -12 -3 -3 -12 -8 10 -1 -15 -2 3 -24 0 -3 6 13 -17 6 23 3 12 -17 14 -3 3 10 3 3 4 -11 -8 -11 3 -5 -12 -11 -10 9 5 11 -7 11 -2 -8 5 21 2 3 -11 2 14 10 22 10 3 3 5 7 2 -3 13 -3 -2 3 -1 3 7 4 17 11 9 -7 -5 -17 16 -10 -6 25 -17 4 22 -3 5 9 19 8 9 -3 -12 14 4 -6 -19 11 -5 -3 -20 -23 7 9 6 -20 1 31 -15 13 2 -2 -6 20 -17 8 7 2 -14 2 12 10 5 20 3 -7 2 2 3 30 -20 14 -16 3 11 5 7 -3 17 5 -8 1 20 -5 -3 5 7 1 4 17 -23 -21 -24 -3 13 10 16 -4 6 -7 -7 18 -29 -1 -3 -6 4 -3 4 3 -4 -14 30 6 20 -7 5 9 11 -21 3 -3 -7 1 -11 -6 -9 15 -3 -4 -7 13 4 23 -6 11 19 -11 17 5 -9 12 -16 8 7 3 8 -15 -10 4 -3 7 -7 3 -3 -21 8 20 -9 2 7 14 -17 7 20 -5 21 2 -14 5 -9 7 -7 10 -3 0 -4 6 -11 3 12 21 -10 12 18 -3 -2 -28 -24 11 -6 -13 7 -3 7 -3 9 8 -17 -4 -22 -27 3 -3 11 -8 -10 -14 -8 -14 -6 8 18 -7 -1 7 -8 4 -6 2 -15 11 1 -16 7 -16 -3 -6 3 -9 4 -4 -6 -5 -10 4 3 -5 -16 19 -18 -3 -6 10 14 6 12 -12 -12 3 17 -7 2 -14 8 -15 -1 17 -6 10 -8 1 -27 14 3 15 25 3 2 -3 -17 6 -4 -17 14 6 -12 10 -9 -7 3 -12 -7 3 -8 16 3 24 -14 12 3 24 11 -9 -21 -5 2 1 7 -13 25 4 -11 -3 -11 -4 -8 7 -8 -3 18 6 -3 3 -4 3 19 3 -5 6 -3 -3 4 -17 21 9 -3 -3 16 -6 7 -23 -14 6 3 20 -22 17 -12 4 19 14 -17 -8 -11 -1 -8 -6 -15 -10 11 -5 2 4 -5 7 12 -8 -8 -17 -6 -18 -16 -16 -11 -14 -17 -12 -6 -25 12 -3 7 -2 4 3 -9 6 -10 -14 11 -24 -14 7 7 -2 19 -3 3 5 3 -6 -6 -3 3 0 -7 6 -10 13 1 6 7 -7 -4 -1 6 7 10 14 7 6 17 15 -7 -7 -6 14 -24 9 1 -13 -7 -8 10 -8 13 20 4 -11 -15 11 3 -14 20 -23 -4 6 4 -5 4 5 -7 -12 19 -1 5 -7 3 -6 -3 22 -9 14 -11 -19 -10 22 7 3 -18 -5 7 -12 -20 21 -3 -4 5 6 -17 -3 6 -10 -7 1 -11 4 -3 3 3 -6 4 3 10 20 13 -20 -6 17 14 -14 -14 13 27 13 -1 -31 9 9 9 3 3 -19 6 9 6 6 24 6 8 1 3 -7 -37 14 3 18 -13 -4 10 -8 4 -6 -8 -6 -8 -13 -8 12 9 5 -7 2 -17 -1 3 3 5 3 16 -7 2 -24 -12 -11 -34 -10 3 4 -4 -4 11 6 -7 -15 -5 5 -2 29 12 -6 5 -2 -5 3 -3 17 9 -13 -21 -5 23 3 10 6 6 8 3 1 -4 -17 13 13 -3 -16 13 -19 -6 17 3 7 -2 -1 -7 -6 24 3 13 -3 24 7 3 -10 -11 14 -3 9 13 -10 -9 24 -1 27 3 -4 14 -8 -5 -7 2 14 8 -22 21 -10 13 12 10 16 15 -3 -14 20 -3 7 -3 -3 0 -4 -8 -24 -27 3 -9 -41 9 10 7 -2 10 -3 -22 14 15 -7 -10 -21 -7 3 8 4 8 -3 7 3 -3 -3 -7 5 3 -31 -10 -16 7 -3 -4 -15 -7 -9 -7 35 1 11 9 27 -4 -13 2 5 24 3 6 -20 -3 -2 -11 3 -6 17 -6 11 11 15 12 9 -2 -6 -7 4 6 -3 4 0 6 11 14 -7 -7 -5 -6 -24 -14 25 3 10 -3 -6 14 -4 22 -1 -9 12 -2 3 -5 18 4 5 -4 3 9 6 -4 -3 13 -24 -6 16 4 7 -17 -12 -2 4 2 -4 3 3 10 -2 3 -2 -8 7 -17 -7 18 10 4 -2 20 -20 4 16 27 4 5 3 -4 3 -17 -12 -3 -17 4 4 10 17 -24 14 4 -8 5 8 0 8 -11 -10 -5 10 1 -1 18 -2 31 -3 22 9 8 -3 -7 5 -18 -6 3 22 17 -3 -5 -17 -25 1 4 -14 -15 -3 3 13 -7 9 -12 14 -10 7 -23 18 2 0 -7 24 -4 3 -2 10 -9 -1 -6 6 23 3 -7 -14 3 -3 6 6 -33 11 13 -14 -6 19 -3 9 16 -2 24 9 -8 -7 14 10 3 -24 -6 -2 -27 19 25 14 -4 9 14 -14 17 23 17 -8 11 -1 -16 13 14 -14 -4 25 -19 15 -14 13 3 2 -15 -17 5 22 -13 -9 28 7 -4 13 4 2 -20 -21 10 27 14 0 -3 -17 -8 3 -4 7 11 7 10 -14 26 3 14 4 -10 9 12 7 6 -5 -25 9 -7 10 -23 5 25 -7 7 14 7 -23 -7 3 34 -3 -2 15 19 -7 -3 6 -10 18 7 -13 12 -18 3 2 19 0 -5 19 5 -3 -7 7 -7 -8 0 14 -5 18 15 -3 -26 27 4 -21 -5 -3 2 -7 -4 -32 3 -7 10 -2 -3 7 -3 -21 0 -2 -7 12 13 7 6 10 6 -13 3 7 8 -7 9 -7 7 7 -5 4 -7 -3 3 24 -14 -6 3 -3 3 -7 3 -8 -11 24 2 19 3 8 14 -6 -7 26 3 2 6 -1 -14 15 -3 6 -10 8 13 8 -17 -3 10 4 8 -7 14 -15 -10 -17 -3 9 3 -9 -3 -7 17 12 -1 -1 14 -6 -1 -3 10 1 7 7 -13 10 5 14 7 8 15 -3 -5 -5 -10 19 7 -19 11 -5 3 3 10 -16 4 -3 11 47 17 17 21 3 -14 -12 7 25 6 11 4 -31 7 -8 12 -4 7 15 -4 4 10 -11 27 -4 -3 -9 -1 7 -16 13 7 8 -10 -2 1 3 13 -13 10 11 4 5 11 4 24 3 -19 1 -7 -7 -3 3 -12 17 3 13 -3 22 -32 10 -7 6 4 11 -7 3 -10 -22 -6 21 4 -1 -3 -12 0 10 4 -12 17 7 8 9 -10 26 -7 3 -3 33 -3 13 -17 -11 -13 -18 -20 -3 24 23 17 4 -5 2 6 18 17 4 -12 16 10 -23 -17 6 3 6 7 -3 -4 4 -4 2 6 -3 7 -19 -14 8 3 -6 13 -3 -15 -10 3 -24 -3 13 24 -13 -3 10 -3 15 7 6 -12 -5 10 8 -3 -7 -13 -11 3 -4 6 -11 -18 -15 3 -10 3 13 2 8 -1 15 15 -13 3 7 -17 -13 -4 4 -2 -11 9 9 14 -3 6 2 11 -19 -11 3 -28 -7 -6 -6 3 -16 19 -2 1 3 -8 -18 1 -10 6 -6 -3 3 -10 -11 -4 28 -1 -20 9 17 -17 -2 13 16 7 -4 -1 -13 7 1 10 5 1 -7 -5 -6 3 11 -7 10 4 3 -4 -6 6 12 -19 -4 -11 -4 10 7 7 -13 -3 20 -12 8 11 7 28 -29 6 -26 5 -6 3 -10 -10 4 -2 -4 3 3 3 1 24 10 11 12 -26 15 14 -11 -7 21 -7 14 -6 23 12 11 -4 -3 -4 -2 2 7 11 -21 -6 21 22 7 0 -1 -10 28 15 6 11 -5 33 -11 -14 12 -41 -4 -9 8 18 -10 -3 8 -6 -3 13 -18 -3 31 -9 -3 -24 2 -3 -1 7 3 12 -14 -14 6 7 5 8 -4 -7 -7 13 -20 -10 -12 -10 -4 14 2 9 3 -6 5 -3 6 -2 7 -2 30 14 20 -7 6 10 -3 2 26 -6 4 23 -17 18 -7 11 -14 -2 17 3 6 -3 17 -6 10 -12 -3 -18 -13 7 -2 -6 -4 -8 -3 -7 -21 -1 11 2 -18 9 16 3 14 8 -6 4 4 -5 -7 -1 3 15 10 6 1 -10 -3 -27 -9 11 -1 -6 4 -7 10 25 -10 11 -1 -11 3 -13 -14 -11 7 -15 -11 0 -17 -4 21 1 5 -10 -13 12 -8 -6 10 21 -27 -3 3 3 -10 -11 -16 -17 5 4 -2 14 7 -3 -14 8 -7 7 10 -8 6 -2 6 11 14 -1 -13 3 10 -14 -6 10 26 3 -4 3 7 -4 -7 -37 8 -4 3 3 -7 -3 7 16 -6 -16 11 7 5 0 -7 3 -10 11 -3 14 4 3 4 15 3 7 -14 1 15 3 -14 13 13 3 -20 2 7 -10 3 -3 14 7 7 8 4 -12 3 13 -3 6 17 3 12 -11 3 -14 3 3 10 3 -27 -11 14 -10 -14 -17 31 -7 3 16 -3 -10 -9 4 3 14 -10 -11 7 -17 23 7 -9 -14 -1 4 -8 -14 2 5 -4 -5 -3 -7 9 9 18 -13 3 -20 7 -27 5 4 28 -7 -2 -10 15 3 -3 7 -18 21 27 -13 11 -7 -7 1 -13 9 18 8 -7 4 -5 3 0 7 4 5 -16 4 -18 4 -7 4 18 3 14 13 17 1 20 14 13 17 -8 7 -7 -5 6 -5 -19 -6 -5 10 3 -9 -2 -3 -6 -4 6 -3 20 8 7 3 -7 -19 -6 4 3 -17 -3 -24 -9 4 6 2 14 -7 -3 4 -13 -21 -16 -3 -16 -10 -5 6 6 8 -10 -6 17 6 -1 -9 -17 -8 -3 -12 -7 5 0 5 -3 14 24 4 6 6 -7 0 -2 11 4 -3 3 7 25 23 -27 -14 -3 34 3 13 6 -7 7 12 -1 7 13 -3 -10 3 3 17 17 3 0 14 16 17 -9 -11 -1 14 7 4 14 15 -14 -3 -3 5 -2 -8 13 10 -1 -1 -14 -3 -13 7 8 5 10 24 -3 -16 17 1 -1 -12 -11 3 7 23 -3 1 -2 -5 -28 -3 -3 -8 17 11 -13 -3 7 19 13 -17 3 4 -4 7 4 -1 1 -7 3 -16 -14 3 8 4 7 11 7 7 -27 -1 14 -3 -18 -17 -21 1 15 5 -27 -6 6 -20 -6 -10 -9 17 10 7 18 -5 -10 -4 -16 -6 -13 7 19 34 -23 3 6 -3 -9 7 6 3 27 15 15 -8 7 -9 19 17 3 -10 10 -2 19 -12 17 -7 18 -4 -3 -9 6 7 5 12 -13 6 3 4 -3 6 2 3 -18 -18 14 -7 14 5 -4 -7 -2 3 28 -8 4 -5 -2 7 8 -8 -2 -3 -10 -8 7 -8 6 -15 -9 18 -12 10 21 -8 -6 -11 -3 -14 3 11 -14 -4 9 7 -14 12 -7 -13 6 7 -7 -13 18 18 4 -6 -3 13 -5 10 9 -6 14 7 -13 3 -7 17 -14 -3 4 6 19 -4 11 -4 0 30 6 14 8 -6 -2 9 23 14 20 -9 -7 -7 34 14 -6 13 -3 16 -1 6 -15 15 -5 -7 -13 4 14 -21 3 13 11 3 17 7 3 -5 17 15 -6 -10 -9 3 4 7 -8 3 -3 6 16 16 1 20 7 8 20 -6 5 5 -17 -13 -13 -13 -4 -13 -14 10 -5 -11 3 -3 11 -32 15 -7 6 -14 -10 4 9 8 10 -2 17 24 10 3 10 -10 8 -13 -6 -10 -1 -17 -17 10 -14 7 10 25 9 -8 20 17 -7 -14 2 -2 6 3 3 2 4 -6 13 6 18 -6 8 -7 24 -2 17 -11 -6 7 21 -24 -4 -6 -4 1 3 -17 -2 3 -3 15 7 11 7 -22 6 3 3 -2 7 10 15 3 7 6 5 8 4 -9 -1 -3 -3 1 28 7 6 -8 -7 -8 5 -3 20 17 -15 8 12 3 10 -5 3 -3 7 20 3 1 10 24 7 15 5 10 -8 23 10 10 4 3 20 -3 1 18 6 3 6 5 6 4 -1 -13 11 9 -13 -12 3 -6 4 -1 24 16 4 2 -1 -1 6 -3 20 7 -7 -13 4 -25 -3 21 5 -16 3 18 -25 -4 13 -9 -14 12 -16 -14 -7 17 7 -2 -3 -11 -12 -16 28 3 39 -16 -4 9 10 9 -12 8 -5 -10 3 -7 6 -16 4 3 -6 -4 9 -14 22 0 -4 3 -3 -3 25 18 13 1 2 6 -13 12 -5 -10 -15 -6 -7 10 18 18 7 24 -1 -1 2 24 -5 7 -3 6 3 3 6 3 9 -3 16 13 3 -5 3 -7 13 -2 13 3 0 13 -3 14 -13 4 7 8 -7 8 20 -11 6 -7 10 -5 20 2 1 26 3 -22 -6 -14 13 11 11 -4 7 -5 4 10 4 -3 -1 -3 -23 8 3 -25 2 -3 4 4 34 3 -2 -16 14 4 -16 5 17 7 17 -8 -18 -5 -7 5 7 -4 -3 -23 0 7 11 -14 -5 -3 5 14 -6 -3 14 11 14 7 -10 14 17 -14 -4 -12 -6 14 -6 -12 -6 -3 7 -5 3 -3 1 -3 -15 23 40 -7 4 24 5 4 14 23 3 -17 -6 10 2 8 -23 -3 -6 -9 2 5 15 7 -6 5 7 4 13 4 -4 -2 -5 -7 -8 -6 -6 -6 18 -3 -7 0 2 14 8 13 6 -7 -3 -5 6 -6 17 -3 1 -11 -17 7 -9 -3 -6 10 -2 8 -18 -6 16 17 8 21 -3 6 -10 3 7 9 17 1 6 31 -18 0 -11 18 -3 -10 5 15 -14 -8 8 -21 -3 6 5 3 3 18 -6 18 -2 4 8 7 -6 11 13 3 6 14 7 -2 8 6 -12 -21 -1 -11 3 -19 13 -16 -5 1 3 6 7 7 3 -17 -7 -3 -14 7 14 3 -4 4 -24 21 10 6 -4 -20 -7 15 6 -13 17 -7 -24 8 -10 17 -2 3 -1 4 10 7 -4 -4 -28 -3 -3 9 7 1 -1 3 -3 -10 -4 -8 10 3 14 3 14 -11 -7 28 0 10 7 7 -6 -4 3 -13 -13 -13 10 -1 -3 6 3 -7 -11 -12 8 -15 11 -8 -3 1 5 17 -23 10 -5 1 -7 26 25 -8 3 1 -1 -11 14 19 -24 -3 2 7 -3 19 24 17 -6 -3 18 -3 17 1 -6 -3 29 -3 21 -6 -6 -4 22 -3 12 4 -1 7 1 -13 -20 21 11 10 30 -9 7 -10 -26 5 1 4 -3 6 17 -6 18 16 3 -7 13 -10 3 8 -3 -4 14 18 12 -7 -3 -4 14 10 -3 -3 -6 -4 -13 2 -1 2 -4 -6 -7 -7 -3 -20 14 -23 -1 13 -28 3 4 -5 -3 22 -7 -20 -12 3 -4 18 6 -11 -12 -7 22 -11 3 -8 16 -10 3 -7 15 -13 -2 -3 8 -10 7 7 -1 -5 -7 4 -3 4 1 -20 10 -7 -14 6 7 8 -20 -10 -6 10 -3 -16 -8 6 15 -9 -10 -1 -14 17 -6 24 -7 -8 -14 -2 -4 2 1 -1 -7 21 10 -14 -7 3 -3 15 11 17 7 -8 2 17 7 5 -3 -2 -18 5 10 -3 18 11 1 7 -7 14 -11 -1 6 20 0 6 -6 4 7 -13 -17 11 21 -13 -3 7 -13 -30 3 -2 10 0 -4 10 -13 -4 21 -24 3 4 -8 7 -3 4 6 7 30 -7 -9 -6 -11 13 3 -7 -3 -7 0 6 3 10 17 17 16 2 3 21 27 3 3 -9 -23 -16 26 -11 4 16 -12 2 7 21 17 3 -6 19 -2 -9 -12 17 15 -6 3 4 13 14 3 16 -6 12 5 -11 6 -6 11 14 18 3 13 -2 -6 21 12 -7 -16 -18 7 4 -14 -14 7 7 -6 -11 -3 -6 22 8 -5 10 -11 6 4 20 -12 5 -2 -20 18 4 -17 10 6 16 -6 -15 5 0 6 36 -7 17 8 -10 24 13 3 10 5 -2 -6 14 23 10 6 7 -12 7 -3 14 3 -11 -14 -20 -10 16 16 7 -7 -14 -3 6 28 -5 -11 15 -1 3 -24 3 10 -3 3 8 -6 14 0 10 -6 -1 24 10 21 6 3 5 -20 -20 12 7 -6 13 -18 9 -11 7 10 4 -3 -5 -4 18 3 -9 7 4 0 3 -6 8 0 -4 -14 6 6 10 7 11 13 35 10 1 3 -8 10 13 0 9 2 3 14 10 13 -6 11 -16 13 -18 8 3 13 -1 17 22 -14 13 -16 -20 7 9 -7 -3 18 2 1 -4 -5 6 -3 16 -6 17 -3 13 10 -4 -5 10 10 3 1 -7 -3 -6 -20 -4 -6 -10 15 -10 -2 -11 -4 4 19 2 -6 15 -4 11 -5 -1 5 9 -9 -6 8 -14 8 7 3 18 5 -7 10 -7 7 9 3 -23 -17 -3 3 7 -8 5 14 8 -7 7 1 -3 -8 13 -3 17 14 5 -3 10 8 -6 9 -8 -11 -17 7 -18 -3 6 -17 -9 7 35 -5 12 -8 -4 -13 11 1 21 6 -31 3 3 -7 -7 6 3 -13 -7 -3 -2 12 14 2 31 -6 -3 -8 -3 -30 -8 4 4 6 7 4 11 14 11 -8 -4 -21 1 -17 -14 1 -14 -2 -24 6 29 12 -3 -6 8 5 -9 -6 4 -7 -6 14 -6 6 18 -1 -7 -6 -3 -7 -20 -3 -4 2 -3 6 5 -28 -13 3 -17 -18 3 11 3 20 -13 -6 11 -7 22 -4 -17 -11 7 -4 3 -10 -13 -38 8 -15 17 12 -1 -21 -7 7 -3 21 -10 7 -6 18 6 -3 10 -3 6 -1 13 8 -6 -14 3 -11 -15 13 -9 20 38 -13 6 -7 -13 11 5 -11 -26 12 4 10 -4 0 0 1 3 3 12 -24 -6 -14 0 4 -3 -8 7 8 -4 10 7 -3 20 7 3 13 7 11 1 -11 21 18 6 7 -15 -11 3 -2 3 -3 -1 -4 -7 -6 -4 16 -8 19 -11 20 5 -7 -14 -4 21 7 4 -3 3 -7 20 16 -18 3 -6 10 7 6 3 -1 19 1 8 17 3 12 3 15 -3 2 -9 -3 13 -18 14 16 14 16 17 14 0 5 8 23 10 -17 -5 6 -9 14 13 -27 1 6 11 3 -8 -13 -5 -2 -4 4 6 -13 19 7 -6 4 1 6 -3 13 -1 -8 -3 4 3 14 -13 20 -4 10 -3 -12 3 -31 -1 7 21 8 4 2 3 -3 3 3 -1 7 17 6 -10 8 12 -5 -3 3 20 0 -1 1 11 25 -11 -1 20 10 -8 9 18 8 18 6 -3 -25 -14 10 7 21 -21 -7 14 -7 26 -6 -3 10 -5 7 -3 -4 -7 7 -18 -15 -10 -11 7 -7 -5 5 -4 -3 18 0 -16 -11 -17 -6 25 27 -7 -17 6 -3 -2 5 -15 -10 -17 -4 -13 -3 5 -27 14 -3 2 3 16 7 16 -7 5 6 3 3 9 24 10 10 -14 4 -2 12 -12 -6 15 17 -8 5 6 3 -11 6 6 5 -9 -1 24 2 23 18 12 -4 -9 -19 17 2 -5 6 2 -12 -10 -17 5 -6 -1 -10 -3 -3 -6 6 -3 7 -6 -19 14 7 -20 2 4 10 -2 31 4 10 -13 5 4 -10 -20 -3 6 -3 1 -3 23 -7 29 -6 11 -4 -3 18 19 -4 6 -14 -7 24 -1 -1 -7 17 -2 -14 -5 2 -8 21 9 -24 17 3 -20 -3 13 0 10 -1 -7 6 -4 -3 -15 3 -6 11 -17 3 6 3 -3 -6 2 -17 6 -4 4 17 -4 -7 -3 -7 -4 7 11 17 -15 -10 5 -22 -10 32 11 -19 -19 14 7 -17 -15 11 -9 3 6 22 3 -2 1 16 -12 -11 -6 -9 -1 -3 -8 21 9 -9 -4 10 -23 6 7 -2 14 11 3 -2 5 3 23 -1 -15 -4 17 13 -3 4 18 -3 11 -2 11 -2 -5 2 -4 -9 3 7 11 33 23 -4 25 -7 3 6 4 13 17 10 2 -14 8 -6 -13 4 4 20 6 5 11 4 10 6 34 10 13 14 -3 -7 3 6 -11 -3 -7 -7 -13 12 -3 -6 35 -6 0 -7 3 -29 -3 -11 7 3 14 -15 8 11 -6 -3 2 -9 3 -7 -3 -18 6 22 -8 5 7 5 -14 25 -8 -8 7 -17 -7 -6 -11 -15 -1 4 -14 -14 -3 3 -9 8 -28 -18 6 11 4 7 -3 14 21 -6 -4 6 -17 3 11 4 -4 -11 -6 7 -14 6 -6 10 -3 4 6 14 -20 3 -5 20 22 7 -7 6 -4 6 10 -21 6 -1 3 27 10 3 -18 9 2 -10 6 4 3 -4 9 5 5 2 -5 9 11 34 -3 3 -4 9 3 -14 -3 -6 20 -6 3 -14 -9 3 -3 -11 -7 17 18 -5 -14 7 3 -11 -10 -14 -3 -15 2 23 1 -18 18 -24 12 -6 14 -1 4 -1 3 17 2 5 -3 2 -13 -9 -14 2 3 -17 15 13 -17 -28 -6 14 -3 -22 6 -3 -7 -10 5 -3 -10 10 3 -2 4 17 -3 -7 3 0 -10 7 -5 10 -3 -17 -3 -3 -7 24 7 -15 -1 7 17 9 16 16 10 3 -2 3 6 1 -6 3 17 3 5 13 4 -1 8 9 3 -4 -11 6 11 6 11 7 10 7 3 4 45 40 -4 11 8 15 7 10 -11 17 14 -4 -16 -4 -4 -14 -17 -6 10 -18 24 -4 3 7 -3 -14 12 -11 31 13 6 3 -7 6 -7 1 5 3 7 18 9 13 -4 3 -17 14 -10 -2 -15 14 -23 -21 10 17 -9 5 17 10 6 -9 -9 11 -10 7 -4 2 -7 4 17 17 21 -6 4 3 -1 6 -10 21 17 -3 4 -27 -11 3 -15 7 -13 11 -9 -7 -7 -1 3 4 -9 17 22 13 11 -7 10 -11 5 -10 -4 -15 11 4 -16 17 4 19 -3 1 17 7 8 27 0 -7 -5 -8 -16 -2 18 -3 4 -7 4 31 8 16 -18 17 27 4 6 3 -15 -2 -12 7 4 3 8 6 20 28 5 -1 3 -13 10 -8 26 -15 5 15 4 5 -6 3 7 -3 13 7 1 -7 3 10 15 7 -4 17 3 -11 2 1 -7 5 7 -6 4 8 -1 7 27 9 8 6 -7 -7 13 -27 -4 -4 5 -11 2 6 3 -8 -8 -8 -13 2 -3 20 -1 -24 13 13 17 3 -20 19 -7 -11 -14 -31 -5 6 13 -7 -6 5 -4 10 -5 11 8 -14 4 3 -7 -6 7 3 -10 -6 28 10 7 5 10 -2 10 -10 13 10 -6 14 -3 -7 -4 11 -3 17 -4 -3 1 -24 17 -2 3 21 -7 -28 -7 19 -10 7 -7 8 -4 0 13 -7 0 -6 8 -3 6 10 16 9 -8 6 6 -6 7 6 -8 8 -8 24 -3 -3 4 3 -2 -18 -16 17 -3 -13 -2 -9 11 -3 5 -1 -6 -3 1 -13 4 12 6 11 7 4 13 -4 -13 30 16 3 13 14 8 -3 -7 14 -7 7 10 -3 -28 -3 -3 -1 3 6 16 4 2 3 7 -10 -5 25 -4 3 17 17 -10 19 -4 -3 5 7 13 -27 9 7 -6 -10 -9 -15 -6 20 14 -3 13 11 7 19 14 10 8 18 1 -8 3 -11 -8 14 -20 4 11 7 -11 4 24 -10 27 -10 1 4 10 7 8 1 -18 5 -3 -1 -3 3 34 -10 -7 3 -17 1 11 -9 3 10 -8 10 11 12 13 11 -1 14 18 -4 6 -10 -22 -18 6 0 7 15 -3 2 7 -14 -1 -14 -4 3 3 -5 8 -4 -1 -7 6 17 -10 4 -24 10 1 -7 6 1 13 -4 3 3 -8 -6 6 -24 4 20 16 -10 -15 5 13 -11 11 2 -17 -17 5 -15 -3 8 6 14 5 6 -7 -1 -8 -6 -5 3 -11 -4 -12 1 -20 13 21 -14 8 14 13 -3 24 -3 -17 5 -4 14 -12 -3 12 6 11 -3 16 14 18 10 -16 -15 -15 23 1 -1 -3 10 14 -3 -28 7 -2 3 17 -14 -4 5 4 2 -7 -5 3 3 21 -7 -4 -14 20 14 18 -13 -3 22 4 8 6 -4 3 -22 5 3 -4 -7 -3 4 7 -4 -17 11 20 -3 13 -17 28 1 -9 4 15 13 10 -10 12 -20 -16 20 -4 -8 14 20 0 -9 -3 -25 3 -9 -30 3 -19 6 -17 8 27 4 -14 -7 -5 -13 -14 9 -6 -7 4 -10 -1 27 -21 5 3 8 6 11 -13 5 -4 17 -10 7 14 -1 -3 12 7 18 6 7 21 4 -11 -3 24 3 9 8 3 11 11 3 16 7 -2 -2 1 -3 -3 6 -1 -21 -9 -3 17 16 11 8 -15 -3 3 -23 9 -3 -4 11 -7 -2 0 -14 7 14 -2 1 7 -18 7 7 -11 8 -11 -3 6 9 -13 1 -3 10 5 -13 13 3 -17 11 -4 6 -10 -20 -7 -18 -1 -6 13 -16 16 -6 7 7 -7 4 3 -6 34 7 7 3 1 -4 -6 13 17 4 16 -10 34 21 17 -9 -4 -28 10 -8 1 -3 13 10 -19 13 -2 17 -6 9 7 9 -14 6 11 -3 -23 7 15 9 0 -7 5 15 -13 -10 -3 -3 11 -3 17 4 11 5 -3 -3 24 19 7 7 -2 14 0 4 5 -7 -9 19 -1 8 -10 -17 6 -6 3 6 15 -5 6 10 18 8 -4 -14 13 4 -3 5 11 -12 1 -5 9 -7 -7 8 6 -11 18 5 -3 -13 -3 1 3 0 -10 19 6 18 3 5 -4 7 -6 -2 10 -6 -9 4 -3 14 -7 -2 8 -14 3 -31 6 8 -20 -15 -2 17 -5 -6 16 -2 23 4 -1 -1 14 -11 8 -7 -7 6 14 -1 7 4 -21 6 3 8 3 3 -3 15 -18 -4 5 7 -3 -8 -7 3 13 7 -15 3 -10 6 -4 2 2 25 -8 -7 21 7 6 -3 15 3 -3 -10 -4 5 -17 8 3 6 1 13 3 3 11 -7 -21 -3 7 -7 1 6 -11 -13 -7 7 3 12 16 5 3 23 13 4 -3 22 -4 16 13 -10 3 22 15 -7 -33 -6 9 14 -27 4 -4 -8 -20 -7 -5 -7 -1 -6 5 -27 24 0 -7 -19 0 11 -7 -7 3 14 23 -2 -2 -3 -9 -13 -10 11 23 8 -10 26 11 1 8 7 -21 -17 14 4 -1 -16 11 3 -3 -3 17 35 14 9 10 13 6 11 -3 -3 15 -4 -5 -5 -1 13 3 1 16 18 7 3 -7 -9 13 -2 3 3 10 -11 4 -12 8 -3 7 3 18 -6 5 -6 -5 3 -10 9 -3 -13 -16 3 8 10 11 -11 -14 -8 2 -25 13 8 -12 8 20 -6 2 -14 1 2 -2 -6 17 3 -8 2 -7 -18 8 -8 18 20 -3 -24 3 3 -7 -12 10 14 1 3 16 -10 -31 25 3 14 -11 -10 6 0 27 1 -13 13 -3 17 7 4 -13 14 -10 0 2 -3 4 -2 3 -3 -2 4 -3 -8 17 30 8 -10 -24 2 27 4 10 4 -3 -1 6 -3 -4 -7 7 17 8 7 -3 -7 16 -6 1 -8 25 -9 -3 1 11 7 1 -6 -2 13 -20 -11 -11 6 14 5 22 14 -17 10 5 -7 4 5 -3 -5 10 14 -11 6 14 -18 2 -5 -7 -6 20 -5 -10 -5 -2 -3 8 7 10 -15 3 3 11 8 7 -13 3 -7 30 -19 7 -7 13 -5 -16 11 -8 13 -3 -9 -13 -2 13 -3 -3 10 -2 17 10 -9 8 -5 -18 -5 -12 10 12 5 24 14 -5 5 3 -4 3 -4 9 23 5 17 -9 -8 7 22 4 10 3 -13 -14 -5 8 1 -2 17 14 24 3 3 -6 -7 10 -7 -1 14 -8 24 -3 -21 -7 27 -16 -1 6 -4 1 -1 1 -3 -7 -20 -14 -10 9 -25 -24 7 16 -7 -3 6 -13 12 -4 2 5 -17 10 -3 -7 12 10 12 3 -10 -7 8 -8 13 8 9 10 -3 13 -14 -20 4 -9 19 6 -13 -16 20 8 20 -9 2 10 -7 12 -5 -7 7 -3 14 -14 -3 -11 -4 4 4 4 -5 -21 3 -3 -11 -9 -4 -1 10 14 -6 4 7 0 7 -3 28 10 3 -22 10 1 -3 3 14 -6 4 5 3 -5 9 -10 -4 -8 10 -4 22 1 -11 5 13 11 7 27 13 -7 18 28 -3 -13 7 -7 2 7 -3 6 10 7 4 -5 -14 13 -12 -2 -1 -20 -10 3 -30 7 19 -25 -7 8 10 -5 -21 -9 14 -7 -13 -5 11 -7 -9 14 5 -6 -3 5 -6 7 -6 -7 24 14 4 -27 -27 -4 8 -3 6 -17 3 -1 22 0 -27 18 -7 -3 -5 8 -8 3 -8 5 -19 -6 10 -20 -9 -3 11 -16 7 17 7 -18 -25 0 -2 34 -14 -6 14 -3 -3 25 -12 11 -5 17 6 -3 18 -18 39 -3 17 -19 18 -7 -35 -2 3 17 9 3 -16 -4 -11 9 12 -8 21 3 3 -1 -1 10 4 -8 -3 2 -9 28 -16 -8 -3 -7 13 6 -13 10 11 -12 24 -10 6 7 -26 4 -13 3 -3 -4 -7 2 -8 -10 -30 16 -6 -4 -11 8 -2 -23 3 -12 5 8 -6 -3 3 -25 2 -4 12 7 -6 -3 20 10 12 -27 8 -20 20 -3 4 3 13 7 -14 -26 10 -29 14 -2 10 -3 3 17 -3 17 8 -8 14 -13 5 -18 -20 3 20 5 -3 -4 -3 25 3 -1 14 -4 21 11 -23 6 6 14 20 -16 17 -29 20 -13 0 -3 11 10 -17 14 -16 3 1 -6 -3 6 -6 -5 -14 -4 34 19 -10 27 -11 -3 -14 14 -1 4 -16 17 -4 -12 6 -3 14 7 10 8 -11 -6 9 3 -3 21 6 6 15 -2 11 -6 -3 11 4 5 11 -6 2 3 -1 3 13 -3 -6 13 -3 -19 23 6 -8 18 8 0 12 1 7 17 -16 3 11 -9 -26 -3 -3 -5 17 -17 -7 -10 -17 -13 -10 3 -13 12 6 -6 -7 21 -4 -2 15 1 17 -8 3 3 4 -8 -10 -22 -9 3 17 -2 3 3 -21 7 3 21 -4 -34 17 3 -7 12 -7 6 10 8 0 -14 7 4 14 6 -19 -12 -14 14 11 -7 20 -7 -34 -5 8 -18 -7 -13 1 21 -14 -7 7 -6 24 30 -12 -17 19 8 13 13 -11 -10 -4 8 -3 8 11 8 3 3 -4 18 -6 -2 24 -15 8 -10 -24 1 -3 14 13 8 9 -13 3 -3 -3 24 3 -19 -9 4 -8 -10 -2 10 9 1 -14 3 -11 -15 -6 -3 14 29 24 -6 -3 14 17 8 -18 1 13 -16 5 14 -3 2 4 5 -2 1 15 13 -3 -4 7 -16 -5 11 -4 -3 3 29 -16 8 -10 -16 11 15 -8 5 0 8 23 -5 -6 9 -3 2 10 -15 -12 25 -3 -8 18 -10 -6 3 -6 -3 3 -5 4 4 -7 6 3 18 -4 -10 -9 4 16 10 21 -12 -3 6 -18 -13 15 -3 -17 -3 -4 7 3 -6 1 -51 16 -7 8 -11 17 7 6 2 26 -13 -3 37 7 -7 6 -14 -14 13 14 4 13 -1 -4 9 6 -6 -7 7 3 24 32 15 10 3 6 -4 0 -4 3 4 -14 -21 7 -18 -1 13 2 -9 33 18 -3 -14 -6 6 -7 6 -13 11 5 18 -7 -6 6 -12 2 9 16 24 -6 -6 -4 -3 -8 -21 21 -3 13 13 -18 -10 4 9 -9 -1 -4 -15 -7 18 11 5 3 -13 -6 24 -4 13 7 17 -6 -2 18 27 -6 11 -14 14 -11 -6 -3 6 3 7 -7 -3 -7 3 1 4 14 12 1 2 17 -17 4 13 -31 -3 3 6 8 -16 16 5 3 -14 -28 -3 -2 -6 6 8 -4 -20 -10 -13 -7 -10 7 11 4 21 16 -14 -16 -14 -21 5 -6 -7 7 20 26 18 -38 10 -6 16 -4 15 -1 17 -1 10 3 -7 -4 -6 -2 14 30 -6 1 3 15 7 7 13 -12 10 -7 20 10 29 10 -7 14 -1 2 7 -4 -3 -18 6 -3 -6 16 24 5 7 3 7 -16 7 -2 2 -7 7 9 -17 13 3 3 7 21 -3 -1 -10 -4 24 5 13 13 -14 10 -14 -1 -3 -3 -18 11 4 -7 1 -3 -3 13 -4 8 -17 3 6 -12 8 10 -17 -6 4 -20 7 -14 14 14 3 11 18 16 -3 -17 0 -6 7 9 -9 13 7 17 -3 -10 16 -1 10 2 10 2 1 -3 -4 3 3 -17 2 5 -8 3 -4 14 -14 14 -6 -13 -14 -17 11 1 34 -4 -11 8 8 19 -16 27 -7 0 6 -3 -5 -6 10 -16 -6 -11 -1 3 9 -15 11 -3 -3 6 10 -11 12 14 -21 -3 -7 7 -21 -6 4 -14 -18 -3 -7 14 -17 -9 1 10 -10 22 13 3 11 -3 8 17 -4 7 3 0 -9 -14 -3 -24 -3 -11 -1 -3 0 -12 -16 11 10 15 -5 4 11 3 -3 27 -7 -7 7 3 4 3 2 19 7 16 -7 17 -5 31 13 7 -18 15 7 11 -3 7 4 22 3 2 -3 6 -16 1 13 -3 6 12 3 -7 7 -11 -8 14 18 6 -22 6 -9 3 5 -3 13 -4 3 4 6 0 -3 24 -3 14 -5 -3 -16 32 8 -25 4 -6 -13 -6 11 1 -10 7 6 27 6 -17 -20 -6 14 7 -9 2 5 7 1 5 4 3 13 4 17 -27 -26 3 9 -12 -7 10 -3 8 -10 -22 2 -3 5 20 -10 17 10 3 -14 8 -3 -17 -5 12 6 10 17 3 21 -25 3 1 -3 4 -3 3 6 10 -4 12 -3 5 -3 -4 -12 -12 -7 2 -3 3 -14 2 -3 -7 -12 -6 4</t>
+  </si>
+  <si>
+    <t>NIG(59.42490322545868, 30.626375060461147, -1.0590078528791742, 59.27108099714312)</t>
+  </si>
+  <si>
+    <t>45 40 31 33 25 34 33 15 33 49 42 39 48 43 26 34 38 53 30 26 41 34 40 29 37 26 20 34 42 30 32 40 40 41 46 37 59 36 27 40 18 27 41 39 30 40 43 47 40 23 40 47 34 19 25 47 45 47 44 38 26 25 26 30 26 26 33 50 22 31 34 38 34 34 44 28 35 30 60 42 26 27 42 36 25 26 38 19 20 30 34 30 44 45 17 44 36 20 33 22 26 20 39 41 34 37 31 42 22 41 55 18 33 28 43 23 44 34 30 30 30 46 33 43 41 57 26 38 26 26 36 54 66 35 34 19 50 20 46 47 59 37 40 27 23 29 30 36 47 37 23 31 47 39 32 39 33 21 48 32 41 46 17 20 33 30 40 38 45 40 52 36 28 46 37 37 10 26 23 22 34 47 37 35 34 41 62 35 30 43 45 55 25 40 26 27 31 27 26 21 31 23 37 50 37 40 40 51 22 24 12 22 30 41 36 38 36 37 38 36 40 42 42 39 24 23 19 33 38 27 43 40 35 30 30 30 34 38 41 29 37 30 32 31 25 39 43 23 35 50 44 16 36 37 9 40 20 46 35 37 23 37 35 53 27 34 22 13 25 51 47 16 49 28 29 27 25 33 23 37 41 23 36 49 43 47 50 16 33 27 32 19 44 23 25 23 37 35 36 47 22 35 32 33 37 30 46 42 41 32 32 50 37 48 48 51 20 30 25 45 19 38 40 39 58 37 45 45 23 25 31 30 30 38 34 31 29 34 23 37 53 26 27 23 46 38 43 48 29 54 30 38 62 26 36 27 51 36 23 48 36 33 32 50 37 30 37 23 37 32 45 24 41 37 37 62 47 37 26 44 31 37 62 34 37 33 48 40 31 34 23 31 32 36 12 30 43 37 23 19 37 30 38 29 63 37 20 47 22 30 41 43 43 41 30 27 48 20 25 36 58 43 38 22 22 27 34 16 19 39 29 39 23 30 32 54 43 27 37 33 40 36 31 35 31 43 44 48 39 31 33 27 21 43 36 26 33 65 17 42 34 23 46 30 40 26 35 27 40 44 29 33 49 45 30 23 26 47 34 31 16 19 39 40 31 43 23 43 29 22 26 32 43 43 37 22 35 34 32 42 45 36 19 64 23 43 24 16 25 36 40 40 27 35 36 35 33 30 23 26 20 27 30 23 29 16 36 37 29 23 33 41 30 30 13 27 43 19 24 33 40 42 53 24 25 42 23 43 34 39 39 15 57 28 43 42 34 24 33 48 27 43 27 40 37 36 32 48 30 38 50 37 36 37 41 22 51 37 40 28 33 33 18 29 27 29 19 52 44 10 33 34 30 30 34 23 35 49 46 28 12 55 29 26 22 34 32 48 48 30 32 47 24 39 33 30 26 31 38 22 44 41 44 33 50 37 24 69 48 35 31 40 43 35 33 35 31 31 14 30 52 43 46 31 37 40 45 39 37 29 44 40 39 40 31 40 46 47 15 39 51 24 34 45 37 45 46 37 13 29 46 26 22 24 45 34 26 45 39 18 26 35 10 15 29 37 30 30 36 36 31 34 22 41 41 36 35 27 31 31 45 33 60 16 30 22 26 40 53 40 50 30 33 48 54 39 23 45 26 35 40 40 29 37 28 52 30 34 38 27 43 45 26 33 32 30 40 23 51 23 24 50 37 30 31 46 47 20 33 45 24 41 39 27 23 24 37 37 41 30 21 27 40 16 27 24 23 29 41 36 48 38 46 47 35 23 24 30 54 30 28 23 45 40 30 33 37 20 51 34 49 39 23 44 47 30 34 30 45 31 31 26 40 43 45 34 40 25 26 37 54 44 39 31 29 22 19 25 33 13 40 33 29 31 33 20 31 44 33 38 39 41 28 43 37 38 34 26 28 25 41 30 33 39 27 37 23 43 28 43 33 38 22 30 30 29 26 37 27 31 27 34 37 31 36 29 30 39 23 41 20 31 38 53 33 22 25 23 58 59 38 20 24 32 25 20 55 54 24 29 38 20 30 37 34 26 24 41 41 22 16 43 25 50 48 33 38 25 54 37 16 30 16 43 37 47 30 34 24 38 24 53 65 43 38 43 27 40 39 23 37 24 51 40 29 37 26 37 41 37 30 32 32 28 27 31 23 18 32 47 21 50 33 33 41 26 16 32 16 45 41 23 43 27 16 30 31 44 22 27 27 49 36 38 32 39 24 30 25 31 31 34 34 40 22 41 27 33 30 32 29 39 40 54 27 37 45 55 26 33 13 32 23 21 50 38 37 57 57 34 15 51 26 44 29 16 23 40 32 22 27 19 44 33 40 46 38 37 25 26 49 45 29 42 36 34 30 36 20 37 38 40 21 40 36 37 50 45 41 43 45 36 42 29 42 53 62 55 23 47 35 34 37 33 32 38 34 43 43 44 55 29 19 37 39 26 16 38 37 48 30 20 15 31 42 35 39 38 33 38 34 38 46 35 32 51 24 52 37 35 25 44 19 46 49 23 46 34 26 22 45 32 39 29 30 61 41 40 45 23 36 32 43 51 37 37 31 39 37 48 41 30 43 37 17 56 43 43 40 48 30 34 41 19 33 16 34 23 40 23 37 39 30 30 32 22 20 26 37 50 29 22 41 38 40 48 34 26 65 42 33 34 23 51 30 34 12 39 37 47 19 47 52 41 41 27 44 34 45 28 46 45 23 43 30 23 41 23 16 45 30 31 37 30 37 39 31 36 47 23 13 34 31 45 30 38 44 36 44 33 27 30 34 27 40 40 33 44 27 30 28 27 34 38 34 23 35 31 41 49 37 29 31 46 38 33 26 23 26 42 30 19 29 26 34 37 21 33 27 20 43 21 38 10 51 34 45 34 42 16 39 48 24 23 41 34 30 53 30 33 37 34 34 29 27 30 45 23 40 36 39 42 24 36 23 43 33 32 31 10 48 27 39 40 28 23 50 33 28 42 30 28 32 36 34 47 41 19 23 36 36 44 44 37 38 38 40 19 23 30 37 25 32 19 28 23 43 41 20 29 31 36 47 37 29 19 31 25 26 30 45 40 41 30 40 35 26 19 45 27 37 43 30 37 30 40 51 41 22 34 26 47 25 37 27 32 37 36 27 28 40 26 37 36 33 22 38 43 27 45 36 32 37 37 29 35 18 45 44 24 31 18 25 16 31 37 40 41 29 39 33 25 37 34 19 26 48 22 23 45 54 30 44 50 30 39 26 19 33 44 47 35 56 33 42 21 48 45 21 33 29 27 23 49 33 49 37 31 41 34 33 30 26 33 32 37 30 44 43 22 35 37 59 31 43 36 32 34 32 39 19 51 42 29 31 41 31 33 40 31 36 32 33 29 45 49 39 44 51 43 48 45 32 25 30 37 31 37 44 31 23 27 31 38 38 56 56 37 48 37 41 23 46 31 53 16 25 42 33 26 38 46 33 45 40 20 31 51 37 23 34 33 34 47 46 33 16 43 52 36 30 35 39 52 30 16 48 24 36 34 29 34 12 43 17 23 43 40 29 44 34 54 34 33 30 38 55 46 37 48 40 15 40 49 34 40 16 48 26 43 27 28 56 37 42 41 16 28 41 31 20 29 36 33 40 42 37 40 27 27 32 38 23 20 27 41 29 55 23 43 22 42 37 43 33 46 31 37 23 31 55 36 44 37 40 26 27 33 26 42 43 37 31 33 36 34 37 29 34 38 51 27 48 58 47 38 41 31 43 37 43 23 22 18 38 51 48 20 35 23 37 24 38 50 44 26 29 30 33 17 30 34 31 40 44 27 42 29 39 20 25 29 33 32 19 30 20 36 23 29 52 19 37 34 23 51 47 37 30 26 34 19 34 19 33 29 23 34 45 31 33 16 44 31 41 47 27 13 35 48 45 30 41 45 50 36 41 38 34 40 33 20 25 40 42 44 55 36 23 27 55 23 29 39 34 27 36 26 30 33 43 26 27 55 25 43 30 38 31 19 31 34 43 43 23 12 29 36 32 13 41 30 40 44 32 40 25 36 38 30 40 48 37 45 47 39 33 20 62 44 40 23 25 48 37 34 48 33 44 9 26 39 18 33 33 30 31 41 33 37 29 40 34 39 37 45 26 47 37 39 45 23 48 40 41 37 36 27 33 31 29 29 42 47 26 38 24 46 26 27 37 30 33 57 51 49 29 41 37 37 26 36 38 28 19 40 22 27 35 33 38 24 34 23 40 36 36 43 29 25 20 39 43 38 41 41 26 41 15 28 29 29 37 22 33 27 31 31 42 33 27 41 29 26 43 30 43 44 53 54 38 35 47 33 45 33 41 28 43 37 22 37 29 26 23 29 23 40 40 54 29 29 46 33 30 43 39 30 10 23 38 56 33 33 26 23 23 33 45 34 15 25 33 39 45 31 33 21 37 36 31 32 44 34 33 35 26 27 42 48 45 45 35 37 48 31 26 24 47 44 34 23 34 26 37 18 30 37 41 23 41 58 33 29 48 38 23 30 33 37 26 36 23 24 41 35 30 48 36 47 30 46 37 23 38 30 62 24 34 41 22 28 37 33 33 55 36 47 40 28 37 51 39 47 30 42 36 27 22 30 39 45 27 36 43 23 45 36 41 30 43 30 44 33 24 29 42 33 44 36 32 46 31 34 47 30 27 30 43 18 34 37 34 51 33 41 39 31 44 34 26 29 31 36 35 59 29 24 23 39 32 31 30 38 38 30 33 34 30 47 24 26 49 41 36 29 27 28 51 33 13 43 29 29 30 58 18 39 25 26 30 28 35 33 43 44 27 37 44 23 35 30 46 33 38 48 33 38 25 23 26 46 41 30 49 30 53 36 38 16 37 40 19 29 38 39 40 11 27 37 51 23 54 31 40 44 31 32 27 27 40 19 29 27 50 35 60 51 30 46 41 29 54 44 36 50 37 32 55 16 39 31 20 24 22 20 45 34 28 51 33 28 30 39 23 16 30 20 35 32 43 40 30 42 37 52 27 57 40 29 36 33 32 36 43 25 31 34 29 29 43 33 37 37 26 30 30 37 29 46 37 39 29 33 19 27 37 26 35 37 43 26 19 37 32 38 16 43 21 25 26 37 37 31 37 47 40 41 40 27 37 40 35 11 41 30 16 33 16 16 25 20 20 39 57 37 26 45 31 35 43 33 53 51 38 38 50 33 47 34 41 25 38 29 25 34 36 41 43 32 62 32 39 38 47 30 27 43 35 41 32 26 40 36 28 40 38 36 27 36 36 51 42 40 19 39 29 29 26 26 21 36 41 23 35 23 32 23 37 66 36 40 46 47 34 26 27 30 41 35 41 33 47 57 30 37 44 34 43 25 22 26 29 36 39 37 52 27 34 19 38 51 40 37 44 28 41 40 56 29 27 33 27 28 52 36 30 29 31 41 34 20 46 40 20 37 43 39 33 62 30 50 32 37 43 44 16 23 19 36 16 32 19 35 26 41 34 25 37 38 40 44 37 20 37 36 27 38 42 34 32 30 26 26 40 19 31 27 43 38 36 38 23 50 32 41 20 51 26 47 44 48 45 31 13 26 39 20 25 30 46 40 40 22 36 47 35 41 28 22 30 32 30 25 22 37 38 45 40 47 23 23 15 42 59 37 42 32 29 35 33 39 37 31 20 23 49 39 34 33 30 42 24 26 29 42 16 46 37 30 21 43 31 34 23 23 28 34 52 22 54 44 25 18 27 39 33 33 25 37 46 42 36 34 50 19 23 48 36 34 42 36 33 28 29 31 24 32 29 31 24 53 37 13 40 27 36 36 33 13 25 25 40 57 37 49 35 57 26 34 27 37 40 36 40 33 43 20 32 33 41 40 30 50 44 40 26 32 52 35 23 51 49 43 36 35 39 23 31 56 34 42 42 36 49 33 44 41 30 51 33 30 35 23 26 34 41 31 29 25 19 38 13 48 41 47 41 37 40 37 31 68 17 16 23 37 35 28 40 36 28 54 18 35 37 19 46 36 21 45 20 34 16 37 34 41 27 29 29 44 31 37 33 47 41 33 23 22 37 43 40 37 44 33 43 30 38 29 28 30 34 33 39 31 27 23 25 31 48 41 37 39 30 25 35 27 26 37 28 15 45 29 41 23 20 16 13 51 37 39 30 34 41 43 51 37 40 29 31 42 44 42 24 47 38 47 24 18 26 23 41 23 39 37 36 23 47 40 31 50 57 24 41 36 37 42 52 33 35 12 16 28 27 34 29 44 25 42 45 29 36 51 51 45 23 20 38 26 26 34 32 55 30 51 38 37 33 36 30 37 34 53 58 46 34 37 36 40 20 34 27 30 41 28 31 46 60 22 55 43 24 40 12 47 32 36 29 29 29 26 30 38 37 40 38 30 38 20 29 37 36 26 21 44 37 37 48 33 30 20 31 45 46 37 38 35 38 25 23 23 43 55 37 49 38 29 41 41 27 47 42 23 25 41 20 41 51 44 46 30 32 27 28 23 40 43 37 51 37 20 34 44 24 17 37 34 25 40 49 51 30 36 27 27 25 26 23 35 30 43 52 23 37 15 27 25 30 47 33 56 41 48 51 44 27 19 19 34 32 41 33 33 30 27 33 26 27 46 22 29 23 30 34 36 19 42 22 9 36 45 26 42 48 23 37 21 29 40 33 30 23 41 23 31 45 30 25 26 52 44 29 33 32 20 62 37 59 20 40 26 31 6 31 29 44 43 40 36 26 58 25 10 18 26 33 41 24 41 44 29 23 41 37 20 20 26 39 37 42 23 51 31 30 36 33 28 30 46 40 33 37 23 43 48 34 16 22 30 27 36 40 20 48 49 48 41 32 29 58 25 36 29 40 23 40 27 22 27 40 41 44 27 37 45 38 40 42 26 49 9 34 24 51 41 30 31 32 26 24 44 28 34 26 48 22 42 15 43 19 39 26 31 34 26 39 33 50 40 26 19 40 30 33 35 20 59 36 51 54 23 41 38 32 45 31 23 44 34 39 16 41 26 29 44 33 37 44 41 30 27 30 20 49 30 26 40 39 26 41 24 44 49 46 29 41 44 30 32 32 39 9 31 32 53 44 46 48 33 31 32 47 22 41 36 37 26 23 21 30 40 49 28 35 32 31 30 49 45 45 40 16 33 37 48 31 37 40 40 37 32 30 37 37 47 40 32 23 41 46 39 33 37 44 26 16 21 37 37 12 39 31 68 15 43 30 26 43 26 37 41 53 41 31 18 19 40 29 39 29 37 34 25 26 40 40 28 46 43 38 37 31 39 48 20 43 33 17 27 41 20 37 17 33 23 44 41 23 40 29 25 49 22 46 43 35 31 29 37 50 58 37 25 27 47 26 23 43 48 36 43 31 33 43 60 33 31 30 51 29 59 35 41 39 47 40 23 35 31 26 56 33 54 29 44 47 25 36 55 37 41 29 27 33 37 19 44 30 23 25 27 29 34 47 36 37 27 34 33 36 48 19 26 22 34 53 34 29 34 39 42 34 41 48 37 35 30 28 27 27 25 34 27 13 34 27 29 19 29 43 27 29 27 27 61 25 12 10 68 45 37 33 34 45 34 36 26 12 27 40 28 42 29 37 33 48 30 45 27 37 36 15 50 32 33 46 25 29 40 32 44 33 54 33 34 24 31 22 30 38 53 42 24 23 9 29 41 31 30 35 46 25 26 37 37 38 27 45 36 34 35 33 36 37 24 55 33 43 22 41 33 59 37 18 37 31 32 20 38 39 43 56 29 38 40 49 36 41 45 26 29 29 48 37 32 43 29 30 23 37 30 37 34 29 37 37 48 51 38 39 25 23 39 23 30 50 37 33 36 35 29 32 32 38 40 30 37 23 37 13 46 43 33 23 44 37 29 23 27 36 51 29 23 47 37 31 22 30 26 31 43 30 34 23 37 23 37 26 49 23 40 34 50 34 37 37 29 57 42 23 25 31 40 26 53 45 29 41 44 36 26 34 39 50 25 22 26 30 48 44 33 26 29 39 16 30 51 44 40 42 22 37 29 37 55 59 43 43 20 33 26 25 23 39 53 41 10 17 29 41 44 37 13 60 36 30 38 47 35 36 35 39 51 48 22 45 36 29 30 20 44 54 34 19 37 37 29 27 37 23 41 19 23 34 49 33 37 34 33 39 16 37 34 23 19 23 29 43 15 40 36 32 27 37 34 41 30 52 23 21 27 31 41 41 18 40 25 58 27 34 45 41 38 43 33 30 14 35 37 41 41 30 37 40 44 26 37 29 26 33 30 32 30 31 30 34 44 45 26 39 41 51 33 49 25 26 29 58 32 47 31 23 37 40 30 34 32 26 38 26 38 27 39 55 46 30 20 28 33 37 27 36 41 22 29 42 37 49 38 30 34 39 52 24 29 37 54 19 30 15 18 24 34 42 30 32 32 37 51 21 22 34 22 49 19 61 28 30 34 13 47 34 23 39 59 29 36 43 23 56 30 31 40 54 44 50 21 33 51 32 27 23 32 22 37 44 32 44 37 30 37 29 33 39 58 31 33 27 45 30 37 29 47 38 20 33 30 45 38 48 37 43 38 23 31 51 23 36 29 29 30 31 37 23 39 23 48 48 39 39 32 40 57 40 36 51 46 30 37 40 37 20 37 33 34 34 31 22 17 25 46 36 41 39 30 34 34 31 40 30 36 30 37 26 49 42 46 43 30 43 27 36 24 37 27 20 22 48 31 38 26 39 33 36 37 43 17 33 37 48 20 29 45 60 27 34 16 39 25 26 13 27 30 33 40 41 36 40 33 40 45 29 33 13 48 34 24 29 27 25 63 40 24 46 33 46 22 37 31 43 51 26 48 39 30 40 38 41 16 35 49 40 55 33 49 13 29 42 35 34 41 34 37 33 30 40 19 29 24 35 27 24 34 41 29 28 39 54 37 45 34 52 33 19 43 16 43 51 51 34 16 43 38 50 55 38 44 39 40 34 48 41 33 27 29 57 37 21 53 23 17 25 40 37 40 68 50 26 34 55 43 35 37 40 9 30 33 28 36 28 32 20 26 34 38 33 36 32 29 37 49 36 17 27 31 43 33 29 36 27 30 30 30 43 40 36 37 16 36 22 29 26 35 27 29 43 32 29 30 48 57 30 51 37 51 29 35 27 35 29 23 29 30 26 40 50 45 27 16 37 47 33 51 32 33 37 40 37 37 19 40 45 27 48 30 37 39 31 38 27 29 22 37 34 35 9 27 36 29 30 33 41 31 16 34 40 39 41 16 26 40 42 47 30 27 26 48 44 27 43 20 50 51 27 23 43 48 30 36 50 33 31 29 47 37 30 29 44 38 29 40 40 31 41 22 39 33 57 48 30 40 23 35 29 35 43 13 45 31 31 38 16 27 29 16 31 55 45 27 47 53 37 39 27 24 39 30 33 38 23 40 40 35 44 37 29 48 17 46 29 29 21 56 23 28 46 19 36 44 23 30 34 34 45 34 19 19 33 32 44 20 63 29 28 37 36 40 38 52 33 33 26 32 41 33 30 26 47 30 45 37 40 30 29 39 36 48 30 44 49 29 32 26 28 28 24 37 51 30 30 37 34 46 33 23 35 80 30 36 44 38 32 38 44 39 30 39 45 38 29 43 38 37 23 44 30 24 49 24 40 16 26 25 44 34 36 37 30 31 36 27 33 50 36 37 43 40 45 40 29 53 55 30 56 23 44 29 15 19 37 31 43 24 28 27 15 31 33 27 37 50 40 22 21 29 38 30 48 61 30 36 59 22 36 31 39 26 34 29 23 19 40 25 17 50 40 39 37 41 14 32 39 37 29 36 42 44 35 20 47 26 52 29 44 38 36 27 37 31 34 16 31 48 26 23 43 23 34 37 27 22 33 32 34 10 45 33 35 32 27 33 34 27 37 33 40 33 37 40 35 30 41 30 30 40 33 30 41 20 26 37 31 50 29 44 25 31 41 38 46 32 25 48 32 64 29 40 47 34 39 37 35 27 38 37 23 45 33 33 20 27 37 37 33 34 31 16 45 35 47 37 40 30 50 39 25 26 36 43 36 43 48 61 49 33 29 47 33 39 22 26 34 19 50 47 27 58 33 44 47 29 29 50 27 30 50 45 35 30 30 29 27 45 33 20 36 27 26 33 41 32 24 34 19 37 35 34 13 35 39 27 21 35 28 39 23 15 30 26 38 35 23 45 35 29 26 23 38 16 37 29 42 44 34 41 46 37 42 28 19 40 43 43 20 30 26 39 26 43 37 30 22 40 33 40 41 30 37 45 37 45 61 43 27 31 38 43 33 32 34 19 59 24 19 31 27 39 36 57 26 33 48 45 37 29 29 30 39 13 43 31 51 29 37 22 16 30 53 35 47 23 43 27 29 42 44 27 37 32 37 36 37 31 36 24 10 33 25 28 24 34 31 39 38 45 31 25 47 46 31 39 36 50 36 39 29 27 33 16 45 44 33 29 30 30 37 57 33 21 27 43 43 30 37 37 27 35 34 44 22 31 36 36 33 55 23 28 44 34 27 36 41 45 42 28 30 44 26 37 41 26 23 16 46 41 37 29 33 43 19 29 23 31 40 34 31 44 29 37 16 43 18 50 24 23 16 32 52 32 29 31 26 37 62 33 23 36 24 22 28 20 39 55 43 48 40 37 26 19 43 33 24 31 50 29 41 30 33 23 38 45 27 19 32 36 29 22 40 37 19 25 43 31 36 48 43 24 43 37 30 29 47 46 32 33 35 27 41 23 25 17 27 22 30 22 29 37 15 34 45 40 52 37 35 23 49 34 19 26 40 15 34 25 28 27 37 40 30 27 38 26 20 37 45 54 23 24 48 33 40 43 43 23 44 27 36 33 30 29 41 27 27 30 33 55 27 35 44 53 37 53 44 16 21 30 38 36 30 79 16 29 38 44 41 47 19 29 34 18 26 45 55 46 45 48 40 43 48 43 30 32 38 30 44 31 49 35 27 44 38 37 44 40 29 40 37 33 39 41 26 26 37 32 31 24 43 30 46 16 47 23 41 32 41 36 27 34 19 24 34 41 40 51 35 33 37 42 62 47 22 37 26 36 30 23 38 40 31 33 44 23 43 39 29 52 30 29 27 35 31 26 34 56 48 41 57 34 36 43 33 19 32 30 26 38 42 32 50 33 45 40 29 37 52 30 27 24 46 34 32 47 26 44 37 32 40 24 22 43 37 38 33 35 40 34 31 37 40 37 23 40 38 40 9 44 25 33 44 40 24 36 29 17 61 47 37 50 30 9 22 37 20 38 34 16 36 51 41 25 51 31 42 20 33 36 17 27 43 37 49 42 36 47 24 31 28 51 37 35 29 25 34 29 27 41 23 40 51 16 47 19 31 44 47 40 38 32 30 41 47 23 29 31 10 23 30 37 29 30 36 34 39 45 26 34 41 33 28 32 28 22 40 37 26 27 49 43 42 26 32 44 32 23 44 51 35 44 25 43 54 36 31 29 33 29 27 42 46 36 37 33 29 32 41 37 44 31 31 46 44 45 30 27 23 33 34 31 41 37 34 33 41 37 20 42 13 30 39 45 20 19 33 26 24 30 23 33 31 60 37 43 42 37 37 28 37 37 24 37 39 23 54 38 34 37 31 33 37 60 27 44 23 36 37 42 30 37 27 29 43 49 53 34 31 30 44 34 44 43 24 33 29 39 37 49 30 47 43 34 41 45 43 30 48 33 22 22 45 39 31 35 46 27 33 43 43 47 35 47 41 37 36 26 63 44 33 37 34 25 38 25 32 22 30 30 27 44 44 23 56 25 23 19 26 26 41 29 28 33 41 23 40 37 33 20 43 44 35 9 36 37 34 16 26 37 46 32 25 49 41 33 32 16 51 43 49 24 37 50 24 30 28 39 37 30 41 33 36 37 44 36 39 26 40 34 24 40 37 40 33 39 43 8 31 26 33 41 26 49 31 34 36 44 40 20 25 44 36 41 58 51 37 35 37 37 27 32 51 40 23 27 34 41 33 34 33 19 19 23 38 17 23 29 23 43 34 34 46 37 23 49 33 26 19 42 40 27 42 47 37 45 16 40 47 36 33 33 26 37 19 33 32 37 20 24 51 30 43 27 25 40 29 45 33 37 29 41 22 23 46 23 45 26 31 37 33 45 27 33 47 43 31 44 30 25 16 33 33 33 45 30 34 23 22 30 27 29 19 41 41 35 34 29 36 37 33 27 43 47 59 26 54 54 34 30 25 37 36 27 36 37 16 22 30 46 27 35 41 40 29 23 38 29 31 41 34 51 55 33 41 62 33 29 41 17 49 22 30 52 33 26 31 33 40 30 29 29 34 41 43 40 31 20 23 44 37 48 50 31 44 24 34 33 28 37 24 27 22 43 28 34 44 23 44 19 32 48 30 37 44 32 27 40 24 33 37 44 32 24 53 30 34 45 23 26 29 31 26 30 35 39 42 46 33 39 32 33 47 31 30 24 58 26 31 25 25 44 43 26 34 27 27 29 27 37 34 29 38 32 53 36 45 16 40 50 28 20 48 40 44 37 45 34 46 23 19 33 40 34 54 39 37 58 51 46 41 61 43 27 27 36 20 33 23 41 37 49 29 35 37 37 51 45 32 44 39 23 38 27 34 45 23 58 22 46 27 20 47 42 34 32 51 43 37 55 55 53 50 41 34 42 25 43 37 37 23 44 33 39 40 40 16 36 37 34 36 44 31 46 50 37 32 44 34 19 34 36 25 37 53 52 44 21 10 49 39 34 40 45 19 34 22 30 36 51 37 36 30 32 27 42 36 18 54 55 44 36 45 37 54 39 27 38 44 26 38 43 35 31 44 51 29 39 33 37 27 44 26 37 35 30 33 44 31 23 41 40 37 54 44 45 27 29 23 33 34 13 30 38 19 32 45 29 48 37 33 38 42 37 24 23 37 37 19 34 37 27 30 44 41 33 43 28 40 23 52 36 44 43 26 37 27 34 60 43 46 25 26 38 43 43 57 23 39 48 41 26 38 33 44 38 42 30 33 19 40 23 42 33 39 41 52 31 35 33 25 44 45 38 43 16 27 37 34 30 30 26 33 39 41 30 45 23 36 36 48 49 53 28 36 49 44 29 18 44 29 22 43 41 42 30 38 37 6 30 43 40 40 48 46 37 51 31 49 30 33 19 38 38 25 42 21 30 33 46 41 24 32 44 19 30 27 33 32 50 39 27 37 32 15 37 20 27 41 45 54 27 23 31 23 39 47 50 13 29 42 27 43 34 47 30 13 46 33 48 48 29 18 27 36 37 20 42 13 44 37 22 30 40 47 31 23 36 33 51 42 36 36 23 27 21 29 32 37 37 52 23 38 36 52 43 36 22 46 50 30 57 37 31 23 38 24 31 25 23 13 30 37 37 34 33 31 48 25 21 57 26 26 37 40 59 34 33 24 26 29 26 38 44 44 48 34 32 26 31 41 33 43 21 57 37 47 45 40 25 22 36 25 30 42 41 51 31 26 30 28 24 53 49 32 37 32 29 27 47 12 25 41 38 31 38 16 54 33 17 30 34 26 48 52 37 47 58 36 56 26 39 36 19 29 33 42 46 41 29 19 45 45 41 39 37 40 36 22 36 58 34 30 31 32 35 35 40 30 29 27 43 23 33 40 43 30 40 29 24 15 24 39 39 26 24 32 27 31 26 53 35 51 52 32 44 40 38 40 51 40 23 53 33 42 18 19 18 26 30 48 33 27 29 15 33 27 30 39 29 29 54 41 33 17 45 13 29 34 41 46 37 30 24 36 27 36 48 24 34 21 33 34 39 23 65 30 28 38 29 30 17 33 22 24 19 30 16 34 23 29 53 33 19 39 43 29 24 24 34 44 45 40 37 26 23 19 34 34 30 51 41 60 36 29 25 33 39 38 33 37 42 45 33 31 54 18 53 37 34 45 31 25 43 43 36 47 47 33 50 57 26 31 45 33 37 48 39 42 37 22 41 51 61 24 31 32 23 36 31 37 41 12 29 41 29 39 34 16 36 52 45 50 36 47 39 41 47 40 33 23 38 60 33 41 36 44 33 27 38 45 20 31 26 24 30 57 25 39 42 23 26 31 36 28 30 30 33 51 30 46 24 31 59 26 36 13 16 47 56 28 22 27 33 37 48 20 51 25 29 42 37 30 33 29 36 33 32 36 15 22 24 62 23 40 33 36 37 45 46 34 52 37 27 35 27 30 37 26 16 13 41 27 25 27 40 25 24 25 26 22 27 32 38 39 46 32 24 20 56 37 46 32 22 33 37 28 53 40 45 34 24 21 46 26 36 30 30 47 27 25 41 52 34 27 27 37 31 23 59 47 60 54 37 33 29 37 16 36 47 44 51 50 23 27 33 39 28 51 45 34 26 26 32 26 32 45 25 31 43 41 27 35 39 25 30 23 16 38 38 44 24 41 30 41 24 29 38 26 13 25 16 40 27 52 19 31 26 35 13 29 41 31 25 20 26 21 42 17 45 48 44 37 35 39 29 51 31 57 36 38 23 30 36 32 28 35 33 31 45 32 47 30 21 18 51 41 34 31 30 33 26 45 36 26 48 33 43 20 32 37 28 36 29 27 44 34 33 26 27 44 38 47 36 20 34 35 35 44 23 35 34 48 46 37 38 35 34 38 20 34 27 14 32 64 24 17 16 40 22 40 27 67 48 26 54 41 17 32 30 42 33 37 30 25 44 40 34 29 58 28 41 34 25 29 34 37 17 34 20 28 46 36 27 27 40 37 38 48 43 37 41 27 15 24 21 30 29 37 34 40 34 26 16 48 39 44 28 41 46 53 29 40 38 30 41 36 19 50 23 31 27 36 10 23 33 38 36 37 23 31 50 26 35 46 34 26 30 28 46 34 44 47 29 47 41 16 39 37 34 30 33 40 23 38 37 40 16 33 32 23 36 19 34 26 43 27 27 49 34 28 33 16 20 39 29 35 43 24 44 33 38 31 32 51 36 20 31 23 39 22 44 23 30 38 29 47 37 35 36 20 30 20 42 27 24 16 23 46 38 51 26 34 47 30 31 43 25 33 47 9 32 30 34 26 33 15 52 29 33 24 41 41 41 41 47 23 43 43 33 40 43 34 40 35 35 41 37 40 47 21 37 32 33 21 44 26 20 41 22 35 31 41 30 43 62 29 35 41 47 29 50 22 36 39 23 33 39 38 45 29 39 19 27 34 29 41 41 29 32 32 40 32 37 40 43 38 37 42 26 28 44 26 33 24 29 20 37 32 16 33 33 29 52 55 48 30 38 42 41 40 29 20 36 19 37 48 30 27 40 40 28 20 30 41 33 40 37 27 40 27 28 52 45 30 37 40 13 37 45 38 31 23 37 26 33 34 29 35 48 38 23 45 25 36 39 44 49 38 26 41 43 32 19 37 21 41 29 33 38 63 20 38 26 35 24 31 42 33 27 40 48 32 31 45 41 19 25 40 44 27 46 49 33 31 11 29 46 30 22 30 38 40 20 33 25 43 26 24 40 34 40 36 43 32 33 48 16 22 47 23 54 47 43 27 55 17 25 23 35 58 26 33 27 29 29 16 39 37 33 42 21 56 44 50 26 53 57 32 35 27 40 22 33 41 30 29 31 21 34 22 36 37 34 28 41 26 31 41 39 51 40 41 23 30 23 41 37 34 39 47 19 44 34 36 32 22 45 38 48 41 40 51 30 43 35 46 27 40 33 33 19 34 37 43 46 33 25 36 36 44 26 25 35 41 20 30 33 32 51 25 33 34 37 22 29 40 19 32 16 24 17 44 35 37 43 27 47 40 44 66 43 29 35 31 33 19 43 32 28 28 46 39 47 37 34 40 25 25 31 31 29 33 26 38 40 43 44 46 44 28 37 37 20 38 41 41 47 27 34 33 46 42 23 30 23 39 23 46 33 25 44 49 30 35 33 41 39 19 30 43 38 6 44 45 37 46 49 33 41 23 32 37 34 33 51 30 17 22 25 37 23 41 40 23 30 45 36 41 42 41 43 32 23 23 51 38 38 30 34 30 36 30 32 40 29 23 32 29 26 53 23 34 40 23 21 43 36 48 35 36 36 30 23 39 45 46 45 34 46 18 36 23 29 34 33 30 51 31 40 34 43 33 44 45 24 27 34 30 30 30 30 31 36 30 19 33 36 16 26 45 32 23 41 47 57 33 41 26 27 30 21 30 33 58 48 40 33 30 33 39 33 23 44 34 37 22 34 41 31 36 43 51 40 45 19 26 36 31 27 12 44 37 47 31 46 43 29 51 20 37 37 26 22 45 34 38 30 31 44 47 43 41 48 41 37 43 33 30 29 54 36 44 43 33 37 32 27 31 27 45 29 41 20 34 29 46 41 46 46 23 18 41 41 37 28 55 43 29 30 36 37 18 27 46 34 45 37 30 25 47 23 33 27 24 43 33 45 52 30 35 37 58 43 16 47 30 30 25 29 35 37 33 29 46 43 41 31 20 52 19 43 24 30 34 40 32 19 16 30 20 32 49 29 42 22 18 46 16 39 34 15 41 21 40 35 37 33 27 19 36 49 34 41 40 40 33 31 41 31 27 33 37 40 33 40 29 52 37 54 37 23 27 37 36 26 40 26 33 19 41 34 43 28 26 41 45 33 40 37 33 33 38 48 34 59 35 37 34 34 30 32 37 22 33 23 40 47 42 30 40 43 37 31 30 22 23 38 41 60 26 20 22 59 30 26 40 34 51 33 40 34 55 33 34 30 40 38 41 34 39 43 41 32 43 38 27 26 16 42 30 43 42 39 43 23 26 37 21 45 34 45 29 38 35 23 14 31 20 26 18 45 32 41 37 29 23 35 43 30 37 34 27 29 29 24 38 37 33 30 51 27 30 44 42 38 54 48 27 38 47 29 17 28 33 33 36 33 35 26 36 23 51 43 39 29 34 26 34 29 34 32 37 27 30 29 23 44 38 45 40 24 37 31 49 45 32 38 33 31 30 43 31 29 23 19 42 35 39 13 41 37 29 38 16 52 37 30 45 26 39 26 37 47 59 33 47 22 45 34 33 29 24 57 46 43 32 23 41 16 39 37 38 51 56 42 29 36 39 37 28 43 43 28 22 22 24 36 26 43 40 36 30 36 30 15 33 43 34 26 37 31 33 40 43 27 36 55 25 33 37 27 30 35 31 38 57 17 40 24 32 27 42 53 39 30 29 23 23 37 24 24 23 35 35 36 27 22 36 47 22 49 37 41 32 36 45 31 34 36 33 45 45 30 43 41 37 41 33 25 23 47 47 13 39 27 22 23 37 36 55 43 47 44 37 33 36 30 29 51 52 36 45 36 47 31 27 37 13 30 27 40 47 29 40 30 32 48 43 36 19 24 59 38 28 38 29 47 30 32 31 15 42 44 27 36 37 34 46 40 34 33 47 57 49 30 26 32 27 23 41 22 33 34 37 41 51 19 33 39 27 31 36 27 39 18 29 29 51 30 33 33 25 21 34 22 30 29 27 47 37 24 18 33 27 27 41 38 38 37 37 54 26 45 34 28 32 47 44 31 32 33 30 47 41 39 15 34 47 27 37 40 43 37 28 47 17 30 33 16 10 43 37 34 40 30 37 33 34 33 27 22 32 28 30 33 29 52 62 22 30 19 50 32 42 35 25 36 23 43 17 24 37 19 30 31 30 17 21 27 48 27 37 16 21 13 40 22 24 33 33 40 48 20 45 34 30 30 43 24 34 40 32 25 34 40 32 40 42 23 43 42 17 16 30 30 29 45 33 30 39 37 35 19 19 32 23 33 13 22 26 20 37 35 36 27 24 33 30 36 37 41 56 38 37 25 28 41 19 30 43 62 37 29 27 37 26 46 24 44 15 33 22 37 51 44 29 23 39 50 55 16 45 19 27 19 41 27 47 20 46 15 31 20 32 32 57 47 29 33 51 26 36 34 36 45 34 37 37 22 40 34 22 31 49 43 16 36 30 33 44 25 38 30 41 52 31 30 47 23 29 51 29 40 16 33 47 17 47 57 49 37 42 34 28 37 40 53 29 33 46 36 38 46 30 40 30 32 40 27 43 51 24 39 20 33 20 38 37 31 43 34 16 39 33 38 31 22 16 30 44 31 35 38 39 27 22 9 49 38 26 18 38 30 38 16 30 27 35 31 41 41 46 37 23 47 45 31 50 26 40 31 26 39 43 26 26 23 37 37 24 32 33 26 47 55 48 26 34 27 23 38 29 45 29 30 44 36 29 30 32 37 43 30 34 24 22 22 33 43 37 19 19 15 44 34 37 54 41 36 39 37 28 24 19 22 42 35 51 37 39 33 13 30 14 34 26 44 33 31 46 50 38 40 16 29 54 35 43 52 33 57 30 25 30 45 43 26 45 33 35 34 31 29 36 43 39 38 32 42 26 36 56 30 40 26 26 12 29 37 37 29 23 44 31 37 18 31 24 47 24 20 47 33 33 26 37 26 25 36 44 27 47 35 25 49 26 40 23 33 33 30 23 42 33 42 41 37 56 33 52 20 27 39 22 59 51 42 23 37 54 51 37 17 37 30 47 36 36 27 47 37 48 33 33 43 35 37 36 31 36 39 51 51 29 41 23 28 23 31 56 48 26 27 40 36 33 35 30 53 27 35 26 43 37 40 27 27 41 23 30 39 35 27 9 29 37 36 26 28 56 33 50 19 46 33 22 22 20 27 27 27 36 37 34 46 33 19 23 25 28 26 33 31 16 36 50 34 39 31 39 30 40 44 40 33 29 33 38 35 25 36 53 30 31 35 29 40 20 31 43 51 33 37 29 32 27 45 59 27 22 23 29 63 37 23 38 43 23 29 29 50 37 33 39 42 20 28 36 33 33 37 33 19 36 36 51 38 20 17 20 33 51 34 36 30 48 24 38 33 30 45 37 23 40 39 31 23 27 19 26 20 23 38 27 29 33 45 33 45 26 28 51 20 30 37 33 24 27 26 42 44 18 37 44 29 28 41 30 20 40 9 45 26 32 34 35 50 43 25 40 30 16 29 30 27 33 34 31 32 39 39 40 46 39 27 36 41 26 29 48 43 37 49 31 30 38 25 33 49 40 19 43 33 45 21 29 16 48 30 28 36 37 46 33 41 27 26 43 45 17 43 22 22 47 23 42 29 24 39 45 37 35 23 47 27 31 33 39 33 40 57 25 33 55 15 44 30 37 37 49 47 42 43 28 16 62 61 24 37 50 21 55 47 36 31 20 41 24 16 40 38 27 25 41 25 18 43 27 36 34 27 19 40 37 19 27 57 26 43 38 30 37 23 47 44 49 29 40 52 26 61 45 34 39 33 37 34 22 41 38 29 51 23 37 43 35 32 43 24 41 18 43 43 45 29 52 33 47 33 19 37 41 30 30 27 29 19 35 33 36 39 27 16 37 30 30 20 37 19 23 50 20 45 26 37 31 30 47 31 25 42 35 54 30 51 29 34 26 44 37 41 34 54 40 20 28 36 40 35 46 44 40 49 31 40 28 19 46 26 40 30 20 37 42 37 35 47 46 16 20 47 17 58 44 37 43 35 34 31 24 54 40 33 31 27 25 37 35 33 38 27 40 30 40 36 37 36 22 23 43 36 36 37 24 51 50 40 24 52 32 27 30 30 44 43 57 34 23 16 49 25 37 32 41 35 13 16 38 41 36 51 37 39 47 17 27 25 32 54 33 32 37 37 34 40 53 48 48 29 30 31 39 38 25 37 25 24 28 55 26 26 36 42 23 25 40 38 33 44 49 36 35 20 33 22 47 43 51 37 34 35 47 57 49 36 35 35 39 41 33 38 35 26 41 41 21 25 40 33 23 37 42 28 37 44 21 20 23 50 29 40 22 36 25 38 40 23 49 59 28 35 44 25 43 33 37 31 20 33 46 36 36 37 47 32 45 32 27 42 31 32 38 29 23 34 19 30 45 33 40 26 36 37 41 41 27 22 39 28 44 41 27 25 31 47 34 34 28 41 37 30 33 36 19 29 34 39 30 44 26 37 45 38 15 27 60 36 32 43 24 13 54 40 41 32 29 38 51 27 20 20 22 35 37 34 33 56 34 34 34 29 22 16 41 58 51 19 27 37 34 46 37 57 36 52 30 22 39 27 27 37 31 23 36 19 36 34 20 30 25 40 35 31 34 22 45 34 36 39 29 45 34 34 16 29 39 37 43 52 22 26 16 30 36 47 37 43 27 49 19 33 39 41 36 40 45 39 35 27 46 41 29 26 44 27 16 39 26 33 54 36 19 20 36 37 30 19 49 43 39 62 44 29 49 43 34 35 27 39 23 41 37 42 43 26 23 25 50 19 32 55 38 42 30 49 43 22 26 45 34 43 29 27 34 42 57 32 41 23 39 26 34 23 34 33 49 42 22 26 53 15 29 30 27 29 33 30 51 40 44 46 48 20 20 15 29 37 36 45 43 41 34 45 30 56 57 31 35 33 38 33 51 44 29 45 29 37 28 50 39 43 24 38 21 29 51 45 33 30 30 28 43 30 51 54 36 38 37 39 41 40 41 38 29 58 50 30 34 27 46 30 27 31 29 24 39 28 26 24 30 36 46 36 35 32 28 37 23 26 53 34 26 31 31 37 22 30 44 25 48 37 20 44 26 27 26 40 34 45 36 23 41 27 28 44 16 41 28 30 44 51 37 31 37 23 26 26 34 19 23 58 26 39 32 31 29 16 37 43 43 31 28 28 41 37 43 26 38 14 40 22 35 61 50 39 34 15 37 30 31 26 30 37 27 48 51 28 26 45 48 30 48 47 24 33 37 37 40 48 27 44 30 45 52 26 20 43 40 33 18 26 39 34 15 45 31 39 40 28 33 26 23 48 31 31 48 25 31 20 30 49 33 31 31 23 26 41 51 49 37 40 40 30 24 40 40 35 27 29 30 43 17 15 44 23 29 25 43 31 29 30 31 33 34 31 33 30 26 26 33 41 44 40 39 19 23 46 45 37 44 34 16 22 45 45 37 44 59 9 33 27 35 53 30 34 23 41 19 32 41 30 58 26 40 42 41 28 40 46 25 50 28 40 37 39 34 27 34 37 40 30 33 41 49 39 34 33 33 34 50 36 40 23 43 52 25 19 29 36 58 20 43 46 43 40 43 23 22 44 40 32 36 41 32 22 24 31 57 20 39 46 37 19 23 17 43 36 27 35 37 42 38 38 50 50 29 33 40 45 41 55 36 23 26 47 44 26 43 34 17 48 50 19 33 38 29 48 43 36 44 25 36 25 33 33 37 22 35 38 57 43 24 29 35 35 22 34 16 40 23 49 52 39 42 54 51 25 42 43 21 36 30 29 30 37 29 48 36 44 32 37 62 23 43 35 38 30 53 20 23 54 44 42 29 30 38 36 47 30 29 26 48 41 39 51 39 29 30 33 37 40 43 65 28 33 34 31 37 19 48 34 26 19 29 57 19 19 34 40 56 27 26 44 33 33 44 29 40 26 21 25 29 30 56 51 30 23 26 28 12 36 37 42 40 41 19 38 25 33 22 33 33 30 45 34 34 26 27 40 41 23 43 30 33 40 42 30 36 15 22 30 34 26 28 29 32 33 41 43 41 19 30 16 36 39 39 33 30 43 41 30 23 31 29 25 46 38 42 27 21 51 26 30 24 55 32 45 26 28 31 40 23 20 37 33 21 23 33 35 19 24 28 26 33 32 31 31 24 41 37 29 45 40 26 30 46 43 43 40 48 45 30 28 32 34 22 56 28 55 41 24 27 37 30 27 36 36 36 26 33 53 46 27 41 40 32 24 38 30 32 42 44 27 39 43 39 44 45 47 22 40 30 40 30 40 13 35 27 13 47 41 42 36 31 40 44 47 28 61 32 43 30 41 40 29 42 40 29 20 30 44 35 37 51 27 36 21 28 28 33 41 43 37 25 37 29 25 47 37 39 22 44 36 23 53 41 32 36 40 33 23 37 36 55 52 39 27 31 31 19 44 20 23 43 48 44 38 60 51 26 50 54 33 26 42 32 29 23 38 30 29 43 34 32 41 31 23 41 47 29 43 36 50 41 44 50 38 36 33 35 16 21 31 37 22 33 26 51 44 34 20 34 32 27 26 37 45 47 40 16 35 26 38 49 30 47 27 62 26 35 31 34 22 30 46 31 25 37 31 33 31 15 31 48 30 23 26 20 35 45 25 33 41 26 30 42 24 57 33 26 23 23 19 22 44 46 19 37 43 47 54 37 38 21 51 54 51 34 29 38 9 37 25 37 40 26 38 43 24 33 43 22 43 23 45 27 27 47 41 31 28 31 32 43 41 52 27 31 37 37 33 27 46 47 33 31 31 27 30 50 29 28 23 24 28 31 47 29 34 48 31 71 27 31 48 20 30 6 48 56 29 31 37 37 33 36 23 30 46 48 37 36 23 32 23 37 16 52 38 43 28 48 41 54 57 19 28 49 26 41 12 29 26 34 48 33 39 22 29 27 33 37 24 37 19 30 31 27 32 29 25 40 41 30 17 32 52 42 26 37 29 34 36 37 38 9 48 34 9 35 33 30 40 30 43 21 33 41 29 39 35 30 55 29 54 30 36 38 29 43 23 30 32 40 41 36 51 37 20 54 23 13 36 34 32</t>
   </si>
   <si>
     <t>PTS</t>
@@ -102,52 +102,52 @@
     <t>List</t>
   </si>
   <si>
-    <t>JSB(2.167397692017164, 3.000504371796711, -17.28475790406861, 106.52770807917216)</t>
-  </si>
-  <si>
-    <t>24 17 17 19 24 20 24 10 41 20 7 17 13 23 26 19 19 6 29 14 31 23 13 8 13 10 6 13 15 21 9 13 12 13 30 3 17 17 16 20 34 13 18 10 34 31 10 27 10 23 24 24 20 14 10 17 20 24 24 20 20 34 20 6 12 41 19 14 9 10 27 16 20 33 9 13 14 13 20 15 20 23 29 13 2 21 6 21 35 29 30 16 21 13 10 16 20 7 20 14 20 26 9 19 13 19 6 21 6 9 7 3 12 24 13 17 14 12 20 24 10 15 7 23 10 13 23 14 24 14 27 24 14 21 10 25 17 17 17 28 25 28 14 31 20 26 28 24 12 20 13 29 15 20 20 16 28 23 10 9 20 30 0 33 13 10 14 27 20 16 20 3 20 27 6 10 9 28 31 14 27 22 16 23 17 6 19 24 45 17 23 29 17 24 17 17 3 17 24 23 16 13 16 17 24 27 16 13 12 27 24 10 27 23 27 21 17 10 30 16 18 20 21 28 26 24 13 23 24 14 20 20 20 24 24 10 24 16 31 10 22 12 0 17 17 6 13 14 21 22 18 6 13 23 16 23 11 23 9 23 10 27 11 26 27 6 7 10 20 10 9 10 11 3 20 7 17 19 16 17 10 16 10 19 9 20 21 34 13 30 10 13 35 16 21 10 26 20 20 13 20 14 13 9 21 20 21 13 14 13 27 20 34 14 12 35 27 9 24 20 17 23 14 20 13 16 38 9 19 13 20 34 23 17 20 20 20 23 20 15 23 24 38 13 13 20 21 10 24 17 27 17 34 27 13 13 20 10 13 24 13 13 7 26 19 7 23 16 13 7 27 7 7 10 20 20 10 10 31 15 20 3 20 9 19 12 24 21 14 25 16 15 26 10 31 16 24 10 19 17 13 21 6 13 16 20 19 16 18 19 21 29 20 26 20 14 17 20 21 17 17 16 20 23 16 7 23 20 14 20 20 16 27 20 6 13 24 20 16 7 20 17 40 21 31 19 9 26 23 16 13 23 6 24 17 10 17 27 26 22 12 19 6 28 16 30 24 13 19 20 34 24 13 17 6 27 20 24 21 28 17 27 20 21 3 3 14 14 12 15 10 13 23 21 31 31 9 22 27 27 27 14 20 20 9 26 17 28 8 20 16 47 20 18 13 19 28 9 17 10 23 13 23 13 14 36 16 13 17 23 14 10 17 17 34 14 16 13 13 20 10 28 20 20 10 21 19 8 10 24 26 18 16 6 16 14 6 21 13 24 19 14 10 16 20 23 21 10 3 17 13 7 6 7 13 19 21 22 34 19 11 17 17 30 17 10 9 27 13 13 6 34 30 13 12 15 31 10 14 27 13 20 20 23 14 16 9 35 23 17 20 14 17 7 13 28 10 14 9 23 28 13 16 13 9 24 29 3 24 30 10 20 17 14 21 17 3 10 13 24 20 20 12 23 13 17 20 8 15 16 19 14 6 28 7 20 23 13 24 16 10 20 19 20 17 13 15 6 17 15 6 20 21 23 14 24 31 26 21 31 20 16 10 24 34 10 7 10 27 14 14 23 20 13 23 20 17 27 9 24 15 24 31 23 18 35 24 19 17 29 10 10 8 14 9 36 23 27 24 24 3 31 11 15 23 19 14 19 10 17 8 23 10 27 7 27 23 13 31 24 20 41 27 14 21 10 14 18 20 26 26 17 16 17 27 22 12 10 6 9 20 21 38 24 17 21 16 21 13 10 27 3 7 20 21 37 12 15 17 0 28 13 19 23 9 29 36 25 21 12 26 13 10 27 17 20 13 7 7 23 17 13 20 34 20 14 16 10 14 14 13 14 20 16 13 20 17 17 14 20 23 16 17 14 19 13 39 23 13 28 17 13 19 7 10 13 14 30 26 12 13 12 20 20 23 20 10 27 24 10 6 37 7 16 22 26 13 24 19 3 30 16 21 9 23 22 13 10 10 13 19 26 24 13 17 28 21 14 20 14 19 24 14 13 17 23 27 12 16 16 23 23 3 20 10 16 21 20 16 23 22 6 29 3 14 27 21 31 10 13 22 16 24 30 16 20 28 6 17 10 3 17 22 16 27 17 17 27 10 16 20 17 3 32 9 38 20 7 21 24 20 15 28 23 16 21 27 10 10 24 16 9 13 10 0 28 14 27 17 13 14 17 15 30 8 17 10 17 14 17 15 20 17 14 17 21 18 12 45 13 10 9 23 34 24 11 13 16 16 12 28 24 24 24 27 17 13 20 22 7 21 20 9 27 13 16 15 6 21 18 14 24 27 40 13 31 3 30 20 17 11 27 6 24 6 20 15 24 14 3 16 38 16 10 17 14 14 9 24 23 27 17 14 10 20 28 27 21 26 12 17 21 21 10 31 9 7 17 16 13 24 20 13 20 14 7 22 21 9 23 21 20 27 17 10 28 19 10 26 14 14 13 26 17 24 22 14 19 10 9 27 12 13 17 14 13 9 13 23 22 27 26 13 16 20 17 28 20 23 12 20 10 15 27 13 9 21 19 10 16 14 15 3 18 22 10 22 10 13 12 21 20 23 14 14 27 17 31 35 17 12 17 3 13 34 13 24 23 16 14 24 10 13 7 23 20 13 7 17 13 13 23 14 3 10 17 3 30 19 14 13 3 24 20 26 3 19 16 31 31 26 11 6 13 9 27 12 24 13 17 15 26 27 27 34 7 14 20 31 17 17 13 6 21 16 9 23 28 13 20 40 23 28 21 27 17 21 16 14 30 30 24 23 26 12 34 6 21 20 7 20 10 7 15 6 20 20 13 17 13 17 28 13 9 13 6 17 26 14 15 13 9 25 14 16 13 24 20 24 27 17 6 26 7 22 24 20 13 3 16 13 27 16 28 10 6 20 33 24 29 13 17 17 28 28 20 17 9 33 24 6 35 14 21 34 17 28 12 22 20 20 19 23 22 23 31 15 27 23 16 17 20 21 13 16 17 13 27 17 10 22 15 16 27 16 12 15 27 23 35 19 20 21 13 14 16 17 16 17 13 17 10 24 17 17 9 17 28 0 13 15 3 13 10 20 17 33 16 23 13 12 29 11 31 23 9 13 7 17 17 24 16 9 3 28 9 16 20 21 20 13 9 17 3 27 19 14 24 20 9 27 24 19 6 26 27 17 26 34 14 3 9 17 17 13 20 6 10 19 16 17 25 21 34 14 23 17 24 33 20 6 27 20 13 17 16 24 23 17 9 9 21 13 37 26 14 21 30 16 25 6 6 3 9 7 20 10 16 16 13 24 13 20 22 14 6 13 24 13 28 16 19 6 23 8 20 24 20 7 27 27 23 7 24 36 22 27 34 17 7 25 24 27 10 14 30 14 14 17 27 12 24 24 15 20 17 24 24 17 10 19 14 33 13 17 18 12 7 24 17 20 17 3 16 23 3 19 10 0 17 21 27 17 27 24 19 13 38 23 13 23 20 18 19 21 29 17 26 26 10 7 23 16 16 17 20 14 31 27 26 19 13 24 24 17 17 17 13 12 27 27 12 38 24 20 20 24 7 23 7 13 27 28 31 3 16 9 17 31 10 12 10 17 33 13 24 10 23 13 7 20 24 20 10 25 31 16 14 14 27 21 26 13 30 24 23 21 24 31 31 14 16 29 10 33 16 10 23 6 16 9 24 7 6 30 18 6 17 17 10 10 14 24 27 10 17 20 13 6 23 16 21 23 16 10 37 14 17 13 7 3 23 28 31 3 7 23 17 33 10 23 10 3 15 26 26 31 10 9 13 16 14 20 16 6 8 10 18 15 17 6 17 13 17 17 7 13 6 13 9 6 32 31 10 17 7 24 21 3 20 7 24 22 7 18 17 14 17 14 24 20 19 19 16 21 20 17 17 9 28 3 18 10 20 17 23 17 20 30 13 23 6 10 30 33 23 34 23 20 20 27 0 17 19 13 20 20 28 16 15 9 24 9 20 12 24 17 6 31 6 17 16 27 23 23 28 16 17 13 21 29 20 13 21 28 30 10 24 17 28 24 17 16 20 10 14 16 10 27 13 14 20 16 24 29 17 17 16 28 13 10 0 31 7 20 27 6 15 10 24 20 7 17 12 0 27 23 17 10 10 14 20 6 17 17 24 10 19 6 17 7 21 6 7 10 19 23 24 20 13 34 21 19 23 9 23 6 23 3 27 20 18 16 27 13 21 19 21 41 28 27 20 14 16 13 27 10 17 10 10 16 21 14 16 37 28 17 19 20 17 23 20 23 3 24 20 20 17 27 14 13 19 16 15 7 10 10 17 10 9 13 6 17 20 30 13 10 13 28 24 16 9 20 16 36 21 27 23 9 17 13 16 21 21 26 27 27 19 34 17 30 3 17 24 27 7 9 6 24 7 21 6 7 16 10 13 22 15 28 24 24 9 20 23 16 27 15 10 6 26 23 9 24 10 20 14 21 26 30 13 31 14 13 35 21 17 24 6 26 17 16 27 5 24 10 13 14 16 9 17 17 13 7 10 10 21 29 10 12 23 24 10 13 14 34 14 21 27 19 16 3 23 17 6 15 17 17 29 6 34 19 10 35 17 10 20 16 0 27 10 24 19 24 14 3 20 7 17 17 6 16 24 16 38 15 17 17 19 14 27 14 19 17 14 3 24 9 30 16 20 14 21 19 24 17 10 20 9 17 3 6 20 20 10 17 12 27 23 35 10 13 22 9 23 17 20 31 26 17 37 13 13 30 13 21 10 17 22 16 15 20 17 13 26 11 27 6 28 20 19 23 12 27 29 22 21 24 7 7 20 0 21 19 23 7 30 24 17 10 23 33 22 21 20 28 6 12 6 34 24 13 21 16 13 13 26 3 44 16 33 17 17 6 34 20 17 9 24 16 6 30 19 17 14 24 10 21 15 13 20 9 21 14 35 17 33 17 9 15 20 10 17 13 11 13 6 30 21 18 7 20 23 14 13 16 20 11 3 7 17 7 11 23 33 6 11 23 24 8 10 26 10 14 17 17 13 23 22 26 6 10 19 26 10 16 14 21 13 24 20 30 18 27 14 9 17 14 29 34 13 30 21 18 13 30 28 3 15 17 23 17 35 30 27 17 14 23 19 16 3 13 10 24 19 27 29 24 13 19 14 24 22 10 24 34 20 24 15 28 10 10 6 20 12 14 16 13 17 14 27 24 20 13 13 14 28 20 18 14 27 17 17 7 14 9 11 13 3 20 13 7 17 7 17 24 30 23 16 9 10 22 9 10 16 26 6 20 23 24 3 6 26 34 6 31 22 10 27 13 28 6 28 17 13 27 13 26 13 21 28 20 40 13 16 17 12 17 10 20 19 13 13 11 20 38 13 34 20 7 13 26 20 6 17 14 3 6 25 24 24 17 19 14 13 7 19 17 10 20 29 10 23 13 9 20 23 24 16 17 24 20 7 10 12 16 17 7 13 17 10 13 27 24 23 24 7 21 19 7 13 27 28 13 25 7 12 16 24 29 13 15 16 27 12 21 12 15 14 34 9 10 16 9 27 14 28 13 13 10 24 17 24 10 17 23 34 16 9 13 14 27 10 24 27 28 23 15 9 13 27 17 19 16 17 6 14 13 13 20 17 6 16 9 12 6 24 27 13 3 14 19 17 10 12 9 19 30 17 6 14 38 24 12 17 21 13 19 17 13 27 27 20 27 29 30 21 10 31 10 16 32 21 15 26 26 13 24 31 17 21 20 21 30 17 16 6 3 38 33 17 21 45 10 10 30 10 34 15 10 13 17 21 10 24 21 21 19 20 15 10 24 20 9 7 20 31 20 31 7 21 30 10 17 26 17 3 29 3 19 13 24 23 17 17 14 26 13 13 26 6 24 6 7 7 22 27 24 29 10 8 31 19 13 28 16 17 21 27 20 21 9 6 27 10 34 27 13 19 33 10 23 3 20 33 18 23 10 3 3 26 24 9 20 19 12 17 20 23 20 6 21 19 9 13 25 23 28 15 12 14 13 24 22 13 21 3 12 14 9 13 17 17 27 14 16 16 20 28 21 9 18 16 10 15 24 13 24 17 20 20 21 9 3 27 9 17 27 17 32 6 21 12 20 10 16 21 24 17 13 25 14 17 23 7 13 19 19 13 13 8 14 24 17 20 12 23 23 17 10 16 21 13 10 14 38 15 10 28 31 14 13 10 17 27 17 17 18 24 20 24 3 10 3 10 21 30 7 20 17 13 10 10 6 16 31 17 9 13 10 25 21 24 24 20 21 24 27 10 17 17 23 10 7 25 11 14 14 13 7 13 23 7 24 10 19 10 13 17 14 14 17 20 27 3 24 19 10 40 20 16 24 9 14 9 10 11 22 7 10 17 14 20 10 21 18 16 10 20 6 24 6 23 12 20 6 27 7 12 10 20 14 17 17 6 23 9 9 34 15 6 17 10 22 13 7 14 30 17 26 30 24 21 13 38 20 16 16 41 8 17 20 25 9 34 20 30 14 17 26 13 14 10 17 14 12 19 6 6 8 27 23 13 12 25 17 24 30 19 24 16 9 16 29 16 19 32 31 16 17 11 27 22 7 23 12 19 20 20 16 21 13 30 6 7 13 11 19 38 24 23 17 30 9 17 6 20 19 0 17 17 23 20 40 24 12 17 20 10 13 13 13 28 14 17 33 20 10 34 13 21 19 20 20 25 26 10 27 20 19 23 14 13 21 12 13 26 30 17 19 36 7 23 27 17 16 24 16 20 17 23 28 14 13 27 30 21 12 24 12 28 21 6 16 13 20 10 14 24 33 20 23 17 19 10 28 16 17 12 24 13 20 11 16 13 24 13 21 20 17 10 14 16 20 14 13 11 26 13 31 17 13 16 3 28 19 14 20 10 26 20 17 27 14 30 24 30 24 44 6 16 9 27 10 20 17 20 23 42 36 20 20 10 27 9 17 29 7 10 13 17 20 23 13 14 0 6 27 15 23 27 10 40 27 20 22 10 13 24 13 33 30 14 28 13 20 19 9 23 20 29 10 21 41 27 37 10 17 22 14 24 23 14 21 17 28 21 17 16 30 29 14 21 14 20 9 17 18 13 7 24 21 13 13 3 3 10 17 13 16 13 20 17 6 27 3 10 20 21 21 24 10 19 16 20 17 21 27 20 17 22 0 10 30 10 20 13 30 16 14 31 9 19 10 20 27 23 23 7 14 24 10 22 20 21 16 13 20 10 12 6 26 19 17 16 24 14 32 21 31 18 20 13 30 17 28 10 23 27 18 23 10 23 21 13 17 6 20 16 7 7 20 10 17 10 24 17 13 27 3 15 23 16 10 20 6 34 7 7 3 3 13 19 21 13 14 27 19 20 24 20 13 30 10 15 17 10 19 14 7 24 24 23 12 31 20 19 13 26 6 20 27 14 7 23 40 17 7 3 16 17 3 23 20 20 9 28 14 31 23 9 19 16 13 27 7 21 16 20 27 27 19 28 10 17 6 24 7 17 28 23 27 13 13 17 23 23 20 23 9 7 6 17 29 21 13 16 13 10 17 16 23 3 34 15 14 10 24 19 20 26 17 16 9 26 9 27 23 30 16 9 17 13 16 23 7 20 26 20 26 10 15 31 10 3 17 27 31 20 30 23 17 27 24 17 37 17 12 20 6 10 35 14 12 13 17 24 24 24 23 27 0 19 31 27 13 10 23 24 23 17 9 27 10 10 23 14 17 16 31 13 16 14 13 19 28 16 20 16 10 23 10 22 16 28 23 13 26 19 20 16 21 6 12 10 3 10 13 7 14 21 3 17 17 23 34 18 27 28 17 26 20 21 30 10 13 38 13 24 10 21 20 13 6 9 24 20 17 7 15 26 13 20 24 6 14 27 33 27 13 20 18 13 21 23 30 17 20 41 13 17 21 12 18 27 26 30 17 3 18 14 24 7 9 19 13 12 27 24 19 14 17 3 21 26 10 24 24 17 27 13 32 24 9 16 14 6 31 31 10 17 26 30 19 13 16 21 12 13 7 10 20 16 22 14 20 17 3 9 21 10 15 7 10 24 21 26 16 13 13 16 13 30 15 27 7 41 21 24 6 20 9 22 33 10 16 20 10 13 10 10 27 17 24 31 27 16 7 24 17 13 14 17 30 25 28 3 3 17 7 23 17 21 8 13 23 24 11 26 17 6 24 38 27 13 27 23 25 21 32 26 28 3 14 12 12 41 14 16 13 23 16 16 23 35 17 9 14 23 0 38 16 20 10 9 20 10 14 30 6 13 31 23 17 13 0 27 24 20 20 17 17 19 3 17 14 10 16 20 28 24 10 18 28 34 16 16 17 17 31 45 9 16 13 13 16 27 24 16 24 14 17 17 26 23 9 17 10 18 19 9 17 3 21 16 9 19 27 30 13 6 31 19 13 12 13 13 14 10 10 16 29 15 22 26 19 27 3 7 17 24 6 20 19 17 10 13 10 27 27 21 18 21 9 12 14 16 20 17 13 6 31 23 25 27 9 15 28 20 27 13 10 38 6 17 20 13 14 23 20 16 24 20 31 10 3 14 20 19 16 16 31 20 7 12 19 17 31 10 21 14 7 35 29 26 17 20 28 23 24 17 24 10 17 19 34 10 31 3 24 3 23 6 20 14 18 20 24 9 17 25 13 16 17 14 10 19 25 10 10 13 42 10 14 13 17 26 31 21 17 22 24 13 10 16 7 10 17 17 10 33 27 0 24 6 7 25 31 19 24 21 17 40 16 21 16 9 14 16 34 20 13 13 10 23 14 6 27 13 14 10 26 22 16 9 13 6 10 11 21 34 21 16 19 22 24 7 20 14 23 31 24 20 10 24 9 16 6 20 46 9 20 29 13 2 27 13 17 10 23 14 15 20 17 34 24 20 16 27 29 13 0 0 24 23 23 17 24 24 19 6 17 24 23 20 13 7 20 13 10 9 18 15 23 23 10 17 17 17 31 6 10 17 27 31 24 13 10 14 23 18 14 20 34 6 16 12 21 16 31 20 0 11 20 6 24 16 29 17 0 10 26 14 30 23 12 17 16 9 29 20 28 17 20 10 14 38 22 6 13 20 17 13 27 14 9 20 19 6 24 13 13 10 19 9 13 7 20 20 21 17 13 17 37 17 26 21 21 20 24 9 30 13 27 20 20 10 16 13 13 8 13 27 9 19 25 14 16 17 10 24 17 12 24 17 7 20 23 7 9 13 7 16 23 10 24 24 6 16 28 10 13 30 10 21 16 17 14 23 30 24 17 23 16 20 7 7 17 24 16 10 13 24 13 7 27 27 12 23 10 31 25 10 20 10 17 22 24 24 9 15 27 17 3 17 16 3 22 30 17 20 40 17 10 3 17 23 17 27 19 17 21 30 22 13 20 23 22 7 7 12 23 7 0 22 10 3 14 10 23 27 13 16 23 13 19 13 20 17 28 11 16 19 28 12 10 23 17 27 35 16 10 7 13 10 12 20 27 10 23 19 16 34 6 32 7 16 30 12 18 16 10 10 23 7 21 31 33 20 6 15 23 20 7 10 16 23 16 8 23 10 20 21 14 28 16 23 23 20 23 23 9 17 6 20 27 10 23 20 24 16 34 22 20 17 17 17 10 27 21 27 23 17 31 13 24 23 16 17 6 16 16 24 16 24 16 20 19 12 0 9 24 20 10 3 11 27 10 8 13 14 14 18 14 22 14 30 14 24 23 21 24 10 14 23 7 10 20 21 10 16 12 17 13 15 6 20 17 31 20 16 20 13 24 9 13 13 10 23 10 9 12 12 16 3 7 7 27 7 13 27 13 13 9 26 22 16 3 13 23 3 38 20 20 6 12 23 13 19 30 20 18 7 10 17 26 17 20 30 37 34 13 16 3 19 16 17 20 20 7 14 17 19 17 38 12 20 19 16 10 17 17 34 14 17 11 10 13 3 10 10 38 10 10 10 7 20 21 14 31 6 20 34 14 19 34 17 13 17 9 24 3 19 20 26 28 17 21 7 24 30 14 5 19 27 19 27 21 20 7 14 20 21 14 30 8 11 26 21 6 10 24 5 24 23 12 3 13 20 16 6 21 17 20 24 7 20 27 14 20 27 12 10 24 11 24 28 15 7 18 28 10 7 12 24 19 30 17 14 10 12 16 10 15 10 20 26 13 23 9 6 24 17 23 17 22 3 38 13 15 20 21 9 9 27 18 28 15 23 15 20 17 10 14 14 23 17 24 20 7 15 6 35 21 17 20 7 9 17 13 16 26 24 28 27 16 10 28 20 23 13 34 9 28 23 35 23 24 20 30 16 13 3 17 14 13 16 20 16 17 10 7 26 16 3 23 20 23 20 9 36 15 13 21 6 22 17 17 26 17 16 27 20 15 27 21 25 13 3 14 34 24 10 31 7 6 27 17 20 17 19 14 24 17 24 24 14 12 13 12 16 0 20 31 14 14 34 20 28 22 16 10 27 25 31 27 13 10 17 23 27 17 14 13 10 35 3 13 20 8 10 17 16 6 23 10 34 20 24 24 13 13 9 16 33 23 19 19 20 24 13 24 24 6 16 20 28 14 16 16 13 28 16 17 17 9 3 21 16 17 20 24 20 27 14 17 17 24 9 20 6 29 13 13 17 26 30 17 19 10 13 10 28 20 14 10 17 20 28 13 16 16 13 22 14 20 31 31 24 14 27 24 14 22 16 10 8 17 17 15 19 12 28 18 19 27 19 17 13 34 17 17 24 12 14 28 17 20 7 29 3 14 17 9 14 16 16 8 14 16 7 20 6 0 24 27 13 13 20 12 23 16 10 16 27 9 6 7 22 21 14 24 28 21 13 38 17 12 34 21 10 23 3 19 21 16 14 24 17 22 6 14 25 12 16 23 19 6 16 16 13 20 17 17 13 22 10 28 21 17 24 14 20 14 6 27 20 16 16 3 10 10 22 20 17 13 27 9 35 15 23 20 29 45 23 3 12 15 20 9 23 30 16 20 16 20 10 26 38 20 16 9 27 3 17 27 6 31 10 10 24 30 40 20 20 24 20 10 13 26 0 13 17 13 16 10 23 31 18 19 13 13 13 16 16 24 31 21 17 16 21 21 14 20 24 7 23 37 19 27 24 23 10 23 13 24 20 19 14 13 20 28 21 26 20 28 16 13 6 10 23 12 14 29 23 13 3 24 17 22 23 17 20 22 13 16 14 16 23 9 16 30 19 17 13 15 13 17 17 20 13 18 10 19 7 12 14 27 23 14 22 25 21 11 17 27 20 3 30 2 13 27 9 21 23 13 20 17 14 16 27 13 23 14 23 30 7 28 24 33 19 27 38 13 15 10 15 18 14 18 10 20 12 17 15 6 17 30 16 16 21 21 13 38 10 24 12 14 12 20 14 26 20 21 24 21 20 38 22 13 31 27 14 16 33 16 22 31 24 17 20 24 10 32 23 24 24 8 12 19 30 13 23 15 34 12 18 17 13 16 19 15 17 34 17 20 3 6 13 9 10 6 12 28 13 17 16 8 16 16 17 16 28 17 12 20 26 17 15 14 11 12 13 24 16 26 17 10 9 23 15 13 6 29 24 12 27 10 10 27 17 17 21 23 16 21 35 23 16 22 14 3 31 10 24 19 30 17 20 24 13 23 9 20 24 23 20 29 21 7 14 17 16 20 27 13 30 20 24 10 16 28 14 28 16 3 17 20 20 31 13 13 28 28 16 16 14 17 23 6 16 34 24 10 15 17 22 21 17 0 17 20 20 20 23 19 6 27 7 30 17 18 16 35 16 10 9 19 24 20 10 13 17 38 21 26 0 17 23 23 10 16 0 10 25 13 21 17 22 23 27 21 16 10 19 17 13 6 7 20 16 24 20 3 6 24 22 17 17 20 7 25 17 3 24 34 20 27 14 10 29 17 10 27 20 16 17 16 13 17 9 23 20 14 17 17 20 17 14 20 6 14 10 26 27 22 6 10 17 19 17 17 7 27 10 21 20 18 19 27 27 13 13 20 23 17 35 12 21 20 21 27 7 14 31 19 22 0 16 7 20 0 27 37 10 20 28 23 20 16 10 12 10 21 41 24 3 17 13 3 31 9 26 19 15 13 31 31 34 19 19 20 13 25 3 20 17 24 17 13 14 29 9 17 26 15 12 16 3 12 27 13 24 6 14 13 23 16 21 19 31 16 15 38 34 24 16 17 17 24 14 27 17 9 31 7 23 13 17 19 7 17 29 10 25 13 20 6 27 24 26 9 23 14 33 14 23 13 31 33 29 8 19 13 17 28 20 17 13 20 0 24 33 23 17 34 27 17 38 21 20 11 23 20 6 10 9 32 26 6 17 26 31 6 24 13 37 17 21 20 24 15 27 20 17 17 0 20 3 10 37 27 17 13 6 17 16 31 14 27 21 24 31 24 10 13 20 11 3 10 26 8 9 28 19 14 20 31 10 17 23 20 7 7 27 27 21 17 19 10 17 30 42 22 23 17 17 17 13 36 20 14 16 26 20 10 3 11 6 23 38 17 12 35 26 6 17 17 20 15 16 3 17 8 9 23 10 20 29 21 20 13 28 24 36 13 17 34 24 10 28 12 17 14 14 23 10 28 23 26 20 33 10 20 9 3 29 6 27 20 13 20 13 10 13 0 20 24 27 20 28 20 30 24 14 7 34 14 10 6 27 13 10 19 16 9 17 19 20 17 6 17 21 28 20 10 27 17 13 16 33 13 17 22 17 13 16 31 24 7 20 13 14 37 34 10 17 6 14 9 10 21 3 27 17 26 23 9 17 12 10 12 14 28 10 24 15 26 14 13 16 21 10 12 28 13 19 6 20 3 23 16 3 17 36 31 7 35 12 17 19 19 20 21 27 31 13 31 10 13 17 24 21 16 7 27 25 26 13 30 12 9 14 6 10 41 10 17 24 7 20 8 16 27 16 22 24 16 7 28 21 10 14 21 25 27 16 10 9 12 17 33 10 19 29 23 27 17 6 21 24 13 20 21 13 17 16 22 21 13 13 6 14 9 6 13 27 24 24 28 23 24 20 16 27 17 14 6 31 27 10 21 21 17 27 12 31 3 20 21 13 20 15 10 27 9 0 20 21 9 3 14 17 30 3 14 0 24 20 19 16 20 10 13 24 6 27 7 14 20 10 11 17 16 21 30 17 20 17 33 21 16 13 13 21 3 17 20 14 17 16 18 10 17 24 8 7 29 3 21 13 21 19 0 11 30 13 10 20 9 17 12 16 17 3 13 12 16 10 10 26 20 20 24 13 14 16 24 14 12 13 17 9 14 16 23 13 10 6 12 22 14 29 6 21 30 10 27 3 17 17 13 26 13 17 20 21 10 23 10 21 27 23 13 20 10 8 14 23 14 24 14 14 7 30 24 10 17 14 31 15 12 17 16 16 14 19 16 13 27 19 20 17 9 27 31 0 18 20 16 24 12 17 24 19 24 17 31 3 20 13 29 3 19 27 17 21 27 9 3 24 18 28 34 13 30 8 14 20 13 20 9 25 7 19 10 31 6 23 26 7 15 31 32 36 23 24 29 13 6 17 19 23 17 17 16 31 28 10 14 0 16 23 16 27 23 20 23 13 28 17 27 15 21 17 14 13 38 21 13 15 9 9 11 31 24 21 13 23 20 12 6 16 32 10 19 14 20 15 21 13 20 28 27 20 17 7 19 23 3 20 27 23 20 17 16 20 16 21 10 18 24 20 17 24 17 24 6 19 26 14 16 14 20 26 10 10 7 23 22 9 9 12 20 24 24 10 7 29 28 17 27 16 28 26 15 30 19 26 23 16 13 23 24 8 13 22 3 15 21 9 19 27 21 23 16 20 14 6 16 9 21 17 16 27 7 18 20 18 16 16 35 40 20 10 28 21 28 16 20 17 13 13 19 41 41 14 13 30 37 13 23 10 16 23 12 20 21 16 13 9 23 7 15 14 10 15 17 24 31 19 7 13 30 10 6 24 20 24 20 20 29 19 10 16 14 12 44 18 31 10 16 10 20 26 21 6 10 27 23 23 22 34 17 24 17 27 16 27 14 20 24 14 19 19 35 19 15 16 7 31 15 45 16 23 6 10 10 20 12 24 14 34 21 19 7 24 23 3 31 21 31 27 21 19 6 24 30 20 24 23 26 13 31 20 21 10 26 20 28 7 19 9 10 26 27 16 16 20 13 9 19 33 10 16 7 34 14 14 24 23 32 10 23 3 22 20 19 34 24 13 13 24 20 20 17 31 20 7 22 20 16 20 12 20 20 5 13 23 9 14 11 9 24 6 20 20 7 27 17 3 13 20 24 27 17 13 12 10 10 19 10 3 23 16 13 23 16 24 12 34 6 24 13 24 7 34 24 17 22 26 14 13 24 6 20 23 23 30 27 8 34 13 19 17 18 0 24 21 15 24 10 20 13 16 10 6 7 21 13 28 10 20 24 24 14 9 21 6 21 11 16 38 23 30 3 6 10 16 38 17 14 13 7 3 14 6 17 33 13 17 13 16 13 16 20 16 12 17 20 17 10 13 21 16 10 13 17 10 20 7 7 13 20 23 20 24 22 6 21 0 28 22 26 24 13 16 24 23 10 37 16 3 14 24 27 27 13 26 27 14 10 34 17 12 18 0 10 7 17 16 24 6 24 23 16 15 17 17 20 16 23 16 19 13 6 3 13 20 6 24 10 19 23 28 20 14 20 7 15 14 17 29 29 23 30 0 35 9 20 30 17 19 13 20 37 27 20 16 13 14 19 21 26 17 19 10 26 16 27 16 15 24 33 27 41 10 24 15 26 30 26 24 31 34 24 16 10 28 26 9 20 20 20 20 24 30 28 17 25 12 10 16 10 22 29 27 13 20 20 20 24 10 30 20 13 28 22 17 27 16 0 7 30 23 27 31 21 21 23 14 24 10 23 16 31 17 16 17 28 29 14 18 6 12 21 18 20 7 23 23 23 13 6 17 13 6 17 6 10 37 30 26 18 10 3 17 27 31 20 13 20 9 16 16 18 10 23 23 13 23 17 20 14 21 23 19 3 25 10 17 16 14 29 20 9 24 13 16 9 17 17 14 17 35 7 24 12 13 13 20 27 23 13 17 17 33 10 19 17 13 9 17 10 22 16 23 22 17 14 17 7 14 13 19 3 23 14 24 17 24 19 17 9 17 31 15 16 10 27 21 23 16 7 23 13 20 23 9 23 23 6 20 34 27 26 24 21 27 19 17 23 17 7 19 17 16 21 23 24 26 17 7 20 10 13 16 10 17 20 10 17 10 26 16 24 20 21 24 14 20 14 11 12 14 19 27 10 14 9 20 38 17 23 22 19 12 16 16 15 16 20 22 19 13 17 9 16 13 21 17 20 34 14 28 17 17 3 13 22 20 9 10 34 37 13 22 14 20 21 17 25 3 13 17 24 18 9 14 10 26 20 10 31 14 10 12 9 23 10 13 22 3 24 10 17 14 13 3 26 24 21 24 16 21 17 3 26 17 14 13 27 17 17 25 13 20 9 20 20 41 9 15 13 24 27 34 24 17 22 21 14 19 7 17 10 6 13 20 10 23 19 21 16 20 10 14 14 20 13 16 16 24 17 23 7 41 24 6 23 20 33 33 18 20 23 21 20 24 19 16 37 6 17 19 10 10 17 35 10 14 17 22 33 13 0 22 20 16 31 32 16 20 7 17 23 7 8 10 17 13 3 21 31 17 16 38 9 20 13 23 25 19 19 31 14 17 23 7 21 10 23 13 10 21 7 21 16 23 38 9 17 18 9 24 16 33 24 7 33 27 33 20 14 13 16 10 20 6 20 27 37 21 20 13 34 33 10 14 7 10 28 12 19 31 24 34 33 24 24 10 19 16 10 10 3 6 20 16 21 23 16 30 12 17 19 10 18 16 16 31 16 6 7 20 23 27 20 24 8 31 24 17 17 10 30 20 14 20 27 27 14 10 29 12 22 6 13 17 7 16 13 0 17 18 7 26 24 9 30 6 18 13 9 12 17 11 27 16 10 13 17 31 28 26 24 13 23 22 24 3 19 17 20 16 10 11 19 10 27 15 12 23 21 19 21 21 17 24 13 3 24 9 3 16 23 16 13 10 14 16 20 37 17 8 31 7 20 10 24 37 6 14 27 17 26 20 9 3 17 6 9 9 13 14 10 9 9 13 24 13 17 17 31 17 27 28 13 12 10 16 14 24 9 13 24 10 17 10 6 23 13 21 23 20 13 10 17 16 23 16 14 23 27 16 28 8 13 20 22 10 17 17 17 10 3 13 18 0 16 17 18 31 14 13 23 18 27 19 10 28 13 22 10 7 20 28 9 6 10 23 19 14 16 10 21 20 13 33 14 17 24 13 17 31 20 24 10 31 15 25 7 9 16 10 18 34 13 13 13 7 45 27 22 17 11 16 12 14 7 19 20 21 18 6 7 18 14 7 14 24 10 16 62 17 13 17 20 21 16 20 17 28 10 30 35 19 12 13 6 23 21 17 14 0 16 23 37 6 13 17 14 21 23 27 27 24 24 27 19 20 21 17 23 10 13 34 24 7 23 23 20 17 31 19 20 17 31 27 12 10 14 23 10 17 20 24 33 17 15 17 35 20 14 17 24 30 24 19 18 35 18 7 20 26 7 10 23 6 7 30 22 28 20 9 17 28 10 27 20 23 9 8 3 25 6 17 27 7 24 32 21 27 7 17 10 24 16 10 3 31 19 17 13 10 22 28 17 20 10 13 6 38 24 19 17 6 26 8 20 13 14 21 3 19 17 17 13 13 16 20 26 28 10 12 33 14 19 6 15 36 24 14 20 28 14 17 20 35 28 12 31 21 20 27 20 13 16 24 19 27 13 24 16 20 14 20 18 10 23 23 20 10 18 15 13 19 26 20 24 34 6 0 10 7 12 13 12 26 35 10 28 16 13 10 27 16 20 17 17 20 13 13 21 3 10 20 23 6 14 17 13 16 6 16 24 28 14 14 6 10 8 27 17 10 31 14 20 13 22 28 27 6 7 15 14 27 27 13 23 13 17 37 17 17 17 7 28 17 27 12 12 13 17 23 18 25 12 16 3 17 12 26 20 27 19 9 17 3 14 21 3 24 17 13 21 6 10 31 20 17 21 18 6 20 24 6 7 13 27 24 22 24 16 24 27 19 19 24 24 31 19 27 20 27 23 7 30 17 20 7 3 19 19 12 14 16 17 29 17 6 21 21 24 17 13 30 30 17 27 27 20 17 6 20 21 27 12 10 12 16 38 20 28 14 27 14 38 8 33 30 33 22 19 19 24 16 17 10 10 21 38 19 10 17 19 14 3 20 3 17 30 14 21 10 0 24 14 20 8 20 19 23 31 19 6 34 16 31 16 17 34 21 10 18 17 13 23 30 17 16 31 6 24 20 3 13 17 13 21 23 10 7 10 15 19 0 13 26 20 16 15 13 21 17 23 6 27 24 16 27 20 13 23 16 20 20 23 13 24 14 20 14 17 31 7 17 10 24 15 19 17 17 7 23 24 24 31 23 17 13 20 20 17 14 14 16 27 12 30 10 3 9 30 9 23 24 3 19 13 26 20 21 34 17 10 12 24 31 14 20 24 21 7 20 6 16 27 18 30 20 10 31 28 13 16 6 27 17 16 18 22 17 22 35 24 17 20 22 17 24 24 19 13 14 7 27 14 17 10 16 14 26 31 20 24 23 24 12 10 23 17 13 24 14 24 21 33 31 13 6 3 13 19 22 17 24 20 10 12 24 20 10 13 17 30 10 16 6 10 23 13 19 21 23 38 14 16 29 21 13 27 13 13 24 20 6 17 13 10 10 9 17 6 24 23 19 20 16 19 10 11 21 24 19 3 19 20 14 24 21 10 21 20 23 19 19 21 13 28 16 17 10 17 24 17 27 16 27 35 10 10 16 21 21 14 24 6 24 11 35 24 17 27 18 10 17 16 14 24 24 24 29 20 3 14 10 24 38 31 13 23 15 18 21 27 27 10 13 10 30 24 17 3 13 28 13 13 23 20 6 10 20 21 9 21 13 0 16 27 21 24 23 10 10 17 20 14 27 6 16 20 28 23 14 14 14 33 29 9 3 17 19 6 6 20 13 10 16 16 24 17 19 10 14 20 23 6 16 21 21 7 26 26 10 20 13 16 13 20 3 12 23 20 13 10 21 14 13 3 19 13 13 6 3 16 13 23 41 10 3 14 12 13 16 20 31 19 21 13 10 17 17 14 38 20 9 24 9 24 20 20 24 26 10 31 6 23 10 19 17 16 6 10 19 24 23 24 14 16 17 21 20 17 10 8 27 9 6 20 24 30 20 6 21 27 17 20 6 34 6 17 17 17 7 15 10 16 24 16 12 17 6 19 14 13 17 17 20 27 23 16 10 20 12 16 19 13 14 6 30 19 18 31 17 17 21 31 17 16 17 22 6 16 26 30 17 28 15 15 13 23 24 23 17 17 17 19 10 20 19 20 20 13 17 12 15 20 17 14 30 15 27 28 29 20 13 21 30 16 25 14 20 13 27 3 7 17 20 22 24 27 9 16 17 9 13 17 6 27 10 19 10 10 20 3 10 24 21 10 22 14 16 17 18 15 22 10 16 7 24 17 30 20 13 27 24 13 9 20 20 9 24 14 16 33 3 16 20 10 23 14 32 9 14 16 31 17 30 21 17 24 14 23 41 23 17 13 26 20 7 14 16 6 21 12 0 14 19 6 10 12 6 16 11 24 23 21 13 23 6 21 20 13 24 16 3 16 14 20 21 17 27 9 19 24 20 10 9 17 27 23 17 20 33 19 9 3 23 20 30 16 28 20 24 24 13 27 34 26 9 16 27 20 38 24 12 27 10 21 27 14 14 14 21 23 18 18 19 11 20 27 10 23 19 7 7 24 7 10 25 41 10 31 7 13 13 14 20 17 10 22 6 16 29 24 27 17 10 24 10 10 27 16 13 16 14 12 13 17 17 10 15 28 23 12 23 16 16 23 7 6 14 20 13 28 9 10 7 12 13 16 17 28 3 13 23 13 27 34 29 21 20 30 3 12 14 24 13 14 24 10 24 20 19 23 17 12 16 11 17 30 20 16 31 17 9 14 14 16 19 24 24 13 20 22 16 7 21 18 14 26 19 30 7 13 23 13 25 16 10 13 10 23 7 19 9 27 10 27 20 30 22 27 9 27 20 3 13 24 3 24 39 21 10 9 19 23 21 16 20 16 20 9 6 16 19 16 24 21 24 11 7 12 26 37 20 17 15 27 10 10 25 20 9 7 37 14 13 20 19 14 16 13 23 16 30 34 10 13 17 13 14 10 16 13 21 18 6 28 17 14 23 34 30 17 17 14 13 17 9 20 14 10 14 19 10 10 23 17 17 13 21 23 6 30 17 17 13 9 10 14 27 18 22 14 16 14 12 13 6 24 15 24 13 30 19 10 10 26 7 15 23 28 3 19 22 25 8 18 30 19 13 17 30 24 13 16 23 20 17 23 9 13 17 14 21 10 16 10 15 15 16 16 20 23 16 10 10 23 17 24 20 13 29 24 26 26 23 10 9 7 30 20 18 21 14 6 12 20 3 30 17 24 23 31 16 20 21 16 28 14 13 21 23 20 16 23 6 18 14 20 34 8 9 10 9 24 31 24 21 17 14 14 16 17 10 7 26 13 24 17 41 16 13 23 21 18 13 27 16 14 3 23 27 21 21 7 12 16 35 20 11 27 21 20 19 24 20 24 35 10 20 30 19 21 10 24 7 16 14 10 16 17 15 17 13 13 7 16 13 23 26 18 23 21 28 17 34 21 13 13 28 19 10 20 24 16 17 17 21 23 3 6 24 14 27 27 9 20 13 26 16 17 13 20 13 17 27 22 10 6 17 9 17 20 10 0 27 20 20 14 16 21 3 27 13 23 19 27 23 13 23 17 13 33 16 18 16 18 24 13 24 6 20 10 21 18 30 18 13 17 24 20 26 28 17 7 3 17 34 12 23 13 16 12 10 28 10 17 17 10 13 24 19 23 21 28 36 23 27 7 34 20 22 26 20 16 17 24 20 19 20 17 12 20 17 18 29 31 14 6 33 23 20 21 6 24 30 9 31 38 17 27 27 6 38 17 3 12 31 37 31 19 9 10 13 17 31 12 33 21 17 21 10 20 13 16 27 17 19 6 3 3 13 23 13 3 20 12 13 23 7 7 3 10 13 22 17 10 6 26 7 13 10 7 6 20 29 5 11 28 20 22 20 19 23 23 18 10 23 24 27 7 29 27 17 31 13 17 15 34 14 6 17 21 6 31 20 0 30 17 20 14 35 21 17 19 17 10 17 19 37 7 20 27 24 9 19 31 23 20 34 20 16 17 31 15 16 24 13 17 30 20 21 21 13 6 24 6 26 9 21 14 24 23 13 17 12 34 27 17 10 20 25 30 21 10 9 0 14 10 17 20 20 17 6 27 30 10 20 14 13 17 27 20 19 33 34 30 20 13 16 12 14 23 13 13 3 10 20 16 10 10 24 17 27 17 31 9 14 22 15 31 8 3 20 17 27 24 34 27 20 17 9 21 17 28 17 10 23 31 23 17 12 18 21 13 20 29 21 6 20 27 21 20 35 30 0 16 31 20 3 14 20 20 27 24 13 31 6 19 14 10 37 13 14 35 20 35 27 27 10 20 17 17 17 7 17 17 9 13 9 13 23 17 6 31 17 28 12 9 21 10 17 24 30 16 17 26 27 23 23 22 3 10 10 20 26 16 16 9 17 21 20 18 17 24 17 20 9 17 7 13 27 14 17 7 10 24 31 0 21 25 21 3 19 20 23 13 22 13 20 17 10 30 20 13 8 14 28 26 8 19 10 3 20 16 12 20 16 19 34 20 31 20 38 13 20 14 9 10 14 14 20 3 11 27 24 16 3 10 14 31 11 10 10 31 17 18 6 19 14 12 20 10 23 24 24 23 16 14 16 14 16 16 21 14 32 20 22 29 20 27 31 24 24 17 27 21 21 3 23 17 36 21 20 13 32 17 16 24 3 28 27 24 23 17 27 6 13 26 10 23 6 34 10 17 13 17 16 23 20 12 28 30 6 21 38 33 17 17 27 10 13 16 10 10 13 10 22 26 35 22 23 39 17 17 13 25 10 17 16 38 24 14 16 21 15 19 29 14 16 3 10 27 17 42 16 18 20 21 23 20 10 26 10 23 14 3 7 20 16 10 21 12 24 19 31 21 24 20 20 15 26 7 16 31 23 10 26 17 19 16 17 20 19 10 16 19 21 27 24 34 16 9 17 16 17 17 17 11 10 12 17 13 15 16 17 19 20 17 27 23 21 19 34 13 22 10 17 24 17 23 30 22 23 27 20 16 13 14 14 32 31 33 24 13 20 13 16 31 23 24 38 27 20 19 19 20 23 27 15 21 19 12 3 27 30 23 16 14 22 27 13 21 13 21 20 17 35 17 7 19 14 27 23 27 3 30 17 20 27 15 13 20 27 30 13 37 6 0 23 22 10 31 3 14 22 16 36 9 24 7 20 13 10 14 10 18 20 20 23 9 17 24 23 7 5 9 31 20 21 19 10 10 20 20 6 15 9 16 16 13 23 7 18 27 21 17 10 10 17 17 23 10 20 3 30 23 37 0 21 17 30 6 10 17 19 6 17 21 17 17 13 17 17 12 22 17 23 14 8 10 21 7 6 6 27 20 30 10 26 23 19 10 36 16 10 26 30 17 10 30 9 12 19 20 9 10 7 9 17 6 26 17 14 23 5 20 20 31 26 21 27 10 21 3 20 22 33 20 13 7 17 14 17 20 19 20 13 20 20 24 23 17 13 24 31 3 20 17 24 24 10 20 34 20 17 31 30 22 24 27 7 17 23 25 32 24 16 17 13 24 33 17 13 12 9 13 31 34 37 17 23 41 15 20 22 23 20 14 29 16 17 31 13 20 10 14 27 31 6 20 13 17 20 23 9 10 19 13 21 31 24 16 10 9 8 7 16 13 25 16 24 6 17 10 20 24 24 35 38 13 19 23 23 14 13 23 13 17 13 14 17 28 24 9 24 12 10 14 27 3 15 7 24 23 14 30 7 10 17 13 16 17 20 14 37 28 12 24 20 27 23 30 6 3 38 23 9 31 26 7 20 3 19 15 17 20 16 20 3 22 13 27 20 13 23 20 23 24 17 23 9 7 13 14 24 20 13 6 15 7 9 15 24 26 21 17 21 14 23 14 20 17 16 20 25 19 17 28 10 16 18 17 28 38 27 15 10 12 23 21 10 23 7 6 13 17 14 10 23 26 29 16 26 26 24 30 20 15 9 16 8 17 20 13 20 27 24 14 10 0 10 26 12 6 6 17 24 3 12 19 17 14 17 6 13 20 20 20 24 10 9 12 26 13 25 27 19 14 7 24 13 10 23 12 10 33 17 13 27 24 14 6 19 23 24 7 25 22 21 17 27 20 30 13 13 23 23 17 23 20 14 23 2 31 28 20 7 17 13 35 19 23 19 13 9 17 26 45 20 27 17 30 27 27 16 16 16 3 22 20 13 13 13 23 11 7 14 13 16 23 13 17 10 13 17 21 13 12 24 12 16 21 41 17 17 26 10</t>
-  </si>
-  <si>
-    <t>NIG(122.25235334529114, 77.58156473064437, -4.563955966145141, 34.474495218404755)</t>
-  </si>
-  <si>
-    <t>22 28 26 19 26 18 20 28 30 26 23 21 18 22 26 18 27 19 26 25 31 25 22 26 28 24 25 19 20 25 24 16 19 27 36 19 21 26 24 28 21 20 19 21 31 33 19 23 29 28 24 23 22 22 21 26 24 30 16 24 19 27 21 24 14 30 24 23 19 23 16 25 26 30 22 24 20 16 24 23 19 26 22 17 12 24 24 27 26 25 33 23 29 19 30 32 24 25 32 24 26 21 30 25 19 22 19 21 24 25 18 22 23 25 20 23 26 17 23 27 22 18 23 23 22 24 32 26 30 22 20 26 17 29 25 28 21 21 28 27 26 30 25 30 18 28 30 28 23 20 22 25 26 26 29 26 29 21 28 26 22 34 22 33 26 23 29 21 24 20 27 21 22 22 19 22 33 27 24 23 16 23 30 24 24 17 28 25 35 14 19 31 23 25 23 22 22 34 23 19 23 21 13 32 35 23 20 18 16 24 20 30 20 25 31 32 23 24 32 25 25 23 23 27 42 23 27 25 30 22 24 19 24 18 25 27 27 21 22 17 18 16 30 34 24 23 28 26 23 21 26 11 22 27 21 22 25 24 24 24 25 29 33 29 24 22 23 25 20 21 20 18 33 19 29 23 21 22 17 27 23 19 22 23 24 17 20 27 20 32 27 30 29 31 25 18 24 23 20 28 22 26 23 23 23 17 23 33 24 20 30 25 29 19 19 27 21 28 24 21 19 23 22 24 18 24 31 26 23 22 18 32 28 20 24 24 27 30 19 23 28 27 25 19 25 20 23 23 29 24 28 23 26 32 18 20 37 22 14 29 28 27 22 25 19 21 27 21 25 19 26 15 22 24 21 13 26 22 25 24 14 20 34 26 22 31 24 28 25 20 23 26 30 22 26 29 28 19 20 25 17 17 31 22 22 20 29 21 26 24 29 31 26 21 22 22 25 21 23 26 26 24 21 21 23 22 21 30 19 22 28 32 23 15 20 22 24 16 18 20 20 37 25 25 20 28 17 26 34 21 27 23 22 25 30 18 33 31 20 21 19 25 25 28 22 29 23 22 19 19 25 23 21 20 21 21 29 25 33 29 20 27 18 21 19 22 24 23 21 23 22 30 24 22 26 28 20 22 26 28 23 34 29 25 24 20 26 17 30 21 27 25 21 20 22 22 30 21 26 20 31 19 27 20 19 30 30 16 16 24 29 23 19 24 33 24 23 19 18 21 30 22 19 19 25 20 26 26 33 26 26 25 27 21 24 24 21 31 23 25 24 25 25 22 19 21 21 21 23 27 24 21 24 18 32 23 27 25 27 19 27 26 25 24 29 18 21 19 29 26 25 26 29 24 24 29 27 18 15 23 23 34 24 24 21 27 22 34 23 25 30 24 32 23 26 34 24 23 20 26 19 15 28 33 16 31 27 20 25 31 21 26 25 34 23 20 25 19 23 30 30 23 24 25 24 20 28 27 22 26 21 20 28 22 22 27 28 29 26 12 23 24 19 18 23 26 27 22 13 20 21 23 22 22 19 30 22 28 17 24 26 29 25 23 33 18 20 25 27 23 21 21 23 20 26 29 26 25 25 22 16 21 27 31 29 31 26 22 20 19 19 16 28 19 18 33 21 33 28 30 22 28 29 22 26 28 29 21 12 21 19 19 22 30 21 26 31 18 24 25 22 30 26 14 19 28 20 36 22 20 28 29 32 19 28 23 16 28 20 19 33 18 29 25 17 21 25 21 30 26 19 29 27 31 26 31 25 20 20 21 21 26 22 27 19 27 29 29 23 20 29 20 23 33 20 25 29 21 21 28 25 20 33 27 26 27 25 13 22 18 23 20 24 22 22 26 34 32 26 22 18 21 21 30 24 27 30 33 25 16 20 19 20 24 19 25 25 27 24 22 17 23 25 21 29 21 27 24 21 25 21 36 18 24 30 25 24 21 30 22 19 25 20 25 31 22 29 25 23 28 25 28 20 15 28 22 19 20 22 22 30 19 21 26 23 24 23 19 18 21 29 28 17 34 19 23 22 26 15 33 27 22 27 21 27 27 22 30 20 19 25 26 30 30 23 25 23 26 25 20 22 20 23 21 19 23 19 26 22 25 21 27 27 29 29 32 22 22 28 25 23 25 22 16 15 22 27 22 23 27 25 14 20 19 21 27 25 30 17 24 20 23 28 25 20 26 20 27 23 22 35 25 25 30 24 21 29 21 19 22 20 26 27 28 18 22 20 22 22 26 23 22 33 24 24 23 23 21 21 18 21 30 17 25 25 25 16 25 25 22 34 21 22 36 22 28 18 21 21 33 32 19 25 28 27 36 22 29 21 18 22 31 35 25 23 21 27 15 19 32 26 22 22 24 31 26 31 22 25 22 32 25 20 27 24 24 12 19 27 24 26 28 22 24 28 24 27 22 23 25 25 25 31 25 19 24 19 21 24 24 21 23 30 23 32 31 13 20 21 19 19 22 11 25 30 22 22 18 23 17 29 26 19 27 20 23 19 27 19 21 27 25 19 22 26 27 29 27 24 23 31 29 27 23 25 19 31 19 19 22 27 23 26 22 29 30 23 29 35 30 22 17 16 23 20 24 22 23 24 29 27 25 19 15 21 19 19 22 20 20 21 23 17 22 11 23 21 28 27 26 25 20 18 18 23 15 28 26 31 29 28 32 16 24 21 27 20 23 15 23 24 32 24 29 31 25 26 25 33 26 21 24 19 35 21 15 22 30 26 23 25 20 20 24 30 26 22 19 15 31 25 30 20 25 30 22 19 21 19 26 32 12 15 27 18 20 26 25 19 21 25 30 26 24 24 23 18 31 23 24 19 23 24 25 28 28 29 21 31 25 21 22 19 26 26 22 31 27 22 20 20 22 19 29 17 25 18 29 20 23 13 26 21 27 30 19 22 14 24 30 28 29 20 23 33 21 28 25 25 26 20 14 27 26 29 23 19 25 31 28 27 18 26 19 22 20 26 22 27 13 19 22 29 24 20 22 22 18 28 33 26 20 27 19 28 21 21 17 16 21 23 18 26 25 26 28 24 24 19 14 22 14 25 31 24 28 27 29 21 26 25 23 23 35 22 15 23 19 21 29 26 25 18 27 26 26 27 22 14 24 20 17 27 18 26 27 22 20 22 18 19 24 26 18 29 27 24 18 24 27 20 18 26 20 28 26 25 14 22 21 22 20 24 24 22 26 19 24 23 15 16 24 22 28 27 16 26 24 22 26 21 21 24 31 20 24 30 30 23 21 27 19 15 23 18 25 21 34 26 23 19 18 27 16 29 25 14 23 28 24 27 24 21 24 17 28 27 25 19 20 31 33 19 27 28 27 25 26 25 20 27 33 27 28 27 30 23 19 27 31 23 19 24 29 26 28 29 24 12 24 22 26 21 27 16 22 21 22 21 20 21 25 22 27 27 23 24 25 27 19 21 25 14 18 24 24 15 35 28 29 21 25 21 28 25 24 23 25 28 19 17 20 20 19 19 31 18 30 32 27 17 29 21 28 19 14 20 18 22 28 33 27 30 23 23 26 25 21 27 23 23 24 23 20 21 26 23 20 29 27 30 17 20 21 17 35 19 25 15 15 26 26 22 17 23 34 27 23 25 22 30 23 25 21 22 29 25 24 35 27 20 22 30 29 26 21 23 23 20 11 21 22 21 21 26 22 27 24 26 16 14 30 30 31 18 29 20 19 27 19 15 24 25 30 21 22 22 28 22 23 15 24 24 30 12 15 24 28 28 23 24 22 27 26 25 28 24 26 33 19 22 31 26 31 21 18 21 18 19 18 24 23 20 28 23 19 23 25 21 24 20 27 30 29 21 23 28 33 17 17 17 23 20 13 19 25 21 24 21 25 16 25 27 23 37 30 20 31 21 20 15 23 21 32 27 26 21 25 33 27 22 22 29 27 36 26 28 33 19 26 21 18 20 20 19 28 21 20 18 31 20 32 28 19 19 23 32 25 27 19 25 20 22 32 29 25 19 28 25 24 21 26 20 26 28 28 21 21 21 22 22 15 19 16 15 27 18 19 23 37 20 22 24 31 22 20 22 23 25 18 22 22 28 19 27 19 17 28 25 19 26 19 27 36 26 28 26 25 20 24 25 30 20 28 18 22 24 25 26 23 11 17 22 31 19 25 30 15 26 22 26 20 18 24 16 27 17 25 20 26 24 24 26 20 23 25 31 23 36 25 32 20 22 21 30 28 17 19 20 26 19 21 16 27 20 25 20 26 37 21 24 26 31 27 21 32 22 34 18 27 20 29 20 26 15 21 19 21 20 21 28 29 21 24 22 14 18 24 30 23 18 15 19 22 32 33 30 24 18 26 27 24 21 24 22 26 26 26 30 23 27 25 26 25 29 27 25 20 27 17 25 28 28 18 21 18 22 28 26 27 29 13 24 26 26 14 23 23 26 24 32 21 25 16 28 30 21 17 34 24 27 21 31 30 31 23 27 18 25 21 21 22 14 29 15 26 21 24 17 23 31 22 21 26 23 21 26 18 18 24 35 22 18 21 16 19 37 25 25 26 19 27 19 23 21 28 22 27 20 24 20 23 33 21 28 26 18 30 25 24 24 16 31 25 26 25 23 19 22 18 27 24 31 25 28 21 27 24 34 22 21 27 25 30 20 30 19 29 22 31 21 23 24 22 24 19 28 26 19 26 20 20 21 20 25 16 23 27 31 30 19 19 22 31 25 26 25 23 27 32 28 28 21 19 15 27 24 20 24 18 26 27 24 23 22 24 17 16 23 19 24 16 23 24 24 25 26 28 33 24 16 18 20 15 21 25 24 23 23 28 29 20 28 28 22 24 26 27 29 33 22 24 23 16 24 30 21 30 21 25 23 23 20 23 32 14 26 20 29 21 31 33 23 21 27 22 23 22 24 19 33 22 25 33 24 31 20 19 26 28 18 25 24 31 28 27 24 24 21 20 26 29 26 27 23 24 21 24 19 24 33 19 26 36 12 25 35 23 21 27 23 21 18 19 27 21 25 22 20 23 19 16 32 23 18 32 33 22 18 20 22 28 34 26 22 24 21 25 37 17 22 25 25 21 26 26 31 14 21 20 18 21 26 28 21 27 23 17 25 16 23 21 23 17 26 27 17 25 25 25 19 21 18 19 30 27 18 30 23 20 23 20 23 26 17 22 21 20 29 24 23 23 20 19 20 31 26 30 18 28 26 24 21 26 30 20 32 19 20 21 25 18 24 26 19 29 27 32 24 19 35 21 37 18 28 25 22 29 18 26 25 30 25 20 29 23 27 31 22 22 22 26 20 20 23 21 22 22 23 25 19 29 25 13 18 18 30 32 19 23 25 13 20 23 28 28 30 23 16 19 26 24 24 25 25 22 21 30 30 25 29 23 27 27 22 24 29 24 25 17 19 23 28 25 31 28 16 28 26 30 20 19 29 20 29 22 19 26 22 17 19 24 28 23 25 19 24 20 23 25 19 22 22 29 24 23 25 27 20 24 23 20 25 24 18 24 31 23 25 23 20 27 16 25 24 30 20 23 27 24 15 25 23 28 27 24 27 22 19 20 15 28 22 29 26 33 26 19 19 21 19 27 23 17 20 20 23 14 16 25 22 22 14 12 14 32 27 20 20 19 22 20 29 21 11 23 26 28 18 19 30 14 19 20 20 18 15 24 20 28 25 20 30 30 25 27 19 23 29 26 22 25 27 35 31 32 21 25 18 21 36 29 23 26 20 30 25 34 23 28 21 30 26 16 21 29 24 14 21 21 23 25 26 17 23 21 20 26 27 25 34 23 21 21 18 23 26 26 17 27 25 21 19 27 22 24 20 19 28 26 22 27 22 21 26 28 24 21 26 18 25 18 20 14 26 28 29 29 21 25 28 23 22 22 28 21 26 15 21 21 21 29 23 19 22 20 28 25 25 20 29 18 28 20 25 38 20 25 14 29 22 21 21 21 31 28 27 29 23 18 22 23 21 19 22 24 32 22 27 32 19 26 23 23 22 19 26 18 12 17 11 24 31 33 31 20 30 27 22 22 18 18 11 13 18 23 33 24 18 27 22 16 21 25 21 26 31 23 26 20 22 26 19 24 23 19 35 27 26 25 19 17 30 15 26 26 25 16 21 26 25 29 19 33 23 31 26 23 21 23 27 25 18 21 24 29 27 21 32 18 23 22 24 27 21 25 23 22 25 18 19 24 21 23 26 26 24 22 27 20 17 19 21 28 18 22 15 17 24 21 23 20 22 18 18 31 24 19 19 22 23 23 21 24 23 20 31 26 22 26 26 25 29 21 23 15 27 30 22 23 23 23 26 19 23 29 24 26 18 21 23 30 23 20 18 24 21 26 23 24 20 28 18 26 27 30 20 29 18 18 18 25 24 24 29 27 21 15 25 17 27 21 23 24 26 20 17 27 26 14 19 22 28 21 24 29 26 22 26 22 21 25 29 23 30 24 30 39 28 24 24 24 26 27 17 27 28 23 24 20 22 24 21 27 22 22 23 12 26 21 22 26 19 23 25 25 29 24 23 27 22 18 25 21 30 22 28 17 21 29 25 30 22 26 25 29 28 27 22 26 27 26 26 23 21 24 20 29 23 24 33 29 25 25 30 24 22 17 21 18 21 29 29 30 23 33 29 34 29 29 21 29 29 16 27 26 20 21 24 19 25 27 26 26 22 15 25 18 19 25 21 22 22 18 21 22 25 26 23 32 24 22 34 29 25 19 31 24 18 27 25 25 26 20 22 24 22 24 27 16 20 28 21 20 21 31 24 36 31 23 24 23 24 27 25 20 22 19 31 22 20 22 28 23 24 30 32 23 25 26 17 21 21 25 17 24 33 31 22 23 16 29 15 24 22 19 23 14 24 31 23 31 26 21 26 20 18 30 19 24 21 18 14 21 22 28 27 27 24 30 28 23 20 26 27 23 19 26 32 18 22 20 23 20 19 26 30 23 31 26 25 28 25 24 22 13 26 26 20 22 28 20 25 25 33 13 18 22 29 27 15 13 28 20 33 19 18 27 26 22 32 21 27 25 27 20 24 22 29 23 18 21 24 30 15 16 21 27 18 31 25 27 31 25 29 10 25 18 23 30 28 23 23 29 22 30 18 24 26 18 22 29 23 27 27 21 26 24 21 30 24 22 28 18 29 19 28 27 22 22 26 24 18 26 25 25 23 24 20 19 17 21 22 23 26 23 30 24 20 23 25 15 29 19 19 17 29 34 24 25 10 18 29 23 19 15 22 29 19 21 23 29 24 21 19 23 28 21 21 25 30 14 22 17 27 26 23 23 20 18 21 27 20 26 27 21 17 25 16 27 18 23 24 27 22 28 25 20 17 23 23 23 12 22 20 28 21 23 27 22 23 33 24 21 35 30 18 32 19 23 31 20 21 22 31 26 23 17 17 23 19 25 24 21 28 24 20 32 29 21 22 18 25 25 10 22 30 23 27 21 23 24 23 23 19 15 17 21 22 22 29 20 16 23 19 21 22 28 27 20 25 21 27 31 18 26 21 25 19 17 23 14 23 32 19 20 26 24 16 21 23 19 23 26 23 24 28 19 17 19 27 22 16 17 16 27 23 21 30 25 24 19 24 32 25 23 25 25 32 26 17 22 24 27 26 23 20 22 17 21 27 22 37 17 27 25 20 26 25 30 26 17 31 20 22 28 23 28 27 26 25 33 28 29 24 23 20 20 17 21 24 24 23 25 28 27 32 25 29 28 29 24 16 30 24 27 21 28 27 32 25 18 18 22 19 27 27 21 19 24 22 16 29 15 27 18 25 32 27 26 27 29 29 17 23 28 24 21 19 16 30 18 25 21 26 17 26 21 31 20 23 23 27 23 25 19 29 36 23 26 18 19 23 19 22 21 26 35 20 22 21 19 22 21 23 28 26 35 18 23 16 23 17 25 30 19 30 35 23 23 17 15 21 21 28 32 21 32 25 20 35 28 22 20 26 25 24 28 21 27 24 24 20 21 18 19 19 25 22 31 19 27 30 19 23 23 12 26 19 23 28 25 20 25 18 23 17 22 25 30 20 23 15 24 18 27 31 19 21 25 15 25 25 19 25 24 13 25 16 21 24 23 31 18 27 26 18 25 18 13 23 21 26 21 27 23 18 28 30 18 25 19 26 18 22 30 25 25 18 25 27 34 25 22 25 22 24 23 28 27 18 18 20 20 25 35 24 22 28 32 25 31 27 27 30 26 22 22 20 23 26 23 15 25 17 21 32 24 19 28 31 22 19 25 23 24 31 23 20 18 25 24 19 25 19 23 22 20 30 24 21 28 23 34 21 27 26 31 25 33 13 21 17 21 26 21 29 24 20 22 24 26 25 21 22 19 24 23 24 25 25 23 21 21 24 33 31 28 25 25 30 24 22 19 17 24 21 21 28 24 20 20 25 17 27 26 22 23 21 33 23 19 22 26 16 27 26 27 33 18 21 25 22 15 29 23 24 18 24 24 33 26 28 34 16 23 21 25 30 19 27 29 25 22 29 13 21 22 20 17 21 15 30 26 22 14 30 17 26 29 30 35 19 26 27 17 29 20 20 24 20 28 26 35 34 14 26 28 25 31 19 29 20 22 24 19 20 27 25 15 19 20 23 20 29 27 29 26 22 23 22 25 25 24 24 26 31 22 30 24 29 20 26 25 30 22 29 18 24 26 27 29 26 24 23 23 23 23 25 29 27 18 28 23 28 27 32 26 22 20 21 30 23 21 22 20 22 20 29 25 31 25 19 28 28 24 23 19 24 21 31 16 26 20 19 20 21 25 23 19 28 23 17 23 29 31 21 23 22 28 19 29 25 16 28 25 19 27 31 27 23 27 14 34 26 27 24 13 26 24 30 24 21 30 28 27 29 24 27 26 28 22 25 32 24 16 27 17 23 19 29 19 22 21 22 24 15 20 24 19 25 19 20 24 21 20 20 26 30 19 22 24 30 30 32 19 16 24 28 19 26 20 25 24 30 21 21 28 23 22 25 18 23 17 27 23 28 17 25 26 25 25 17 22 24 26 30 26 21 25 31 23 29 26 30 26 29 18 27 24 28 22 31 26 29 19 25 18 27 22 20 25 30 24 24 20 25 29 24 24 18 23 25 25 26 24 22 30 24 26 44 12 27 23 30 18 28 24 26 27 15 24 22 22 31 20 26 27 26 24 21 20 22 21 15 22 24 26 23 17 25 27 30 24 21 25 17 22 19 16 26 24 23 26 28 20 26 31 26 26 24 27 30 26 21 23 28 29 19 24 22 15 22 18 31 28 24 30 20 25 21 18 27 19 19 24 25 28 19 25 19 20 23 20 26 15 25 23 22 22 30 15 28 23 23 29 19 23 20 19 26 24 31 20 25 25 22 21 28 19 22 20 29 25 24 17 21 25 26 19 17 22 23 19 32 18 23 20 31 18 16 35 28 18 24 30 19 28 29 20 21 24 26 27 27 24 31 21 24 27 22 24 18 25 18 27 27 30 27 23 20 16 31 14 35 25 27 24 19 27 28 24 19 17 24 26 24 32 23 21 19 29 25 29 25 20 22 22 24 25 21 25 22 23 33 14 19 23 20 23 24 31 28 26 21 26 25 23 27 32 24 21 21 16 21 29 28 17 17 28 27 25 23 27 25 25 19 22 20 17 30 16 26 21 21 18 22 16 31 28 22 22 16 26 22 36 21 24 21 25 23 16 22 24 14 27 22 20 32 17 26 21 23 23 19 32 24 33 25 24 21 20 34 18 25 19 27 24 17 21 23 19 19 28 21 16 30 20 35 24 24 17 19 27 25 29 23 18 19 19 33 28 18 24 23 24 18 16 28 23 19 24 29 23 21 25 22 22 28 28 21 24 24 28 22 22 38 22 26 18 20 25 22 31 34 25 20 22 19 18 23 26 22 20 24 18 26 25 20 15 29 23 24 19 16 27 18 18 22 21 22 23 20 25 30 22 23 21 20 27 25 20 23 21 21 25 18 20 37 26 25 24 27 22 25 30 25 21 16 19 23 26 36 27 27 17 22 26 22 21 23 18 23 28 20 18 27 22 21 21 25 18 26 27 19 24 28 17 22 16 23 26 31 37 18 24 22 21 28 23 24 19 28 25 18 26 23 26 29 18 22 11 23 24 20 20 23 18 22 18 27 19 33 28 25 28 28 18 21 27 19 25 20 30 21 19 21 27 17 20 20 20 26 24 28 22 23 30 24 19 20 32 33 28 24 21 25 23 28 22 20 25 23 29 27 29 25 24 28 20 19 19 26 31 31 24 27 20 20 23 12 22 23 15 20 14 23 34 22 24 20 27 19 21 26 26 21 22 22 21 26 22 32 20 28 27 24 20 25 31 21 20 23 25 30 26 20 24 22 29 17 19 15 24 17 28 23 27 21 19 25 13 23 17 26 26 26 23 24 24 26 19 32 33 18 21 21 23 24 25 24 31 34 25 24 23 16 24 27 23 21 30 25 32 24 22 19 30 20 19 32 18 19 22 25 23 17 27 21 22 27 24 24 33 23 21 24 24 19 24 21 23 21 21 22 27 20 33 26 25 26 21 18 16 30 25 29 24 29 18 24 28 22 17 24 23 19 25 20 21 37 22 16 30 25 20 23 27 24 20 18 26 16 25 24 28 22 27 22 21 26 22 25 19 30 31 23 20 23 28 21 22 20 29 22 18 18 33 25 27 19 22 20 22 24 21 26 23 27 26 24 31 19 24 28 26 23 20 22 20 22 30 32 22 24 29 18 26 27 18 18 17 26 21 21 23 30 22 23 20 22 29 22 33 24 19 14 21 23 27 17 21 22 27 24 29 18 21 16 24 28 21 20 25 20 21 19 36 28 17 26 20 24 22 30 27 24 22 27 19 32 19 23 26 23 26 19 20 21 23 23 29 26 30 25 27 22 20 25 23 19 32 22 20 18 24 24 23 14 25 20 26 23 30 22 24 21 27 24 20 24 25 26 17 19 25 21 23 27 22 18 30 20 17 29 20 25 28 27 21 35 35 25 19 29 20 16 30 30 25 14 22 30 26 19 33 24 30 26 24 30 19 13 23 21 22 19 21 21 21 23 25 32 30 14 25 31 26 25 25 24 33 24 21 31 28 26 20 18 27 29 27 24 27 28 20 23 18 17 27 23 33 23 23 20 23 26 21 26 24 26 26 18 22 26 20 28 18 21 18 21 36 22 21 26 28 27 29 16 21 21 20 34 18 20 21 23 25 25 18 31 19 24 21 23 34 15 26 20 19 27 15 26 26 30 25 29 29 30 20 22 29 22 24 23 21 27 26 27 39 34 23 26 29 23 21 35 27 23 20 22 29 24 19 28 15 23 23 23 28 33 28 27 20 21 20 23 17 28 20 24 20 20 22 26 31 25 23 14 21 22 26 15 29 24 25 24 26 23 22 33 26 17 28 22 28 20 26 25 29 20 29 23 29 27 25 24 17 18 28 23 23 31 25 32 23 21 22 26 20 18 20 24 19 24 26 23 34 22 21 25 28 24 20 29 25 16 22 28 23 24 15 29 20 31 28 20 22 25 18 15 20 27 24 23 31 27 23 29 19 15 27 24 16 26 27 34 17 27 20 23 28 22 23 23 36 25 20 26 20 30 28 23 24 27 23 22 19 13 19 26 29 21 22 25 20 31 19 22 25 23 23 21 20 15 23 30 21 29 16 28 25 25 25 22 22 27 33 21 21 42 39 25 28 22 34 19 24 18 24 28 19 28 26 21 23 25 21 26 24 32 27 28 25 28 21 20 20 23 31 17 19 30 26 26 21 15 23 22 18 25 23 22 24 25 26 35 24 18 20 30 31 15 24 32 22 24 24 30 15 23 27 26 29 26 20 34 19 24 23 24 14 25 24 23 19 27 20 15 29 18 23 29 22 31 14 27 25 30 21 26 27 19 20 21 24 28 23 33 29 20 26 42 29 26 21 28 19 25 23 16 20 21 21 25 19 27 24 23 21 21 21 28 16 22 23 22 30 23 25 27 23 30 25 25 19 23 22 17 26 25 16 28 24 29 15 24 21 25 25 27 26 19 27 20 19 26 24 19 36 25 26 22 25 20 19 32 28 20 28 20 25 21 16 17 25 31 20 27 22 29 24 34 36 28 27 22 27 27 17 25 23 18 22 24 29 22 28 24 21 22 23 24 30 22 23 23 25 24 25 31 30 19 30 26 31 22 24 26 11 27 34 23 21 23 27 18 26 24 38 25 21 24 36 19 23 20 26 23 25 25 23 32 25 20 22 24 25 17 23 29 31 23 15 25 26 20 27 26 26 26 29 26 27 19 23 36 30 14 19 29 29 17 22 15 27 26 29 23 27 20 26 26 21 37 27 16 15 26 24 31 23 20 18 25 19 20 15 29 22 20 23 20 17 21 27 29 22 16 21 21 26 27 22 17 27 27 21 25 25 23 27 22 26 25 25 15 29 19 23 15 38 23 23 20 28 24 23 34 25 26 24 23 19 22 24 30 22 27 29 32 22 30 28 13 21 24 30 17 18 15 22 22 22 23 23 23 29 18 36 18 31 24 30 30 34 26 24 21 21 20 25 34 22 28 22 26 21 20 32 30 22 26 24 19 31 22 27 25 21 28 16 17 26 19 22 22 21 26 27 28 24 19 15 21 37 22 21 29 21 27 24 22 28 24 23 23 20 17 23 23 25 23 20 21 19 25 16 27 26 23 23 26 27 22 18 30 30 21 20 23 15 34 36 23 24 21 20 22 18 29 20 19 21 28 20 28 26 26 20 23 20 25 28 27 20 27 26 26 24 18 20 21 34 19 17 18 23 20 19 28 24 21 26 37 22 18 24 27 23 38 24 26 23 33 21 21 25 24 25 24 18 29 20 24 31 29 19 24 27 22 17 23 21 20 23 24 24 20 20 33 26 29 21 24 24 31 23 20 27 21 31 19 28 23 26 27 28 19 31 27 26 25 23 37 30 23 27 27 25 19 27 16 16 20 25 28 32 24 20 16 33 16 20 19 27 26 29 26 22 29 23 22 23 26 19 23 21 30 20 22 21 27 26 28 31 28 22 25 25 30 26 20 24 25 15 18 18 21 25 21 24 25 34 29 23 37 22 28 25 23 24 23 26 11 28 24 24 15 21 24 23 18 25 30 22 23 21 37 28 28 21 14 22 23 16 17 18 27 27 22 16 22 22 26 17 27 26 29 22 24 22 19 25 27 26 25 25 31 31 23 28 25 28 37 28 20 22 23 20 29 27 25 17 21 30 26 24 26 14 18 23 31 22 23 20 19 18 27 20 25 27 22 22 23 23 24 18 25 18 30 19 31 17 26 17 20 24 20 18 25 28 32 22 20 19 19 27 18 25 31 26 15 31 27 27 19 21 22 26 23 24 21 20 21 27 29 26 33 26 24 21 15 26 30 23 21 25 27 20 20 24 23 23 26 22 24 19 25 20 31 22 27 24 23 27 28 23 26 17 21 23 27 17 19 28 21 24 19 14 16 26 12 24 27 21 21 28 29 18 21 28 24 33 17 20 30 22 19 25 21 24 26 30 23 34 18 20 19 14 24 32 25 26 29 16 24 15 30 17 30 25 30 21 23 23 19 37 23 26 20 18 21 29 18 18 21 25 30 25 21 30 30 23 25 25 22 25 23 19 28 20 27 18 22 16 26 27 26 21 23 22 23 26 24 27 24 34 20 23 21 25 21 24 23 24 13 23 24 28 26 27 18 33 19 21 24 33 18 27 21 27 24 27 27 24 21 20 32 23 27 24 28 30 28 27 20 30 24 24 21 25 25 23 21 22 26 21 29 20 28 27 26 24 28 22 23 29 28 13 25 27 18 26 26 28 24 27 25 15 25 32 29 21 30 29 26 24 21 20 22 26 24 27 33 16 21 24 25 32 23 18 28 22 23 24 23 25 26 30 23 28 22 25 25 24 29 17 33 30 19 25 24 22 22 20 24 32 32 25 32 19 20 13 24 22 24 15 19 17 22 22 22 23 28 30 20 29 27 25 22 29 24 19 20 28 21 30 22 18 25 18 25 22 29 24 37 26 24 22 18 14 21 27 21 24 15 25 19 21 25 19 25 23 19 29 22 21 30 22 25 29 26 27 20 28 33 27 28 20 24 20 31 19 20 29 17 19 29 18 24 20 18 30 18 23 22 27 23 27 21 31 18 23 27 29 27 24 19 30 26 13 23 26 21 24 28 28 29 22 27 27 20 31 28 33 20 25 29 25 21 28 29 29 31 22 26 25 17 23 30 20 26 16 20 21 24 29 21 24 22 24 30 27 16 22 24 23 22 26 22 16 29 28 23 26 34 22 33 26 23 22 23 35 21 32 22 24 25 24 22 23 28 23 23 27 32 27 23 22 30 20 20 22 21 21 22 28 26 22 19 22 18 15 27 29 21 29 24 27 23 25 33 31 18 14 23 26 22 21 29 27 25 27 18 13 26 20 32 22 22 24 26 26 20 19 23 31 17 29 27 24 20 26 20 33 29 24 30 21 42 21 27 20 18 18 28 23 24 31 28 18 21 18 22 20 26 22 23 24 25 27 20 24 31 22 19 33 26 24 23 29 26 23 20 31 20 32 35 22 24 23 16 21 21 17 23 15 17 30 22 18 27 23 18 23 23 22 25 23 24 18 26 23 24 28 21 26 32 27 22 19 24 23 28 20 27 17 22 25 19 31 24 28 26 16 25 14 25 31 23 21 27 30 30 19 24 21 27 18 31 33 32 29 27 13 31 22 18 27 22 26 21 26 22 25 21 25 26 32 21 27 29 28 27 29 23 26 25 25 27 20 23 24 27 27 15 30 24 22 21 26 23 28 18 22 27 32 24 26 27 23 28 20 17 27 22 23 27 25 15 21 26 23 22 27 19 21 22 21 26 17 23 20 30 29 22 26 23 23 27 18 24 18 22 22 25 19 32 25 22 25 15 24 15 15 19 18 24 27 29 25 26 18 19 22 32 22 19 22 32 17 23 27 22 22 22 28 27 28 24 22 21 26 30 24 33 28 25 25 29 19 24 24 26 30 25 24 24 23 20 19 20 24 17 23 22 17 29 22 20 30 16 25 19 25 27 22 26 25 28 20 30 19 20 26 22 27 21 25 20 30 30 24 23 28 15 24 36 23 19 17 25 23 28 24 24 23 35 21 23 25 19 29 26 22 30 22 20 17 18 15 32 30 29 22 25 22 29 20 27 15 24 25 22 26 26 20 19 20 28 26 30 28 30 22 20 23 24 22 18 29 23 27 25 32 24 22 25 26 23 24 25 15 27 30 22 20 19 19 31 17 22 30 22 22 24 17 28 25 26 27 24 23 15 22 21 17 29 26 20 22 26 28 18 19 25 14 22 36 25 24 24 28 22 29 25 23 35 21 26 16 26 25 24 25 18 31 19 28 24 21 17 24 19 28 18 25 23 17 30 17 24 18 24 18 15 24 23 25 21 20 22 23 32 27 23 22 16 22 28 30 25 26 23 27 17 24 29 25 22 20 27 19 18 29 27 22 20 25 21 17 8 24 21 15 20 23 14 28 20 28 19 31 24 20 25 23 24 33 20 18 33 24 18 35 22 26 23 30 29 29 24 27 30 19 29 26 27 30 35 22 27 26 32 24 14 28 23 22 19 20 33 20 15 26 23 24 28 22 18 21 22 24 20 27 24 24 31 12 17 25 21 26 24 23 33 21 25 28 25 24 20 33 26 22 30 18 23 20 33 21 22 29 18 34 24 28 35 24 23 27 19 23 24 26 22 22 21 31 24 15 24 21 19 21 21 25 20 32 29 23 22 24 29 35 23 26 25 26 22 29 22 22 23 23 26 28 24 21 26 33 14 24 26 23 29 26 25 30 22 23 35 22 25 22 22 28 24 32 26 30 23 20 22 30 29 19 23 22 18 20 26 24 32 20 27 34 32 23 30 18 25 28 24 20 16 21 21 31 14 14 12 16 23 26 24 22 25 19 25 21 21 24 19 25 22 18 27 24 19 29 34 24 27 28 21 30 25 18 22 24 30 22 14 22 25 25 30 14 29 34 27 18 37 21 22 20 19 13 25 21 23 22 33 24 15 27 27 20 28 22 22 20 21 17 19 23 20 18 24 30 32 20 26 21 27 20 21 25 17 20 17 24 24 26 21 20 34 22 33 24 23 24 27 34 32 23 20 29 27 32 24 22 27 15 29 25 23 24 29 26 34 23 16 22 19 32 29 19 21 29 26 18 20 17 19 20 25 18 27 24 20 25 27 24 23 19 17 28 23 28 21 20 26 29 26 22 25 26 14 15 31 30 21 23 20 22 23 29 29 23 29 26 32 27 28 23 28 20 23 20 22 29 19 32 29 20 23 23 14 25 21 22 19 25 19 25 20 32 35 27 19 27 27 24 22 18 20 27 23 25 27 16 26 21 24 26 23 22 26 34 31 24 25 17 25 21 29 29 27 35 23 25 16 29 13 21 17 26 17 29 20 21 21 27 32 18 25 25 22 22 25 18 35 23 28 31 32 21 30 16 26 17 19 28 22 27 26 24 20 19 30 29 24 16 30 24 25 25 27 26 18 29 23 30 26 22 25 24 29 20 22 18 22 24 24 25 27 23 28 24 25 24 23 21 21 19 31 28 29 29 21 24 18 29 26 27 19 28 21 28 17 34 24 31 28 28 26 19 25 31 22 19 19 20 24 23 18 23 21 17 20 18 25 24 19 32 16 21 21 25 26 25 19 29 26 26 14 24 25 29 21 16 19 23 19 27 24 18 27 32 24 27 30 23 15 26 19 34 25 23 22 21 25 34 24 26 18 24 27 16 17 26 18 23 20 20 26 22 34 22 22 29 20 24 23 32 27 25 25 21 21 20 28 25 24 16 21 27 24 20 18 18 23 26 24 26 27 19 30 24 19 20 26 25 25 26 15 22 20 24 16 26 23 30 23 27 24 28 26 22 26 29 23 23 19 14 23 22 19 25 21 29 29 22 29 20 18 26 24 22 25 21 23 24 28 20 32 19 18 28 21 20 19 22 15 25 21 12 19 16 23 18 23 25 25 28 22 19 28 28 19 25 21 22 20 21 26 30 19 32 29 26 22 21 14 29 13 24 19 26 20 25 26 14 18 17 22 28 24 22 29 18 37 22 21 27 29 26 25 32 27 31 17 24 27 27 25 22 24 20 22 24 26 32 26 26 28 19 26 24 23 31 19 26 27 24 24 26 31 24 23 15 24 25 21 21 21 16 38 29 27 19 21 22 22 25 26 32 26 20 27 18 27 17 23 24 26 25 22 18 16 15 24 23 21 22 24 16 24 23 32 15 17 21 21 22 25 27 31 31 23 18 25 28 17 26 38 23 32 21 19 27 27 18 33 31 23 20 30 17 25 36 26 25 35 21 20 20 20 30 22 23 20 24 23 29 24 31 26 18 27 26 26 14 22 24 18 26 22 23 22 20 26 33 24 17 27 21 21 19 16 32 21 18 27 25 22 30 19 22 16 23 35 27 21 23 30 22 20 23 16 29 18 19 22 18 24 35 24 22 26 23 21 21 23 31 25 27 23 38 24 30 19 21 20 29 22 20 25 18 24 19 18 24 26 19 23 27 18 30 27 17 19 27 30 19 23 26 19 17 24 32 29 28 22 20 30 28 25 28 24 20 18 23 23 19 25 22 20 23 26 21 23 29 26 26 24 22 16 20 22 27 25 20 27 31 23 24 23 21 24 25 33 21 21 21 17 29 17 22 23 33 30 30 22 20 22 23 29 24 25 26 27 26 23 26 26 21 24 17 21 24 18 13 23 21 19 14 26 22 19 29 27 20 34 18 26 16 24 31 20 16 18 22 27 20 18 25 23 22 23 24 26 16 25 24 27 23 27 19 25 25 32 32 27 36 23 19 23 30 28 24 23 28 27 19 22 25 27 25 20 24 26 26 20 30 22 23 30 20 13 16 21 26 16 28 23 26 19 33 25 21 26 31 25 23 19 31 22 29 18 15 32 26 26 25 22 16 19 29 31 17 24 14 24 22 26 17 21 12 23 22 31 25 16 23 21 20 21 20 19 19 24 24 31 26 20 18 27 25 21 22 21 23 26 30 23 22 23 18 19 23 22 23 26 26 35 27 21 27 31 28 25 28 20 20 28 14 31 21 25 18 25 21 27 18 20 27 22 22 23 24 30 27 25 24 20 19 26 22 22 24 27 26 14 16 21 19 22 24 27 34 24 19 23 22 25 20 16 19 22 26 30 25 25 29 24 29 22 16 21 19 23 27 24 20 20 24 27 26 28 11 18 23 25 18 25 30 23 34 21 20 22 20 22 14 33 25 19 24 22 23 25 26 22 20 30 23 25 22 15 24 24 19 26 24 27 25 24 21 21 25 28 20 19 14 21 32 24 22 27 23 35 25 33 17 19 23 24 27 29 30 26 23 21 24 19 26 22 20 27 19 20 27 22 19 28 26 29 22 23 19 29 22 22 18 34 21 19 22 25 26 24 21 21 22 27 26 21 19 19 30 23 21 24 23 29 22 30 25 26 27 24 23 22 31 27 21 17 23 15 27 22 17 24 22 20 18 27 18 18 26 26 28 27 22 21 27 24 17 15 17 24 31 18 24 30 27 28 22 17 19 35 15 23 23 23 17 25 27 15 36 23 24 23 24 21 22 29 26 14 24 22 27 21 21 21 22 17 29 25 29 19 20 28 22 22 19 24 19 20 28 23 29 30 24 23 18 25 26 22 27 25 23 20 27 22 30 24 21 21 32 20 31 19 23 20 29 21 25 29 31 28 31 22 27 22 23 25 27 30 24 25 21 30 19 19 19 25 24 21 32 30 13 19 20 30 23 26 25 18 32 25 19 24 27 26 19 26 26 23 24 16 24 21 28 25 20 25 16 19 25 25 18 27 30 28 31 26 23 22 28 22 18 19 23 23 20 29 20 22 22 27 22 28 23 27 20 29 26 19 19 27 19 24 25 26 16 23 25 23 17 29 27 26 20 19 20 21 30 38 21 25 22 27 25 30 21 23 28 28 23 29 17 20 29 22 24 24 21 20 21 25 22 25 22 24 25 27 22 24 20 19 21 15 13 17 22 20 25 23 23 27 27 27 22 30 26 29 16 27 18 18 23 19 25 21 29 23 22 25 24 21 21 22 21 20 24 29 16 33 22 21 20 20 18 22 13 18 33 22 21 35 21 18 25 18 19 16 18 31 18 23 20 28 27 21 25 21 20 21 25 31 16 20 28 28 22 17 30 19 23 23 24 18 17 20 23 26 23 22 30 37 20 30 23 20 21 31 20 24 24 18 21 20 23 25 24 22 23 26 26 22 22 24 19 22 23 27 17 24 24 22 24 26 24 19 23 25 31 21 21 28 24 29 27 22 22 24 27 27 26 22 16 26 23 28 13 33 22 25 21 27 20 25 22 33 23 23 23 24 14 31 20 23 21 34 33 21 23 29 20 21 20 25 30 23 25 33 28 25 17 27 25 18 27 18 23 21 27 16 26 20 28 23 24 27 23 23 16 22 26 18 10 26 26 21 17 24 29 20 18 31 28 28 19 24 22 22 32 31 25 22 25 23 21 33 22 31 26 28 25 26 20 27 26 24 29 29 28 28 30 18 23 27 23 25 27 28 19 22 26 18 27 21 31 23 24 22 33 29 30 29 25 25 20 27 27 14 24 23 25 15 33 22 30 24 28 28 17 32 22 19 25 21 21 24 31 11 21 27 23 24 21 25 18 19 25 23 23 21 20 26 28 21 15 19 21 19 19 26 20 28 26 22 31 21 20 19 35 22 20 25 21 25 22 31 23 16 19 15 20 19 21 23 22 25 29 26 24 23 22 21 22 20 22 19 22 23 24 24 18 22 16 14 25 29 21 25 21 19 22 30 16 26 34 19 30 28 19 17 21 32 22 19 22 26 20 20 25 23 28 23 28 17 26 28 16 17 21 22 32 15 30 19 27 23 30 22 21 26 24 25 16 25 20 23 22 22 29 24 22 26 26 21 27 27 28 28 23 24 28 24 26 16 20 30 25 21 22 25 30 31 26 21 26 29 24 30 28 29 21 27 19 26 32 24 35 25 24 31 17 23 26 25 28 38 26 28 22 28 26 25 28 29 23 17 27 24 20 28 17 24 15 20 20 29 24 18 25 25 17 22 32 20 26 17 16 23 16 25 16 21 18 26 24 17 25 21 27 23 24 21 24 16 22 28 21 20 24 25 26 23 18 30 23 24 23 24 27 25 30 23 20 33 31 23 32 28 20 15 27 24 20 31 25 17 23 22 22 24 25 21 21 24 29 22 25 22 28 18 28 27 21 27 18 24 28 24 30 26 26 27 23 26 18 25 18 21 23 19 22 22 31 23 16 26 25 26 32 30 28 28 24 25 20 28 31 25 12 21 33 20 23 25 21 28 24 21 34 18 24 23 23 28 27 21 22 26 23 24 26 28 26 36 25 20 24 23 27 15 29 25 22 21 19 26 24 22 27 21 32 19 24 21 19 18 29 21 26 27 25 25 22 18 26 25 41 26 22 29 29 30 25 27 29 20 23 36 17 21 19 20 24 20 25 28 25 21 23 24 19 22 23 22 20 30 19 29 14 16 26 22 21 23 28 25 28 20 16 11 32 23 22 28 13 36 29 30 31 23 26 22 20 28 16 33 22 27 23 25 27 17 21 29 27 26 26 19 26 24 20 21 24 16 26 27 24 23 22 23 22 25 18 27 25 32 24 24 27 28 24 34 23 17 23 24 32 19 17 37 22 31 25 21 20 23 36 22 23 19 25 21 20 21 29 20 22 22 21 11 25 29 23 25 32 29 25 28 19 11 12 23 21 17 17 17 23 27 33 23 29 18 23 16 21 18 22 17 33 27 29 19 20 20 30 25 10 21 23 20 11 21 19 27 24 25 20 25 24 32 24 28 22 25 28 24 26 31 24 16 31 16 35 26 25 25 25 32 22 28 30 25 25 21 20 21 27 20 24 19 18 29 22 16 27 27 32 32 24 25 30 22 22 24 24 30 21 25 19 24 17 18 27 21 21 16 28 20 22 22 26 24 16 23 34 31 20 25 20 27 24 18 23 24 28 24 27 24 21 29 26 27 24 24 32 29 27 25 31 28 28 21 23 28 24 24 22 19 22 15 36 29 21 35 17 27 23 28 19 24 18 30 26 29 17 15 22 30 23 12 23 24 22 28 27 26 24 16 22 19 28 23 31 22 36 30 29 30 25 26 20 16 23 23 20 20 29 27 18 35 18 20 15 19 30 19 20 24 27 25 21 19 27 33 22 23 20 24 24 20 29 29 24 19 27 19 25 24 24 26 28 28 18 28 24 29 15 26 20 30 26 27 34 19 31 17 30 25 27 26 29 21 25 28 16 28 23 15 21 29 21 25 26 26 22 26 18 19 17 23 25 24 19 25 23 14 25 22 25 24 23 30 29 24 26 27 26 20 31 21 26 22 31 33 25 24 18 28 19 22 21 23 21 28 29 22 36 21 20 31 23 31 21 16 21 26 28 22 33 29 24 28 21 25 23 21 25 24 28 22 18 25 19 13 25 24 33 30 24 29 24 17 28 20 24 21 24 26 28 23 31 20 21 28 29 19 33 18 23 27 33 25 19 25 23 28 15 29 30 25 23 32 18 24 29 25 32 19 25 23 23 24 19 19 24 34 24 28 23 30 12 24 24 26 18 22 28 19 25 24 28 23 26 24 26 21 19 16 32 17 32 21 16 30 18 31 26 23 21 15 19 25 32 17 21 23 24 24 15 25 22 23 26 29 31 20 19 22 25 29 27 28 33 24 20 19 21 14 25 18 22 28 23 21 15 28 20 23 36 32 19 17 28 25 33 14 18 24 17 15 21 24 28 24 24 19 22 28 29 15 24 25 25 24 24 24 26 15 26 17 19 25 26 25 35 18 31 30 18 28 24 25 20 30 24 18 25 28 16 30 23 20 16 28 23 20 25 19 23 16 21 21 16 24 20 20 33 26 34 23 21 27 28 18 23 24 12 24 23 23 22 26 24 22 19 33 28 20 22 27 25 23 29 22 18 26 27 18 20 24 23 22 33 23 24 30 26 26 22 24 24 23 20 21 20 25 26 30 19 30 27 22 23 20 24 18 18 17 21 25 25 23 28 17 30 18 23 23 25 23 19 19 22 26 27 21 22 22 23 26 25 19 21 18 25 18 23 22 29 28 19 22 17 30 26 20 29 22 27 26 16 16 28 24 31 25 28 19 20 21 18 26 20 32 25 32 20 25 29 31 28 18 26 28 26 20 29 24 22 31 19 21 19 22 31 25 29 18 18 22 27 18 21 20 24 25 24 13 25 30 22 22 18 23 22 35 31 27 26 28 16 23 20 27 17 28 16 22 19 26 26 20 17 23 28 33 22 19 25 21 21 24 25 24 25 23 21 17 18 20 29 19 32 21 17 19 25 20 23 28 19 26 25 29 25 18 20 24 19 29 18 33 24 19 25 22 17 36 28 31 23 28 25 22 22 21 30 18 26 24 21 29 21 24 24 24 24 22 33 29 20 31 23 23 22 17 31 20 28 24 13 26 25 29 18 29 25</t>
-  </si>
-  <si>
-    <t>EXN(0.5371882785534954, 30.33269019780997, 4.969988240938044)</t>
-  </si>
-  <si>
-    <t>31 41 32 29 34 27 32 41 34 40 32 26 28 27 33 26 33 36 34 33 37 36 32 37 44 38 37 28 28 31 41 30 28 34 37 27 25 35 34 41 32 31 34 30 39 39 28 29 46 42 36 31 33 36 25 39 31 38 21 34 28 31 26 37 28 35 31 40 26 30 26 36 32 36 33 50 32 27 30 39 27 37 33 25 26 31 40 39 31 30 44 27 36 30 39 44 31 34 39 37 33 30 43 34 23 29 32 26 34 37 28 28 36 32 28 37 32 30 29 36 34 25 33 27 36 35 42 36 38 34 24 37 27 40 34 34 28 30 37 36 34 33 35 38 26 33 35 34 34 27 34 35 37 39 40 37 34 28 38 35 30 46 41 40 40 35 40 30 34 28 37 34 28 30 33 33 41 36 33 35 27 30 41 36 30 29 33 36 44 23 31 44 26 33 33 32 32 45 32 33 36 33 18 42 43 30 29 22 26 35 27 43 27 31 47 38 28 29 40 41 33 36 38 38 51 32 32 32 37 33 32 26 28 24 32 35 36 34 32 25 29 26 41 42 34 32 37 30 33 34 33 22 29 41 33 34 32 33 35 33 33 40 48 34 29 44 31 38 33 27 31 29 39 27 41 38 29 29 25 39 31 30 32 33 35 25 30 33 27 45 37 48 34 43 35 32 32 31 30 38 29 40 27 36 34 23 34 48 35 29 41 34 43 30 26 35 31 36 40 26 34 30 32 33 33 35 35 36 26 31 24 41 35 31 33 33 35 39 26 32 37 36 36 22 38 32 29 36 45 31 35 29 35 36 41 26 48 30 19 35 45 36 36 40 33 28 38 28 36 28 31 29 36 33 30 26 33 30 31 34 23 29 44 34 29 39 37 33 33 26 35 38 36 30 33 44 44 28 28 35 29 25 43 31 31 30 37 27 42 30 36 36 33 26 29 35 37 29 33 36 36 35 27 33 39 31 30 38 32 32 32 41 31 22 38 35 32 22 26 44 27 46 34 41 32 37 26 33 44 27 33 28 32 31 46 26 41 38 34 30 29 38 35 42 29 34 27 24 30 24 37 35 27 29 32 24 39 35 46 37 29 36 22 24 29 33 33 33 28 34 31 41 32 26 36 32 31 31 34 34 31 43 41 32 37 34 33 22 40 26 39 35 29 31 30 32 34 29 38 31 40 27 34 30 25 37 43 21 24 36 36 33 25 34 41 30 36 31 25 28 44 28 27 28 39 24 34 42 49 40 37 37 41 33 38 32 37 36 31 31 29 33 33 31 31 28 29 32 32 39 34 35 38 33 42 36 32 30 31 26 34 36 31 32 35 35 29 27 40 33 36 34 39 34 34 36 35 29 23 30 32 43 36 31 29 39 32 48 30 35 39 34 44 33 41 48 34 30 34 37 31 26 34 46 28 37 41 31 33 44 31 33 35 39 28 28 33 28 35 42 37 35 37 33 34 26 42 42 25 41 35 34 41 34 32 35 40 34 36 23 31 37 27 21 27 39 42 30 18 29 39 34 30 28 27 36 38 38 21 34 34 40 37 31 47 29 30 32 36 35 33 29 30 29 37 37 32 35 30 30 26 31 32 44 43 38 34 37 31 30 29 26 33 29 22 45 34 37 41 38 31 34 42 36 36 43 41 29 16 29 34 30 40 39 32 34 45 31 29 34 27 37 31 25 25 42 30 51 31 32 35 47 41 24 36 36 25 44 30 27 41 28 35 33 27 28 35 32 44 37 32 41 37 40 33 36 33 32 32 40 31 33 34 32 31 34 39 33 31 30 36 29 32 41 33 35 41 30 30 38 32 26 46 33 33 34 35 21 29 33 36 26 31 32 30 39 44 43 40 32 25 28 31 40 36 37 37 39 37 21 32 30 34 27 29 37 29 39 31 32 21 30 31 31 36 22 31 32 32 36 33 49 27 37 36 37 34 30 34 31 31 35 30 33 41 30 51 39 26 39 33 38 23 27 34 26 28 32 26 31 50 21 34 35 32 31 26 28 26 32 40 37 27 47 33 28 27 39 23 44 32 29 37 35 35 38 29 43 32 28 32 38 36 38 38 35 32 40 34 26 40 29 32 35 25 28 28 30 33 31 32 40 38 39 37 44 28 32 41 29 30 30 26 20 23 33 37 33 36 32 36 31 32 27 32 36 35 39 26 33 29 41 43 33 30 36 29 37 31 30 45 36 35 44 32 31 37 35 23 36 23 43 34 35 25 40 31 33 30 35 28 28 41 35 32 30 32 28 25 27 29 38 24 34 28 36 20 33 32 30 41 24 31 43 34 40 32 30 31 40 47 25 34 31 41 47 31 39 26 30 32 37 46 36 31 29 34 29 25 40 36 32 31 31 42 30 43 30 33 31 43 38 31 40 34 34 26 26 34 31 32 38 32 33 40 31 29 29 34 33 29 31 42 32 29 31 31 32 29 39 32 35 45 31 39 44 17 30 27 28 24 34 19 41 41 32 32 30 30 28 38 34 28 35 32 36 26 43 30 32 37 34 23 30 35 36 34 39 37 28 46 41 41 33 33 28 45 30 31 36 36 30 43 29 43 35 29 36 42 40 39 28 32 32 31 33 34 32 38 43 36 29 25 23 27 27 29 32 24 28 30 33 27 35 23 34 35 36 40 32 27 34 21 32 30 20 36 37 38 38 34 50 26 35 34 36 32 28 28 27 28 43 34 39 38 33 36 34 44 32 30 38 31 47 30 28 29 40 41 29 35 28 29 29 38 32 28 30 26 40 35 40 26 37 46 34 22 28 29 37 42 21 28 35 28 25 33 37 28 32 36 38 34 37 29 36 27 40 28 37 28 33 33 33 33 35 38 27 36 37 27 32 34 40 33 27 38 39 36 33 27 25 27 37 32 38 23 34 25 32 22 35 30 35 38 31 31 27 30 37 44 37 27 25 42 33 37 39 35 32 26 26 30 33 36 32 32 31 38 39 35 25 34 28 30 24 41 29 33 26 28 31 42 34 24 33 30 28 37 38 41 27 34 24 41 25 27 27 22 27 34 25 33 36 40 33 32 33 24 23 35 24 33 42 32 34 38 38 32 35 34 31 37 41 33 23 34 30 32 33 31 32 30 38 40 38 44 32 18 34 33 29 36 30 35 36 33 24 29 31 30 35 31 24 37 39 35 22 33 35 27 26 36 24 37 34 35 20 33 30 32 26 40 27 25 35 35 33 33 21 29 29 30 36 36 24 31 30 31 32 27 27 32 39 22 29 36 39 35 26 41 26 23 35 29 37 31 46 31 33 27 26 34 27 42 39 25 35 47 32 36 34 32 34 23 37 36 29 31 26 39 42 32 33 37 33 30 32 35 28 41 41 35 35 34 40 33 22 36 39 36 26 30 37 32 37 40 30 18 33 30 33 31 34 28 27 32 30 26 30 25 35 35 34 27 35 34 35 42 29 33 30 22 25 28 36 19 43 37 40 33 35 35 37 36 32 33 33 35 28 27 30 30 30 28 43 27 37 39 34 27 44 27 35 26 26 28 28 31 34 39 32 41 35 26 35 36 30 41 37 32 34 32 26 37 35 40 28 36 40 42 25 29 30 30 41 26 37 23 27 38 34 34 24 35 45 35 26 31 30 35 32 34 32 29 40 32 35 50 36 30 28 35 37 39 31 36 32 31 20 38 29 29 31 32 29 33 28 36 30 27 43 37 44 33 43 29 25 29 30 24 32 32 39 37 29 32 36 29 33 29 30 34 38 25 28 30 31 37 31 32 36 40 34 34 41 29 38 44 29 36 44 36 35 33 27 31 25 26 27 36 31 35 32 36 26 32 40 32 37 28 36 38 44 26 32 33 34 25 22 27 26 27 16 25 35 35 34 30 35 27 36 37 34 44 43 23 42 26 28 28 33 34 37 37 34 32 31 50 44 31 40 43 37 43 37 32 39 24 38 26 24 31 33 35 37 29 35 29 45 28 35 49 29 29 30 43 36 36 34 31 25 36 46 37 33 30 39 31 36 29 36 37 32 33 39 34 30 28 32 29 29 31 25 24 40 25 24 27 50 26 33 33 38 33 31 34 30 30 29 30 37 33 28 38 25 30 35 40 25 33 29 41 43 38 35 36 33 29 29 29 38 32 37 29 33 33 34 38 30 29 28 34 39 33 32 39 21 39 28 32 33 25 30 26 34 30 37 31 34 31 32 35 27 38 34 36 35 48 33 39 31 29 29 42 36 21 28 30 34 31 27 21 34 26 37 28 33 51 29 36 38 36 44 27 40 30 43 23 37 28 38 29 37 30 32 35 25 31 26 36 35 29 30 31 22 27 32 36 32 26 22 29 32 36 43 35 32 25 36 35 30 27 34 26 31 35 34 38 33 33 37 35 37 43 39 37 32 35 25 30 36 39 25 30 29 30 43 32 35 36 27 32 37 35 18 29 29 34 33 36 35 29 23 37 47 27 23 39 29 31 29 42 44 41 32 32 32 39 26 29 34 28 36 21 32 31 33 28 33 42 34 32 29 28 30 36 38 22 36 51 31 25 31 25 23 45 33 32 34 30 35 30 38 24 33 28 31 33 31 32 37 44 30 42 32 22 39 34 37 33 27 40 32 34 40 35 29 30 25 40 28 39 31 41 34 39 33 43 30 34 37 30 44 34 38 38 36 34 41 30 28 38 33 32 28 42 41 29 39 30 28 30 32 35 33 29 32 39 45 29 31 35 40 35 37 29 33 35 47 41 34 33 38 28 34 31 27 32 30 34 39 36 30 25 33 24 21 27 32 34 27 31 36 33 35 32 40 42 37 30 27 32 25 27 31 27 31 30 36 37 25 31 39 25 38 35 44 38 40 39 37 33 21 33 40 33 37 31 31 35 30 35 26 41 25 36 29 36 26 36 40 31 32 36 36 33 31 34 28 44 28 33 39 28 35 27 28 36 33 25 36 33 45 38 41 33 33 31 25 38 39 40 38 37 35 33 40 30 32 44 32 38 44 18 40 47 23 27 32 32 32 31 27 41 32 31 34 31 32 31 31 38 37 27 40 45 37 25 28 34 38 42 36 36 29 25 34 42 23 32 33 40 30 38 30 38 20 28 30 23 25 34 35 29 34 35 27 35 29 29 33 29 21 35 37 26 33 35 39 27 30 23 27 38 32 22 42 26 32 39 33 33 35 23 30 30 25 45 34 36 34 32 28 30 37 37 42 25 33 35 36 34 37 45 37 40 32 30 30 43 23 37 40 29 35 41 40 37 34 40 32 46 24 38 31 27 40 24 36 36 38 34 28 35 31 36 44 37 35 39 30 34 33 33 31 28 28 30 31 34 36 35 27 28 30 37 40 22 28 34 24 29 28 31 35 37 31 34 29 33 33 35 33 33 35 35 38 39 34 40 26 38 36 30 32 37 31 32 32 31 25 35 36 39 40 26 46 31 46 25 30 38 31 51 30 29 32 27 28 32 34 34 31 34 31 35 28 34 37 23 29 30 39 40 30 34 33 29 33 37 29 30 34 29 33 38 30 31 33 25 36 22 31 30 38 32 32 41 34 23 37 32 39 35 28 36 28 30 34 25 42 32 37 32 42 39 33 32 32 29 36 31 24 39 28 31 20 24 37 38 31 23 18 22 40 30 29 38 29 29 25 39 32 20 27 33 38 22 32 36 18 32 27 27 32 24 30 31 38 32 31 40 41 38 40 23 31 38 35 27 31 39 45 40 43 34 36 27 27 50 38 35 35 30 35 34 41 33 44 35 34 36 24 30 39 32 21 26 30 36 35 35 24 33 32 30 41 34 34 42 29 32 28 26 28 36 28 26 37 35 28 29 38 36 39 28 35 36 36 29 33 25 28 35 36 34 30 35 26 34 31 28 17 35 37 33 34 33 34 35 31 34 33 37 34 34 22 31 28 32 35 28 29 33 37 39 34 33 37 37 31 36 28 35 50 31 34 21 35 32 35 25 31 37 36 37 37 30 27 36 35 34 28 31 35 41 35 42 49 27 31 29 36 35 29 33 26 19 24 16 29 43 41 45 31 43 37 32 32 28 25 22 18 24 35 38 32 27 34 30 24 30 34 27 36 43 28 38 31 35 34 28 33 36 29 48 36 32 35 31 23 46 19 37 32 34 25 33 30 38 37 26 41 36 40 37 32 34 35 30 33 26 39 30 40 38 33 41 28 31 33 36 35 28 36 33 28 39 24 41 34 28 37 33 33 34 31 35 29 26 25 33 38 26 35 22 25 33 27 27 31 29 24 24 42 32 28 27 28 35 29 31 32 35 27 45 38 45 30 35 37 35 31 28 23 36 34 34 35 32 33 30 33 30 39 35 31 28 28 29 42 34 31 20 38 27 40 34 34 26 39 28 31 40 37 24 44 34 30 27 32 32 39 39 40 27 25 35 26 35 30 33 33 36 28 25 34 35 19 30 38 40 32 34 32 36 31 35 30 33 35 41 32 34 33 42 43 38 35 35 36 41 31 30 36 41 25 41 27 37 35 26 39 39 28 32 20 38 25 28 41 28 35 34 38 38 28 29 35 29 29 33 31 40 32 34 25 31 43 38 40 33 31 32 35 37 39 31 40 34 35 37 32 30 37 28 38 33 34 40 32 32 38 39 36 34 29 33 30 28 38 44 45 31 47 32 47 42 36 28 34 43 30 32 32 22 31 32 27 31 35 39 34 30 23 35 29 25 32 34 32 27 30 29 30 30 36 33 38 35 29 43 40 30 27 44 41 30 34 31 34 39 24 31 30 31 31 34 20 24 41 31 28 33 45 38 47 41 34 31 31 33 38 30 29 30 32 39 33 30 33 33 32 34 38 38 26 36 45 23 23 29 28 27 32 40 39 27 33 26 36 25 34 31 27 30 27 37 39 35 40 36 26 37 29 24 36 30 31 36 22 33 26 30 38 38 34 34 42 33 36 24 34 33 32 27 36 40 29 27 27 35 26 27 38 36 33 34 31 35 41 33 31 37 22 35 32 31 30 32 30 39 38 46 26 25 30 32 30 23 18 36 31 42 28 22 42 32 25 40 32 36 37 35 23 38 35 36 37 28 29 36 37 30 26 30 34 26 38 33 42 41 32 48 18 37 35 32 48 39 32 35 35 37 36 22 32 33 22 36 42 30 39 41 27 36 30 30 41 40 27 37 27 40 31 38 37 30 32 35 39 26 31 32 35 31 32 30 30 26 30 27 31 37 29 40 33 34 32 34 23 35 33 30 30 38 40 31 38 21 26 39 32 27 25 29 35 25 28 33 41 31 31 29 31 41 31 31 33 39 21 31 24 34 38 33 31 27 26 28 37 26 35 31 28 24 36 25 46 30 31 35 35 34 37 35 29 22 30 35 31 23 32 29 40 26 30 36 27 32 43 31 28 43 41 23 41 28 27 36 29 31 31 38 31 36 25 28 31 31 32 29 29 36 33 26 41 41 35 33 24 32 30 15 30 43 26 37 32 34 35 41 34 26 17 29 34 32 29 36 24 20 34 25 32 29 35 40 29 36 31 39 37 22 34 36 31 28 25 30 29 30 37 31 33 36 31 27 28 26 33 32 36 33 27 36 28 28 33 37 27 19 25 27 31 33 31 42 36 33 25 32 45 37 30 29 33 42 37 26 32 28 35 30 34 26 32 30 32 34 30 49 26 36 34 29 36 28 38 31 22 45 28 35 43 36 39 39 35 38 43 39 38 34 32 28 30 19 32 36 37 39 37 32 37 40 37 37 35 42 35 26 40 35 43 28 37 37 37 35 31 25 28 29 33 36 32 25 34 33 24 37 22 36 29 30 42 36 32 35 35 39 31 32 39 40 25 27 26 41 28 41 33 34 29 40 35 41 26 32 34 35 35 36 26 40 41 33 37 25 30 33 24 27 29 35 45 30 31 31 32 31 32 31 34 38 49 30 30 19 36 26 34 39 29 40 41 38 30 26 18 27 32 39 42 30 38 35 28 44 39 30 31 28 36 31 32 30 32 30 31 28 30 26 26 31 34 35 42 23 31 42 34 29 36 18 39 28 31 35 36 31 31 29 35 27 31 34 32 30 34 25 39 29 33 37 27 33 30 26 33 38 26 33 34 21 43 21 38 38 28 42 25 34 35 24 33 28 18 25 33 32 27 31 34 30 34 45 33 31 27 40 35 30 43 40 39 31 48 33 39 30 31 31 33 30 29 34 33 31 29 33 30 33 45 35 28 40 40 30 38 36 34 39 33 32 29 29 28 36 32 22 34 24 29 38 36 35 34 40 30 27 33 37 32 44 30 25 33 33 29 31 37 32 29 35 29 34 29 34 41 26 42 34 31 31 38 36 39 18 28 27 33 38 28 39 35 29 29 32 35 32 28 31 25 34 34 28 38 29 34 28 29 35 41 37 32 36 37 37 28 33 30 27 36 31 32 45 32 30 29 37 24 38 32 29 34 24 40 32 28 31 32 21 36 38 36 39 22 32 35 28 24 42 29 28 22 32 42 41 36 42 42 29 34 24 35 42 33 38 37 39 36 37 17 28 31 31 26 28 21 37 35 37 24 38 29 39 38 39 43 27 37 39 20 33 32 28 33 29 33 39 44 45 22 34 36 32 37 25 36 32 29 28 28 31 38 34 25 27 38 35 28 37 34 38 37 28 32 34 33 36 36 33 40 46 28 40 32 37 31 35 38 45 34 36 31 36 41 30 38 40 33 29 37 34 37 34 41 30 34 32 34 34 38 38 31 29 29 30 39 33 30 33 30 34 22 34 34 50 31 25 42 34 37 33 27 38 31 36 28 32 28 23 28 29 38 32 25 41 31 25 29 38 44 27 33 30 33 24 34 33 27 36 32 29 34 34 36 29 32 22 52 35 35 31 29 33 33 38 29 29 38 37 35 41 35 41 35 45 33 34 41 36 23 36 23 34 27 37 31 31 35 31 37 25 29 32 28 35 31 26 29 35 31 25 32 35 29 33 29 42 38 36 30 30 35 41 29 34 32 31 38 37 28 30 38 29 28 36 33 37 21 36 29 37 28 32 36 32 36 23 30 31 39 40 37 27 36 37 32 43 33 39 29 35 25 33 30 33 33 39 31 39 25 33 30 36 32 25 34 41 33 32 34 36 38 31 31 24 34 35 28 36 35 29 35 31 42 52 18 38 29 40 28 34 36 34 38 18 38 36 31 41 32 35 35 38 38 26 27 32 29 23 26 32 34 38 27 37 36 37 32 27 34 27 29 29 26 36 33 32 31 40 30 31 40 36 34 37 36 42 32 34 31 44 38 28 35 33 27 29 20 40 36 35 38 30 39 26 22 35 32 29 27 35 34 27 40 31 28 36 29 45 33 32 31 28 31 34 23 38 41 32 40 33 32 30 27 36 36 42 33 34 36 28 25 37 27 34 30 40 31 32 23 33 32 35 26 24 32 29 26 37 29 28 32 41 25 27 47 36 34 35 36 27 34 35 22 34 32 35 36 44 33 36 38 32 43 34 32 26 30 29 41 38 37 39 33 33 31 39 23 48 33 33 34 28 38 37 31 27 26 35 36 27 43 31 36 27 40 32 35 36 32 34 29 36 37 34 36 33 33 46 24 28 29 30 34 31 38 44 33 31 29 40 29 36 40 34 32 28 27 26 39 38 21 27 32 34 30 30 34 31 33 29 30 27 25 41 21 39 36 28 21 32 27 41 37 30 32 22 34 34 44 34 36 32 40 29 25 35 31 25 38 32 26 43 24 41 27 28 30 36 38 32 37 31 36 31 26 44 31 36 31 36 29 24 36 36 33 26 41 30 26 40 39 49 33 35 29 28 35 32 38 31 25 31 29 42 33 29 41 36 33 28 26 37 30 26 35 44 28 29 31 30 32 36 37 30 33 34 33 31 31 49 31 41 27 33 37 30 39 47 36 32 27 28 36 31 42 31 28 39 27 42 35 28 29 40 32 33 27 24 35 27 29 27 30 35 28 23 34 39 25 31 35 33 34 37 27 34 35 31 34 27 27 43 34 42 31 36 29 30 36 35 32 28 27 37 36 48 33 41 30 35 41 32 30 32 33 26 39 33 30 36 28 31 29 37 31 35 34 29 31 37 26 36 25 37 41 42 50 23 31 30 34 37 33 33 25 31 36 26 34 30 37 49 33 36 15 29 33 25 27 31 31 29 26 35 28 37 38 36 44 36 27 33 34 26 42 29 38 34 25 30 38 26 21 26 26 35 36 38 30 34 38 36 34 30 41 44 41 31 31 33 34 42 30 28 39 33 44 32 38 28 37 36 33 33 28 32 39 38 33 37 30 24 38 20 34 31 22 26 23 33 47 33 31 30 30 28 33 38 31 29 28 32 31 31 35 37 35 33 37 39 33 35 40 24 32 37 30 39 36 31 35 36 33 22 30 22 40 32 34 23 30 32 26 33 18 25 24 34 32 35 33 38 30 48 25 42 43 31 33 29 30 37 30 40 39 46 30 34 33 29 29 41 32 30 41 37 43 28 29 28 38 33 27 44 27 28 29 35 28 27 39 29 30 36 32 30 41 26 27 29 36 24 31 29 34 28 30 31 33 32 46 38 34 31 30 27 28 39 39 36 32 33 27 33 38 32 26 31 31 29 37 26 39 46 30 27 43 34 31 31 32 35 34 28 32 21 34 36 37 25 38 32 31 38 35 30 24 40 38 32 32 34 32 31 30 35 39 36 31 24 46 37 29 28 31 32 28 35 29 35 34 32 32 31 39 25 32 34 34 35 28 34 39 28 38 44 29 34 37 27 30 36 23 29 25 33 21 30 31 40 34 36 29 31 45 28 40 38 28 25 36 32 37 20 28 27 35 31 38 27 28 24 41 38 33 32 32 23 34 33 43 44 26 36 31 35 34 38 34 38 27 37 26 44 26 38 33 30 33 26 32 30 36 35 37 38 39 27 35 31 31 36 38 29 37 33 25 24 34 32 26 26 32 35 32 33 43 36 32 27 32 33 36 34 36 31 29 24 33 25 34 35 29 28 39 36 32 37 26 34 39 36 25 43 41 31 24 34 26 23 38 37 37 27 27 41 33 27 41 37 36 36 30 46 32 23 30 29 32 20 33 33 29 31 38 41 35 27 34 39 32 32 28 32 48 35 32 42 40 35 30 25 42 33 37 31 33 36 31 38 28 23 40 31 44 29 32 33 30 34 33 37 30 35 31 28 27 36 30 32 22 29 24 29 43 30 34 33 44 33 41 25 35 26 34 40 30 33 36 31 33 33 28 38 30 32 32 30 42 27 37 27 25 35 23 33 33 48 30 36 39 43 28 32 39 31 29 31 30 36 36 35 51 44 32 32 38 33 38 56 40 32 25 34 42 32 33 41 22 29 39 32 34 39 34 35 29 31 33 29 22 41 29 34 29 31 27 33 38 34 34 19 31 26 36 25 39 27 34 30 37 33 28 42 43 32 40 27 40 30 36 31 39 30 34 29 40 42 34 35 28 30 37 35 30 45 36 40 32 25 34 36 32 32 34 34 29 31 37 33 47 31 28 36 37 33 26 42 33 28 34 36 35 34 18 35 28 39 36 27 34 38 31 26 31 37 32 29 42 39 37 34 27 22 35 32 31 30 37 41 24 37 28 31 33 32 31 31 43 31 28 38 30 38 47 34 29 39 36 30 28 20 26 40 38 32 31 36 27 37 28 32 32 29 28 30 31 23 25 39 30 34 27 37 31 29 32 26 34 42 45 27 29 52 49 37 36 35 52 29 33 26 33 34 32 39 29 25 30 29 31 37 37 47 37 41 37 36 34 25 25 31 47 31 26 38 37 36 33 23 32 32 26 35 32 32 31 35 36 47 39 25 33 38 43 26 27 43 32 37 36 39 23 30 42 39 44 37 24 41 30 33 40 32 20 26 29 36 30 32 31 25 38 28 37 37 35 41 23 37 34 42 32 34 33 26 24 28 47 41 34 40 46 27 40 57 34 30 38 40 29 35 34 24 29 31 26 33 26 43 36 33 33 33 34 33 25 27 29 34 42 33 29 34 32 42 33 35 27 37 32 30 36 39 26 32 36 39 21 30 28 39 34 39 37 26 34 31 32 40 40 30 41 43 42 31 32 26 24 41 35 32 33 30 31 25 29 28 35 43 22 41 32 38 37 44 45 37 31 29 43 36 27 39 34 28 38 33 38 38 36 37 24 26 31 34 39 28 33 31 31 36 38 39 43 31 35 45 44 25 42 36 19 40 45 33 29 33 41 24 32 32 48 31 30 33 41 31 33 26 31 28 34 32 27 43 30 33 30 35 34 21 35 34 38 32 23 36 32 27 35 32 34 41 45 38 42 26 30 45 41 31 29 35 36 30 28 19 36 34 34 32 38 27 34 34 33 45 39 25 28 43 29 41 33 24 26 30 23 28 24 42 28 26 29 26 28 30 39 48 37 24 31 33 41 35 32 25 32 35 32 34 30 31 36 29 30 36 30 23 43 28 33 23 46 34 29 32 38 34 31 44 27 35 36 29 31 33 31 44 31 31 37 43 40 34 39 23 34 36 40 26 27 21 31 35 29 37 37 28 39 29 44 25 40 34 47 37 41 31 29 34 27 31 33 45 38 36 34 29 26 28 42 38 32 33 40 31 41 33 36 33 28 40 26 30 38 36 28 29 34 33 30 35 30 26 22 29 46 31 27 35 26 40 40 27 45 32 31 27 32 24 35 34 31 28 30 32 28 46 21 33 35 29 30 42 41 31 23 37 36 28 27 31 22 44 44 34 36 33 26 36 23 35 27 27 25 38 32 43 31 36 27 36 29 37 37 30 32 41 34 41 33 24 29 29 44 27 26 34 28 32 30 40 33 29 35 48 34 29 26 45 29 50 33 32 32 40 32 28 35 31 34 36 23 31 32 33 39 35 27 30 34 29 27 32 35 25 29 33 32 28 30 38 36 38 31 37 30 41 38 28 34 30 44 30 38 32 33 36 41 35 38 33 33 35 36 46 36 33 37 36 36 30 34 25 24 26 33 38 35 32 28 29 45 28 31 32 36 35 39 41 29 45 29 29 34 37 23 32 25 39 27 34 32 36 33 37 44 35 35 31 33 39 44 33 37 32 30 30 26 30 36 29 37 30 48 40 29 47 38 38 38 34 34 36 36 21 42 31 31 21 32 33 31 23 31 39 30 32 27 47 41 36 31 21 31 43 26 30 26 35 37 33 26 31 42 42 28 35 36 39 28 26 31 33 39 38 40 32 33 47 37 29 37 40 43 44 42 29 32 27 28 36 37 31 31 33 37 38 31 36 22 25 33 43 30 31 34 26 30 35 26 39 36 30 33 35 31 30 32 33 26 39 22 40 23 36 22 26 33 34 25 38 34 44 34 30 33 28 35 25 34 41 39 23 38 36 35 26 28 30 35 35 31 25 31 31 39 38 38 41 31 32 28 20 37 41 37 23 36 37 26 30 32 31 31 33 30 32 31 32 31 39 35 38 33 29 36 39 38 45 24 37 32 36 20 28 36 32 31 33 23 29 37 24 35 35 28 31 39 38 20 30 35 31 45 28 29 44 34 29 37 32 38 36 43 30 51 27 26 33 22 33 43 35 33 41 30 36 21 38 26 38 37 35 37 32 27 28 51 38 35 28 31 27 39 27 25 27 37 41 36 33 41 39 33 34 46 33 35 28 24 42 29 32 25 32 27 34 37 47 28 33 29 29 33 27 33 34 39 30 31 33 35 29 29 30 31 20 35 35 40 37 39 29 47 28 36 36 39 26 37 29 45 31 33 32 33 31 26 39 31 37 38 35 42 35 36 26 37 29 38 26 31 33 38 31 33 43 37 38 33 33 36 31 33 37 33 31 43 43 23 35 32 26 33 33 36 32 34 34 23 34 41 34 37 44 37 35 30 33 27 28 34 32 33 40 21 28 37 31 42 31 31 35 29 33 31 36 44 33 38 29 43 33 37 36 32 39 24 44 43 42 33 30 31 33 30 30 39 39 31 38 37 27 20 36 32 31 27 22 24 36 28 32 34 36 36 24 35 33 29 29 39 28 23 25 32 30 42 33 24 31 27 35 32 36 32 51 42 29 30 27 24 33 33 27 32 25 35 27 30 40 29 33 34 33 45 31 29 35 29 33 40 35 33 34 41 40 35 34 29 32 30 35 25 27 47 24 27 36 33 33 27 26 39 29 33 32 38 36 39 31 43 25 31 40 36 45 32 28 36 31 20 32 40 27 29 36 38 43 27 39 32 30 40 41 40 28 44 38 34 32 39 40 35 37 29 33 33 27 37 39 26 36 26 29 28 37 37 29 40 31 30 35 33 24 32 33 31 30 33 29 34 43 31 31 33 46 26 48 34 31 29 33 47 27 39 31 32 35 34 33 30 34 36 35 40 40 38 31 32 42 31 28 29 27 31 34 36 35 32 27 31 25 27 36 41 34 40 35 32 30 37 37 45 26 30 31 36 29 34 35 38 31 36 28 22 31 27 38 30 27 45 38 40 25 27 33 40 24 36 35 35 29 31 30 44 48 30 37 30 54 35 33 32 22 32 33 35 31 40 39 27 28 29 27 26 36 30 27 32 39 41 30 31 42 33 29 48 34 31 31 47 38 31 28 36 30 43 45 38 32 26 23 30 29 32 33 22 26 39 28 32 38 34 24 34 26 33 37 34 37 33 31 33 36 37 34 32 45 36 27 30 29 32 37 28 36 26 39 31 25 40 37 35 33 25 31 24 38 41 31 28 34 38 34 25 33 30 41 24 35 44 41 38 38 21 40 28 35 36 25 32 32 35 31 30 34 35 33 38 25 45 37 35 31 38 34 37 38 35 34 27 38 38 35 31 25 43 30 30 31 36 30 40 29 32 33 48 34 35 32 31 37 31 21 32 34 30 34 35 30 34 35 28 30 33 23 25 33 31 34 25 34 29 37 40 38 37 31 28 37 31 32 26 32 27 31 28 42 35 33 38 25 28 27 30 31 31 39 37 35 39 32 31 25 33 38 30 29 32 38 29 34 40 38 35 32 37 39 36 37 29 28 39 40 38 44 34 33 31 45 25 33 29 37 35 31 33 34 32 30 27 28 31 31 31 33 29 40 30 31 41 24 36 27 34 34 34 32 36 39 28 33 30 27 33 29 38 23 36 38 38 38 36 40 36 27 27 44 28 27 23 39 31 37 29 37 33 43 37 28 34 32 36 35 34 36 30 31 21 23 21 42 36 38 29 36 29 39 31 36 23 34 35 29 35 30 26 26 26 34 38 44 41 39 35 30 31 35 31 20 43 26 45 31 40 30 29 37 36 31 37 32 19 37 39 33 30 27 23 47 23 30 41 30 31 28 20 39 35 33 32 34 33 23 33 31 25 39 37 31 30 35 32 24 29 30 27 28 49 40 33 35 34 25 42 36 32 39 28 30 23 37 31 30 36 26 44 28 32 34 29 22 37 29 37 31 35 32 28 34 30 36 32 36 22 23 29 29 33 26 30 33 32 40 49 35 33 23 30 38 47 41 33 36 33 27 34 37 36 36 26 43 31 28 34 42 32 26 31 32 28 19 40 33 25 29 27 23 38 31 42 32 41 34 29 37 31 38 41 29 25 40 31 27 39 30 39 33 37 37 35 31 37 40 26 36 31 39 37 44 32 36 39 39 37 23 38 30 27 30 28 44 36 23 34 32 31 33 31 27 29 38 33 29 35 33 37 39 19 26 34 35 32 32 25 45 27 35 34 37 31 28 39 35 36 38 28 27 33 44 28 34 35 32 41 30 38 41 34 32 39 35 33 29 33 28 32 26 40 29 22 32 26 32 37 31 42 27 36 34 32 31 34 34 47 33 35 34 38 33 44 33 29 31 28 32 35 37 24 30 45 19 33 33 34 37 37 33 36 36 32 52 28 37 43 31 36 29 39 34 39 34 28 27 33 41 24 31 33 26 23 35 37 39 27 40 46 40 26 41 30 33 45 33 29 30 33 32 42 28 28 20 27 31 31 33 28 34 31 37 26 31 35 29 39 29 26 39 36 34 35 48 33 39 38 37 39 31 35 34 31 41 32 26 33 34 32 38 20 44 46 36 21 50 30 30 26 27 27 33 32 34 33 41 32 19 38 40 25 38 27 31 34 26 31 27 37 27 26 31 38 38 27 34 31 45 29 26 35 28 33 29 30 34 30 31 28 45 30 38 31 30 32 35 41 39 34 29 37 38 44 34 33 38 26 41 35 34 32 44 36 41 32 26 31 28 39 34 28 30 44 34 29 23 27 33 26 31 29 32 32 36 33 39 31 33 33 24 36 30 34 33 29 37 42 34 27 40 36 29 22 42 46 28 31 34 35 41 39 38 31 39 35 45 34 39 35 49 26 31 32 32 39 25 41 38 24 34 28 28 37 33 34 27 32 23 32 30 45 43 40 31 39 39 34 33 23 25 37 34 31 37 22 35 31 29 37 35 33 40 42 41 33 31 30 39 28 35 40 41 42 34 39 19 44 24 30 28 32 25 38 31 32 29 33 37 30 34 29 36 29 30 26 46 30 41 41 44 30 41 22 42 31 23 36 33 35 35 32 29 28 43 38 38 20 40 31 32 37 34 33 26 39 34 37 40 27 34 35 34 31 33 32 35 35 34 35 36 31 36 36 27 35 41 30 34 33 41 39 36 31 28 34 29 38 36 38 25 31 35 45 30 46 34 42 35 37 37 23 29 44 38 29 28 29 30 32 34 33 30 26 27 30 35 30 28 39 25 25 33 34 37 34 22 34 33 38 20 33 38 36 43 27 26 30 25 38 39 25 35 41 33 39 40 34 23 37 24 41 29 36 34 26 31 46 32 36 26 35 33 23 25 39 29 37 30 31 38 35 42 34 29 40 35 32 36 38 37 35 28 29 31 28 43 34 35 23 29 33 37 34 29 26 33 35 33 33 32 25 33 30 24 25 31 35 32 27 26 30 29 35 25 38 32 36 30 40 32 35 42 37 38 40 35 27 24 24 34 36 34 39 29 36 44 31 44 23 26 30 32 30 40 30 32 36 37 28 42 27 24 35 27 24 26 35 19 32 27 21 29 30 33 30 38 36 30 42 33 28 37 41 24 40 30 29 28 29 37 43 28 40 35 37 28 36 24 38 22 32 30 39 26 33 30 21 29 28 29 35 30 27 42 27 42 29 30 40 39 41 32 42 32 39 24 31 37 34 34 36 34 27 30 36 34 40 36 32 36 29 32 28 27 43 28 36 34 32 36 35 36 31 31 24 36 34 32 30 28 24 45 39 38 27 30 30 31 35 33 37 31 22 40 27 31 25 32 32 45 32 32 28 26 27 36 31 36 35 34 28 32 33 48 23 30 26 29 27 36 36 46 39 32 23 43 38 27 33 52 36 45 24 28 38 37 27 42 35 32 27 37 26 36 46 33 33 40 26 26 24 27 41 31 36 28 39 35 39 33 40 35 24 39 31 37 27 28 28 28 32 29 34 30 30 35 41 31 32 32 28 28 33 26 37 25 22 38 34 29 39 27 29 27 30 45 38 26 31 36 30 32 29 28 43 28 26 31 32 33 40 33 36 31 33 32 33 32 43 37 32 32 45 34 47 25 30 27 32 31 24 28 23 36 29 25 33 36 29 31 37 23 38 38 24 24 44 36 28 33 34 23 28 29 43 39 35 30 30 38 39 39 37 32 35 33 30 33 25 41 34 29 29 36 32 30 40 39 35 34 31 22 26 36 35 33 24 34 38 34 38 39 29 32 32 37 27 31 27 25 33 29 37 30 46 37 41 31 27 34 39 41 37 29 32 34 36 33 38 33 28 34 31 32 29 25 26 26 31 27 21 35 30 38 38 34 32 40 25 32 26 32 41 30 24 22 31 39 28 26 33 28 31 32 30 34 24 29 29 33 28 39 26 35 34 46 42 32 42 27 30 35 44 34 32 37 39 34 29 30 31 30 30 26 32 40 34 29 42 26 31 38 25 19 29 28 36 26 32 32 33 26 44 37 32 38 43 30 37 28 42 32 38 35 20 49 43 42 35 25 26 31 45 49 23 31 25 35 36 37 25 29 23 35 30 43 34 26 34 35 27 27 28 28 26 34 31 41 38 32 31 36 31 29 31 28 34 39 43 31 28 29 27 27 33 31 28 41 39 48 30 28 40 37 42 35 41 31 29 38 26 50 26 33 30 35 31 40 28 31 40 27 34 36 38 39 38 42 33 25 34 29 31 32 35 32 35 20 24 28 32 32 34 35 41 33 30 30 28 30 25 29 25 33 34 39 37 33 39 32 34 32 27 29 31 32 32 29 29 32 33 34 37 35 20 26 28 35 33 35 36 29 43 31 26 28 33 32 19 39 38 27 38 31 28 33 38 33 28 36 28 37 31 25 29 36 37 37 32 38 30 38 33 35 39 40 27 29 19 28 39 28 36 34 30 42 36 41 33 24 31 31 36 36 40 37 28 27 36 28 35 32 31 39 32 32 39 27 29 38 34 38 35 29 27 40 35 31 28 48 26 24 28 33 35 37 33 26 35 44 34 31 30 27 35 38 32 34 33 38 32 41 37 33 38 34 28 31 41 28 39 27 32 20 32 36 32 34 28 27 22 40 28 23 31 35 35 39 33 31 34 30 23 20 25 30 41 29 33 41 36 31 32 21 24 41 29 31 36 30 28 32 43 23 40 29 34 29 27 35 31 41 34 23 30 31 36 36 30 29 34 26 40 35 38 25 29 38 32 31 28 37 27 32 44 31 38 45 37 27 29 34 31 34 38 33 31 31 40 31 39 38 31 31 39 25 38 32 28 31 36 28 33 39 43 34 44 35 39 32 38 36 34 35 35 36 35 42 25 29 30 40 30 29 40 37 27 28 28 40 33 40 36 21 42 38 29 32 39 43 27 33 35 35 30 27 36 31 39 37 28 32 36 27 44 32 29 39 35 35 46 33 36 35 35 28 27 27 30 30 31 38 28 31 30 40 31 32 28 39 24 37 38 27 31 41 26 34 34 38 29 33 37 35 24 38 33 37 26 28 29 27 40 40 35 29 27 39 31 39 25 36 38 36 24 39 32 27 42 28 33 36 28 28 27 29 33 31 31 38 33 38 32 34 26 33 38 27 20 26 29 31 31 34 30 32 38 38 31 35 40 32 24 34 29 29 34 34 37 28 40 36 28 29 35 32 29 25 27 28 33 40 27 38 29 27 30 32 28 28 26 27 45 27 30 52 25 22 31 33 29 25 28 36 31 28 28 39 36 31 28 32 26 31 32 40 31 30 36 39 32 26 40 27 40 34 34 28 25 28 34 33 29 33 36 51 27 38 31 26 31 41 28 38 31 28 30 27 34 30 32 28 28 34 26 31 30 35 22 28 32 37 21 33 33 34 33 38 32 29 28 28 39 27 32 35 33 39 32 28 31 28 42 38 33 32 28 36 30 35 23 44 35 32 32 33 29 31 27 45 29 33 23 29 26 45 35 29 26 42 43 24 37 37 29 26 26 36 40 30 34 38 37 32 23 38 30 27 35 35 31 33 38 25 35 27 36 34 34 36 31 33 20 29 34 25 23 33 37 38 28 32 36 27 23 40 35 36 29 33 32 28 45 39 32 26 40 34 25 45 28 39 37 36 32 37 24 33 36 36 39 39 38 40 41 24 34 36 34 32 32 39 25 31 27 31 37 32 39 31 31 35 43 39 35 34 37 34 33 33 38 26 33 31 28 23 43 30 43 34 37 35 21 38 28 28 34 26 33 34 37 28 28 34 31 31 28 38 30 27 38 35 31 29 29 34 39 24 21 28 29 24 28 38 31 39 33 33 37 26 32 22 40 33 31 30 28 36 31 47 30 21 33 32 29 27 23 29 32 36 38 34 32 34 27 29 29 26 26 25 34 36 30 38 27 31 28 28 30 40 28 34 37 29 35 40 23 37 41 29 37 36 30 24 37 36 35 28 26 43 37 26 30 36 34 28 40 22 36 39 22 32 29 31 39 19 39 29 35 29 40 34 29 33 32 37 28 31 27 40 31 30 44 31 30 37 37 37 33 37 35 37 30 29 36 35 36 28 27 35 36 28 32 34 40 40 34 27 35 36 32 40 39 36 34 37 30 32 36 37 42 35 28 41 25 40 32 34 36 52 30 33 24 34 41 32 43 35 33 27 35 32 33 38 27 33 26 28 26 36 37 28 33 37 30 33 47 38 38 26 30 30 21 41 30 27 24 34 35 24 34 29 36 37 30 31 37 28 31 40 27 27 36 31 36 32 27 37 32 35 35 32 36 40 36 31 28 47 47 34 41 36 26 21 37 29 30 39 33 32 30 26 30 35 37 28 27 39 38 39 34 27 31 25 41 32 29 40 32 34 41 31 37 30 33 33 29 36 29 31 29 35 31 27 33 32 38 29 26 36 31 47 38 44 38 39 33 32 31 40 39 33 18 29 39 25 29 36 39 45 36 33 46 27 37 31 34 38 34 30 32 39 34 33 32 47 30 47 37 28 35 29 40 23 44 37 36 28 28 40 32 43 34 29 41 26 36 30 25 28 39 28 39 34 31 40 27 24 37 32 54 33 29 33 40 35 33 38 36 29 35 43 24 29 24 32 31 30 35 32 29 35 31 35 25 30 31 23 30 44 31 37 18 23 30 32 31 37 39 31 42 31 27 18 40 34 32 38 25 40 35 37 37 35 31 26 28 38 21 42 32 36 30 36 41 25 30 35 38 31 37 28 32 33 34 32 27 33 33 34 32 35 30 31 36 35 30 40 37 43 37 46 34 33 29 42 31 19 32 34 52 34 29 42 33 47 34 33 26 33 45 38 28 24 36 34 26 32 35 31 31 30 29 12 32 40 32 38 43 34 37 38 34 18 26 33 29 27 27 23 40 35 39 32 39 29 30 25 31 28 32 25 47 36 40 27 35 24 33 30 18 35 35 27 18 31 24 36 34 32 29 34 32 47 29 43 28 37 33 32 34 44 31 23 38 26 49 35 31 31 37 35 28 37 37 34 28 29 29 34 35 31 38 30 23 33 32 21 34 33 39 44 31 28 33 29 24 27 33 41 29 33 29 31 24 22 34 30 29 25 43 27 36 32 30 35 23 34 42 42 29 34 31 33 33 26 32 35 39 32 33 38 26 44 37 33 34 28 50 39 35 37 45 38 39 33 35 36 35 33 34 23 31 29 48 36 28 43 23 34 28 44 31 38 32 39 30 37 27 26 34 46 31 28 34 34 34 37 31 30 34 23 29 30 37 33 37 27 52 41 41 41 37 35 28 35 33 33 27 28 36 34 25 44 31 34 21 28 39 27 31 36 38 36 31 34 35 42 26 30 27 33 35 29 36 33 31 25 36 27 33 29 36 33 35 44 22 37 31 41 21 37 25 40 31 37 41 35 38 29 41 32 38 33 37 29 33 36 21 37 32 25 28 36 32 38 36 35 27 35 27 22 35 30 37 29 25 30 33 21 33 38 39 33 32 38 36 30 38 35 33 29 39 35 41 31 38 44 35 32 32 38 27 32 37 29 38 39 40 32 41 32 25 34 31 42 26 34 33 37 36 30 42 40 35 37 30 40 38 33 30 35 34 29 26 37 29 20 38 38 39 39 34 40 30 29 32 27 34 28 34 34 36 31 41 34 27 39 38 33 37 26 32 32 41 37 34 32 36 39 24 33 37 32 34 39 26 32 37 35 39 29 35 29 33 37 28 28 32 48 36 39 30 40 24 39 32 39 25 29 36 22 32 28 39 32 33 30 45 30 25 24 39 26 40 34 24 41 30 43 37 28 31 22 28 38 46 30 31 36 29 33 26 33 25 37 38 41 37 27 22 24 38 35 41 41 43 31 27 29 32 24 33 22 28 36 28 25 21 35 27 30 40 49 31 29 36 35 41 22 28 35 25 22 26 37 42 34 36 29 26 33 37 22 36 31 32 29 32 29 35 26 33 25 28 33 40 32 44 26 39 43 32 42 32 30 29 39 33 31 34 43 26 40 29 32 31 40 36 25 38 29 30 24 29 35 25 35 31 26 43 30 40 33 32 37 36 27 38 34 24 36 38 31 29 31 30 36 25 43 37 27 29 42 36 35 40 31 27 31 43 25 29 36 37 29 39 30 33 36 41 34 28 31 31 30 32 34 29 32 36 38 28 40 36 35 27 31 35 23 33 25 30 37 31 30 35 23 39 25 35 31 37 35 25 29 33 32 36 34 33 32 30 32 31 28 28 24 35 29 28 33 42 35 27 35 30 51 33 30 35 32 33 31 19 23 41 32 40 33 41 27 34 31 25 40 24 41 39 39 30 34 37 42 36 26 39 41 34 27 39 37 37 40 26 30 30 33 36 33 45 23 29 36 40 26 36 30 36 32 31 20 39 37 28 34 27 34 30 43 39 33 30 36 27 33 27 38 22 33 26 28 30 36 36 33 24 38 42 45 27 27 37 30 28 33 33 32 26 32 25 28 27 33 38 29 40 30 23 30 36 27 29 36 28 34 32 37 32 30 31 35 26 41 33 41 35 25 38 31 22 43 38 38 34 40 33 27 32 29 39 27 35 31 34 34 31 33 33 39 32 35 43 41 29 44 39 32 31 25 43 26 36 34 20 36 32 36 29 40 38</t>
-  </si>
-  <si>
-    <t>JSU(-14.990319090592005, 12.455420634139092, -242.59058151267277, 299.96627262910664)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202 277 201 180 254 169 217 256 250 234 184 204 161 211 253 154 237 165 276 221 256 211 219 220 264 206 223 156 196 243 207 117 162 281 316 203 163 244 234 245 176 180 192 190 264 316 166 219 297 269 197 210 212 190 177 214 237 245 135 200 186 275 210 239 117 271 219 213 173 218 144 215 233 306 198 239 190 161 210 249 145 241 230 163 106 246 217 228 224 234 283 181 261 166 267 285 252 220 278 211 225 177 295 202 164 203 172 184 207 221 164 171 196 223 188 220 223 132 217 228 173 169 229 203 201 228 253 198 286 201 195 208 148 247 243 257 179 179 262 242 219 232 212 259 180 262 281 241 203 209 214 227 249 243 264 208 247 182 247 239 198 303 186 291 235 204 249 177 213 172 232 196 187 193 156 214 271 294 234 235 137 205 283 210 211 171 240 219 289 114 177 260 195 222 159 174 211 279 211 226 218 209 117 304 341 186 180 179 132 215 163 265 182 238 318 285 179 221 261 233 219 204 204 231 360 219 208 215 284 204 194 161 262 147 240 240 285 180 243 186 175 161 238 306 202 201 229 256 223 215 243 100 205 248 198 187 234 213 219 212 220 260 262 231 190 221 200 198 146 173 190 169 273 191 253 210 214 236 127 267 200 160 195 222 212 163 165 223 187 283 212 265 283 233 189 161 252 170 176 278 190 241 188 206 206 154 214 327 211 180 277 219 265 196 154 252 206 261 189 200 165 217 219 221 179 191 281 268 217 185 164 297 258 194 228 181 221 252 172 173 232 249 273 196 236 216 173 220 255 227 289 204 285 285 163 184 283 201 102 239 269 218 198 237 171 186 216 214 235 169 188 142 195 214 186 129 230 221 243 204 112 172 307 246 184 307 235 236 224 195 204 249 293 174 227 289 229 171 181 219 151 166 261 211 207 216 294 212 240 240 214 246 209 171 224 182 225 181 238 250 236 218 184 195 221 188 171 256 160 197 263 301 223 157 154 205 225 127 171 198 206 316 260 265 171 236 140 271 261 183 269 194 190 204 248 157 287 281 212 188 191 249 237 245 217 276 260 180 207 157 213 211 189 201 184 168 275 235 290 246 195 274 156 180 146 202 231 203 169 211 185 243 226 193 219 229 169 199 234 276 207 316 248 237 217 201 224 147 240 199 232 231 191 192 205 228 296 196 214 180 266 183 243 168 149 302 296 134 137 178 253 227 179 187 303 236 206 175 168 191 265 191 171 181 217 176 212 221 327 250 216 218 266 201 220 190 185 294 191 225 231 220 236 222 186 173 221 194 192 262 205 204 236 177 286 246 254 225 260 197 264 193 218 253 266 159 174 200 269 220 238 246 283 229 173 271 270 167 127 229 174 303 203 207 170 253 155 305 237 217 261 210 293 192 248 305 224 199 179 257 216 153 288 264 133 248 222 195 201 280 186 189 238 301 209 167 238 178 235 268 264 199 235 231 221 145 272 226 176 247 197 149 239 181 211 289 243 253 217 129 219 194 168 185 210 295 275 214 101 169 182 198 205 174 155 262 228 248 154 214 233 278 236 222 336 149 180 237 256 187 185 199 222 167 264 262 243 219 206 221 155 195 247 283 248 281 251 166 200 192 178 147 257 171 127 305 196 270 246 260 204 291 264 198 228 267 273 199 104 177 193 158 155 251 179 241 255 155 208 219 188 257 215 112 172 245 172 286 186 152 298 249 281 166 279 229 124 230 189 167 302 153 260 246 163 182 226 175 265 221 177 254 249 252 275 277 217 174 191 212 178 239 180 247 184 233 277 257 199 193 301 172 213 298 183 220 220 157 206 262 253 195 254 248 277 233 238 114 198 165 200 181 196 181 207 232 270 288 225 208 192 191 191 282 210 222 280 283 200 127 170 182 193 181 171 235 211 251 211 192 151 199 214 192 246 193 242 247 179 238 199 313 166 201 275 263 202 181 230 203 186 198 189 190 287 205 264 261 195 262 253 240 174 142 227 196 168 197 220 243 282 152 198 208 222 211 204 182 183 194 265 255 125 283 169 241 234 252 136 278 253 199 255 178 225 260 202 267 155 173 207 228 303 259 212 220 230 240 220 171 178 184 186 171 168 186 185 211 209 226 197 207 258 265 253 303 175 161 283 271 222 190 212 123 121 209 247 179 237 277 195 147 165 165 161 263 222 275 166 221 182 225 242 239 141 230 172 239 180 197 287 209 207 255 226 188 278 203 173 179 155 236 257 245 149 196 191 184 170 247 221 196 293 196 184 205 180 193 201 184 198 277 150 221 220 242 129 226 199 156 271 177 203 328 219 255 153 198 222 292 278 165 210 223 237 281 196 250 164 165 224 251 333 210 231 200 260 133 155 259 221 189 190 213 277 272 263 184 241 211 255 228 186 252 208 197 114 182 243 200 222 244 189 223 219 220 244 208 207 226 222 240 299 221 158 246 194 194 195 187 182 195 288 209 251 285 136 191 199 176 196 201 102 227 260 216 183 168 223 183 295 218 198 215 187 221 191 200 154 188 245 228 181 198 228 225 294 217 228 204 272 251 206 191 226 163 261 187 169 191 237 173 235 159 215 245 200 256 318 268 176 189 150 213 204 223 215 204 225 235 217 234 185 140 201 191 183 182 185 176 202 224 136 193 75 216 179 252 247 229 207 168 204 159 220 131 225 239 294 272 252 294 160 215 212 213 156 210 124 225 207 297 244 263 250 195 245 218 307 194 167 238 181 293 221 134 191 266 219 203 249 170 178 255 297 219 181 174 143 263 231 270 182 237 271 216 166 211 210 208 273 108 147 241 155 169 220 278 153 202 235 289 212 200 203 199 170 259 185 215 175 190 243 195 248 238 269 158 292 213 186 195 155 216 278 202 247 225 180 202 163 196 162 226 154 252 158 263 185 223 99 249 174 235 267 184 195 156 244 276 254 272 180 216 282 184 267 198 237 246 203 129 243 259 226 211 170 237 280 233 242 158 235 166 172 176 225 200 237 133 184 195 264 250 153 209 191 168 233 295 256 177 244 172 246 168 155 160 162 193 211 158 217 245 240 261 195 215 155 109 211 136 182 250 222 253 299 277 184 208 232 220 182 308 223 123 222 155 193 271 232 219 151 261 209 223 274 195 131 252 202 157 242 154 215 256 229 154 169 146 173 196 266 155 234 232 196 189 228 219 179 164 219 167 238 252 242 119 186 221 215 182 205 225 202 259 209 256 216 136 146 191 217 262 259 132 217 229 182 197 215 161 193 297 188 223 266 284 227 187 224 168 116 217 173 241 203 305 238 182 160 196 215 137 284 197 112 219 266 218 264 193 185 212 162 280 237 245 168 179 261 303 165 244 274 249 192 239 243 201 211 317 247 246 221 287 183 151 262 221 218 182 222 261 259 275 268 217 109 199 205 216 174 265 176 206 151 223 226 188 211 189 205 220 220 205 193 242 219 185 178 202 136 143 171 226 170 297 288 257 205 235 192 256 243 197 218 234 259 188 141 180 164 165 151 268 168 279 282 231 154 230 156 248 202 119 196 168 185 230 317 273 283 201 216 241 205 187 242 209 206 244 215 194 195 207 210 165 247 253 283 136 153 196 136 294 162 217 148 134 253 240 182 157 211 305 256 202 220 200 275 218 204 198 185 282 210 218 337 234 176 203 260 271 244 209 198 238 188 90 179 235 200 200 210 197 214 223 229 134 118 247 268 259 160 221 205 179 242 159 134 209 236 289 179 205 194 223 198 206 141 233 225 312 103 144 190 259 254 218 212 199 269 232 243 258 226 222 287 177 226 304 294 293 160 171 168 154 179 168 226 244 178 238 207 161 177 216 177 214 182 262 250 229 158 210 214 272 141 172 153 240 196 110 149 225 175 212 184 229 156 216 270 241 329 257 145 279 167 179 157 175 211 280 228 209 159 237 289 250 211 220 256 265 300 253 266 280 155 201 210 145 171 172 150 208 172 197 169 257 189 326 237 175 174 184 284 226 208 156 240 153 181 294 262 202 148 240 241 212 199 260 183 239 223 283 214 190 195 206 182 138 158 163 137 279 176 174 227 343 183 181 223 290 182 199 206 208 253 150 199 215 250 190 267 200 150 269 199 190 238 189 234 285 230 247 237 232 150 172 214 257 182 255 149 232 199 229 202 226 109 167 191 319 203 205 267 139 205 187 229 207 189 251 148 253 155 222 184 238 221 220 243 170 232 241 281 224 307 267 251 199 211 162 243 266 167 177 174 216 174 182 153 261 216 258 154 220 317 226 218 233 313 251 203 305 215 303 158 267 176 239 184 280 134 180 193 187 188 158 234 251 172 211 192 151 174 213 288 254 173 143 158 211 321 277 312 230 142 236 208 220 175 211 207 252 240 251 244 210 248 212 213 251 259 232 235 178 236 178 227 220 239 170 170 184 173 252 216 215 238 115 209 207 240 120 205 210 255 215 305 187 244 159 243 272 186 150 295 241 243 185 268 275 306 199 229 169 235 234 203 203 117 275 133 230 163 226 160 214 286 162 205 211 202 201 264 180 179 192 326 221 132 175 167 151 321 226 235 214 150 249 160 217 203 257 157 282 183 230 177 218 324 181 269 235 173 285 225 195 224 159 269 226 217 230 218 188 187 146 259 217 255 245 249 198 245 209 308 212 196 207 226 277 186 256 173 243 199 264 208 211 225 193 215 173 232 244 175 247 188 175 205 173 230 145 228 247 310 270 176 182 208 307 244 237 209 195 209 305 250 254 207 153 147 218 202 155 211 165 227 254 191 212 184 218 157 137 185 162 223 145 249 239 199 238 232 261 287 236 154 174 161 142 183 259 199 217 203 290 276 182 280 272 193 228 201 213 235 302 211 231 191 146 242 256 178 285 220 217 194 212 182 214 289 106 205 186 274 170 264 282 195 169 263 209 206 196 227 149 303 201 248 308 188 291 196 197 232 221 165 259 181 239 223 210 246 208 179 143 243 247 236 246 220 236 188 224 151 222 293 181 236 300 94 216 266 199 189 212 235 226 143 148 268 200 229 235 210 206 181 142 314 195 169 269 311 169 158 180 186 261 276 249 176 257 161 248 312 140 207 221 219 168 217 299 275 161 182 163 159 209 234 264 173 205 206 135 207 128 214 181 221 159 236 241 141 261 258 248 145 155 162 160 264 230 164 282 217 203 249 180 210 218 146 166 172 203 258 237 201 203 157 151 150 291 247 270 157 257 250 215 204 241 292 176 265 209 153 185 206 161 235 212 183 253 272 302 216 184 312 203 313 138 301 191 185 273 156 236 200 285 235 164 243 227 259 315 194 192 192 233 200 174 190 214 214 195 204 220 185 242 209 142 172 169 271 269 170 193 221 99 176 206 239 224 235 203 138 167 248 202 210 202 245 185 183 287 268 217 275 227 195 226 209 196 252 214 243 127 140 187 221 220 282 245 151 227 216 274 169 177 257 176 241 169 174 236 224 144 156 226 235 212 247 190 211 168 201 217 189 244 180 263 174 185 203 247 192 223 212 168 244 228 182 204 285 188 227 222 197 270 140 235 173 250 194 195 238 217 166 227 198 247 243 230 257 204 161 147 135 236 217 251 241 294 238 179 172 200 164 243 212 151 201 170 242 135 142 225 187 189 116 89 117 283 237 186 161 186 180 191 278 193 102 208 228 219 154 160 274 159 150 195 183 195 133 226 196 251 226 195 254 265 238 212 162 223 250 239 194 213 241 313 263 281 227 215 164 223 327 222 177 276 151 276 235 257 195 235 188 266 223 127 191 245 225 114 199 162 186 221 222 154 186 189 184 245 269 217 294 207 195 199 170 198 240 237 135 235 241 196 169 239 183 188 179 182 260 213 218 259 159 190 213 279 211 202 259 185 230 165 180 123 240 239 249 249 203 213 248 190 196 195 245 213 252 142 201 181 168 235 234 196 181 161 250 206 209 169 308 175 210 188 243 310 212 227 125 247 196 203 196 198 289 244 268 259 222 167 189 212 189 169 180 251 333 212 247 276 156 201 227 218 211 178 253 151 95 166 79 226 318 251 236 158 263 236 227 212 157 206 94 134 190 208 303 206 187 262 211 134 224 189 183 229 290 210 210 184 183 216 200 224 193 176 329 247 212 235 154 132 285 123 234 212 212 129 187 231 196 271 172 291 215 269 243 219 170 230 233 232 155 171 231 268 219 182 274 154 208 161 238 257 182 224 200 202 197 165 176 213 178 202 222 230 190 193 212 198 158 168 163 285 157 208 126 178 224 174 198 191 187 164 181 280 206 154 165 167 219 235 159 227 206 171 270 237 200 245 203 220 268 161 174 157 235 275 209 190 195 227 232 178 219 250 230 210 177 191 229 258 228 179 186 231 203 245 199 209 157 263 156 231 249 236 168 285 150 191 153 235 190 217 244 245 183 149 244 183 215 179 202 205 219 174 185 276 212 121 138 170 262 193 212 291 235 184 225 191 184 227 259 214 262 233 249 343 260 192 215 260 217 254 182 230 248 214 213 173 198 237 203 251 186 187 169 111 222 184 233 196 179 223 217 247 270 214 241 243 208 174 244 154 294 192 248 153 176 267 288 298 176 207 203 243 217 237 177 219 230 238 233 200 176 216 190 211 188 215 289 276 206 207 246 226 203 169 194 212 218 268 281 266 187 274 264 300 240 264 190 263 246 157 263 244 166 176 218 153 244 243 241 236 222 153 245 162 183 222 187 203 177 144 188 220 220 204 195 265 227 189 292 291 222 141 295 249 164 272 213 245 228 148 180 203 207 203 247 129 188 233 177 172 207 304 258 301 283 215 214 211 201 245 238 195 201 160 278 192 194 196 256 207 233 258 296 192 233 219 128 195 211 228 135 203 274 314 203 218 129 270 153 215 215 176 220 131 235 243 190 294 243 176 265 167 178 289 182 204 190 169 109 185 226 267 248 260 225 301 285 184 179 218 240 238 160 225 283 184 204 201 198 166 156 207 292 228 277 220 206 258 212 224 195 126 234 214 177 184 253 172 200 228 300 130 179 203 268 290 117 105 266 195 277 160 176 237 224 217 295 191 228 214 221 157 227 162 266 204 160 211 222 256 144 143 178 237 140 289 228 236 246 182 280 78 225 157 214 286 240 203 202 256 214 247 155 243 209 149 192 234 187 225 240 204 235 177 174 302 205 203 280 180 259 182 268 242 175 191 244 197 168 248 222 200 185 217 177 177 142 209 187 230 209 187 279 215 154 225 250 134 273 192 182 183 266 324 226 233 110 184 253 205 175 116 192 246 193 160 221 314 197 197 175 199 259 207 190 209 260 150 216 151 284 232 218 214 210 178 184 236 183 232 233 171 177 215 149 212 169 198 205 229 203 261 184 206 158 211 198 225 108 180 168 266 166 216 226 232 211 302 219 194 313 283 157 240 162 206 258 173 200 189 358 241 200 165 146 189 167 258 186 185 238 226 178 257 258 187 203 168 230 202 114 184 249 186 258 147 220 223 224 215 156 117 145 178 203 211 294 173 138 208 165 199 177 279 263 183 223 161 251 261 136 244 215 215 168 162 220 125 204 287 185 182 229 211 144 161 172 188 201 248 206 228 235 195 134 162 236 221 134 157 136 283 230 185 279 203 175 169 200 266 223 214 230 228 291 225 167 195 206 238 257 228 175 218 137 199 210 209 318 153 248 247 168 251 242 257 236 149 307 176 191 241 234 235 264 233 211 301 229 242 228 193 161 162 162 201 217 242 207 207 282 245 300 226 274 240 244 204 131 275 204 279 202 272 258 301 230 156 178 172 189 238 244 196 169 198 213 152 272 126 216 170 253 298 244 230 242 212 261 160 188 284 225 191 173 140 278 155 202 212 256 133 253 197 256 167 226 201 246 200 231 199 248 311 192 227 192 183 195 175 205 187 203 354 173 178 195 166 211 202 225 265 241 289 167 216 158 175 193 219 281 175 291 302 197 232 186 146 153 178 233 294 220 241 245 200 319 243 207 162 186 211 228 273 212 200 221 205 181 169 165 178 172 189 216 276 172 265 284 193 220 246 105 222 171 190 259 199 179 272 147 207 158 177 199 228 173 220 153 222 183 262 276 215 180 250 116 221 245 179 245 238 107 216 138 201 241 224 267 205 237 238 129 242 168 114 204 189 222 226 253 216 146 242 270 169 224 184 237 147 218 277 221 218 152 230 210 284 209 184 259 217 218 209 275 260 163 147 203 196 250 336 193 210 268 250 238 278 241 272 253 237 212 194 181 219 221 214 140 219 181 168 275 227 145 259 286 193 180 208 191 219 286 167 225 118 219 231 151 223 191 190 191 206 245 195 157 261 225 329 166 272 242 268 229 301 97 222 156 206 232 197 264 195 238 220 226 258 242 194 176 211 206 225 207 216 196 199 168 196 197 301 279 231 212 230 288 230 208 175 158 258 190 167 236 224 203 168 266 142 221 253 170 188 188 296 196 188 200 185 144 265 211 264 272 166 176 243 185 136 292 204 234 156 216 215 256 261 264 346 141 185 181 213 279 171 205 289 210 181 265 122 200 197 168 154 169 138 295 240 191 116 293 143 237 286 287 342 184 204 246 167 269 173 169 216 167 274 231 286 277 130 256 257 240 300 187 245 171 221 220 165 180 247 252 143 162 170 188 190 248 239 282 264 193 230 169 232 227 235 224 241 270 160 246 224 257 174 233 229 256 180 284 140 187 226 260 253 229 204 174 208 227 201 234 249 213 166 251 215 223 238 285 231 184 185 179 308 245 187 255 151 213 182 284 196 302 197 149 234 242 220 253 191 191 182 309 147 238 169 182 169 176 243 218 178 244 203 186 209 259 257 195 244 205 265 153 261 242 145 254 191 186 245 308 288 218 250 140 275 240 253 224 121 226 197 228 266 215 279 305 246 256 224 251 229 199 206 234 301 199 138 214 150 193 166 274 197 203 187 200 215 131 204 216 169 231 182 175 186 203 217 153 229 277 189 198 224 282 243 311 182 121 217 286 179 232 188 254 200 265 200 180 252 202 177 204 171 220 166 233 221 278 150 187 208 222 210 169 202 220 241 296 256 193 204 270 188 264 192 255 209 277 172 237 208 264 200 269 197 267 157 225 157 239 185 152 202 254 194 224 144 231 246 220 236 142 222 231 194 250 226 200 295 222 246 376 119 224 183 269 182 251 185 233 239 147 200 196 216 281 162 227 227 273 218 187 174 193 192 119 213 210 238 223 151 218 238 255 230 165 255 166 210 176 139 260 246 225 236 243 167 194 264 243 235 190 256 280 234 212 196 218 238 185 190 202 115 193 145 268 236 205 248 175 229 170 147 219 138 183 220 230 262 143 227 188 202 189 177 212 156 268 223 196 202 244 128 242 203 205 255 187 183 182 189 249 233 254 159 232 235 186 158 243 188 180 165 245 236 223 184 165 217 244 188 161 224 217 190 270 163 211 185 278 167 149 302 265 196 208 284 191 243 272 185 186 199 220 243 256 237 228 178 225 276 204 238 150 272 149 233 253 229 207 204 195 123 274 108 317 234 229 215 175 231 267 214 183 157 212 239 203 271 220 206 172 232 216 270 233 145 229 155 206 248 187 230 171 202 298 126 192 242 210 210 244 283 255 240 210 239 228 192 228 254 221 207 177 125 191 231 247 139 184 242 213 260 184 275 238 219 170 176 154 156 266 139 217 198 192 186 197 147 276 216 198 191 153 248 174 307 204 197 194 225 175 139 210 224 142 239 175 175 277 168 219 185 250 224 158 293 215 285 263 211 181 207 347 164 213 156 226 229 169 203 191 140 167 253 203 129 251 166 329 215 217 147 159 246 217 252 206 154 190 179 296 212 150 198 201 236 172 153 240 167 176 230 222 170 203 241 240 182 254 254 201 196 210 220 200 185 348 201 236 142 165 219 188 314 348 230 207 201 185 129 219 214 211 186 259 169 235 203 151 112 289 215 229 180 148 272 167 141 164 193 199 207 174 249 267 203 203 170 168 240 222 181 206 191 200 208 179 183 341 249 222 188 238 195 190 285 230 195 143 174 209 235 344 231 268 174 204 267 200 177 211 158 195 239 192 126 239 193 176 198 205 196 240 233 145 218 236 147 189 133 242 231 285 323 160 210 188 178 263 201 175 159 255 236 179 223 222 225 241 161 206 78 196 211 183 205 206 181 198 146 227 150 278 269 214 237 268 172 186 229 191 214 179 281 225 165 189 239 164 182 186 183 222 203 241 239 214 255 192 184 159 242 277 224 210 185 228 201 257 203 166 223 203 299 232 256 230 188 258 182 154 176 251 262 285 212 240 174 173 217 96 186 190 129 218 117 220 288 192 198 170 288 166 178 263 220 221 216 180 181 227 209 267 187 226 236 250 183 246 281 193 169 193 235 274 251 191 214 200 244 153 167 146 215 150 253 212 196 177 157 210 128 186 159 263 267 223 205 200 238 236 155 267 271 163 173 191 212 208 222 230 288 302 224 216 203 129 223 224 246 191 248 266 244 208 170 153 234 180 182 271 149 153 212 197 200 164 224 203 198 264 181 198 290 223 179 197 198 191 217 185 199 187 179 182 237 170 260 227 216 267 186 152 146 257 236 247 206 311 158 199 223 200 186 277 236 156 221 177 218 318 212 155 258 254 205 187 239 222 196 169 239 142 217 244 271 199 225 210 197 260 179 242 167 299 271 215 189 182 222 219 223 191 246 185 168 154 277 231 270 187 191 176 243 245 165 251 230 225 228 212 252 197 225 273 213 210 176 227 184 199 270 276 210 218 245 154 196 236 179 171 164 214 204 183 229 250 233 232 169 202 237 205 287 240 179 118 227 184 205 167 171 189 208 224 247 145 224 141 215 246 188 197 230 187 183 186 332 236 146 235 210 226 191 255 234 207 179 254 135 298 204 182 223 192 209 187 205 193 214 174 299 234 281 245 246 220 166 235 228 172 284 194 182 166 212 218 219 131 224 181 239 222 274 171 177 184 222 203 202 247 246 230 144 178 199 196 217 241 194 182 278 213 136 260 169 258 245 235 179 294 293 217 168 273 131 150 228 263 215 123 184 248 236 141 294 240 271 226 222 280 180 141 220 209 225 182 181 174 202 209 235 286 288 127 202 276 222 248 225 201 291 238 186 288 240 205 205 168 250 269 248 201 225 255 207 219 163 140 242 160 297 241 251 186 213 249 195 227 208 264 214 171 191 228 171 254 137 199 184 180 313 205 202 243 254 253 257 147 186 172 174 283 142 185 170 224 268 193 177 307 166 219 171 209 316 120 231 177 185 232 108 236 207 294 216 288 243 281 192 209 265 177 227 203 202 251 234 215 330 304 184 237 246 210 186 308 245 206 146 207 251 193 157 213 125 192 184 204 237 277 254 251 162 197 186 204 164 238 168 242 179 204 172 225 296 227 242 126 177 205 232 116 258 233 234 218 234 204 174 293 222 168 248 204 274 173 269 223 260 180 251 190 264 242 245 200 157 181 265 227 219 302 223 304 199 157 200 246 159 145 187 229 200 219 269 196 285 201 214 231 244 203 160 283 248 160 199 254 212 250 134 272 205 249 234 158 217 215 183 154 182 257 258 190 301 229 193 251 188 145 209 190 150 213 281 323 141 255 170 200 241 202 261 197 273 216 178 287 163 237 211 213 204 263 214 227 170 110 178 231 244 202 203 253 198 278 171 216 225 226 200 198 176 136 194 261 195 264 122 241 257 201 219 195 170 266 321 146 193 413 362 235 229 230 324 189 230 147 245 266 165 262 238 196 220 231 199 230 214 267 215 282 245 256 187 204 166 218 280 168 180 283 206 218 206 139 210 212 167 240 176 201 206 232 223 301 223 188 189 262 301 113 220 270 193 189 195 289 138 170 272 230 262 249 177 296 165 230 202 239 139 207 195 189 180 238 181 115 265 171 215 250 187 248 108 290 237 255 167 229 288 160 202 194 199 238 220 278 222 141 259 385 254 265 170 222 186 190 176 191 159 215 156 217 158 250 205 221 187 185 168 233 127 196 227 179 253 215 221 220 212 253 201 207 190 187 192 152 234 247 121 284 201 220 142 215 198 206 257 236 230 170 270 203 193 222 194 191 359 217 249 179 199 172 172 256 268 171 263 173 210 193 167 186 238 291 199 240 201 249 212 269 326 218 220 202 266 227 140 232 177 151 211 220 263 227 240 217 192 218 228 251 257 186 186 175 230 211 210 236 279 170 277 219 258 216 183 245 109 258 295 224 212 201 229 163 227 222 332 219 181 220 330 156 197 198 248 232 242 229 212 257 254 174 197 194 271 146 218 284 279 205 139 219 261 194 255 231 281 207 244 212 228 150 196 305 254 158 166 255 255 166 180 130 263 238 300 181 258 172 288 219 180 324 206 160 120 252 212 270 199 170 161 201 157 174 142 280 200 187 207 215 152 179 224 238 208 142 211 244 236 242 171 144 282 250 189 243 238 220 215 196 241 232 229 140 273 161 204 179 356 200 208 177 278 240 199 319 199 199 186 220 167 194 190 245 190 258 275 273 223 282 235 119 205 230 265 172 144 154 218 200 184 234 219 236 223 161 346 172 300 240 254 268 320 230 195 198 198 161 226 301 191 243 200 262 224 172 286 278 232 234 209 181 300 171 300 217 216 279 134 163 203 138 192 199 199 247 219 260 265 170 109 195 325 228 192 263 193 228 215 214 196 209 210 200 200 113 201 209 228 239 181 192 152 226 141 229 274 206 197 240 215 231 146 274 284 179 190 212 116 318 366 189 210 211 191 205 149 255 202 167 204 214 213 251 214 283 185 207 140 225 251 256 188 253 244 237 194 171 189 179 330 156 153 161 198 174 170 236 184 167 256 349 195 149 231 256 222 304 196 236 194 292 204 201 215 222 241 211 165 276 187 220 309 270 174 220 221 192 167 213 169 175 206 215 194 170 201 268 241 268 209 239 224 272 197 176 253 192 248 175 241 191 254 279 236 202 262 236 238 193 238 341 255 185 235 222 221 154 246 123 138 186 246 252 274 179 180 134 305 140 189 162 266 233 306 259 187 262 207 221 209 213 172 180 213 259 178 169 194 219 228 257 297 236 176 239 229 300 230 184 225 202 160 160 192 217 236 198 230 234 307 276 193 299 206 264 201 224 219 181 257 127 280 208 194 124 160 224 217 176 250 263 187 191 179 351 254 246 186 128 197 194 139 160 137 242 264 225 146 200 212 234 155 245 192 248 183 247 200 172 219 262 243 238 219 282 290 204 282 243 238 358 246 164 178 209 159 245 278 206 130 198 273 256 210 260 128 156 217 270 202 238 179 173 171 255 166 235 241 179 204 227 197 233 142 212 171 256 167 301 148 244 153 151 200 188 166 214 285 270 187 191 191 208 254 145 281 304 255 121 280 239 226 182 216 177 225 216 223 174 150 224 235 247 244 288 201 213 176 150 227 289 187 170 233 262 192 211 218 185 202 220 154 207 159 203 154 267 206 211 236 222 258 256 194 270 144 217 248 237 131 172 210 188 194 172 131 130 241 115 203 209 193 179 258 277 167 220 229 216 305 181 188 249 173 156 193 223 263 200 240 204 326 147 187 175 116 215 290 230 266 272 157 195 118 255 146 260 221 279 183 199 203 165 339 214 208 176 162 212 249 154 150 191 221 266 222 178 284 239 212 194 243 172 242 236 186 240 183 264 192 208 119 280 245 208 175 210 205 219 269 235 258 204 276 172 226 190 226 192 216 187 232 112 199 215 274 203 243 208 279 134 195 252 311 164 263 195 254 186 227 262 207 164 188 279 216 260 244 222 244 243 292 193 282 192 214 180 222 239 182 181 188 230 168 282 157 262 262 236 202 239 198 177 260 288 103 216 254 151 217 255 226 209 219 189 129 238 276 246 189 255 240 243 248 167 182 189 245 195 222 291 145 210 236 213 295 201 176 251 228 203 220 202 208 218 261 229 257 205 204 192 216 260 167 304 278 169 246 216 200 169 204 223 287 286 269 295 188 189 126 216 210 216 144 199 159 171 202 247 226 227 259 201 230 262 197 228 261 204 170 175 303 192 256 212 164 210 167 218 204 254 218 307 225 221 208 165 115 189 228 159 171 126 219 168 164 236 194 257 193 185 270 190 187 296 225 249 262 215 286 160 264 276 215 235 164 218 183 286 183 188 296 163 172 260 147 177 190 138 277 189 207 193 233 208 216 178 277 152 205 232 256 232 221 203 274 260 123 217 211 181 210 230 266 239 216 230 244 151 258 269 272 199 210 242 223 185 264 268 254 270 188 226 266 160 189 284 182 219 132 171 209 184 270 187 217 208 204 283 238 148 193 229 216 180 219 187 148 274 261 195 210 298 220 250 227 212 207 246 315 178 293 189 216 207 199 199 212 266 214 214 222 292 291 223 200 281 192 159 218 163 192 209 233 219 220 199 187 161 122 249 273 172 248 208 264 190 247 295 316 148 127 196 224 200 183 274 270 231 270 158 103 233 182 307 153 185 256 232 222 194 177 199 253 143 234 250 211 171 241 167 347 244 218 254 213 378 180 228 179 165 173 221 194 228 258 209 175 193 167 188 178 222 172 222 216 229 236 172 181 251 226 193 267 222 191 210 247 219 215 203 270 222 269 345 202 178 192 146 189 171 137 209 130 158 241 163 166 250 195 188 242 238 168 253 243 207 158 247 186 218 249 186 233 292 254 199 171 254 211 264 199 256 155 219 196 152 272 248 263 239 130 216 124 230 268 211 204 248 256 270 198 259 194 260 162 247 275 268 259 239 105 270 183 171 269 187 218 217 249 221 218 205 242 227 291 172 239 279 258 207 244 211 262 230 260 256 188 230 194 231 268 132 240 225 194 202 228 201 225 143 188 229 297 236 241 252 208 232 165 171 250 184 219 259 220 127 221 244 214 202 274 167 194 213 186 229 148 212 180 288 270 200 244 239 213 252 187 204 196 192 179 222 166 311 239 194 265 131 219 153 133 171 141 196 255 244 226 236 139 181 195 259 208 182 190 302 132 217 245 195 199 201 263 237 269 249 182 189 214 266 197 306 243 199 229 221 170 220 170 241 299 194 212 169 188 209 197 201 230 144 205 174 126 249 216 181 288 130 238 164 239 260 177 250 230 257 192 259 180 147 222 206 248 176 201 159 256 253 223 211 223 140 244 273 220 181 142 218 207 278 227 196 206 331 189 219 234 198 254 224 201 247 222 166 154 153 158 278 295 263 199 224 200 264 166 230 133 214 195 172 216 219 166 180 168 246 236 277 255 270 239 168 187 241 193 147 267 201 206 180 279 209 228 215 229 230 190 238 124 243 277 213 184 154 171 304 153 210 265 237 217 224 132 274 241 231 228 246 195 152 188 183 158 252 197 197 196 229 258 157 174 207 141 180 324 207 212 214 274 171 225 230 219 292 206 234 137 192 204 198 225 139 292 158 235 243 200 172 202 158 243 165 269 187 157 240 155 214 164 222 162 137 219 203 229 206 215 193 219 267 258 216 186 139 176 265 251 207 246 182 238 152 218 286 249 180 173 244 163 170 279 250 206 235 231 172 148 76 220 174 163 188 179 107 249 189 238 192 255 193 177 233 179 204 331 187 153 309 229 183 347 214 237 200 273 282 255 197 234 254 204 237 239 238 240 387 189 267 221 285 180 135 242 203 167 205 211 325 182 128 226 210 208 251 185 152 200 222 215 175 237 187 212 283 95 158 223 160 234 193 219 282 174 196 283 230 196 189 304 222 216 282 172 181 188 298 205 186 270 153 302 223 260 294 193 183 246 175 169 215 276 211 174 201 300 198 139 185 175 185 186 156 198 172 324 251 184 215 196 258 319 205 240 201 242 201 262 198 230 217 221 250 264 227 188 206 293 122 207 212 198 256 227 237 261 214 233 281 215 214 176 203 237 225 267 234 263 206 164 195 290 244 181 212 221 168 178 226 231 273 205 247 313 245 219 253 163 240 225 222 180 136 217 229 272 125 134 105 154 220 268 197 205 238 166 249 166 177 227 154 196 201 139 238 235 199 244 332 226 219 239 188 243 196 168 218 193 262 205 134 179 210 237 272 112 265 298 217 190 364 166 207 164 162 114 196 202 193 198 342 211 126 235 235 203 234 215 163 138 192 161 191 194 167 147 216 256 284 179 234 168 224 192 170 219 169 168 148 251 210 238 215 166 318 211 268 212 226 196 225 321 300 220 174 241 201 256 249 204 243 157 275 232 184 193 258 258 283 217 136 181 165 305 303 159 170 286 243 179 183 164 172 183 219 163 232 197 187 233 235 211 206 151 166 258 208 271 194 189 271 285 221 172 248 267 132 130 303 271 217 209 188 155 192 257 253 212 258 233 296 281 238 195 243 191 233 183 193 280 144 289 227 183 214 206 121 230 202 187 152 234 184 186 180 257 314 234 184 239 216 221 168 161 183 225 195 221 239 118 238 163 194 201 192 201 211 296 311 225 241 149 225 185 240 267 237 304 188 210 136 253 130 178 154 253 174 275 187 206 195 217 298 157 231 256 169 192 220 159 313 235 278 285 296 197 248 136 234 146 160 234 190 241 223 208 183 166 281 273 179 132 276 195 242 213 265 233 151 229 195 308 256 205 211 240 303 193 207 169 207 220 243 225 239 207 232 201 183 223 197 184 175 150 314 262 245 288 190 212 171 247 218 283 165 244 173 261 160 290 216 257 237 235 241 188 212 292 160 157 139 200 244 187 123 183 212 147 147 156 264 238 173 308 145 184 187 219 261 239 175 284 268 250 124 248 218 294 180 150 177 219 160 242 194 189 213 302 214 251 268 201 154 199 174 261 209 234 195 197 199 306 187 217 185 223 232 143 167 269 162 220 150 195 239 186 306 174 174 289 186 220 193 288 230 215 210 183 185 158 254 251 217 163 208 236 214 195 133 150 166 226 220 218 212 186 266 206 185 179 210 263 216 249 144 190 188 219 154 227 211 297 195 217 219 231 231 173 225 258 213 202 178 96 199 198 160 225 199 246 262 212 257 189 154 235 222 219 216 187 227 232 262 195 273 170 169 280 197 185 177 187 138 200 163 102 170 153 208 179 188 237 226 245 170 147 250 277 175 223 184 188 145 208 227 243 189 306 245 196 198 201 122 272 126 194 181 214 159 219 212 131 177 151 203 216 198 236 256 166 337 178 198 234 282 282 226 309 225 269 170 206 228 229 218 154 192 166 194 223 226 266 232 241 251 162 236 227 221 264 174 253 224 207 202 222 294 204 191 143 229 238 174 191 188 125 365 244 260 150 173 215 188 219 235 262 244 178 239 170 232 176 183 219 230 224 221 191 144 120 224 216 172 188 199 145 270 220 288 146 156 166 182 180 258 237 263 258 246 163 199 258 152 257 302 209 268 187 192 245 286 135 288 266 212 163 264 145 207 336 219 227 362 177 169 213 158 265 216 205 186 221 217 288 213 265 237 178 280 250 273 132 205 184 152 228 195 229 180 173 243 286 253 144 235 191 185 179 161 308 167 137 272 245 210 256 146 232 133 202 351 241 199 200 289 165 186 203 131 248 168 184 218 192 223 285 200 218 226 212 178 181 220 278 228 237 186 329 249 275 161 163 150 253 218 171 225 146 201 189 152 227 232 210 200 243 150 291 242 126 168 232 247 173 250 226 165 146 207 309 286 226 174 182 263 294 247 265 211 158 167 227 195 164 222 223 179 248 233 177 228 267 251 231 213 183 155 172 202 239 228 177 230 308 178 234 158 177 227 216 271 170 184 187 156 245 172 180 226 284 275 258 201 181 161 188 249 198 232 252 233 242 196 275 237 204 231 166 174 231 167 122 233 199 164 102 255 197 211 263 234 187 327 160 242 156 183 270 153 123 169 184 235 181 156 241 192 203 221 201 208 128 231 216 262 204 226 159 224 256 269 317 244 328 218 170 197 262 250 211 217 244 219 174 244 228 239 203 171 212 212 234 188 253 205 186 296 174 139 166 187 209 122 229 225 231 180 299 240 185 263 288 209 208 152 290 212 276 192 120 297 241 245 270 179 146 175 250 266 150 213 127 200 181 213 149 225 97 163 186 292 211 143 183 170 164 176 196 158 197 218 234 278 242 196 174 251 246 160 173 213 190 244 237 224 226 213 162 165 220 201 218 234 234 294 241 213 283 290 239 202 216 179 139 252 134 250 178 208 145 226 200 213 158 162 237 218 166 243 206 282 229 242 212 187 175 239 208 188 216 248 267 133 125 201 189 171 218 246 290 181 183 178 183 215 174 172 162 195 237 252 204 188 259 206 228 204 141 167 192 222 262 211 181 156 192 262 218 224 103 141 211 211 153 239 264 227 311 210 186 204 203 218 132 306 223 182 214 202 184 201 250 186 201 239 204 227 195 148 203 205 213 274 220 232 221 178 188 176 240 257 181 160 132 184 270 189 183 255 191 295 243 287 150 187 209 218 238 259 287 249 231 216 216 155 270 184 185 234 172 176 236 220 161 236 246 267 207 242 169 284 202 185 136 297 202 176 195 227 246 209 197 177 215 250 220 200 173 145 273 186 196 </t>
-  </si>
-  <si>
-    <t>MIE(0.26805664246459604, 1.8460731634769647, -7.480099445445038e-31, 1.6205179419208613)</t>
-  </si>
-  <si>
-    <t>2 1 1 1 0 0 1 1 4 2 1 1 0 0 2 0 1 0 2 1 2 2 0 0 0 1 0 0 0 3 1 1 1 0 3 0 2 2 1 1 1 1 1 0 3 2 1 0 1 2 3 1 2 1 1 0 0 2 2 1 1 2 2 0 0 2 1 2 0 0 3 1 1 3 0 1 1 0 2 0 2 1 0 0 0 2 0 3 3 2 3 2 2 0 0 0 1 1 1 2 1 2 1 1 0 0 0 3 1 1 1 0 0 2 1 2 1 1 1 2 1 2 1 2 0 0 3 1 2 2 1 2 1 1 0 0 2 2 1 2 2 2 2 2 1 3 1 2 0 2 1 0 1 1 2 1 1 1 1 1 0 2 0 3 1 1 2 2 1 1 2 0 2 3 0 0 0 2 2 1 2 1 1 2 1 0 1 1 5 2 2 1 2 2 2 1 0 2 0 1 0 0 1 1 0 1 1 1 0 1 2 0 1 1 1 2 0 1 1 1 2 1 3 1 3 3 1 3 1 1 2 1 2 1 3 0 1 0 1 1 1 1 0 2 0 0 0 2 2 0 1 0 0 2 1 1 0 2 1 3 1 2 1 1 2 0 1 1 1 1 0 1 1 0 1 1 1 1 1 2 1 1 0 1 1 1 2 3 1 3 1 1 3 1 2 0 2 2 1 2 1 2 0 0 3 1 1 1 1 0 1 2 3 1 0 3 3 1 0 1 1 0 0 1 1 1 1 0 0 1 2 3 1 2 1 1 1 3 1 0 2 3 3 0 1 2 2 1 2 2 2 1 1 0 0 2 1 0 1 2 1 0 0 1 0 0 1 0 1 0 3 0 1 1 2 0 0 1 2 2 1 0 2 1 1 1 1 0 0 0 0 1 1 1 2 1 2 1 1 1 1 2 0 0 1 1 1 1 0 2 2 3 1 3 1 1 2 1 1 1 1 1 0 2 1 1 2 2 1 1 0 1 2 1 0 1 2 0 0 1 1 1 3 2 1 1 1 2 2 0 0 2 0 3 1 1 2 4 0 1 0 0 0 2 0 2 1 0 2 2 2 2 1 1 1 2 1 2 2 1 2 2 1 2 0 0 0 1 1 1 1 1 2 0 1 3 0 0 1 2 3 2 1 3 1 0 1 2 1 1 1 3 2 1 1 0 3 0 2 1 1 1 1 1 1 2 1 1 1 1 1 1 1 1 3 1 1 1 0 1 1 1 1 0 0 0 1 1 1 2 0 1 1 0 2 2 0 3 2 2 0 1 1 0 2 1 2 1 0 2 2 0 0 0 1 1 1 0 4 1 0 1 1 3 0 0 0 0 1 0 1 2 2 0 0 1 3 0 1 2 1 1 2 3 2 1 0 3 1 1 2 2 2 0 2 2 1 0 0 1 3 0 0 2 0 1 2 0 1 2 1 2 2 1 2 2 0 0 2 1 1 1 0 2 1 1 1 1 1 1 2 1 0 3 1 1 1 2 0 0 1 1 0 1 2 1 1 0 1 0 0 2 1 2 0 1 2 1 1 1 0 2 1 1 2 0 1 0 2 1 1 2 0 1 2 2 1 1 0 2 0 3 2 3 2 3 1 1 1 1 0 1 1 0 1 3 1 2 3 3 0 3 1 0 1 1 2 1 0 2 1 1 1 2 1 2 2 1 1 2 2 2 1 1 2 1 1 2 2 0 1 2 2 0 1 0 0 1 0 1 2 2 2 2 1 1 1 1 1 1 1 0 1 2 3 4 0 1 0 0 2 1 1 2 0 3 2 3 2 1 1 0 1 2 1 1 1 1 0 2 2 1 2 2 2 2 1 1 2 1 1 2 0 0 1 1 2 1 2 2 1 1 1 0 1 1 2 2 2 4 1 0 0 1 1 1 1 2 2 0 1 0 0 1 2 1 1 0 2 0 0 2 0 1 2 2 1 2 2 0 2 1 0 0 2 0 1 0 1 0 2 0 2 1 1 2 3 1 2 1 2 2 1 0 0 1 1 1 0 1 2 0 0 2 1 0 1 1 1 0 0 0 1 0 1 2 1 2 0 1 1 1 2 2 2 1 0 0 2 0 0 1 1 0 1 2 1 3 1 0 1 0 0 1 1 3 2 1 2 2 0 0 2 1 1 2 2 1 1 2 0 1 0 0 0 2 2 3 1 1 2 0 2 2 0 1 0 2 2 2 2 2 1 1 1 2 1 0 2 1 1 0 2 3 0 0 1 1 1 0 2 1 2 1 3 2 2 1 0 1 1 0 0 2 1 1 1 0 2 2 2 2 2 2 1 3 0 2 1 1 1 1 0 1 1 1 2 2 1 0 1 2 2 1 1 0 2 1 1 3 3 2 2 1 1 2 2 2 1 0 2 1 2 1 3 0 0 2 1 0 2 2 0 2 1 0 3 2 1 1 1 2 4 1 1 2 1 1 2 2 1 1 3 1 2 0 1 1 1 0 0 0 0 1 2 0 0 0 1 2 3 1 1 1 2 1 2 1 2 1 1 1 1 2 1 0 2 0 1 1 1 1 0 0 3 1 2 0 0 0 3 1 1 2 2 2 1 2 3 2 1 0 0 1 2 0 2 2 1 1 0 1 1 1 1 0 1 0 1 0 1 1 0 0 0 1 0 3 0 1 1 0 0 1 2 0 2 2 3 2 2 1 0 0 0 2 0 3 1 2 1 1 1 3 2 1 1 1 2 2 1 1 0 2 2 0 1 1 2 1 2 2 2 2 2 2 2 0 0 2 1 2 1 2 0 1 0 1 1 1 1 0 1 1 1 1 1 0 1 1 1 1 1 1 0 0 1 2 1 0 1 0 3 1 1 0 1 2 2 2 2 0 0 1 2 1 2 2 0 1 2 0 0 4 0 0 0 1 1 3 1 1 1 2 4 0 2 0 1 3 0 4 2 3 2 2 1 1 1 2 1 1 2 3 1 1 1 1 2 1 2 1 3 0 1 1 1 2 2 0 1 0 2 2 1 0 1 0 1 4 1 1 2 0 1 1 1 1 1 0 0 0 1 1 2 0 1 1 0 1 1 0 1 1 1 1 3 0 0 1 0 2 1 3 2 0 0 0 1 2 2 1 0 0 3 1 1 0 0 1 0 1 1 0 1 2 0 2 1 0 1 1 1 1 2 3 1 0 3 2 0 0 2 0 1 2 0 0 0 1 2 1 2 1 1 3 1 3 2 1 0 1 2 1 1 1 3 1 2 1 0 2 1 4 2 2 2 3 0 1 0 0 0 1 1 2 1 1 0 1 1 1 1 0 0 0 1 1 0 1 1 1 0 2 0 0 3 1 0 1 1 3 0 2 3 0 1 3 2 1 2 2 0 0 0 2 1 1 1 2 0 1 1 2 0 1 1 3 2 0 1 1 1 0 0 0 1 1 2 1 2 2 0 1 1 0 0 0 0 2 2 2 1 2 3 1 1 4 2 1 1 0 1 1 2 1 0 1 2 1 1 0 2 1 1 1 2 2 2 1 0 1 2 2 1 2 1 1 1 0 1 1 4 1 1 3 2 0 3 1 0 3 1 2 0 1 0 1 2 0 0 1 1 3 1 2 0 2 0 1 1 3 2 1 2 2 1 1 0 1 3 2 0 1 1 1 2 2 2 3 0 2 2 1 3 1 1 1 0 0 1 2 0 0 3 2 0 2 1 0 0 2 2 3 0 2 1 1 0 2 0 3 2 1 0 1 2 2 1 1 0 1 1 2 0 1 0 1 1 0 1 1 0 0 0 0 4 1 1 0 1 0 2 2 0 0 1 0 1 1 0 1 0 1 1 1 1 1 2 0 1 1 3 0 2 1 2 1 0 1 1 2 2 0 2 1 0 2 2 2 0 0 1 1 3 1 2 1 0 2 0 0 1 2 1 0 0 1 1 1 1 0 1 2 4 1 2 0 0 2 1 0 1 0 0 1 2 3 0 1 0 3 1 1 1 3 2 0 3 0 1 1 2 1 1 1 1 1 1 0 2 1 0 2 3 2 1 2 1 3 0 1 1 1 0 1 0 0 1 0 1 1 1 2 1 1 1 1 3 0 1 0 3 1 1 2 0 0 1 3 2 1 0 1 0 2 1 1 1 0 0 1 0 2 1 1 1 0 1 2 0 3 0 0 0 0 3 1 0 2 3 1 1 1 1 1 0 2 0 2 1 0 1 1 0 3 1 1 4 2 2 1 1 1 2 1 1 0 1 1 1 2 0 1 0 3 1 1 3 1 2 2 1 0 2 1 2 1 2 1 0 1 1 0 1 0 1 2 1 1 1 0 1 1 1 0 0 1 4 2 1 0 2 0 3 3 3 2 1 2 1 1 0 0 1 2 2 0 1 1 3 0 1 1 3 0 0 0 1 1 3 0 0 1 0 1 1 2 1 2 2 0 2 2 1 1 1 0 1 2 2 1 1 0 2 0 1 0 1 1 0 2 1 0 2 1 3 0 0 0 1 1 0 2 1 0 1 1 0 1 2 0 0 1 1 1 2 0 1 1 3 0 0 1 1 0 3 3 0 1 0 2 1 0 1 2 1 3 0 2 0 1 3 2 1 1 0 0 2 1 2 0 2 1 0 1 1 2 0 0 0 3 2 3 1 1 2 1 1 3 1 1 2 2 0 1 0 2 0 0 0 3 0 1 2 1 2 0 1 0 0 0 2 1 2 0 1 3 3 1 1 1 0 1 0 1 3 2 2 3 0 1 2 1 0 1 1 1 0 0 1 1 1 2 1 1 0 1 1 1 1 0 1 0 2 2 0 1 1 1 0 2 2 2 0 3 1 2 0 1 2 0 1 0 4 0 1 0 3 3 1 2 1 1 1 1 0 3 1 2 1 2 0 1 1 2 0 1 1 0 3 1 1 2 3 1 1 1 0 2 0 1 2 2 0 1 2 0 1 3 1 2 1 1 1 0 2 3 2 1 2 1 1 2 1 2 1 0 0 1 1 0 2 2 1 0 2 3 1 0 1 0 2 1 2 1 3 0 0 0 1 0 2 1 1 1 2 2 1 1 3 1 3 0 0 2 0 1 1 2 3 1 1 1 1 3 0 0 2 1 0 4 1 1 2 2 2 1 1 0 1 1 1 1 1 2 1 1 2 2 3 1 0 3 5 1 2 1 1 0 1 0 1 2 1 1 1 0 0 2 2 0 1 1 0 3 2 2 0 2 1 1 0 2 0 1 1 0 1 0 1 1 1 2 2 2 3 0 0 1 3 1 1 1 2 0 1 2 1 0 0 2 2 1 3 2 0 2 0 3 0 2 0 0 1 1 0 1 1 0 1 3 1 1 1 1 2 0 1 0 1 1 1 2 3 1 2 1 1 0 2 2 0 1 1 0 0 2 1 3 1 1 2 1 1 1 1 1 2 1 0 1 0 1 2 3 2 1 2 2 1 0 1 0 2 1 1 1 1 0 0 1 3 2 2 0 2 1 1 1 0 2 1 1 1 0 0 1 0 0 2 1 1 1 1 1 2 1 2 1 1 2 0 3 2 2 0 1 0 2 0 2 0 1 2 4 1 1 0 1 1 1 2 3 2 1 0 0 0 1 0 1 0 2 0 1 0 0 0 2 0 1 0 0 0 2 2 0 0 1 1 0 1 1 0 0 2 1 0 0 3 1 0 1 1 1 1 2 0 3 1 1 3 1 1 1 1 1 0 0 3 1 0 2 1 1 0 2 1 1 2 3 0 1 1 1 0 4 3 1 3 2 1 0 3 1 2 2 0 1 2 1 1 1 2 1 1 1 1 1 3 2 0 1 3 2 1 1 0 2 2 0 1 2 2 0 1 0 2 1 2 1 1 2 2 0 0 0 1 0 3 0 1 0 1 3 1 0 1 1 4 1 1 2 1 0 1 2 1 3 1 0 2 0 2 1 1 1 2 1 1 0 1 1 1 1 1 0 0 0 3 0 1 0 0 1 0 2 0 0 1 1 0 0 3 0 2 0 0 1 1 2 0 1 3 0 1 1 0 0 0 2 2 2 2 1 0 2 1 0 1 1 1 0 2 1 2 1 2 1 1 1 0 2 0 2 3 2 2 0 3 1 1 0 1 2 2 1 1 1 1 2 0 1 1 2 1 1 0 1 2 2 1 2 0 2 2 2 1 1 2 0 0 1 3 0 0 2 1 1 0 0 2 2 2 1 1 2 0 1 0 1 0 0 3 3 1 0 1 1 1 1 0 1 2 0 0 0 1 2 2 2 1 0 1 2 1 1 1 1 0 0 0 2 1 1 2 1 1 1 2 1 2 0 1 1 1 1 1 1 1 2 2 0 1 1 1 2 1 0 2 1 1 0 0 1 1 1 1 0 0 2 1 0 1 1 1 2 0 1 0 0 1 1 0 2 1 1 1 0 2 2 1 0 0 0 0 2 0 0 1 1 1 1 1 2 3 1 1 2 2 2 1 2 1 1 1 3 1 1 1 2 0 2 2 1 1 0 3 0 2 1 2 1 1 1 0 0 0 2 2 1 0 2 2 2 3 0 1 1 1 0 4 1 2 2 1 0 2 0 1 1 1 2 0 2 2 1 0 3 0 3 0 0 0 1 2 3 1 1 1 1 1 1 0 1 1 0 0 0 1 1 2 2 0 2 0 0 1 1 1 2 0 1 3 2 1 2 1 1 2 2 2 3 0 0 2 2 1 1 1 1 1 1 1 2 3 2 1 4 1 0 2 2 2 1 1 1 2 2 2 1 1 1 4 0 0 2 1 3 1 1 1 1 1 0 2 2 3 0 0 1 1 1 2 0 1 0 2 0 1 0 1 0 3 1 2 1 1 1 1 0 0 2 1 1 2 0 4 2 0 1 0 0 1 1 2 1 1 3 2 1 2 2 1 3 2 4 0 1 0 1 0 1 0 0 2 3 3 0 2 1 2 1 2 2 1 1 1 2 2 2 1 1 0 0 3 0 2 1 1 2 2 1 2 1 1 2 1 2 2 2 3 1 2 1 0 3 1 2 1 2 2 2 1 0 0 1 1 2 3 2 2 2 4 3 2 1 1 2 1 1 1 2 1 1 1 0 1 2 1 1 1 0 0 0 1 1 1 0 1 1 0 2 0 0 1 1 2 0 0 1 2 1 2 0 1 1 1 1 0 1 3 1 2 0 2 1 1 3 0 0 1 1 1 0 0 1 1 2 1 0 1 2 1 1 1 0 1 1 1 0 0 1 1 0 2 3 3 1 1 0 4 1 1 1 2 1 0 1 0 0 3 0 1 1 1 0 0 0 2 0 2 0 2 1 1 0 0 0 3 2 1 1 0 2 0 0 0 0 1 1 3 0 1 3 1 0 0 2 0 1 0 1 1 1 2 2 1 1 2 1 0 2 2 1 1 2 0 2 1 2 1 1 3 2 1 0 1 2 0 2 1 2 0 4 2 4 2 0 1 1 0 2 0 3 0 2 2 3 0 2 0 1 0 1 0 0 1 1 2 0 0 1 2 1 1 2 1 1 0 1 1 3 1 1 0 0 1 1 3 0 3 2 1 1 3 0 1 1 2 0 0 1 0 2 2 2 1 0 1 0 1 1 1 2 2 2 1 1 1 2 1 0 2 1 1 2 1 1 1 3 3 0 3 2 0 1 0 1 1 1 2 1 2 2 2 2 2 1 0 0 2 3 1 1 1 1 1 1 0 2 1 1 1 1 1 1 3 0 1 0 1 0 2 2 2 0 1 3 1 1 1 2 2 0 1 2 1 0 1 1 1 1 0 1 0 1 2 2 0 2 0 0 2 1 1 2 2 2 2 1 2 1 1 1 0 2 0 1 2 0 0 0 2 0 1 0 1 1 1 1 3 0 2 2 1 2 1 1 1 1 3 1 0 0 2 4 1 2 1 0 1 0 2 1 2 0 0 1 2 1 0 0 0 0 2 3 0 1 2 0 2 1 1 1 2 2 1 0 4 2 1 1 0 1 3 2 0 2 2 2 0 1 1 2 0 1 1 0 0 0 2 2 2 1 0 1 3 0 0 1 1 2 1 3 1 0 1 2 0 2 1 3 1 3 3 2 0 1 0 2 1 0 1 2 1 1 1 1 2 1 3 2 3 1 0 2 2 0 1 1 1 1 1 0 0 0 1 1 1 0 1 1 0 2 1 1 0 0 2 5 2 0 2 1 1 2 2 0 1 0 1 1 0 5 1 1 1 2 1 1 2 4 1 0 1 1 0 3 0 1 1 1 2 0 2 3 0 1 3 1 2 1 0 1 1 1 1 1 2 2 0 2 1 1 0 2 3 1 1 2 1 4 2 1 2 1 1 4 0 1 0 0 1 1 2 0 1 1 1 2 1 1 0 1 1 2 1 1 2 0 1 1 0 2 1 2 0 0 2 0 0 0 0 0 1 0 1 0 1 1 1 0 2 3 0 1 1 3 0 1 0 1 1 1 0 3 1 2 0 2 0 1 2 0 1 1 0 0 4 1 2 1 0 0 2 1 4 1 0 3 0 2 3 0 0 2 1 0 2 0 1 0 0 0 0 1 1 2 1 1 1 1 1 1 3 1 1 0 1 3 2 3 2 1 1 3 2 2 0 0 1 1 3 1 1 0 2 0 1 0 2 0 1 1 2 1 1 1 2 0 2 1 0 0 2 1 0 1 2 0 2 0 2 1 2 2 1 1 1 0 1 1 0 1 1 1 0 2 2 0 3 0 1 0 3 2 2 2 0 2 1 1 1 1 1 2 3 2 1 1 0 1 1 0 1 0 1 0 1 0 0 1 1 1 1 1 1 0 3 1 1 2 2 1 2 1 3 3 0 1 1 2 1 1 1 1 2 1 0 2 0 0 2 1 2 0 3 2 2 2 2 3 1 2 1 1 1 1 0 0 3 2 2 1 2 2 1 0 1 1 3 2 1 1 2 0 0 0 0 2 3 3 1 1 2 1 3 0 0 1 1 2 1 0 0 1 3 1 2 0 1 1 1 1 1 0 2 1 0 1 2 0 3 2 1 1 0 0 2 1 1 1 1 0 1 0 0 2 2 0 1 1 0 2 1 0 0 2 1 1 3 2 0 2 1 0 2 0 1 1 2 0 0 1 1 2 1 2 1 1 1 2 3 2 2 1 1 0 3 1 3 1 1 0 1 2 2 0 1 1 0 0 1 0 2 1 0 3 1 0 1 1 1 1 2 1 0 0 1 1 2 0 0 2 0 1 3 1 0 2 1 3 0 1 1 3 2 1 1 1 0 2 0 1 2 0 1 0 0 2 0 0 2 2 0 1 1 4 0 1 2 1 0 2 1 2 0 1 2 1 0 0 1 0 1 3 1 2 4 0 1 0 1 3 1 2 2 1 1 1 3 1 2 1 0 1 1 0 2 1 0 1 1 0 2 0 0 2 0 1 1 2 2 1 1 0 1 1 1 1 3 0 0 1 0 1 2 1 1 1 1 0 1 1 3 1 1 1 0 2 0 2 1 1 3 2 1 1 1 0 2 1 2 3 3 2 0 0 1 1 1 0 0 2 2 1 1 1 1 3 1 3 1 0 0 2 0 2 0 0 1 1 2 0 1 0 2 1 1 1 2 0 2 2 1 2 1 2 2 2 3 1 1 2 2 2 0 0 2 2 1 0 1 0 1 1 0 0 3 0 1 0 1 0 1 0 0 2 2 1 0 1 2 1 0 1 3 0 1 1 1 2 0 0 0 2 1 0 1 2 0 2 0 0 1 4 2 0 1 0 2 0 1 1 1 1 1 0 1 0 1 0 0 1 2 1 0 2 1 1 0 3 1 1 0 0 2 0 2 2 0 0 1 1 1 0 2 1 1 0 1 2 1 2 0 1 3 3 1 1 0 2 0 2 1 1 1 0 2 1 1 0 1 1 3 1 1 2 2 1 0 1 0 0 0 0 1 0 3 1 0 1 0 0 1 2 0 0 0 2 2 1 2 1 1 1 0 1 0 1 1 2 2 1 1 1 2 2 1 0 2 2 0 3 2 1 1 0 2 3 2 2 1 1 1 2 0 1 3 0 3 1 0 0 1 1 2 0 0 0 2 2 1 1 2 1 1 2 0 1 2 1 2 3 1 1 2 1 1 0 1 1 0 3 2 1 1 0 1 1 1 0 1 1 1 0 0 0 1 1 3 2 1 0 4 1 1 2 2 0 0 2 0 2 0 1 0 1 2 1 1 2 1 1 1 1 1 1 0 3 1 2 2 1 0 1 0 1 2 2 1 3 2 0 2 1 2 1 1 0 3 1 3 1 3 1 1 0 1 0 2 0 1 0 1 1 1 1 0 1 0 0 1 2 1 1 1 2 1 0 2 0 1 1 1 0 1 2 2 2 1 2 2 3 0 0 1 2 3 1 3 1 0 1 1 0 1 1 1 1 1 1 3 2 1 0 1 0 0 2 1 2 1 2 1 1 2 1 1 2 3 2 0 2 1 0 1 1 1 1 0 1 5 0 1 2 0 0 1 0 0 1 1 1 0 2 1 1 1 0 1 3 1 2 1 2 0 1 1 1 0 1 2 2 1 1 0 1 2 1 2 0 0 0 0 2 1 1 2 1 0 1 2 2 1 0 0 0 1 1 1 1 1 1 1 2 1 1 0 2 2 1 0 0 1 3 0 2 0 1 1 1 0 2 3 2 1 3 2 1 2 1 1 1 1 1 1 1 1 3 1 0 4 1 0 1 3 2 2 1 0 2 3 2 3 1 1 0 2 0 0 2 1 1 0 1 1 1 0 0 0 2 1 0 1 2 1 2 0 1 2 3 0 0 1 0 3 1 0 3 1 1 3 1 0 1 3 1 2 0 1 2 0 1 2 2 1 0 2 3 1 1 1 2 0 1 1 1 1 1 0 0 1 1 1 3 0 2 2 1 2 0 1 1 0 0 0 1 0 1 1 0 1 3 0 1 0 0 1 2 1 2 0 1 0 2 0 2 2 0 2 1 1 0 1 4 2 2 0 2 0 2 1 0 3 1 0 2 2 4 2 0 2 1 0 1 2 0 0 2 1 0 0 2 1 1 2 1 1 1 0 2 0 2 1 1 1 1 3 1 1 0 0 2 3 1 1 1 1 0 2 1 1 2 1 1 0 2 2 1 0 2 3 0 1 0 1 1 1 2 1 2 0 0 2 2 0 1 0 1 2 2 1 2 0 2 0 2 2 3 2 1 0 1 1 2 0 1 0 0 1 0 0 2 0 3 2 2 1 0 1 2 2 2 0 1 0 0 3 0 1 1 1 2 1 1 2 1 1 1 1 2 2 1 2 2 3 2 3 2 1 1 1 0 2 0 0 0 2 1 2 1 0 0 1 0 0 2 3 2 3 1 1 1 2 0 1 1 2 1 2 2 1 0 4 1 1 0 2 1 0 0 1 0 1 2 1 1 1 1 0 1 1 1 1 1 2 2 0 2 0 2 1 2 1 0 0 1 2 0 2 1 2 0 0 1 0 1 0 1 3 1 2 1 1 1 1 1 0 4 0 0 2 2 1 1 2 1 1 1 1 1 1 2 1 0 1 0 0 0 0 1 1 2 1 1 3 0 0 2 2 0 0 4 1 1 1 0 0 3 1 2 0 2 1 2 1 1 2 0 1 1 1 1 1 3 0 0 2 1 2 1 2 1 1 1 0 1 3 1 2 0 0 2 3 1 2 1 1 3 2 1 0 1 0 1 0 0 2 2 0 1 0 2 1 1 0 1 2 1 2 1 1 0 1 0 1 2 2 1 3 2 1 0 2 1 0 1 1 1 4 3 1 0 1 0 2 0 1 0 0 2 1 2 2 2 0 2 2 1 1 1 1 2 1 1 1 0 2 2 0 0 2 2 1 2 1 1 1 1 0 3 2 2 2 2 0 2 1 1 2 0 2 1 1 1 2 0 1 1 1 2 2 3 2 1 2 0 0 1 3 1 2 0 1 1 1 2 2 0 2 0 0 1 2 0 2 2 0 1 3 2 1 2 1 1 0 3 0 1 1 3 1 1 0 1 1 0 0 2 3 1 2 1 0 0 1 1 1 1 2 3 1 0 2 1 0 2 1 1 2 0 1 2 2 2 0 1 2 1 1 0 0 0 2 2 1 0 2 0 2 2 2 1 0 0 0 2 1 1 0 1 1 1 0 2 0 3 1 0 2 3 2 1 2 0 2 1 2 1 0 3 1 2 1 1 0 1 0 1 0 1 1 1 0 1 2 1 0 1 0 3 2 2 0 2 2 2 1 0 1 0 2 2 2 1 0 0 1 3 1 1 4 1 1 4 1 1 1 3 2 0 1 0 4 3 0 2 2 2 0 3 1 3 1 1 3 0 1 1 3 2 2 0 1 0 0 2 3 0 1 0 0 0 2 1 1 2 1 2 2 1 1 1 1 0 1 1 1 1 1 1 1 0 1 1 1 1 0 1 0 1 2 2 1 2 1 1 2 2 0 1 0 1 1 0 3 2 2 0 1 0 1 0 1 1 1 2 1 0 2 0 0 0 1 1 1 1 0 2 1 0 2 0 1 2 0 0 1 3 1 3 1 1 2 2 0 2 0 1 0 0 3 0 1 1 3 2 2 0 1 1 0 1 0 1 2 1 1 1 0 1 0 1 0 2 2 3 1 2 2 0 1 3 1 0 0 3 1 0 2 2 0 1 0 1 1 0 1 1 2 1 1 2 2 0 1 1 1 1 2 2 1 0 2 0 1 1 0 1 2 3 1 2 0 2 0 0 2 0 2 0 3 1 0 2 1 0 0 1 1 1 3 0 2 2 1 1 1 1 0 2 1 0 0 2 0 2 1 0 2 2 2 1 3 1 1 0 0 2 3 2 3 0 4 1 0 2 3 1 0 1 3 2 2 0 3 1 0 1 0 0 3 1 2 2 0 0 1 1 3 1 1 1 0 1 2 1 0 2 2 0 1 1 1 0 1 1 3 1 1 0 3 2 2 0 3 3 1 1 2 1 1 1 0 3 1 1 0 2 1 0 0 3 2 3 1 0 2 2 0 3 2 1 0 1 3 1 0 1 1 3 1 2 0 1 3 1 2 2 0 2 0 0 2 2 0 0 0 2 1 0 2 0 2 0 3 2 1 0 1 2 0 1 0 1 0 1 1 1 0 2 3 0 2 0 3 1 1 2 0 2 0 2 2 2 2 1 1 1 0 2 1 1 4 0 3 1 2 1 0 1 2 1 0 2 0 2 1 1 1 0 2 0 0 1 0 0 0 2 2 0 1 1 2 1 0 0 0 0 1 0 2 1 0 0 0 1 2 3 0 2 1 0 0 0 1 1 0 0 1 1 2 2 1 2 1 1 3 1 1 1 1 1 2 2 1 1 2 2 0 2 1 0 2 0 3 1 0 1 0 1 0 0 1 1 2 0 0 1 0 2 1 0 1 0 1 2 1 1 1 2 2 2 2 0 2 0 1 0 1 2 1 1 1 1 0 0 0 1 1 1 1 1 2 0 1 1 0 1 1 2 0 3 0 1 3 1 2 3 2 2 1 1 2 1 0 2 1 2 1 1 2 2 1 1 0 0 1 2 1 1 0 1 2 0 3 1 2 1 3 2 2 1 1 3 1 1 0 0 0 3 2 0 1 2 1 0 0 0 2 1 1 1 1 1 1 0 1 2 2 3 1 1 0 2 0 1 2 1 2 1 1 2 1 2 0 2 1 3 1 1 1 2 0 0 1 1 2 1 0 1 0 0 0 2 0 1 0 1 1 2 2 1 1 0 3 1 2 0 3 3 2 2 0 2 0 1 2 2 2 0 0 2 0 2 1 0 1 2 1 3 2 1 1 0 0 1 2 0 0 0 1 1 0 0 2 1 2 3 3 1 3 3 3 0 1 2 1 1 0 4 4 2 1 1 3 1 1 0 0 1 0 1 3 1 1 0 1 1 1 1 1 0 2 1 1 2 1 0 0 1 0 2 1 0 2 2 0 1 0 2 1 0 2 1 2 1 1 0 1 1 3 0 0 3 1 2 2 2 1 2 1 1 0 3 1 1 2 1 1 1 4 0 2 1 0 3 0 2 1 2 0 0 1 1 0 3 1 1 2 1 0 0 0 0 2 0 2 2 2 1 0 2 2 0 1 2 1 0 4 1 1 0 1 1 2 0 1 1 1 2 1 1 1 0 0 0 1 3 1 0 1 3 2 1 0 2 2 0 1 0 2 2 1 3 1 1 0 3 2 1 1 3 1 1 1 1 1 1 0 2 1 0 1 0 0 1 1 0 2 0 1 0 1 2 2 0 0 0 2 2 1 1 0 0 0 2 1 0 1 1 1 0 2 3 1 1 0 3 1 3 1 2 1 1 1 2 2 1 1 0 0 2 2 2 1 1 3 0 2 1 0 0 1 2 2 3 1 2 1 1 1 0 1 1 0 1 1 2 1 2 2 0 2 0 2 0 0 2 2 2 0 0 1 1 5 2 1 1 1 0 0 0 2 1 1 2 1 0 1 1 0 1 1 1 2 1 1 0 2 1 1 1 0 1 1 1 1 1 1 0 1 1 3 0 2 0 2 3 1 2 1 0 1 1 0 3 1 0 1 1 2 2 1 1 2 2 1 2 2 0 1 0 1 1 1 1 1 0 3 1 1 2 0 2 0 1 2 1 1 1 0 0 2 2 0 2 0 1 1 4 1 0 2 0 1 1 0 1 2 1 1 0 0 0 1 0 0 1 0 1 2 1 0 0 0 1 0 2 1 2 0 1 1 0 3 0 0 3 1 1 2 1 2 1 2 3 0 2 3 3 2 1 1 3 1 0 1 1 0 1 2 2 2 2 1 0 1 1 0 1 2 2 2 2 1 0 2 1 1 2 1 2 0 1 2 2 0 0 3 3 0 2 1 3 2 1 1 1 2 1 1 1 1 2 3 4 1 0 0 1 2 2 0 1 2 2 0 0 0 0 1 0 0 0 0 2 3 2 1 0 0 0 1 1 1 1 1 0 1 1 1 0 1 0 1 0 2 2 1 1 1 1 0 2 1 1 2 1 2 1 1 3 2 0 0 1 1 2 0 1 1 1 0 0 2 0 2 1 1 2 2 1 0 2 1 1 0 1 1 1 1 1 0 1 2 1 1 1 2 1 0 2 0 1 1 2 1 0 1 2 2 0 1 1 3 2 1 1 0 1 0 2 0 0 0 2 0 1 3 2 1 0 2 2 1 1 1 1 1 1 0 1 2 2 2 0 1 1 2 1 1 1 0 2 0 1 1 1 2 1 2 1 1 1 2 2 2 1 1 0 0 3 1 1 0 2 4 0 2 2 0 0 1 0 2 0 1 2 0 1 0 1 1 0 2 1 0 2 2 3 1 2 0 0 2 1 0 1 3 3 1 3 1 1 2 2 3 0 0 0 3 1 0 2 1 2 2 0 2 1 0 0 0 0 1 0 2 0 1 0 2 1 1 0 2 3 2 0 2 0 1 0 2 2 1 0 2 0 0 0 0 2 0 1 2 1 0 0 2 1 2 2 2 0 2 0 2 1 0 1 1 1 0 2 0 0 1 3 0 1 1 0 2 0 0 2 2 3 1 2 1 2 1 0 2 2 3 1 2 1 3 2 1 2 2 1 3 0 1 1 1 1 1 3 1 2 2 2 2 1 0 2 1 1 4 1 2 0 1 1 1 1 0 0 2 0 0 2 2 1 0 2 1 0 1 3 1 0 1 3 1 2 0 0 1 1 2 2 1 2 1 1 0 2 3 0 1 2 0 1 0 2 1 0 3 2 3 0 0 0 1 0 2 0 1 3 2 2 1 1 3 3 1 1 1 0 2 0 1 1 2 3 2 1 1 0 2 2 1 0 0 0 0 0 1 2 1 2 1 1 1 0 1 1 0 3 0 0 1 1 1 4 0 2 1 1 3 1 1 1 2 0 1 1 2 3 1 0 2 1 1 0 1 1 0 2 1 0 1 0 0 2 3 1 3 0 1 1 0 0 2 0 1 1 0 1 2 2 2 1 3 1 1 2 3 0 1 1 2 2 0 1 2 1 4 0 1 1 1 2 2 3 1 1 1 0 2 0 0 1 2 0 1 1 1 1 0 2 1 0 4 1 1 0 2 1 0 1 2 0 0 2 1 0 0 0 0 0 1 1 1 1 1 1 2 1 1 1 3 2 0 4 1 1 0 0 1 1 0 0 2 0 1 1 0 1 1 2 2 2 0 1 1 1 2 0 1 1 2 0 4 1 1 1 1 1 2 1 1 1 0 2 1 0 0 1 1 2 0 1 2 2 2 2 1 2 1 1 1 0 1 2 1 0 1 2 1 1 0 0 3 2 2 3 2 1 1 1 0 0 2 3 1 3 1 1 1 0 0 1 1 1 0 0 2 1 4 1 0 1 1 1 1 0 1 2 0 2 1 0 1 1 1 1 0 2 1 2 3 1 1 1 1 3 0 2 1 2 0 0 1 1 0 0 0 1 0 0 2 0 0 0 3 0 1 2 1 2 2 1 2 1 2 2 1 2 1 1 0 1 1 3 2 1 1 3 1 2 3 1 2 1 2 2 0 0 1 1 1 0 2 0 3 1 1 0 3 1 1 2 2 2 2 0 2 2 1 1 2 1 0 1 0 0 1 2 1 3 1 1 1 3 1 1 1 2 1 1 0 1 0 2 2 1 2 1 3 2 1 2 0 2 0 1 0 2 0 0 1 1 2 3 0 1 1 0 0 3 2 1 1 0 1 1 1 0 0 1 0 1 2 0 1 1 1 1 1 4 1 1 1 1 1 0 0 3 1 2 2 1 1 1 0 1 2 0 3 0 1 0 1 0 0 2 1 1 1 2 0 2 1 0 0 1 0 1 0 0 1 0 0 1 2 2 0 1 0 0 0 0 0 1 1 1 4 1 2 2 0 1 2 0 1 0 1 1 1 1 0 0 1 1 1 1 1 0 0 2 0 2 1 1 0 1 1 0 1 2 1 1 3 1 3 1 1 1 3 0 1 0 2 1 3 1 1 1 0 3 1 1 0 1 3 1 1 1 1 0 1 1 0 1 1 0 0 2 0 1 0 1 1 0 1 0 1 3 0 2 2 0 2 0 1 2 0 2 1 1 0 2 2 0 1 1 1 2 2 2 0 2 3 2 1 2 2 2 0 3 1 3 2 0 3 1 1 0 0 1 0 0 2 0 1 2 2 0 2 2 2 1 1 2 1 1 2 2 2 2 0 1 2 2 1 0 1 1 5 2 2 1 1 1 4 1 3 2 1 1 1 0 1 0 2 1 1 2 4 0 0 0 2 1 0 1 0 1 2 1 3 0 0 3 1 2 0 1 2 1 3 0 0 2 1 1 1 1 2 2 0 1 2 0 2 1 1 0 2 0 1 1 0 0 1 1 2 1 0 1 1 2 0 0 1 1 1 1 1 1 1 1 1 0 0 1 0 1 1 0 2 1 1 2 2 0 3 0 2 0 1 1 1 1 0 2 1 2 1 2 1 2 3 3 2 0 1 1 1 1 2 2 1 0 3 0 1 1 0 0 1 1 2 0 0 1 1 1 2 2 2 2 1 0 2 3 2 1 1 1 1 2 0 0 1 2 1 2 1 2 3 1 2 0 3 1 1 1 1 1 0 5 2 2 2 1 2 2 2 0 1 2 0 2 2 2 0 1 1 0 2 2 0 1 0 1 1 2 0 1 0 2 2 2 4 3 1 0 0 0 0 2 2 1 2 1 0 2 1 1 0 1 3 0 1 0 1 2 1 0 3 2 2 0 0 2 1 1 2 1 1 2 1 0 0 1 0 0 0 0 0 3 2 2 2 1 1 1 0 2 2 0 0 1 2 0 1 2 0 0 2 2 2 1 0 2 2 1 1 1 1 1 1 2 0 2 2 0 0 1 3 3 2 3 0 2 1 3 1 1 1 2 1 0 0 2 2 3 0 2 0 0 0 1 0 5 2 0 1 2 2 2 2 3 0 1 0 2 1 1 0 0 2 0 2 1 1 0 0 2 3 0 2 0 0 0 2 1 1 1 1 1 1 0 1 2 0 2 1 0 1 1 0 0 1 2 0 0 2 1 0 0 2 0 0 2 1 1 1 2 0 2 0 1 0 1 1 2 1 3 2 1 1 1 1 0 1 0 1 2 3 1 0 0 1 1 0 1 0 1 0 0 2 1 2 4 0 0 1 1 0 1 0 1 0 2 0 1 0 1 2 1 2 0 2 0 3 2 1 0 2 0 3 0 1 1 0 0 2 0 1 1 1 2 2 1 0 1 0 1 1 0 0 2 0 0 2 3 3 2 0 3 1 1 1 0 2 0 0 1 1 0 0 0 1 2 0 0 1 0 1 1 1 0 2 1 1 2 0 0 1 1 2 0 1 1 0 3 2 1 2 1 2 0 3 0 1 2 1 0 1 2 3 0 3 1 1 1 2 2 1 2 2 0 1 1 2 0 1 0 0 2 1 0 2 1 2 2 0 3 2 1 1 1 3 0 1 2 0 2 0 2 0 0 1 1 2 3 1 0 1 2 1 0 1 0 2 1 2 0 0 1 0 1 1 2 0 2 1 0 1 1 1 2 1 1 0 3 1 2 1 2 2 2 1 0 2 1 0 1 0 2 3 0 1 1 1 2 1 2 1 2 1 3 2 2 2 2 2 1 1 2 2 1 0 1 1 1 1 1 0 3 0 0 2 1 0 1 0 0 1 1 3 1 1 0 2 0 1 1 1 2 2 0 1 2 1 2 1 0 0 1 0 2 1 0 1 1 1 1 2 2 2 0 0 1 2 2 1 2 2 1 3 1 1 2 2 1 1 2 1 3 3 0 0 1 2 1 1 0 1 2 2 1 0 2 1 1 0 1 1 1 0 1 2 0 0 1 3 0 3 0 1 0 1 0 1 1 1 0 0 1 1 2 1 1 3 1 1 0 1 0 1 1 1 1 2 1 1 1 0 2 1 0 1 2 1 0 0 1 2 0 1 0 0 1 1 1 1 2 3 0 0 1 0 2 2 1 1 1 4 0 0 1 2 0 1 1 1 1 1 1 0 0 0 1 1 2 1 1 1 2 2 1 0 1 1 1 1 1 0 2 3 0 1 2 2 0 3 1 2 1 0 2 1 2 1 0 0 0 1 1 1 1 3 0 3 0 2 1 3 1 3 0 0 1 2 0 1 2 1 1 1 0 1 1 1 2 2 1 1 0 1 1 1 2 3 1 1 1 0 1 0 0 1 1 1 1 0 3 2 0 1 3 2 1 2 1 1 0 0 1 2 1 2 1 0 2 1 1 1 1 0 1 2 1 2 2 0 1 2 0 2 1 2 1 1 0 2 1 1 2 0 1 1 1 2 1 0 3 1 0 0 1 2 1 1 0 1 3 1 2 1 0 2 0 2 0 2 0 2 1 3 1 1 1 2 1 0 0 2 0 0 1 2 0 1 3 1 0 2 1 0 1 1 2 1 1 2 0 1 2 1 2 1 1 1 0 0 2 0 2 2 0 1 0 0 0 1 1 0 1 1 0 2 0 0 0 0 2 0 2 2 1 0 1 1 0 1 2 1 1 1 0 1 3 2 1 2 1 2 2 1 0 1 0 1 1 1 2 1 0 1 0 2 0 3 1 2 1 2 0 0 1 1 1 1 2 1 3 0 1 1 3 1 1 1 1 0 0 3 1 1 2 1 1 1 2 1 1 2 1 1 1 3 1 2 5 0 1 3 1 2 1 0 0 0 2 0 2 1 0 1 1 0 0 1 1 2 3 2 0 2 3 1 2 3 1 1 1 1 0 2 1 1 2 1 1 0 0 0 0 0 3 3 0 1 1 1 0 1 1 1 1 2 1 2 1 0 1 0 1 2 1 0 2 1 1 2 1 1 0 3 1 2 2 1 0 1 0 2 1 2 1 2 0 2 1 1 3 0 1 0 2 1 2 0 0 1 1 2 2 0 2 1 0 0 4 0 1 1 1 1 0 3 1 1 1 0 1 3 2 3 0 1 1 2 3 1 3 1 1 0 2 0 0 1 0 0 1 1 0 2 2 1 2 2 1 0 2 1 2 1 0 2 2 0 3 2 1 3 0 0 4 1 0 1 4 0 2 1 0 1 1 2 2 0 3 2 1 3 1 2 1 1 1 2 0 1 0 0 1 1 2 0 1 1 0 0 0 1 0 0 0 3 1 1 0 1 0 1 1 0 0 1 1 0 1 3 2 3 2 0 0 0 1 1 2 2 1 0 3 3 1 4 1 2 2 2 1 0 1 2 0 3 2 0 2 1 2 1 1 1 2 1 2 1 2 1 4 0 0 1 0 0 1 2 0 2 3 1 1 1 1 1 1 1 0 2 2 0 2 2 0 0 2 0 1 0 2 2 2 1 0 0 0 2 1 2 0 1 2 2 1 0 0 0 2 0 1 1 1 1 1 3 2 1 0 1 0 1 2 1 1 3 2 1 2 1 1 1 1 1 0 2 0 1 1 0 1 0 1 2 4 1 1 1 2 1 0 4 1 0 2 2 1 2 4 3 0 2 0 0 1 3 1 0 1 3 1 1 0 2 2 1 3 3 2 0 2 2 1 3 3 3 0 1 1 0 0 1 2 1 1 1 0 0 1 2 0 0 2 1 1 3 1 4 1 2 1 2 2 2 0 1 0 2 0 0 0 0 2 2 0 3 2 2 1 0 2 1 0 1 1 1 0 2 1 2 0 3 0 1 1 2 1 1 2 1 2 2 1 2 1 2 0 0 1 1 1 2 3 1 2 1 0 3 1 0 2 2 1 0 1 2 1 1 1 1 1 0 0 2 0 0 1 2 2 0 1 0 0 0 1 2 0 0 1 1 2 1 2 1 3 0 1 1 0 1 2 1 1 0 1 2 3 1 0 1 1 2 1 0 1 0 2 2 1 1 1 1 1 0 1 3 0 2 1 1 0 1 2 1 2 0 1 1 0 2 2 2 2 2 3 1 2 2 0 0 1 0 1 1 2 1 2 2 0 3 0 2 3 1 1 2 1 0 1 1 1 2 0 1 1 1 0 1 1 1 0 0 1 0 0 0 4 2 0 2 1 1 1 2 1 1 1 1 2 2 3 1 0 1 2 1 1 1 1 1 1 4 3 1 1 1 0 1 2 1 2 0 1 2 1 4 0 1 1 1 1 0 0 1 1 2 1 0 1 1 0 0 1 1 1 0 1 2 1 0 2 0 2 0 1 2 3 0 1 2 0 1 1 0 1 1 0 2 3 2 1 3 1 0 1 0 2 1 0 1 1 0 1 0 0 1 2 1 2 2 2 1 1 3 2 1 3 1 1 2 2 1 2 3 3 3 0 1 1 1 1 1 1 2 2 1 2 0 1 3 1 2 3 2 2 2 1 1 1 2 1 1 1 0 0 3 0 2 1 0 1 1 1 2 0 2 2 0 3 0 0 1 1 3 2 2 0 1 1 1 1 0 1 0 3 2 0 0 1 0 1 2 0 4 0 1 1 1 2 0 1 1 1 0 1 2 0 2 1 2 2 1 1 2 2 1 0 1 2 2 1 1 0 1 0 1 0 2 1 1 1 1 0 0 2 1 3 2 1 1 2 1 2 0 2 0 3 0 4 0 0 1 3 0 1 2 1 0 2 2 2 1 0 2 1 1 3 1 2 1 0 1 1 1 0 0 2 2 3 0 1 2 0 0 1 1 0 1 3 2 1 1 0 0 0 1 0 1 0 0 2 1 1 2 1 2 0 2 1 2 2 1 1 1 2 0 1 1 2 1 2 1 1 2 2 2 1 1 0 1 1 3 0 1 1 3 2 0 1 1 2 1 0 1 1 2 0 3 3 2 3 2 0 1 1 1 1 0 0 2 0 2 0 1 0 1 0 1 2 2 0 0 1 3 1 0 1 0 2 1 1 0 1 3 1 1 0 2 2 3 0 2 1 0 1 1 1 0 1 1 2 3 1 0 1 0 1 0 1 1 0 1 3 0 1 1 0 1 3 3 3 2 1 1 1 0 1 1 0 2 1 1 1 2 2 1 1 1 1 1 2 0 1 0 1 2 1 1 1 0 1 0 1 2 2 2 3 4 0 2 1 1 1 2 0 0 0 2 1 3 1 1 1 0 1 0 2 2 1 1 0 2 2 2 2 0 2 1 2 2 1 0 0 0 0 1 2 0 1 0 1 0 0 0 1 1 1 0 2 0 1 1 1 0 1 1 1 0 2 1 1 0 1 1 4 2 3 0 1 0 2 1 1 2 1 0 1 2 0 1 2 1 1 1 3 1 2 1 1 2 0 1 1 2 1 0 3 2 2 0 0 0 1 3 0 0 0 2 1 0 0 2 1 1 0 1 0 0 2 1 1 1 0 0 1 1 3 1 0 0 1 3 1 0 2 1 0 2 0 0 1 1 1 0 0 2 2 1 2 0 1 1 0 0 3 1 2 1 2 1 2 2 0 1 0 3 4 2 1 1 0 2 1 2 0 1 1 1 2 3 2 2 0 3 1 1 1 1 1 0 1 1 1 1 1 3 1 1 1 1 2 1 1 2 0 1 1 1 2 0 1 0 0 0 3 1 1 2 0</t>
-  </si>
-  <si>
-    <t>GAM(0.1054994314255471, -3.251543929855782e-28, 0.5963968008528531)</t>
-  </si>
-  <si>
-    <t>0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 1 1 1 1 1 0 1 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 2 0 0 0 1 1 0 0 1 0 0 1 1 0 0 0 0 0 1 0 0 0 0 2 0 0 0 0 0 1 0 2 1 2 0 0 1 0 0 1 1 0 0 1 0 1 2 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 2 0 0 0 0 0 1 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 0 1 2 0 0 1 1 0 0 0 0 0 0 1 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 1 1 0 1 2 0 1 0 1 0 0 0 0 0 0 2 0 0 2 0 1 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 2 1 1 0 1 0 0 0 0 0 0 0 1 0 1 0 0 1 0 1 0 0 1 0 2 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 1 0 1 1 0 0 0 0 2 0 1 1 1 0 2 0 0 0 1 0 1 1 0 1 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 1 0 1 1 0 0 2 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 2 0 0 1 0 0 1 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 1 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 0 0 1 1 0 0 0 1 0 0 1 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 1 0 0 2 1 0 0 1 1 1 0 0 2 1 1 1 0 0 1 0 1 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 1 2 0 0 0 1 0 0 0 0 1 1 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 2 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 2 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 1 1 0 1 0 0 0 2 0 1 1 0 0 0 1 1 0 1 0 0 0 1 0 0 0 1 0 0 1 0 0 1 0 1 0 0 1 2 2 1 0 0 1 1 1 0 0 1 1 2 2 0 0 0 0 0 0 0 0 0 0 0 1 1 0 2 1 1 1 2 1 0 1 0 0 1 1 1 0 1 0 0 0 0 1 0 1 1 0 2 0 0 1 0 1 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 2 1 0 0 0 0 1 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 0 2 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 1 1 1 0 1 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 1 0 0 0 1 1 1 0 0 0 0 0 1 0 1 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 2 1 0 1 1 0 1 0 0 0 0 0 0 0 0 0 2 2 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 2 0 0 0 0 2 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 1 1 0 1 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 1 0 3 0 0 1 0 0 0 0 0 1 2 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 1 1 0 0 0 0 1 0 1 0 1 2 0 0 0 0 0 0 0 1 1 0 0 1 1 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 1 1 0 1 0 0 0 0 0 0 0 2 0 0 0 0 0 2 0 2 1 1 0 0 0 0 0 0 1 0 0 0 1 2 0 0 2 0 1 0 1 0 2 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 1 0 2 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 1 1 2 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 2 1 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 1 3 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 2 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 2 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 1 0 0 0 0 1 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 2 0 1 1 0 1 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 1 0 0 1 1 0 0 0 2 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 1 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 2 1 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 1 0 1 0 0 1 0 0 1 0 1 0 0 0 0 1 0 0 1 0 0 1 1 0 1 0 0 0 1 0 0 0 1 0 0 2 1 0 1 0 0 0 3 0 0 2 1 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 2 0 0 0 1 0 2 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 2 1 0 0 0 1 2 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 1 0 0 0 0 1 0 0 2 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 1 0 1 0 1 1 0 2 0 0 0 0 1 1 0 0 1 0 0 0 2 0 0 0 0 0 1 0 1 0 0 0 1 0 0 1 0 1 0 0 0 0 1 0 1 0 2 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 1 0 0 1 0 0 1 0 0 0 1 2 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 1 1 1 0 0 1 0 0 1 0 1 0 0 0 0 0 0 2 0 1 1 2 0 0 0 0 1 0 1 1 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 2 1 1 0 0 1 1 0 0 0 0 0 2 0 0 0 1 1 0 0 0 0 1 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 1 0 1 1 0 1 0 1 0 0 0 0 0 1 0 1 0 0 1 1 0 0 1 2 0 2 1 0 0 1 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 2 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 2 0 0 1 1 0 0 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 1 0 0 0 1 0 0 0 0 0 1 1 1 0 1 1 0 2 1 0 0 0 1 1 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 2 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 1 0 1 0 0 0 0 0 0 1 1 0 0 1 0 0 0 2 0 0 0 0 2 0 0 2 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 2 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 2 1 2 0 1 0 1 0 0 1 1 0 0 0 0 0 1 0 1 0 0 1 0 0 0 1 1 2 1 0 0 0 0 0 0 0 3 0 1 0 2 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 2 0 1 0 0 0 1 0 0 0 0 2 0 0 1 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 1 0 0 2 0 1 0 1 0 0 0 1 1 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 2 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 1 2 0 0 0 0 0 0 0 1 0 1 1 0 1 1 0 0 1 1 0 1 0 0 0 1 0 1 0 1 0 1 0 0 1 2 0 1 0 0 0 1 0 1 0 0 1 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 2 1 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 2 3 0 1 1 0 0 0 1 0 0 0 0 2 0 1 0 0 0 2 0 0 0 2 1 0 0 1 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 1 2 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 1 0 0 0 1 0 1 0 1 1 1 0 0 0 1 0 1 0 0 0 0 1 0 0 1 0 0 1 0 0 1 1 1 0 1 0 0 0 0 1 0 0 0 0 1 0 0 1 1 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2 1 1 0 0 1 0 1 0 1 0 1 0 0 1 1 0 0 1 2 1 0 1 1 0 0 0 1 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 1 0 0 1 2 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 1 1 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 1 0 1 1 0 0 0 0 0 2 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 3 0 1 0 2 1 1 0 0 0 0 2 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 3 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 1 0 1 0 0 0 0 1 0 1 0 0 0 0 2 1 0 0 1 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 1 0 0 1 1 0 0 0 0 0 2 0 0 1 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 2 1 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 2 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 1 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 2 1 0 1 1 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 1 0 0 1 0 0 2 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 1 1 0 1 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 1 0 0 1 1 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 1 1 1 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 2 0 1 0 0 0 2 2 0 0 0 2 0 0 0 0 0 0 1 0 1 1 0 1 0 0 0 0 1 2 0 0 0 0 0 1 0 0 3 0 0 0 0 0 1 0 0 0 0 0 0 1 1 2 0 0 0 1 1 0 1 0 0 0 0 0 0 2 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 1 2 2 0 0 0 0 0 0 0 0 0 0 2 0 0 1 1 0 0 0 0 0 0 0 1 1 1 0 0 2 0 0 0 0 0 0 1 0 0 1 0 1 0 1 0 1 0 0 1 0 0 1 0 0 0 1 0 0 1 2 0 0 0 0 1 0 0 1 0 0 1 0 1 0 1 0 0 1 0 0 0 1 0 1 1 0 0 0 0 0 1 2 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 2 0 0 1 0 1 0 1 1 1 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 1 0 0 2 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 1 1 4 1 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 1 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 1 0 1 1 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 1 0 0 1 1 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 1 2 0 2 0 0 0 1 1 1 0 1 2 0 1 0 0 0 0 0 1 1 0 0 0 0 1 0 0 1 1 0 1 0 2 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 3 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 1 0 0 0 0 1 0 0 0 2 0 2 0 1 0 1 0 0 0 0 0 0 0 1 1 0 3 0 0 0 0 0 1 0 1 0 0 1 0 0 1 0 1 0 0 0 0 1 0 2 0 0 0 0 1 1 0 0 2 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 2 0 1 1 0 0 0 0 3 1 0 0 2 0 0 1 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 1 1 0 0 2 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 2 0 2 2 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 1 0 0 1 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 2 0 0 0 1 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 1 1 0 0 1 0 0 2 0 1 0 0 1 0 0 1 0 0 0 0 0 2 0 2 0 2 0 1 1 1 2 0 1 0 0 1 2 0 1 1 1 0 1 1 0 0 0 0 0 0 1 0 2 1 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2 2 0 0 1 0 1 1 0 0 0 0 0 1 0 0 1 1 1 0 0 0 1 0 0 1 1 1 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 2 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 2 0 1 0 0 0 1 2 0 2 0 0 0 2 0 0 0 0 1 1 0 1 1 0 0 1 2 1 0 0 0 0 0 0 0 2 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 1 1 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 1 0 0 0 0 2 0 1 0 1 0 0 0 0 1 1 1 1 0 1 0 1 1 0 2 0 0 1 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 2 3 0 0 2 0 0 1 0 0 1 1 0 0 0 1 1 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 1 0 1 1 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 1 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 2 1 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 3 0 2 1 1 0 0 0 1 0 0 0 2 0 0 0 0 1 2 0 0 0 0 0 0 1 0 0 0 1 1 1 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 1 1 1 0 1 1 0 0 1 0 1 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 2 0 0 2 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 2 1 0 0 1 2 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 2 1 0 0 0 0 1 0 1 0 0 1 1 0 0 0 1 0 0 0 1 1 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 2 2 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 1 2 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 1 0 0 1 1 1 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 2 1 1 1 0 0 0 1 3 1 1 0 1 0 1 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 2 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 1 0 1 1 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2 0 0 1 0 2 0 0 0 0 0 2 1 0 0 0 1 1 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 1 1 0 1 0 1 0 1 0 0 1 0 1 0 2 0 0 1 1 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0 2 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 2 0 0 1 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 1 0 0 0 2 1 0 0 0 1 0 0 0 0 1 0 0 3 0 0 1 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 2 1 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 1 3 0 0 0 1 1 0 1 0 0 1 1 0 0 0 1 0 0 0 0 1 0 0 2 1 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 2 0 0 0 0 0 0 0 0 2 1 1 0 0 0 0 0 0 1 0 0 2 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 1 0 1 0 0 1 0 0 0 0 0 0 2 0 0 0 0 1 2 0 2 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 2 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 1 0 0 0 0 0 1 0 0 1 0 2 0 1 0 0 0 2 1 1 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 1 0 0 0 1 1 0 0 1 0 2 1 0 1 0 1 0 0 1 0 0 1 0 1 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 1 1 1 0 1 0 0 1 0 0 1 2 1 0 0 0 0 2 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 1 1 1 0 0 2 1 0 1 0 1 0 1 1 0 0 0 0 0 0 0 1 0 2 1 0 0 0 0 0 0 0 2 0 1 0 0 0 1 0 0 0 0 0 0 0 0 2 0 2 0 0 0 0 0 2 0 0 1 0 0 1 1 0 0 2 1 0 1 0 0 1 1 2 0 0 0 2 0 0 2 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 1 0 0 1 1 0 0 1 3 0 0 0 0 1 0 2 0 0 0 1 0 0 1 0 1 0 1 0 1 1 0 0 0 0 0 1 1 1 0 2 1 1 0 0 0 0 0 0 1 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 2 0 0 0 0 1 0 0 1 2 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 2 1 1 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 1 0 0 1 1 0 1 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 1 1 0 0 1 0 2 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 1 0 0 2 0 1 1 0 0 0 0 0 0 0 1 0 0 2 0 1 0 0 0 0 0 1 0 0 1 1 0 0 0 1 2 1 0 0 1 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 2 0 0 0 0 0 1 2 1 0 1 0 0 0 0 0 2 1 0 1 0 0 0 2 0 1 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 2 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 1 0 1 0 0 1 0 1 0 0 1 1 0 0 0 0 3 0 0 1 0 1 0 1 2 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 3 0 0 1 2 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 1 1 2 0 1 1 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 2 0 1 1 1 0 2 0 1 0 0 0 0 1 0 1 1 1 0 1 0 0 0 0 0 0 0 1 0 1 0 0 1 1 1 1 1 0 2 0 1 2 1 0 0 0 1 1 0 0 0 1 1 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0 0 0 0 2 0 2 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 1 0 0 1 1 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 1 2 0 1 2 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 2 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 1 0 1 0 1 1 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 1 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 1 1 0 0 1 0 1 1 0 0 1 1 0 1 1 1 0 0 0 1 1 0 0 0 0 1 0 0 1 1 1 0 0 0 0 1 0 0 1 1 0 1 0 0 0 0 0 1 1 1 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 2 0 0 0 0 1 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 1 1 1 1 0 2 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 1 0 1 1 0 0 0 0 2 1 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 2 0 0 1 0 0 0 1 0 1 0 0 1 0 0 0 1 0 0 0 0 0 1 1 1 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 1 0 0 1 0 0 0 1 0 0 0 1 0 2 0 0 0 0 1 0 0 0 2 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 2 0 1 0 0 0 1 0 0 0 1 0 1 0 1 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 1 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 1 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 1 0 1 1 0 1 1 0 0 0 1 1 0 0 0 0 0 1 0 0 0 1 2 0 0 0 1 0 1 0 0 0 2 1 0 1 0 1 0 0 0 2 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 1 0 0 1 0 0 0 0 0 1 2 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 1 0 1 0 1 0 1 0 1 0 1 3 0 0 0 0 0 0 2 0 0 0 1 0 1 1 0 1 0 0 0 1 0 1 0 0 2 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 2 1 1 2 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 2 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 1 0 1 0 1 0 1 0 1 0 0 0 1 0 1 0 0 1 0 1 1 0 1 0 0 1 0 1 0 1 0 0 0 0 0 1 1 0 3 0 1 0 0 1 0 1 1 1 0 0 0 0 0 0 0 1 0 0 1 0 0 2 0 0 1 0 0 0 0 1 0 0 1 0 0 1 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 2 0 0 2 1 0 1 0 0 0 0 2 0 1 0 0 1 0 0 1 0 0 1 0 1 1 0 0 0 0 0 0 1 0 0 1 0 0 2 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 1 0 0 2 1 0 0 1 0 1 0 1 0 0 0 0 1 1 0 1 0 0 0 0 0 1 1 0 2 1 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 1 0 1 0 0 0 0 0 0 3 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 2 0 0 0 2 1 2 0 1 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 2 0 0 1 2 0 2 0 1 0 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 1 0 0 0 0 1 0 1 0 0 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 1 1 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 2 0 0 0 0 0 0 1 0 0 0 1 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 1 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 1 1 0 0 0 1 0 0 0 0 0 0 2 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 1 0 2 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 2 0 0 0 0 0 1 0 0 0 0 1 0 1 1 0 1 0 0 1 1 0 0 2 0 0 1 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 1 1 1 0 0 2 0 0 3 0 1 0 0 0 0 1 0 1 0 0 2 0 1 0 0 0 0 1 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 1 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 1 0 0 2 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 2 0 2 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 1 1 0 0 1 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 1 1 0 1 0 1 1 0 0 1 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 2 0 2 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 2 1 0 0 0 2 1 2 1 0 1 0 1 0 1 0 0 1 2 0 1 1 0 1 0 0 0 1 0 0 2 0 1 0 1 0 0 1 1 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 1 1 0 1 1 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 1 0 1 0 0 0 0 0 2 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 1 1 0 1 1 0 0 0 0 0 0 0 0 0 1 1 0 0 3 0 0 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 2 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 2 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 3 1 0 0 2 0 0 0 1 0 0 0 1 0 0 0 2 0 1 2 0 0 2 1 0 0 0 0 0 0 1 0 0 1 0 0 1 0 1 1 1 0 0 0 0 2 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0 0 1 1 0 0 1 0 1 0 2 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 1 0 1 0 0 0 2 0 0 1 0 0 1 1 1 2 1 1 0 0 0 0 1 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 1 2 0 0 0 0 1 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 1 0 1 0 0 0 0 0 0 1 0 2 0 0 0 1 0 0 0 2 0 0 0 1 0 1 0 1 1 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 1 2 0 0 0 0 0 0 1 0 1 0 0 0 2 1 0 0 0 0 1 2 0 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 1 1 0 0 2 0 0 1 1 0 0 0 2 1 0 0 0 1 1 1 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0</t>
-  </si>
-  <si>
-    <t>JSU(-12.90035420702873, 7.164391863887132, -163.6655074288238, 91.17728880799146)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120 138 130 154 131 164 139 78 211 83 55 107 124 61 129 76 117 51 126 76 101 197 115 104 68 42 138 71 135 142 58 100 94 90 86 57 167 116 95 113 163 104 95 71 128 60 126 118 109 142 155 218 139 94 111 145 87 67 178 166 77 176 65 139 65 139 103 86 94 96 174 98 76 115 82 47 69 175 111 63 115 117 103 99 97 71 37 101 125 197 117 157 134 148 97 96 131 58 131 63 139 153 10 94 156 160 18 152 58 46 43 88 84 107 163 88 89 119 126 100 99 114 57 121 108 95 98 102 97 65 121 106 32 84 65 116 72 132 79 106 70 114 120 97 118 92 105 151 154 135 56 166 84 91 89 47 172 127 44 117 149 187 72 155 90 71 57 135 144 66 115 84 152 172 103 86 103 118 136 110 110 150 48 81 138 84 60 117 187 166 81 154 101 141 197 73 63 62 105 117 145 110 84 172 115 138 114 124 98 147 136 50 230 99 123 78 207 68 119 55 56 111 122 80 43 117 66 111 125 60 87 173 46 180 97 84 130 119 183 158 129 61 20 69 116 83 106 97 130 106 99 132 123 87 111 105 54 127 90 163 45 114 19 88 150 30 33 44 175 82 66 117 69 62 94 21 138 67 100 145 87 95 162 72 11 119 83 143 138 114 99 55 147 75 101 134 109 149 142 91 135 82 113 86 115 132 99 18 63 131 177 97 125 60 92 72 87 31 72 141 150 162 127 138 83 88 143 117 89 126 117 110 136 129 60 111 192 100 184 157 119 115 175 69 46 118 151 77 122 103 98 82 152 134 137 107 119 91 115 128 55 139 94 146 148 61 126 100 84 48 157 121 92 131 113 121 103 48 152 46 173 51 51 31 103 129 137 77 122 129 85 140 111 72 216 59 115 58 172 154 69 124 22 158 140 118 111 42 77 43 112 192 110 167 117 90 98 69 90 139 66 186 127 118 88 75 120 92 110 119 115 52 99 190 57 53 53 147 153 11 116 140 162 50 161 93 54 116 86 91 111 95 87 129 23 127 100 102 68 124 100 161 46 106 109 155 113 102 102 138 137 157 50 88 47 128 73 97 54 116 157 85 155 114 103 31 109 85 65 157 84 69 139 109 97 140 85 193 110 151 145 91 114 102 36 160 128 140 24 121 73 129 140 127 73 92 169 119 123 78 112 114 54 113 60 144 52 103 150 123 111 66 85 66 119 109 80 113 94 146 83 107 129 92 91 130 171 68 58 87 106 96 114 116 176 78 59 72 131 119 142 94 147 159 107 119 111 81 86 99 95 96 82 103 75 157 93 166 133 97 108 87 45 159 123 108 63 201 31 112 37 161 102 92 50 93 169 91 93 130 101 104 120 89 92 75 124 118 120 105 124 144 53 107 110 124 41 170 132 163 144 123 89 20 127 147 152 39 116 177 86 132 115 55 104 96 86 127 56 99 112 104 85 109 67 118 115 81 53 57 79 91 28 101 60 100 84 86 174 161 112 168 106 150 69 56 80 106 133 112 141 114 119 123 131 95 165 121 161 191 121 94 76 88 114 143 88 157 121 31 87 173 93 233 79 77 112 90 84 130 63 142 227 129 113 130 69 134 52 80 128 49 4 144 150 181 111 119 92 126 59 81 42 119 179 65 27 170 95 133 32 99 76 71 47 79 174 99 96 87 112 182 189 71 98 101 62 74 131 261 138 109 104 150 105 146 134 57 56 123 70 144 225 101 140 80 129 101 220 92 140 4 53 187 45 108 79 111 146 71 105 78 89 108 111 160 145 29 106 120 105 143 108 83 118 158 83 106 102 139 53 74 140 156 105 119 85 115 70 113 90 181 119 134 90 55 67 85 81 99 157 143 81 25 108 104 172 137 23 217 98 116 110 95 57 67 107 102 141 69 59 139 89 76 91 83 41 113 107 105 42 104 78 117 51 81 34 74 102 94 154 215 135 72 81 167 54 75 134 151 137 149 162 145 94 140 45 115 85 63 115 182 68 135 120 93 143 50 143 139 83 158 73 133 175 131 48 98 99 160 116 51 64 36 48 96 97 138 87 64 171 120 51 92 126 105 156 113 55 91 90 161 159 126 112 106 100 109 124 131 154 107 47 83 141 120 124 93 28 108 72 116 123 210 155 109 102 84 69 115 86 68 118 145 70 137 50 156 121 105 75 108 88 112 81 61 127 80 94 104 7 80 138 98 91 115 111 114 259 145 75 91 127 174 97 35 121 87 144 91 137 156 48 143 183 120 90 56 62 79 145 135 74 145 73 134 87 140 117 97 106 131 163 121 81 143 74 131 68 117 54 161 91 156 15 100 88 149 168 13 109 136 90 95 113 136 58 126 159 155 180 112 120 63 70 91 105 170 119 91 98 176 108 51 146 126 93 152 86 106 136 115 81 125 77 106 74 188 110 149 114 98 81 92 96 215 104 83 155 114 69 142 83 127 132 94 92 84 113 92 167 82 113 101 94 87 102 112 108 84 97 209 81 103 97 205 128 223 92 114 76 83 99 124 97 123 93 107 145 129 95 90 101 120 133 43 61 93 122 124 136 110 120 50 80 69 76 194 105 102 97 180 75 58 159 116 121 122 107 55 174 133 91 87 81 142 131 102 88 124 106 100 75 80 123 148 34 77 105 138 184 55 141 123 147 38 133 131 153 120 101 52 63 99 69 119 132 196 80 57 108 199 150 118 127 45 75 154 117 154 105 98 69 44 136 46 88 93 64 81 154 65 147 117 140 76 121 119 117 77 152 93 198 142 86 134 136 83 116 48 63 187 99 79 38 101 137 68 110 69 129 95 64 31 104 67 73 136 105 155 58 71 136 86 135 47 84 111 89 159 117 65 156 100 64 76 71 118 38 150 119 180 142 75 120 33 142 130 149 74 111 50 91 116 99 132 134 117 128 158 6 82 73 120 98 145 96 72 151 96 201 117 119 135 123 173 112 133 96 88 58 116 130 139 127 130 65 172 115 97 149 115 59 159 117 87 67 253 83 151 164 167 104 95 45 122 147 108 136 78 88 106 174 78 75 93 89 155 66 74 99 51 97 59 34 93 124 73 156 173 126 57 42 103 138 95 142 80 134 54 144 166 71 102 98 120 95 103 187 44 108 34 92 78 130 97 67 132 67 132 211 92 106 31 186 127 157 110 125 94 61 91 101 115 95 148 82 81 134 135 110 136 122 92 112 95 92 96 142 109 127 123 105 49 87 28 81 146 138 110 107 56 159 106 148 122 99 87 95 90 135 100 142 18 59 92 71 123 90 92 155 121 127 180 73 110 116 103 99 180 82 124 69 86 88 74 83 74 59 121 144 92 95 74 164 135 185 133 49 16 93 93 101 47 95 109 111 105 70 117 89 138 133 155 155 121 87 138 83 100 117 116 158 91 134 107 95 130 76 101 76 105 58 110 94 61 89 64 8 61 128 123 105 119 149 94 68 87 111 140 137 90 123 84 127 109 126 95 94 88 98 127 148 144 141 104 114 113 157 123 113 115 91 95 93 160 178 104 156 139 117 127 108 173 114 121 108 77 129 39 119 101 158 199 31 149 122 141 202 131 134 83 81 232 119 135 73 73 66 66 141 53 134 89 46 147 87 83 108 154 57 104 61 195 76 52 149 140 82 141 128 92 135 110 80 121 75 123 106 103 118 83 118 106 159 119 112 99 164 82 113 19 61 83 91 77 128 135 70 143 152 98 99 125 111 182 55 129 158 156 19 148 117 77 44 46 132 135 189 73 70 99 80 113 96 137 156 73 60 91 127 96 79 41 95 76 80 66 110 110 78 44 91 122 105 95 43 45 84 71 77 165 198 115 94 56 130 106 97 129 94 168 144 76 106 146 45 133 73 123 99 99 118 173 89 97 178 77 72 103 57 125 49 120 112 129 137 101 77 41 103 41 97 134 156 122 116 96 182 163 118 62 129 126 116 106 93 84 168 69 103 65 43 114 61 108 85 71 137 97 75 111 169 73 146 178 122 104 200 124 216 126 93 124 81 178 43 189 86 59 111 160 141 152 106 58 132 62 125 89 179 88 120 95 101 68 109 52 81 146 103 19 108 93 134 172 111 97 85 130 103 54 53 129 2 163 131 102 128 65 98 144 78 67 207 135 82 204 95 72 50 102 84 80 59 103 91 112 126 74 110 101 105 147 131 81 73 138 19 109 90 119 61 133 54 59 149 74 64 102 126 99 85 110 96 127 92 86 108 71 66 169 87 144 224 102 138 74 36 88 112 140 121 62 146 109 95 97 142 65 173 74 91 94 87 66 78 148 117 126 173 87 108 93 188 183 56 163 137 134 161 49 118 122 154 92 92 87 140 88 91 92 153 112 185 125 86 122 173 97 143 80 89 124 171 90 98 58 192 146 112 29 120 97 88 76 190 37 113 209 190 118 134 183 67 169 66 128 20 135 156 94 90 115 78 28 99 196 144 135 195 37 126 176 125 106 135 77 125 114 146 159 33 71 62 138 106 116 123 106 119 114 97 156 101 118 131 50 100 116 67 57 119 96 192 116 74 135 108 103 23 151 62 170 110 94 127 58 93 155 208 82 123 106 28 200 151 63 170 67 113 115 119 158 84 101 30 125 98 42 96 99 106 143 44 186 92 121 67 119 89 111 63 61 79 123 78 156 80 141 74 145 102 143 111 125 94 108 82 61 81 191 94 135 53 102 158 118 161 57 115 106 79 68 221 178 132 163 69 99 54 53 190 58 139 179 124 99 141 114 91 121 104 166 121 151 86 165 129 119 124 173 94 167 122 105 123 37 119 48 74 150 70 110 111 126 138 56 70 126 214 150 87 36 172 92 138 94 130 108 51 56 99 130 108 172 38 143 143 199 147 102 97 205 104 152 77 65 118 67 96 34 125 69 118 138 211 106 167 89 54 87 104 118 110 205 97 59 100 85 37 173 65 51 63 74 126 84 63 92 71 87 44 54 178 57 55 11 163 138 101 219 140 79 68 99 129 74 89 102 142 99 77 113 116 89 108 119 111 36 111 165 170 96 168 39 109 63 163 204 142 94 147 158 71 74 68 119 135 72 117 103 108 150 182 89 74 166 131 152 94 136 112 156 90 85 152 142 51 24 127 101 147 117 160 163 137 91 88 40 92 78 114 156 125 141 144 68 146 39 86 111 150 39 85 166 63 119 109 132 140 135 152 101 144 111 107 59 133 83 77 175 144 44 58 29 122 64 121 111 45 75 38 104 102 112 30 84 129 47 58 68 56 93 109 83 163 66 137 64 104 119 159 64 137 105 62 87 77 202 69 132 97 84 112 102 128 141 121 130 160 222 107 144 132 101 125 42 178 98 58 157 141 149 211 119 176 93 96 103 78 127 83 145 76 114 36 99 93 58 120 102 85 83 164 189 102 116 75 157 72 123 63 55 93 117 164 81 108 47 124 84 39 133 44 108 24 53 102 146 81 74 107 143 120 49 285 187 125 127 138 129 107 80 98 75 81 134 182 82 55 106 57 44 168 151 61 18 186 57 109 109 145 154 71 193 81 170 101 113 199 96 67 157 123 106 107 41 86 84 144 28 105 107 141 109 89 83 91 109 132 154 109 161 21 92 86 70 155 63 61 102 64 106 48 52 87 110 49 78 133 147 48 125 178 108 108 109 84 114 102 116 73 71 142 72 165 83 158 195 110 118 149 159 202 91 109 174 106 121 109 107 66 56 91 54 166 112 88 84 63 59 160 99 121 54 34 125 159 163 151 115 69 202 144 144 133 106 139 108 85 86 90 124 100 114 119 87 62 31 106 80 117 102 103 172 112 107 108 156 111 91 78 175 61 69 122 65 76 110 92 134 142 126 110 198 87 72 116 76 93 69 53 84 150 85 99 102 23 27 187 176 141 176 98 124 130 169 130 137 128 65 153 106 92 124 95 179 88 163 128 62 56 155 61 92 90 124 67 154 132 70 211 85 66 95 196 54 83 101 106 58 55 101 107 89 88 108 55 85 132 137 154 75 101 107 50 121 103 102 208 79 72 28 89 121 172 104 102 102 83 62 76 133 87 77 40 67 110 87 115 104 31 230 97 160 76 131 106 60 131 98 93 71 132 161 79 117 123 140 79 124 195 125 100 90 89 97 127 114 90 149 113 90 105 66 115 85 184 98 114 71 90 88 161 63 66 159 113 121 173 86 71 136 100 135 82 97 84 132 59 64 66 99 45 113 102 80 136 91 115 27 41 116 182 122 82 114 75 127 129 103 100 200 115 120 193 52 140 150 155 72 94 112 52 102 123 94 45 86 100 100 121 64 111 112 103 108 153 134 73 192 123 72 133 84 75 207 108 152 123 37 92 142 128 44 110 70 112 122 82 111 83 58 170 45 71 82 123 143 54 114 103 117 98 153 50 93 55 90 61 48 149 83 78 126 70 76 144 107 127 101 131 93 62 86 89 138 159 215 141 78 83 151 163 66 91 108 69 100 68 157 44 127 188 164 70 108 140 145 90 52 74 79 136 167 180 141 43 106 179 63 122 148 127 120 104 152 146 93 73 109 117 123 107 110 151 224 89 82 142 65 94 97 112 67 85 142 141 41 74 107 66 37 78 57 102 128 101 95 119 147 56 168 53 99 116 47 71 164 194 101 165 114 106 116 121 133 64 94 81 142 78 110 97 151 110 205 133 230 13 167 80 72 166 116 102 167 115 81 84 126 141 116 96 160 163 139 157 100 113 165 103 70 125 95 98 120 88 97 149 69 81 114 187 156 88 152 110 173 186 75 70 105 173 78 45 87 213 107 135 72 114 72 95 150 116 111 91 109 96 75 71 129 102 62 123 59 82 19 87 175 116 76 85 91 111 82 130 106 116 68 40 235 102 82 72 130 153 164 139 107 142 133 58 99 114 173 82 119 61 128 72 159 138 132 101 134 153 105 118 114 135 46 59 218 88 111 84 88 127 109 151 119 71 81 108 113 128 89 111 163 102 162 114 122 119 126 70 211 150 116 216 78 58 122 79 119 153 107 82 131 85 118 88 127 132 82 81 83 60 77 154 92 128 112 95 111 116 158 103 95 130 98 40 149 137 77 139 111 167 83 80 119 66 86 70 89 74 81 54 85 70 164 109 77 82 94 181 89 89 112 86 121 41 132 105 102 104 69 44 86 102 85 73 108 145 75 30 85 53 84 93 94 118 109 112 91 62 124 86 94 114 96 55 100 157 90 69 91 261 97 91 99 83 106 102 100 159 156 155 123 133 118 153 51 179 135 66 110 101 139 128 43 110 85 67 171 114 35 51 90 92 98 80 120 87 154 97 121 135 56 125 56 114 210 104 73 87 78 106 145 165 83 136 86 97 159 171 121 84 140 107 99 78 72 117 105 94 118 120 100 96 123 76 90 132 185 105 179 78 104 42 124 170 168 39 146 113 143 134 155 143 123 136 125 132 118 87 53 118 102 154 183 98 111 169 145 106 98 78 145 106 123 147 223 54 120 101 105 59 114 90 90 146 78 149 98 38 32 102 132 165 72 83 106 74 96 181 81 119 69 147 10 42 79 140 84 199 208 121 171 146 107 73 156 51 154 134 136 60 108 155 145 45 61 109 134 140 32 49 171 88 94 117 114 107 96 149 100 95 137 171 88 103 114 177 93 41 55 222 34 24 84 52 109 202 73 74 72 75 126 150 193 74 60 99 82 101 129 50 88 80 64 101 75 99 129 214 67 78 110 33 81 101 78 105 180 39 134 109 99 133 107 120 67 133 71 96 133 153 15 105 106 91 55 112 69 51 124 35 163 59 121 241 140 141 147 57 87 83 121 160 80 67 89 46 146 79 139 109 159 81 139 98 145 68 76 46 169 54 120 81 114 53 178 124 139 107 190 75 128 106 138 111 147 102 100 55 79 121 64 171 134 159 101 119 42 155 90 115 106 165 53 70 71 99 68 82 98 148 92 102 123 42 78 95 78 88 142 82 143 70 91 155 95 134 80 87 58 127 112 163 97 156 173 72 98 79 41 127 127 123 70 121 60 116 30 98 73 64 26 122 151 169 116 157 139 90 186 158 155 139 113 28 178 92 85 88 106 99 91 207 110 99 110 142 67 89 94 145 159 66 160 75 69 172 172 75 108 143 105 112 174 136 101 69 103 44 186 86 112 56 84 173 95 52 82 126 58 70 94 164 69 87 119 177 135 156 86 148 67 83 55 129 157 124 110 63 99 84 83 85 118 130 62 91 158 23 230 165 129 141 71 149 61 37 140 57 93 115 119 98 60 82 163 93 195 86 118 114 102 82 135 97 84 88 149 127 137 84 128 163 152 111 130 80 118 119 119 120 134 108 137 86 89 75 148 94 65 135 81 86 102 121 79 97 75 123 79 82 82 158 100 97 54 71 144 215 49 110 175 125 158 143 107 102 73 77 53 126 121 124 264 165 152 92 87 113 65 67 105 111 175 38 30 62 63 124 141 131 93 102 124 12 101 108 127 93 31 167 120 127 139 95 92 155 119 114 82 55 172 61 93 53 157 81 131 128 135 187 93 151 85 48 126 77 118 135 52 71 78 59 170 73 129 105 80 146 118 39 198 137 99 65 126 138 92 65 82 155 61 134 81 202 58 180 53 68 57 137 113 78 75 99 145 57 77 120 159 104 71 87 96 92 89 108 100 116 108 175 66 69 80 74 145 155 79 70 97 91 113 73 92 63 58 179 84 124 121 181 92 118 84 79 132 182 57 138 138 89 100 92 132 99 54 44 139 98 164 56 117 128 156 149 124 174 120 85 84 157 138 129 34 97 66 99 91 123 203 90 77 68 158 133 83 136 123 133 132 161 113 60 202 56 83 87 100 127 60 89 133 93 41 132 47 110 91 108 115 64 42 110 143 145 112 190 119 77 87 54 95 74 77 120 126 159 121 164 125 104 132 182 135 102 107 117 103 77 79 110 67 89 136 59 118 112 95 78 99 107 129 109 89 158 99 147 76 143 127 35 124 143 49 62 74 134 130 163 171 59 73 95 42 137 58 132 129 71 79 144 79 192 99 102 216 89 87 159 84 161 169 102 88 152 186 143 69 116 112 143 68 98 70 91 141 144 159 128 80 113 60 61 86 105 54 57 78 102 35 64 87 233 69 70 92 85 113 131 66 109 105 151 136 90 73 108 118 74 110 137 134 116 125 133 99 74 96 82 86 148 86 188 89 44 100 96 91 95 106 72 47 66 100 142 87 59 122 113 129 52 202 126 109 71 80 77 120 152 124 73 178 132 112 89 43 90 165 81 113 60 195 90 49 175 136 102 117 59 83 112 191 158 92 149 119 129 208 100 129 92 206 73 141 139 31 124 151 84 127 143 71 95 31 160 53 122 183 106 68 151 130 74 114 106 101 149 112 68 57 157 119 44 83 57 59 59 103 103 136 83 74 120 105 72 96 156 117 143 85 52 145 83 97 112 114 115 123 115 51 121 70 50 48 37 89 184 86 144 128 152 202 129 139 97 72 74 46 125 62 110 136 77 104 64 117 217 128 40 60 88 98 53 81 80 139 105 29 96 48 87 97 87 110 79 146 69 141 134 96 86 144 46 93 76 137 158 73 106 104 175 92 84 90 112 96 71 134 74 134 140 72 223 127 208 102 45 67 125 127 122 120 189 151 105 142 72 90 65 112 82 149 125 57 25 127 70 68 112 74 69 96 59 180 116 51 111 114 69 95 157 54 90 77 101 85 146 111 72 170 83 135 55 37 49 95 127 86 73 86 91 46 133 106 108 83 47 82 80 68 44 185 93 36 129 62 78 49 48 140 52 129 73 140 127 98 96 73 135 115 91 150 158 42 94 72 32 113 45 122 118 94 66 109 218 121 88 216 202 117 104 145 89 120 111 111 122 138 90 125 125 117 89 137 33 82 74 114 93 98 83 153 100 121 36 68 74 59 126 167 190 73 64 97 46 117 143 59 249 94 116 115 100 49 103 106 63 103 67 95 83 188 111 104 120 143 150 84 105 139 139 133 122 73 166 140 102 99 76 143 8 128 41 171 35 14 158 116 49 112 118 58 160 108 76 48 50 158 115 54 134 137 80 135 167 90 219 106 95 166 45 103 132 62 130 68 81 19 49 157 86 58 69 122 114 108 38 57 71 100 145 81 147 41 135 177 120 114 93 129 91 97 110 164 147 12 181 57 90 56 81 89 121 105 171 108 74 132 117 108 93 77 76 46 155 58 127 73 94 147 52 153 33 76 121 114 78 77 78 209 179 126 141 63 83 99 153 86 90 78 144 110 161 82 197 96 103 115 162 46 111 76 67 182 75 115 79 92 119 64 87 166 96 85 90 104 141 150 105 156 139 116 111 107 84 77 86 271 70 61 122 96 33 100 120 96 170 33 97 171 110 50 181 86 70 145 94 132 84 162 98 206 119 132 119 92 111 96 103 101 33 65 137 62 83 139 85 181 151 106 77 126 82 173 142 145 61 135 86 129 107 50 58 79 136 58 136 67 72 156 62 151 83 107 96 236 127 79 124 106 94 54 114 131 123 80 132 124 97 70 101 185 95 80 114 141 159 95 80 66 110 102 143 172 78 65 74 118 78 80 105 76 135 124 82 61 118 133 116 65 110 54 141 86 103 148 153 85 42 98 83 126 94 110 49 44 119 131 122 71 107 81 117 90 120 94 228 104 118 133 108 109 107 105 84 43 171 103 149 138 79 166 63 81 148 127 68 126 187 68 121 140 90 71 87 124 116 33 156 52 102 128 75 71 84 95 100 72 111 119 114 46 103 133 155 70 133 128 114 110 103 93 82 103 77 146 134 104 172 47 188 110 170 113 147 76 68 205 72 56 129 32 102 110 108 86 133 21 124 99 141 108 64 117 91 87 70 139 108 80 65 137 150 72 122 66 131 112 190 102 53 80 45 92 117 78 129 105 103 81 87 56 123 118 80 115 84 235 98 151 157 168 236 107 34 68 135 92 89 85 170 116 61 119 115 66 65 222 123 57 126 103 36 97 119 90 142 98 22 73 112 142 144 157 73 168 75 88 78 45 157 181 65 120 127 99 124 70 50 118 56 84 160 142 125 163 146 63 131 158 173 89 53 163 93 108 95 74 166 99 75 104 59 163 120 103 92 16 122 104 179 104 99 128 162 113 124 54 76 124 88 53 122 116 155 89 162 69 130 132 87 92 116 135 123 82 126 164 91 86 176 70 111 115 66 102 146 34 138 101 98 89 77 166 117 71 139 92 141 123 157 155 61 101 153 62 37 189 122 100 97 138 103 131 96 105 94 69 123 158 118 178 167 84 138 46 116 74 53 63 104 161 104 147 51 82 24 105 81 110 72 65 140 178 130 104 241 126 152 114 93 91 102 109 144 57 79 100 104 88 108 75 130 185 153 135 149 128 153 204 166 115 95 111 145 117 164 116 89 81 96 87 150 112 175 125 75 114 107 56 57 122 64 160 95 42 130 88 96 80 35 96 142 77 53 30 108 113 62 121 94 81 132 71 90 94 108 75 87 129 105 148 87 127 69 123 84 72 39 33 101 118 114 62 93 59 96 76 87 108 41 56 142 85 94 138 77 57 140 78 146 132 200 58 106 124 92 89 59 157 91 122 40 114 51 95 108 126 115 94 148 127 169 100 188 128 193 32 86 110 39 85 92 141 46 171 92 212 117 71 176 86 118 90 155 94 72 86 133 118 64 181 117 88 143 73 56 91 88 54 97 87 178 111 82 87 144 59 52 87 115 130 103 115 120 120 166 70 136 86 41 86 107 104 87 96 63 160 115 73 99 134 163 181 109 41 118 203 120 28 101 32 49 56 118 110 74 92 177 134 75 138 152 158 122 49 58 71 135 164 151 40 74 29 118 91 103 102 156 57 159 143 90 50 251 151 120 93 122 159 111 111 95 128 89 122 93 106 104 74 113 88 88 79 140 134 48 110 101 31 111 68 83 152 123 69 49 123 128 132 218 35 194 128 236 132 31 183 101 180 81 53 113 139 72 158 93 105 141 87 177 74 23 162 121 159 16 128 105 74 44 161 140 80 121 222 144 167 61 77 80 63 92 116 107 97 56 64 61 130 62 140 132 85 111 156 102 94 201 104 191 96 110 120 131 86 163 147 89 146 152 88 76 63 92 95 135 34 124 119 80 140 67 71 88 146 68 55 110 202 49 122 199 86 120 115 65 134 136 75 127 94 74 150 34 66 108 105 100 65 93 94 64 154 76 95 76 186 80 150 120 137 128 104 120 146 113 217 162 145 51 56 75 114 67 107 107 69 150 45 107 132 138 222 222 155 89 148 142 82 106 27 78 30 79 66 95 103 62 88 253 132 106 157 85 138 134 81 152 81 44 90 144 83 104 79 131 62 78 252 113 83 35 173 81 107 169 95 75 96 89 180 145 75 63 113 66 60 46 87 113 35 126 97 135 44 95 111 113 84 125 86 53 101 91 125 102 180 32 110 146 109 147 151 95 124 93 94 101 154 103 64 123 154 90 77 21 66 112 108 80 88 95 178 117 110 73 96 102 146 126 113 53 110 154 104 135 144 97 86 115 36 143 132 127 45 150 123 64 143 150 77 91 114 126 109 167 149 83 61 124 71 155 66 123 87 79 162 128 84 101 137 96 44 31 147 102 106 58 133 96 124 153 102 150 137 52 96 76 115 72 102 97 121 70 110 137 123 125 91 72 67 147 103 70 174 34 78 97 263 95 200 90 120 111 99 90 106 59 124 54 146 139 114 134 128 60 120 145 102 93 90 139 98 194 91 104 73 73 93 121 85 82 40 92 98 116 64 92 103 122 84 145 162 114 108 72 91 59 157 111 53 81 239 108 52 219 76 67 85 113 103 147 117 137 118 152 69 78 47 118 67 152 119 135 72 102 65 189 130 47 62 44 112 188 56 97 142 152 66 50 60 170 105 131 155 131 41 177 66 68 116 125 140 139 65 22 97 22 115 172 87 86 147 95 170 103 38 118 54 142 140 145 112 123 112 97 194 53 108 113 28 97 62 77 75 153 95 97 172 97 160 83 162 130 139 44 196 90 79 102 138 62 145 26 134 124 147 140 80 88 58 74 109 77 37 189 147 95 44 98 124 178 61 35 101 86 70 101 76 106 99 95 75 105 185 116 112 143 66 72 148 78 58 69 159 94 131 95 162 112 55 119 122 106 136 164 60 114 125 87 100 146 188 106 89 127 89 85 104 137 166 90 56 89 34 89 160 119 106 103 67 167 53 42 102 139 112 79 206 187 128 108 48 126 53 139 77 86 131 77 63 90 95 137 87 48 71 54 147 157 90 70 123 140 131 149 82 150 84 89 163 175 123 133 135 88 153 104 52 102 90 69 144 91 28 77 87 70 165 78 103 134 102 79 103 60 100 112 95 131 103 68 98 113 107 142 22 161 109 131 112 134 158 120 42 115 85 67 146 48 122 114 61 153 137 178 78 99 145 137 84 88 91 86 92 81 92 20 129 156 131 175 88 133 60 92 172 89 141 80 116 25 126 105 163 53 132 99 118 31 120 163 117 172 134 136 73 92 80 100 179 131 104 28 127 190 98 151 105 71 47 82 121 113 72 117 117 89 109 108 129 100 195 112 94 140 162 94 101 105 50 63 115 127 90 132 164 50 92 76 153 133 17 85 78 192 62 131 99 108 167 173 121 63 47 56 149 27 127 170 109 141 58 82 102 137 70 105 45 168 73 78 107 99 122 45 93 166 63 123 96 133 136 88 69 19 117 200 71 64 122 59 143 67 78 101 135 68 84 86 207 121 104 20 171 110 72 91 78 75 74 100 95 49 171 73 79 82 87 108 137 108 120 128 75 68 118 89 68 93 119 155 113 80 89 76 75 107 124 216 123 53 71 125 132 116 97 64 141 80 96 216 187 142 93 82 155 178 55 72 59 127 173 127 122 78 130 65 37 171 27 77 67 27 131 87 156 140 95 36 158 109 77 58 82 188 150 109 109 104 166 47 139 181 129 200 155 153 114 165 130 68 122 176 62 95 74 118 141 79 110 137 191 101 100 78 134 118 127 142 98 103 59 132 129 30 104 101 159 153 256 93 156 125 111 88 173 95 102 101 163 68 142 97 92 90 43 95 118 207 147 42 70 37 130 135 134 102 105 179 75 135 93 63 83 206 103 112 115 89 110 86 91 146 127 95 77 79 148 142 179 87 118 41 205 87 71 91 67 164 120 119 73 132 36 60 201 109 98 137 109 78 106 135 164 172 33 100 139 161 154 92 54 74 58 112 76 94 111 23 84 102 110 149 107 141 92 73 94 165 126 82 110 168 74 52 84 114 82 44 46 82 73 96 113 49 159 77 94 56 164 133 90 128 116 198 66 91 121 61 134 167 30 176 99 110 164 117 28 118 120 65 153 87 86 195 105 70 139 121 166 147 109 56 121 76 91 115 103 84 132 99 100 121 111 143 88 165 37 120 149 87 148 89 90 79 72 72 146 71 74 76 81 134 68 139 79 90 98 134 96 136 98 182 69 39 159 79 123 25 82 105 61 103 134 84 76 120 70 43 128 122 115 126 184 107 104 150 48 80 39 178 138 61 96 72 174 133 94 146 74 36 92 160 61 151 150 61 62 84 177 82 111 45 33 113 64 79 119 192 96 99 164 105 36 64 128 131 63 97 115 88 14 66 52 55 159 22 179 103 158 93 151 59 112 133 137 129 76 127 200 147 188 124 13 152 74 158 153 84 78 58 104 114 139 146 147 116 73 74 45 159 38 103 131 139 118 181 67 122 120 91 130 199 98 181 128 138 79 202 82 120 171 148 118 98 74 186 57 65 80 127 129 84 88 132 88 177 125 103 137 97 112 143 112 84 58 143 157 134 42 144 125 78 107 118 79 73 138 55 64 155 126 148 115 101 130 77 134 122 102 159 76 102 95 75 27 80 64 84 104 63 151 123 79 96 88 107 80 173 84 78 200 69 68 92 105 34 178 125 159 124 94 46 144 82 156 80 128 98 65 56 67 39 43 133 132 121 156 105 142 115 128 110 119 88 106 54 94 32 105 72 123 37 127 166 102 81 162 108 137 80 182 129 186 151 83 14 123 148 49 79 35 114 121 85 126 104 171 111 88 97 153 101 151 142 133 135 111 49 120 44 107 166 100 115 152 14 109 128 207 67 129 127 85 94 63 95 120 89 33 76 122 55 159 126 110 191 118 61 133 73 134 126 173 60 143 115 139 89 104 70 150 175 100 120 105 147 179 115 53 63 25 79 182 58 95 137 153 99 59 160 109 143 96 119 130 94 89 96 20 85 131 80 82 164 93 133 134 80 115 165 185 136 38 143 85 92 72 125 145 124 100 143 72 104 80 78 84 150 192 67 64 91 125 94 116 85 85 62 77 140 67 173 76 51 119 101 138 81 153 69 100 52 84 74 138 75 144 167 99 154 180 51 53 112 133 168 128 123 58 82 83 41 105 85 72 182 87 141 98 63 95 99 74 149 56 110 172 181 143 118 90 107 93 100 137 79 252 128 133 93 157 162 168 79 122 117 150 80 106 129 136 63 65 122 140 79 125 103 65 67 136 35 102 42 146 113 94 98 119 42 166 78 107 185 109 206 102 89 177 104 121 201 135 182 115 140 41 113 113 94 98 113 84 168 119 115 76 60 122 121 75 18 127 142 104 193 190 61 163 57 72 131 143 86 119 94 189 68 119 193 107 56 184 33 120 76 92 95 143 125 116 95 60 71 86 150 109 141 76 97 140 64 109 166 116 119 71 157 81 51 120 174 126 67 32 235 128 152 164 86 143 111 56 96 92 183 125 135 134 97 156 194 104 55 68 65 100 116 46 116 153 94 163 138 163 73 105 93 53 102 59 74 108 97 107 149 63 112 106 61 79 122 129 73 116 77 92 114 104 58 84 80 75 69 131 80 156 98 112 71 39 142 77 59 67 156 105 45 67 156 42 123 47 84 60 76 23 111 69 166 155 118 170 107 90 215 69 84 88 122 128 132 122 92 94 79 104 66 116 76 116 89 75 170 119 87 82 128 169 110 107 73 158 158 47 129 83 37 101 166 123 78 134 170 180 127 114 159 88 100 111 140 120 108 80 103 166 163 91 222 82 107 147 111 127 155 205 35 88 193 153 133 148 50 83 85 82 77 56 107 59 106 61 55 134 138 59 63 126 147 135 142 118 47 85 110 98 67 93 84 114 99 94 33 56 84 167 101 166 47 219 72 108 111 50 69 134 117 103 189 102 203 45 57 139 133 149 134 183 113 84 1 79 122 65 147 149 133 156 112 106 85 63 143 83 104 73 148 110 84 63 158 172 14 81 55 93 116 73 105 104 59 108 58 130 89 106 128 106 81 155 98 112 105 121 113 131 87 56 95 125 159 183 80 114 78 93 123 109 105 103 66 123 131 55 79 111 131 131 102 130 71 107 143 63 88 191 55 74 261 87 86 126 135 144 118 59 45 75 67 163 194 163 96 95 98 122 128 104 110 30 188 102 48 75 123 74 159 147 69 212 142 157 74 169 92 111 217 125 166 95 100 133 97 99 87 127 117 107 103 131 110 118 95 117 100 19 90 107 88 111 124 102 132 108 64 133 182 121 63 144 103 100 132 114 78 152 95 60 102 100 61 139 88 63 52 115 73 116 131 45 203 116 31 112 175 119 104 29 119 133 109 80 126 90 107 116 86 115 40 127 110 93 137 101 60 176 111 130 105 96 166 123 118 56 137 146 68 182 163 209 109 81 147 49 150 69 84 108 95 138 86 67 70 39 132 146 133 153 91 110 125 91 162 77 133 183 165 79 115 190 177 69 124 139 210 84 183 153 89 76 88 85 139 128 116 166 98 109 95 117 98 112 93 83 73 117 133 140 138 83 146 99 215 145 150 142 104 13 129 78 120 88 93 105 99 62 101 149 143 37 104 72 115 101 109 122 86 71 120 59 102 63 117 25 86 89 80 68 58 118 177 77 107 108 48 116 92 74 122 69 141 78 63 110 135 150 161 63 34 107 83 157 168 98 122 136 182 137 145 85 91 58 166 84 202 113 84 125 132 114 101 162 104 113 76 159 74 128 118 138 152 105 105 65 91 62 81 133 82 108 154 74 113 93 163 69 191 64 65 118 131 98 73 107 220 83 100 110 121 136 106 101 93 125 115 102 100 172 107 119 105 119 128 100 124 88 12 118 113 110 80 69 88 162 122 131 90 146 109 77 51 123 159 123 173 136 112 93 63 231 36 145 122 123 79 128 123 129 112 153 138 70 135 68 154 86 173 130 150 96 187 124 120 104 28 101 197 167 135 143 139 101 45 205 74 75 138 153 44 65 86 110 108 125 75 149 24 46 60 154 86 119 99 125 89 90 71 116 109 105 65 159 69 138 39 128 134 84 82 129 60 82 51 72 203 141 117 125 99 41 155 99 115 124 90 114 82 67 90 90 124 51 179 136 86 113 96 83 152 93 49 92 154 162 176 120 137 78 134 167 177 102 84 57 45 60 137 74 159 114 113 135 145 176 117 52 144 108 83 68 135 118 132 100 169 80 57 72 118 74 163 78 35 73 60 153 148 77 95 36 83 104 150 161 154 150 130 80 110 111 57 116 121 64 127 122 79 116 120 73 147 71 154 153 127 117 130 153 134 72 72 117 94 95 78 59 132 123 107 64 94 87 75 76 58 138 51 136 139 105 147 123 155 149 90 54 67 116 137 78 104 104 96 104 28 27 60 100 63 105 84 162 174 75 150 89 133 76 130 94 131 81 61 46 85 193 67 131 70 93 56 88 106 107 152 94 131 98 101 123 141 62 116 130 284 92 56 90 25 92 100 95 87 107 135 41 86 115 180 126 50 172 71 120 130 109 70 100 140 83 73 120 101 143 187 88 119 104 144 130 65 131 72 123 146 71 84 100 79 103 29 50 118 132 54 140 79 103 206 43 44 55 104 51 109 115 156 163 141 35 139 106 139 114 169 92 115 55 24 87 110 143 56 126 156 107 204 105 59 104 147 100 17 121 88 99 50 82 52 58 116 123 44 103 110 171 109 233 67 119 104 88 92 131 65 79 182 148 111 113 99 156 138 157 92 55 135 89 78 108 98 93 97 75 98 79 182 134 64 108 114 133 64 110 51 89 88 126 80 67 130 48 163 86 64 101 40 169 161 61 99 95 129 89 87 92 107 96 25 38 65 137 173 289 79 72 69 94 130 59 84 150 152 115 133 51 74 101 97 179 123 68 118 75 95 200 93 213 122 118 110 42 145 41 91 77 168 79 151 130 151 119 188 112 124 117 140 116 132 104 79 71 84 138 100 114 227 88 103 132 104 93 131 160 123 38 83 56 90 102 104 73 116 119 66 81 60 58 129 119 116 160 105 94 133 114 56 53 128 103 19 75 118 65 32 105 134 206 165 131 106 103 141 181 97 69 57 96 95 155 110 87 128 88 109 99 131 150 85 89 100 99 116 32 91 176 133 153 67 98 103 93 184 100 9 196 85 87 155 143 112 78 149 190 109 123 124 166 161 186 34 37 128 88 66 186 77 112 111 106 98 129 35 45 128 122 191 93 81 100 57 106 156 131 88 68 68 102 111 147 83 73 37 119 61 95 118 204 125 114 76 108 90 79 49 56 82 153 129 126 136 39 78 180 63 162 74 62 137 54 111 127 84 79 193 19 158 103 131 190 116 108 129 115 150 82 127 111 87 94 139 66 60 71 87 65 86 28 59 41 140 149 86 80 200 93 132 120 110 81 119 97 142 96 75 61 129 163 70 91 145 135 100 92 92 154 164 86 120 140 153 69 26 133 76 147 118 167 136 98 116 161 97 218 180 67 201 138 165 138 69 59 119 98 78 204 107 120 112 67 138 80 112 122 49 180 113 73 169 83 101 42 128 71 61 231 164 122 60 121 58 142 40 73 55 87 79 75 138 157 122 151 107 139 89 121 59 53 117 74 90 68 109 108 108 106 62 93 113 186 82 108 78 111 107 56 82 105 113 116 137 164 131 86 160 57 135 53 66 53 89 91 81 171 122 126 107 112 108 63 75 43 142 68 46 132 124 158 93 135 106 153 129 131 20 94 169 124 82 174 123 53 98 104 128 97 130 75 41 90 85 156 45 75 87 50 159 130 132 115 81 20 83 55 98 127 111 69 108 85 79 87 94 112 155 112 176 123 66 25 128 155 95 120 120 85 111 113 59 82 27 95 84 137 123 151 73 157 65 110 155 81 42 174 80 115 60 69 60 136 146 236 98 112 104 85 74 73 138 69 60 138 65 86 177 167 120 132 83 111 41 220 89 44 140 92 47 139 101 63 131 130 101 81 129 97 114 171 108 137 86 153 44 122 131 91 112 50 35 120 110 140 97 135 85 88 132 126 234 65 128 135 141 77 54 61 70 149 84 89 101 124 84 89 136 32 73 146 117 151 148 60 27 54 80 41 97 81 124 99 158 133 128 119 79 164 170 107 70 181 196 111 100 88 154 117 111 88 121 86 44 133 55 87 51 106 73 101 145 134 137 100 41 139 88 155 106 157 145 99 177 282 112 75 74 69 62 123 138 54 41 57 99 124 86 49 201 60 123 92 144 136 72 116 39 130 69 74 144 128 66 109 122 74 112 69 91 158 60 37 103 75 121 149 186 93 95 98 104 97 101 66 97 149 66 68 113 149 105 70 186 67 93 126 137 140 103 28 125 73 98 94 74 70 154 188 57 90 111 127 93 125 108 142 180 150 72 151 154 144 105 82 191 101 134 41 143 118 94 203 78 119 81 86 141 115 93 143 40 161 171 101 80 199 119 112 198 87 78 66 141 131 111 115 110 101 151 75 56 160 134 92 116 198 139 106 103 206 106 67 133 85 97 131 96 49 29 158 147 114 124 99 42 103 101 84 56 105 129 65 146 152 194 18 174 86 60 157 103 111 151 76 65 113 80 96 80 132 67 134 79 121 153 134 187 94 138 138 114 74 148 63 25 62 57 112 82 51 58 79 120 126 132 46 120 67 84 89 77 102 69 117 121 129 115 104 85 169 107 135 142 110 53 100 135 131 162 88 45 50 142 85 170 153 134 54 67 92 107 94 125 53 138 104 31 71 228 126 137 160 48 153 49 41 98 118 233 114 95 84 118 87 71 150 106 153 74 107 55 95 126 104 113 130 110 102 109 45 49 82 157 27 41 149 131 57 108 98 63 88 87 86 98 118 43 51 120 32 98 124 112 50 105 198 83 170 146 60 137 97 112 126 109 83 99 73 139 145 52 99 109 78 74 71 149 79 119 124 100 93 68 69 115 120 43 102 91 118 83 112 172 133 112 99 85 90 121 171 54 131 122 118 70 107 109 117 113 177 125 113 153 143 50 68 108 188 53 109 135 103 156 86 49 188 90 162 116 119 80 101 76 187 104 75 153 110 109 69 158 79 144 52 43 58 30 75 108 51 104 107 85 29 122 93 87 195 76 80 70 98 84 172 158 164 166 97 87 162 68 33 141 113 85 114 44 49 89 106 52 146 95 83 155 136 72 90 144 159 88 55 81 75 80 60 86 58 121 138 47 125 127 90 154 111 102 114 101 180 108 104 104 132 93 42 103 34 102 94 155 120 69 78 134 114 56 185 144 86 86 88 129 137 172 57 94 106 137 134 148 122 129 68 196 182 82 177 105 55 111 72 75 146 24 160 41 74 82 85 103 125 72 97 102 159 100 105 93 82 12 215 170 113 196 165 128 132 91 139 65 121 46 81 159 149 136 74 72 80 151 93 88 122 179 176 98 109 76 51 38 141 63 73 123 95 75 103 34 173 163 93 43 118 105 87 145 105 139 134 161 82 86 136 71 16 54 112 204 </t>
-  </si>
-  <si>
-    <t>GAM(0.5695689991584196, -8.536827860199663e-28, 0.6161560737506413)</t>
-  </si>
-  <si>
-    <t>1 1 1 1 3 2 2 0 1 1 0 1 1 2 1 2 1 0 1 1 2 0 1 0 1 0 0 1 0 0 0 0 0 1 1 0 0 0 0 1 3 0 1 1 1 2 0 3 0 0 0 2 0 1 0 2 2 1 1 1 1 2 0 0 0 4 1 0 0 1 1 0 1 1 1 0 1 1 1 0 1 1 3 1 0 1 0 0 2 1 1 0 1 1 1 2 2 0 1 0 2 1 0 0 1 2 0 0 0 0 0 0 1 1 0 0 1 0 1 1 0 0 0 1 1 1 0 1 1 0 2 1 1 2 1 2 0 0 1 1 1 2 0 2 1 0 3 1 0 0 0 2 0 1 0 0 3 1 0 0 2 1 0 1 0 0 0 1 1 0 0 0 1 0 0 1 0 2 2 1 1 1 0 0 1 0 0 2 1 0 0 3 0 1 0 1 0 0 2 2 1 1 0 1 3 2 0 0 1 2 1 1 2 1 2 1 2 0 2 0 0 1 0 2 0 0 0 0 2 1 0 1 1 2 0 1 1 1 3 0 0 0 0 0 2 1 1 0 1 3 1 0 1 0 0 1 1 0 0 0 0 1 0 2 1 0 0 0 1 0 0 0 0 0 1 0 1 0 1 0 0 0 1 1 0 1 1 1 1 0 0 0 2 0 1 1 1 0 1 0 2 0 1 0 0 1 0 0 1 1 2 1 1 1 0 2 0 0 2 1 1 2 2 1 0 0 4 0 1 0 0 1 1 0 1 1 1 0 1 0 0 0 2 1 0 0 1 0 1 0 1 1 3 3 1 0 1 1 1 1 0 1 1 3 1 1 2 2 0 1 0 1 0 0 0 2 1 0 2 0 1 0 1 0 0 0 2 3 2 3 1 0 2 0 2 0 1 0 0 1 0 1 0 1 0 1 0 0 2 0 1 0 1 0 1 1 0 1 2 1 1 0 2 1 1 0 0 1 1 2 2 0 1 2 0 0 1 2 1 0 2 1 2 0 3 1 0 0 0 1 1 0 0 0 0 0 0 0 3 0 0 2 0 2 1 2 2 1 0 0 2 1 0 1 0 1 1 1 1 3 0 1 1 1 0 0 1 1 0 0 0 0 1 2 3 1 0 2 2 2 0 0 1 0 0 2 1 2 0 1 0 3 0 1 0 2 1 0 0 0 1 1 1 0 1 2 0 0 1 2 1 0 1 1 1 1 1 0 1 1 0 3 1 2 1 3 1 0 0 1 3 1 0 0 0 0 0 0 0 1 2 1 0 1 0 1 1 0 0 0 0 1 0 1 0 1 2 3 1 1 1 1 0 0 2 1 0 3 0 1 0 2 1 1 1 0 1 1 1 1 0 2 0 0 0 0 0 2 1 1 0 0 0 1 0 0 0 2 1 1 1 1 1 0 0 2 0 0 2 1 0 0 0 1 1 0 0 1 0 2 1 1 0 0 0 1 1 0 1 0 0 0 0 1 0 1 1 0 3 2 0 1 1 1 0 0 1 0 1 1 0 0 2 1 2 2 2 2 2 2 2 0 0 2 2 1 0 1 1 1 1 1 2 0 0 0 1 2 0 1 1 0 2 0 0 2 2 1 1 1 1 0 0 2 0 2 1 1 0 0 0 1 0 0 2 0 0 0 1 0 0 2 0 1 0 1 0 0 3 1 0 3 2 1 1 0 1 0 0 2 1 0 0 2 2 2 1 0 0 0 0 1 3 1 1 2 0 1 0 0 2 0 0 0 0 1 0 0 2 0 2 0 0 0 1 1 3 0 0 0 1 1 0 1 1 1 0 0 1 0 0 0 0 2 0 0 0 0 0 1 0 0 2 1 0 1 0 1 0 0 1 0 1 2 0 0 3 0 0 0 1 1 2 0 0 0 1 2 0 1 0 0 2 1 0 1 0 3 1 1 0 2 1 0 0 1 0 0 0 0 2 0 3 0 0 1 0 1 0 1 0 2 1 1 1 2 0 1 0 1 0 1 1 1 2 1 2 0 1 0 0 2 0 0 0 1 2 1 0 2 2 0 2 0 1 1 0 2 1 0 2 0 1 1 0 1 4 0 0 1 0 1 0 1 2 0 1 0 0 1 1 2 0 2 0 2 0 0 1 1 2 1 2 1 0 1 1 0 0 1 1 0 1 1 0 2 0 1 0 0 0 2 0 2 0 1 1 0 0 0 0 1 1 1 1 1 0 0 4 1 0 0 1 2 3 1 0 0 1 1 2 2 1 2 0 0 0 1 2 0 2 2 0 1 0 1 0 0 1 0 0 1 1 3 0 1 0 2 1 1 0 2 0 2 0 2 0 1 1 0 0 3 0 0 1 2 0 0 2 0 1 0 0 0 1 1 1 1 2 0 0 2 1 0 1 0 1 0 0 1 1 1 1 0 1 1 0 1 0 1 2 0 0 1 0 2 0 0 0 0 1 0 1 1 1 2 1 1 0 0 3 0 1 1 0 1 0 1 1 1 1 2 0 0 1 1 2 2 0 0 1 0 0 1 0 0 1 2 0 0 1 0 0 1 0 0 0 1 1 0 0 1 1 0 0 1 1 2 1 0 0 2 0 1 2 1 1 0 0 1 3 0 0 0 1 3 0 1 1 1 0 2 2 0 1 1 0 0 1 0 0 0 3 1 1 0 0 0 1 2 1 0 0 1 0 2 0 0 0 0 0 1 2 0 2 0 1 1 2 0 1 0 0 0 0 0 1 3 0 1 2 0 2 1 1 0 1 1 2 1 2 1 2 1 1 3 0 2 1 0 1 1 0 0 0 1 1 1 1 0 1 3 1 0 1 0 1 1 1 1 0 0 0 1 1 1 2 0 1 1 0 0 2 0 1 2 0 0 0 0 0 4 1 0 1 0 2 3 2 1 0 1 1 2 0 2 0 1 2 0 0 1 0 0 2 0 3 0 0 0 1 1 0 0 1 3 0 2 0 0 0 1 0 1 1 1 0 1 0 1 1 0 0 1 0 1 0 3 1 1 1 1 1 1 1 0 1 0 1 1 2 1 2 1 0 0 1 3 0 0 0 0 1 0 1 1 0 1 2 0 0 2 0 1 0 0 1 1 1 0 1 0 0 0 1 0 1 2 3 1 1 0 1 0 2 0 2 1 1 0 2 2 1 0 1 0 1 3 1 0 0 0 0 2 0 1 0 1 2 1 0 2 0 3 1 0 1 0 2 1 0 2 0 0 1 0 0 2 0 0 0 1 0 0 2 0 1 0 1 1 0 0 0 0 0 1 0 0 1 0 2 0 1 2 2 0 0 2 1 2 1 1 0 0 0 2 0 1 1 2 2 0 1 1 2 2 2 2 0 0 0 1 3 1 1 1 1 1 1 1 0 2 2 0 2 1 2 0 0 1 0 1 3 1 2 2 0 0 1 1 1 0 0 0 1 0 1 1 0 0 0 1 1 1 0 0 0 1 0 0 1 2 0 0 0 1 2 2 0 0 0 2 0 0 0 1 0 2 1 2 1 1 1 1 1 0 1 0 0 2 2 0 1 2 1 0 1 1 0 0 1 1 3 2 0 0 0 1 2 1 0 0 1 1 0 1 1 0 1 0 1 0 0 0 0 2 1 1 2 2 0 0 1 3 2 1 1 1 1 1 2 0 0 0 1 0 0 1 0 1 0 1 1 0 0 0 0 0 1 1 1 0 1 0 1 0 1 0 0 0 1 0 0 1 1 4 0 0 0 0 0 1 3 2 0 0 2 1 3 1 1 0 0 1 3 2 0 0 0 1 0 2 0 0 0 0 0 2 1 1 0 1 1 0 1 0 0 0 0 0 0 2 1 1 0 0 1 2 0 1 0 1 0 1 0 1 1 0 0 1 2 1 1 0 0 1 0 1 0 2 0 0 0 0 1 2 2 1 2 0 1 0 0 2 1 2 3 2 2 1 2 0 1 2 1 1 0 0 1 0 0 0 0 1 0 0 0 0 1 0 1 1 1 1 1 3 1 1 0 0 1 1 1 1 1 1 0 1 1 1 3 1 0 1 1 1 2 1 2 1 1 1 1 1 3 1 1 1 1 1 0 0 1 0 1 1 0 1 0 0 0 0 2 0 0 1 1 1 0 1 2 1 0 0 1 1 0 2 0 0 1 0 0 1 1 2 0 2 2 0 1 2 0 1 0 1 0 0 0 1 1 1 0 2 1 0 2 2 1 2 1 1 1 0 0 2 0 2 0 0 0 1 2 0 4 1 1 0 0 1 0 0 1 0 1 1 0 1 1 1 1 0 0 0 0 1 0 0 0 0 0 0 1 1 2 1 1 0 0 1 0 0 0 1 1 0 0 0 0 0 0 1 3 3 2 1 1 1 4 1 1 0 1 2 0 1 0 0 2 0 0 0 1 0 1 0 0 0 3 1 0 0 0 0 0 2 0 1 0 0 0 0 2 1 1 1 1 3 3 0 4 0 0 3 1 1 0 0 3 2 0 2 0 1 0 1 1 0 0 1 0 1 1 0 0 2 2 1 0 1 0 1 1 1 3 2 0 0 2 1 0 0 1 0 1 0 1 0 0 2 1 0 2 0 0 1 2 0 0 0 1 1 1 1 0 1 0 0 2 0 1 0 0 2 0 1 0 1 0 0 1 0 0 0 0 2 0 1 1 2 2 0 2 1 0 0 1 0 1 0 0 2 0 0 0 0 1 0 2 0 0 0 0 1 2 1 1 1 0 1 1 0 1 0 1 0 1 1 1 1 1 1 0 0 0 2 0 3 1 1 1 0 2 3 1 1 3 0 0 1 0 1 0 1 1 1 2 0 1 1 2 3 2 2 0 0 1 0 1 0 0 1 0 1 0 2 0 2 0 2 1 0 0 4 1 0 0 2 0 0 1 0 1 0 0 0 1 0 1 0 0 2 0 3 2 3 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 1 1 0 0 1 2 0 0 0 0 0 1 1 1 0 1 0 0 0 1 3 0 0 1 1 0 0 0 1 0 2 1 1 1 0 2 0 0 2 2 3 0 0 1 1 0 2 1 0 1 0 1 2 1 2 2 0 0 0 0 0 0 0 0 2 1 2 2 2 0 0 0 0 1 1 0 0 1 1 0 2 1 0 0 1 0 1 0 0 2 2 1 1 2 0 0 2 1 0 0 2 1 1 1 1 0 0 0 0 0 1 1 0 1 0 0 1 1 0 1 1 0 0 0 0 0 1 1 2 0 2 0 0 1 2 0 1 0 1 1 1 1 0 2 2 1 2 1 3 0 1 4 1 2 0 0 1 0 0 1 1 1 0 0 0 1 2 0 2 1 0 1 1 0 0 1 1 0 1 0 2 0 1 1 0 0 0 2 1 0 0 2 1 1 2 0 0 0 1 0 0 1 1 1 0 0 0 1 0 1 1 1 1 2 0 0 1 1 1 1 0 0 3 2 0 0 0 0 1 2 4 1 0 1 2 0 2 0 0 1 2 0 0 0 0 0 0 2 1 0 1 1 2 1 1 1 0 0 0 0 1 1 2 0 1 0 2 1 1 0 1 2 2 1 2 0 0 1 1 1 2 0 0 0 0 0 0 1 1 1 0 1 0 2 0 0 0 2 2 1 0 2 2 2 0 1 1 0 1 0 1 0 2 1 0 3 2 1 0 3 1 1 1 2 0 0 2 0 3 2 1 2 0 0 3 1 0 0 0 1 1 0 0 4 0 1 0 0 2 0 1 0 0 2 0 2 0 1 1 1 0 0 0 0 0 0 0 2 1 3 1 1 1 1 1 0 0 0 1 0 0 0 1 1 1 0 0 2 1 1 1 0 0 0 0 1 1 0 2 2 0 0 0 1 0 1 1 1 2 1 1 0 0 0 1 1 2 2 0 0 1 0 1 0 1 2 1 1 0 0 0 2 0 0 1 2 0 1 2 1 1 0 2 0 0 1 0 2 0 1 0 1 0 1 2 0 0 0 0 1 1 1 2 0 2 0 0 0 2 0 1 0 0 1 0 2 0 0 1 1 0 1 2 0 0 1 0 0 0 0 1 0 0 0 1 1 1 1 1 1 0 1 1 0 3 0 0 0 0 0 1 0 0 1 1 0 0 1 0 0 0 0 0 1 1 1 2 1 1 2 3 1 1 1 0 1 0 1 1 1 2 2 0 0 0 1 0 0 0 1 1 0 0 0 0 0 2 2 0 1 0 1 1 1 2 2 2 1 2 0 1 1 2 1 1 1 0 1 0 0 0 0 1 0 1 1 1 0 0 1 1 1 1 0 1 0 2 0 0 2 2 1 1 0 1 0 1 0 1 0 0 2 2 0 0 3 1 1 0 0 0 2 0 2 0 1 0 1 0 0 0 2 0 0 1 0 2 0 0 2 0 0 1 0 1 0 0 0 0 1 1 2 1 0 0 3 1 0 1 3 0 0 1 1 0 2 0 2 0 2 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 1 2 1 0 1 0 0 0 1 3 1 0 0 2 1 0 1 0 0 0 1 1 0 1 1 0 1 1 0 1 2 2 1 0 3 0 1 0 1 0 0 2 2 1 1 3 1 0 0 2 1 0 1 0 0 2 1 1 0 0 2 0 2 0 0 0 0 2 1 1 0 1 2 1 0 2 0 0 0 1 0 0 0 0 3 1 0 0 2 0 1 0 1 2 1 0 2 0 3 0 1 0 1 2 0 0 0 1 1 0 1 1 2 2 1 1 0 2 1 1 0 1 1 1 1 0 1 0 0 1 1 1 0 1 2 2 0 0 0 1 1 0 0 1 1 0 4 1 1 1 0 1 0 0 2 0 1 2 0 1 2 0 0 0 2 1 1 2 2 1 3 1 2 0 0 1 0 0 1 0 0 0 0 1 1 0 1 0 0 0 1 0 3 0 3 1 2 1 0 0 1 1 2 1 0 1 0 0 1 0 0 1 1 0 1 3 1 3 1 2 1 1 1 0 0 1 0 0 0 0 0 2 0 1 2 1 0 0 1 0 1 0 1 2 0 0 0 0 1 1 0 1 1 1 1 0 1 0 1 1 2 1 3 1 0 0 1 0 3 2 1 1 0 0 0 1 0 0 1 2 1 0 1 0 1 0 1 2 2 2 0 0 1 0 1 1 1 1 0 1 1 0 0 2 1 2 1 2 2 2 0 1 0 2 1 0 1 3 0 1 2 2 2 1 2 0 1 1 0 1 1 1 1 1 1 0 1 1 1 0 3 0 1 0 0 0 1 0 2 1 1 0 0 0 0 0 1 1 0 1 2 3 0 1 2 1 0 1 0 0 0 0 2 1 0 0 2 0 0 0 1 1 0 2 0 0 1 3 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 1 0 1 0 1 0 1 1 1 1 0 2 1 2 3 1 1 1 1 1 0 2 2 0 0 0 0 1 1 0 1 0 1 1 1 0 0 0 1 0 1 0 0 1 1 1 0 1 1 1 1 1 0 1 1 0 0 1 1 2 0 1 0 0 1 0 0 2 0 0 0 2 3 0 2 1 1 0 0 2 2 0 0 1 0 0 4 1 0 0 0 1 1 1 1 2 0 2 2 0 0 0 2 2 1 1 0 1 0 0 1 1 1 0 1 1 0 2 0 1 0 0 0 1 0 0 0 2 0 2 1 1 2 0 1 1 2 0 0 0 0 0 1 0 0 1 0 0 2 2 2 1 3 2 0 0 0 2 2 0 0 4 1 1 1 2 0 1 0 0 1 2 1 1 1 2 0 1 0 0 0 1 2 1 0 1 1 0 0 1 3 2 0 1 0 0 2 0 0 3 1 2 0 0 1 1 0 0 0 1 1 1 1 0 2 1 0 0 1 1 0 1 1 0 2 1 0 1 0 0 2 0 1 2 1 0 1 1 1 0 0 1 0 0 0 1 2 1 0 0 0 1 0 0 0 1 1 0 0 1 1 0 1 1 0 0 1 2 0 1 0 2 0 1 0 1 1 1 2 1 0 0 0 0 0 0 1 1 0 2 0 0 1 1 0 1 1 0 3 2 3 0 0 2 0 1 1 3 0 0 2 1 0 1 2 0 1 0 1 1 1 2 2 0 1 2 1 0 1 0 0 0 1 0 0 0 1 0 1 1 1 0 1 2 0 2 1 0 0 0 1 1 0 1 1 0 1 2 0 0 0 2 2 1 1 0 0 0 0 0 0 0 1 1 1 2 0 0 3 1 0 0 0 1 3 2 1 1 1 1 0 2 1 1 2 1 1 0 2 1 0 1 0 0 1 0 0 0 1 1 0 0 2 1 1 0 2 2 1 0 1 1 1 1 0 1 2 0 1 3 0 0 0 0 1 0 0 1 1 1 0 0 1 1 2 1 1 0 0 0 0 1 1 1 1 0 0 1 1 2 0 1 2 1 0 0 1 2 0 0 0 1 2 0 1 1 1 1 3 1 0 2 1 0 0 0 3 1 0 0 1 1 1 0 1 2 0 2 1 0 0 1 3 0 1 0 3 1 1 1 1 0 3 0 1 0 2 0 0 2 1 1 1 0 1 2 0 1 0 0 1 1 1 0 1 0 4 1 0 1 0 1 2 1 0 0 2 1 0 0 1 0 1 1 1 2 1 0 0 0 0 1 1 1 1 1 2 3 0 2 1 0 1 0 1 0 0 0 1 2 1 0 2 1 0 1 1 2 2 0 0 0 0 0 1 4 0 0 0 0 1 0 0 1 0 1 3 1 0 1 0 1 0 0 4 0 2 1 1 0 2 0 0 1 0 0 0 0 0 1 2 1 1 2 1 0 0 0 0 1 0 1 1 1 1 0 1 2 0 1 0 0 0 1 1 0 1 0 0 0 0 1 0 1 1 0 1 1 2 2 1 1 1 1 0 1 0 2 3 0 1 0 2 1 2 2 0 0 0 1 0 0 1 1 0 1 0 1 2 1 0 2 0 1 3 1 2 2 1 0 2 3 1 0 1 1 1 0 0 0 0 0 1 0 1 1 0 0 0 0 1 0 1 0 2 0 1 1 3 0 0 1 1 1 2 0 1 0 0 1 1 1 0 0 0 0 1 2 0 2 1 2 0 1 1 0 1 1 2 1 0 1 1 0 0 1 0 0 1 1 3 0 0 0 1 0 1 1 0 0 1 1 1 0 1 2 1 2 1 0 1 0 0 3 0 1 1 1 1 1 1 1 0 1 0 0 2 0 0 0 2 1 2 1 0 0 1 1 0 2 0 0 1 0 1 0 1 2 0 0 1 0 1 1 0 1 1 2 0 0 1 1 2 0 0 0 0 0 0 1 0 0 0 1 2 1 1 0 1 0 0 1 1 2 3 0 0 0 1 0 1 1 2 2 3 0 0 0 0 1 0 1 0 0 1 0 1 2 1 1 0 1 0 0 0 1 0 1 0 0 1 1 1 0 0 0 1 1 0 1 1 0 0 0 1 0 1 0 0 1 1 3 2 1 2 1 0 2 0 2 1 1 1 3 1 0 3 1 0 2 0 0 0 1 1 1 0 0 1 0 2 1 0 0 0 1 0 1 0 3 0 2 0 0 0 0 0 2 0 0 0 3 0 0 1 0 0 1 2 1 0 2 2 2 0 3 2 0 1 0 1 1 2 1 0 1 0 0 1 0 0 2 1 0 0 1 1 1 1 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 1 1 0 0 1 0 2 0 0 1 1 0 3 0 2 0 1 1 0 2 1 1 1 1 0 0 2 0 2 3 1 1 0 0 0 0 1 0 1 1 0 2 0 1 1 5 0 2 0 0 0 0 0 3 1 1 1 1 1 0 0 1 2 0 1 0 1 2 1 0 4 0 2 2 0 0 2 1 0 1 0 2 0 1 1 1 2 1 2 0 0 1 1 0 0 1 1 1 1 1 0 2 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 1 2 0 1 0 1 1 1 1 1 1 0 1 0 1 1 0 0 0 2 0 1 0 2 1 1 0 0 0 0 0 0 0 1 1 1 0 2 0 0 2 1 0 0 0 0 1 0 1 0 1 0 0 1 1 2 1 2 1 1 0 0 1 0 1 1 2 1 0 0 0 2 1 0 0 0 0 1 1 0 1 1 1 0 0 1 2 1 0 0 3 0 0 1 1 1 0 1 2 1 0 0 0 2 0 1 1 0 1 0 1 1 1 0 1 0 2 1 0 2 0 1 0 0 0 0 1 3 1 0 1 0 1 1 1 0 1 0 1 2 0 0 1 0 0 2 1 2 1 0 0 2 1 2 0 0 0 1 0 2 0 0 3 0 1 2 1 3 0 0 0 1 0 2 3 0 0 2 1 2 1 0 1 0 0 0 0 1 1 1 1 1 0 1 0 4 2 1 2 0 0 0 1 0 1 0 0 0 3 0 2 2 0 0 0 2 1 0 1 0 2 1 0 2 0 0 3 0 1 1 1 1 3 1 0 0 2 0 2 0 1 1 0 1 2 2 1 0 0 0 1 2 0 1 1 2 1 1 1 0 1 0 1 1 2 2 1 1 1 1 1 1 0 0 0 0 1 1 0 1 0 1 1 1 0 0 2 1 1 0 0 1 1 0 1 0 0 0 1 0 0 1 1 0 0 0 0 1 1 0 2 0 0 1 2 1 0 0 0 1 1 0 0 0 0 0 0 1 0 0 3 1 2 0 2 1 0 4 0 0 0 0 0 1 1 1 1 0 1 0 0 0 0 0 1 0 0 0 0 0 1 1 2 1 2 0 3 0 2 1 0 1 0 0 2 1 1 1 0 0 1 1 1 2 0 0 0 4 2 2 1 1 5 0 0 0 1 0 1 0 1 1 0 0 1 1 1 1 0 0 0 1 0 0 2 0 1 0 1 1 1 1 0 2 1 1 1 0 0 0 1 0 0 1 1 0 3 1 0 0 0 1 1 0 3 2 2 1 1 2 0 0 1 3 1 0 2 1 2 2 1 1 0 0 2 0 0 1 1 0 2 2 3 0 1 2 0 0 0 0 0 0 3 1 1 0 1 0 1 1 2 1 0 0 0 0 2 0 0 0 1 0 0 0 1 0 1 0 2 0 0 1 0 1 1 0 3 0 0 0 2 1 0 0 1 0 0 3 0 1 0 0 2 1 1 0 1 1 0 3 0 2 1 1 1 0 2 1 1 0 0 3 0 0 0 0 0 2 0 1 0 0 0 0 0 2 2 1 1 0 0 0 2 0 2 0 0 0 1 1 0 1 1 1 2 2 1 2 0 4 1 1 1 3 0 2 3 1 1 1 2 0 3 1 2 2 0 0 0 1 1 0 1 2 0 0 1 1 1 0 0 2 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 2 1 0 1 1 1 0 0 0 0 2 0 1 0 0 0 1 0 1 0 3 2 0 0 0 0 0 2 2 1 0 1 3 1 1 0 1 2 0 1 0 1 1 1 1 0 2 0 1 1 2 2 1 1 2 0 1 2 0 0 0 1 0 3 1 2 1 0 1 1 2 2 0 0 0 1 2 0 1 1 2 1 1 1 2 1 0 1 2 1 1 0 0 0 2 1 0 1 0 1 0 1 0 0 2 1 2 0 0 0 2 0 0 0 0 2 2 0 0 1 1 0 3 0 1 3 0 1 0 0 1 1 1 1 0 0 3 1 1 0 0 1 1 0 0 0 1 2 1 0 0 0 1 1 1 0 1 0 2 1 0 0 2 0 2 0 1 1 0 0 1 2 0 1 1 0 0 0 1 1 1 0 0 0 0 1 0 0 2 0 0 2 1 0 0 1 1 0 0 1 1 1 3 1 0 1 1 1 1 0 0 1 1 3 0 2 2 0 3 0 1 1 0 2 0 0 0 2 0 1 2 0 0 3 3 2 0 0 0 0 1 2 2 0 0 1 0 1 0 1 0 0 0 2 2 2 1 2 0 0 2 0 2 2 1 0 0 2 2 0 0 0 0 1 1 0 0 1 0 1 0 1 1 1 1 1 1 1 1 1 3 1 1 0 0 2 1 1 1 1 0 1 0 0 0 1 2 0 2 2 1 2 0 1 0 2 1 2 0 1 2 0 0 1 1 2 1 2 0 1 0 2 1 0 0 0 2 0 2 0 1 1 0 2 0 1 1 1 0 0 0 0 0 0 0 0 0 0 1 2 0 0 1 1 1 2 0 3 1 2 0 0 0 0 1 0 1 2 0 2 0 0 2 1 2 1 2 1 2 2 1 0 0 1 0 0 0 2 0 0 2 0 1 2 3 0 1 1 2 0 1 2 1 1 1 0 0 1 1 4 2 1 2 1 1 1 1 1 0 1 3 3 0 0 0 0 1 3 1 1 3 2 0 2 0 1 0 0 0 0 0 0 1 1 1 2 2 2 0 0 2 1 0 1 2 1 1 2 1 1 2 2 0 1 3 2 0 1 1 1 1 0 0 1 0 2 0 0 1 0 1 0 0 1 3 1 0 1 1 1 1 1 0 1 0 1 0 0 0 1 0 0 0 1 1 1 1 0 1 1 2 1 0 1 0 1 0 3 0 1 0 0 0 1 2 3 0 1 1 1 2 1 0 0 0 0 0 1 1 0 1 2 1 1 0 0 0 1 0 1 3 0 0 0 0 0 0 0 2 0 1 2 0 1 0 0 0 0 0 0 0 3 2 0 2 0 0 2 1 1 0 1 1 1 0 0 1 0 0 2 1 0 0 0 1 1 0 0 0 1 0 1 2 0 0 1 1 2 0 1 0 1 1 2 1 0 2 2 1 0 0 2 2 0 0 0 0 1 0 0 0 3 0 1 0 0 0 0 0 1 1 0 1 1 1 0 0 0 0 0 0 0 1 0 1 0 1 2 1 0 1 0 0 1 1 3 1 0 1 2 0 0 0 1 0 1 0 0 0 0 1 1 0 0 0 1 0 0 1 0 3 0 0 0 1 2 0 0 1 1 0 0 0 2 1 1 2 0 0 1 2 1 0 2 0 2 1 2 0 0 1 1 0 0 0 0 0 0 1 0 2 1 0 0 0 0 0 0 1 1 0 0 1 0 1 0 0 0 0 0 1 0 0 1 1 0 1 3 2 0 1 1 1 0 1 1 0 1 2 0 1 1 1 1 1 0 0 1 0 1 0 1 2 1 3 0 1 1 2 2 0 1 0 1 0 1 0 2 0 1 0 1 0 0 0 0 0 2 0 0 1 1 2 1 0 2 1 0 0 1 2 0 1 1 0 0 1 1 2 1 0 1 3 0 1 2 0 0 0 1 1 0 1 0 2 0 0 1 2 0 0 1 1 2 2 0 0 3 1 3 3 0 2 0 0 2 0 1 0 0 0 0 1 1 0 2 1 0 0 1 2 1 1 2 1 0 0 0 1 0 1 1 0 2 2 0 2 0 0 1 0 2 2 1 0 1 1 1 2 1 0 0 0 0 4 0 0 1 0 0 0 1 1 2 0 0 1 1 0 1 1 0 0 1 1 0 2 1 1 2 2 0 1 0 1 1 0 1 1 2 0 1 1 0 0 1 1 0 2 0 1 2 1 1 0 1 2 1 0 1 2 2 1 1 1 0 2 0 0 0 1 1 1 0 0 3 1 1 1 1 1 0 0 1 1 1 2 0 0 0 1 0 1 0 0 0 2 0 1 1 2 0 0 1 1 0 1 0 1 2 2 3 0 0 2 2 0 0 3 1 0 0 1 0 1 1 1 0 0 0 1 1 1 0 0 2 1 0 1 1 1 1 1 1 0 0 0 0 1 0 0 1 0 0 0 2 2 0 0 1 3 0 0 1 1 3 0 0 3 1 1 0 1 1 4 0 2 0 0 1 1 1 0 0 1 0 2 1 1 2 1 1 1 2 1 0 1 1 1 1 0 0 1 1 0 1 1 1 2 4 0 1 0 1 0 1 0 0 1 3 0 1 1 3 2 0 2 2 2 1 1 1 0 1 2 2 2 0 1 1 0 2 1 1 1 1 2 1 0 0 0 0 2 1 0 2 1 0 1 1 0 1 0 1 0 1 3 1 2 1 2 0 1 1 1 1 2 0 1 0 1 1 1 1 2 0 1 1 1 1 0 0 1 0 0 2 1 1 0 0 1 0 1 2 0 2 0 0 1 2 1 1 1 0 0 1 1 0 0 0 2 0 0 2 0 0 0 3 0 0 0 0 0 2 2 1 1 1 0 0 2 0 2 1 0 1 3 0 1 1 0 1 2 0 2 1 0 0 0 0 0 0 0 0 0 2 1 3 0 0 2 0 0 0 1 0 1 1 1 3 1 1 0 0 0 0 0 0 1 0 0 0 2 0 0 3 0 0 0 1 0 0 2 0 0 1 0 1 0 1 1 1 0 0 2 0 2 0 0 1 1 2 1 2 0 0 1 0 1 0 2 0 0 1 2 1 1 2 1 0 1 2 1 1 0 2 1 0 0 2 0 1 1 0 0 0 1 0 2 0 0 2 1 0 2 0 2 0 0 0 1 0 0 0 0 0 0 1 1 0 2 0 1 2 0 1 1 1 2 2 1 1 2 0 4 0 1 4 2 1 1 1 2 2 2 1 1 1 1 0 1 0 1 0 1 1 1 1 0 0 3 2 3 0 0 0 0 1 2 1 1 1 1 1 0 1 2 0 1 1 2 1 0 1 2 0 2 0 0 0 1 1 0 2 0 0 1 2 1 0 2 0 0 2 2 1 1 0 0 1 0 0 3 2 2 0 0 1 2 0 0 0 3 1 1 0 1 0 1 2 0 0 1 0 2 0 1 1 2 1 0 2 0 0 2 0 1 2 0 1 0 1 0 2 2 3 2 0 0 1 0 0 0 1 1 2 0 3 0 0 0 2 1 1 0 1 0 1 0 1 1 1 0 0 0 1 0 1 1 0 2 2 0 2 1 1 0 2 1 1 0 0 0 2 1 0 1 0 0 1 0 2 1 1 2 1 0 1 0 1 0 1 0 1 2 2 1 1 0 2 0 0 2 0 0 0 0 1 1 0 1 2 1 0 2 0 2 0 0 1 2 1 1 3 1 1 0 1 1 1 0 0 1 1 1 1 1 2 1 0 0 0 1 0 1 0 2 0 1 0 0 1 1 2 2 2 0 0 0 0 0 2 1 0 0 1 0 1 1 2 0 0 1 0 0 2 0 1 1 0 1 0 2 0 0 1 1 1 2 2 0 1 1 0 0 1 0 1 0 0 1 1 0 0 1 1 1 0 0 0 1 2 0 1 0 0 0 1 1 1 2 1 1 1 0 2 0 1 1 0 2 1 0 1 0 0 1 0 1 2 0 3 1 0 1 0 1 1 1 1 2 2 1 0 1 1 0 4 0 1 0 2 1 2 1 2 1 3 0 1 1 1 0 0 1 0 1 2 1 0 1 1 0 2 0 2 1 0 0 0 1 1 0 3 2 0 0 0 1 3 0 1 0 1 1 1 0 0 1 0 0 0 0 0 1 2 0 0 0 1 1 0 0 0 1 1 0 3 0 2 0 1 1 0 1 1 0 1 0 1 2 1 1 3 0 2 0 0 2 1 1 1 1 0 2 1 2 0 1 0 0 1 0 2 1 0 2 0 1 0 1 2 1 2 2 1 1 1 1 2 2 1 0 1 0 0 2 0 2 1 1 0 2 1 0 1 0 1 2 0 0 3 1 1 1 2 2 1 0 0 0 1 0 0 2 1 2 0 0 2 0 1 1 1 0 0 1 1 1 0 0 1 2 0 2 1 0 3 0 1 1 0 2 1 1 1 1 1 1 1 1 0 2 0 0 1 1 0 0 0 1 0 1 1 0 0 1 0 1 0 0 0 0 0 2 1 1 0 0 2 0 1 0 1 1 0 0 0 1 1 0 0 1 0 0 0 0 2 0 1 2 0 1 0 1 2 0 0 1 0 0 0 0 1 1 0 1 1 2 3 1 0 0 0 1 1 1 4 0 1 1 2 2 0 0 0 2 0 0 0 1 1 0 0 0 0 1 0 1 1 0 0 3 0 1 0 1 1 1 2 0 1 1 1 1 0 0 1 0 1 0 0 2 0 1 0 0 1 1 1 2 1 0 0 0 1 0 0 0 1 1 0 0 0 0 0 2 1 1 2 2 0 1 0 1 0 0 2 0 2 0 1 2 2 0 0 0 1 0 1 1 1 0 0 0 0 0 1 2 0 2 4 0 0 0 1 0 2 0 0 1 0 1 3 1 1 0 0 2 3 1 1 0 1 0 2 0 0 2 0 1 0 0 0 1 0 2 1 0 0 5 1 0 1 2 0 1 0 0 1 1 4 3 1 0 1 0 2 2 2 0 0 2 2 1 0 0 0 1 1 0 2 1 2 1 1 0 0 2 1 2 0 0 1 1 0 1 0 1 0 1 0 0 1 2 1 0 1 1 1 0 2 0 3 0 1 0 2 2 1 1 0 1 1 1 1 0 3 1 0 0 1 1 0 2 0 0 1 1 1 1 0 1 1 0 2 1 0 0 0 0 2 0 0 1 0 1 3 0 1 0 0 1 1 1 0 0 2 1 2 0 0 0 1 2 1 0 1 0 2 1 0 1 0 2 0 1 1 2 2 0 0 0 2 0 0 0 1 2 0 0 0 2 1 1 0 0 1 2 0 0 3 1 1 2 2 2 0 1 3 1 3 1 1 1 1 0 2 0 1 1 0 1 2 2 0 2 1 2 1 1 0 1 1 0 0 3 3 0 0 1 1 0 0 0 1 1 0 2 0 1 0 1 1 1 2 1 1 0 0 3 0 0 1 1 0 1 2 1 0 0 0 2 3 2 1 0 1 0 1 1 0 1 1 0 1 2 3 0 0 0 0 0 2 0 0 1 0 2 1 1 1 1 0 1 1 2 0 0 1 1 1 0 2 0 1 0 0 2 1 2 2 1 0 1 0 1 0 0 1 0 1 1 0 0 2 2 0 2 1 0 0 1 0 0 0 2 1 1 1 1 1 1 0 0 1 1 2 1 0 1 0 0 1 0 1 1 1 0 1 2 0 0 1 1 1 0 0 1 1 1 1 0 1 2 1 1 1 0 0 0 1 1 1 0 1 0 0 0 0 2 1 2 1 1 0 1 2 3 1 1 1 2 1 0 0 0 1 1 2 1 2 0 1 0 1 0 1 2 1 0 1 0 0 1 0 0 1 0 2 1 2 0 2 0 3 0 1 2 1 1 1 0 2 0 2 0 1 2 0 2 1 0 2 1 0 0 1 1 0 0 0 1 0 0 1 1 0 0 0 1 1 1 0 3 2 1 2 1 1 1 1 1 0 1 1 0 2 0 0 1 3 0 1 1 1 0 0 1 0 0 1 0 0 2 2 1 0 1 1 0 0 0 1 1 0 3 0 0 0 2 0 0 3 0 0 0 1 0 1 2 0 0 0 1 1 0 1 2 2 0 1 1 1 2 0 2 1 0 2 1 0 0 0 0 1 0 0 2 1 1 0 1 0 0 1 0 1 1 1 0 0 1 1 0 0 1 0 1 2 1 0 3 1 2 0 0 0 2 0 3 0 1 1 0 1 1 0 0 1 1 1 0 2 0 0 0 0 1 0 1 1 0 1 1 0 0 0 0 1 0 0 3 0 1 1 2 0 2 0 0 1 1 0 2 0 1 1 0 2 0 0 1 0 0 0 1 0 1 1 1 1 0 1 0 2 2 0 1 3 0 0 0 1 3 0 2 1 1 0 1 2 1 1 1 1 3 1 1 0 0 0 0 0 0 1 0 2 2 1 2 0 0 2 2 0 1 0 3 2 2 0 2 0 3 0 1 1 1 0 0 0 1 0 1 0 1 1 2 1 0 1 1 1 0 2 1 0 1 0 0 0 1 1 0 1 1 2 2 1 0 0 1 2 1 1 0 0 1 4 1 1 1 2 3 1 0 0 0 1 0 0 0 1 1 0 1 2 1 1 1 0 2 1 0 0 0 1 0 0 0 0 1 0 0 1 1 0 0 0 0 0 1 3 1 0 0 1 1 0 0 0 0 0 0 2 1 0 1 0 1 0 2 3 2 1 1 0 2 1 0 4 0 0 1 0 0 0 1 3 1 1 1 0 1 0 1 1 0 0 0 0 2 0 1 1 1 1 3 1 1 1 0 2 0 0 0 0 0 0 0 0 2 1 1 1 2 0 2 1 1 1 1 1 0 1 2 0 1 0 0 1 0 2 0 1 2 1 1 1 1 0 0 2 0 1 0 0 0 0 2 1 0 2 1 2 0 0 2 0 0 1 0 2 1 0 1 0 0 1 1 0 0 2 1 0 0 2 1 2 1 0 0 0 0 1 0 1 1 0 0 1 1 0 0 3 0 0 2 0 1 1 0 1 1 1 0 0 2 0 0 0 0 1 1 0 1 0 0 1 1 2 0 0 2 1 1 1 0 2 1 1 0 0 0 0 1 0 1 2 2 0 2 1 0 0 0 1 0 2 2 0 1 0 0 1 0 0 1 2 0 0 0 1 0 1 1 0 0 1 2 3 0 1 1 2 1 0 1 0 0 0 0 0 0 0 0 0 1 1 1 0 0 1 2 1 0 0 1 1 0 1 0 0 0 0 1 1 1 3 1 1 3 0 0 0 1 2 2 1 0 1 0 0 0 1 1 1 0 2 0 2 0 0 2 2 0 0 0 1 1 2 0 0 3 0 1 2 1 1 1 1 0 1 2 0 0 1 3 0 1 0 1 0 1 1 1 1 3 1 1 1 0 1 0 3 1 0 1 0 1 3 2 1 1 0 0 0 0 3 0 1 1 1 0 0 0 1 0 0 4 1 0 2 0 0 1 1 0 1 0 2 3 1 1 0 0 0 0 0 1 0 1 1 1 2 2 2 2 1 0 0 0 0 1 1 1 2 0 2 1 0 2 2 0 0 0 0 2 1 0 2 0 0 2 1 0 1 2 2 1 0 0 1 0 1 0 2 0 1 2 0 1 0 0 0 0 1 1 1 2 0 0 0 0 1 1 2 1 2 0 0 0 2 0 0 1 0 2 3 2 0 0 1 1 2 0 0 0 1 0 0 0 0 1 1 0 2 0 0 0 1 5 2 1 0 2 0 1 0 0 0 0 2 0 0 0 1 0 1 1 1 0 2 2 0 1 0 0 1 0 0 1 2 0 0 2 0 2 1 2 3 0 1 0 0 1 0 0 1 0 0 1 0 0 1 0 1 1 0 1 0 4 1 0 0 0 1 1 0 1 1 1 2 0 0 0 0 0 1 1 0 1 0 0 0 1 0 0 3 2 0 2 0 0 0 1 0 1 1 0 2 3 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 1 0 1 2 2 2 2 1 2 2 2 1 2 1 0 1 1 2 0 1 0 0 0 1 0 2 0 2 1 3 1 1 0 0 3 0 0 1 1 1 1 2 0 0 0 1 2 0 0 0 0 1 4 0 2 0 1 0 1 2 0 0 2 0 1 1 2 1 0 2 0 0 0 2 1 2 0 0 2 2 0 0 0 0 3 1 0 1 2 1 0 0 1 1 0 1 1 0 1 1 0 3 1 1 0 1 0 1 0 1 0 1 1 0 0 0 0 0 3 1 1 1 2 0 0 0 3 2 1 1 2 1 0 1 2 2 0 0 3 2 1 1 0 1 0 2 1 1 0 1 0 0 2 0 0 0 1 0 1 0 0 0 2 1 1 0 1 2 0 0 0 1 0 2 1 0 2 0 0 1 0 0 1 0 2 0 0 0 1 1 1 1 1 1 1 1 2 1 1 4 0 0 0 2 0 0 1 0 0 0 1 1 0 1 1 1 0 0 0 0 3 1 3 0 0 0 1 1 1 3 0 1 2 1 3 1 1 1 0 0 0 1 1 2 1 0 2 2 0 2 1 1 1 0 1 3 1 0 3 0 1 1 0 0 0 4 2 0 0 0 0 0 2 1 0 1 1 0 0 0 0 0 2 0 1 0 0 0 0 1 0 0 1 0 1 2 1 0 0 1 2 0 1 0 0 1 1 0 0 1 0 1 1 0 0 1 0 0 0 1 3 2 1 0 0 1 2 1 1 1 1 0 0 0 0 2 1 0 1 1 0 1 0 0 1 1 1 1 4 2 0 0 0 0 0 0 0 1 1 2 3 0 1 2 2 0 1 1 0 1 3 0 0 2 1 0 1 2 1 1 1 0 1 0 1 0 1 0 1 1 1 2 1 2 2 0 1 1 1 1 2 1 0 0 0 1 1 1 1 1 0 0 1 0 2 1 1 1 1 1 0 0 2 2 0 0 0 0 1 1 1 0 0 0 1 1 0 1 2 0 0 1 3 0 0 0 0 0 0 0 0 0 2 1 0 0 2 0 0 1 1 1 1 1 1 0 1 1 1 0 1 0 0 1 1 0 0 1 2 0 2 1 0 0 3 2 0 1 0 1 2 2 1 3 0 0 2 1 3 0 0 2 1 1 2 1 0 0 0 0 2 0 2 0 1 1 0 1 0 0 0 1 0 2 0 1 1 0 2 2 3 0 2 0 2 0 2 0 0 0 0 0 1 1 0 0 0 1 1 0 1 1 2 2 0 1 0 0 0 0 0 0 1 0 3 0 1 1 2 0 1 0 2 0 1 0 1 2 1 1 2 1 0 0 2 2 0 1 1 0 1 0 0 2 0 1 2 1 2 1 2 1 1 1 0 0 0 1 1 0 0 1 0 0 0 0 1 2 0 1 0 4 0 0 0 0 1 0 1 1 1 0 2 0 0 0 1 1 0 1 1 2 3 1 1 2 0 1 2 1 0 1 1 1 1 0 1 2 4 2 0 0 1 0 1 0 0 2 0 2 2 0 2 0 0 1 0 1 0 3 0 1 1 1 0 1 2 0 3 3 0 3 1 2 2 0 2 0 0 0 0 0 0 0 1 1 2 0 2 4 0 1 0 1 0 1 1 1 0 1 0 2 0 0 1 1 0 0 0 1 1 2 1 0 1 2 1 2 1 2 0 0 1 0 0 1 2 1 2 0 2 1 3 1 2 2 0 1 2 1 1 2 0 1 1 0 1 0 1 2 0 0 2 0 0 1 2 1 0 1 1 1 0 1 2 0 0 0 1 1 0 0 0 0 0 0 2 1 2 0 2 1 0 0 1 1 0 1 2 0 0 0 2 0 1 1 1 3 3 2 1 0 1 1 0 1 1 1 2 1 0 0 1 1 2 1 0 2 1 1 0 0 3 0 0 2 1 3 0 1 1 1 0 1 2 2 1 0 1 0 0 2 0 2 1 1 2 0 0 2 1 1 1 4 0 0 2 0 1 0 0 1 0 0 2 1 2 0 1 1 0 0 1 0 1 0 1 0 1 1 0 0 0 0 2 0 2 0 1 0 2 1 0 0 0 1 1 0 3 0 0 2 0 0 0 0 0 1 0 1 0 0 0 3 1 0 3 1 0 0 0 0 2 0 0 1 0 1 1 0 1 0 0 1 0 1 0 0 1 0 0 0 1 0 1 1 1 1 1 1 3 1 1 3 1 0 0 2 1 0 1 1 0 0 1 0 0 0 2 0 1 0 0 0 1 2 1 1 2 0 0 0 1 1 2 1 0 0 1 0 0 1 0 1 1 1 1 0 2 1 0 0 2 0 1 1 1 2 1 1 4 0 2 1 1 0 0 1 1 1 1 2 2 3 2 0 1 1 3 1 1 0 0 0 2 2 5 1 1 2 1 2 1 2 0 1 2 1 1 1 0 1 1 0 2 1 0 0 0 2 1 2 0 1 1 0 1 1 2 1 0 0 0 1 1 0 2 0 0 0 1 0 2 2 0 2 2 0 0 2 1 2 1 1 1 0 0 1 1 2 1 0 2 0 0 1 1 0 0 1 2 0 1 2 0 1 1 1 0 0 0 0 1 0 0 1 1 2 2 2 0 0 5 0 0 1 2 0 1 0 0 1 0 0 0 1 0 0 0 1 1 1 0 1 1 1 1 2 0 1 1 1 1 2 0 0 1 1 0 0 2 1 2 2 1 2 1 0 1 2 0 1 1 1 0 3 0 1 0 1 0 3 0 1 0 1 0 2 0 0 0 1 0 0 2 0 1 2 1 0 0 2 1 3 1 0 1 0 0 0 1 1 0 1 1 2 1 0 0 0 0 0 0 0 2 0 0 0 1 0 2 0 1 2 0 1 2 0 0 0 2 0 0 2 2 2 0 0 1 1 0 0 1 2 2 1 2 2 1 0 2 1 1 0 0 1 2 1 3 2 1 0 0 1 0 1 0 0 2 1 0 1 0 0 0 1 1 3 0 0 1 0 0 1 1 3 0 1 2 0 2 3 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 1 0 0 1 0 1 2 0 1 2 1 1 2 2 1 1 0 1</t>
+    <t>NIG(48.47272183905667, 31.91576568755536, -13.013614243237658, 35.25721919834271)</t>
+  </si>
+  <si>
+    <t>24 34 17 16 15 26 17 3 3 22 32 13 17 19 3 10 21 28 3 16 24 10 17 16 17 0 14 27 27 10 17 16 14 9 23 31 28 16 17 24 0 10 27 23 13 17 16 21 16 17 15 17 9 6 9 34 24 23 27 24 3 9 9 20 16 6 19 39 16 7 24 14 27 27 26 16 26 6 45 11 23 17 35 23 12 20 15 16 7 24 7 17 38 17 0 20 9 7 20 9 10 13 16 21 10 37 21 19 10 24 34 3 20 21 23 7 17 13 14 17 14 25 17 23 11 20 9 24 9 9 27 24 28 21 24 9 16 7 23 34 28 20 26 11 13 9 23 10 23 17 17 14 20 22 16 12 23 9 21 20 17 20 12 7 7 17 13 14 31 20 24 17 10 30 21 24 3 16 13 3 24 26 17 16 10 16 28 9 13 19 21 26 19 13 26 13 15 10 17 9 17 23 27 13 20 13 14 35 9 6 0 16 17 34 20 13 19 17 24 17 18 24 24 17 21 10 16 20 22 21 14 27 21 23 24 14 21 22 14 6 20 20 10 18 10 24 6 7 16 22 27 13 17 13 3 13 6 31 26 21 3 34 12 38 10 10 16 10 22 21 31 6 26 19 9 17 15 13 0 17 20 17 27 23 17 34 16 6 13 10 13 6 6 10 16 13 13 15 9 14 12 28 23 17 34 6 27 14 21 20 6 13 17 27 21 28 17 23 12 18 13 11 27 15 24 3 24 24 3 9 14 24 13 17 24 10 7 24 10 26 27 9 7 0 27 29 23 27 16 44 14 17 35 17 13 7 27 20 10 20 16 20 11 19 20 20 23 7 14 19 17 17 17 13 17 34 23 6 20 31 0 23 34 20 17 14 27 27 18 10 10 21 10 24 9 10 30 14 13 12 20 15 21 24 30 20 3 20 9 14 17 9 20 6 6 10 27 0 11 10 20 23 29 10 9 17 24 1 6 16 13 19 13 10 12 30 13 12 20 13 13 16 14 22 13 23 32 31 23 7 9 10 15 16 16 12 7 45 10 14 21 17 30 17 9 19 16 10 16 17 13 21 28 21 10 3 26 34 10 17 13 16 13 27 24 22 13 23 17 6 10 8 10 30 16 12 13 17 13 14 21 20 6 31 13 23 10 6 16 19 24 17 17 16 10 19 13 21 10 10 3 13 27 10 16 13 17 20 16 13 16 35 27 12 7 17 20 3 21 17 17 12 29 10 19 19 13 10 24 18 20 9 40 21 20 24 22 15 14 21 7 23 3 20 20 17 9 17 20 21 29 24 16 23 14 16 28 0 34 6 14 20 12 16 17 20 13 35 34 7 20 14 16 16 21 16 16 31 20 11 3 21 16 16 13 10 20 11 23 0 20 27 7 18 3 9 10 14 22 19 13 14 21 12 13 7 10 38 42 16 14 9 24 19 17 14 16 20 5 13 37 26 20 17 17 23 24 23 27 13 13 23 16 24 14 24 20 27 9 20 27 8 14 24 13 17 27 20 10 13 26 10 12 7 22 20 13 23 15 6 3 23 10 6 6 20 16 6 12 16 17 14 17 28 24 23 15 14 10 22 28 20 23 3 21 9 9 17 20 10 14 17 21 26 26 20 6 16 10 15 17 30 16 34 19 35 10 20 7 13 20 14 9 10 17 7 17 13 24 7 14 20 23 17 19 15 23 17 14 21 10 31 6 10 6 14 18 23 17 23 9 17 17 6 17 21 13 9 27 30 31 22 22 23 27 3 7 13 44 17 13 16 27 21 19 7 23 7 27 14 16 20 10 31 25 20 10 20 19 14 22 23 23 23 21 28 13 9 10 20 27 34 23 21 13 12 13 12 19 3 27 21 10 21 13 3 17 14 18 26 23 24 15 6 24 17 20 16 17 15 17 13 21 26 17 20 6 26 21 16 13 17 10 14 6 23 6 9 17 15 21 14 10 17 16 20 21 15 10 19 10 24 14 35 20 10 16 3 34 22 24 3 7 22 10 6 24 33 14 10 16 6 17 17 14 9 7 14 24 16 0 16 16 34 26 16 14 19 23 17 3 13 13 32 17 34 24 21 14 14 7 17 34 20 21 16 7 16 22 20 23 17 24 10 20 3 26 24 20 17 13 19 24 6 3 11 13 3 13 38 18 30 13 24 21 6 10 22 3 21 24 16 23 17 6 10 6 27 13 17 10 28 26 23 13 26 21 24 16 14 7 24 14 13 16 24 14 20 27 12 19 10 20 38 17 17 27 28 10 20 10 6 7 5 37 20 27 36 27 13 9 27 9 31 9 0 17 30 12 13 17 9 19 13 17 32 16 27 19 20 23 14 6 24 13 14 6 16 0 20 24 13 9 30 20 13 23 28 24 23 38 9 23 20 26 22 45 17 10 22 23 14 18 23 15 22 14 23 30 31 30 13 9 14 21 10 3 21 9 27 14 7 6 14 22 22 24 25 13 24 24 17 30 21 25 22 10 28 24 13 12 27 19 25 28 7 27 19 3 6 28 20 19 13 17 30 17 23 31 3 33 22 16 24 17 14 17 13 24 21 25 17 20 17 7 30 23 22 14 14 17 10 34 12 13 3 20 20 23 6 17 22 6 17 17 16 7 16 20 33 17 3 24 18 17 23 17 10 31 29 14 21 17 27 10 27 9 6 30 24 13 28 31 17 30 10 31 14 12 7 33 24 17 12 10 6 13 16 10 24 21 13 0 23 17 31 21 13 23 13 10 14 14 15 23 24 17 16 23 18 10 24 17 17 17 20 10 28 17 17 15 14 13 6 10 13 23 21 17 21 27 19 24 30 14 26 3 13 17 22 20 3 19 13 10 17 11 13 17 17 20 12 14 10 24 13 15 14 22 13 19 17 15 20 21 17 16 28 17 17 24 20 10 3 17 17 24 10 34 13 9 16 14 20 13 27 12 23 24 3 14 17 9 13 15 10 30 7 7 16 3 9 19 16 21 20 17 3 17 13 27 13 38 3 7 22 26 6 6 20 20 22 9 6 21 13 20 34 3 16 17 24 20 16 20 13 14 9 10 20 14 23 14 20 30 19 6 16 21 3 20 20 3 37 20 34 28 28 13 21 10 27 19 23 6 15 31 12 17 17 26 16 17 17 23 16 22 12 20 21 20 25 23 20 12 14 3 14 13 10 17 10 13 6 17 17 17 14 13 27 17 12 27 6 7 13 21 9 13 24 30 16 17 26 17 25 20 13 23 27 38 16 23 23 8 6 27 14 11 19 19 6 3 28 13 14 16 17 31 7 9 10 3 24 9 10 14 20 30 13 20 20 21 25 19 16 20 7 10 26 10 27 23 29 14 17 15 20 27 17 17 15 16 16 24 19 22 37 24 20 17 21 3 12 30 9 14 13 13 14 10 17 17 17 24 36 21 16 31 20 10 10 20 21 23 10 16 16 20 10 25 23 16 24 24 14 9 27 10 13 21 16 24 33 22 13 9 17 34 22 3 21 17 34 13 6 21 14 12 13 23 21 12 29 3 13 23 23 13 37 13 20 13 24 14 24 38 27 30 24 14 9 24 14 24 23 9 27 16 33 21 9 38 26 36 10 13 17 24 17 0 13 17 15 21 24 17 24 17 13 17 23 6 17 7 22 20 35 17 26 13 12 24 23 17 26 17 17 17 17 27 20 23 17 33 17 7 19 9 16 19 20 18 20 16 21 24 16 28 17 17 17 31 30 10 28 27 0 30 17 37 13 9 0 35 24 21 20 21 0 16 14 15 40 17 17 16 13 21 14 17 20 24 24 35 14 26 7 22 14 15 20 26 6 13 13 7 10 16 17 14 19 20 24 13 27 32 13 13 16 27 10 3 6 13 23 13 31 24 10 3 13 31 13 17 27 9 10 14 33 21 18 31 17 23 17 24 14 14 17 6 13 13 13 18 23 24 17 7 10 26 17 10 19 20 17 20 17 20 15 20 16 10 24 19 20 17 26 13 9 14 24 19 23 7 12 16 14 19 3 24 14 13 15 8 10 16 15 27 3 27 7 22 24 20 21 20 0 36 16 26 10 16 41 14 27 35 23 20 3 19 26 12 24 19 3 23 20 20 20 16 23 14 33 20 18 17 20 17 20 30 16 27 20 24 30 23 24 10 15 10 7 17 17 16 14 14 26 9 12 20 10 24 34 34 26 9 10 24 24 20 20 14 16 10 23 10 6 15 6 28 10 13 17 33 27 26 20 16 15 7 23 29 17 24 14 3 17 6 16 7 17 24 12 24 17 14 9 28 20 24 27 15 16 10 13 19 31 13 33 21 19 27 10 20 20 13 23 6 17 16 8 16 6 0 13 7 24 27 23 10 22 27 27 20 30 23 13 7 10 14 21 23 20 16 10 13 12 31 23 0 17 27 30 24 14 26 15 13 27 14 9 30 10 20 25 12 15 24 28 21 21 25 17 20 12 16 14 23 26 10 9 27 16 16 12 10 27 14 20 24 14 20 20 34 24 13 16 15 24 20 21 20 7 24 16 16 35 27 30 24 20 27 13 23 14 45 14 24 10 12 20 7 10 14 21 16 21 17 11 17 17 33 26 17 14 13 14 16 11 24 24 3 9 29 20 21 20 27 7 17 13 27 20 17 7 29 20 20 30 16 37 20 13 27 17 10 10 23 12 24 14 14 27 23 19 26 17 17 34 20 15 21 12 14 31 16 14 10 22 19 17 19 28 22 17 19 14 0 27 16 17 24 27 17 15 3 13 24 13 10 19 10 10 14 31 15 28 15 23 9 17 16 27 20 24 17 16 20 6 16 17 16 19 24 24 24 28 16 10 20 26 17 10 32 19 18 19 27 6 17 27 13 29 21 16 13 3 7 17 24 10 24 18 34 27 21 9 13 10 26 13 16 15 16 14 44 35 3 30 10 17 26 22 23 31 20 15 31 13 24 17 13 3 16 13 25 10 14 31 14 13 20 18 3 6 13 13 19 23 20 19 24 30 14 24 21 20 24 13 9 19 9 16 20 18 15 19 9 13 30 16 17 24 12 6 17 17 16 40 14 19 13 3 6 17 17 10 19 20 20 16 13 20 13 18 6 12 9 16 10 20 16 19 23 20 30 19 13 17 17 16 19 6 24 14 13 10 7 9 12 7 9 19 30 14 9 31 14 21 20 13 25 35 31 24 31 14 27 21 31 15 17 10 16 10 20 20 19 17 35 29 19 29 26 14 15 20 16 17 19 16 7 17 12 16 22 17 14 17 23 42 23 24 10 26 16 17 9 10 14 16 24 13 19 20 20 5 30 31 20 16 27 31 14 16 17 13 21 19 13 20 27 41 16 20 21 31 31 6 19 16 13 16 23 20 29 20 24 13 28 24 19 17 21 28 22 17 35 14 20 17 17 16 14 19 16 20 10 14 20 3 22 30 17 24 30 11 13 24 6 16 19 23 20 24 13 6 6 24 3 16 9 12 17 21 21 16 17 22 13 25 17 7 17 17 24 14 35 10 13 13 19 20 34 6 25 10 20 24 10 19 10 23 19 26 7 10 10 24 21 17 18 17 3 7 13 0 10 27 27 10 16 10 13 19 13 24 12 19 17 16 7 9 10 20 24 35 20 9 16 17 6 23 28 17 23 17 23 19 24 9 10 17 7 3 21 19 20 17 6 24 0 23 9 16 13 26 27 17 14 23 18 20 20 10 10 24 15 16 38 23 10 15 17 29 23 14 9 13 36 6 17 20 40 6 17 17 23 20 28 26 20 17 19 15 0 22 10 21 21 30 20 10 3 17 23 16 10 0 10 13 13 20 13 22 25 30 12 21 21 17 14 20 20 14 31 14 20 14 21 20 17 24 31 20 20 19 17 27 10 21 28 23 19 19 20 9 3 37 20 17 26 16 23 20 37 17 10 27 17 14 26 10 6 13 17 17 13 20 9 28 3 34 27 23 16 31 26 16 14 38 10 3 13 9 28 17 31 15 13 33 6 19 7 16 26 24 14 28 7 13 9 17 14 34 7 16 15 21 11 24 19 16 14 30 10 6 13 20 14 17 30 9 20 20 17 16 11 16 10 23 28 14 20 10 10 17 17 27 13 23 6 9 16 20 17 17 6 9 31 13 26 10 3 0 10 24 17 23 17 14 24 31 21 20 23 13 17 14 23 17 11 24 10 13 24 6 10 13 24 23 24 17 12 10 24 37 14 35 30 10 10 16 23 16 38 16 29 3 6 15 10 14 13 17 0 23 21 6 28 34 20 24 10 7 16 23 16 21 13 20 9 35 10 20 26 17 13 24 6 25 31 33 10 18 20 24 3 24 3 17 28 16 14 36 37 3 28 20 7 17 3 27 29 13 13 13 15 19 17 22 23 14 17 20 20 3 10 22 13 10 14 21 23 20 33 14 17 7 17 24 23 20 14 13 15 16 13 13 24 28 13 30 16 16 27 20 17 30 15 10 8 10 14 28 24 21 26 17 29 27 13 14 23 20 20 35 20 13 7 38 14 10 20 14 19 16 23 24 20 23 20 10 16 20 10 13 13 19 24 7 10 9 10 3 20 17 13 23 30 17 30 27 20 7 6 6 19 31 14 16 20 17 27 16 16 23 6 13 13 6 24 16 13 28 13 6 20 24 7 24 34 10 14 9 16 16 20 13 10 19 13 10 27 13 18 9 31 33 22 30 10 6 28 17 28 20 24 23 24 6 10 8 20 14 10 17 20 33 14 10 6 16 19 28 14 27 21 17 10 13 3 17 3 12 17 10 24 7 24 14 10 23 18 16 13 20 9 20 10 10 24 23 12 6 16 20 21 20 23 7 15 28 28 15 12 26 27 10 19 13 23 9 24 17 3 6 27 14 24 0 16 21 28 19 31 10 22 3 14 7 38 17 21 14 12 10 16 27 12 10 10 27 12 18 9 20 7 12 9 14 19 17 11 16 30 28 23 6 28 3 23 13 13 22 13 27 41 3 22 24 24 21 10 7 16 25 22 7 24 20 9 17 23 13 24 29 14 10 24 20 26 19 10 23 6 10 19 3 19 25 27 9 21 31 14 26 12 20 6 19 26 22 27 16 21 17 17 15 22 13 34 20 27 10 6 3 11 30 30 16 25 19 17 21 30 30 21 15 10 10 27 34 16 20 13 17 17 29 7 20 26 22 30 6 10 24 26 27 13 17 34 10 16 8 17 10 3 21 10 34 6 20 10 6 14 14 27 24 27 21 0 6 13 17 22 22 16 17 27 12 6 23 17 7 26 34 24 20 24 19 25 6 30 16 10 6 15 13 20 7 13 20 23 20 17 24 19 19 34 16 19 13 21 14 19 20 33 38 27 19 10 23 9 20 24 27 14 27 21 13 17 35 17 24 17 27 10 34 14 22 23 25 23 14 19 22 17 25 20 30 19 34 17 9 30 34 10 14 9 10 17 27 3 10 17 6 16 10 17 17 20 14 10 17 13 24 20 21 6 16 16 31 26 14 13 0 20 16 17 17 34 20 16 17 28 17 13 16 27 17 7 24 17 16 12 16 28 17 19 20 24 28 16 9 7 37 31 20 27 19 11 24 23 9 6 3 31 11 35 6 17 16 31 24 28 3 20 9 3 24 12 23 18 9 9 17 20 17 30 24 19 14 7 14 9 23 20 35 14 7 3 6 13 17 17 17 23 19 16 6 10 27 7 10 24 33 3 21 16 15 24 17 35 17 23 16 17 16 42 27 3 17 14 10 6 24 19 14 27 16 7 20 23 21 27 14 16 26 16 30 10 23 20 16 20 13 20 17 13 13 9 20 16 18 20 14 24 15 17 16 17 14 21 21 27 19 19 9 17 23 24 31 20 20 13 21 10 24 20 23 10 21 20 14 13 17 20 34 20 16 20 16 7 19 10 10 28 13 17 28 10 21 16 28 17 29 10 14 24 27 14 9 24 12 27 11 0 16 20 23 3 27 38 7 27 23 17 10 27 11 29 16 12 6 16 30 27 19 23 16 16 9 16 27 37 10 28 3 20 20 21 31 28 30 24 6 17 23 10 10 22 30 21 7 17 3 10 10 17 13 35 26 13 22 20 14 27 3 19 24 21 13 21 20 16 13 3 37 30 27 6 21 23 20 3 20 10 17 10 6 14 20 24 17 15 13 26 10 30 14 17 19 6 23 24 3 26 10 20 17 20 21 13 10 28 10 14 10 17 19 10 13 30 8 30 17 24 14 24 29 19 27 16 0 20 14 24 17 20 17 20 20 16 13 16 19 27 10 22 24 14 14 3 10 28 10 13 24 24 20 23 17 17 6 27 5 10 17 10 24 16 10 10 12 6 16 17 28 10 19 31 19 17 7 15 9 24 14 10 24 3 13 18 20 20 21 13 14 17 21 14 16 16 19 19 6 6 6 17 24 24 21 10 10 20 34 7 12 10 15 17 9 39 11 20 13 7 10 24 13 27 42 16 19 20 3 31 13 7 27 30 16 30 6 13 27 10 10 13 12 19 20 34 9 28 20 27 24 10 6 17 30 16 20 7 35 17 13 13 18 17 6 20 11 21 28 27 17 23 17 13 25 27 9 21 13 13 17 7 29 16 18 10 32 21 23 8 9 23 30 30 7 34 17 17 28 27 10 6 13 16 13 14 8 6 14 10 24 20 18 23 21 13 13 7 17 6 10 7 13 6 16 15 20 9 21 20 17 17 14 20 9 13 6 17 21 7 6 23 20 17 28 20 10 19 20 21 7 13 24 30 10 20 3 26 13 16 10 10 13 16 23 24 23 27 20 23 31 22 13 3 21 24 0 19 14 6 28 16 17 19 23 33 13 13 8 27 27 6 34 8 13 23 21 18 10 20 21 14 37 16 27 3 16 18 16 28 16 24 13 7 10 31 13 16 3 15 17 6 7 31 13 12 22 30 10 21 20 21 13 10 16 10 20 27 27 14 10 23 24 35 34 9 19 28 27 10 17 27 30 20 14 13 23 15 31 13 10 3 23 23 23 37 37 16 21 28 23 14 0 27 6 24 10 12 23 10 18 7 9 14 15 10 14 22 19 21 21 19 0 13 17 23 19 16 26 10 16 3 9 16 3 13 20 10 16 9 20 16 14 6 12 24 15 29 21 21 31 14 23 20 24 23 22 7 7 12 23 16 20 16 23 29 24 14 6 10 30 23 24 8 23 9 17 27 20 13 19 22 10 21 27 20 26 14 31 17 16 6 13 24 16 9 20 13 10 27 16 34 17 6 24 16 17 17 9 20 24 10 34 10 20 19 29 30 21 20 3 35 24 17 10 20 24 13 14 13 3 17 10 3 23 20 18 21 24 13 9 27 23 17 6 9 13 30 28 17 24 10 21 16 16 20 3 25 17 0 14 0 17 13 6 8 24 18 10 41 27 24 24 27 10 13 16 19 31 13 23 10 16 21 13 16 21 17 20 20 20 18 34 16 13 20 6 20 25 10 17 17 20 28 24 6 6 14 13 10 3 44 16 19 17 15 27 17 37 16 12 19 15 22 14 24 15 26 13 24 23 23 13 13 26 6 21 23 24 28 6 10 12 16 15 10 20 27 20 14 20 16 19 20 3 14 49 20 20 21 29 6 21 30 33 17 22 24 17 16 13 13 17 3 24 17 17 33 0 27 10 9 15 26 17 22 13 10 13 23 14 16 34 17 34 20 31 27 24 13 23 30 6 25 13 33 23 6 7 10 3 22 14 7 6 6 17 23 10 23 19 27 6 14 3 28 16 24 27 27 16 31 10 23 11 19 10 20 26 13 6 13 14 7 28 23 3 24 27 0 13 29 17 19 26 20 34 22 6 20 20 31 16 10 16 17 0 28 28 24 6 20 31 6 20 33 20 13 24 13 3 23 23 10 3 35 7 25 9 20 18 18 6 10 19 31 10 14 34 21 13 27 17 16 10 6 20 34 17 13 17 7 21 16 20 16 21 24 24 16 29 14 31 18 27 19 26 27 20 17 6 22 10 24 7 14 35 13 20 17 17 7 15 18 34 14 7 30 27 20 17 23 10 34 23 6 19 9 23 19 31 24 28 34 19 13 20 20 16 7 13 24 7 34 31 12 16 30 24 13 12 13 26 10 13 9 24 14 20 14 13 17 21 6 10 17 10 19 23 24 19 17 20 3 20 21 21 3 22 16 17 14 15 16 16 10 9 27 6 16 19 10 24 14 16 9 6 31 9 28 16 25 29 14 17 36 20 22 17 9 13 29 20 13 10 17 26 17 13 17 20 13 24 13 27 13 10 10 21 23 24 26 20 10 24 25 21 16 23 14 9 28 17 10 19 17 13 23 31 20 20 28 30 17 12 12 10 29 10 12 21 23 16 20 16 0 17 25 23 47 20 30 24 16 14 16 17 31 19 24 20 3 19 14 18 3 20 20 12 14 22 10 33 17 21 11 12 27 15 22 23 22 20 17 20 16 20 10 13 28 24 19 20 17 27 20 19 17 7 10 20 23 9 27 20 20 16 28 6 16 12 21 20 22 24 13 9 11 14 24 20 20 21 15 14 20 24 7 27 24 17 16 3 36 17 20 13 33 20 16 6 6 9 11 7 14 34 26 27 10 19 10 28 21 20 10 10 34 21 3 7 16 20 34 20 10 16 14 9 15 13 18 31 12 17 24 20 10 16 20 9 7 17 13 13 27 27 10 10 24 21 21 13 19 12 12 16 24 17 6 6 16 17 16 27 16 3 14 20 10 16 30 24 20 16 25 21 14 13 16 0 7 9 17 10 9 23 12 24 21 23 27 24 8 6 26 3 6 10 17 9 9 22 13 14 20 16 6 14 14 16 7 17 24 22 6 10 38 16 10 26 30 3 21 20 26 20 13 14 14 17 14 20 19 28 10 15 19 28 24 23 27 10 12 13 16 21 21 30 6 9 17 27 24 27 3 13 27 3 17 28 31 37 8 27 7 24 21 23 10 11 21 14 20 17 26 19 14 34 24 24 28 7 22 27 13 13 30 17 20 10 30 22 21 10 20 13 22 9 27 17 10 13 31 29 17 17 9 7 31 28 23 31 15 33 13 14 37 3 9 14 17 27 10 10 23 17 14 23 13 10 37 15 13 14 16 13 13 21 17 19 10 21 27 24 31 21 16 18 13 16 6 10 7 14 19 23 26 21 24 17 17 17 29 14 17 11 38 24 26 20 16 27 17 17 33 9 13 33 10 28 13 23 13 16 24 20 23 17 20 17 24 14 3 13 6 20 21 17 10 14 13 5 20 23 24 26 6 9 19 20 17 23 14 10 20 23 17 12 27 23 26 13 17 13 7 0 17 24 24 18 20 20 17 28 9 31 18 12 16 6 10 9 17 13 6 20 17 6 34 10 18 17 17 26 15 13 20 31 10 10 16 17 0 6 7 10 17 17 17 24 23 21 6 21 17 20 19 12 17 10 23 24 20 13 18 23 26 6 13 27 29 13 20 27 21 20 9 3 31 16 17 16 13 13 17 29 20 10 24 20 17 16 17 20 17 21 14 30 24 24 17 21 13 20 10 16 28 20 10 23 27 20 0 22 10 10 21 21 17 13 20 17 14 9 13 23 14 33 27 23 27 13 20 7 20 20 17 20 6 6 34 14 10 10 31 13 20 38 12 17 7 20 20 28 10 13 17 6 33 28 22 10 15 17 18 10 23 24 10 14 13 16 23 29 24 17 23 7 24 9 24 17 38 13 10 6 30 21 14 21 14 24 30 15 27 20 14 24 14 23 27 17 28 24 14 20 17 16 21 15 8 13 6 17 10 24 31 13 35 19 20 10 23 20 27 23 10 20 17 9 23 16 7 7 19 27 19 0 17 17 14 6 16 17 33 20 16 26 17 7 13 10 27 13 23 0 14 27 15 16 21 16 17 17 14 6 10 17 14 13 17 16 23 21 7 17 27 23 16 15 13 0 14 7 13 23 13 27 14 24 30 24 23 13 9 22 17 26 31 24 20 21 31 30 0 9 24 37 13 20 20 17 20 23 16 13 16 10 14 10 13 23 20 23 17 24 31 27 7 19 16 20 13 23 27 21 14 22 17 25 7 16 30 23 16 16 6 17 3 20 20 21 15 24 24 7 30 14 12 14 9 24 20 30 13 21 10 9 9 10 21 9 24 24 10 21 17 26 30 13 17 24 13 16 10 16 17 13 24 7 10 13 15 17 17 20 13 24 7 17 24 13 9 10 6 14 29 26 16 10 30 17 14 10 8 27 23 17 27 16 3 9 7 20 7 21 30 37 3 13 22 13 11 24 20 27 41 24 28 27 20 10 30 17 26 6 20 25 26 7 24 13 29 13 13 10 20 24 24 26 9 13 13 24 17 27 26 17 13 3 24 13 21 21 10 10 10 23 28 13 24 9 21 13 20 20 14 17 17 12 17 16 15 9 14 31 10 17 37 11 14 17 10 6 16 21 6 13 22 23 14 29 13 13 19 20 20 9 24 21 31 10 14 19 10 27 26 10 24 17 7 16 10 27 10 13 21 19 36 16 28 6 20 40 17 17 28 17 21 23 34 24 33 7 6 13 37 24 24 26 17 37 25 26 13 38 19 10 7 20 17 6 13 27 24 26 23 21 20 16 34 30 13 17 15 13 21 17 13 24 10 32 19 31 14 20 27 25 27 13 28 24 10 21 21 20 23 14 10 26 10 16 20 17 17 6 24 16 23 13 3 20 23 21 23 21 24 35 30 20 21 17 21 3 14 13 12 10 18 31 15 14 10 37 24 13 30 31 6 10 12 14 21 27 20 19 17 13 20 24 27 6 31 24 34 17 31 13 24 23 24 7 20 10 17 22 19 7 21 27 13 27 20 24 17 11 16 20 19 14 20 27 23 13 24 23 21 31 24 18 13 13 10 17 31 10 18 15 6 12 25 13 34 27 9 23 27 20 17 9 20 17 13 27 20 14 20 34 24 24 24 19 16 23 31 23 24 23 23 17 14 26 33 23 26 15 16 21 21 15 34 16 13 18 22 10 21 16 34 27 23 16 16 9 23 10 31 20 16 14 28 3 16 27 15 14 24 28 9 6 20 14 10 21 7 6 13 28 24 14 21 6 12 10 38 26 46 6 16 29 27 19 3 26 12 6 23 17 24 7 21 20 0 13 26 13 31 24 21 20 24 14 37 24 23 10 20 22 6 27 8 10 9 20 17 17 25 31 13 27 13 16 17 37 17 17 17 19 9 20 13 15 25 21 35 20 13 13 13 16 30 24 13 16 21 20 20 24 17 17 10 27 13 28 34 9 12 10 23 16 20 22 7 35 20 0 12 13 30 21 17 16 20 23 23 23 20 10 13 9 3 20 20 6 27 10 21 20 43 23 17 3 30 27 7 31 27 19 20 15 3 13 9 14 10 13 17 7 17 20 21 17 10 9 31 20 10 17 27 35 24 20 7 20 23 6 17 16 19 31 14 10 10 14 24 14 23 9 29 17 16 34 40 9 13 30 15 17 28 32 27 7 10 20 15 16 15 23 13 14 17 17 21 27 3 15 24 21 22 21 6 26 14 5 11 14 10 21 35 17 20 29 19 35 17 26 21 6 13 14 24 20 29 13 10 17 14 24 15 17 17 23 10 22 20 14 23 24 20 28 16 23 10 16 17 26 20 17 23 37 6 20 9 21 6 7 22 27 6 8 20 3 14 16 29 19 27 35 13 31 19 21 24 29 17 17 33 18 24 16 13 8 17 18 18 6 13 9 9 7 20 7 17 15 16 30 24 20 10 14 3 13 10 24 30 20 13 14 6 24 23 27 10 7 7 24 20 13 20 29 3 18 14 23 14 10 16 13 17 13 13 6 3 10 13 31 20 10 19 23 13 7 10 13 27 24 27 20 20 6 6 31 17 20 29 24 27 16 16 6 10 13 24 16 17 24 24 13 10 21 13 19 24 13 21 16 15 30 10 23 21 24 13 38 41 9 17 23 16 13 31 29 9 17 12 24 24 40 24 24 13 10 27 14 27 21 3 13 35 13 30 14 5 16 37 21 31 20 23 23 21 17 10 27 17 24 45 12 24 13 9 19 14 21 21 13 24 10 21 23 30 9 26 16 13 17 14 16 21 24 21 13 24 13 30 17 14 28 10 16 0 9 23 29 12 8 10 13 17 14 17 14 12 21 7 20 17 14 13 29 13 6 12 9 9 21 34 6 14 13 29 13 24 19 25 21 20 10 25 7 14 17 17 3 10 24 13 10 10 22 11 14 13 3 16 10 9 22 23 27 6 7 7 33 17 15 12 14 24 14 9 26 13 31 14 24 7 19 6 17 13 16 24 13 9 31 31 10 10 15 17 23 17 38 27 26 28 27 20 17 17 7 9 26 27 24 34 17 14 20 16 21 20 22 20 23 13 19 10 18 26 6 7 27 31 7 16 23 6 0 13 7 24 19 20 17 14 13 31 0 16 21 9 10 11 10 23 17 41 6 11 10 12 13 16 17 14 9 10 16 12 26 17 31 32 23 20 28 33 16 27 11 17 10 32 6 17 26 10 15 21 27 24 24 13 33 14 6 3 34 28 14 17 17 23 20 24 26 10 30 19 16 13 13 24 21 27 16 20 21 14 27 19 10 14 10 27 20 3 10 21 21 19 6 16 14 35 27 16 24 12 20 21 20 11 16 6 6 41 14 0 13 23 19 17 6 36 24 16 45 17 17 20 10 33 23 20 20 15 21 17 24 26 34 17 24 11 16 13 24 20 3 10 0 9 31 26 17 10 13 17 22 38 19 13 28 13 9 0 12 20 13 20 21 17 24 13 13 21 19 34 19 31 26 28 17 10 9 21 24 15 16 16 16 10 17 23 7 10 14 17 27 20 7 19 27 13 19 20 21 13 13 7 26 20 27 27 20 30 38 13 20 20 13 20 23 20 16 20 20 27 13 23 13 17 10 16 8 17 23 20 13 33 28 7 23 0 0 23 19 14 20 21 23 17 17 13 19 24 26 7 24 10 26 16 20 9 20 24 16 24 15 16 15 0 13 7 16 21 7 7 6 21 21 35 14 14 31 13 21 19 12 19 28 0 13 19 10 17 20 9 35 17 13 17 17 24 25 22 12 3 20 23 20 16 24 24 24 14 21 21 17 16 30 9 27 23 19 9 27 17 7 25 7 12 7 24 6 20 34 6 13 24 41 12 31 7 16 13 17 17 30 22 7 16 21 6 10 20 16 14 17 13 15 22 27 17 34 17 20 15 17 6 9 16 24 16 20 14 20 17 24 12 6 6 17 6 19 28 17 14 7 24 35 26 13 7 22 12 14 21 17 10 17 27 11 13 24 20 13 17 17 10 10 12 12 27 21 18 21 6 0 20 14 10 17 17 20 23 10 14 20 14 35 17 3 17 16 16 21 17 18 0 17 13 30 22 9 8 7 24 13 27 14 35 7 28 16 16 17 14 24 16 20 24 21 9 17 17 13 16 8 30 41 7 26 21 10 21 8 9 10 21 13 20 17 20 10 17 14 23 19 0 17 10 20 20 20 12 20 28 6 16 27 10 37 27 23 20 31 14 13 6 28 38 16 20 6 9 16 7 21 17 16 19 7 25 20 33 9 36 23 26 20 10 13 9 27 24 17 13 17 7 27 19 9 20 14 19 24 16 17 20 29 26 24 29 13 21 13 28 17 18 15 22 16 13 24 26 23 19 31 26 24 23 24 37 20 13 15 26 9 27 23 3 10 20 24 23 19 10 10 17 16 24 16 6 27 24 7 17 17 19 24 19 16 13 17 13 16 27 3 26 6 17 7 16 19 3 21 17 34 24 24 34 23 13 19 17 16 13 30 19 9 18 29 17 22 20 27 20 12 13 21 28 9 16 23 24 16 26 31 27 31 17 17 6 3 24 24 31 13 10 24 13 36 18 10 20 9 23 10 21 13 16 13 17 10 12 20 17 17 12 13 20 28 3 14 17 10 20 37 30 17 3 19 17 16 19 18 10 0 9 6 17 14 7 27 10 16 24 26 24 29 17 24 19 13 13 30 31 24 20 10 17 17 21 10 17 22 20 12 17 16 28 6 20 23 14 6 21 30 25 29 27 24 13 7 10 31 24 20 20 24 3 13 3 17 14 16 10 24 14 17 20 20 20 19 13 19 17 7 16 17 20 14 31 20 20 3 19 20 3 3 21 19 10 21 22 40 13 35 10 19 13 9 24 26 27 27 13 13 27 16 19 13 20 21 10 16 12 13 31 20 6 30 27 10 21 16 13 23 15 10 9 20 17 16 17 20 27 6 27 13 20 17 10 12 14 20 17 17 24 20 20 20 17 22 24 24 30 9 10 17 16 13 38 27 7 9 23 17 7 6 28 10 22 13 28 16 22 21 31 17 6 6 16 20 17 10 38 26 10 13 23 7 12 17 22 24 28 20 14 15 25 23 16 6 10 30 23 21 28 24 16 24 28 27 7 21 16 13 8 16 21 24 33 26 21 34 17 17 13 28 16 30 17 16 10 24 13 3 10 17 20 19 27 20 23 16 12 40 13 26 24 6 17 12 23 12 17 13 10 3 24 23 14 38 17 20 13 17 6 14 8 20 20 27 9 24 20 23 17 28 14 13 10 17 9 16 31 9 19 13 23 10 34 10 9 24 14 13 17 13 9 16 21 17 10 28 19 14 21 3 6 19 24 13 20 10 27 34 18 13 23 13 20 21 17 9 6 16 24 23 16 7 16 28 17 16 27 7 27 14 30 28 31 13 20 13 23 24 10 20 19 23 34 21 23 10 18 14 3 24 17 23 19 24 24 14 14 16 15 28 34 21 16 17 22 13 0 14 7 23 6 24 9 16 20 13 6 14 30 24 16 10 17 16 9 7 12 17 9 16 37 14 6 31 9 25 24 31 13 21 23 16 17 15 19 15 19 10 13 6 19 13 17 29 26 6 3 10 24 13 6 19 17 10 10 17 10 17 24 24 19 14 27 14 21 24 16 14 20 13 20 20 7 13 10 6 33 21 12 6 24 27 19 27 16 31 20 14 24 16 20 10 20 32 31 19 30 13 22 21 21 16 10 23 26 27 19 17 24 13 23 20 21 48 48 19 20 22 27 22 19 16 30 21 9 3 10 16 6 13 17 23 6 30 13 9 20 20 10 19 13 31 23 23 23 10 21 24 13 19 20 17 24 22 22 17 30 0 27 7 15 6 28 15 9 20 23 7 14 27 17 15 7 13 23 13 17 9 19 20 13 33 27 31 13 20 24 15 20 13 27 31 21 17 8 15 20 13 20 6 17 19 20 3 19 15 13 7 27 29 34 27 20 27 13 19 13 13 7 31 28 10 31 20 33 14 14 27 10 19 27 20 20 12 16 7 15 33 20 20 6 14 45 23 22 10 23 37 17 19 17 0 20 16 17 20 20 21 26 30 31 19 23 30 18 20 9 29 6 14 28 13 19 14 20 24 24 16 20 20 10 17 23 21 23 7 23 16 20 16 17 13 15 14 14 13 19 14 17 37 23 16 12 13 10 20 7 17 17 21 13 28 16 24 13 10 12 17 23 14 26 16 3 30 27 28 9 7 33 10 13 13 6 16 17 30 5 12 19 6 10 19 24 21 13 17 20 13 14 20 15 6 13 28 20 20 17 31 30 16 10 16 30 13 28 16 9 16 17 20 17 10 17 10 3 24 14 10 21 10 10 10 28 3 14 3 24 9 12 23 13 20 21 14 21 20 20 23 26 8 20 23 13 16 20 16 20 16 33 10 20 23 10 7 6 7 23 21 10 14 15 24 16 12 9 13 10 17 0 13 19 13 24 21 20 20 10 10 30 26 20 27 35 23 17 9 21 17 13 20 20 17 17 13 13 20 16 31 14 23 9 20 6 16 38 20 16 20 28 20 37 6 21 12 17 16 7 18 27 7 18 3 8 7 26 23 27 30 20 20 35 20 23 21 27 23 13 20 13 7 27 7 13 21 28 16 10 30 10 30 17 13 21 20 24 30 16 6 26 10 14 24 16 37 3 13 25 0 24 34 20 20 26 13 19 24 26 33 20 16 30 27 17 26 10 9 6 19 20 17 29 24 13 23 3 16 3 17 20 17 19 21 6 19 13 22 24 6 10 3 27 16 14 22 20 20 9 6 26 15 10 12 7 17 29 16 10 6 20 22 15 26 24 10 3 26 15 14 29 16 27 18 16 16 21 9 10 9 20 13 10 10 17 3 30 38 17 17 24 20 10 31 13 14 17 13 29 12 13 21 19 24 20 23 24 21 16 3 9 14 30 10 9 6 27 24 17 13 24 17 21 27 7 10 12 13 22 14 23 20 21 27 3 13 0 27 20 31 10 14 34 27 23 23 6 16 16 20 23 24 13 27 17 16 13 14 27 23 21 23 9 31 16 10 20 29 26 24 11 27 3 10 38 13 16 20 23 6 10 17 6 16 7 7 17 9 12 7 16 37 14 3 20 14 10 6 23 10 9 20 17 13 37 7 15 26 17 23 17 10 19 13 20 16 20 28 20 17 34 20 35 13 17 30 13 24 24 33 13 23 31 27 24 14 20 23 27 17 17 14 22 17 27 16 6 17 16 27 26 21 22 12 24 27 3 25 10 12 17 12 27 24 6 17 27 17 17 21 6 30 17 12 17 16 17 23 18 7 21 10 20 22 11 20 6 6 24 16 16 9 18 13 16 9 20 23 3 19 7 17 17 10 20 20 14 40 20 13 13 13 12 10 23 24 10 26 20 34 30 24 15 13 6 27 16 17 13 23 24 8 19 17 35 12 20 21 19 13 13 21 20 14 20 26 19 16 10 25 37 7 6 10 13 37 17 20 21 27 14 13 13 37 28 20 23 20 17 14 20 19 13 14 26 9 22 13 17 22 7 10 13 24 23 20 23 24 28 10 12 23 17 21 21 17 14 20 13 16 10 6 17 13 6 28 16 13 10 21 17 24 13 9 35 13 24 20 19 10 17 10 20 27 6 14 24 13 21 17 14 14 13 6 7 16 20 7 10 24 30 10 17 23 7 26 17 13 16 24 10 20 16 16 23 30 19 17 20 10 16 16 28 23 20 23 23 6 17 15 20 23 16 6 23 23 26 3 16 3 27 13 15 19 31 19 13 31 17 16 20 30 10 20 6 9 26 3 25 16 15 20 29 20 19 17 20 3 14 20 16 17 23 23 6 13 31 9 28 23 21 20 36 30 23 20 25 6 39 37 7 20 36 18 24 7 15 20 17 7 14 6 16 9 10 10 17 12 6 24 0 30 17 10 0 20 24 6 10 30 20 33 18 14 17 7 17 17 30 26 24 21 26 36 23 21 23 6 10 24 13 20 11 20 27 10 17 30 35 23 26 17 27 12 27 20 21 22 24 14 21 16 16 20 21 23 24 17 16 6 13 23 17 21 15 13 13 17 9 14 17 13 13 34 7 25 10 16 17 10 28 14 6 13 19 31 20 31 9 10 9 23 6 27 21 21 24 20 11 19 13 18 24 21 17 33 17 16 15 6 14 17 16 24 20 17 9 20 19 20 17 13 17 24 10 37 17 3 34 19 24 10 7 30 20 30 16 7 19 17 26 20 21 7 27 10 20 19 17 20 10 13 20 17 20 17 8 34 40 24 7 14 17 27 17 20 24 20 28 20 10 6 21 16 27 20 24 16 3 16 16 21 14 38 14 18 24 14 17 13 13 26 23 6 13 13 20 27 29 35 31 6 20 18 16 21 15 17 10 17 21 22 16 20 9 22 9 9 17 29 14 17 22 17 16 14 20 16 16 23 27 24 21 21 17 30 21 33 8 21 16 27 14 11 23 9 27 19 6 6 19 23 10 17 26 13 27 27 6 14 9 16 12 14 16 24 15 31 27 9 27 31 12 19 20 17 33 19 27 11 6 20 34 20 23 20 17 9 20 20 14 20 24 23 31 16 13 14 6 20 19 16 27 9 30 17 10 17 27 3 19 17 20 21 13 13 14 20 7 10 9 25 6 3 20 26 6 13 20 13 21 20 14 21 14 24 6 10 36 23 22 23 7 3 31 16 27 20 19 24 24 20 3 0 13 13 28 20 10 20 27 21 27 10 12 13 17 35 23 6 17 17 24 16 17 23 16 28 17 13 17 3 15 17 10 7 16 9 23 24 7 17 16 20 21 14 31 16 24 6 23 20 13 24 24 14 10 17 21 16 26 21 9 9 13 13 29 24 13 24 20 30 13 30 26 17 27 34 21 13 21 10 24 24 13 16 27 17 10 17 6 23 21 17 9 0 13 20 0 13 34 9 16 35 27 12 14 17 24 14 7 17 17 17 14 28 24 10 10 15 22 13 13 24 31 28 17 11 8 9 17 21 20 13 16 13 28 21 15 25 17 10 17 17 13 13 13 19 15 18 16 3 22 6 20 7 17 23 20 6 13 20 21 40 17 7 17 6 13 31 12 28 19 29 20 21 24 19 48 14 26 7 28 13 8 21 16 31 19 20 6 23 14 26 18 15 21 16 27 22 16 20 17 10 20 16 21 41 10 15 17 16 27 23 14 24 20 23 37 10 20 17 10 17 7 17 13 10 16 15 9 7 0 26 20 16 12 20 13 7 13 7 29 21 10 14 17 6 12 13 28 16 21 17 20 27 19 0 17 10 27 21 20 13 27 17 7 9 13 6 21 14 27 24 20 24 17 20 17 9 24 3 14 20 3 21 26 18 13 6 17 34 23 15 21 12 31 24 10 16 22 14 30 3 26 16 35 13 17 6 24 20 7 20 7 20 14 21 24 17 10 20 17 13 41 33 7 30 13 17 13 31 13 24 7 31 24 7 13 20 27 20 14 17 14 14 12 24 14 30 23 17 24 12 17 21 14 21 26 15 21 7 16 26 16 17 22 10 10 27 24 15 30 23 16 24 16 20 26 18 17 23 7 23 14 3 9 10 13 10 30 7 11 10 7 10 12 17 10 21 16 10 13 31 20 19 27 10 20 19 24 20 24 13 3 0 18 24 27 21 31 6 6 17 19 37 13 0 20 22 6 22 17 18 34 17 20 14 24 16 27 26 3 19 7 27 24 16 27 10 0 16 24 6 13 14 25 30 10 13 20 14 37 33 14 3 31 30 19 16 9 13 27 14 20 27 27 24 23 13 9 31 17 15 30 13 20 6 0 16 27 17 26 27 23 3 13 7 20 30 15 8 14 23 15 14 24 30 19 17 13 24 15 20 15 10 20 38 34 10 20 24 17 28 16 10 23 11 17 31 20 19 24 15 17 13 24 23 17 9 21 11 26 27 10 13 19 32 3 21 3 12 17 32 22 22 21 31 37 10 18 26 9 19 20 7 9 31 13 20 27 17 13 20 28 10 23 15 21 17 23 13 13 36 20 16 10 17 27 23 34 9 13 16 15 14 27 24 11 13 13 20 20 17 22 7 22 13 21 10 27 13 27 18 26 3 13 47 13 6 20 13 21 20 20 24 23 16 20 19 23 10 7 16 16 27 44 33 20 13 16 12 6 16 20 23 13 10 13 10 12 23 12 12 33 24 21 10 14 16 10 23 14 17 24 24 13 17 24 9 19 12 19 27 14 10 12 13 12 6 31 20 27 16 6 3 20 24 15 16 13 14 17 24 17 18 16 6 20 31 19 20 14 34 10 14 21 41 13 28 6 21 10 17 10 13 20 20 7 10 13 19 10 14 21 19 17 17 24 7 14 27 3 13 24 23 17 7 31 24 23 13 10 21 14 11 19 21 9 18 9 21 17 7 17 24 17 24 26 11 10 6 6 29 20 10 24 30 29 21 0 20 13 29 20 21 19 30 19 27 24 20 9 17 14 27 30 17 7 19 21 10 27 27 15 23 12 30 27 38 19 27 23 21 16 24 18 13 12 23 13 7 23 34 20 22 27 17 10 14 13 15 13 24 26 10 19 20 16 16 34 17 19 6 20 30 14 33 27 9 23 13 16 10 17 9 33 28 16 14 14 14 16 20 14 3 23 27 16 23 35 17 10 27 17 20 6 28 23 16 17 28 23 13 13 17 13 24 20 7 27 27 23 20 13 33 20 27 26 24 19 17 16 6 12 17 10 12 19 9 27 20 24 3 24 13 7 6 10 28 24 37 6 12 17 23 34 7 37 10 31 16 16 13 14 16 7 20 10 12 20 20 9 21 6 14 27 20 6 19 17 7 21 9 20 10 10 17 14 3 27 13 20 3 7 10 16 17 34 16 20 27 22 31 27 17 14 27 27 21 10 13 7 3 13 12 17 20 7 11 27 17 24 19 13 27 13 21 27 10 20 24 17 16 17 17 31 24 34 10 24 16 34 23 17 14 31 20 21 14 17 17 36 16 15 10 15 6 16 30 13 20 30 17 32 17 10 20 17 24 6 13 31 10 17 21 17 23 16 13 17 26 24 17 30 10 23 9 17 0 42 23 9 16 21 14 24 34 10 9 28 16 34 9 6 3 14 31 20 15 12 17 17 17 21 14 20 16 17 24 0 3 16 17 14 17 20 7 20 21 10 14 17 17 27 13 27 24 6 17 21 3 9 14 21 23 20 30 12 27 8 16 20 16 17 26 16 30 20 16 25 13 24 10 13 10 14 17 19 24 20 3 28 10 3 12 14 18</t>
+  </si>
+  <si>
+    <t>N(23.6758, 4.542740842266924)</t>
+  </si>
+  <si>
+    <t>32 27 22 25 20 22 30 14 29 18 25 23 19 28 27 24 27 30 21 25 29 20 24 17 21 23 17 34 24 16 23 22 29 24 28 28 23 21 19 25 19 26 30 27 21 30 27 25 27 25 22 26 23 20 23 22 25 21 31 23 19 27 22 24 35 29 24 38 22 17 26 28 29 25 29 19 23 22 27 33 31 25 29 24 25 33 22 30 21 35 28 20 24 23 26 25 19 22 25 22 22 24 26 24 26 24 21 24 13 32 32 23 22 25 22 23 18 15 25 21 30 28 23 21 24 28 21 24 19 11 26 28 34 22 19 27 22 22 27 25 20 26 18 20 17 23 22 23 18 19 21 26 15 21 33 23 32 21 21 20 19 21 17 25 17 27 22 21 29 23 17 27 15 20 25 24 22 22 20 27 23 18 21 21 21 22 39 28 24 26 27 25 27 28 26 23 23 18 18 25 26 26 26 23 29 27 19 24 19 24 15 19 20 24 26 19 22 22 24 24 25 22 24 25 24 23 25 31 20 24 14 21 20 27 19 19 19 16 25 29 27 16 21 28 20 31 23 13 20 34 29 24 22 21 25 25 20 24 37 19 22 38 23 18 25 27 21 21 30 12 25 24 24 25 19 21 27 29 14 23 24 23 33 29 28 22 24 22 20 27 18 20 26 20 20 23 17 18 17 26 20 26 22 17 30 30 23 17 24 20 23 23 23 28 33 21 28 26 30 28 23 17 26 29 17 25 18 30 29 22 23 22 25 24 14 23 20 20 23 23 23 28 20 18 25 19 23 27 18 27 30 21 22 30 26 15 24 26 17 32 27 27 27 30 20 27 19 17 31 21 18 20 26 25 23 26 27 25 26 30 27 22 23 22 23 15 26 30 17 20 14 29 25 24 16 24 31 20 12 23 28 26 20 27 26 23 26 19 20 14 18 18 22 24 24 22 20 27 21 27 23 31 23 23 20 23 21 16 28 22 24 24 19 29 21 23 24 24 27 19 25 27 24 25 20 21 26 26 31 22 23 29 25 20 25 24 20 28 18 29 22 27 21 24 30 21 23 21 26 34 20 22 21 21 25 18 22 24 19 29 24 24 23 23 28 30 22 26 18 23 33 28 19 30 25 28 20 30 24 30 20 28 22 28 23 25 23 23 20 20 25 17 25 24 19 21 28 26 25 22 19 19 31 22 25 28 17 22 18 21 21 29 28 21 16 27 21 19 31 26 25 27 32 19 25 25 16 16 23 29 24 17 29 27 26 28 26 22 19 30 27 30 19 32 24 26 24 15 24 21 26 23 20 27 23 14 25 18 34 25 19 20 27 22 27 22 19 25 33 18 19 31 26 29 30 25 21 27 25 22 23 34 24 19 19 35 26 21 19 27 25 29 22 29 14 36 14 26 24 22 21 29 25 29 27 29 27 28 27 32 17 25 24 29 23 24 16 21 19 19 29 34 22 19 31 22 25 24 25 25 26 29 27 25 19 23 24 18 18 29 30 14 16 25 27 21 30 20 23 27 31 16 28 18 25 26 22 21 31 19 20 34 23 23 25 27 17 27 28 28 24 23 15 27 25 22 25 17 27 23 19 25 31 23 23 29 17 26 25 16 16 25 29 23 26 26 19 27 21 27 30 29 26 26 26 21 31 24 18 21 22 21 23 20 26 12 33 21 31 23 19 19 31 25 25 24 23 21 25 21 18 34 21 22 19 28 27 24 27 19 24 27 22 24 17 28 23 18 28 27 30 27 29 21 25 24 29 29 32 23 18 23 21 23 26 23 32 19 24 21 23 19 20 27 24 24 23 29 12 19 22 21 28 22 31 21 28 16 30 27 30 25 22 27 24 19 26 22 24 17 25 26 28 25 19 13 25 21 23 18 21 21 24 27 23 29 24 32 26 25 21 19 24 23 19 16 27 17 30 27 20 18 25 24 18 19 23 24 28 28 25 23 15 25 20 22 19 28 25 20 26 24 25 34 26 22 27 19 27 31 32 26 16 24 17 17 20 20 20 20 26 21 21 22 31 16 26 26 22 22 24 25 21 31 23 23 25 27 35 21 24 24 21 32 28 24 29 28 20 19 18 27 20 22 22 25 18 24 28 31 23 23 28 20 25 22 36 22 16 24 22 21 14 16 21 21 24 24 23 28 25 29 20 27 29 21 27 27 17 23 23 21 31 22 21 16 13 28 19 20 22 25 25 18 10 18 26 24 19 22 15 18 21 20 27 28 19 24 31 19 30 24 33 23 12 29 18 31 21 30 23 23 22 27 25 18 35 26 30 22 13 34 14 29 25 21 27 28 26 19 18 19 24 22 27 21 18 34 27 15 26 20 24 22 27 26 25 22 12 20 21 29 21 25 23 23 19 22 24 28 34 30 22 22 27 27 21 26 22 27 24 19 22 29 27 20 25 23 17 31 25 19 29 25 26 17 20 22 25 24 26 17 27 21 18 30 18 24 21 27 26 20 33 22 20 24 21 36 33 28 22 27 31 23 24 27 12 15 18 22 28 21 25 24 23 24 27 29 27 22 24 23 26 31 16 26 18 27 29 35 19 18 18 25 18 28 26 26 24 16 15 15 33 24 19 27 26 27 27 29 19 26 40 18 16 21 22 18 18 33 27 25 19 24 24 22 19 27 27 27 17 26 27 26 28 20 24 25 30 24 19 30 27 22 32 16 25 27 24 24 20 22 25 25 16 15 30 29 18 19 22 24 20 30 21 27 30 26 23 27 25 25 21 14 25 32 25 26 29 24 19 20 31 18 27 20 23 21 23 18 26 20 20 31 27 25 25 28 28 21 30 25 22 27 30 24 13 29 21 25 26 19 28 30 16 18 23 20 24 24 27 30 13 23 37 26 32 20 20 28 33 14 26 21 25 33 24 28 21 13 19 23 27 17 22 24 27 32 25 23 24 22 20 24 25 32 24 19 32 13 25 20 27 21 21 17 29 14 20 27 26 21 27 27 23 25 27 16 24 20 27 24 25 22 19 19 23 20 19 32 26 29 29 14 29 32 20 27 17 28 14 28 16 27 23 26 24 18 29 28 18 22 22 25 33 27 20 24 24 15 17 30 19 22 16 29 20 26 22 20 24 23 31 21 20 27 27 25 20 28 26 25 20 26 22 15 26 20 23 21 24 22 22 16 24 27 20 27 29 22 22 20 19 21 31 35 16 25 25 24 27 25 25 26 18 36 23 19 21 19 29 19 22 26 19 32 24 22 25 25 22 23 28 20 32 17 24 20 28 24 27 16 26 28 22 19 29 25 28 22 23 29 18 35 25 25 29 20 17 23 31 25 15 25 19 28 30 25 21 20 18 15 20 28 18 18 27 22 15 31 21 21 27 27 27 31 28 27 27 21 28 21 19 24 24 22 26 26 21 23 23 22 26 17 20 18 17 24 32 30 21 12 25 25 28 18 19 23 21 24 22 31 27 23 27 25 19 15 16 18 26 21 23 27 26 15 25 15 24 23 17 17 17 38 19 20 24 19 25 25 25 22 23 24 22 23 25 20 20 30 17 28 20 23 26 22 34 27 35 26 26 18 25 14 23 28 26 23 23 21 26 25 29 26 30 20 21 24 23 26 19 18 22 17 22 23 25 25 20 26 21 19 21 21 28 20 18 22 19 31 20 29 19 26 25 27 23 24 25 25 24 27 22 23 26 24 32 19 18 20 26 27 29 24 29 25 26 34 28 25 25 19 23 30 20 21 24 27 23 31 32 20 25 21 29 36 26 30 28 28 25 24 31 26 21 19 29 18 18 17 24 27 28 19 22 20 21 29 26 18 18 27 28 21 18 22 18 29 30 17 28 24 25 18 27 28 25 20 21 16 28 16 20 23 18 24 23 18 24 24 15 21 28 21 21 24 22 24 25 32 22 18 21 19 28 24 21 24 25 17 18 30 25 24 22 26 26 19 26 25 27 28 22 32 20 24 19 24 24 30 21 23 25 27 19 22 14 24 26 16 23 23 21 25 22 25 26 26 21 17 23 26 25 24 22 29 25 25 20 20 29 26 22 24 25 23 24 25 25 26 30 19 20 34 16 37 29 19 27 13 21 22 26 24 17 16 22 18 26 32 24 18 17 25 35 17 31 24 24 25 27 23 23 25 26 29 23 27 14 20 28 24 18 31 30 34 27 28 19 24 27 19 24 22 33 33 22 22 20 23 25 24 18 28 17 22 19 16 24 31 31 19 16 18 24 30 22 21 31 23 19 18 30 23 32 22 20 21 23 21 28 24 18 17 18 21 20 12 25 20 26 16 17 26 26 22 23 29 27 22 29 24 27 28 28 31 28 21 26 22 24 21 20 23 18 23 23 27 24 33 29 27 21 25 26 22 29 25 16 19 25 26 21 21 25 20 26 23 21 24 24 17 27 28 31 28 20 18 25 18 30 26 25 26 25 24 20 24 27 26 30 23 25 20 29 22 20 22 18 26 28 23 23 28 21 17 18 36 26 19 28 23 20 21 24 34 24 21 29 29 27 21 25 13 25 24 27 31 23 21 18 29 29 19 14 22 24 17 28 26 20 16 19 19 20 26 22 28 32 17 26 25 26 28 25 21 19 22 26 25 17 32 16 28 21 26 28 24 25 12 23 24 25 27 26 19 23 30 18 29 24 32 26 24 30 20 23 15 27 24 22 22 24 18 25 30 30 24 22 33 22 29 22 18 20 21 19 19 21 26 22 24 23 24 28 19 18 29 18 22 26 27 22 31 18 20 11 21 20 24 25 21 16 20 26 24 22 19 21 24 31 22 25 29 15 15 21 22 25 21 31 26 22 21 20 23 28 26 29 15 29 28 21 17 26 21 25 29 28 20 19 27 19 24 20 18 26 17 17 25 34 23 31 25 29 29 22 22 22 14 25 23 28 34 32 22 35 27 13 27 22 20 25 23 28 34 23 18 30 22 28 19 15 18 22 23 30 14 25 29 25 24 17 33 13 19 22 24 28 24 23 27 22 25 19 20 20 36 26 21 26 28 23 16 30 20 30 20 28 17 27 27 25 23 17 20 26 18 18 30 28 26 21 23 16 22 26 24 26 21 30 24 19 29 14 21 19 26 26 17 24 27 25 27 25 20 21 20 24 28 19 24 23 15 23 26 19 22 22 25 23 13 22 24 30 27 19 30 34 20 23 24 20 27 20 24 24 29 28 20 24 19 28 22 26 17 21 19 23 18 22 30 27 18 23 21 16 20 25 17 22 24 20 29 20 24 24 21 20 27 16 27 19 26 10 22 24 23 33 28 30 17 21 20 21 24 17 22 33 22 22 18 17 27 20 19 22 25 19 27 28 15 21 26 24 24 17 28 19 24 26 19 20 25 19 25 30 27 26 23 30 27 28 21 24 30 29 26 28 18 25 17 21 23 21 18 26 25 26 27 35 24 18 25 21 20 30 22 20 27 20 24 23 19 22 22 21 23 21 19 12 25 27 19 22 22 19 19 21 29 22 29 24 15 28 22 16 31 29 22 22 23 19 26 26 23 25 25 26 21 23 19 20 22 22 15 24 29 17 23 28 22 27 24 23 15 20 13 18 40 22 34 19 22 21 28 27 21 24 28 15 27 24 20 19 26 30 28 36 26 22 17 20 23 29 23 22 23 26 22 25 27 18 31 22 23 23 29 21 21 24 32 15 25 19 28 16 21 29 22 29 22 17 32 24 29 17 23 22 29 33 26 17 16 24 24 23 15 23 18 33 23 23 26 34 21 20 24 24 27 23 29 29 23 28 24 30 24 17 31 29 29 24 25 25 21 26 19 14 14 18 24 21 37 26 25 28 30 15 22 26 27 26 23 31 22 23 23 26 21 29 32 22 30 26 21 19 26 25 32 27 26 26 30 31 21 22 27 20 23 28 16 27 23 24 22 25 21 30 15 23 22 28 28 22 21 24 17 25 27 26 31 14 31 22 23 18 22 20 26 22 24 27 23 24 23 28 19 30 28 21 23 24 19 24 22 28 23 17 19 20 25 17 23 16 28 24 30 22 26 24 27 20 21 32 22 22 15 19 20 24 21 22 12 26 26 27 33 20 24 30 26 26 29 29 21 17 22 24 28 29 21 28 26 23 25 26 23 20 15 20 20 20 14 22 18 23 28 21 24 21 29 24 24 22 19 33 25 21 15 25 22 15 29 21 23 20 13 18 29 24 34 20 20 25 22 18 30 20 34 32 20 20 24 25 30 30 23 24 27 22 24 24 30 32 25 19 23 29 21 23 28 26 27 22 23 27 27 19 19 23 26 29 28 20 26 22 19 18 17 20 28 21 25 23 28 27 22 23 23 23 28 23 22 29 24 28 22 17 20 29 30 18 24 30 28 20 16 24 23 24 28 29 27 25 26 27 18 26 23 26 18 27 26 21 27 23 20 22 17 24 26 26 24 22 24 18 27 16 23 22 23 32 22 21 22 23 22 19 29 20 22 20 20 25 26 32 25 20 29 20 30 29 21 23 25 17 32 19 19 23 31 19 21 27 26 23 28 21 37 28 20 24 23 20 29 20 30 22 26 23 20 20 30 19 24 32 29 23 21 26 29 28 28 28 10 31 29 23 26 22 27 20 26 22 17 22 18 23 25 24 22 26 24 17 26 23 18 22 23 20 22 26 21 17 29 23 31 24 17 21 29 22 22 25 25 18 18 25 28 29 30 25 18 23 29 22 24 21 21 25 18 27 23 20 24 21 19 24 25 16 22 25 19 32 24 25 24 20 18 21 28 23 24 21 21 22 26 34 26 23 22 20 23 24 25 20 15 31 29 15 25 28 26 23 23 21 22 23 25 22 20 18 30 30 23 17 26 30 18 25 23 22 17 15 20 16 15 30 20 17 25 29 29 28 26 25 19 29 15 22 29 25 27 26 21 20 22 18 28 28 23 21 21 31 28 24 23 17 23 20 28 29 20 30 20 26 20 24 18 25 17 27 16 28 35 21 28 30 25 22 22 24 23 25 28 35 18 25 26 29 22 25 31 25 17 26 19 28 22 25 28 27 21 16 20 30 19 25 19 20 34 29 28 19 22 22 19 20 22 21 24 29 25 29 29 17 21 18 22 30 16 30 22 21 23 21 27 16 25 22 14 27 17 23 15 30 21 28 27 19 30 26 33 20 20 24 22 29 29 20 29 27 27 29 25 18 30 29 22 22 23 25 18 32 15 23 28 22 18 22 31 17 16 19 21 16 20 25 21 21 18 20 17 14 23 27 23 28 24 20 14 19 29 25 16 24 25 20 22 32 19 18 20 22 21 26 20 28 22 28 28 20 29 26 19 30 23 26 30 26 24 23 16 23 24 30 23 33 33 29 20 31 26 22 24 22 33 22 27 26 20 29 24 22 30 17 30 25 15 15 38 22 21 24 21 22 22 20 30 27 34 26 33 26 25 31 33 18 24 19 17 15 23 18 18 26 24 19 20 18 32 20 24 22 23 23 23 28 24 16 19 29 27 21 17 23 22 15 17 26 24 31 26 28 27 29 24 27 24 30 23 18 32 26 25 16 18 28 24 18 22 25 30 18 28 19 28 25 33 26 21 22 17 28 22 21 21 31 23 30 20 27 22 29 30 28 25 23 31 21 23 28 29 22 26 27 22 27 29 37 31 20 25 25 28 24 29 25 29 24 20 24 21 18 17 16 18 23 25 17 25 24 29 18 20 26 33 22 24 23 19 23 24 29 20 32 23 24 23 24 26 15 17 21 22 22 30 25 25 25 16 20 23 19 23 31 22 23 26 21 26 28 23 22 17 21 24 21 21 24 26 35 28 19 33 20 28 30 24 23 22 25 15 17 22 21 27 24 17 14 27 29 24 23 22 26 22 19 24 21 27 18 22 20 22 27 27 19 31 23 29 23 24 16 20 21 21 27 23 15 23 23 24 20 22 25 24 16 23 26 20 24 22 24 14 25 19 23 26 27 30 14 22 32 22 24 24 26 21 28 22 31 22 26 26 18 28 31 30 26 30 23 23 20 24 36 19 26 29 29 25 27 26 30 27 29 26 23 25 17 19 22 23 22 25 24 21 23 27 26 32 31 30 13 22 31 20 26 21 32 32 24 17 27 22 27 25 20 27 27 24 21 28 31 29 24 28 23 18 20 19 24 26 25 27 23 18 28 26 25 17 26 27 28 28 23 21 26 27 24 21 18 23 25 18 25 21 20 23 34 23 26 25 20 20 28 25 24 22 20 24 33 32 19 22 22 28 23 24 32 23 37 22 23 20 15 21 24 17 22 28 26 20 22 28 32 24 28 26 29 18 28 24 23 26 20 24 22 24 24 27 25 21 21 23 30 31 27 22 23 22 29 30 24 16 19 18 29 20 16 23 18 24 19 24 24 24 15 23 24 18 29 21 28 19 28 33 23 15 24 31 22 33 25 21 27 26 25 19 22 23 25 18 25 27 24 23 24 21 15 20 27 34 27 32 27 22 30 26 24 24 22 19 22 19 24 24 17 17 20 23 20 27 25 20 29 36 30 30 21 28 26 19 28 26 28 27 24 26 23 25 24 23 20 25 23 27 24 28 25 26 22 30 22 32 29 25 15 26 22 33 18 27 17 34 27 24 23 22 28 31 28 24 21 23 19 25 27 18 15 23 29 22 18 24 21 15 19 18 23 20 20 17 20 22 20 28 20 24 14 25 21 24 27 31 22 19 29 22 35 27 30 24 32 22 21 23 23 25 32 22 20 26 15 21 22 26 25 22 17 20 24 23 21 25 23 20 30 16 22 14 26 22 16 24 19 16 20 28 34 22 19 27 27 22 21 27 30 25 26 18 26 24 28 14 29 24 24 26 20 28 24 23 27 23 22 14 28 28 29 23 22 28 21 31 32 19 20 24 26 33 27 25 29 24 25 14 21 32 17 24 32 29 27 26 29 21 26 20 18 27 18 18 23 27 29 25 27 27 22 28 37 30 28 25 26 28 20 26 28 18 29 21 28 23 20 27 31 27 15 24 24 25 25 33 22 24 30 25 16 17 34 23 30 22 21 23 16 23 23 21 31 23 21 16 27 23 19 22 26 18 28 29 27 26 22 17 18 24 17 26 26 25 16 30 15 23 22 21 21 22 25 29 24 26 20 19 23 24 15 23 22 27 30 21 17 22 22 32 25 23 27 23 30 24 23 23 21 23 26 29 27 17 22 22 27 27 17 22 28 22 30 26 24 30 22 17 27 22 27 24 28 24 22 33 31 19 26 24 31 24 25 26 26 22 22 31 23 22 24 22 22 20 19 25 25 26 24 19 28 32 26 19 31 24 25 24 23 26 18 23 18 21 21 21 26 32 22 25 20 23 27 29 24 21 21 20 20 28 16 21 25 23 22 21 26 21 21 19 17 24 24 17 25 22 25 23 30 22 30 24 27 22 24 22 25 31 19 27 25 30 25 28 24 24 29 21 23 18 16 28 19 19 22 15 22 23 24 18 29 21 27 22 15 23 19 20 19 19 26 30 25 26 26 28 30 33 30 22 22 19 22 26 27 29 20 20 23 30 16 26 18 19 22 30 29 26 19 20 14 23 23 26 25 28 23 29 23 27 21 28 34 34 19 30 23 24 28 24 23 21 22 28 23 22 26 25 21 30 17 23 30 18 23 19 29 10 20 20 17 20 31 24 21 16 15 22 22 20 21 31 14 23 22 27 33 19 27 24 28 31 22 18 30 20 11 18 18 29 29 32 24 23 22 26 27 17 23 25 31 16 25 13 23 17 29 27 28 34 26 22 26 31 24 18 32 28 24 14 26 21 24 30 29 24 22 29 11 22 24 27 27 22 25 17 20 22 23 27 31 27 24 30 30 14 26 30 24 16 26 26 15 24 29 30 21 26 12 21 13 19 29 25 20 24 27 20 21 24 22 12 17 25 28 41 22 26 30 25 18 28 30 28 17 23 37 22 34 23 22 34 25 23 17 27 28 28 24 25 18 30 20 33 18 23 27 21 24 22 25 21 15 24 25 35 20 31 20 26 18 18 23 29 18 22 23 23 21 23 29 24 25 21 23 19 23 19 18 26 32 23 26 20 18 19 19 22 11 31 22 19 25 33 20 24 26 25 22 20 24 24 21 25 28 25 29 15 31 21 24 27 18 26 22 18 19 21 22 21 24 26 15 26 20 21 21 21 24 20 25 29 25 23 29 19 23 27 18 21 19 35 28 27 19 12 32 22 30 19 26 24 18 20 27 31 28 24 34 22 22 26 24 21 16 24 23 29 22 26 20 21 26 28 21 21 20 29 28 24 24 28 23 31 24 21 26 27 24 22 29 24 27 23 18 16 31 23 24 24 24 33 26 24 19 21 26 18 20 21 22 14 22 16 14 22 31 24 43 16 27 29 16 26 23 22 26 23 26 26 23 28 21 26 18 19 31 21 25 21 20 28 30 30 26 26 23 34 27 24 26 20 35 21 21 16 23 23 18 21 24 27 26 29 26 29 25 24 21 27 24 15 26 27 27 27 27 21 23 19 25 16 27 24 28 15 20 20 23 17 18 27 32 25 28 32 18 31 20 19 31 24 25 26 25 22 31 28 20 29 19 20 27 24 23 32 36 33 20 24 26 29 25 23 18 21 24 20 22 28 17 22 31 28 34 22 18 22 20 17 17 24 22 44 31 26 24 30 23 25 21 22 30 19 20 29 16 24 18 25 24 20 25 25 24 22 25 26 27 23 20 26 21 29 29 21 15 28 18 23 27 19 30 26 27 25 29 22 20 25 23 15 22 21 22 27 21 17 21 32 28 28 18 17 25 31 25 21 25 18 19 21 25 13 26 19 22 13 23 19 24 16 18 17 19 25 24 26 22 17 24 21 23 16 22 27 22 25 20 19 14 22 26 20 14 19 16 20 19 24 23 21 21 23 23 21 24 26 25 14 30 21 24 19 16 31 30 19 19 29 21 23 25 28 21 28 30 28 24 26 20 25 23 27 22 29 24 24 19 26 20 27 33 20 25 26 26 21 24 24 26 24 21 26 17 27 20 25 27 25 26 26 24 34 27 26 18 23 22 11 25 30 16 26 28 23 28 20 31 16 21 26 18 13 25 23 21 26 29 23 27 26 19 28 17 22 29 25 16 24 10 32 18 26 24 19 15 21 20 27 24 16 21 23 24 28 23 25 23 26 19 25 36 24 25 26 26 28 26 23 29 20 19 20 39 23 16 28 31 25 18 26 17 24 24 27 25 28 32 25 20 20 23 26 26 29 26 22 18 20 19 18 22 30 22 21 17 12 37 29 19 25 25 25 25 30 19 21 27 34 18 22 20 32 16 20 30 31 26 26 18 31 25 30 25 30 19 26 23 14 28 20 23 25 24 29 21 22 35 15 26 22 24 24 22 24 22 25 19 25 21 25 18 25 18 23 25 18 24 30 23 21 14 22 19 23 19 26 19 21 27 23 23 24 27 22 22 22 25 23 32 24 21 32 18 30 18 19 20 23 22 30 24 19 28 27 30 21 36 30 20 30 22 23 19 30 29 29 26 23 26 26 19 27 27 23 25 27 18 33 26 20 18 21 14 21 23 30 22 16 21 25 19 24 25 22 24 29 19 22 12 29 14 29 17 28 25 22 24 22 22 28 23 20 35 26 15 31 27 31 23 27 20 35 21 18 27 16 22 32 23 19 33 17 19 21 21 21 22 22 21 20 25 21 26 27 22 16 29 16 22 21 26 23 18 25 24 26 30 25 28 26 18 24 25 16 24 15 30 23 31 19 30 23 22 28 27 20 26 23 20 20 23 22 20 15 33 29 30 30 18 17 26 24 28 25 15 22 19 23 19 31 28 22 26 28 22 22 28 22 27 21 20 13 28 19 24 22 21 28 21 20 22 27 25 34 23 21 15 30 26 18 32 23 18 17 18 21 24 21 22 28 21 21 22 25 27 26 24 18 24 15 22 24 24 34 33 25 20 24 24 29 23 22 24 20 22 22 28 25 23 19 30 30 30 17 31 29 18 26 21 19 24 25 20 18 21 25 20 27 25 24 28 25 23 24 23 30 18 19 21 25 20 25 28 17 23 15 22 24 20 19 19 26 25 34 25 22 22 29 19 21 20 30 21 16 27 23 18 20 11 30 21 34 16 26 25 25 27 20 24 20 22 18 20 34 19 25 31 23 28 21 25 22 22 17 16 23 25 15 22 17 16 16 22 28 21 27 20 25 25 24 29 23 19 21 30 21 30 18 28 22 18 17 26 20 17 20 25 18 12 20 13 20 27 21 25 31 24 24 30 30 27 21 20 28 32 16 30 27 17 22 28 24 25 21 20 29 27 20 21 24 34 21 25 20 23 23 31 30 24 20 21 24 25 26 24 22 27 26 23 24 23 18 23 16 26 35 26 26 14 25 23 22 24 25 16 22 28 22 22 20 30 19 29 25 13 21 29 16 23 20 23 19 22 16 23 21 25 26 18 31 21 24 19 24 19 22 24 23 21 27 23 21 17 31 20 21 30 25 16 24 15 21 26 23 24 18 29 20 19 22 27 29 29 24 20 17 19 28 26 18 27 19 15 25 28 22 24 22 25 28 21 29 23 21 24 15 25 25 25 17 26 22 23 28 23 27 22 26 17 23 25 24 26 19 24 24 26 26 20 27 28 22 22 17 20 22 18 23 18 30 31 29 28 35 27 25 22 23 27 21 23 23 30 23 27 21 28 19 26 22 25 18 21 23 21 31 30 21 28 26 31 22 28 24 22 20 27 30 21 24 19 27 29 19 27 29 25 23 26 26 25 24 28 21 26 31 26 28 24 22 21 18 25 20 29 20 21 22 26 23 31 25 26 21 25 22 30 26 21 24 21 29 24 30 29 19 23 26 19 29 34 25 25 28 22 25 17 30 23 19 20 28 30 27 17 25 22 26 29 20 27 18 25 21 25 29 29 23 25 21 20 24 28 24 20 22 23 23 27 28 29 25 24 24 22 25 30 18 17 27 30 27 22 25 25 23 20 23 24 21 23 29 22 27 27 26 28 23 22 18 21 17 25 14 23 28 16 17 32 24 21 23 18 33 31 24 25 23 25 19 28 27 18 18 27 19 31 23 24 20 13 27 33 18 34 20 22 22 18 24 19 23 18 25 23 20 24 24 23 30 14 23 22 23 23 30 18 21 20 26 25 24 20 19 22 21 23 24 21 26 23 19 24 26 25 27 22 24 17 20 10 32 23 31 27 22 20 25 19 26 23 19 21 28 21 20 25 26 31 32 19 29 30 29 26 25 24 24 21 19 20 24 24 25 27 19 23 25 22 22 21 27 23 21 23 21 30 35 27 19 19 30 18 26 19 17 21 26 18 28 16 25 14 18 25 24 33 29 31 20 29 30 28 29 21 22 25 20 31 15 15 23 29 19 26 24 26 23 29 28 20 22 26 19 17 20 25 21 24 26 20 25 27 24 22 23 26 24 24 19 32 39 19 22 28 22 21 23 19 32 36 18 23 21 21 20 23 25 32 16 25 26 19 22 31 27 27 26 20 19 25 28 17 20 17 19 26 20 22 27 20 23 22 20 22 21 22 23 25 24 20 31 22 32 26 20 18 22 15 22 19 19 15 31 28 14 28 18 25 24 19 22 28 23 25 25 22 18 23 24 23 25 25 28 24 27 20 26 27 31 19 24 21 24 27 22 24 21 32 20 24 23 22 27 25 25 23 28 30 22 33 23 29 17 25 22 23 27 28 22 31 25 27 17 24 26 26 24 27 22 25 31 20 29 20 26 12 26 25 17 18 28 26 24 21 25 22 24 22 19 24 22 12 23 22 28 25 26 18 27 20 32 20 31 22 22 28 21 25 20 22 21 30 32 24 26 22 23 22 19 23 17 25 25 20 22 30 14 23 31 35 20 26 27 22 19 23 20 18 18 28 21 18 27 28 27 13 22 17 29 27 19 32 21 24 29 33 21 23 18 21 30 33 18 21 29 22 23 23 23 23 25 23 26 26 31 23 26 22 19 25 19 33 28 18 25 31 18 23 25 24 19 30 22 21 30 26 26 23 27 21 32 24 23 38 20 20 21 25 19 25 22 27 26 29 17 27 26 29 17 26 33 23 22 19 21 20 27 22 22 29 27 31 29 27 28 16 21 28 27 20 21 21 18 18 31 21 19 22 29 21 25 20 24 22 24 27 25 17 19 19 20 20 20 19 20 28 25 24 33 20 25 28 19 18 20 28 14 20 22 26 17 20 22 20 13 23 26 19 19 23 17 32 22 25 21 15 27 18 27 31 19 30 24 21 31 25 25 20 27 25 26 19 27 26 24 14 25 24 29 18 20 22 29 26 22 25 29 23 29 20 30 25 26 22 31 21 24 29 24 19 27 28 21 26 21 24 22 20 31 24 17 23 24 25 25 22 20 21 22 26 23 31 14 19 15 24 18 22 25 31 27 24 27 23 24 25 20 23 24 16 25 26 20 25 26 27 27 27 19 15 27 22 23 19 17 22 25 27 24 23 25 25 23 21 29 27 22 32 23 25 23 25 15 25 18 24 20 27 24 29 24 20 25 27 20 17 30 24 19 15 17 23 29 27 28 21 24 27 25 19 12 17 25 30 25 24 26 21 21 24 22 24 22 25 24 21 20 21 26 23 17 30 26 22 24 31 20 17 31 25 23 29 23 21 26 27 25 26 24 26 23 32 20 30 31 18 34 29 30 28 17 24 22 20 24 26 25 26 28 23 19 26 24 32 26 25 22 22 18 25 20 21 24 24 27 26 18 20 30 29 19 27 26 21 30 24 18 23 21 29 30 18 30 33 28 34 24 32 23 29 19 22 22 25 19 27 28 22 26 25 22 18 22 26 25 18 22 23 15 26 26 22 26 25 21 27 29 25 15 27 27 21 23 22 23 31 25 24 22 24 19 18 31 20 26 17 27 26 23 25 24 16 28 19 28 27 32 26 14 26 27 16 29 15 25 23 24 25 27 27 24 19 22 20 17 20 28 18 28 17 24 22 25 22 18 19 19 26 21 25 25 29 19 15 14 23 21 19 21 21 15 27 21 18 24 21 26 22 28 14 26 15 24 20 20 24 22 24 28 31 13 26 29 25 30 23 30 17 22 23 27 23 23 27 26 26 19 22 26 21 22 23 28 19 25 20 25 21 15 26 22 27 27 28 17 24 30 20 25 30 24 23 34 20 26 29 21 18 22 26 22 26 23 22 21 20 23 29 26 14 20 18 30 26 32 27 29 18 24 23 25 20 23 22 20 25 20 21 27 19 28 24 27 18 32 21 25 21 20 30 27 20 28 20 29 18 12 26 23 24 17 23 24 24 22 22 24 19 23 26 20 14 26 24 29 17 18 27 21 21 15 15 23 25 22 26 22 22 20 20 33 22 30 21 21 23 24 25 28 20 19 29 24 28 31 28 22 21 22 23 28 27 17 19 23 15 21 24 20 25 14 22 27 13 25 22 16 16 30 26 33 28 35 23 23 23 18 24 25 21 23 16 12 23 20 18 23 23 27 22 28 18 22 12 25 26 22 28 24 15 30 28 26 22 28 26 28 22 22 23 30 20 17 15 23 21 20 25 23 19 22 24 29 28 33 26 26 23 32 23 24 14 22 17 35 22 25 25 25 15 23 27 31 23 23 31 27 19 21 20 27 22 22 22 23 22 22 24 20 19 30 24 24 25 25 30 12 22 31 19 34 25 26 31 25 30 18 26 19 29 28 25 28 25 27 29 27 24 22 24 19 20 28 22 19 27 13 23 26 32 29 32 30 27 18 16 29 34 24 26 18 22 24 23 26 15 24 21 22 24 19 24 27 26 23 16 25 22 28 25 28 23 23 16 22 26 23 30 18 24 29 29 22 23 24 27 20 22 30 26 22 26 18 20 16 26 25 22 33 19 25 24 25 21 23 22 20 22 20 18 18 18 25 20 15 27 24 21 25 21 21 24 25 29 18 23 18 27 31 24 20 19 28 30 27 23 30 20 24 22 14 27 20 24 26 18 27 24 28 15 34 18 21 13 20 20 29 30 25 24 14 30 22 24 20 24 23 22 29 16 11 27 25 25 19 16 27 19 29 22 26 21 28 19 19 25 27 22 30 26 29 19 31 23 23 21 20 17 25 29 21 23 12 18 31 27 25 32 20 18 27 28 25 21 22 26 22 20 21 26 28 15 28 24 27 33 33 20 23 21 24 20 26 28 22 14 22 29 21 28 17 23 21 21 24 22 21 23 23 27 27 18 24 23 21 21 36 29 20 22 21 24 22 30 24 25 24 21 21 30 22 26 29 16 23 35 28 20 22 25 25 28 30 21 22 20 30 27 21 25 20 24 22 30 20 14 21 19 23 22 24 28 16 29 19 28 23 30 27 28 23 23 18 35 28 20 19 31 28 23 24 24 24 19 21 22 30 25 23 20 17 33 26 28 14 30 26 28 19 19 23 26 26 25 22 30 19 28 21 28 16 21 28 29 25 23 30 19 18 22 30 23 33 30 22 29 21 21 21 24 28 32 33 23 26 19 23 16 29 27 30 20 17 20 30 27 20 18 10 14 22 27 27 19 33 30 30 19 20 21 31 32 25 20 23 27 27 22 24 17 23 27 20 23 24 18 29 28 17 25 19 15 17 25 14 23 27 24 23 23 28 17 19 23 26 28 27 27 25 15 27 24 23 25 22 18 26 21 28 20 26 21 23 29 23 26 24 25 24 25 18 15 25 18 27 15 20 20 26 22 22 20 19 30 28 25 23 23 26 21 32 20 25 28 24 21 27 22 19 15 19 32 23 26 16 19 24 15 19 20 29 30 22 15 24 25 17 14 21 24 19 20 22 23 21 23 25 21 21 26 19 26 27 25 23 20 22 27 24 22 24 22 18 28 23 24 29 17 22 25 20 26 18 31 20 24 29 25 26 26 14 19 19 20 22 28 18 25 28 24 26 18 31 16 16 33 23 16 23 18 28 29 22 26 28 32 23 30 22 20 17 20 30 28 32 28 25 32 23 21 26 31 21 26 21 24 23 33 19 29 20 22 13 24 31 26 23 23 24 24 21 22 28 24 20 31 28 34 23 24 22 21 20 19 36 39 25 29 21 24 24 22 29 24 20 22 17 26 27 27 20 19 30 25 26 24 23 25 23 19 28 31 25 21 31 24 19 19 23 22 21 20 21 23 16 14 23 25 17 27 28 22 21 24 24 20 26 25 22 24 29 23 19 21 26 29 29 28 22 24 22 24 21 28 32 22 26 27 18 24 29 25 35 24 26 35 25 17 30 29 19 23 25 16 27 27 29 23 30 30 22 31 25 22 31 21 15 22 32 17 21 22 26 31 29 28 18 21 25 24 30 28 29 21 22 20 22 14 27 20 21 16 15 32 27 32 27 27 27 21 26 27 19 19 30 19 18 21 22 26 24 25 27 27 31 29 17 22 32 25 26 31 20 25 34 29 29 25 24 20 19 16 22 23 26 28 19 27 17 34 27 15 30 24 24 23 25 25 18 23 31 22 23 20 29 23 22 23 25 26 16 28 26 24 26 25 26 24 26 18 23 29 20 23 23 22 28 23 22 26 28 23 24 27 26 23 26 27 26 21 29 22 32 30 25 23 31 29 26 27 19 19 20 20 23 20 32 17 30 33 27 20 28 29 21 23 20 24 18 24 31 27 28 23 22 23 28 25 20 26 29 27 16 28 24 18 25 20 17 26 34 18 25 24 23 18 22 23 24 20 20 27 25 19 23 27 18 22 19 34 20 15 28 21 31 20 18 27 25 23 22 20 21 22 18 26 19 21 21 23 25 21 17 39 28 19 29 21 20 29 29 24 28 35 16 18 15 15 23 28 27 26 30 19 24 24 21 19 22 24 26 15 20 22 22 28 22 21 20 31 21 27 23 37 25 23 17 23 21 30 17 21 23 26 19 25 21 29 35 20 31 28 25 16 24 26 23 27 18 29 11 22 27 15 19 26 23 18 29 27 27 23 22 28 28 26 24 24 22 24 24 16 27 23 41 25 27 22 19 27 27 29 20 29 25 25 22 26 31 21 26 20 14 26 21 23 32 30 33 35 25 26 21 18 19 22 23 25 25 26 27 25 22 22 26 26 21 24 20 27 25 20 16 29 31 27 20 24 19 33 24 24 22 20 26 20 24 14 25 21 32 27 27 28 31 16 31 32 17 24 20 23 16 30 17 16 24 16 28 24 24 21 26 23 24 19 27 36 25 22 25 16 24 20 25 28 28 20 24 16 28 21 26 21 31 28 27 22 24 23 30 18 18 19 22 27 21 16 28 28 27 25 19 11 21 24 18 26 14 30 25 26 23 23 27 20 29 17 28 27 21 33 27 23 26 22 25 25 25 21 20 25 32 26 25 30 23 29 29 26 23 28 24 25 28 30 22 22 22 28 22 22 25 19 28 26 19 25 35 12 25 33 24 25 30 25 26 15 25 28 24 15 20 25 29 25 20 30 32 15 20 18 31 29 17 25 26 20 23 23 15 15 25 19 24 25 19 20 25 21 22 32 28 14 22 22 25 22 29 26 21 15 24 27 25 31 20 27 26 27 21 25 25 19 19 18 22 23 26 23 21 25 25 25 30 24 30 18 23 28 15 29 25 27 24 28 28 22 25 19 24 19 17 20 24 19 24 21 23 25 20 27 23 31 19 21 20 24 29 21 11 28 23 26 24 23 29 19 25 22 22 29 18 19 27 23 28 20 16 18 25 19 24 24 30 21 22 22 32 28 26 33 14 29 26 26 20 19 30 24 20 21 25 34 28 23 30 25 32 27 17 23 17 20 27 23 31 28 21 28 20 30 27 19 31 30 25 34 25 27 19 22 23 28 22 19 29 36 32 22 26 19 15 23 23 25 28 34 22 23 24 29 26 28 32 23 23 24 28 22 33 20 22 23 29 16 22 22 23 28 17 20 25 17 27 18 26 20 23 18 29 32 15 29 22 22 18 21 23 25 23 24 28 25 18 22 25 27 25 18 25 19 11 19 25 26 23 22 25 23 30 23 20 20 24 20 26 21 21 18 14 23 23 23 28 23 20 15 22 25 30 25 31 28 18 27 26 17 21 30 25 24 21 23 21 23 13 38 23 34 22 17 21 24 25 20 23 19 30 26 23 20 19 22 16 32 16 23 20 25 17 24 21 26 24 20 31 23 32 21 23 19 24 23 28 21 20 20 26 18 24 20 30 15 18 30 26 17 22 20 30 32 20 20 25 23 24 28 31 16 25 23 19 22 25 31 21 20 21 21 37 23 18 11 27 31 19 18 28 27 23 26 21 15 20 27 21 32 22 19 30 31 28 19 21 26 28 23 23 26 25 29 23 32 20 24 34 32 25 17 29 26 25 20 24 28 24 24 26 22 24 24 25 23 20 25 16 20 23 16 17 22 31 26 23 26 30 31 22 22 23 18 22 19 28 19 23 17 17 28 23 25 16 24 20 19 24 18 24 17 30 22 28 25 30 31 21 28 22 19 28 29 27 19 30 29 26 19 20 28 23 23 28 38 22 22 30 25 25 19 21 20 27 22 24 20 25 31 19 24 25 18 21 29 31 20 28 21 29 23 19 24 35 32 31 29 23 25 20 23 28 29 18 13 19 11 31 26 29 23 27 24 32 26 32 31 23 31 23 25 17 21 26 21 23 27 24 24 19 24 24 22 23 21 18 19 25 23 20 27 26 28 27 30 26 19 25 34 29 22 21 24 24 18 20 26 27 21 20 37 28 21 30 24 19 27 22 22 29 14 29 24 27 16 20 16 23 22 33 24 17 26 27 24 24 27 22 15 20 28 25 23 25 30 11 31 20 20 20 25 29 28 28 28 26 29 18 28 20 24 30 26 18 24 26 23 25 24 33 21 24 16 21 31 24 27 28 20 26 25 24 29 23 25 27 26 24 26 29 20 23 25 22 37 24 22 27 28 24 17 25 29 20 19 23 20 15 29 22 22 20 20 23 20 20 20 26 20 26 19 23 21 24 22 27 25 22 27 23 22 22 17 21 25 23 17 19 29 30 22 26 20 15 22 17 30 21 29 28 20 27 23 28 25 15 17 28 28 22 27 24 25 26 23 23 22 25 28 31 25 27 26 22 20 24 23 28 24 25 23 18 24 22 24 25 21 27 26 24 17 20 26 24 25 24 33 27 27 27 22 23 24 27 30 22 18 26 27 26 19 34 19 17 27 28 22 23 18 20 23 23 16 24 24 22 23 29 25 23 26 22 19 29 34 21 28 24 17 20 14 23 23 24 21 17 25 25 17 18 33 28 17 20 28 26 19 24 29 20 17 23 22 24 24 22 30 23 23 21 23 22 22 24 31 27 27 23 19 25 25 31 27 29 27 22 17 30 35 25 15 21 18 28 24 20 22 25 27 19 26 30 24 19 24 22 23 21 28 20 25 24 27 29 28 18 24 21 26 15 26 28 24 23 26 21 27 17 34 21 29 22 26 24 28 24 24 21 21 20 23 22 23 30 30 25 28 23 23 27 16 24 31 19 28 31 19 34 15 24 16 27 26 25 28 33 22 24 31 17 24 20 25 15 16 23 24 27 27 26 16 16 27 24 19 21 28 26 22 18 29 30 27 27 19 26 23 17 19 29 27 24 22 21 29 27 27 27 17 26 28 25 22 29 20 22 11 31 28 29 27 27 26 33 21 26 16 30 18 16 24 20 19 24 15 27 26 17 24 25 23 29 28 32 28 19 29 30 19 18 24 24 20 12 21 26 29 21 25 24 26 31 17 21 23 23 16 27 19 25 26 24 33 24 28 27 28 27 26 22 27 27 20 22 21 25 15 25 20 28 24 25 26 21 17 17 26 20 21 27 22 17 25 25 17 23 23 17 26 25 22 20 28 22 19 17 23 23 19 25 22 31 29 21 27 21 20 30 28 26 25 19 24 26 21 13 26 26 26 19 32 29 23 21 20 35 25 24 21 33 18 22 21 27 24 20 24 21 27 26 24 27 29 25 24 13 28 30 24 19 30 23 28 25 28 25 20 29 22 15 19 24 23 23 26 20 30 20 22 20 24 21 22 29 15 22 18 28 29 22 25 34 22 13 25 26 18 25 24 19 25 25 31 29 18 12 29 35 21 24 23 21 22 25 34 23 28 25 21 24 21 30 28 20 29 28 24 24 28 21 23 22 23 24 20 25 18 16 25 29 26 25 24 21 20 27 24 19 20 22 25 31 23 27 20 23 27 30 29 20 26 22 26 30 25 25 19 28 19 30 30 29 19 26 26 23 22 20 20 18 30 22 23 23 20 19 22 33 17 21 18 27 20 21 29 22 26 27 31 19 25 26 29 30 23 15 36 35 22 30 24 22 20 24 28 22 25 22 23 26 28 29 20 32 16 29 24 23 20 21 24 28 22 18 34 25 24 32 31 26 27 23 29 18 24 27 30 18 23 21 29 24 21 24 28 21 25 27 21 15 18 22 27 29 25 30 24 23 29 25 23 22 20 18 18 33 33 37 27 27 30 25 28 25 24 18 35 19 16 18 19 25 23 23 24 14 22 21 19 26 20 22 33 27 29 33 27 28 24 28 24 27 21 35 23 18 25 18 21 25 28 20 38 20 26 26 23 32 24 26 27 26 18 19 22 20 22 23 26 38 27 26 20 30 17 16 27 27 19 22 17 27 23 26 21 24 18 25 17 20 22 22 25 22 25 25 22 26 26 19 16 21 19 28 26 25 24 18 20 20 23 17 21 18 18 26 23 19 26 30 22 22 22 18 22 24 24 29 26 26 15 22 24 26 31 20 25 27 28 28 14 26 22 24 21 20 26 29 24 17 25 28 28 20 23 26 23 28 21 28 22 18 16 23 27 26 20 25 26 30 23 20 20 20 20 22 23 31 23 25 18 27 27 31 16 21 26 24 35 18 25 25 24 21 20 21 25 22 21 22 30 22 24 19 24 28 19 34 19 20 20 23 29 18 28 17 32 20 28 21 17 17 26 26 25 13 27 23 21 25 34 17 16 26 31 18 23 30 23 22 18 22 20 16 20 33 21 20 23 23 26 20 24 22 27 28 27 15 25 20 21 23 22 28 19 23 15 22 27 20 14 24 27 26 17 25 24 20 25 34 26 30 27 29 29 37 22 19 19 25 32 27 21 23 29 24 23 27 22 27 27 26 23 27 19 23 28 27 31 28 28 27 23 27 30 23 27 26 23 25 19 23 24 20 19 20 25 30 28 25 21 21 26 32 27 21 23 20 25 30 22 24 18 21 28 27 17 30 25 26 30 23 22 24 29 23 19 18 27 17 19 29 24 18 26 18 28 32 30 19 24 23 29 24 22 25 22 17 23 20 21 23 29 22 24 25 26 16 27 26 22 22 21 21 23 27 27 25 33 30 18 22 30 22 21 18 20 32 20 24 24 25 27 21 23 28 20 15 26 13 27 23 17 17 26 26 29 28 26 20 30 15 28 24 21 18 19 27 21 24 21 26 19 24 23 24 16 24 27 25 22 24 23 23 24 16 20 19 21 17 20 21 25 16 33 24 19 26 24 23 21 23 19 21 16 24 20 26 24 24 26 17 18 23 13 20 24 26 22 25 27 20 24 21 26 22 23 22 20 26 21 26 17 22 21 24 18 32</t>
+  </si>
+  <si>
+    <t>JSU(-11.932417149108467, 11.879477717038526, -18.078430270151564, 42.98964922805973)</t>
+  </si>
+  <si>
+    <t>38 32 26 31 29 35 39 19 40 23 34 29 30 40 45 34 34 35 31 33 38 32 36 29 29 39 22 48 37 27 32 34 41 36 39 39 31 32 30 31 31 42 41 38 25 37 40 35 35 32 33 34 33 26 39 27 34 28 38 33 37 38 29 28 40 45 32 47 28 27 28 39 40 33 44 28 31 28 39 46 43 29 35 31 33 42 25 38 33 39 41 25 34 34 36 30 26 32 31 29 32 30 39 35 39 36 28 32 18 43 41 37 28 34 27 32 28 24 33 25 36 41 30 27 39 40 30 33 30 20 31 35 39 34 28 31 35 34 42 34 30 42 26 28 27 35 32 37 31 26 25 47 18 25 50 32 43 32 28 27 34 32 22 35 27 33 37 33 41 32 21 44 28 31 34 28 34 32 39 35 34 30 26 36 29 32 50 42 30 39 40 31 35 38 29 39 28 29 30 36 39 31 32 34 35 36 32 29 28 34 30 22 29 31 34 31 29 27 27 31 33 31 31 33 30 35 36 42 26 33 26 34 26 39 32 26 27 24 38 40 32 22 36 39 26 39 39 22 28 47 37 33 27 33 37 31 27 31 42 30 30 48 34 25 33 39 27 27 43 18 29 34 37 33 27 33 37 37 25 30 32 32 41 38 41 26 41 32 38 34 29 34 34 28 28 30 27 24 26 41 29 33 31 30 36 40 32 23 32 24 35 34 33 44 39 27 40 33 40 38 31 27 37 50 28 49 30 36 42 38 31 28 38 35 22 30 29 31 31 31 34 37 24 27 32 27 26 32 24 33 42 24 33 38 36 23 34 35 22 52 38 35 36 43 29 34 24 26 37 34 27 30 36 32 29 35 37 34 34 38 42 37 27 30 27 26 35 37 24 35 29 35 35 27 22 32 44 32 17 33 39 35 29 32 36 32 35 31 25 24 33 25 32 41 33 29 24 45 34 40 29 41 38 33 31 34 29 25 45 26 35 34 26 37 33 31 39 37 37 27 45 36 31 36 33 24 42 35 35 33 32 36 30 29 31 37 28 36 27 35 27 33 31 37 41 24 31 29 29 45 28 25 33 31 41 26 35 33 27 38 36 29 31 32 35 34 31 33 23 36 44 39 40 37 37 41 32 45 32 40 33 33 33 31 36 34 36 39 26 27 33 25 34 38 29 25 37 36 39 28 30 26 43 31 38 39 24 29 26 31 31 33 34 31 22 34 29 29 39 31 34 40 43 27 38 31 28 23 32 40 31 30 37 30 34 32 30 26 35 33 39 42 30 39 33 35 34 23 30 27 32 30 32 35 36 25 28 29 45 37 23 26 38 29 33 28 26 31 40 28 27 53 32 36 36 36 33 32 30 27 35 46 37 31 28 44 36 36 22 41 38 41 28 39 28 48 24 38 31 27 30 37 34 35 41 47 34 37 31 40 22 34 33 42 30 32 22 28 35 27 35 46 31 32 40 30 35 40 30 30 36 39 35 29 32 38 35 23 32 36 41 25 30 36 40 32 43 32 33 32 41 29 37 28 32 33 38 25 44 33 32 38 36 32 40 36 24 44 43 38 44 28 29 35 38 30 30 25 34 30 20 35 44 40 30 39 31 43 36 25 26 29 32 36 33 33 28 38 28 37 38 35 33 33 38 29 43 28 28 30 33 31 34 33 30 21 40 33 37 35 25 28 37 28 37 33 33 25 33 26 29 39 31 30 26 32 36 31 34 26 33 38 33 37 25 35 28 22 37 40 37 38 34 28 32 39 36 35 42 31 34 33 26 35 35 38 40 22 28 31 32 28 28 33 31 37 33 39 19 29 28 30 36 38 39 29 40 25 42 36 39 32 31 39 34 23 37 28 36 30 28 33 36 30 35 22 29 29 36 25 27 29 30 40 30 43 34 41 31 32 33 26 31 29 32 23 37 23 36 39 35 29 34 36 31 24 36 35 32 41 34 29 28 32 27 25 29 34 28 29 40 29 41 42 31 35 40 33 32 44 36 37 24 35 24 25 29 28 29 26 39 31 25 27 45 24 43 34 27 32 33 38 33 43 34 31 39 34 46 29 31 30 34 42 41 32 43 37 26 27 28 36 27 30 26 37 37 33 46 44 30 28 37 37 35 35 48 30 34 29 33 33 21 26 38 31 32 35 28 33 39 37 26 38 44 32 34 44 26 35 29 28 41 27 26 28 26 37 26 33 34 29 35 23 17 24 35 35 31 35 31 22 32 32 40 37 24 27 42 28 41 43 46 29 21 42 24 37 36 41 31 36 34 43 32 29 45 34 43 35 22 46 20 35 41 36 38 30 37 27 29 31 33 33 35 32 28 43 39 23 35 29 38 27 41 43 39 35 18 27 25 38 33 34 35 34 30 27 33 39 39 51 27 28 35 40 34 40 28 38 32 23 28 39 32 28 36 31 22 39 29 30 49 32 31 27 29 33 40 31 36 27 34 34 25 38 31 31 27 32 37 28 38 37 33 32 35 45 39 40 38 34 41 29 34 37 17 22 31 37 36 26 35 37 27 35 38 37 39 32 29 29 35 41 23 36 25 37 38 40 27 30 26 33 25 30 37 34 36 28 27 24 49 31 23 36 40 36 34 41 26 39 48 24 22 31 37 30 26 41 43 32 31 34 31 25 32 40 35 35 27 33 43 37 34 30 30 37 41 32 26 37 36 26 37 24 29 35 42 37 31 27 33 34 20 26 40 37 30 28 27 32 27 41 29 34 40 32 34 37 33 35 33 22 36 41 32 42 46 28 27 29 41 26 41 35 33 28 32 26 33 27 28 42 42 30 33 32 38 34 46 38 30 34 43 32 24 37 28 35 33 29 36 41 27 29 33 31 33 34 32 40 20 31 46 34 43 28 28 36 38 27 32 38 35 49 37 35 30 22 33 33 37 23 33 34 30 42 34 35 37 35 31 32 36 40 36 27 42 28 32 31 37 32 32 24 35 18 37 41 38 30 37 40 28 33 35 20 33 30 34 31 37 31 27 27 32 29 24 45 36 42 39 25 37 40 29 38 27 37 24 38 31 40 30 32 37 31 37 36 31 31 40 31 46 31 24 34 35 29 24 43 25 30 29 35 27 29 29 30 33 33 42 29 34 35 34 33 30 37 34 36 29 35 33 25 35 31 38 30 35 29 28 22 32 33 28 39 43 30 25 36 27 35 39 43 28 37 33 32 38 34 37 38 27 48 32 31 26 31 38 27 37 33 27 45 31 29 35 37 29 35 34 31 42 30 30 27 35 34 31 29 35 37 29 32 47 31 35 30 34 42 34 47 35 40 39 30 29 33 39 34 30 32 27 43 39 35 36 28 24 25 27 40 28 25 34 29 26 38 29 31 37 36 32 41 41 34 40 27 38 29 29 40 32 38 35 37 36 28 32 29 33 29 25 22 24 35 41 41 33 22 35 35 37 27 27 28 32 34 31 37 38 32 33 38 28 18 23 21 37 26 28 35 34 26 35 27 34 31 33 27 21 48 31 33 35 27 35 37 35 33 35 29 35 29 32 26 33 39 24 37 30 28 35 27 38 33 40 39 42 33 34 27 31 33 37 30 31 31 40 38 37 38 40 34 23 34 31 39 28 29 26 29 24 35 32 29 24 30 34 29 36 28 38 28 26 31 28 42 30 42 32 33 31 39 28 28 34 33 33 32 33 32 39 31 44 27 27 29 40 36 40 30 36 31 33 41 38 35 38 28 26 38 33 27 29 43 28 37 37 23 36 32 34 43 35 39 39 46 30 36 43 32 30 28 44 34 25 32 34 33 34 26 33 31 29 44 34 30 23 31 42 34 24 37 29 39 40 26 46 30 33 26 35 34 33 30 33 25 35 29 32 39 26 33 31 22 30 34 34 33 40 32 29 37 32 31 33 43 33 21 35 22 35 34 28 33 31 26 32 37 33 32 33 31 34 30 35 37 38 40 29 39 25 37 26 29 30 40 33 35 39 36 31 28 22 29 31 22 39 27 32 31 35 42 34 32 30 28 30 40 39 31 34 39 36 34 30 34 38 43 30 35 36 30 27 41 31 38 38 30 27 41 31 51 32 24 34 21 30 29 37 32 24 26 31 29 37 41 30 23 24 33 43 22 41 35 33 31 32 32 31 35 38 33 28 36 32 30 36 29 29 44 41 44 33 38 28 32 39 28 35 31 43 41 33 41 28 28 37 36 33 40 24 30 28 30 37 45 33 28 23 25 40 36 28 30 43 30 28 29 43 35 45 35 35 33 30 33 36 31 29 23 29 29 28 20 32 28 33 25 21 36 42 34 31 37 42 30 33 33 36 42 35 44 43 36 38 30 29 30 29 32 29 32 32 40 29 39 39 35 27 30 37 32 36 35 29 28 33 33 30 34 32 27 31 34 30 29 31 24 42 34 38 36 28 24 35 30 36 30 35 35 33 37 28 33 33 32 44 31 29 28 42 31 28 29 30 36 39 27 27 37 25 25 27 53 36 30 39 34 28 25 35 40 32 28 38 39 30 23 35 22 37 35 35 36 33 25 24 39 35 25 21 31 34 20 40 36 29 21 35 29 26 39 34 31 46 30 33 38 37 34 35 32 29 28 37 34 25 43 24 41 31 30 30 32 31 22 31 34 31 36 37 32 37 45 31 34 27 42 37 35 38 24 30 23 44 34 30 35 32 27 38 48 37 36 27 43 31 35 29 27 25 31 28 29 25 36 30 29 28 33 35 23 26 36 34 33 38 36 29 38 24 29 24 26 24 34 40 27 25 31 38 37 33 28 27 31 42 36 35 42 23 20 27 35 35 32 41 32 34 32 22 32 36 30 38 23 42 37 33 27 35 27 35 37 38 30 30 37 27 38 35 33 32 26 29 40 50 31 45 32 35 37 27 33 28 22 35 32 39 40 44 32 44 34 20 33 33 31 33 32 35 38 38 28 36 29 38 24 20 26 29 31 35 25 37 38 33 29 29 39 23 32 33 31 38 30 39 33 32 32 23 23 28 51 35 33 38 38 36 23 37 26 41 32 38 29 33 35 31 27 25 37 37 25 28 36 36 38 36 28 27 29 35 33 37 32 36 33 32 43 20 29 27 38 33 26 32 36 33 35 31 25 32 31 35 33 25 31 33 25 30 36 26 33 32 32 31 28 31 36 40 42 25 41 41 28 32 33 29 28 28 30 31 35 31 27 33 27 34 31 34 27 28 22 27 25 32 36 36 24 31 29 27 27 37 21 35 31 35 40 35 33 29 31 30 40 23 37 30 33 19 30 38 33 46 43 33 27 27 32 27 36 22 38 44 31 30 26 23 35 31 26 27 31 26 38 40 20 30 37 31 34 30 32 26 36 35 27 30 32 24 29 47 33 29 33 34 37 39 32 31 36 43 33 36 23 30 25 29 31 30 27 35 33 34 44 44 38 28 32 29 28 34 34 23 35 33 35 35 29 34 25 28 32 35 27 24 29 34 28 26 34 27 27 30 41 31 36 33 26 34 34 24 43 34 31 33 34 32 33 37 37 36 37 35 31 35 25 27 28 29 27 32 44 29 32 38 33 31 34 29 27 25 24 25 43 26 44 30 36 32 36 38 26 35 34 28 41 34 31 32 33 35 37 44 37 32 23 29 29 42 31 30 26 38 27 33 39 38 39 33 41 33 34 30 26 39 40 36 32 30 42 27 25 43 29 39 30 31 34 32 35 27 31 35 33 41 30 25 26 29 35 30 24 35 28 43 33 31 36 43 32 26 35 30 32 29 38 39 30 35 34 46 30 28 35 42 43 31 36 32 25 34 27 24 16 24 33 30 47 38 34 42 42 28 29 35 37 37 30 41 34 28 34 36 29 35 39 35 41 36 24 27 37 36 40 35 33 29 42 40 35 32 31 34 32 34 25 35 34 34 32 34 25 38 23 33 29 36 35 31 31 30 28 38 39 38 37 23 39 34 30 25 28 25 34 33 30 35 32 31 36 36 24 39 49 36 29 35 29 38 32 41 29 22 27 32 34 28 29 23 37 40 41 31 41 37 38 30 34 39 31 32 22 26 24 42 37 34 28 36 38 31 49 23 35 45 33 34 35 38 30 27 34 34 42 42 29 38 44 42 36 33 32 29 21 34 31 24 18 35 31 33 44 34 32 28 42 27 36 31 32 43 34 33 22 33 32 25 45 31 36 32 20 29 38 32 43 26 31 36 34 23 40 28 41 40 27 28 32 39 39 39 38 38 34 35 33 38 41 40 32 30 30 38 31 26 35 43 35 27 30 38 33 30 27 28 31 41 42 30 39 34 26 30 19 42 37 29 34 41 39 31 28 30 30 34 37 30 34 35 28 39 31 27 29 37 36 28 33 43 35 34 24 35 28 30 40 37 40 32 34 37 29 40 31 35 27 37 34 29 34 36 25 32 31 33 34 40 36 28 31 28 37 23 33 29 26 38 31 27 32 35 27 28 38 39 31 33 35 31 30 41 36 24 41 27 35 40 32 33 35 21 38 27 30 41 38 27 32 36 37 35 39 30 46 38 30 37 36 30 35 29 39 31 36 31 32 30 41 27 40 39 34 33 28 31 41 38 37 37 25 42 39 30 32 28 39 31 43 37 31 33 32 33 33 33 37 32 36 22 30 28 28 31 35 31 26 33 31 24 32 30 36 33 29 30 35 30 38 33 38 32 27 33 37 40 38 40 30 39 37 32 30 28 29 33 28 43 37 29 33 31 25 33 36 21 32 38 28 39 28 32 29 32 27 29 43 38 35 29 32 30 41 45 34 33 33 26 31 29 29 35 21 42 33 21 35 33 33 39 32 28 30 35 37 30 27 27 39 38 30 27 37 36 27 36 33 28 26 25 32 29 23 38 28 21 36 39 35 31 35 39 32 37 30 27 38 34 34 39 31 42 31 25 34 38 32 27 27 38 37 34 30 22 30 26 39 42 30 43 31 33 24 36 27 34 32 35 28 34 45 33 40 37 32 37 29 34 29 33 36 40 21 35 36 41 30 34 46 37 25 31 24 33 31 31 34 35 36 23 23 40 35 31 30 33 42 35 41 27 33 33 29 33 31 33 34 36 30 41 44 25 27 26 35 42 28 38 31 27 30 35 34 22 36 27 27 40 27 32 21 39 35 40 38 29 48 29 41 30 34 36 28 42 39 29 40 39 39 36 41 30 40 38 33 34 28 35 25 42 29 29 45 39 27 31 46 34 25 31 32 36 32 33 28 28 21 40 24 22 33 39 27 39 34 24 23 26 39 37 24 33 31 30 29 43 26 22 25 32 31 37 33 37 32 38 38 28 40 37 29 38 35 38 45 36 33 30 27 30 38 36 27 43 40 38 29 39 31 35 35 28 40 30 39 35 25 44 36 42 41 24 41 37 23 21 46 28 30 29 29 40 33 27 37 38 42 36 39 39 36 40 41 28 40 27 24 18 30 32 25 38 33 26 27 23 49 30 35 28 28 33 33 44 35 27 27 38 36 31 26 30 34 23 28 37 33 40 32 31 35 36 33 37 36 39 34 29 40 36 34 20 27 40 31 23 30 33 38 30 37 25 39 35 40 38 33 32 26 33 32 31 33 43 29 40 29 34 32 38 38 31 42 33 47 33 31 47 37 33 33 36 34 40 42 43 40 26 35 45 35 33 38 37 42 33 32 41 34 26 22 24 25 33 31 29 36 34 33 31 35 38 41 33 26 35 27 32 29 38 25 37 35 34 37 34 34 18 25 26 33 36 40 32 32 31 26 33 30 23 28 39 32 34 33 33 38 40 28 39 28 28 36 32 33 38 34 48 37 27 42 28 38 37 30 27 26 37 28 22 31 31 34 36 26 18 34 34 30 30 28 34 25 26 28 33 38 32 29 28 31 42 36 31 36 36 35 29 28 33 32 33 33 38 29 29 29 33 30 30 32 35 34 24 34 34 30 35 30 36 25 29 27 31 42 39 39 27 37 39 32 31 29 36 27 35 33 42 34 31 35 26 36 37 41 34 40 33 30 28 32 43 28 39 39 43 30 35 38 37 32 35 35 33 35 28 33 26 28 32 36 28 30 37 38 40 44 35 41 18 32 41 34 32 36 45 39 33 29 33 28 39 32 29 33 37 35 31 34 38 39 33 38 31 28 31 30 32 32 28 40 34 23 31 36 38 28 36 36 39 34 25 34 35 41 32 28 31 24 37 31 30 35 25 37 43 36 34 31 30 29 39 32 38 26 27 38 42 41 30 32 31 40 32 30 42 40 46 31 39 31 22 36 30 29 28 38 43 25 35 37 41 36 44 32 36 26 36 31 29 38 31 31 29 32 32 41 40 31 27 36 45 41 38 25 30 32 35 43 33 25 28 30 35 28 22 31 29 32 30 32 30 32 22 33 30 27 39 29 39 28 38 43 35 20 31 38 32 44 33 31 39 37 32 25 29 33 36 27 34 38 36 35 32 32 20 26 35 41 41 43 36 31 39 37 33 35 30 32 30 24 32 37 31 30 31 30 30 34 33 27 39 49 41 45 27 48 33 29 33 34 43 32 30 39 31 44 32 33 31 40 34 33 33 40 39 38 30 38 30 44 34 39 21 33 30 44 29 38 30 41 42 29 32 33 33 34 42 36 28 33 29 35 36 30 23 33 42 29 27 34 33 25 22 27 32 26 25 27 27 31 34 37 32 32 24 44 28 41 35 39 35 24 40 28 47 36 38 33 41 31 34 32 36 41 41 27 27 32 23 25 29 35 28 36 27 27 30 34 27 34 27 30 43 20 34 25 33 36 22 36 28 23 30 35 47 28 31 33 41 39 32 33 39 28 37 29 38 30 37 23 42 41 31 36 38 33 39 31 33 28 36 28 35 37 33 31 30 32 31 39 40 26 25 36 31 46 38 39 34 36 35 31 27 41 30 31 39 35 43 34 42 36 41 32 31 39 23 26 30 34 37 31 35 30 32 37 42 38 39 41 34 35 29 39 36 25 33 28 37 30 27 34 39 36 26 37 34 32 30 41 32 36 41 32 22 28 43 34 40 38 30 35 24 33 33 32 43 35 28 26 37 33 22 29 34 26 36 39 36 37 26 30 29 33 24 41 40 43 23 40 24 34 31 31 35 32 33 51 30 37 31 25 28 31 19 35 31 34 35 31 29 35 37 43 33 29 37 29 44 31 35 30 33 28 36 38 42 22 36 33 36 30 23 37 35 34 34 31 40 38 30 27 38 32 31 41 37 36 33 40 40 39 32 34 44 38 32 36 39 30 34 38 31 29 36 29 33 27 27 32 26 36 43 31 31 42 31 24 41 32 36 35 37 36 27 35 31 26 30 31 32 40 29 39 28 33 33 39 34 29 31 27 30 34 21 29 33 27 38 29 36 28 43 30 23 32 32 25 37 38 35 34 39 28 35 31 34 37 31 33 34 40 27 42 36 34 34 40 33 35 38 29 30 28 30 34 32 27 36 25 31 38 32 29 42 28 32 27 28 34 31 33 38 29 32 35 34 35 40 39 34 37 40 38 27 31 34 33 35 46 25 36 31 38 26 36 32 25 37 37 38 35 31 26 19 36 33 31 34 33 32 40 35 32 27 38 40 42 29 35 32 33 39 31 32 28 26 33 34 28 39 39 28 41 24 28 45 22 32 29 38 25 31 26 28 27 40 31 28 25 22 34 28 26 34 37 22 30 37 35 42 25 37 35 37 40 27 29 47 31 17 27 24 43 41 42 31 32 31 38 37 24 31 36 39 29 30 24 32 25 42 41 40 44 32 32 37 45 34 33 39 35 33 21 43 28 34 38 36 36 28 37 18 28 30 37 33 35 30 24 28 33 30 39 40 41 40 40 39 22 36 38 33 28 34 32 20 33 33 41 24 34 18 36 20 26 38 34 23 33 39 31 29 27 33 22 24 31 33 52 28 34 40 36 23 35 39 40 33 34 42 29 44 34 29 47 37 35 25 36 37 33 39 30 22 39 28 40 29 29 38 29 38 34 34 28 20 31 36 40 27 42 32 34 25 28 35 34 27 33 31 32 27 32 39 37 35 36 38 25 37 23 27 34 44 28 37 25 27 27 30 33 19 40 28 38 36 39 33 39 30 33 29 28 46 30 34 37 42 35 36 22 42 28 27 31 32 33 36 30 33 28 26 33 32 35 26 33 24 29 32 28 33 25 29 43 30 33 38 27 30 40 26 29 23 51 36 35 28 25 32 29 39 27 37 40 26 28 36 42 31 32 46 35 33 32 34 31 21 31 28 42 30 34 32 22 40 34 32 34 33 45 37 32 34 33 33 39 34 31 38 37 36 30 47 30 34 35 30 33 41 31 30 34 33 40 39 33 23 33 32 28 30 29 33 25 28 21 30 33 44 31 54 24 37 33 29 36 33 30 33 39 34 36 42 39 33 36 28 25 40 27 29 25 30 35 33 46 38 37 28 48 38 29 33 27 49 33 35 20 44 30 24 28 30 31 36 39 34 39 37 38 24 35 34 22 36 35 42 34 42 33 31 29 37 24 36 29 39 27 28 34 38 27 26 44 41 38 34 37 32 40 28 24 42 34 33 34 28 34 41 43 31 38 30 39 39 34 36 41 44 42 33 33 33 41 30 30 26 34 31 28 31 40 21 27 43 39 44 31 27 32 25 24 26 33 31 56 37 34 30 45 32 39 26 36 44 27 24 39 25 34 27 32 31 28 37 31 34 30 30 30 34 34 30 35 33 40 43 32 27 33 26 34 33 26 35 34 31 30 42 33 26 41 30 19 25 26 33 36 39 24 25 40 31 35 27 27 30 43 37 36 34 32 35 32 39 22 36 30 36 19 34 22 34 22 26 27 28 34 34 35 32 33 32 28 30 21 29 34 33 34 36 28 22 32 35 26 18 31 26 35 28 36 28 31 34 39 33 27 32 35 40 27 37 31 34 23 25 41 45 30 32 33 30 27 33 35 37 33 35 40 32 42 22 37 30 34 28 34 36 31 25 41 25 43 47 28 33 33 35 31 35 33 39 37 29 39 29 34 29 35 33 34 38 38 30 36 36 44 27 33 30 22 36 40 28 40 38 37 36 31 35 21 25 38 31 19 33 34 30 35 36 31 34 34 30 44 22 32 36 32 24 31 21 39 26 30 31 23 26 29 31 35 36 27 31 27 32 36 35 36 30 39 27 38 43 36 37 34 29 33 37 33 37 28 24 26 48 30 26 35 39 35 21 39 29 30 29 34 32 36 40 31 27 27 28 39 39 39 36 29 24 28 27 29 27 43 31 32 31 21 50 35 24 31 35 31 34 40 27 26 30 44 28 29 27 47 28 36 38 42 38 31 29 41 30 44 34 42 29 38 34 29 36 27 30 33 43 36 32 31 40 24 37 32 30 32 31 29 27 32 30 42 33 30 28 40 34 37 31 27 34 40 30 33 24 29 28 39 28 33 24 32 37 29 34 30 36 32 32 28 25 27 37 32 29 37 23 42 29 38 21 32 29 48 33 26 35 38 35 30 41 39 27 40 29 29 30 37 34 36 35 27 33 34 29 33 44 30 28 37 23 39 40 27 30 32 16 28 31 36 32 25 28 35 27 33 35 35 37 32 29 31 23 37 20 40 23 36 36 27 36 28 28 42 41 29 38 40 19 35 40 40 32 31 29 38 34 32 38 28 32 38 34 35 43 23 26 31 28 24 31 30 36 27 37 31 44 42 31 28 37 28 32 28 30 28 24 31 30 34 39 33 35 35 29 34 32 27 32 25 46 33 40 26 46 30 30 33 42 32 34 33 31 29 34 28 28 27 42 40 37 46 20 25 38 34 34 33 24 27 27 37 27 43 44 32 36 36 33 34 38 33 34 29 36 17 33 28 32 25 30 37 27 32 28 42 38 46 35 29 20 36 35 27 39 32 26 31 34 30 29 31 32 34 31 25 35 41 33 37 33 30 34 21 28 33 33 41 50 32 25 32 36 31 32 32 38 29 37 32 35 33 32 24 36 36 36 31 44 38 26 30 31 29 33 34 28 24 27 36 28 41 34 33 35 32 29 32 34 37 27 32 29 34 27 34 36 26 41 24 36 32 27 27 31 31 35 42 41 38 35 38 26 28 26 36 35 30 36 26 25 26 21 36 36 42 26 33 35 34 38 30 34 33 29 25 30 54 26 32 37 34 32 28 33 28 26 28 25 32 33 24 31 27 25 23 28 37 35 32 31 37 30 33 39 37 33 32 40 30 45 26 35 33 26 27 41 31 25 29 33 24 20 27 24 27 39 31 34 44 37 38 42 37 38 30 31 35 41 22 40 37 31 29 34 29 33 33 28 34 34 31 26 32 44 27 47 27 32 30 44 39 32 31 29 28 36 33 31 27 42 39 29 36 27 24 33 28 36 46 31 38 19 35 28 35 30 39 29 33 36 29 32 24 36 31 36 28 26 29 35 21 33 22 35 28 31 22 32 29 32 30 27 40 27 37 26 36 27 35 31 29 27 34 32 31 22 42 30 35 35 33 26 37 21 31 44 31 26 30 38 30 26 30 32 34 34 34 32 22 24 31 33 32 38 30 29 35 35 34 31 32 37 37 33 39 33 30 34 23 37 34 37 24 39 30 26 44 30 35 31 34 27 34 31 28 37 25 31 32 34 35 30 35 34 35 34 24 24 27 22 28 23 35 46 41 45 44 43 37 40 33 34 30 28 33 40 37 35 35 39 32 34 32 32 24 26 34 29 37 36 29 35 34 42 32 36 32 31 30 36 41 31 31 30 35 35 31 34 32 30 31 35 40 31 30 35 25 33 39 33 37 31 34 30 29 35 32 32 29 25 32 37 34 40 30 33 31 30 27 39 34 30 28 30 38 32 47 39 28 33 32 24 42 43 39 34 42 28 36 28 44 32 30 29 38 37 35 21 42 37 38 36 30 34 28 41 30 30 38 34 33 32 24 29 32 37 38 27 30 36 30 40 42 43 31 29 33 29 35 39 24 30 38 45 36 30 38 31 29 27 31 33 29 32 37 28 41 34 35 36 31 27 32 24 20 34 26 27 35 25 25 42 38 34 31 23 45 43 34 37 30 34 25 37 37 31 24 35 29 37 28 34 34 24 38 40 26 37 30 28 29 26 37 29 39 30 37 32 28 34 40 26 42 28 27 25 34 28 49 30 33 26 37 33 28 29 27 28 36 31 33 31 39 33 31 34 37 35 33 31 35 31 36 18 40 29 35 34 32 29 30 27 38 31 30 31 40 33 27 39 35 36 45 26 42 38 35 36 39 28 37 30 26 27 28 36 44 39 25 30 41 34 35 27 34 29 34 31 34 43 46 35 28 28 43 26 38 29 29 29 32 29 37 22 38 22 23 30 30 41 36 41 28 35 36 38 34 27 30 28 31 38 22 26 26 39 33 37 40 34 29 37 42 30 32 36 28 25 28 34 24 34 38 33 37 36 29 34 27 35 32 33 29 43 50 24 32 36 33 28 37 30 37 45 32 35 34 30 24 33 35 50 28 38 32 28 33 39 44 35 37 30 24 35 37 27 27 25 26 30 24 32 41 31 33 32 30 33 26 34 33 29 35 30 45 30 38 34 34 33 32 23 33 34 25 19 38 38 16 41 27 33 29 26 25 42 29 37 35 28 22 27 34 35 32 34 38 35 38 26 34 33 42 31 33 33 34 41 28 35 28 44 30 29 33 30 33 36 34 32 36 38 32 40 30 37 26 34 33 32 36 37 36 44 31 31 28 33 34 32 31 33 37 32 41 28 34 26 38 20 35 33 31 29 37 31 30 27 38 38 30 34 25 36 28 20 28 30 35 30 37 27 45 32 42 31 37 37 31 41 29 39 26 33 36 36 45 30 28 33 30 32 32 31 28 34 35 28 31 39 34 35 44 52 24 34 36 38 26 38 27 27 30 36 33 25 30 42 34 26 30 29 40 31 29 36 23 33 36 52 37 30 25 33 37 38 28 24 33 31 39 25 32 39 34 36 38 36 38 29 37 37 24 34 24 43 37 26 32 40 26 32 34 37 27 34 26 29 34 35 34 33 41 38 40 30 33 44 31 27 34 50 32 31 33 39 37 34 25 34 36 42 25 37 46 35 25 26 27 28 33 33 28 40 41 42 35 33 36 24 27 41 38 26 31 33 29 26 40 30 38 30 38 33 35 33 28 24 34 40 32 24 31 27 27 30 27 25 29 38 36 33 41 31 36 35 31 28 29 32 20 31 30 32 27 29 34 29 18 30 36 38 28 33 25 39 29 36 31 20 33 30 35 44 28 37 39 34 38 28 31 28 41 41 34 25 37 36 32 30 39 39 39 23 33 30 37 41 34 39 41 33 33 27 37 34 40 28 39 24 30 41 30 33 34 37 32 35 31 28 29 31 41 39 23 28 33 36 32 32 28 31 35 38 29 39 26 31 28 33 30 29 30 38 39 34 34 30 34 34 28 35 33 28 34 37 29 39 34 36 37 34 29 30 45 28 33 24 22 34 33 36 31 33 34 37 30 31 32 37 25 42 38 38 30 27 24 31 27 37 28 34 31 48 32 27 33 32 27 25 40 30 26 26 24 28 35 41 42 29 34 31 34 29 26 24 30 38 34 31 37 27 32 29 31 31 30 34 30 28 25 30 40 35 23 44 33 31 29 38 27 23 38 32 29 49 31 31 38 32 36 39 37 37 34 41 25 40 43 28 43 38 44 38 27 31 29 25 28 39 37 35 39 34 23 34 26 43 34 32 31 25 25 33 43 34 33 31 33 40 27 29 36 35 29 38 30 32 35 33 25 33 33 34 39 29 35 43 37 45 34 43 37 36 27 28 28 35 29 39 34 35 32 41 35 28 28 31 30 32 34 28 23 36 35 31 35 36 33 32 36 34 24 41 39 27 32 28 32 40 33 34 29 36 27 26 39 27 38 32 32 33 31 31 33 25 40 25 37 34 47 37 25 39 36 24 32 31 38 29 28 43 33 39 28 28 33 28 26 24 38 32 36 23 35 28 35 29 26 30 31 37 27 43 42 39 27 20 24 32 35 29 30 29 22 31 31 29 34 29 40 30 37 20 36 32 33 28 29 39 29 32 35 37 19 33 39 33 40 30 49 29 30 33 36 29 32 32 36 39 26 31 37 27 30 34 39 23 35 29 34 34 26 34 33 35 36 32 24 30 44 29 37 39 30 32 42 31 31 42 28 24 30 33 29 34 35 31 30 23 30 43 36 26 27 26 38 29 41 33 39 35 33 33 33 32 26 33 26 29 25 32 36 26 37 37 32 27 37 26 32 35 30 38 32 35 38 44 38 23 25 41 32 34 24 26 36 38 33 33 35 25 33 29 31 19 38 30 31 23 27 45 31 24 23 27 29 33 26 42 31 37 33 33 39 28 38 27 28 30 34 41 40 32 25 44 33 38 41 45 30 28 35 29 38 35 26 25 31 21 24 33 32 34 24 32 32 21 32 30 21 25 41 33 43 40 45 34 32 34 24 37 43 28 34 22 21 31 27 28 30 31 35 39 35 23 28 17 30 34 26 38 35 25 39 39 34 27 37 33 32 27 31 42 37 29 22 18 31 34 25 37 27 23 30 36 39 33 43 33 44 25 47 23 28 21 35 21 47 30 39 29 37 30 31 34 49 33 36 35 36 35 30 29 30 32 28 30 30 28 32 31 25 29 37 36 24 31 26 36 18 31 39 35 40 33 36 37 30 36 23 37 30 35 39 37 34 27 35 42 35 32 29 36 26 25 36 34 27 34 22 32 38 41 37 45 40 34 26 22 37 44 42 33 21 32 38 30 37 29 32 32 30 32 28 31 30 35 31 27 39 29 38 32 37 32 30 24 26 36 29 34 30 33 33 38 37 35 31 35 29 26 43 35 26 38 24 32 33 33 30 29 42 32 30 32 31 28 35 27 29 30 31 25 24 23 35 31 24 36 36 30 34 32 30 29 31 45 26 34 31 41 40 31 27 36 36 44 36 31 43 26 37 27 25 41 31 37 38 29 36 32 38 23 41 31 30 23 29 26 37 40 32 34 23 39 30 30 27 39 28 35 35 24 16 39 40 33 27 27 38 23 38 30 30 28 36 31 26 37 34 36 35 37 35 28 37 31 30 36 25 24 29 38 33 31 20 27 39 39 34 39 33 31 39 34 34 27 31 37 31 30 28 41 48 22 35 31 42 42 41 34 30 31 31 29 32 32 31 26 26 40 28 38 28 36 28 32 31 34 33 34 36 38 41 29 33 33 35 35 42 39 31 36 32 32 32 37 31 29 35 39 39 40 32 32 38 22 36 45 32 27 32 32 33 35 37 30 31 30 39 36 34 38 29 35 31 36 29 19 32 24 30 30 32 32 31 41 25 36 38 50 35 33 33 36 31 49 34 29 31 43 34 35 38 28 39 27 28 27 36 32 29 27 29 39 36 33 22 46 36 44 27 28 27 35 35 31 26 40 26 31 33 36 23 32 34 36 33 31 37 27 25 31 38 30 42 35 30 46 26 36 31 32 38 35 40 34 34 23 32 20 40 33 40 25 26 30 39 35 29 29 18 21 35 34 38 27 40 39 46 28 31 32 41 47 34 33 30 36 33 29 33 27 34 36 29 40 34 33 39 34 31 29 31 21 25 37 22 29 39 31 33 32 39 35 32 31 34 34 35 33 28 20 52 30 23 34 27 25 33 31 39 26 33 35 35 36 31 45 32 38 31 32 31 29 31 28 32 21 31 29 40 27 28 26 21 40 42 29 35 34 35 32 43 28 36 34 36 30 34 33 31 30 27 36 35 33 22 27 33 21 31 27 35 38 32 24 33 30 26 26 34 38 29 30 29 34 28 34 29 29 30 30 27 35 38 31 30 31 36 37 35 30 32 31 28 34 31 41 35 23 30 33 28 30 28 42 33 36 39 30 39 39 24 28 27 32 28 36 29 35 42 34 39 28 45 30 24 42 33 25 33 24 36 40 28 30 37 46 28 39 29 28 25 25 38 38 40 42 38 43 33 29 32 35 31 37 27 30 31 41 26 38 33 31 28 35 38 30 29 30 35 28 32 28 39 38 28 39 34 41 29 36 35 30 31 27 46 44 27 34 31 30 35 30 41 35 27 30 30 33 38 38 31 25 41 37 33 32 29 39 31 32 38 39 34 30 35 34 24 30 29 31 34 26 27 34 28 28 27 39 31 35 40 28 31 30 31 31 39 34 29 35 34 30 34 32 36 37 38 37 24 38 30 33 27 36 36 34 33 39 29 29 43 33 37 37 34 43 38 28 43 35 37 33 33 24 41 40 38 34 38 39 28 39 34 27 36 36 20 30 40 29 26 27 38 42 39 31 24 33 33 36 40 37 43 34 32 28 33 24 37 29 27 26 22 39 36 47 38 30 35 25 36 38 29 25 34 25 28 31 28 31 30 27 38 41 38 36 26 26 41 37 32 38 27 37 42 38 41 32 31 29 29 33 30 30 36 36 31 35 26 50 36 24 41 33 29 33 32 34 27 31 36 32 33 30 42 35 25 42 36 36 22 37 33 35 31 36 31 33 38 22 34 39 31 32 30 29 36 34 34 35 34 30 34 36 44 30 39 41 32 32 40 33 39 40 36 41 38 34 34 35 32 29 33 30 28 21 39 24 41 47 34 29 38 35 31 30 31 40 32 33 39 42 41 34 32 34 39 29 27 32 42 36 29 33 38 27 42 25 26 38 42 28 36 32 30 24 28 26 31 32 31 41 36 25 30 35 27 31 29 47 35 23 39 29 41 26 26 33 35 37 28 28 27 31 29 39 33 38 33 32 34 33 30 47 33 23 37 32 33 40 38 32 37 41 31 27 23 25 31 37 34 38 41 28 41 37 27 30 31 33 40 20 26 32 36 32 34 28 26 38 35 38 34 49 36 35 23 41 28 39 25 33 38 34 29 35 33 41 46 31 35 34 36 29 27 30 32 36 21 40 20 30 32 26 26 33 39 28 42 40 41 30 30 37 34 34 29 36 38 31 41 23 38 32 56 34 37 27 31 34 33 35 29 40 37 31 30 42 38 36 33 29 23 36 33 34 52 46 47 49 32 31 29 30 32 33 34 37 41 32 34 35 27 31 35 36 26 36 32 39 33 34 23 36 41 38 28 37 36 47 36 34 33 29 33 26 32 31 37 29 38 41 42 36 39 24 40 42 29 30 29 25 28 48 33 22 36 30 42 28 35 30 41 32 43 28 38 46 30 30 30 30 37 29 34 33 42 27 34 27 38 31 34 26 38 36 36 30 42 38 43 23 32 30 30 34 25 25 50 36 33 27 30 22 29 33 26 31 21 38 41 32 32 31 37 25 34 27 33 42 35 38 37 32 43 28 33 34 33 33 27 39 46 35 37 37 33 34 40 34 31 41 29 38 39 41 33 31 27 36 29 35 38 32 39 48 29 36 44 24 32 39 33 35 41 34 36 22 36 37 35 24 29 36 38 36 32 41 40 28 28 29 41 35 36 34 40 28 41 32 23 27 32 23 44 34 24 28 35 30 29 39 38 22 29 28 35 31 38 38 33 23 31 36 32 40 32 33 38 38 28 30 29 25 28 29 36 29 34 31 29 35 38 32 35 32 37 27 36 35 19 36 38 39 35 38 37 33 33 32 29 38 34 26 31 28 31 32 30 30 30 39 30 41 29 33 32 31 35 39 25 42 31 37 33 30 35 30 36 28 31 37 29 23 39 33 34 30 29 24 36 31 31 35 34 27 25 34 41 35 33 53 24 41 31 34 28 24 38 32 34 35 35 39 42 30 36 33 44 33 24 31 32 23 36 30 40 33 29 40 33 36 37 24 38 38 32 42 37 32 30 35 28 34 29 28 38 47 40 32 33 27 26 29 34 29 35 40 28 31 38 42 32 41 43 36 30 28 39 29 45 29 31 31 38 21 26 33 34 39 27 30 30 31 35 23 38 26 32 29 37 42 28 36 31 27 25 33 31 28 38 35 35 35 23 30 36 36 35 26 32 24 20 31 36 32 31 30 32 32 41 33 28 27 36 24 30 28 26 25 26 32 34 27 39 32 25 26 36 30 39 31 36 40 27 35 40 34 31 40 32 31 34 31 26 29 20 55 36 49 32 22 31 32 29 26 27 30 40 35 35 32 26 35 30 40 31 37 30 33 24 33 35 34 31 31 40 28 38 29 32 22 35 34 42 26 30 29 34 29 33 27 36 23 23 38 36 32 30 37 46 40 24 30 38 28 30 38 43 21 34 36 28 33 36 42 31 33 26 32 47 34 33 21 39 38 28 29 35 29 37 35 29 23 27 41 32 39 32 24 41 39 33 28 31 36 41 32 26 33 27 41 32 45 23 29 45 45 33 25 35 37 39 23 36 35 34 33 36 28 31 33 31 32 29 32 22 24 30 21 25 36 47 33 33 36 38 43 29 27 30 26 35 23 39 27 32 24 25 35 35 33 31 30 28 26 29 31 32 25 43 36 41 35 46 34 31 38 30 31 35 42 33 24 32 36 31 20 33 39 31 35 35 44 30 37 42 41 35 33 34 29 37 29 38 31 39 41 29 33 34 25 26 38 40 27 44 34 42 34 30 39 51 35 43 40 29 33 27 29 38 39 28 22 26 21 41 37 35 32 42 33 41 38 39 39 32 37 31 38 26 31 34 27 29 34 33 32 27 33 35 37 28 31 28 28 37 31 28 36 36 43 37 40 34 26 34 44 38 25 31 30 31 33 31 36 37 32 31 46 35 33 36 37 27 39 29 30 36 18 42 29 37 25 22 27 30 32 34 30 23 30 38 36 34 40 27 34 28 37 35 28 42 43 21 39 35 29 33 39 42 41 37 36 35 39 26 42 28 36 39 45 29 30 39 32 28 30 52 25 30 25 30 46 35 34 36 25 50 34 28 37 34 39 39 33 36 34 41 24 28 35 38 47 33 33 39 38 34 24 32 40 33 27 33 33 19 37 33 29 28 28 30 28 27 28 34 30 41 38 31 42 34 28 32 35 35 35 34 35 31 26 31 34 33 24 26 37 41 26 31 31 26 31 24 38 34 40 35 25 38 32 44 32 31 21 35 38 31 36 32 37 41 32 33 31 31 37 39 31 31 32 39 25 32 38 33 33 32 35 33 33 35 30 33 30 36 31 36 27 27 38 33 34 34 39 38 37 35 28 32 35 32 36 30 25 32 35 36 26 42 29 32 35 39 28 35 26 28 32 28 27 36 39 35 31 38 33 32 30 31 26 34 37 31 35 34 28 29 26 34 37 32 31 31 43 39 28 25 41 35 22 25 32 34 25 36 35 28 32 31 30 34 36 27 36 31 30 26 31 29 35 33 37 29 36 35 28 37 33 42 34 40 35 36 23 39 50 34 20 35 24 36 33 30 35 33 39 28 34 45 36 25 28 32 28 30 32 28 34 34 39 38 33 25 33 29 38 23 41 34 39 29 30 31 34 34 41 31 45 36 30 34 36 31 31 25 30 32 35 36 35 37 42 34 46 30 32 38 21 31 39 32 32 37 30 41 19 30 28 38 32 34 41 40 30 33 47 24 35 31 34 25 25 35 39 36 33 33 22 26 39 34 31 27 44 34 33 33 38 37 39 30 24 36 33 26 27 40 32 29 27 29 34 34 37 42 25 40 35 35 25 36 29 30 22 44 34 47 34 33 32 48 28 33 25 35 29 27 32 35 25 30 26 35 32 27 35 36 36 37 31 39 39 28 38 34 29 32 32 36 28 32 28 42 34 34 35 35 34 39 26 27 33 30 23 33 31 32 34 32 39 37 35 33 43 33 33 27 34 33 29 34 30 35 23 35 28 47 39 27 36 33 26 26 34 24 30 36 32 27 37 39 28 32 34 25 31 32 32 29 37 26 29 31 29 37 24 33 33 41 38 29 41 27 33 43 33 36 40 25 29 34 29 30 36 37 37 27 42 40 36 31 33 46 37 34 29 44 27 33 30 34 33 24 32 27 34 36 33 36 39 33 38 18 39 40 34 28 34 31 37 33 40 35 27 42 29 21 34 36 38 31 35 28 38 29 37 25 33 30 37 42 24 25 23 32 38 31 39 44 30 31 30 42 28 32 32 27 35 38 42 44 32 18 35 40 30 29 30 31 34 31 44 29 35 32 24 34 33 37 41 28 37 40 31 38 45 29 31 25 32 26 30 34 22 23 39 32 36 34 35 25 28 35 30 26 27 30 41 45 40 35 30 33 34 39 38 31 32 29 32 38 36 38 26 40 26 40 43 37 25 33 35 37 30 31 30 34 35 32 29 29 32 28 34 45 26 29 25 36 25 27 35 36 39 34 39 27 36 30 43 40 28 33 47 41 31 43 33 30 33 32 36 32 37 33 30 35 33 38 30 39 27 43 41 31 25 28 32 42 37 30 46 37 28 38 39 33 40 30 37 28 33 47 43 26 25 30 38 33 27 30 39 36 37 38 33 34 25 34 38 39 29 37 33 30 37 31 35 31 32 29 30 45 37 43 38 40 43 35 36 34 34 28 43 31 24 25 27 32 32 37 35 17 32 26 28 41 29 26 48 34 35 38 31 38 30 43 29 39 32 42 32 25 34 30 29 43 38 27 46 30 35 41 28 39 37 39 31 38 30 27 28 27 30 34 35 48 32 31 25 38 25 25 34 37 29 30 31 41 33 38 29 34 25 34 36 28 28 33 38 28 30 33 30 37 31 29 21 32 33 35 33 33 37 30 26 27 37 29 33 36 30 41 33 26 40 37 34 27 32 28 28 28 38 39 35 36 25 32 37 36 49 26 32 34 38 39 31 37 30 33 29 24 35 37 34 27 33 41 43 29 30 34 32 39 28 38 29 24 22 31 48 35 27 37 31 42 29 32 30 29 32 29 33 42 30 39 30 39 35 40 22 28 30 32 48 26 33 33 34 28 30 30 33 36 31 33 34 31 29 29 33 36 22 44 30 34 28 31 41 28 44 33 38 27 39 26 22 34 35 31 30 29 34 34 40 32 44 27 25 30 49 29 32 45 29 36 27 29 31 28 39 38 30 29 33 27 33 27 31 32 37 35 36 26 32 30 28 36 28 43 32 32 31 36 37 31 23 29 32 41 25 32 34 29 39 41 35 41 43 42 36 45 32 34 24 32 40 36 29 35 35 28 38 32 31 39 35 35 32 32 25 28 37 37 39 35 38 37 34 36 39 34 40 30 40 37 30 28 35 32 27 23 33 35 36 34 30 27 38 39 39 31 31 30 33 36 34 29 34 30 46 40 28 39 37 32 46 28 31 31 39 33 28 24 34 26 28 36 36 25 36 27 36 38 39 30 29 40 39 35 29 35 29 26 31 38 27 27 43 30 32 36 33 29 39 33 30 29 29 29 30 30 42 37 39 40 26 32 39 36 30 27 29 37 30 35 31 28 42 27 32 39 24 31 32 25 34 38 29 23 30 37 40 33 33 29 37 24 33 31 28 28 25 30 31 37 30 40 29 35 26 32 22 37 36 31 38 42 30 32 36 20 29 25 29 26 35 28 31 21 43 34 28 37 35 29 26 36 33 26 31 32 28 38 33 30 32 29 26 33 22 31 29 37 28 41 35 26 27 30 40 30 32 32 25 35 30 36 30 31 34 38 29 37</t>
+  </si>
+  <si>
+    <t>JSB(2.708572950742294, 5.631343822702632, -185.17360030854252, 1039.573714329297)</t>
+  </si>
+  <si>
+    <t>292 208 194 221 173 225 277 140 245 172 260 201 190 259 211 228 252 280 192 235 254 192 215 159 171 216 170 269 240 147 214 175 278 257 243 250 221 192 190 268 160 222 251 238 196 283 250 243 240 223 173 239 219 185 210 195 218 167 276 216 179 227 216 214 293 261 226 358 189 146 228 259 239 202 273 143 218 165 235 316 311 219 256 220 208 261 184 263 181 301 264 149 215 224 224 214 175 176 183 202 171 217 241 178 210 244 193 214 110 299 296 188 216 241 184 237 131 138 214 160 300 271 192 210 229 243 190 237 176 99 231 214 292 206 167 222 221 170 213 254 158 238 170 161 143 214 190 188 162 167 198 255 133 191 317 199 276 164 205 177 178 191 153 230 157 248 212 206 288 210 156 237 137 189 220 226 218 178 194 239 218 165 214 181 156 202 325 259 226 233 270 225 266 243 219 216 202 161 125 215 243 227 212 183 265 231 156 236 182 197 114 154 166 216 220 182 197 155 243 227 203 220 217 195 218 205 243 248 219 221 124 181 181 237 227 157 156 130 232 231 211 133 193 233 159 271 170 122 169 302 254 219 197 185 232 200 162 205 339 196 192 328 213 169 199 254 201 199 247 114 237 219 203 195 177 187 237 297 120 223 200 225 297 248 251 199 211 189 174 212 158 216 293 185 187 233 174 143 146 228 188 247 210 154 261 289 222 145 194 189 229 200 217 267 297 202 290 259 290 259 176 132 234 260 157 208 158 281 271 195 214 191 252 261 138 222 187 190 200 187 199 245 188 144 212 172 201 226 158 255 248 184 176 212 227 126 226 252 149 284 265 254 234 271 186 250 199 156 242 195 171 206 207 236 272 242 251 243 257 270 235 189 222 182 183 131 229 262 170 205 132 239 259 247 174 200 260 181 110 210 255 255 210 244 234 189 216 186 176 128 192 139 163 228 226 179 196 235 169 229 215 263 213 209 195 209 210 133 230 211 226 239 155 234 184 213 209 222 240 145 239 242 206 214 182 188 227 253 266 200 216 256 196 180 224 233 184 219 167 246 177 250 158 251 233 178 237 207 233 285 167 180 158 211 257 167 209 219 165 246 229 248 223 227 250 282 181 220 178 222 239 256 161 292 253 269 208 291 244 254 176 243 176 261 180 194 181 215 189 207 200 164 228 232 194 170 261 256 228 178 154 146 310 158 205 235 156 220 181 179 210 277 272 197 157 243 225 155 276 239 229 266 286 161 286 212 151 145 200 245 247 169 247 243 225 240 252 214 175 271 217 245 145 277 202 223 216 155 241 210 229 209 165 243 207 117 227 180 308 219 164 176 246 193 261 193 197 231 310 161 156 268 234 276 286 197 174 249 205 209 221 324 217 192 168 323 232 163 175 242 250 247 166 251 120 337 138 220 258 201 232 249 217 239 237 276 222 292 285 281 152 189 228 258 201 196 128 169 167 179 244 301 212 185 255 173 225 215 262 253 244 239 238 218 156 199 210 162 156 224 250 112 146 225 205 185 252 170 204 250 288 148 242 162 207 233 186 208 265 152 170 280 198 195 217 244 138 234 244 277 231 230 150 221 207 167 220 169 200 224 158 201 268 223 220 225 144 256 266 146 156 216 240 196 248 276 155 251 198 223 280 289 237 238 260 203 245 203 165 197 239 179 208 180 241 119 283 182 281 230 209 171 264 227 236 205 222 208 230 195 169 342 163 178 161 277 211 222 240 180 216 250 184 199 144 269 208 151 227 217 267 257 270 183 237 247 225 222 322 194 174 210 208 197 229 208 317 184 197 198 176 190 197 229 187 264 174 282 95 207 188 189 245 183 270 190 245 183 239 231 255 228 236 232 213 168 220 224 201 147 248 257 238 199 164 102 241 191 199 168 177 180 232 224 244 235 244 267 255 222 194 154 248 185 150 157 222 175 248 232 184 176 255 228 156 191 222 214 242 264 210 190 125 215 153 218 161 237 210 228 245 223 221 320 229 189 273 182 209 269 278 217 156 208 146 147 177 197 168 163 216 225 189 221 242 156 260 243 213 204 223 228 200 305 231 203 247 289 300 167 220 202 183 295 247 225 233 234 132 156 179 220 200 204 191 240 173 245 256 269 211 198 223 167 238 213 304 226 147 213 208 211 155 139 167 184 188 245 190 262 252 238 157 254 255 176 269 217 134 216 185 189 253 194 208 153 143 241 172 170 201 221 252 196 85 162 255 234 175 191 138 148 203 153 240 262 183 186 286 185 275 218 285 212 119 296 172 291 162 255 192 176 199 240 216 206 304 279 252 210 99 310 127 247 223 187 248 240 231 160 192 166 204 189 239 197 144 288 243 156 268 173 230 191 251 228 193 212 99 216 179 254 177 240 235 217 193 232 236 246 303 279 192 234 252 249 176 221 176 254 222 158 199 253 243 180 223 194 161 279 220 145 245 234 227 158 160 202 243 229 214 161 247 194 167 259 186 208 180 243 214 181 327 199 173 195 177 351 288 269 214 224 290 207 203 237 90 147 156 222 272 180 238 221 201 230 255 280 253 168 193 193 196 267 150 246 159 223 265 308 158 198 156 222 162 257 265 233 224 129 134 121 267 254 166 220 223 186 257 247 164 217 332 178 143 191 220 161 163 325 242 224 190 213 247 214 158 190 272 234 148 224 232 249 260 198 214 236 253 225 164 276 251 182 303 138 221 253 210 218 175 188 224 230 130 156 244 244 168 215 175 231 168 264 203 278 267 217 207 237 225 223 166 140 229 290 212 205 248 195 188 189 280 146 203 191 179 183 222 180 212 171 182 289 236 210 242 275 252 198 271 217 196 243 261 239 88 243 157 245 231 159 254 280 129 165 233 161 187 226 236 239 106 184 310 270 288 190 177 259 299 122 229 205 191 310 235 252 195 103 173 249 267 141 221 235 255 292 214 220 212 200 180 227 231 337 213 180 300 87 220 193 239 179 159 126 268 126 218 256 235 180 254 264 186 212 223 136 227 152 239 201 229 172 170 177 222 176 156 334 252 259 229 121 242 281 175 289 178 259 135 276 159 262 191 215 195 167 271 237 167 192 217 255 308 235 154 228 196 142 141 266 153 201 123 291 201 250 205 191 207 209 247 266 182 243 260 197 198 252 249 242 169 228 195 136 231 144 221 179 245 189 181 129 206 217 172 236 233 187 188 199 186 188 250 290 151 243 276 227 240 215 234 243 150 325 192 175 209 200 260 153 205 259 185 295 226 209 210 246 213 199 241 192 268 197 245 175 226 229 218 138 219 255 186 158 285 229 220 215 199 257 147 276 198 199 250 195 167 178 279 224 185 216 164 261 286 216 202 171 152 143 158 271 153 163 254 203 155 277 183 189 253 234 252 271 272 222 241 182 284 197 160 221 238 229 231 229 188 202 186 183 239 142 201 157 158 228 291 255 229 113 211 196 229 184 188 255 207 181 226 340 215 212 212 230 164 116 125 131 245 173 232 251 217 114 224 156 260 191 156 169 170 349 166 174 210 174 247 227 235 171 198 223 190 221 206 190 186 277 145 320 192 202 224 186 293 224 330 235 221 172 227 142 209 270 260 227 215 191 247 223 264 222 275 179 205 192 184 251 166 127 215 162 209 208 221 228 175 203 187 158 207 182 220 172 171 171 168 267 191 254 198 244 229 264 212 228 214 224 198 228 190 209 236 224 303 155 187 184 262 265 279 217 261 197 220 280 238 229 232 169 204 271 170 161 195 240 231 293 292 173 234 195 233 288 232 278 287 252 211 248 253 251 210 199 267 139 140 170 242 253 270 182 201 225 215 246 238 192 175 231 258 158 155 213 157 255 290 163 230 217 258 163 236 239 212 167 205 161 242 145 149 178 165 194 197 155 250 223 156 161 229 189 204 218 189 208 205 291 208 145 204 165 242 218 156 206 238 150 138 252 246 215 181 225 268 183 207 224 227 253 211 305 200 211 164 223 212 263 191 195 217 221 198 190 152 228 241 170 198 233 189 211 199 215 218 251 198 160 196 227 179 234 202 233 241 229 185 179 280 225 182 233 213 208 222 221 213 239 269 159 175 335 138 349 273 184 252 124 195 216 250 197 139 131 220 156 230 276 227 158 156 258 279 148 279 230 210 236 210 220 212 221 268 236 219 213 119 161 264 212 165 270 279 312 254 217 192 194 264 163 235 221 315 306 221 206 158 209 228 217 167 251 161 213 169 129 231 273 313 152 140 153 231 240 196 190 269 205 181 181 279 232 294 199 184 214 223 179 209 218 186 142 162 205 186 118 210 187 240 155 166 243 262 197 209 272 256 213 256 208 261 249 227 270 275 186 225 221 213 196 184 193 155 199 193 238 218 308 245 251 210 209 256 212 292 199 126 179 243 244 197 171 230 181 219 230 204 222 190 138 239 270 284 230 213 151 226 176 256 260 203 272 208 238 174 232 269 225 247 221 218 154 258 208 207 170 182 211 260 187 173 266 202 153 165 313 271 175 315 236 234 219 223 282 221 199 273 281 249 212 236 111 224 231 227 261 246 188 170 266 258 179 120 212 202 146 255 217 159 143 170 160 189 248 203 246 273 161 207 222 220 238 252 188 156 192 203 238 163 305 131 258 185 250 263 234 232 92 203 213 238 244 225 145 190 271 173 253 214 282 195 268 281 185 207 137 263 239 201 214 230 196 214 283 233 224 205 332 191 246 184 184 162 194 145 180 201 231 172 228 188 212 275 200 187 244 180 207 225 260 202 234 166 235 115 176 178 233 217 189 150 174 226 264 200 162 173 170 248 213 271 249 142 107 210 189 237 212 270 250 220 185 182 198 251 229 309 126 250 251 191 194 228 178 233 260 294 166 183 273 155 196 178 145 243 159 158 231 286 216 309 213 227 275 198 193 187 123 215 188 271 301 265 208 285 263 120 268 201 174 230 210 241 288 204 154 273 197 260 167 143 154 186 200 264 139 209 251 187 187 154 258 122 186 198 222 246 224 209 228 167 230 147 162 197 307 205 187 208 286 205 145 228 177 259 222 256 145 221 263 190 218 158 188 245 160 157 308 219 257 200 225 151 160 195 215 232 215 275 249 191 278 140 184 192 234 241 153 232 245 228 263 229 169 175 179 200 248 177 212 224 152 230 231 171 188 189 231 194 125 190 209 271 236 169 238 277 165 241 214 142 231 200 199 249 250 237 196 227 174 250 204 234 155 222 154 179 149 169 333 247 134 184 212 140 189 231 126 188 221 180 302 179 198 206 235 158 237 155 250 191 221 81 187 202 204 263 237 262 167 182 204 223 226 144 180 256 205 208 150 171 277 175 164 218 203 190 220 239 151 201 243 221 190 188 235 182 210 223 148 200 255 205 227 252 249 238 204 267 244 263 176 212 285 248 242 256 148 227 171 185 203 176 159 226 222 219 256 314 182 176 235 218 185 245 198 171 238 210 194 178 177 214 214 191 186 217 149 113 223 238 170 184 207 169 180 193 275 219 300 196 113 239 227 151 261 246 197 191 245 185 234 213 213 218 218 204 190 209 181 165 221 177 168 200 291 137 220 234 206 241 208 193 125 185 116 158 390 188 296 158 212 205 227 240 189 209 268 141 245 230 170 171 248 251 263 275 245 199 140 196 191 248 234 177 191 239 202 220 237 188 269 205 172 223 251 189 221 186 297 137 224 185 242 146 155 238 229 258 217 136 291 228 301 162 207 235 241 318 219 145 152 243 234 218 141 216 151 305 176 216 231 287 214 170 215 243 235 203 257 254 238 259 184 249 202 163 263 252 273 242 235 238 202 244 158 123 119 168 203 193 318 248 218 266 271 115 207 211 230 214 218 317 209 207 180 211 156 270 277 185 262 260 185 175 226 229 322 218 252 245 283 285 205 191 239 168 204 232 132 268 220 230 222 268 178 270 149 206 152 261 236 213 181 227 171 244 234 235 264 116 246 180 249 170 235 168 240 193 224 209 198 244 237 251 180 241 237 192 159 184 183 216 214 258 218 154 162 166 222 151 205 152 240 228 307 197 221 198 248 167 205 276 190 197 136 157 152 211 156 213 101 211 235 243 310 174 186 237 231 240 268 299 186 148 209 216 266 229 203 252 232 175 226 250 190 166 136 187 166 182 140 188 165 206 225 194 226 212 260 208 242 198 162 263 198 189 142 271 185 130 271 154 223 184 118 164 278 216 280 178 192 243 189 150 233 183 315 283 183 194 223 236 264 302 210 216 208 201 207 220 312 300 196 184 207 222 194 215 258 233 235 201 210 225 226 173 135 200 229 240 245 208 219 226 157 175 154 203 244 213 225 218 253 247 174 171 219 229 287 178 202 234 197 236 210 174 198 276 301 147 209 261 264 158 147 182 210 221 246 265 233 241 230 235 123 236 225 208 165 258 240 216 239 215 198 182 142 209 236 216 224 205 207 144 244 137 200 183 234 258 231 220 204 243 215 172 263 210 199 160 175 240 244 264 225 162 264 145 270 308 189 229 243 156 273 154 177 207 310 167 186 236 216 217 245 197 351 276 198 201 233 165 289 163 270 191 213 185 171 191 252 177 218 294 283 191 222 215 243 235 232 222 79 286 280 192 227 183 262 222 222 189 151 209 192 213 203 199 204 226 223 152 258 232 135 218 177 167 187 217 148 144 262 205 270 208 162 164 251 201 202 206 252 187 155 243 267 257 259 223 151 249 241 196 208 188 164 240 165 239 238 178 217 172 174 226 226 126 201 214 172 294 228 247 214 202 169 200 257 194 247 157 175 188 252 308 212 223 182 178 202 185 207 170 143 287 262 144 247 253 236 215 210 194 225 239 258 207 155 191 239 263 202 150 214 274 159 212 185 192 154 142 181 110 134 292 180 151 191 261 275 231 211 241 163 269 128 210 266 251 229 229 173 190 174 154 302 231 194 197 203 291 238 211 226 123 217 215 238 275 185 248 178 211 166 224 160 207 173 253 145 242 281 183 267 314 283 230 187 229 200 233 263 291 162 235 223 267 203 253 282 215 168 217 179 243 178 236 267 248 197 137 204 296 168 232 164 203 302 250 243 163 223 229 201 180 227 168 225 279 189 308 261 138 190 169 222 270 142 237 193 179 186 175 215 145 230 221 135 278 181 179 119 282 220 251 229 137 272 252 297 188 176 178 186 260 234 176 263 272 226 257 249 173 270 261 189 189 222 237 141 256 127 185 215 165 180 212 260 178 143 176 175 142 174 231 189 170 177 159 144 115 190 241 203 269 224 183 124 162 277 219 132 172 233 193 195 260 183 158 175 185 173 196 181 218 203 225 263 199 263 235 148 256 217 210 271 224 222 191 132 200 222 274 227 299 306 270 193 260 255 183 229 196 282 210 219 250 174 258 207 193 270 172 262 213 143 132 335 209 205 201 200 187 198 180 262 215 312 220 287 226 229 287 306 149 209 193 177 156 187 141 141 266 195 178 172 155 297 163 201 211 216 189 185 254 194 151 167 268 306 200 151 185 182 150 154 219 218 287 265 242 246 236 221 233 232 273 206 184 315 225 210 125 142 265 213 164 171 197 242 149 243 149 274 224 315 229 217 208 151 235 173 181 226 316 201 290 197 246 228 280 245 234 203 210 307 184 225 251 239 180 258 207 186 245 245 324 280 194 244 222 266 231 285 244 243 215 194 227 176 161 162 143 139 182 195 149 224 194 257 145 146 239 294 202 217 244 188 175 215 249 159 269 208 215 194 233 243 160 147 194 182 200 264 206 224 201 131 189 205 158 189 266 192 218 216 182 239 277 214 219 139 177 229 169 184 248 251 302 230 193 278 172 247 288 223 241 221 232 152 132 207 202 251 211 125 139 234 273 241 212 214 229 170 169 203 213 262 173 220 204 219 261 221 142 282 235 291 216 212 150 184 148 211 247 200 120 194 193 202 171 198 219 206 153 210 231 169 216 180 242 129 208 178 175 238 249 283 124 214 270 225 218 238 232 166 244 199 298 223 232 224 158 251 300 275 249 286 185 232 182 218 316 177 215 269 250 233 232 233 225 256 279 216 227 230 144 157 200 204 171 200 204 196 251 213 265 290 323 243 123 194 259 190 237 175 286 283 225 142 237 211 252 217 178 272 248 232 186 258 257 249 200 214 202 163 170 176 178 201 234 232 230 170 243 239 236 149 245 211 244 216 182 214 219 263 206 179 222 225 223 164 227 226 184 234 324 186 259 201 190 154 256 220 225 219 187 253 279 314 172 186 224 245 202 220 285 219 305 187 223 179 141 205 199 150 192 259 230 175 184 227 282 238 245 217 284 151 254 235 231 226 200 200 205 216 213 207 226 201 168 220 245 269 240 205 221 192 251 283 183 149 156 167 236 155 174 188 153 210 200 243 236 218 133 231 213 142 269 211 254 158 228 295 191 141 235 242 213 308 209 187 239 216 204 149 212 202 224 175 225 244 226 213 216 205 153 184 222 306 234 278 241 190 251 248 204 248 203 199 192 160 200 212 148 167 152 202 199 221 245 191 278 305 268 278 188 226 245 175 242 239 262 250 200 202 230 272 196 199 174 208 180 244 215 268 257 254 195 267 202 324 242 200 122 231 180 317 157 233 171 312 212 195 199 210 258 305 231 208 209 196 170 229 246 184 141 188 284 231 180 199 198 140 172 154 251 222 179 135 173 171 174 252 154 238 134 230 200 183 217 287 218 195 280 182 318 207 278 208 307 205 171 203 222 202 306 225 182 250 126 196 198 256 200 236 141 183 217 267 183 242 183 154 275 150 162 136 231 182 146 208 180 139 171 258 337 206 190 216 260 191 205 233 248 212 211 158 216 204 277 150 259 231 219 208 186 255 190 196 226 182 189 133 288 269 242 241 182 254 172 299 281 184 172 195 240 283 194 217 289 188 201 116 198 258 138 201 272 257 238 234 273 184 240 202 141 235 143 191 216 227 250 240 227 230 210 288 326 270 246 242 266 237 178 252 275 147 280 177 242 208 166 257 253 247 137 211 205 225 224 328 208 216 243 235 126 157 299 195 278 192 186 202 133 209 204 196 282 216 204 133 255 204 179 189 235 150 212 273 233 232 217 184 168 201 153 266 238 214 154 228 131 193 172 172 181 189 214 271 253 227 171 153 197 222 136 210 206 237 274 173 139 192 223 297 221 224 258 192 282 212 201 213 209 205 249 282 252 156 196 183 262 242 169 223 269 177 259 221 235 304 208 175 236 187 273 213 244 211 219 322 281 161 207 221 269 254 205 230 215 194 205 297 255 213 214 213 191 193 181 235 222 226 232 158 290 296 217 199 277 245 207 209 191 223 174 195 145 180 191 212 230 280 190 224 199 221 233 242 226 186 193 164 165 240 141 196 239 186 211 185 258 177 174 164 146 198 214 155 211 211 245 208 249 181 269 219 239 191 218 187 203 248 165 263 248 246 232 262 210 222 284 195 232 181 158 266 181 164 196 143 179 210 191 180 281 229 275 197 131 167 176 188 185 139 245 288 224 246 237 232 288 337 271 236 195 178 158 222 230 267 172 164 203 255 141 249 186 208 205 245 257 225 184 164 124 195 212 192 213 260 233 267 213 245 208 228 288 282 177 269 191 231 254 256 197 179 187 231 201 207 258 234 158 272 151 227 245 161 199 144 295 91 181 172 142 172 253 202 201 130 142 180 193 191 208 283 120 240 184 234 306 173 237 219 243 260 210 175 272 188 98 159 170 246 270 258 201 196 175 244 257 147 229 220 319 123 212 137 218 160 250 233 242 288 237 163 260 250 202 148 274 258 238 116 246 161 223 256 262 217 216 250 82 202 219 213 224 183 250 185 178 174 209 234 284 272 208 272 277 111 236 286 217 135 243 243 116 219 246 252 189 244 111 209 117 163 290 206 159 178 242 151 202 212 230 113 158 224 214 333 223 246 272 216 140 260 313 240 152 248 342 200 288 220 179 332 191 201 160 258 234 252 223 256 154 262 181 317 165 197 264 184 239 200 239 188 150 206 226 304 157 258 174 189 167 169 188 264 150 195 196 201 187 207 260 184 244 210 203 170 184 182 142 228 315 215 257 173 152 187 164 188 114 260 210 160 222 274 184 214 223 226 182 177 249 229 152 234 249 231 245 131 281 227 225 215 168 210 186 156 202 198 197 151 217 248 149 200 166 203 216 195 223 182 202 253 230 220 255 155 201 238 191 237 165 307 249 228 151 92 308 168 248 138 250 214 153 142 247 254 247 245 307 214 175 224 222 190 142 230 259 245 189 270 157 186 239 288 188 218 178 267 252 220 228 236 217 256 239 203 219 249 209 184 252 204 250 207 164 151 283 195 199 200 183 297 260 223 141 238 225 152 181 212 186 111 191 164 128 191 271 208 410 115 250 267 157 207 202 174 216 197 232 250 171 275 202 232 153 197 259 201 227 192 175 234 277 248 222 227 198 301 244 225 224 181 283 194 179 134 206 206 170 179 199 228 244 278 212 267 214 200 179 267 204 133 206 234 224 250 263 175 219 178 262 147 252 220 237 134 182 173 215 138 176 217 268 231 291 299 182 270 220 159 281 193 213 221 236 192 252 258 168 243 156 191 240 222 214 308 336 297 182 208 233 252 204 213 190 198 230 195 166 258 162 167 318 259 294 213 157 184 177 131 132 223 227 375 290 224 196 289 225 232 195 189 289 150 182 234 146 243 147 206 212 177 210 253 200 181 213 262 214 202 221 204 180 261 279 176 132 270 144 213 248 179 242 244 209 194 241 206 181 211 211 132 229 209 213 230 164 161 199 300 270 235 172 152 262 261 189 199 212 167 168 205 218 120 242 159 186 124 214 188 245 146 193 181 185 234 237 215 183 161 215 157 191 139 187 254 196 203 184 177 133 230 233 191 117 159 141 169 154 229 201 197 157 205 195 175 196 261 208 125 257 226 247 178 128 284 263 167 178 274 201 242 236 267 177 265 285 267 228 264 239 229 248 227 196 242 210 223 165 231 164 217 282 179 198 264 225 183 218 221 237 193 169 242 162 220 153 198 233 245 242 218 212 303 235 250 163 184 202 117 257 290 155 243 230 203 268 163 282 137 214 238 164 117 243 219 177 227 251 204 269 248 146 253 138 197 232 246 127 229 78 296 166 223 202 145 120 178 170 201 254 142 166 196 207 250 225 228 191 218 170 224 304 205 236 216 226 239 217 184 239 184 156 181 303 192 135 249 285 222 172 225 163 224 199 254 223 262 303 212 189 204 198 248 211 261 219 221 167 167 169 161 183 240 200 193 146 98 368 255 164 232 219 216 243 277 176 187 285 323 206 200 176 287 139 158 262 251 254 252 161 277 208 240 210 265 156 223 217 128 249 169 195 223 216 252 177 194 291 155 251 194 197 222 186 240 211 241 145 248 184 181 149 224 153 229 208 201 217 258 211 227 118 187 139 251 188 213 169 195 225 183 232 207 245 220 194 212 231 215 288 209 200 296 150 253 186 187 174 208 192 240 236 179 246 233 279 202 323 262 179 265 191 215 168 281 224 248 240 201 198 213 174 219 272 222 217 250 152 303 247 209 161 186 98 197 203 302 219 125 182 249 166 211 209 230 182 260 176 198 107 235 133 255 142 236 220 185 209 159 189 245 202 168 312 199 142 237 235 243 198 260 178 279 195 175 230 147 218 283 210 186 258 133 138 199 162 180 199 235 183 176 211 207 229 234 212 157 240 159 206 177 232 173 146 211 185 217 216 255 217 222 175 199 231 151 211 114 248 202 305 181 292 226 185 264 236 177 253 190 209 201 210 202 163 142 307 271 263 278 151 155 241 205 247 199 155 215 205 182 183 250 253 201 203 264 219 190 260 213 232 190 168 117 221 181 206 191 182 227 196 196 167 236 210 310 208 243 130 272 223 141 278 196 178 166 156 174 214 175 201 268 218 182 191 212 243 239 195 164 207 135 182 213 200 288 286 261 178 222 215 280 205 220 188 195 202 170 254 218 192 156 264 309 285 190 301 270 178 258 184 184 239 220 204 161 212 191 183 265 229 231 230 237 205 213 209 265 157 164 220 226 149 226 268 169 201 141 229 224 142 149 195 219 221 292 231 186 206 261 205 184 165 247 175 160 292 206 166 171 93 257 223 293 139 247 246 224 211 208 205 158 235 178 202 279 180 222 308 203 208 167 201 196 189 157 136 200 228 138 193 175 141 173 190 249 178 257 171 219 222 209 255 219 186 174 274 199 267 189 250 170 162 160 218 170 157 187 261 172 116 173 107 161 244 174 215 267 197 239 306 278 246 208 212 259 248 119 293 231 157 183 248 189 219 164 187 272 225 166 165 207 252 206 219 147 235 217 283 245 234 171 172 243 224 246 211 215 251 201 235 210 174 159 221 152 197 294 214 210 148 189 167 200 231 213 122 207 243 195 197 210 284 169 285 224 130 185 246 111 185 202 239 198 234 163 214 201 206 212 145 262 225 203 186 215 186 180 215 226 203 230 210 189 119 306 176 174 261 209 149 225 127 170 230 199 204 185 309 175 183 191 249 262 263 204 207 137 200 222 204 164 248 167 147 233 291 201 235 219 199 265 191 262 210 192 206 176 205 223 230 132 217 178 210 214 218 231 195 250 158 196 231 254 240 181 183 186 220 247 199 259 276 164 215 145 185 226 167 239 175 257 294 265 285 323 252 228 179 198 211 181 216 201 267 217 265 169 256 155 208 209 223 169 174 190 195 252 239 186 226 243 298 207 291 237 200 190 231 286 186 197 191 261 260 163 247 256 227 227 255 226 218 220 216 191 215 253 221 260 206 192 195 193 240 175 271 193 204 205 225 203 254 226 211 161 215 158 253 241 201 196 177 239 220 258 263 168 196 232 169 238 289 217 218 241 196 243 161 293 239 159 178 227 290 220 165 186 193 257 269 155 266 181 241 226 224 291 259 215 241 195 174 240 232 215 210 202 214 191 224 256 245 208 237 221 217 232 279 186 149 221 285 255 201 231 212 211 205 193 192 186 212 245 196 228 216 220 273 228 222 178 174 166 249 101 235 238 150 149 269 207 205 215 160 304 263 247 224 210 197 178 253 241 176 155 226 159 286 208 215 156 91 229 334 157 309 180 184 198 162 220 182 194 166 236 236 201 233 195 219 260 118 223 215 201 198 261 184 191 162 248 233 203 182 159 202 211 232 204 218 247 208 198 240 222 214 266 174 222 171 168 86 282 224 279 191 185 162 241 201 244 212 193 204 234 179 189 232 197 293 271 148 233 277 245 247 248 205 209 215 138 163 211 235 219 255 159 212 207 201 193 179 257 223 197 231 182 263 339 268 183 202 255 164 253 164 154 172 248 162 278 121 228 124 135 209 205 305 272 284 189 255 284 254 255 234 183 227 163 255 139 131 184 253 173 229 210 237 213 275 252 155 198 241 152 155 187 246 205 248 247 159 205 247 220 208 222 227 198 205 189 294 355 161 199 257 187 225 219 189 257 362 160 235 163 193 182 240 247 297 142 238 236 154 203 244 216 237 222 201 196 217 275 173 180 146 151 234 180 183 253 178 190 175 162 189 171 219 206 228 250 207 271 182 283 230 168 186 186 132 198 166 179 122 289 248 132 251 136 222 179 162 166 252 208 245 204 239 139 184 241 173 206 213 253 239 253 175 255 252 256 169 207 166 192 215 218 189 188 278 201 209 192 193 276 247 220 225 272 248 213 278 219 229 146 216 245 220 214 264 189 272 200 233 160 207 212 235 201 252 163 221 264 171 270 186 228 90 223 215 158 158 268 232 185 171 220 210 236 240 175 194 214 98 196 191 281 270 218 151 258 182 316 215 254 208 186 275 200 198 160 190 179 287 257 204 238 206 202 236 144 205 145 208 199 181 207 281 140 189 296 310 182 226 238 181 162 239 166 162 176 252 192 161 250 229 252 122 203 156 260 256 197 251 175 199 247 282 202 203 170 192 262 273 177 170 261 194 195 215 212 193 250 187 215 252 277 205 225 198 140 249 186 280 218 199 231 284 190 200 196 197 182 286 206 196 312 210 230 206 243 167 313 233 190 330 186 181 189 238 174 209 186 230 235 239 128 248 249 267 134 194 293 195 198 178 191 160 245 198 196 237 290 258 269 230 232 141 197 248 232 183 213 211 194 184 255 224 191 206 269 188 232 186 227 200 229 256 212 133 155 147 178 188 154 169 197 240 243 211 277 192 219 226 174 163 167 276 110 172 227 288 154 185 217 178 120 157 222 167 175 208 153 252 171 203 182 135 271 152 249 323 155 241 221 192 245 228 193 233 274 220 257 150 239 238 182 119 238 189 237 179 183 201 256 263 183 267 257 204 262 210 299 270 216 195 305 206 210 289 208 181 219 256 200 207 204 190 195 234 266 199 132 201 200 204 219 168 160 196 188 216 199 257 121 181 116 216 184 182 242 282 251 243 253 200 208 234 165 212 240 149 203 203 199 230 212 253 238 217 181 134 216 201 182 174 155 191 215 247 234 214 218 212 226 232 214 264 210 284 217 208 187 246 149 236 149 233 167 257 204 261 228 183 211 235 160 154 317 216 146 176 199 214 261 245 263 184 246 226 214 180 98 177 217 291 234 228 237 199 194 226 185 215 193 221 202 186 179 179 242 221 136 279 253 216 209 247 212 151 238 209 217 257 220 175 208 280 222 234 212 229 214 290 194 279 265 171 303 285 249 245 146 212 185 159 201 235 229 225 251 192 189 292 218 276 222 201 236 174 148 191 196 196 219 233 255 239 148 176 300 275 175 244 219 211 280 213 186 218 175 267 279 183 237 272 250 318 224 272 234 283 161 191 173 186 171 211 233 218 249 207 188 156 194 240 227 167 208 189 137 218 220 192 238 213 200 259 265 200 134 236 236 198 213 234 195 285 253 232 171 273 154 156 280 185 229 155 242 259 225 240 189 175 269 172 242 264 267 250 114 244 272 144 244 124 205 223 197 245 233 270 212 162 209 195 137 168 242 163 263 151 230 168 233 181 168 159 209 227 170 233 241 241 192 126 120 206 168 191 186 168 140 252 208 123 200 185 255 204 240 103 246 145 205 183 181 209 231 216 218 320 134 239 279 213 301 206 281 151 201 215 223 198 214 236 258 237 157 205 248 212 219 208 262 181 232 181 221 169 126 224 175 225 261 240 132 228 253 179 239 265 216 190 258 165 244 269 191 168 225 207 200 210 236 215 206 195 215 241 235 138 181 167 267 234 271 247 245 163 214 198 200 216 174 188 187 190 195 201 258 171 254 197 225 182 286 203 257 201 173 264 256 197 252 189 325 156 106 226 204 210 123 202 207 194 189 177 199 161 226 280 180 121 207 211 261 157 159 208 165 185 153 122 186 217 207 236 199 216 221 180 330 197 257 178 207 191 254 237 251 186 157 261 229 273 264 235 189 193 181 200 227 229 141 153 212 169 184 217 185 239 153 188 277 137 242 192 139 129 266 253 332 200 309 193 179 227 151 213 253 216 194 121 145 220 197 164 220 198 228 189 235 174 210 113 235 236 233 244 215 123 270 242 247 179 283 250 237 170 180 218 238 160 154 146 184 178 163 239 212 144 207 256 253 263 288 247 224 198 285 222 207 138 197 153 309 186 261 196 236 150 214 247 298 197 191 276 290 198 180 158 234 190 189 203 212 197 201 233 191 162 281 196 196 229 228 255 113 209 246 184 293 206 218 283 208 232 155 245 169 278 254 215 250 244 242 265 275 239 169 231 160 190 249 199 181 243 129 209 237 314 252 282 249 278 171 143 266 284 203 277 153 204 235 222 209 128 177 212 189 228 168 192 268 250 212 168 209 197 236 208 266 205 217 141 205 247 237 261 132 212 279 261 201 198 246 271 163 221 264 215 188 237 159 171 151 213 243 187 265 229 239 206 223 173 204 176 158 184 178 166 144 183 240 192 134 248 186 200 224 196 190 240 216 284 161 203 192 256 305 218 172 154 264 242 239 227 281 163 216 196 128 249 161 232 273 166 241 216 273 135 296 165 214 93 203 177 262 262 203 231 141 261 202 225 190 231 210 220 283 149 100 228 220 215 182 193 266 171 265 196 270 184 249 186 173 237 236 175 313 207 277 155 250 186 197 196 159 159 228 292 192 188 114 204 280 231 243 265 150 160 254 282 227 203 195 233 192 186 202 217 235 129 217 219 210 264 299 171 186 184 189 207 236 264 199 140 215 226 205 287 134 215 186 208 221 191 199 231 219 254 254 141 217 210 180 197 316 257 172 207 190 210 187 228 228 207 217 192 178 286 195 247 262 138 217 262 253 211 183 206 248 254 250 168 202 184 297 251 175 218 177 250 202 305 203 136 212 209 238 190 180 224 162 255 190 254 198 246 268 241 240 182 165 312 242 192 179 275 245 214 206 224 194 190 194 225 278 227 238 158 154 328 224 222 124 270 245 234 170 164 215 258 209 212 200 246 156 241 185 240 153 183 247 269 222 231 237 184 157 193 290 198 307 242 178 250 187 164 164 231 280 300 291 200 255 186 189 131 260 212 270 167 168 170 248 236 178 184 74 128 222 247 240 174 324 274 251 182 167 177 276 285 236 183 203 272 271 234 240 172 176 275 173 188 230 134 265 253 151 200 174 105 158 215 120 181 239 194 220 216 242 156 165 231 254 261 229 262 229 147 206 209 206 250 188 191 238 191 251 192 245 190 200 273 176 243 216 211 228 230 146 131 212 169 217 120 147 186 240 240 159 198 185 277 275 240 186 198 260 186 288 203 245 280 242 200 216 191 160 145 196 293 208 262 134 183 231 141 170 168 234 288 198 163 205 215 161 105 194 208 156 170 216 196 178 216 212 184 187 252 168 248 266 197 204 206 199 238 182 183 211 206 174 221 209 225 258 128 211 215 195 220 150 268 185 196 279 222 207 229 133 151 180 166 195 289 149 213 255 212 205 169 282 131 137 256 194 129 184 164 257 281 188 244 235 301 194 276 199 174 148 199 263 242 273 258 220 273 212 212 221 282 182 224 201 220 216 298 170 244 195 209 117 218 277 214 216 183 207 224 179 205 244 216 184 264 237 275 242 262 208 194 175 141 306 332 216 245 187 188 234 218 261 205 192 193 158 228 272 236 168 165 306 212 249 242 212 228 244 184 254 273 226 173 287 222 168 177 209 173 168 175 200 212 159 126 198 228 144 216 291 195 195 230 238 189 216 223 189 225 250 220 150 213 243 246 222 283 216 212 219 230 188 237 298 209 263 247 184 180 252 225 301 207 228 298 244 167 254 234 188 200 233 131 282 273 289 164 250 273 198 280 232 187 245 193 138 196 256 159 180 197 208 286 268 253 144 158 228 222 226 257 229 220 185 202 179 134 241 207 192 156 117 293 263 270 251 288 302 169 265 271 155 153 247 201 168 186 207 219 254 243 201 233 260 240 137 179 307 244 219 265 196 221 289 236 280 197 199 171 166 144 190 197 274 252 182 264 167 287 245 120 250 194 200 218 218 273 160 210 306 216 223 207 292 224 187 221 246 234 121 242 255 196 209 238 233 200 265 170 196 262 180 217 206 181 251 191 193 254 229 187 211 210 231 214 225 217 230 195 234 198 277 280 223 212 266 254 245 200 166 200 165 183 217 173 298 130 283 304 263 169 253 250 161 178 184 206 160 224 249 253 261 205 200 214 242 251 160 209 259 272 155 242 213 155 236 182 141 250 264 159 239 179 208 130 181 227 228 176 180 261 256 153 209 239 166 264 171 266 179 148 224 206 245 158 161 276 233 205 204 187 195 224 168 224 175 193 185 180 242 194 150 344 216 155 254 174 181 290 293 196 249 282 135 175 134 130 179 249 256 247 278 167 243 241 191 173 199 225 203 147 160 211 206 284 173 188 180 271 212 272 213 337 230 199 178 171 213 269 141 193 184 226 169 254 213 250 339 181 288 273 250 160 198 232 205 230 159 305 103 210 269 134 155 244 204 167 263 254 235 195 188 243 218 245 220 193 166 204 231 169 253 231 358 213 208 165 147 245 250 239 173 272 199 240 216 229 286 190 247 204 167 225 182 219 265 272 315 334 222 219 182 138 191 167 180 200 184 238 229 258 233 166 223 242 173 205 153 240 207 195 130 264 260 257 182 211 178 318 211 210 216 142 201 192 210 103 202 200 281 222 260 233 263 153 250 317 179 211 176 242 152 306 149 152 200 162 248 183 235 166 231 197 222 176 265 333 230 204 213 135 257 182 237 249 241 194 222 178 247 183 239 181 293 249 240 198 212 182 282 184 165 167 186 253 194 143 254 220 224 217 181 112 206 201 147 222 133 261 258 212 194 203 250 171 252 196 249 232 188 271 240 205 260 220 208 230 222 205 186 225 295 263 223 260 228 291 269 214 227 232 230 213 264 259 220 193 196 250 207 184 243 172 275 243 163 233 310 121 219 316 202 220 254 217 218 142 238 252 185 137 177 235 216 235 174 274 328 157 180 164 278 277 173 224 251 157 222 211 137 146 239 177 176 218 160 165 218 207 206 287 228 112 197 200 267 214 273 244 205 124 213 213 239 2</t>
+  </si>
+  <si>
+    <t>GAM(0.45704909422683615, -5.786464896413171e-23, 1.4142609415704557)</t>
+  </si>
+  <si>
+    <t>2 3 1 1 1 2 1 0 0 1 1 1 0 1 0 1 2 4 0 1 3 1 2 1 2 0 1 2 2 1 1 1 1 0 2 2 3 0 1 3 0 1 2 1 0 2 1 2 2 1 2 1 0 0 1 1 0 2 2 1 0 0 0 3 1 0 0 5 2 0 2 0 3 1 1 2 2 0 4 1 2 0 2 2 0 1 1 1 1 1 1 2 2 1 0 1 0 1 2 0 0 0 2 1 0 3 2 2 0 2 3 0 1 1 2 0 1 1 0 2 2 1 2 1 1 1 0 3 1 0 1 2 4 1 1 0 2 1 2 2 2 2 1 0 0 0 0 1 0 1 2 1 1 0 1 1 2 0 0 1 2 2 0 0 0 2 0 1 2 2 1 1 1 2 2 2 0 0 0 0 1 1 1 1 1 1 3 0 1 2 1 2 1 1 3 1 0 0 1 1 2 0 1 1 0 1 2 1 0 0 0 1 2 4 2 1 0 2 1 0 1 2 1 1 2 1 1 1 2 1 0 1 2 1 3 0 1 0 2 0 2 0 0 1 0 2 0 1 0 1 2 1 0 1 0 1 0 2 2 1 0 2 1 0 1 0 1 1 1 0 3 0 2 2 0 2 1 1 0 2 0 1 2 3 2 2 2 1 1 1 1 0 0 0 0 0 1 0 0 1 0 2 0 2 2 0 2 2 2 0 0 2 2 3 3 2 2 1 0 1 0 1 1 1 0 0 3 2 0 0 2 1 0 1 1 0 1 1 0 1 2 1 1 0 3 0 3 3 1 6 2 1 1 1 1 1 2 1 0 3 2 1 1 2 1 2 0 0 2 1 0 1 0 0 2 2 2 0 1 2 0 0 0 2 2 0 2 3 1 1 0 1 1 1 0 1 1 1 0 0 1 0 1 2 2 1 0 1 0 1 0 1 1 0 0 1 3 0 1 0 2 2 0 0 0 1 1 0 0 1 1 1 1 0 1 1 1 1 1 0 2 2 1 1 0 2 1 2 0 0 0 0 0 1 0 0 1 3 1 2 1 1 1 1 0 1 1 0 2 2 1 1 2 2 1 0 1 0 1 2 1 1 1 2 2 2 0 3 1 0 1 1 1 2 1 0 1 1 0 2 0 0 0 3 0 2 1 0 2 1 2 1 2 1 1 1 0 1 1 1 0 0 2 0 1 0 1 1 0 1 0 2 2 0 1 0 1 0 3 1 2 1 2 1 1 0 1 0 3 2 1 0 2 2 2 2 1 0 2 3 1 0 0 1 1 2 0 2 1 2 1 2 2 1 1 0 3 0 1 0 0 1 0 0 2 2 1 3 3 1 1 2 0 1 1 0 1 2 2 1 0 2 1 0 0 1 1 1 2 0 1 3 0 2 0 1 0 2 2 1 1 2 2 1 2 1 1 0 2 1 1 0 2 1 2 1 1 1 0 1 4 2 0 1 2 1 2 1 3 1 2 1 1 2 2 2 2 0 0 2 1 1 1 3 1 0 1 2 1 1 3 1 1 1 2 1 0 3 1 0 0 2 1 0 0 1 1 0 1 1 1 2 0 1 0 0 2 1 1 1 3 2 3 0 1 0 1 1 2 1 0 2 1 2 2 2 0 1 1 2 2 2 0 2 0 3 1 1 0 1 1 2 1 1 2 1 2 1 3 1 1 2 1 1 1 1 1 1 1 1 0 4 0 0 0 2 0 2 2 1 0 1 1 0 0 3 1 0 2 2 3 2 0 2 1 0 1 1 2 2 0 0 1 3 2 1 2 1 1 0 2 0 1 2 1 1 1 1 1 1 2 2 1 2 1 4 1 0 1 1 3 4 3 2 2 1 0 0 2 0 1 1 1 1 1 0 1 2 1 0 2 1 1 0 2 1 1 1 2 1 0 1 1 1 0 1 0 1 2 2 0 1 1 1 0 1 1 1 1 1 2 1 1 0 1 2 2 1 0 1 1 2 2 4 1 1 1 0 3 2 3 0 0 1 1 0 1 4 1 1 0 0 1 1 2 0 1 0 2 1 0 2 1 2 3 1 2 1 3 2 0 1 0 2 1 2 1 3 1 2 1 1 2 1 0 1 0 1 1 2 1 0 2 1 1 0 3 1 2 2 0 0 1 0 0 0 1 0 0 3 0 3 1 0 3 0 1 1 0 3 3 0 2 2 0 1 0 1 1 0 0 3 1 1 1 2 1 3 1 2 1 0 2 1 0 2 1 2 1 1 1 1 2 3 1 1 2 2 1 2 1 0 1 0 3 2 2 2 3 1 0 2 1 3 1 0 1 2 1 1 0 0 2 1 2 2 1 2 1 1 2 2 0 2 0 2 0 0 0 2 3 2 0 1 2 1 0 1 2 1 3 1 1 0 2 2 4 2 1 1 2 0 1 2 0 2 2 1 3 2 2 0 0 1 2 0 0 2 0 2 1 1 0 2 2 2 2 1 0 1 2 0 1 1 0 2 0 2 1 2 0 2 1 1 3 1 1 0 0 0 3 1 1 1 0 1 2 1 3 0 1 1 1 3 1 1 1 1 3 2 3 1 2 2 1 3 2 2 1 1 2 1 3 0 0 0 0 2 0 1 1 0 0 1 2 2 1 1 0 2 1 0 1 0 1 1 1 1 1 0 2 1 2 3 1 2 0 0 2 3 1 3 2 1 2 0 1 2 1 1 1 2 2 0 0 0 1 1 1 2 2 1 0 2 1 3 1 1 3 1 0 2 1 1 2 2 1 2 2 1 0 2 2 0 2 1 1 2 1 1 0 1 0 0 0 0 2 1 2 3 2 1 1 3 2 3 0 0 1 1 1 0 0 1 0 0 0 0 1 1 2 0 1 1 2 0 2 2 3 0 1 1 0 0 2 0 0 3 0 0 2 1 0 0 1 1 2 1 1 1 0 1 1 1 1 2 1 0 2 0 2 2 1 1 0 1 3 0 1 2 0 0 2 0 3 3 1 0 2 1 2 1 1 0 1 0 1 0 0 1 2 2 1 0 1 0 1 3 0 0 2 3 2 1 1 0 2 0 1 2 1 2 1 0 3 1 0 0 3 0 0 2 0 3 2 2 2 4 1 2 1 2 1 1 0 1 2 1 1 0 2 1 0 2 1 1 2 1 1 2 3 0 2 2 1 2 0 2 2 1 0 0 0 0 2 2 1 1 1 1 1 0 3 0 1 1 3 0 0 1 2 1 1 2 2 2 2 0 0 3 3 0 2 2 1 0 3 1 0 2 1 0 0 1 1 2 1 1 4 1 1 0 0 2 1 1 1 2 1 1 2 2 2 2 2 1 1 0 0 1 0 0 2 2 1 1 2 0 1 1 1 0 0 1 1 2 2 3 2 2 0 2 0 0 2 0 0 1 1 2 1 1 1 1 1 2 2 1 3 1 1 0 1 2 3 1 0 1 0 0 1 2 2 1 3 2 1 1 1 1 2 1 3 3 2 0 0 0 0 0 0 1 0 4 1 0 2 2 0 0 0 2 1 1 0 1 2 1 2 2 0 2 0 2 2 2 4 3 2 2 1 0 0 1 2 3 0 2 2 1 3 0 5 2 1 1 1 1 0 2 0 0 1 0 2 1 2 0 1 0 0 2 1 1 1 1 1 4 2 2 1 0 1 2 2 3 0 2 0 2 1 2 1 1 0 1 1 1 0 0 2 1 0 2 0 2 1 0 3 2 2 1 2 3 1 2 3 0 2 1 4 0 0 0 4 3 3 1 2 0 1 1 2 4 2 0 1 0 1 1 2 0 1 2 4 0 1 1 2 2 0 2 1 0 1 1 0 1 0 1 1 1 1 2 0 3 3 0 2 0 1 1 0 0 1 0 1 1 2 0 0 1 1 0 1 2 0 1 2 3 3 2 2 1 1 1 0 2 1 1 0 1 1 1 1 2 2 1 0 1 2 1 1 2 0 1 1 2 1 1 1 1 0 3 0 2 0 1 0 0 1 3 1 1 0 1 1 0 1 0 1 2 1 2 1 1 2 2 3 0 0 1 0 2 1 2 1 0 5 1 2 0 1 4 1 1 3 1 2 0 1 0 0 2 2 0 0 1 0 1 1 0 1 2 1 1 2 1 1 1 3 1 3 1 2 2 1 1 1 0 1 0 1 2 1 2 2 2 0 1 1 1 2 2 3 1 0 1 1 3 1 0 1 1 0 1 0 0 2 1 2 1 0 1 2 3 1 1 0 1 0 1 2 0 2 1 0 0 0 1 1 1 2 1 2 1 1 0 2 0 2 1 1 1 1 0 1 2 2 2 1 0 3 1 2 2 0 1 0 1 0 1 0 0 0 1 1 1 2 2 1 2 1 0 2 2 1 1 1 1 0 3 1 1 0 1 1 0 1 2 0 1 2 1 2 2 0 1 1 1 1 0 3 1 1 1 0 1 2 2 1 1 1 2 2 1 0 2 1 0 1 0 2 0 1 0 0 2 2 2 2 1 1 0 2 3 1 1 0 1 2 0 1 1 2 1 1 4 2 1 1 2 2 0 0 2 2 0 1 1 0 0 0 1 2 3 1 2 2 1 1 2 0 3 1 1 1 2 0 1 0 2 0 1 0 2 2 2 2 0 1 1 2 2 2 1 2 1 1 3 1 3 2 1 2 1 1 1 1 0 2 2 2 1 0 1 1 0 2 2 1 1 1 0 1 2 0 1 0 1 0 2 0 1 2 2 1 2 0 1 1 1 2 0 0 1 0 0 0 0 0 2 1 0 2 1 0 3 1 3 0 1 1 2 1 1 1 1 1 0 0 2 1 1 0 3 3 1 1 1 1 3 1 1 1 2 1 0 3 0 2 1 1 1 2 1 1 0 1 2 1 0 1 0 3 1 2 0 1 0 1 0 1 1 1 0 6 4 0 3 0 1 2 2 2 4 2 0 4 0 2 2 1 0 0 0 3 1 1 3 1 1 1 2 0 0 1 0 1 1 2 2 3 2 2 2 2 3 2 0 1 2 0 0 2 0 1 1 0 1 1 1 2 3 0 0 2 0 1 2 1 1 2 0 0 1 2 1 1 2 1 1 1 2 1 0 0 1 0 0 1 1 2 1 1 1 1 1 2 0 2 1 1 0 1 0 0 1 1 0 0 0 0 1 2 1 0 3 0 2 2 1 2 3 2 1 2 1 3 0 1 0 0 0 1 1 1 2 2 1 4 2 1 4 1 2 1 0 2 0 0 1 1 1 0 1 2 2 2 2 1 3 1 3 1 1 0 1 0 1 2 0 1 0 1 0 1 0 2 1 1 2 1 2 1 0 2 0 1 1 1 0 1 1 1 1 2 2 1 1 2 0 1 0 1 2 3 0 3 0 2 3 1 1 2 2 1 1 1 1 1 0 0 2 2 0 1 1 1 2 3 0 1 1 0 0 0 1 0 2 0 2 1 3 1 2 0 0 0 2 0 1 0 0 1 3 2 1 2 2 0 3 1 1 1 1 0 1 2 1 2 0 0 1 4 0 1 0 2 1 0 0 1 2 0 0 1 1 0 1 1 1 2 1 0 0 1 0 1 2 2 1 1 1 2 1 2 1 0 1 1 0 1 0 0 1 1 4 2 0 0 0 0 1 1 0 1 1 2 1 2 0 1 1 1 0 1 1 2 0 0 1 0 0 0 1 0 1 2 2 0 0 1 2 1 1 1 1 2 0 3 1 1 1 1 2 1 0 0 1 4 0 1 1 3 0 0 1 1 0 1 1 2 2 0 1 0 3 1 1 1 3 1 0 0 1 1 1 0 0 1 0 1 2 0 1 1 3 0 2 1 2 0 2 2 2 2 0 2 2 1 1 1 3 1 1 1 2 1 1 1 0 1 2 1 1 1 1 0 1 1 1 2 0 1 1 0 2 1 2 1 2 2 1 0 1 2 1 1 2 0 4 0 3 1 1 1 2 2 1 1 3 1 0 0 1 3 1 3 1 1 2 0 1 1 2 2 1 2 3 0 0 0 1 1 2 1 1 1 2 1 1 1 1 2 1 1 0 0 2 1 1 2 0 1 1 1 1 1 1 1 1 2 0 1 1 1 2 0 3 1 1 1 0 0 1 2 0 0 0 2 0 2 0 0 0 0 2 1 1 1 1 2 3 2 1 2 1 1 2 1 2 0 3 1 1 1 0 0 1 0 2 1 0 1 0 2 2 1 2 2 0 1 1 1 2 1 1 1 0 0 1 1 1 1 1 0 1 2 0 0 1 2 0 1 0 0 0 0 1 1 2 1 3 0 2 1 1 0 0 0 1 2 3 1 1 2 2 0 0 0 2 2 1 2 3 2 0 1 2 1 2 0 3 3 0 1 1 1 1 1 2 1 2 2 1 2 0 0 0 2 0 1 3 1 0 1 1 1 1 1 2 0 1 1 1 1 1 1 0 3 1 0 2 0 1 1 1 2 2 1 1 0 0 1 2 1 3 2 0 2 1 1 0 1 0 1 5 1 0 0 3 1 1 1 1 1 1 0 1 2 1 2 1 0 1 1 0 1 2 2 0 1 0 0 0 1 1 1 1 2 2 2 1 2 0 0 0 0 3 2 1 2 1 1 0 1 0 0 1 0 0 1 1 0 2 1 0 2 2 0 2 2 0 1 0 1 1 2 1 0 1 0 1 1 1 1 1 0 2 0 2 1 0 3 1 3 1 2 2 1 0 1 0 1 2 0 1 1 4 0 1 0 1 1 2 1 1 2 1 1 1 0 1 0 0 1 0 1 1 1 0 0 1 1 1 0 0 1 1 0 1 1 3 1 0 0 0 1 2 0 1 2 3 2 2 1 2 3 0 2 0 1 0 1 1 0 0 2 1 1 0 1 1 3 1 2 0 2 0 0 1 1 1 1 2 0 0 0 2 1 1 1 2 1 2 0 1 1 1 0 2 1 0 0 1 1 2 1 0 3 0 1 1 1 1 1 1 3 0 2 1 0 2 0 1 2 1 1 1 2 1 0 2 2 0 2 1 2 1 1 0 2 1 1 1 1 1 0 0 0 4 2 1 2 3 2 1 1 3 0 1 1 2 1 1 2 2 1 1 1 1 4 1 1 1 0 0 1 1 1 1 1 0 1 1 2 3 0 2 1 1 2 1 1 1 2 1 2 1 0 3 0 1 1 0 0 1 2 2 0 1 3 0 1 0 2 1 0 1 1 2 0 2 1 0 1 2 3 2 4 2 0 1 1 0 1 1 1 2 3 0 0 2 2 1 2 1 2 2 2 1 1 0 2 1 1 0 2 0 1 0 1 0 0 1 2 3 0 1 4 0 2 1 1 1 1 1 1 2 1 1 1 1 1 2 1 1 2 2 1 1 2 3 2 2 1 3 0 1 0 2 2 1 1 1 0 0 1 2 2 2 1 2 1 0 2 2 0 1 0 0 1 2 0 1 0 1 1 1 1 2 2 1 0 0 0 1 2 2 0 1 1 1 1 1 0 0 1 0 2 1 2 1 2 2 3 2 1 0 2 2 1 2 2 0 1 0 1 1 1 2 1 2 1 0 1 3 2 2 1 1 1 1 1 0 0 0 2 1 3 0 1 2 2 2 4 0 1 1 0 0 0 1 1 0 0 1 2 2 2 2 2 2 1 2 0 1 1 3 1 0 0 0 1 0 1 1 2 1 1 0 1 2 1 0 1 2 0 1 0 2 1 1 3 1 1 0 0 1 4 1 0 0 1 0 1 3 1 2 2 1 1 1 1 2 1 2 2 2 1 1 1 3 1 0 0 0 1 1 1 1 1 1 1 0 2 2 2 0 1 0 2 0 1 0 1 2 0 0 0 1 2 3 1 1 1 2 1 3 1 1 0 1 0 0 1 1 2 2 2 1 1 2 1 0 1 1 2 1 1 2 0 2 1 2 2 3 1 1 1 2 1 1 1 1 3 1 0 1 1 1 0 2 2 1 2 2 1 1 2 1 2 0 0 0 1 0 3 1 2 0 0 0 0 1 3 0 2 0 2 1 2 3 2 2 1 0 1 1 1 0 0 2 2 0 0 0 1 0 2 0 3 1 0 1 1 1 2 0 0 1 2 1 1 1 1 1 0 4 1 0 0 3 1 2 0 0 1 2 0 0 1 2 2 2 1 1 2 1 2 0 0 1 0 2 0 0 1 1 2 0 0 2 1 0 2 1 1 1 2 1 1 1 1 1 2 1 2 1 3 1 1 2 1 0 2 1 1 0 1 0 1 2 0 0 0 0 0 0 1 2 2 2 0 1 2 1 1 2 2 1 2 2 0 0 1 0 0 1 1 2 1 1 1 1 0 2 2 2 1 1 2 1 2 0 0 0 1 1 1 3 0 1 1 2 1 2 1 2 1 2 1 1 1 1 1 1 0 0 1 3 2 3 0 1 2 3 1 0 1 1 1 0 3 1 1 0 1 1 1 1 0 4 0 1 1 0 4 1 1 1 2 2 1 0 1 2 0 1 1 0 1 2 1 0 2 2 2 1 0 0 2 2 1 0 1 2 2 1 1 2 1 0 2 1 2 2 1 0 2 1 0 3 0 1 3 1 1 2 1 1 1 1 0 3 2 2 1 1 1 1 0 1 2 1 2 2 1 0 0 0 0 0 2 0 0 2 0 1 2 0 1 2 1 2 1 1 0 1 1 0 0 1 1 2 0 2 2 0 2 0 1 0 1 0 1 2 1 0 2 2 1 0 1 0 1 2 1 0 1 1 0 0 0 0 0 1 0 0 1 1 1 2 2 0 2 1 1 2 0 0 0 2 1 0 0 2 1 3 1 2 2 1 1 0 1 1 3 1 0 3 1 1 0 1 1 0 2 2 0 4 1 1 0 1 2 0 2 1 3 2 1 1 1 1 0 0 1 2 0 0 3 1 1 1 1 1 0 2 2 1 1 0 1 2 2 2 2 1 2 3 4 3 0 0 2 1 0 0 1 1 0 1 2 0 0 1 1 0 0 2 1 1 3 2 0 1 2 1 1 0 2 0 2 1 0 2 0 0 1 1 2 2 0 1 2 1 1 2 0 0 1 2 1 2 0 1 0 0 0 0 2 0 0 2 0 0 0 1 0 1 0 2 3 0 1 2 1 3 2 1 1 3 1 1 1 1 1 2 1 1 2 2 0 1 1 0 1 1 3 2 0 1 0 2 1 2 0 1 1 1 3 2 2 2 1 2 0 1 1 1 1 0 0 1 0 0 2 2 3 1 0 3 2 2 1 1 1 1 1 1 0 0 0 2 1 2 2 0 2 3 0 0 2 2 1 1 2 0 0 0 0 1 1 1 2 3 2 1 1 2 2 0 1 1 0 3 1 2 1 1 0 0 1 0 1 1 0 0 0 1 0 0 1 2 2 1 3 2 3 1 2 1 2 0 1 3 0 2 0 1 1 1 1 2 2 1 0 1 0 2 0 0 1 0 2 2 1 1 1 1 2 2 0 0 1 0 0 0 2 0 1 2 1 1 2 3 2 0 1 0 1 2 3 1 2 1 0 1 1 1 1 1 0 2 2 2 1 0 1 1 1 2 1 1 2 1 2 0 1 2 2 0 1 6 0 1 1 1 1 1 3 0 2 0 1 0 1 0 0 2 0 1 2 0 1 0 3 0 0 1 2 2 2 1 1 1 2 1 0 0 1 2 2 3 3 3 1 1 4 0 2 0 1 1 0 1 0 0 1 2 0 0 0 2 1 1 1 2 2 0 0 0 2 0 3 2 3 0 3 0 1 1 1 1 2 1 1 0 1 1 1 2 2 0 1 2 0 1 2 2 2 2 1 2 0 0 1 1 2 0 0 2 1 0 2 1 1 0 0 2 0 1 3 0 1 2 1 0 1 1 1 0 3 1 2 0 1 2 2 0 0 1 3 1 1 2 2 1 2 2 0 1 0 1 2 2 0 1 1 2 1 1 0 1 1 0 1 1 0 4 0 4 1 1 1 2 1 0 1 1 0 0 0 3 0 1 1 1 1 0 0 3 1 1 3 3 1 1 2 1 1 1 0 1 1 2 1 2 2 3 3 1 1 2 1 1 0 1 1 1 1 3 0 2 2 2 1 0 0 2 0 0 1 2 2 1 1 1 1 2 0 1 2 0 0 2 1 1 1 1 0 2 1 0 0 1 2 0 0 2 1 1 1 0 0 0 1 1 1 2 1 0 1 0 2 0 1 1 1 2 2 1 2 1 2 1 0 1 0 1 0 0 1 2 2 1 2 1 1 2 0 2 0 1 0 2 0 2 3 2 0 3 1 2 2 2 2 0 3 2 1 1 1 1 2 3 1 1 4 2 2 0 0 1 1 0 0 3 2 0 1 0 0 0 3 1 4 1 3 2 0 1 0 1 3 1 2 2 0 1 1 0 0 2 1 0 2 1 1 2 1 2 1 1 2 2 1 1 1 1 2 1 1 1 1 0 2 2 1 1 1 2 2 1 1 1 1 2 2 0 2 0 2 0 2 0 1 0 2 0 2 1 1 1 0 2 0 1 2 2 1 0 1 0 1 1 3 2 0 0 3 2 1 0 1 1 0 1 0 1 1 1 1 2 3 1 0 2 1 3 1 0 0 1 1 3 0 0 1 3 3 1 1 0 0 0 0 1 1 1 1 2 1 1 1 0 1 0 0 1 1 1 1 3 0 1 2 3 1 0 2 0 1 1 1 1 0 1 0 1 1 2 0 0 1 1 1 1 2 2 1 2 1 2 2 1 0 0 1 0 1 0 0 1 0 0 1 3 2 2 1 0 1 0 0 1 2 0 0 1 1 1 2 0 0 1 0 0 0 0 1 0 0 1 2 1 0 1 1 0 2 1 1 1 1 1 1 2 0 1 2 3 0 1 1 3 0 1 3 0 0 0 0 3 2 3 0 0 1 3 1 2 0 0 2 0 1 2 2 1 0 1 0 1 2 2 1 1 1 1 2 2 3 1 2 3 1 2 2 0 1 1 1 1 3 0 1 0 2 1 1 1 1 1 1 0 1 2 1 0 4 2 1 0 0 1 3 0 0 2 1 1 1 2 4 0 0 1 1 3 1 1 3 2 1 1 1 1 4 1 1 1 1 0 0 2 2 1 0 1 2 1 3 0 1 1 1 1 1 0 1 1 2 1 0 1 3 1 1 1 3 1 2 0 2 3 1 1 1 0 1 2 2 0 0 3 1 3 1 2 0 1 2 1 1 1 1 1 0 0 0 0 0 1 3 1 0 0 0 0 1 2 2 2 0 0 1 1 2 1 1 1 1 3 1 1 1 1 2 0 1 1 1 0 1 1 2 1 1 1 1 3 1 2 0 1 1 0 1 1 2 1 0 1 1 0 4 0 1 1 2 1 1 1 2 1 1 1 1 1 0 0 1 1 2 2 1 3 2 1 0 2 2 2 1 1 0 1 2 1 1 1 2 1 3 0 1 1 0 1 1 2 2 1 0 0 1 0 0 1 1 1 2 1 1 1 3 0 1 1 1 0 2 1 1 3 2 2 2 2 1 2 1 2 3 2 1 2 1 1 0 1 0 1 2 2 1 0 2 1 0 1 1 0 1 4 0 1 1 0 1 0 1 2 1 2 0 0 2 1 1 0 3 0 1 4 0 2 1 1 1 3 1 0 2 0 3 3 1 1 0 1 1 1 1 2 0 0 0 1 1 1 2 2 1 0 1 1 3 1 1 1 1 0 1 3 2 2 2 1 3 1 2 2 2 1 1 1 2 0 2 1 0 1 0 1 2 0 1 1 1 1 1 0 2 1 2 0 1 1 1 1 2 1 0 2 1 0 1 2 1 0 1 1 0 0 1 1 2 0 1 0 2 0 1 2 1 0 1 0 2 2 0 0 2 3 1 0 1 1 1 0 0 0 1 2 1 2 1 0 2 2 1 2 2 2 1 0 2 0 1 1 1 3 1 1 1 1 2 2 1 0 0 0 1 1 4 2 2 2 2 3 0 0 1 2 1 1 0 0 1 2 0 0 1 1 1 1 0 2 1 1 1 1 2 2 1 0 1 2 1 2 2 1 2 2 0 0 0 1 1 2 2 1 0 1 0 0 1 2 1 2 1 0 1 1 0 2 0 3 1 2 1 3 0 1 0 1 1 1 0 2 1 3 2 2 3 1 2 2 0 1 1 0 0 1 2 0 1 1 1 2 1 2 1 2 1 0 1 1 1 1 1 0 1 2 2 1 3 1 1 1 1 1 1 1 1 0 0 0 1 2 1 1 1 3 0 1 1 0 1 1 1 1 4 1 2 3 0 1 2 2 0 0 1 2 2 1 3 1 3 0 1 1 1 2 1 3 1 1 1 3 2 3 1 2 0 0 2 0 1 3 0 0 1 1 3 1 1 0 1 1 0 1 2 1 2 0 2 1 1 0 1 2 1 1 3 1 2 1 1 0 0 0 0 1 0 2 1 1 0 1 1 2 1 1 3 2 1 0 1 2 0 3 0 0 1 1 1 1 0 1 0 1 3 0 5 0 3 0 2 3 1 1 4 2 0 2 3 1 3 1 0 1 0 0 3 1 1 0 3 1 1 3 2 0 0 1 1 0 0 2 0 1 0 0 2 1 1 2 1 1 1 0 1 2 1 2 0 3 1 1 0 1 3 2 2 1 3 3 1 2 3 2 0 2 1 1 1 1 0 2 2 0 1 0 1 0 0 2 1 1 0 3 2 5 1 1 2 2 2 0 1 1 1 1 1 1 0 2 1 3 1 1 0 2 0 0 0 1 2 1 1 0 1 0 1 0 1 0 4 2 1 1 2 1 1 1 1 0 2 1 1 1 2 1 3 1 1 1 2 1 1 1 1 0 1 2 1 2 1 1 3 3 0 0 2 2 1 0 0 0 2 1 2 1 0 0 2 2 2 1 0 0 1 0 2 0 1 1 1 1 2 1 0 0 2 2 3 1 2 1 1 2 2 1 2 1 1 1 2 0 2 0 1 1 1 1 2 0 0 1 0 1 0 1 2 1 1 2 0 0 2 0 2 2 0 2 2 0 0 2 0 1 1 1 0 0 3 0 1 1 0 0 1 1 3 2 2 0 0 1 4 2 4 0 0 2 0 0 0 1 1 0 2 0 1 1 1 2 0 0 2 0 3 2 2 2 2 1 1 0 2 0 2 1 0 2 0 1 0 0 2 0 1 2 0 0 0 1 0 3 2 1 1 1 0 1 0 2 2 2 2 2 1 1 0 1 3 3 0 0 3 0 2 3 1 2 1 2 1 4 2 1 0 1 1 2 1 1 1 4 2 0 0 0 1 1 1 1 1 2 1 3 1 1 1 0 0 1 0 1 3 1 0 1 1 1 0 0 3 2 1 2 2 0 1 1 0 1 0 1 1 1 1 0 2 1 1 1 1 0 2 1 1 1 0 1 1 1 0 1 2 1 1 2 1 0 1 0 1 1 1 0 3 0 1 2 0 3 4 1 1 2 1 1 2 3 2 0 1 1 1 1 2 2 1 1 1 1 3 2 0 0 1 2 1 1 0 1 2 0 1 1 0 1 0 2 2 1 1 3 2 1 1 0 1 2 2 1 1 1 0 1 1 1 1 1 1 1 0 1 3 2 2 1 1 3 1 1 1 1 1 2 1 0 2 1 0 2 0 0 0 1 0 3 0 1 3 0 2 1 2 1 1 2 0 3 2 1 2 2 2 1 1 1 1 0 0 0 2 2 1 0 1 0 0 0 2 1 2 1 2 1 1 1 1 1 0 0 0 1 3 2 1 2 1 2 3 1 0 1 0 1 1 1 1 1 0 0 1 2 1 1 0 1 1 0 1 0 0 0 0 1 2 0 2 1 1 0 1 0 3 2 1 1 2 0 0 2 1 1 3 3 3 1 0 0 1 2 2 1 0 2 1 1 1 3 1 2 1 1 2 0 1 2 1 1 2 2 1 4 3 0 2 1 1 0 2 1 0 2 0 2 2 2 1 2 0 1 0 0 4 3 0 1 1 0 1 1 0 0 3 1 2 1 3 1 2 2 1 2 0 2 3 0 1 1 1 1 1 3 3 1 1 1 0 1 2 0 3 1 0 1 2 0 1 2 2 1 3 1 1 0 1 3 1 0 0 0 3 1 0 1 0 1 1 0 2 1 0 1 0 1 1 2 0 2 1 0 0 0 1 1 4 0 2 1 1 1 2 0 2 2 0 1 1 1 2 1 2 0 0 0 1 0 1 1 1 1 0 0 1 1 1 1 0 1 1 0 1 2 2 0 1 2 2 1 0 2 1 2 2 0 1 2 0 1 0 1 1 1 0 2 2 1 0 0 1 1 2 1 2 3 1 3 2 2 1 1 1 1 3 3 2 1 1 1 0 2 1 1 1 1 1 2 1 2 1 0 1 2 2 1 0 1 0 0 1 1 2 0 2 1 1 1 1 0 1 2 0 1 1 0 0 2 3 0 1 0 1 1 1 0 1 0 0 1 0 1 2 0 1 1 1 3 2 0 2 1 2 1 2 0 2 2 1 0 2 2 2 3 0 1 1 0 0 1 2 0 2 2 2 1 2 2 1 2 1 1 0 1 2 2 1 1 0 3 2 3 1 1 1 1 1 3 0 0 1 2 0 0 1 2 2 1 1 1 1 1 1 1 1 1 0 0 4 1 0 0 1 0 2 0 2 2 0 3 1 1 0 1 1 2 1 2 1 3 2 1 1 0 1 3 1 1 2 2 2 0 1 0 1 1 1 1 1 0 1 2 5 2 1 2 1 0 0 0 1 1 2 3 1 2 1 1 3 1 3 0 4 1 2 1 1 0 1 1 2 1 1 0 0 0 2 0 1 2 1 0 2 0 1 1 1 1 2 2 1 0 1 3 0 1 2 2 2 4 1 1 1 0 1 1 0 2 2 1 1 0 1 1 1 1 1 0 0 1 1 0 1 3 0 2 0 0 0 1 1 1 1 2 2 1 0 2 2 1 1 1 1 2 1 1 0 1 1 1 0 1 0 0 0 0 1 1 1 1 1 0 1 2 4 0 1 3 1 3 2 1 1 2 0 1 0 0 2 1 0 2 0 0 1 1 1 2 2 1 0 1 0 2 2 3 3 2 2 1 1 2 0 3 0 1 1 2 0 3 0 1 3 1 0 1 2 0 1 4 1 0 2 2 1 3 1 0 0 2 0 2 1 1 2 1 0 1 3 2 1 2 1 0 0 2 2 3 2 0 0 2 0 0 0 3 0 0 2 2 1 1 0 0 0 1 0 2 1 1 2 1 2 3 0 1 1 1 1 1 3 2 1 1 0 0 1 2 1 0 1 1 0 1 0 0 2 1 1 1 0 0 1 2 1 2 1 2 1 1 2 2 1 5 2 0 2 0 1 2 0 3 0 0 1 1 1 1 0 0 1 1 1 2 4 1 2 1 1 0 2 2 1 1 2 1 0 1 1 1 0 1 0 1 1 1 1 0 2 0 0 1 0 1 1 0 1 1 0 2 3 1 0 1 1 2 1 0 1 2 3 0 0 2 1 1 3 3 2 1 1 1 0 3 2 1 1 0 0 1 1 1 0 0 1 0 3 3 3 0 0 3 3 1 1 0 0 3 1 1 1 1 0 2 1 1 2 2 3 0 0 1 0 0 2 1 2 0 2 1 1 1 0 0 1 1 1 1 2 1 0 3 2 2 2 2 4 2 2 2 2 1 2 2 0 1 1 2 0 2 0 0 2 0 1 1 0 1 2 0 1 1 2 3 1 1 0 1 1 1 2 0 2 0 1 1 1 1 0 3 2 2 1 3 3 1 0 1 0 0 1 3 1 1 1 1 1 2 1 2 0 1 0 3 2 0 1 1 0 1 2 3 2 1 2 2 0 0 2 2 3 1 1 2 0 2 1 0 1 1 2 1 2 0 1 1 0 0 0 2 1 1 0 0 1 2 0 1 2 1 2 1 2 0 0 2 2 1 2 2 1 0 0 0 1 1 0 1 1 0 2 1 1 3 2 2 0 0 1 1 3 3 1 0 2 2 1 1 2 1 1 1 2 0 1 0 1 1 1 0 3 1 1 1 1 2 1 0 0 3 1 1 1 2 0 0 0 0 1 2 1 1 1 2 0 2 2 2 1 0 1 1 1 1 1 1 2 1 1 0 1 1 0 0 1 2 1 2 3 4 2 3 1 2 0 1 2 2 1 1 1 0 3 0 1 0 1 2 1 1 0 1 0 1 0 3 3 1 1 1 1 2 1 0 0 0 2 1 0 1 1 0 2 1 2 2 1 0 2 2 1 2 1 1 2 1 0 2 1 1 3 0 1 2 1 1 4 1 0 0 1 1 1 0 2 0 2 1 2 1 1 3 4 2 0 0 0 0 1 1 2 2 1 0 2 1 0 2 1 1 1 1 0 1 2 1 0 0 1 1 1 1 1 3 1 3 3 2 1 2 0 0 1 0 2 1 2 1 1 3 1 1 1 2 1 3 0 0 1 2 1 0 1 2 3 1 1 1 2 0 0 2 1 2 2 0 2 0 2 1 1 0 0 0 2 2 0 4 2 1 0 2 0 2 0 2 0 2 0 2 1 1 0 3 1 2 0 1 1 1 3 0 0 0 2 1 3 1 1 3 1 1 1 0 0 1 1 2 1 3 2 1 2 0 1 1 3 1 1 0 3 3 1 0 0 1 1 1 1 0 0 1 2 1 0 1 2 2 2 0 0 1 1 2 2 2 2 1 1 1 0 1 1 2 1 1 2 1 1 0 2 1 0 2 1 1 2 3 0 1 1 1 0 3 1 2 0 1 2 0 0 1 0 2 0 2 1 1 2 0 0 1 1 0 1 0 2 0 0 1 1 2 1 1 2 1 0 2 0 0 2 2 0 2 2 0 1 0 1 1 0 0 1 0 1 0 1 1 1 1 0 1 0 1 0 2 1 0 1 0 1 1 2 2 2 1 1 0 3 0 0 2 0 1 1 1 1 1 1 0 3 1 2 0 2 2 2 1 1 3 2 1 2 0 0 1 1 1 2 0 1 1 1 1 2 1 1 1 2 2 0 1 2 1 1 2 1 4 1 1 1 2 3 1 1 1 3 1 0 0 1 1 0 0 1 2 0 1 0 0 2 0 0 1 1 2 1 2 0 0 2 2 1 0 2 2 3 0 1 1 3 0 2 1 2 0 2 1 0 0 1 0 1 2 2 0 1 1 2 1 1 1 1 0 1 2 2 3 0 0 1 1 2 0 2 3 1 1 1 1 2 2 2 0 2 1 2 0 2 0 1 1 2 2 4 2 1 1 1 0 1 1 0 2 1 1 3 2 3 2 2 2 0 0 2 2 2 0 0 0 1 3 0 1 0 1 4 2 2 1 1 3 2 0 2 0 0 1 2 1 0 1 3 1 1 1 2 3 1 0 1 1 0 1 2 0 0 2 2 3 1 1 1 2 1 0 2 3 2 0 1 1 2 0 1 0 0 2 1 1 0 1 2 3 0 1 0 1 1 2 0 0 1 1 1 1 0 2 1 1 1 1 2 1 1 1 0 0 2 2 0 1 1 1 1 1 0 2 2 2 0 1 0 0 0 1 1 3 1 2 2 0 0 0 0 1 1 0 0 2 0 3 1 0 1 0 2 0 2 0 0 1 2 2 1 0 2 1 0 2 1 0 1 1 0 0 2 0 0 0 1 0 0 2 1 0 3 1 2 2 1 2 1 0 1 2 1 0 2 2 1 2 2 0 1 2 1 1 0 1 1 1 0 2 1 1 1 1 0 1 1 2 0 1 2 0 2 1 3 1 0 1 2 2 0 3 4 2 1 0 2 1 0 2 2 0 0 0 0 1 0 2 2 2 0 2 0 2 4 2 0 1 1 1 3 0 1 1 1 0 1 0 2 0 1 0 1 1 1 1 0 3 1 2 2 1 1 2 2 0 1 2 0 0 1 1 0 1 2 2 0 3 1 1 1 1 1 2 0 2 1 0 3 0 1 3 1 4 0 0 2 0 3 3 2 0 2 0 0 3 1 3 0 1 0 2 2 0 1 1 0 2 1 2 1 1 2 2 0 0 0 2 2 2 1 2 0 1 1 1 1 0 0 0 1 0 1 1 1 1 0 0 3 1 0 0 1 2 0 1 1 0 2 1 2 2 3 1 0 3 2 1 4 0 1 0 1 1 1 0 1 0 2 1 0 1 2 0 1 4 2 2 0 2 0 1 1 1 1 2 1 0 0 1 0 3 0 1 2 2 1 0 0 2 0 0 0 0 1 0 1 1 2 1 1 2 1 1 0 1 2 1 2 1 2 0 0 0 0 2 2 2 1 1 2 2 1 0 0 0 2 1 1 1 0 3 2 1 1 2 3 3 2 2 1 2 1 1 1 1 1 2 1 2 0 0 3 1 2 1 1 0 0 2 1 0 0 1 1 1 1 1 1 2 1 0 1 2 1 0 0 0 0 1 2 1 3 1 0 2 1 2 2 0 0 1 1 0 0 0 0 2 2 0 3 1 1 2 1 2 3 4 0 1 1 2 1 1 1 2 2 2 2 0 2 0 2 0 0 1 2 2 0 2 2 1 3 2 0 2 0 1 2 1 3 2 0 1 2 0 1 1 0 3 1 0 2 1 2 2 0 1 2 1 0 0 1 1 0 0 2 2 1 0 2 0 2 1 2 2 0 0 1 1 1 0 1 1 1 4 0 0 1 0 0 1 0 2 0 2 0 2 2 1 2 1 0 3 2 1 1 0 1 1 1 1 3 0 1 2 1 1 0 2 0 1 0 0 1 1 1 2 2 1 0 1 0 2 2 1 1 2 1 0 0 1 4 3 0 2 2 2 2 1 1 2 0 0 1 2 0 2 1 1 1 2 2 1 2 3 3 1 1 2 2 2 1 1 0 0 1 0 1 0 2 0 0 3 1 0 1 3 1 2 1 0 3 0 1 2 1 0 1 1 1 2 0 0 1 0 1 2 2 1 1 0 1 1 1 1 1 3 2 0 2 1 1 1 0 2 1 2 0 0 2 0 2 3 1 2 0 1 1 0 0 3 0 2 2 0 0 0 2 2 1 0 0 1 2 0 0 0 2 1 1 1 1 2 1 3 1 2 1 2 0 2 0 1 2 0 1 1 1 2 2 1 1 1 2 0 1 2 0 1 1 2 1 1 2 0 1 2 2 0 1 3 2 0 2 0 2 3 1 2 1 0 3 1 1 1 1 0 2 0 1 0 0 0 2 0 0 3 0 1 1 0 0 2 1 0 1 2 1 0 1 1 2 0 1 2 2 1 2 2 1 3 1 1 0 1 1 1 1 1 1 2 2 1 0 3 1 1 1 2 3 0 2 2 3 0 3 2 1 1 2 1 2 1 3 1 1 0 1 1 1 2 0 0 2 2 1 1 1 1 1 3 0 2 1 1 1 0 4 2 0 0 0 1 1 2 1 1 1 3 0 3 2 2 3 0 1 0 1 2 1 3 0 2 1 0 0 0 2 1 1 1 2 0 0 1 1 2 1 1 0 1 0 3 2 0 3 1 2 1 0 2 2 2 0 1 0 2 0 1 1 1 1 1 1 1 0 1 1 1 0 1 1 1 1 3 1 3 1 2 0 3 1 1 3 2 3 1 1 0 1 0 2 1 3 1 0 1 1 1 1 2 1 1 2 1 1 1 0 2 2 0 1 0 1 3 1 3 3 0 2 1 0 1 1 1 1 0 1 2 2 1 1 0 0 0 0 2 1 2 1 2 0 1 0 1 1 3 1 1 3 1 2 2 1 2 0 2 2 2 2 1 2 0 2 0 0 0 1 2 1 1 2 2 1 1 0 2 0 1 0 0 0 3 1 2 2 1 2 3 0 2 2 1 2 0 1 1 0 1 2 0 2 2 1 0 2 1 1 1 2 0 1 0 1 2 0 1 0 0 2 1 3 2 0 1 1 0 1 0 2 2 0 0 1 1 1 1 0 0 0 0 1 0 0 1 0 1 2 2 1 1 1 1 0 1 3 3 2 2 1 0 2 2 1 0 1 1 2 2 0 0 0 0 0 2 0 2 2 2 2 0 1 0 0 1 2 0 1 2 2 2 2 1 0 1 2 0 1 0 2 1 1 0 1 1 1 2 0 0 2 1 2 1 4 1 1 1 2 2 1 1 3 2 0 1 2 1 0 3 0 0 1 1 3 2 1 1 1 2 1 3 2 2 1 4 0 2 1 1 2 2 0 1 2 2 1 1 0 0 2 2 0 0 0 1 0 0 3 1 0 3 2 1 1 1 1 2 1 1 0 1 0 2 2 1 1 1 2 1 1 2 4 4 2 1 1 0 1 2 1 1 0 0 1 1 2 2 0 1 0 2 0 0 1 2 2 2 0 0 1 0 2 1 1 2 2 1 1 1 2 4 2 1 2 0 1 1 0 3 2 1 1 1 3 1 4 1 1 1 2 1 1 3 1 1 1 1 0 2 1 2 1 1 1 2 3 2 1 0 1 0 2 0 1 3 1 2 1 1 3 2 2 1 1 1 3 0 1 1 1 1 0 1 1 1 1 0 1 0 0 1 2 2 1 2 0 0 1 1 2 2 1 1 1 0 0 1 3 2 2 1 1 3 1 0 2 1 3 2 2 1 2 1 0 1 1 0 1 1 2 3 1 2 0 1 2 0 1 0 1 2 0 1 2 1 1 0 2 3 2 2 3 0 1 2 0 0 2 2 2 0 0 2 2 1 2 0 1 2 1 1 1 2 2 2 1 1 1 2 1 0 2 2 1 2 1 1 2 3 1 2 1 2 2 0 1 1 1 0 1 1 2 0 0 1 2 1 1 1 2 1 1 3 1 1 1 0 2 0 1 1 1 2 0 1 1 1 2 2 2 1 1 2 0 0 1 2 2 2 1 1 0 0 1 0 0 0 2 1 1 1 1 1 1 1 1 3 1 0 1 2 3 1 3 0 1 2 2 2 3 2 0 0 2 2 3 3 2 1 1 1 2 5 2 0 2 0 0 2 1 1 4 1 1 0 0 0 2 2 0 1 0 1 2 1 2 1 0 2 2 0 1 2 1 1 0 0 1 2 4 3 1 0 3 2 0 0 0 0 3 2 2 2 2 1 0 0 0 3 2 0 2 1 0 0 0 0 2 0 0 3 1 0 0 1 2 1 1 1 2 2 2 2 2 3 1 1 1 2 2 2 1 1 1 3 1 0 1 2 2 3 1 1 2 1 1 2 0 1 1 0 1 1 1 2 0 0 0 1 2 1 1 1 2 3 0 3 0 1 2 1 3 1 1 1 2 1 2 1 0 1 0 1 0 3 1 3 1 1 1 2 1 1 1 1 2 1 2 1 1 4 0 2 1 1 1 2 1 0 1 0 1 1 2 2 1 1 0 1 0 1 0 1 1 1 1 1 1 1 2 0 1 0 1 2 1 0 1 1 1 1 1 3 2 1 1 1 0 1 0 0 0 3 2 4 1 1 1 0 0 1 1 2 2 1 0 0 0 1 0 1 2 1 3 1 1 0 0 0 2 0 2 2 1 1 2 0 1 1 0 3 1 1 0 1 1 0 2 2 1 1 0 0 0 2 2 1 0 1 0 2 2 1 2 1 1 3 1 1 0 2 1 0 2 3 0 4 0 1 1 0 0 1 1 1 1 0 1 1 1 2 1 2 2 1 1 0 1 2 0 1 3 0 1 1 3 0 0 1 1 1 1 1 2 1 0 2 0 2 2 1 1 2 1 2 2 1 0 0 0 3 2 0 1 2 1 3 0 1 1 1 1 1 1 2 1 2 3 0 0 1 0 2 2 1 0 2 1 1 2 2 1 2 1 1 1 2 2 3 2 2 0 3 1 0 1 0 1 1 1 3 0 1 4 2 1 2 1 0 1 2 1 0 0 1 2 1 1 1 2 0 0 2 0 2 2 0 2 1 0 0 1 0 4 1 1 1 1 0 1 0 2 0 2 3 1 2 4 0 0 1 2 1 0 3 3 0 0 2 2 1 0 1 1 3 2 1 2 4 1 2 0 1 2 0 2 1 1 2 1 0 0 1 1 0 2 0 1 0 2 0 1 0 0 0 1 4 3 3 0 2 2 2 3 1 2 1 2 1 1 1 2 0 1 1 0 0 1 2 1 2 0 1 1 1 1 0 1 1 2 0 2 1 1 2 2 0 3 0 2 0 0 0 1 1 3 1 3 1 1 4 0 2 0 1 2 2 1 1 1 0 1 1 0 1 1 1 2 1 0 2 0 3 0 2 2 0 1 3 1 1 2 1 2 2 3 1 3 1 2 0 1 2 0 1 0 2 1 1 3 1 1 1 1 0 0 1 1 0 1 2 3 2 1 2 1 3 0 2 1 1 2 1 2 0 0 1 1 2 2 1 0 1 1 0 0 0 2 0 1 1 2 2 3 3 0 1 4 1 2 0 0 0 1 3 2 2 0 2 1 1 3 1 0 1 0 2 0 0 1 2 2 0 2 0 1 0 1 1 1 1 2 1 2 2 0 2 2 0 0 0 1 1 1 2 0 1 1 0 1 2 1 1 0 2 2 0 0 0 3 1 1 1 1 1 0 2 2 0 1 0 0 0 1 0</t>
+  </si>
+  <si>
+    <t>GAM(0.1581650840277855, -4.350472260104954e-27, 0.19123287494740387)</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 1 0 1 0 1 0 0 2 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 2 0 0 0 0 0 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 1 0 1 0 0 0 1 0 0 0 1 0 1 1 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 1 1 0 1 0 0 1 1 0 0 0 0 1 0 0 2 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 1 1 0 0 0 0 0 2 1 1 0 2 1 1 1 0 1 2 0 1 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 0 0 0 0 1 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 1 1 1 0 0 0 1 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 1 0 1 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 1 0 0 0 2 2 0 0 0 0 1 0 0 0 0 1 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 1 0 0 0 2 1 1 0 1 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 2 0 0 0 1 0 0 0 1 1 0 0 1 0 0 0 1 1 0 0 0 1 0 0 0 2 0 3 1 0 0 1 1 0 0 0 0 2 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 1 1 1 0 0 0 0 1 0 2 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 2 0 1 1 0 0 0 1 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 3 0 0 0 0 0 0 0 0 1 1 0 1 0 0 1 2 0 0 1 0 0 2 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 1 1 3 0 1 1 0 0 1 1 0 0 0 0 0 1 1 0 1 1 0 1 0 0 1 0 0 0 1 0 0 0 0 1 0 0 1 0 1 2 0 1 0 0 1 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 1 0 3 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 1 0 1 0 0 1 0 0 1 0 0 3 0 0 0 0 0 0 0 0 1 0 0 2 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 2 0 0 0 1 3 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 1 0 1 0 0 2 1 0 1 0 0 0 0 0 0 1 0 1 2 0 0 0 0 1 1 0 1 1 0 0 0 2 0 0 0 1 1 0 1 1 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 2 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 2 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 2 0 1 1 0 0 1 2 0 1 0 1 0 3 0 0 0 1 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 2 0 1 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 1 1 0 1 0 0 1 0 0 0 1 0 1 0 0 0 2 0 1 1 1 1 1 0 0 0 0 0 0 1 1 0 0 2 0 2 2 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 2 1 0 1 0 0 0 0 0 1 1 0 1 1 1 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 2 0 0 0 1 1 0 0 1 2 0 0 0 3 0 1 0 1 0 1 1 1 0 0 0 1 1 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 1 1 1 0 1 0 0 2 1 0 1 0 1 0 1 0 1 0 0 0 1 0 1 1 0 1 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 1 0 2 0 1 0 0 1 0 0 0 1 1 1 1 0 1 2 1 0 1 1 0 1 0 0 0 1 0 0 1 0 0 0 0 1 0 1 0 0 2 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 1 0 1 0 2 1 0 0 1 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 1 1 1 0 2 0 0 0 1 1 1 0 0 0 1 0 1 0 0 0 0 0 0 3 1 0 0 0 2 1 0 0 0 0 0 1 1 1 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 1 1 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 2 2 0 1 0 0 2 0 2 1 0 0 1 1 0 0 2 0 0 0 0 2 2 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 1 0 0 1 1 0 0 0 0 1 0 1 0 0 0 0 1 0 1 2 0 1 0 0 2 0 0 0 1 1 0 0 1 0 0 0 0 0 3 0 1 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0 1 0 1 0 0 1 0 0 1 1 0 0 0 1 0 0 0 1 0 0 1 1 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 1 1 0 1 0 1 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 1 0 0 0 1 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 1 1 1 0 1 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 1 1 1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 1 0 0 0 1 2 0 0 0 0 0 1 2 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 1 0 0 0 0 1 0 1 1 0 0 1 1 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 3 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 1 2 0 1 1 0 1 0 1 0 0 0 0 1 0 0 0 0 0 1 1 0 1 0 0 0 1 1 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 1 0 0 2 0 1 0 1 0 1 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 2 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 2 0 1 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 2 1 1 0 0 0 0 0 0 0 1 1 0 0 0 1 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 2 1 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 3 1 0 0 0 0 0 1 0 1 0 1 1 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 2 0 0 0 0 0 0 1 2 1 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 1 0 0 1 0 0 1 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 2 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 1 1 0 1 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 1 0 1 0 0 0 1 0 1 1 0 1 0 0 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 2 0 0 2 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 1 2 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 1 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 3 0 1 0 1 1 0 0 0 0 0 1 1 1 0 0 0 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 1 0 0 1 0 0 0 0 0 1 1 0 1 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 1 0 0 1 1 0 0 0 1 0 1 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 2 0 0 1 1 0 1 0 1 0 1 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 1 1 0 1 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 2 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 2 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 2 0 0 0 1 0 1 0 0 0 1 1 0 1 0 0 1 0 0 0 1 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0 2 0 0 0 1 1 1 0 0 0 0 1 0 1 0 0 0 1 0 2 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 1 0 0 2 0 0 0 1 1 2 1 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 2 0 0 0 1 0 1 2 0 1 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 1 1 0 1 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 1 1 1 3 1 0 0 0 1 0 1 0 1 1 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 2 0 1 0 0 0 0 0 0 2 0 0 0 0 1 1 1 0 0 0 0 0 1 0 1 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 2 0 0 0 1 2 0 0 0 0 0 2 1 1 1 0 2 1 0 0 0 0 0 0 0 0 1 1 0 0 2 0 0 1 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 1 0 0 0 0 0 2 0 2 0 1 1 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 1 1 0 0 1 0 0 0 0 0 1 0 0 2 0 0 0 0 0 1 0 1 0 1 0 1 0 0 0 0 1 0 2 0 0 0 0 0 0 3 0 0 1 0 0 0 0 0 0 0 1 0 1 0 2 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 1 0 0 1 1 0 0 0 0 0 1 1 0 0 1 1 1 1 0 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 1 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0 1 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 2 0 0 0 0 0 0 1 0 0 1 0 0 2 1 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 1 0 2 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 1 0 0 0 1 1 0 0 0 0 1 0 3 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 4 0 0 0 0 0 0 2 1 0 1 0 1 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 1 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 2 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 1 1 0 0 0 0 0 0 1 2 0 0 0 0 1 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 1 0 1 1 0 1 0 0 1 1 1 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 1 0 0 0 0 1 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 1 1 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 1 0 0 1 0 0 1 1 0 3 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 2 1 0 1 0 0 1 1 1 0 0 0 1 0 1 1 0 0 0 0 0 1 0 0 2 2 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 2 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 1 2 1 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 3 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 1 0 3 1 0 0 1 0 0 1 0 0 0 0 1 0 1 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 1 0 0 0 1 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 1 0 1 1 0 1 0 0 0 0 0 1 1 0 1 0 0 0 0 1 1 1 0 0 0 1 0 1 1 1 0 0 1 0 0 1 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 2 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 1 0 1 0 0 1 0 0 1 0 0 1 2 0 0 0 2 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 1 1 1 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 1 0 1 0 1 0 1 0 0 0 0 0 1 0 0 0 2 0 0 0 1 3 1 0 0 1 0 1 1 0 0 0 0 3 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 2 1 0 0 0 1 0 1 0 0 1 0 0 0 0 1 0 0 0 3 1 0 0 0 0 1 1 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 2 0 1 0 0 2 0 1 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 1 1 0 0 1 0 2 2 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2 1 1 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 1 1 1 1 0 1 0 1 0 0 0 0 1 0 2 0 0 0 0 0 0 1 0 1 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 3 0 0 0 1 0 0 0 0 1 0 0 1 1 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 1 1 0 1 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 1 1 0 0 0 2 0 0 0 1 0 2 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 1 0 0 0 0 0 1 0 2 0 1 1 0 0 0 0 0 1 1 0 0 1 0 1 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 2 1 0 1 0 0 0 0 0 1 1 0 0 1 1 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 2 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 1 0 0 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 1 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 1 0 0 0 1 0 1 1 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0 0 1 1 0 0 1 1 0 1 1 1 0 0 0 1 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 2 0 0 0 0 1 2 1 3 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 0 2 0 0 0 0 0 2 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 1 0 1 1 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 2 1 0 0 0 0 1 1 1 0 1 1 0 0 0 0 0 1 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 1 1 0 1 1 0 0 1 0 0 0 0 1 0 1 1 1 0 1 1 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 2 1 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 2 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 1 0 1 0 1 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 1 1 0 2 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 1 0 1 1 1 1 2 1 0 0 0 0 0 0 0 1 1 0 0 1 0 0 1 2 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 2 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 1 0 0 0 0 1 1 0 1 0 0 0 0 1 1 0 1 0 0 0 1 1 0 0 0 0 1 0 1 0 0 1 0 0 1 1 0 0 0 0 0 1 3 0 0 0 0 0 0 0 1 0 0 0 1 1 1 0 0 1 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 2 1 0 0 1 0 0 0 0 0 1 1 1 1 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 1 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 1 2 0 1 0 0 1 0 0 0 1 1 1 0 0 1 0 1 0 1 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 1 0 1 0 1 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 1 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 1 0 0 1 0 1 0 1 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 2 1 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 1 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 2 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 1 0 0 1 0 0 0 0 0 0 2 0 0 0 1 0 0 0 0 0 1 1 0 0 1 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 2 0 0 1 1 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 1 0 2 1 0 0 0 0 0 0 0 1 0 0 0 2 0 0 2 0 0 0 0 0 1 0 1 0 1 0 1 0 1 1 2 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 2 1 0 0 1 0 0 1 0 0 0 0 1 0 1 0 1 1 0 0 1 0 1 0 0 0 0 0 1 0 1 0 0 1 1 0 0 1 0 0 1 0 0 2 2 0 0 2 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 2 1 0 0 1 1 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 1 0 0 0 0 1 1 1 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 1 0 0 1 0 0 1 0 0 1 0 0 1 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 1 0 1 1 0 1 1 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 1 1 1 2 1 0 1 1 0 0 1 0 0 0 1 0 1 0 0 1 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 1 0 0 0 1 1 1 0 0 0 1 0 0 0 0 0 0 1 2 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 2 0 1 0 2 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 1 1 1 0 0 0 1 0 1 1 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 1 1 2 0 0 0 0 1 1 0 0 0 3 0 1 0 0 0 0 0 1 1 0 0 0 0 1 0 2 1 0 0 1 0 1 0 0 0 0 0 0 2 0 0 0 0 0 1 2 1 1 0 0 0 1 1 0 0 0 1 0 0 3 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 1 1 0 1 0 0 0 0 0 0 0 2 0 0 0 1 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 2 0 0 0 0 1 0 0 1 1 1 0 0 1 0 1 0 0 0 1 0 0 1 1 0 0 1 0 0 1 0 1 0 2 0 0 0 0 0 0 1 0 0 1 0 1 1 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 2 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 1 0 0 1 0 0 1 0 0 0 0 1 1 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 2 0 1 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 1 0 0 1 0 1 0 0 1 2 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 1 0 1 0 0 0 0 1 1 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 2 1 0 0 0 0 0 2 2 0 0 1 0 0 0 1 1 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 2 1 0 1 1 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0 1 0 1 0 1 0 0 0 0 0 3 0 0 0 1 1 0 0 0 1 0 0 1 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 2 0 0 0 1 0 0 0 0 1 1 0 0 1 1 0 0 0 1 0 1 0 1 2 0 0 0 4 1 0 0 0 2 0 0 1 1 0 1 0 0 0 0 1 0 0 2 0 1 1 0 0 0 0 1 0 0 0 1 0 0 0 1 0 1 1 0 0 0 0 1 0 0 1 1 1 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 1 1 1 0 0 0 0 0 1 1 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 1 0 0 4 0 0 0 0 0 0 0 0 0 0 2 1 0 0 1 0 0 0 1 1 1 1 0 0 0 1 0 1 1 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 2 2 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 2 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 1 0 1 1 0 0 0 0 1 0 0 2 1 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 2 0 0 0 0 1 0 1 0 2 1 0 0 1 0 1 0 0 0 0 0 1 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 1 1 0 0 0 0 0 1 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 1 0 1 0 0 1 0 0 0 1 1 0 0 2 1 0 1 0 0 0 1 1 1 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 3 0 0 0 0 0 1 0 0 0 2 1 0 1 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 1 1 0 0 2 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 2 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 1 1 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 2 0 0 0 1 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 2 0 0 0 2 0 2 1 0 0 0 0 0 0 0 0 1 1 0 0 2 0 1 0 1 1 0 1 1 1 0 1 0 0 0 0 0 0 2 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 1 0 0 2 0 1 0 3 0 0 0 0 0 0 1 0 1 0 0 1 1 0 0 0 1 2 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 1 0 1 0 1 1 0 0 0 0 0 0 2 0 1 0 1 1 0 0 0 1 0 0 1 0 0 0 1 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 1 0 0 2 1 1 1 0 1 0 0 1 0 1 1 0 1 1 0 0 1 0 1 1 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 0 0 1 0 0 0 0 0 0 1 0 1 1 0 1 0 0 0 1 0 1 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 2 0 1 1 0 0 0 0 0 1 0 1 0 0 3 2 1 0 0 0 1 2 0 0 3 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 2 0 0 0 1 1 0 0 0 2 0 0 0 0 1 0 0 2 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 2 1 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 2 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 1 0 0 1 0 1 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 2 2 1 0 0 0 1 0 1 0 0 1 0 0 0 1 0 0 1 0 1 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 2 1 0 0 0 0 1 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 1 1 0 0 1 0 0 2 1 0 0 0 1 0 0 0 1 0 0 1 1 0 1 0 0 2 0 0 0 2 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 2 1 1 0 0 0 0 1 2 0 0 1</t>
+  </si>
+  <si>
+    <t>JSU(-14.850891725988257, 7.621527906513774, -190.4526595668284, 86.0823739757617)</t>
+  </si>
+  <si>
+    <t>46 198 97 76 104 154 78 77 38 82 171 76 78 93 49 54 101 157 74 108 155 64 100 139 56 67 95 73 176 92 110 106 99 63 148 79 59 66 147 82 32 34 156 92 137 77 89 99 44 99 18 56 109 106 139 137 151 194 133 105 97 108 143 73 118 108 132 159 110 54 107 109 141 155 128 66 161 82 229 39 66 129 166 144 128 91 44 133 85 114 48 79 202 39 51 85 62 142 83 138 150 80 55 139 72 220 148 74 169 70 79 118 120 134 142 70 110 98 82 72 80 101 96 180 79 68 104 79 59 33 164 135 88 187 122 69 105 96 175 127 180 94 121 122 85 87 184 64 77 125 84 114 108 144 79 44 95 98 203 174 121 99 153 84 104 154 65 93 54 144 128 99 96 181 53 138 90 109 146 49 108 112 121 90 142 152 64 38 81 126 122 96 77 86 156 118 127 110 120 52 36 110 141 50 121 102 105 167 69 25 67 98 61 190 48 105 145 122 89 71 80 151 165 95 104 42 105 81 207 68 113 132 49 154 121 118 162 161 97 72 216 114 99 92 102 85 27 27 77 136 164 149 48 75 35 38 137 110 117 79 53 110 61 271 67 109 144 124 160 110 165 135 113 115 56 85 71 145 56 152 144 58 88 98 64 194 71 81 111 108 57 125 73 96 101 102 89 112 101 68 141 179 134 139 185 30 110 131 86 55 87 59 82 126 148 76 85 209 124 71 115 56 139 58 181 19 118 176 33 100 45 148 129 69 113 38 24 134 105 145 143 61 52 43 128 255 161 139 124 134 100 126 134 66 59 68 127 93 91 28 102 149 41 90 105 127 147 36 45 126 131 77 155 53 50 138 151 44 130 195 104 129 157 102 152 140 115 97 120 34 96 130 34 117 133 102 126 38 145 109 117 102 105 92 116 182 60 171 141 137 73 41 106 55 62 50 139 30 105 155 118 112 176 103 93 86 119 85 80 86 85 57 83 83 51 146 95 32 79 141 42 98 123 204 126 123 196 126 58 37 69 121 96 78 109 136 73 174 93 74 134 88 147 89 53 177 97 68 56 43 94 96 130 95 74 107 142 233 39 124 143 96 129 173 90 105 102 138 119 56 110 72 46 99 44 62 56 103 77 65 101 169 62 105 129 157 53 165 71 119 152 98 91 84 18 79 107 148 142 98 48 158 98 95 109 35 130 120 118 88 114 162 79 132 115 108 86 79 87 121 134 130 120 53 84 114 110 128 128 89 86 129 135 171 145 120 114 89 98 38 42 192 39 119 155 122 52 150 116 75 98 135 144 103 79 203 95 39 120 62 113 91 106 140 62 98 95 211 95 89 96 100 102 88 45 128 83 95 82 80 82 73 140 176 127 49 129 124 116 49 87 111 175 47 97 82 139 77 129 112 31 96 106 119 19 21 114 167 132 97 190 55 72 167 89 112 133 102 53 80 210 102 196 115 123 139 120 85 85 114 80 133 64 115 48 82 96 189 69 84 130 130 170 143 76 139 167 164 82 128 89 66 94 106 153 92 149 117 101 113 44 51 59 90 88 99 97 117 70 71 226 77 139 142 163 136 32 103 82 136 178 170 98 50 169 76 63 56 82 124 50 42 114 136 92 57 63 14 94 105 78 141 89 186 140 203 104 110 68 75 60 88 75 110 106 117 50 121 77 101 76 137 142 90 113 61 110 146 97 124 103 97 53 71 148 121 168 140 93 166 38 90 105 96 112 84 98 112 126 141 91 172 81 68 87 88 154 82 139 52 93 98 157 71 125 52 113 83 158 83 38 134 74 128 162 85 29 62 118 101 100 145 160 120 67 159 52 108 74 100 141 159 132 132 89 124 76 52 85 117 125 103 42 152 179 89 68 103 74 134 103 123 124 53 176 91 117 67 138 138 91 108 126 186 132 143 61 160 167 64 97 124 65 87 99 111 97 40 58 90 71 148 98 61 145 106 62 27 111 131 144 108 144 92 58 76 69 71 155 80 83 44 110 116 95 114 204 117 127 114 103 59 106 115 25 44 48 68 99 125 93 118 140 150 131 98 70 93 47 60 74 174 141 116 167 233 162 91 92 92 90 105 212 125 68 90 66 68 86 66 102 132 157 143 57 25 127 123 66 94 75 85 228 32 84 152 130 61 69 129 85 122 59 149 89 31 104 119 61 61 169 131 159 184 67 99 72 136 123 75 29 146 126 132 200 135 53 79 127 75 75 129 113 83 141 90 169 141 97 52 78 25 151 164 191 119 149 24 67 74 119 45 33 64 181 107 80 109 117 102 92 85 167 117 46 66 114 124 63 137 168 67 96 65 96 106 166 90 75 144 110 91 48 86 55 70 84 59 90 91 226 18 101 80 113 93 146 126 141 141 177 36 81 79 83 123 159 31 101 193 122 88 69 91 96 159 89 116 84 123 169 106 176 122 137 128 56 164 85 125 94 98 101 72 158 121 52 163 118 150 139 65 123 107 167 138 135 79 107 124 90 136 102 129 226 63 237 136 91 72 68 122 84 75 115 99 98 147 155 35 185 148 131 126 130 87 81 97 58 73 158 129 141 87 121 124 128 81 86 86 76 80 127 105 84 95 74 126 71 49 137 187 21 130 146 95 112 106 201 88 76 58 111 95 99 168 159 75 124 110 92 49 89 171 63 124 84 59 149 125 123 137 114 80 117 124 146 124 71 57 176 108 37 28 88 49 87 113 152 107 211 56 43 108 109 205 138 32 132 88 72 49 64 143 111 150 136 94 103 175 112 106 86 141 109 206 42 217 111 80 50 63 88 22 66 73 95 109 60 103 115 78 167 158 47 108 53 132 146 189 124 160 144 76 81 67 141 112 111 84 102 55 159 50 115 125 66 93 123 94 87 153 134 98 135 112 113 116 125 133 113 109 63 34 119 66 86 67 242 95 119 92 99 83 126 102 118 111 87 89 42 151 60 125 147 142 139 104 55 38 113 108 191 74 91 83 96 62 145 63 200 82 266 51 45 120 226 96 94 67 76 94 56 112 103 94 130 170 114 116 106 89 116 124 130 102 95 107 70 128 64 139 69 102 114 96 54 107 109 103 212 108 32 139 142 163 138 114 102 129 127 167 62 108 22 122 157 70 138 79 136 138 88 114 153 90 116 43 106 91 132 147 71 127 130 93 93 66 60 70 116 63 69 112 132 122 93 53 144 94 49 104 125 56 55 114 69 88 85 113 134 95 112 71 160 97 89 141 123 153 217 126 65 125 45 77 85 62 100 109 77 86 38 144 200 123 120 91 192 35 46 83 74 155 71 92 111 72 209 122 168 165 93 197 104 117 112 85 125 194 139 209 114 125 132 59 81 161 204 96 73 95 80 107 131 38 114 213 81 177 78 46 3 186 160 56 63 55 101 107 91 109 124 140 162 129 116 107 78 160 66 90 112 99 101 75 130 65 170 47 106 185 63 127 118 78 51 170 21 114 142 100 61 197 112 141 157 125 133 199 35 167 69 64 132 74 102 169 32 100 116 112 78 165 114 123 132 179 78 122 119 63 112 131 86 147 56 88 111 100 88 127 190 114 124 106 112 98 87 183 111 111 153 122 124 61 160 115 148 61 66 140 64 96 51 112 128 91 158 70 117 147 50 97 88 189 126 165 102 124 100 107 124 145 127 133 173 130 130 157 175 73 134 72 199 65 57 142 89 106 77 116 87 113 114 136 87 75 80 125 41 105 174 131 79 167 161 35 170 99 228 156 161 42 201 102 54 145 42 37 95 85 15 104 119 117 104 123 134 88 98 72 143 172 237 125 105 55 95 73 78 100 143 78 87 137 124 44 88 136 66 172 102 211 74 89 174 40 76 151 132 111 34 131 61 141 77 244 70 97 51 100 130 89 204 174 94 127 141 112 81 140 137 129 93 58 157 78 90 105 42 140 138 77 97 120 54 141 69 79 91 131 39 80 114 146 128 105 116 153 101 137 81 82 166 125 125 141 97 167 75 193 118 80 85 141 162 103 111 126 156 111 54 24 29 67 54 82 136 35 169 77 157 168 81 94 179 44 202 69 111 124 138 89 155 106 110 178 115 123 107 176 77 143 116 34 87 192 104 116 64 172 88 127 104 118 49 119 98 167 218 134 166 99 133 156 144 153 40 85 75 106 116 64 45 63 159 121 86 123 105 92 154 185 134 205 89 14 96 113 129 135 74 30 87 179 134 57 50 43 136 109 145 91 173 108 120 117 133 116 96 103 67 207 85 80 64 124 106 90 67 90 93 147 110 65 83 117 148 151 159 258 165 108 52 104 74 134 40 166 107 99 77 42 72 106 92 89 58 193 105 62 91 93 20 74 76 106 125 92 89 125 170 89 113 182 118 79 126 114 68 76 149 165 163 74 148 77 158 124 66 134 186 116 105 76 130 161 87 74 45 117 130 64 72 87 128 110 91 124 107 82 168 88 138 86 156 105 136 87 56 62 138 67 151 130 78 117 59 119 102 52 119 105 129 113 71 171 147 158 93 90 98 56 103 65 82 238 117 114 160 81 155 77 193 43 172 128 132 40 107 125 33 76 72 76 78 79 47 123 214 87 157 135 73 63 92 63 75 83 112 111 102 65 186 123 120 88 184 87 133 87 149 76 85 96 213 67 158 115 94 235 74 80 129 57 145 131 102 135 102 79 48 98 110 107 143 111 119 138 130 113 145 74 76 145 67 121 135 66 110 98 101 133 98 111 101 122 36 107 119 67 131 173 128 104 68 109 165 90 119 164 125 120 99 135 240 137 77 114 147 118 46 103 73 185 106 73 98 36 78 83 105 198 183 154 136 149 61 75 142 124 74 46 146 86 29 66 107 151 102 144 139 211 78 202 39 105 83 97 125 120 113 115 105 115 136 94 73 96 143 85 150 80 130 65 111 158 55 155 73 88 107 134 118 72 103 106 172 140 70 67 118 65 64 97 85 137 126 84 134 118 171 87 34 129 67 115 101 129 116 107 111 106 89 114 116 43 156 102 85 66 85 111 166 128 67 149 88 53 60 78 138 89 110 97 97 140 90 114 56 115 113 53 93 149 168 59 67 92 104 99 95 72 150 101 59 93 104 71 121 156 81 85 89 138 192 128 73 141 91 140 167 126 90 86 61 119 85 57 91 68 94 143 117 59 93 153 91 164 60 78 112 202 171 131 148 104 108 154 155 148 117 119 71 39 85 107 65 101 133 122 136 195 156 58 137 166 148 153 169 162 49 153 89 128 145 56 102 79 166 218 97 97 91 115 113 98 109 66 59 142 126 161 176 129 145 65 117 158 119 131 113 122 148 94 116 103 181 175 40 97 123 120 80 130 88 221 196 66 100 128 68 55 117 151 126 115 123 106 151 61 104 90 55 138 124 118 189 91 97 136 113 85 51 122 121 139 113 29 76 77 100 131 157 144 121 58 122 59 80 27 171 43 54 160 90 81 133 194 114 104 78 106 142 94 182 105 69 174 78 33 149 74 78 78 178 66 161 52 96 109 158 119 127 80 164 77 91 107 67 198 132 150 158 206 32 21 95 111 113 59 44 209 65 121 79 43 176 114 142 19 116 34 55 80 139 139 109 121 164 199 65 84 111 136 185 117 126 67 164 135 149 120 126 111 137 125 145 160 141 47 82 132 56 13 161 118 89 136 97 90 53 154 100 60 96 172 97 75 87 106 115 125 148 76 52 131 33 120 108 167 43 90 58 172 141 121 94 40 102 128 99 87 138 56 153 70 102 109 130 121 114 78 98 74 46 101 97 134 195 66 78 125 38 116 62 135 120 78 84 112 51 51 156 120 87 114 118 116 106 71 58 106 121 59 150 103 97 63 94 115 136 124 118 153 193 128 53 95 91 95 198 80 105 158 98 92 65 205 99 187 110 120 54 62 121 111 67 173 118 74 99 45 48 122 60 110 65 118 115 71 84 117 127 102 118 155 199 94 137 225 120 60 121 72 107 155 195 73 179 168 99 108 48 125 76 126 113 121 113 113 152 75 239 133 95 63 76 134 98 194 124 66 92 130 86 80 82 162 124 103 127 151 123 123 83 76 96 80 94 102 101 78 37 122 137 93 93 119 34 155 38 119 154 125 111 119 60 87 204 54 96 105 116 110 84 151 149 156 140 103 159 90 134 134 126 135 144 138 85 96 72 137 71 57 184 68 129 81 156 171 124 94 38 92 220 169 39 114 121 87 68 82 97 82 189 57 117 39 94 87 72 26 51 106 2 137 110 117 174 142 68 134 95 110 108 138 77 104 86 155 103 75 95 91 62 120 131 160 27 97 113 97 88 144 112 164 55 120 40 65 206 106 167 166 96 86 98 101 76 48 100 130 158 53 57 111 85 146 110 89 83 50 103 106 40 78 101 113 24 155 78 85 94 71 140 105 140 95 121 128 179 100 86 116 132 95 84 116 87 161 41 224 83 90 158 147 101 140 64 58 80 61 63 192 66 72 80 70 125 161 62 71 93 190 214 128 146 141 82 198 62 106 94 90 104 63 208 138 102 104 189 116 204 158 158 79 78 124 180 82 62 133 72 74 77 69 47 121 157 85 122 174 133 106 103 74 114 136 89 151 114 133 163 144 67 178 80 66 111 68 180 147 46 101 55 144 125 170 58 146 178 71 66 78 159 80 95 120 65 88 152 88 154 101 140 69 145 225 77 162 77 102 105 117 133 178 107 72 183 86 92 27 109 82 91 126 59 85 151 182 53 147 202 70 30 168 132 80 73 34 83 81 49 160 116 96 134 123 138 119 103 149 116 101 137 110 64 64 79 39 118 104 67 106 116 69 105 98 105 81 30 125 105 68 131 123 166 105 89 32 154 76 132 123 56 97 120 121 277 92 62 120 102 97 120 98 81 109 60 73 144 97 90 88 124 121 93 155 100 92 63 146 48 69 126 128 110 63 82 87 58 162 44 137 130 118 208 143 124 55 135 133 163 92 75 157 124 96 130 126 104 131 99 74 102 151 120 76 190 81 37 63 154 138 123 184 58 151 131 85 99 119 76 99 27 126 192 75 132 123 123 102 207 149 89 226 92 70 138 84 142 128 89 74 188 99 105 147 98 118 127 129 124 99 43 88 107 160 133 104 153 89 135 166 95 112 112 61 62 13 125 88 107 152 166 88 86 114 63 122 147 116 171 51 68 159 130 123 110 117 159 94 63 149 47 23 128 188 81 175 57 126 78 125 93 119 170 110 166 131 93 83 164 121 123 137 172 101 178 167 48 71 27 55 180 265 179 135 127 85 131 128 150 154 150 41 49 136 94 130 145 118 114 61 107 132 61 109 208 148 94 134 89 63 82 116 130 116 153 86 68 128 79 104 105 169 76 132 43 105 86 180 134 72 112 137 82 229 136 76 124 155 169 143 138 144 116 89 148 119 116 170 79 74 184 97 98 109 48 141 255 186 66 28 98 61 90 87 145 53 112 40 121 53 180 117 64 142 72 125 126 147 179 129 112 39 166 57 145 114 77 127 116 76 143 88 140 160 99 133 102 183 98 127 123 192 154 82 126 191 194 116 115 126 72 52 170 113 172 63 53 128 149 105 109 49 70 21 134 63 113 145 129 89 136 57 77 57 53 86 36 69 195 116 83 107 132 84 131 70 212 44 46 49 64 102 74 144 132 93 26 70 123 108 131 126 138 73 98 92 52 186 28 155 132 98 78 72 109 81 114 159 145 72 88 127 199 102 244 148 39 176 73 86 48 113 158 96 145 89 60 142 172 133 109 26 102 122 78 119 20 116 77 130 121 75 96 76 41 108 34 167 86 101 157 21 119 102 122 111 78 122 204 152 137 84 84 49 138 142 133 152 146 148 121 133 91 87 109 98 66 118 176 107 102 118 126 78 132 112 127 93 69 139 108 92 112 39 96 156 115 130 138 136 125 98 96 145 102 162 90 98 118 108 82 31 33 88 89 172 61 100 126 38 186 125 93 86 135 65 108 125 108 66 161 128 82 111 179 158 107 131 109 146 120 121 147 97 68 66 93 118 152 72 56 70 60 104 124 86 143 140 82 117 140 52 33 78 76 94 107 159 153 146 91 99 137 48 100 105 132 115 136 143 56 136 107 143 182 145 31 138 154 111 60 141 83 42 99 99 143 73 185 126 94 138 93 108 151 86 190 113 70 149 171 110 143 64 158 126 60 137 52 115 108 98 82 88 67 142 72 58 107 80 111 89 89 39 85 183 60 56 130 93 96 52 126 137 132 102 106 104 129 51 67 152 151 67 136 147 87 52 72 40 125 108 81 107 80 139 23 83 60 63 125 57 120 72 83 134 90 115 75 80 103 103 125 150 46 113 139 100 129 98 75 31 132 69 52 147 87 156 117 102 113 143 142 105 102 167 90 136 137 59 105 15 64 35 105 205 94 60 113 126 60 131 109 139 71 98 49 116 169 84 92 147 121 72 186 83 164 153 162 96 120 24 108 105 43 148 109 57 195 40 115 176 76 123 82 112 164 107 131 79 90 77 83 123 64 88 62 157 55 58 10 178 110 63 84 51 105 60 99 54 107 116 121 110 116 212 133 124 174 43 99 153 98 107 74 135 185 78 134 85 75 131 47 86 100 174 103 96 152 107 151 149 111 94 136 98 48 139 97 117 99 90 84 155 125 121 110 116 124 45 93 76 56 95 84 59 36 78 101 88 64 78 132 113 92 185 146 94 130 53 123 89 105 94 112 126 141 101 136 118 141 109 144 107 115 202 124 70 122 51 186 78 48 120 135 108 103 161 202 130 219 129 166 110 101 55 141 120 111 63 111 85 34 171 108 117 18 96 144 83 40 48 92 163 100 113 44 86 125 133 110 122 30 113 81 139 111 101 114 168 76 98 231 163 129 15 45 60 121 96 114 86 108 77 100 61 104 40 76 127 105 52 117 69 91 91 55 70 89 94 112 156 74 96 122 82 88 111 70 86 121 153 111 117 89 181 165 148 34 155 192 122 51 91 56 169 133 180 180 87 90 153 76 100 111 18 96 71 106 52 133 121 69 129 57 66 38 111 133 87 144 129 158 149 123 40 68 169 145 100 100 35 99 141 75 80 15 44 113 112 123 166 81 118 96 75 44 74 152 106 175 121 121 204 134 147 114 74 161 72 119 66 106 88 152 199 108 116 79 106 103 49 111 142 89 96 71 173 104 68 102 58 95 137 129 145 64 160 184 134 80 180 122 116 149 56 94 65 128 89 53 113 151 92 104 139 122 98 80 65 113 91 59 137 64 132 131 79 117 89 172 150 150 83 158 81 110 75 44 162 118 90 59 51 161 70 59 147 131 80 132 61 132 78 163 106 78 88 31 132 183 172 83 96 74 125 93 73 115 98 85 171 21 112 85 99 99 81 38 127 81 50 140 134 104 41 137 107 54 72 105 90 165 66 97 94 75 87 121 62 94 141 111 129 167 130 92 124 83 62 195 140 52 102 116 169 95 179 59 56 119 58 61 137 213 113 115 144 103 86 109 124 139 125 140 131 98 102 103 88 164 90 121 98 156 74 112 109 47 81 111 147 133 45 87 114 147 155 43 115 131 86 133 159 129 59 51 63 70 211 189 103 106 124 9 94 227 178 94 140 106 141 85 113 75 59 56 161 114 107 85 36 137 88 125 112 170 93 112 117 108 186 144 75 78 142 165 169 34 126 108 122 99 120 93 22 76 92 130 164 142 42 80 58 89 82 133 55 83 79 53 124 96 114 57 56 95 93 114 134 183 119 120 51 122 130 91 14 117 56 107 134 87 52 16 76 59 79 64 30 145 140 78 88 89 78 91 110 84 142 123 108 82 103 137 170 103 50 103 66 177 120 128 55 131 131 110 64 118 119 97 109 69 73 184 153 108 107 183 72 146 54 121 112 113 176 117 151 129 71 109 169 62 30 84 137 110 29 44 89 102 71 152 135 45 52 129 98 114 93 70 153 81 191 121 171 83 76 127 188 93 138 51 68 91 97 157 50 67 87 107 101 158 104 32 94 159 165 141 123 196 170 179 167 116 99 199 118 143 163 24 167 156 112 115 142 94 130 120 102 133 81 55 179 91 92 183 177 93 103 190 60 66 92 144 154 103 79 46 142 78 107 67 85 117 190 52 83 104 110 142 123 107 101 140 161 59 149 101 107 103 94 58 151 126 184 116 87 78 161 150 89 98 86 108 122 98 106 76 52 101 78 159 157 179 120 48 104 111 106 79 97 36 100 116 165 128 142 106 125 97 61 78 123 69 122 81 84 82 86 55 67 60 106 74 55 116 106 114 82 121 65 115 55 134 88 88 49 102 95 75 189 171 90 239 133 31 53 132 58 115 152 137 182 170 125 167 127 65 113 63 134 128 160 146 93 80 87 103 191 108 78 124 127 48 53 68 175 121 93 102 70 122 95 116 206 82 98 50 78 138 6 113 122 72 81 46 118 75 111 36 61 174 105 136 156 72 59 58 36 59 89 82 111 214 71 191 88 89 104 143 84 113 155 81 163 109 105 98 61 47 52 154 119 130 68 48 133 173 131 78 124 67 130 93 52 209 46 158 172 199 95 91 95 81 68 25 59 86 74 112 211 102 111 65 121 173 137 89 108 199 110 78 82 132 192 112 120 55 106 161 91 122 60 119 226 36 59 125 205 104 69 95 58 145 120 30 116 211 145 107 63 186 75 147 130 106 56 91 95 92 87 80 141 91 138 143 143 50 87 41 135 58 85 116 104 92 68 122 139 82 115 101 38 88 86 175 103 86 57 38 147 72 80 155 88 28 83 175 75 103 66 166 81 106 157 69 126 39 172 66 74 93 88 101 154 146 145 84 90 159 72 97 84 161 23 77 182 206 64 177 145 72 132 128 93 114 127 90 108 175 59 182 34 116 87 115 107 71 119 152 123 139 118 96 197 108 144 108 97 144 57 71 169 196 186 37 83 91 78 66 125 129 53 114 133 129 127 188 68 97 130 116 141 185 25 49 158 121 52 88 100 92 108 152 188 154 109 145 129 138 108 165 61 20 98 210 115 78 145 165 76 153 218 124 133 51 197 58 48 166 77 129 117 104 100 112 58 81 109 66 123 91 94 139 63 40 47 129 71 103 132 124 94 94 82 143 112 157 150 156 83 78 137 45 153 54 52 125 99 146 176 71 116 104 81 187 89 110 31 138 112 183 142 57 183 73 132 181 115 37 221 40 101 142 130 106 102 105 49 144 64 110 90 88 138 55 67 58 114 126 77 70 65 135 37 169 83 85 73 89 151 44 116 161 88 170 124 137 22 122 68 123 128 133 90 110 28 81 20 115 109 83 104 144 132 90 121 54 167 162 51 107 78 112 113 114 108 55 158 66 138 152 75 98 58 46 102 130 103 106 117 68 146 199 175 65 58 106 86 83 124 63 139 135 125 80 145 103 85 211 89 99 102 102 145 143 101 60 142 98 65 80 143 101 81 134 145 135 115 104 45 119 111 137 184 65 95 93 138 70 78 82 135 104 92 138 119 67 68 95 139 96 111 88 125 57 101 36 68 160 104 44 88 137 136 72 123 111 56 84 95 194 157 168 74 76 40 98 169 93 155 200 116 225 35 152 79 131 124 113 133 32 23 145 92 47 57 158 109 121 209 71 126 96 99 136 90 36 122 87 71 124 117 64 110 114 74 77 68 150 146 66 77 98 182 100 107 84 103 98 58 162 52 196 115 139 152 96 126 178 101 107 130 128 110 143 72 125 130 60 209 39 142 75 185 100 97 103 135 115 21 93 107 79 101 22 84 102 172 83 121 145 156 141 106 155 108 109 146 113 98 96 84 181 75 60 54 97 74 116 64 99 80 50 74 69 177 169 206 121 144 98 81 72 152 197 39 122 11 58 89 101 145 117 112 130 136 66 21 31 86 107 94 90 129 120 152 56 124 113 116 101 166 50 54 103 89 86 77 126 112 155 141 145 131 95 104 51 143 58 191 158 213 138 136 136 157 45 60 156 116 107 127 104 133 76 158 115 65 132 84 121 67 95 97 94 105 85 147 144 127 93 148 140 157 128 88 106 139 106 153 88 93 107 146 151 106 101 103 98 135 42 85 169 156 126 133 123 84 106 133 94 140 119 75 118 118 64 78 54 109 66 117 106 143 124 128 99 68 91 109 138 27 106 172 111 178 99 89 198 172 136 137 79 115 156 130 160 89 84 131 96 104 157 90 87 63 33 45 105 189 52 51 200 91 98 91 143 181 153 129 129 73 35 127 97 76 50 155 211 129 18 111 148 93 31 85 86 145 111 180 114 110 107 103 144 283 133 115 122 129 100 65 182 93 117 108 87 69 110 81 97 111 86 86 118 120 83 81 129 76 110 85 201 102 127 168 92 62 54 138 121 87 162 102 109 91 85 62 39 82 27 78 87 96 117 87 93 162 126 196 166 82 135 111 82 88 147 185 81 152 86 92 130 151 82 31 108 61 83 34 151 202 213 44 76 98 195 146 201 73 120 98 110 101 149 130 43 99 106 125 68 89 149 93 65 201 62 140 68 161 144 143 176 158 226 88 52 84 172 79 123 114 46 154 98 88 76 142 88 108 62 49 101 26 132 137 139 108 111 114 133 67 140 172 69 54 87 62 151 129 59 128 102 111 174 152 130 134 195 112 162 74 161 115 7 25 85 55 118 41 55 98 80 93 133 72 61 33 122 104 128 83 79 108 190 144 150 70 123 117 167 111 106 85 101 54 113 155 119 87 54 123 101 121 130 178 121 94 110 167 75 133 82 102 84 152 180 88 90 106 107 106 193 104 68 162 250 161 246 134 173 183 131 27 116 71 136 139 57 141 45 201 134 108 189 125 94 16 71 87 46 122 130 40 107 60 82 117 115 131 177 40 77 116 93 163 106 81 71 102 103 94 122 72 105 226 135 139 146 102 109 76 121 73 70 118 80 135 152 183 102 119 149 99 96 133 142 141 127 167 148 82 31 71 141 151 117 109 93 110 168 64 145 154 61 67 76 128 138 93 152 97 143 142 63 98 78 121 125 96 97 71 143 38 123 111 115 61 125 101 28 59 125 112 42 116 88 56 97 152 114 74 121 47 91 58 118 165 197 39 145 134 216 156 71 144 76 50 131 131 111 22 95 71 70 151 155 61 121 109 67 167 160 92 199 131 132 80 79 99 38 162 69 54 65 115 87 143 180 144 146 140 138 114 90 148 82 26 99 114 101 189 156 63 115 39 81 123 80 31 129 62 67 121 78 110 174 97 148 80 79 50 122 172 136 73 124 57 178 78 171 81 220 51 137 178 136 62 110 83 77 76 88 50 74 52 103 87 121 86 87 117 67 77 102 66 183 187 122 124 157 147 69 51 118 106 77 124 162 109 145 63 94 116 150 72 95 191 65 70 156 72 106 66 62 154 146 167 84 97 148 176 88 110 83 143 194 45 117 49 97 109 91 94 50 171 98 90 107 76 86 35 82 92 157 106 114 146 77 113 99 155 60 45 76 128 119 108 69 147 138 70 113 92 125 86 100 151 146 127 126 121 103 102 112 60 79 59 111 202 168 114 102 134 175 177 97 77 117 37 48 147 101 82 204 113 157 108 104 156 65 152 92 124 114 150 105 81 77 99 121 208 143 134 86 99 198 129 109 96 108 140 43 77 62 92 107 42 144 156 110 82 169 63 80 116 258 89 105 148 92 103 138 70 98 168 67 129 128 71 106 132 111 112 96 47 77 85 123 60 106 96 104 61 112 113 145 120 115 142 159 82 104 75 78 157 162 182 74 109 27 149 148 164 130 81 118 206 126 45 187 122 56 79 70 112 56 137 88 132 105 81 145 48 55 171 105 119 123 75 62 90 102 88 89 233 140 81 149 129 64 128 107 122 76 198 127 141 169 84 125 53 43 129 126 107 129 105 144 73 52 41 107 104 115 72 101 127 80 141 44 107 80 142 52 183 140 131 100 162 122 100 162 151 53 75 86 72 60 167 134 140 106 72 189 90 145 118 142 107 98 24 129 89 133 43 141 138 149 124 92 97 90 60 56 156 130 117 156 121 130 118 34 193 149 138 80 129 113 113 83 152 164 104 140 76 162 96 143 132 143 116 108 106 63 46 103 31 74 110 23 66 43 118 143 105 106 64 66 114 65 159 112 109 104 71 63 89 97 83 102 125 63 33 46 106 59 146 172 77 49 81 124 73 113 95 126 125 174 68 73 92 100 77 52 75 84 105 56 116 53 93 169 165 72 64 99 107 80 119 114 173 43 91 75 229 100 78 42 100 127 111 41 78 119 174 175 167 53 87 113 91 131 101 115 114 87 97 124 78 142 104 185 120 159 145 94 92 199 91 117 41 33 79 91 140 117 158 194 119 61 98 94 84 121 124 56 195 57 136 116 95 105 87 112 135 152 45 87 149 33 39 125 72 101 131 171 106 109 64 130 23 100 104 131 49 82 69 137 116 152 124 80 131 86 111 108 147 108 79 119 89 149 122 140 205 182 151 89 111 165 84 124 67 46 60 186 72 89 153 83 114 113 151 58 141 80 173 91 46 57 160 170 99 128 76 132 151 166 103 74 146 63 71 127 103 164 149 133 156 97 128 135 108 143 55 77 60 111 136 74 84 109 65 161 71 103 50 122 181 54 180 68 94 109 146 106 60 67 30 131 122 69 138 151 118 42 76 138 116 157 152 82 128 102 80 107 102 95 88 82 110 105 124 159 183 120 154 64 37 133 130 104 65 71 35 116 152 106 78 73 133 103 60 202 73 78 171 134 86 57 68 176 143 106 65 91 86 128 73 35 103 149 123 155 209 145 106 103 83 96 107 61 142 95 148 132 134 64 103 153 50 130 213 111 75 103 124 115 155 90 58 194 87 61 180 137 103 143 113 142 135 97 97 159 77 88 143 122 76 144 100 147 217 132 136 100 36 121 54 118 106 103 99 106 116 96 180 56 56 97 91 71 108 102 82 111 135 90 121 59 142 48 84 131 69 100 123 46 72 155 160 126 127 74 89 67 52 92 114 118 75 62 61 169 87 140 116 47 120 71 68 64 54 189 143 98 86 181 74 137 79 62 124 144 132 146 107 140 76 158 65 37 69 194 124 90 89 109 82 68 132 83 30 63 109 122 134 198 102 88 131 176 109 68 91 50 28 96 44 107 161 39 78 115 231 62 74 116 101 91 82 181 154 137 31 110 80 51 52 137 96 87 85 84 116 121 128 69 188 114 146 119 87 19 120 122 97 155 114 103 75 138 113 104 43 43 61 65 76 152 72 152 85 123 132 88 48 59 64 120 100 99 116 87 116 180 55 135 104 171 110 99 73 109 78 104 95 132 90 53 139 45 42 193 111 46 127 116 86 164 121 100 92 183 58 78 37 105 151 73 154 133 64 31 134 32 152 69 55 29 97 102 116 159 116 126 55 186 94 113 159 76 124 136 163 115 97 135 142 68 152 111 41 175 164 74 117 149 44 78 87 45 51 83 78 161 156 111 146 128 99 94 77 36 62 66 173 145 87 54 78 120 124 227 91 151 183 140 132 121 99 128 128 64 180 191 168 188 54 90 151 107 101 144 65 101 66 52 89 113 142 181 84 137 108 94 68 114 136 147 100 112 114 117 121 74 21 45 111 75 90 130 100 160 130 110 95 198 85 110 97 143 59 125 57 107 149 63 110 119 180 128 105 74 85 98 115 130 66 47 107 83 58 85 91 57 132 113 69 142 99 131 92 74 102 121 81 84 180 128 81 78 137 71 114 103 91 86 106 47 136 109 140 117 48 53 59 112 89 48 92 115 143 113 88 184 136 113 106 178 139 139 138 76 59 103 182 94 71 126 127 140 100 101 65 53 99 79 128 169 95 154 148 101 219 92 145 91 70 140 172 145 46 98 111 113 182 89 129 193 117 99 123 61 78 101 30 113 48 113 88 90 87 117 117 81 131 153 101 72 74 81 141 151 125 98 76 27 82 111 75 71 67 94 67 99 145 38 99 102 113 129 155 112 121 77 88 144 119 124 90 130 82 83 137 51 104 200 49 61 170 141 38 113 161 113 83 102 151 123 77 142 124 93 158 201 116 65 91 59 165 164 55 98 85 59 103 54 125 118 87 114 141 49 114 161 189 144 139 45 133 102 35 101 93 158 97 189 104 148 68 217 100 85 61 73 119 83 168 84 159 63 193 85 130 130 79 101 139 213 149 94 37 119 114 69 143 107 87 8 149 127 81 76 119 15 179 151 108 80 71 200 119 88 93 139 81 99 54 70 124 77 60 124 175 112 52 55 77 62 86 153 81 140 81 102 145 80 72 141 91 121 84 74 111 75 121 93 163 93 32 112 107 34 76 104 128 98 99 68 131 116 92 91 46 84 114 133 130 136 98 136 93 60 104 103 27 125 131 130 107 187 68 74 108 105 122 106 86 83 132 132 163 216 125 54 172 106 102 124 86 155 111 45 144 182 78 128 149 158 183 95 132 123 105 107 91 118 116 73 103 95 76 150 82 117 110 141 164 80 158 110 144 107 90 75 115 130 54 141 86 77 185 103 69 123 100 179 95 94 183 169 96 169 80 84 173 182 148 73 86 140 68 115 72 46 144 114 122 59 78 119 124 103 97 155 73 186 183 116 116 55 87 128 113 112 76 100 20 31 91 64 76 137 78 59 174 115 104 188 97 131 142 100 160 129 40 99 99 94 69 88 118 91 146 103 73 80 187 155 77 143 58 185 86 152 216 103 103 133 74 107 169 62 83 107 117 158 135 84 75 183 116 138 118 55 104 114 161 146 111 82 91 110 153 98 124 188 210 81 89 123 83 98 145 75 131 77 84 153 79 85 115 210 195 110 88 131 105 130 97 36 49 86 186 160 114 71 143 61 108 183 158 105 81 137 146 70 185 129 140 110 96 60 64 149 139 119 156 144 86 23 71 154 166 52 108 102 104 58 103 76 104 116 173 56 91 154 114 59 179 106 69 166 147 91 89 111 99 65 59 114 103 88 87 71 143 106 98 85 172 86 162 58 144 89 99 115 158 140 168 171 93 100 131 99 96 126 150 124 110 141 102 61 73 188 118 205 160 200 121 115 118 179 125 84 91 135 121 58 85 100 148 98 56 88 55 70 61 138 92 59 130 54 106 44 201 143 135 122 124 199 125 82 112 131 61 116 159 114 112 144 71 150 39 46 80 135 60 80 96 126 92 93 107 174 80 68 77 131 42 81 104 132 90 31 161 105 72 82 93 97 98 90 39 111 159 145 106 30 111 135 87 91 85 65 90 149 59 120 88 123 63 98 119 139 111 123 123 98 191 67 110 25 125 159 42 115 112 181 100 70 137 83 102 145 144 120 90 86 99 177 187 141 128 83 209 229 70 105 45 126 120 97 78 61 47 203 122 74 129 152 113 104 197 129 149 146 133 102 152 58 112 84 71 190 142 120 89 118 137 162 170 106 179 125 76 106 73 84 109 105 144 39 83 129 152 131 81 94 115 71 135 39 139 102 101 152 84 109 95 18 120 80 149 35 96 92 121 86 123 74 58 130 114 81 80 9 188 123 172 158 16 216 46 81 88 48 82 92 143 67 130 172 115 112 60 96 111 72 108 59 103 155 118 138 38 118 189 129 75 143 159 78 71 102 102 110 92 232 146 51 133 54 103 97 126 66 66 74 148 128 69 124 57 80 153 131 128 102 33 170 62 144 85 120 85 159 97 130 150 64 130 140 83 67 74 95 118 132 108 119 113 58 114 103 94 145 72 117 40 170 139 85 47 80 164 133 150 98 118 94 148 57 78 197 75 88 73 135 185 68 93 136 71 169 140 114 131 135 100 114 153 85 173 76 48 113 128 85 104 91 213 82 75 85 149 107 58 176 126 105 102 139 63 161 88 95 71 91 149 40 116 146 102 113 46 30 110 135 165 122 82 113 133 149 97 130 153 163 68 127 118 102 97 109 32 134 183 106 67 131 118 36 155 105 109 101 44 137 150 41 109 168 116 87 88 42 131 66 136 144 51 100 172 104 118 90 169 179 105 147 72 124 124 216 195 127 129 43 45 46 96 143 75 170 62 87 161 86 96 66 79 133 71 76 94 80 106 115 108 141 67 89 27 147 154 81 95 80 110 59 87 128 125 83 128 87 68 154 149 68 62 85 131 97 102 87 66 16 93 35 105 109 125 159 104 58 142 121 39 54 98 120 101 118 79 117 56 195 148 35 201 136 123 129 209 155 64 75 119 185 187 115 105 107 158 121 96 84 155 139 95 93 43 168 87 91 69 103 124 91 44 128 70 118 157 54 48 133 109 125 84 94 131 170 96 95 68 127 146 174 199 20 88 117 167 92 118 71 157 73 85 113 133 137 41 175 91 75 49 78 136 165 94 74 159 84 79 137 133 139 135 36 127 17 84 244 59 88 128 127 78 58 71 12 103 77 47 146 25 141 50 72 89 125 99 104 90 97 105 161 94 187 100 52 89 141 121 121 117 92 162 87 117 117 150 106 73 159 141 151 89 187 91 155 97 67 163 131 91 116 117 50 81 203 109 87 135 86 144 123 42 76 85 151 118 149 86 58 87 142 180 147 167 31 59 115 199 63 85 59 97 38 72 67 93 81 156 70 83 159 175 53 135 190 91 111 152 39 106 181 130 110 86 133 158 78 65 62 63 97 122 136 68 31 137 123 171 97 183 40 129 72 132 57 74 102 101 84 108 115 90 92 86 145 103 123 158 67 135 135 182 110 143 88 121 32 132 102 113 129 153 107 103 167 59 197 81 52 90 114 92 91 102 136 128 87 164 156 84 93 88 186 105 98 85 88 128 102 127 85 133 60 172 97 143 89 96 125 65 68 95 112 84 85 108 139 93 132 102 69 151 99 87 110 117 95 85 136 87 114 75 117 141 133 112 116 145 193 120 76 76 69 80 77 100 181 96 95 65 119 58 105 93 125 84 138 97 117 87 84 99 89 52 125 65 59 104 95 67 143 111 111 137 65 98 117 116 142 75 82 65 224 53 86 166 103 165 142 78 75 154 73 130 116 102 113 116 70 77 154 111 65 114 162 126 140 99 84 41 177 71 81 98 167 88 145 129 107 67 88 118 80 59 170 160 146 77 195 160 121 65 120 115 82 161 50 176 66 68 138 127 151 121 110 116 111 190 109 30 127 69 207 162 132 126 53 46 139 102 108 161 115 133 217 104 99 198 192 95 219 164 94 161 123 187 130 37 94 111 102 68 112 106 65 85 111 59 78 106 114 162 18 141 85 72 59 152 66 112 150 172 58 186 153 118 176 79 72 110 103 108 184 162 128 160 162 91 86 23 72 136 74 150 78 84 90 65 167 137 171 121 128 77 117 67 216 74 129 151 142 102 121 86 64 121 167 133 61 137 170 91 111 149 127 91 114 127 66 87 81 56 102 107 113 170 103 111 100 87 85 59 47 94 70 93 87 142 93 239 27 57 95 98 78 66 80 26 108 115 88 173 80 109 156 100 122 117 85 128 80 39 88 117 125 250 76 97 83 99 98 103 86 121 128 155 113 151 112 1 156 129 93 40 136 135 121 142 124 48 190 141 105 170 152 87 114 124 111 145 78 156 88 122 114 90 162 143 67 86 195 89 74 73 133 116 88 57 97 71 81 163 138 99 139 172 171 168 32 127 36 125 116 176 32 177 60 106 109 111 155 69 74 157 116 16 152 113 132 127 100 125 248 72 98 106 134 89 85 115 104 153 93 81 58 136 39 140 64 144 114 146 110 96 150 58 201 103 190 270 88 57 163 96 126 89 68 112 126 167 97 100 142 124 74 71 119 136 166 109 139 50 99 95 94 122 129 85 88 152 53 153 110 71 68 88 107 54 117 176 88 94 149 112 130 125 148 86 136 100 166 60 93 119 98 144 126 89 85 87 113 74 97 114 101 148 132 116 197 70 113 140 154 125 92 119 146 152 113 97 84 81 84 171 67 34 91 133 140 127 47 17 61 139 29 61 197 182 89 123 119 45 133 84 70 122 45 193 100 99 180 106 142 137 69 90 128 51 105 103 122 139 129 123 89 43 142 137 163 106 64 114 155 102 137 63 77 120 106 123 90 109 80 76 84 56 76 163 120 113 164 145 118 84 125 180 61 112 94 111 74 114 75 153 66 113 136 91 99 64 126 26 167 110 53 99 74 100 76 83 109 91 160 18 111 65 127 123 134 119 101 161 75 166 140 147 90 57 72 122 87 44 105 145 129 151 85 104 107 97 58 79 76 128 83 117 90 51 99 85 12 91 161 28 115 153 123 28 64 82 113 124 62 110 167 60 146 144 64 122 58 102 116 99 46 127 128 147 133 44 13 107 110 57 77 20 107 103 190 119 23 80 131 93 100 144 180 79 114 107 38 119 135 41 94 70 102 24 129 81 149 51 55 97 94 194 39 77 103 75 103 187 85 90 69 169 122 148 77 195 221 113 154 38 121 124 41 124 87 151 104 129 61 104 97 118 83 56 84 76 106 127 160 136 75 109 60 116 91 111 33 131 147 103 85 135 70 96 116 131 129 140 129 110 92 101 43 112 133 61 89 57 111 68 55 129 27 85 74 110 89 77 144 27 105 100 60 119 149 79 106 50 162 80 89 119 142 93 105 41 185 39 115 52 111 97 142 45 114 23 69 14 134 124 77 121 100 187 85 101 117 124 111 44 109 63 33 119 146 132 115 138 79 229 70 86 84 110 144 96 133 73 122 77 131 49 202 49 166 96 100 47 97 49 77 152 80 66 150 109 163 67 59 55 99 144 191 193 161 134 40 141 115 127 200 121 93 151 99 101 113 12</t>
+  </si>
+  <si>
+    <t>MIE(0.4575329176186198, 1.6929720781569728, -3.427115071998725e-33, 0.8775247449292474)</t>
+  </si>
+  <si>
+    <t>1 2 1 0 0 1 1 0 0 2 2 0 2 1 0 0 1 0 0 0 0 0 0 0 0 0 1 1 1 0 1 0 0 0 1 2 1 1 1 0 0 0 1 1 1 0 0 1 0 1 0 1 1 1 0 3 3 1 1 2 0 0 0 0 0 0 1 0 0 1 1 1 0 2 1 0 0 0 2 0 0 1 2 0 1 1 0 1 0 2 0 0 3 1 0 1 0 0 0 0 1 1 0 2 1 1 1 1 1 1 1 0 1 2 0 1 1 0 2 0 0 2 0 2 0 0 0 0 0 0 2 1 0 2 2 0 0 0 0 2 2 0 1 0 1 1 2 0 2 1 0 0 1 3 0 0 0 0 3 1 0 0 0 1 1 0 1 1 2 0 2 1 0 2 1 1 0 1 1 0 2 2 1 1 0 1 0 0 0 0 2 0 1 0 0 0 2 1 1 0 0 2 2 0 2 0 0 4 0 0 0 1 0 0 0 0 1 0 2 2 0 1 2 1 1 0 0 1 1 1 2 2 1 1 0 2 2 2 0 0 0 2 1 0 1 1 0 0 1 1 1 0 2 1 0 0 0 2 0 2 0 2 0 5 0 1 0 0 1 3 1 0 1 1 0 0 0 0 0 0 2 1 1 0 0 2 0 0 0 0 0 0 0 1 1 1 0 1 0 1 1 2 2 0 2 0 0 0 1 1 0 0 0 1 0 2 0 2 0 1 1 0 2 1 3 0 0 1 0 0 0 2 1 1 2 1 0 2 1 1 1 0 0 0 1 2 0 1 0 0 0 1 4 1 0 0 0 1 1 0 0 1 0 0 1 1 2 1 0 0 2 1 2 1 0 2 0 0 1 2 0 2 5 0 0 2 1 0 1 0 1 2 0 2 0 0 2 0 1 0 1 0 2 1 1 1 0 1 0 1 2 0 1 0 0 0 0 0 0 1 0 1 2 1 0 1 1 0 0 0 0 1 0 1 0 2 0 0 1 1 0 0 0 0 1 1 2 2 2 1 0 1 0 1 1 0 0 3 0 0 2 1 2 1 0 1 0 1 0 0 0 1 1 0 0 0 1 4 0 0 0 0 1 1 1 0 1 0 1 0 0 0 0 1 1 0 0 1 1 0 3 2 0 1 1 0 0 0 0 1 1 1 0 0 0 1 1 2 0 0 0 1 1 1 0 1 1 1 1 0 1 3 1 0 0 2 1 0 0 1 0 0 0 0 0 2 0 1 0 0 1 0 3 1 0 1 1 2 0 0 0 2 0 1 1 0 0 0 1 1 2 1 0 1 1 1 1 0 4 0 2 1 0 1 0 0 0 2 1 0 1 0 1 0 2 1 0 2 0 0 0 0 1 1 1 0 1 0 1 0 1 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 5 4 0 1 0 1 1 0 1 0 1 0 0 1 0 1 1 0 1 1 1 0 0 0 1 0 1 0 1 0 3 0 1 2 0 1 0 0 2 2 1 0 0 0 0 0 0 1 1 1 0 1 0 0 0 0 0 0 1 0 0 0 1 1 0 1 3 2 2 0 1 0 1 1 0 0 0 2 0 0 1 1 0 2 0 1 1 2 0 0 0 0 0 0 2 1 2 1 2 0 1 1 0 1 0 0 0 0 0 0 0 0 0 1 0 1 1 1 1 1 1 1 2 1 0 1 1 0 0 1 1 0 1 0 1 1 0 2 0 0 0 1 1 1 0 1 1 2 0 0 0 3 0 1 1 2 0 0 0 1 0 2 2 0 3 0 2 1 1 0 1 1 1 0 1 2 0 2 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 2 2 0 2 1 0 1 0 0 2 0 2 0 0 1 1 1 0 0 0 1 0 2 2 2 2 0 3 1 0 1 1 0 1 0 1 0 0 0 0 1 1 0 2 0 0 1 0 1 0 0 1 0 1 1 0 0 0 1 1 0 0 1 1 0 0 2 1 1 0 1 0 1 1 0 1 0 2 1 0 0 0 0 3 1 0 0 0 0 0 0 0 1 2 1 3 2 0 1 0 0 1 2 2 3 0 1 1 0 0 1 1 1 0 1 0 0 2 0 0 1 1 2 0 0 1 1 0 1 2 1 0 1 3 0 0 0 1 0 0 0 2 0 0 0 0 0 2 0 1 1 1 2 2 0 0 0 0 0 0 0 3 0 0 1 1 1 0 2 0 0 0 0 2 1 1 1 1 0 0 0 0 0 0 1 0 1 2 0 1 0 1 0 1 0 0 1 1 0 0 2 0 0 0 0 1 1 1 0 1 0 0 0 1 1 0 0 1 0 0 0 0 0 2 0 0 2 3 1 1 2 0 1 2 0 0 2 0 0 1 0 2 1 1 1 0 0 1 0 2 1 1 0 1 1 1 0 1 0 1 1 0 0 0 1 0 1 1 1 2 1 2 2 2 2 1 1 2 1 0 0 1 0 2 1 0 2 1 0 0 1 1 1 0 2 2 0 2 1 0 3 1 0 0 1 1 1 0 0 1 0 1 1 0 0 1 0 1 1 1 0 0 1 0 1 0 2 0 2 0 1 2 0 1 0 0 0 0 2 2 1 0 2 1 0 1 0 0 3 2 0 2 0 0 0 1 0 0 1 0 0 1 2 1 1 1 3 0 0 0 2 1 0 1 1 0 0 0 0 1 1 0 0 0 1 1 2 0 0 0 1 0 1 1 0 1 1 0 0 0 1 1 0 2 0 1 0 2 1 1 0 1 1 0 1 1 1 2 0 0 1 0 2 0 0 0 0 1 1 1 1 0 1 0 1 2 0 1 1 1 0 0 1 0 1 1 0 0 0 1 0 1 2 2 1 2 1 1 2 2 1 1 1 0 1 1 1 0 3 0 0 0 1 1 0 1 0 2 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 1 0 0 1 0 0 1 1 1 4 0 0 1 2 0 0 1 0 1 0 0 2 1 1 1 0 1 0 0 0 0 1 1 0 0 0 1 1 0 1 2 0 1 1 2 0 0 2 0 0 1 0 2 2 0 0 1 0 1 0 1 0 0 2 0 1 2 1 0 2 0 1 0 0 0 1 1 0 2 0 0 0 0 0 0 0 0 2 1 1 0 0 0 1 1 0 2 1 0 0 0 0 0 0 0 1 1 2 0 1 1 0 0 0 1 2 0 2 1 1 1 0 0 0 1 1 0 0 0 0 3 0 0 0 1 0 0 0 1 0 1 0 0 1 0 2 0 0 0 1 0 0 1 1 1 1 2 1 3 1 0 1 1 0 2 2 1 1 1 1 0 2 1 0 1 1 0 2 1 0 0 1 0 2 0 0 0 0 1 1 1 2 3 1 0 1 1 0 1 1 1 0 0 1 1 2 1 2 0 0 2 0 0 0 2 0 0 1 0 0 1 0 1 0 2 4 2 0 2 2 0 0 0 1 0 1 1 2 1 0 1 0 0 0 1 0 2 1 0 1 1 0 0 1 0 2 1 1 0 2 1 1 0 0 1 0 2 0 1 0 1 2 0 0 1 3 0 0 1 1 2 1 2 0 3 1 1 2 0 0 1 0 1 1 1 0 0 0 1 2 0 0 0 2 0 2 0 2 0 2 1 3 1 0 1 0 1 0 1 0 0 1 1 2 1 1 0 0 1 2 0 0 2 0 0 2 1 0 1 1 0 1 0 0 1 1 0 0 1 0 1 0 2 0 1 2 1 0 2 1 1 1 2 2 0 1 0 2 0 1 0 0 0 1 0 1 1 0 0 1 1 1 0 1 1 0 1 2 0 0 0 0 2 0 3 1 1 0 0 1 1 1 2 0 0 0 1 0 0 2 1 1 1 3 0 0 1 0 0 0 0 0 0 1 1 1 0 1 1 0 0 2 1 1 0 1 0 1 0 1 0 2 1 2 2 1 0 0 0 1 1 1 0 0 2 0 0 2 0 0 0 0 0 0 0 0 0 3 0 2 0 2 1 1 0 0 1 1 1 0 1 1 2 2 1 0 0 1 3 0 1 0 0 2 1 2 1 0 2 1 1 0 1 0 1 1 1 1 0 1 1 1 1 1 2 0 1 0 1 1 0 0 0 0 0 0 0 1 0 1 2 1 2 0 0 2 0 1 2 1 0 1 2 1 0 0 0 2 0 1 1 2 0 1 1 1 0 1 1 1 2 1 1 0 2 0 0 0 1 1 0 1 1 1 0 1 1 1 2 1 0 0 1 2 2 0 1 2 1 0 0 0 0 1 1 0 1 1 0 1 0 0 0 0 2 1 1 0 0 2 3 0 2 1 0 0 0 2 0 1 1 1 0 0 0 3 1 0 1 1 2 1 0 2 1 0 2 1 0 0 0 1 1 0 1 1 2 2 1 1 0 0 0 1 0 1 3 0 0 1 1 0 1 1 1 0 0 1 1 2 2 2 0 0 0 1 2 0 3 1 0 1 0 0 1 1 2 2 1 1 1 2 0 4 2 1 0 0 2 1 0 0 0 0 1 0 0 1 0 3 0 1 1 1 0 1 0 3 1 0 0 3 0 1 1 1 1 1 0 1 0 0 0 1 1 1 0 0 1 0 0 1 1 0 0 2 0 1 0 0 2 2 0 1 2 0 2 1 0 2 0 1 2 1 1 1 1 1 0 1 3 0 0 1 0 0 2 1 1 1 3 2 0 0 1 3 1 1 0 0 1 0 3 1 1 0 0 0 1 0 1 1 2 1 0 1 0 1 0 0 1 3 0 0 3 0 0 1 0 1 0 1 0 1 1 1 0 0 2 0 1 1 0 0 0 0 0 1 1 2 1 1 2 1 0 0 1 1 1 0 0 0 1 0 1 0 1 1 1 0 1 0 0 0 1 0 1 1 0 0 0 1 2 0 0 1 1 1 0 1 0 0 0 0 1 0 1 0 0 0 1 0 1 1 0 1 1 0 0 0 1 1 1 0 0 0 0 3 0 0 0 0 0 0 2 0 3 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 2 0 0 0 1 0 1 0 1 2 1 2 0 0 2 0 1 0 0 2 2 1 0 0 0 1 1 1 1 1 1 0 0 2 1 0 0 1 2 2 2 2 1 0 3 3 0 2 1 0 0 1 0 0 1 1 1 1 0 1 0 0 2 0 2 2 1 0 1 1 1 1 0 0 0 1 3 1 0 0 2 1 0 1 0 0 2 2 1 0 1 1 0 2 3 1 0 2 2 0 1 0 1 2 0 0 2 2 4 0 1 1 2 3 0 0 1 0 1 2 0 0 2 0 1 1 0 0 1 1 2 1 1 3 1 1 2 2 0 0 1 0 1 0 0 0 0 1 3 2 3 3 0 1 1 0 0 0 0 1 1 1 0 0 1 0 0 0 1 1 0 1 0 0 0 1 0 1 0 1 1 1 1 3 0 0 1 1 1 0 0 1 1 0 2 1 1 0 1 3 2 0 0 1 2 2 1 0 1 0 1 1 0 0 1 1 0 1 0 0 1 0 2 0 1 1 2 0 0 1 1 2 1 0 1 1 2 0 1 2 2 1 1 0 1 1 0 0 1 0 0 2 0 1 2 0 2 0 2 0 0 1 1 1 0 1 3 0 0 1 0 0 2 0 1 2 2 0 0 1 1 1 2 0 1 1 0 1 1 1 0 2 1 2 2 2 1 0 0 1 1 0 0 0 2 0 1 1 1 0 0 1 0 1 0 0 1 0 0 2 1 0 0 0 1 2 0 1 0 0 0 2 0 0 0 2 1 1 0 3 2 1 0 1 2 0 3 3 0 1 0 1 0 0 3 1 1 1 1 1 0 4 0 0 1 1 0 1 0 0 0 0 1 0 0 0 0 0 1 2 1 0 2 0 1 0 2 0 0 1 0 1 1 1 1 0 1 0 0 0 0 1 2 0 1 1 2 0 1 1 2 0 0 0 1 0 2 1 1 0 2 0 0 1 0 1 1 1 0 0 1 1 1 0 0 0 1 2 2 1 0 0 0 2 0 0 2 0 1 2 1 0 2 0 0 2 1 1 1 0 0 1 1 1 1 1 1 1 1 1 1 1 0 1 0 2 0 1 0 0 0 2 0 1 0 3 1 2 2 0 1 1 3 1 3 1 1 0 1 1 0 4 0 1 0 0 0 0 0 0 1 0 1 1 0 4 4 0 3 0 1 1 2 1 2 1 0 0 2 1 0 1 1 1 3 0 2 2 1 0 0 0 1 0 2 0 0 2 0 0 1 2 0 3 0 0 0 0 0 0 1 0 0 0 1 1 1 2 0 0 1 0 0 1 1 0 1 0 0 1 2 2 1 1 0 1 1 2 1 0 0 0 0 0 1 0 2 1 2 1 0 2 1 0 1 1 0 0 1 1 2 2 0 0 2 0 2 0 2 1 2 1 0 1 1 1 2 1 0 1 1 0 1 2 2 0 1 0 0 1 1 0 1 0 0 0 1 0 0 1 0 1 1 0 2 1 0 1 2 0 1 0 0 1 1 0 1 0 1 2 1 0 2 0 0 1 0 2 0 1 2 1 0 0 1 1 1 2 1 1 0 0 0 0 0 1 0 1 0 2 0 0 0 4 2 1 1 0 1 1 1 1 1 1 0 2 0 0 0 2 0 1 1 1 0 2 0 0 0 0 2 1 2 1 1 0 0 0 1 0 0 1 1 2 0 2 2 1 2 1 0 1 2 0 1 1 0 2 0 0 0 1 2 2 0 2 0 0 1 2 0 0 1 0 1 0 2 1 0 2 1 0 0 1 1 2 0 0 2 1 1 2 1 1 0 2 0 4 1 2 0 0 1 1 1 0 0 0 1 0 0 0 1 0 0 0 0 0 2 1 0 3 2 1 0 1 0 1 0 1 2 0 2 3 0 1 1 3 1 1 0 0 1 1 0 1 1 0 0 1 1 1 3 0 0 2 2 1 1 0 1 0 0 1 0 1 0 1 0 1 1 0 1 0 0 0 1 2 1 2 0 1 0 1 1 2 1 1 2 2 0 0 0 0 2 2 0 1 2 1 2 1 1 3 0 0 0 1 3 0 1 0 1 0 1 1 0 2 1 2 0 1 2 1 1 1 1 1 1 1 0 0 0 0 2 0 2 0 0 0 0 1 0 0 1 0 1 0 0 0 2 1 1 0 0 0 0 0 0 0 0 1 3 1 0 1 1 2 0 1 0 0 0 0 1 1 1 0 2 2 1 0 0 1 1 0 1 1 0 2 1 0 1 3 3 1 0 0 1 0 0 2 2 0 1 2 1 0 2 0 1 1 0 1 3 2 0 0 1 2 1 1 1 1 1 0 2 1 2 1 0 2 2 1 1 0 1 1 1 0 0 2 0 0 0 1 0 0 1 1 1 1 2 0 0 0 0 0 3 2 0 1 0 1 1 0 1 3 1 0 0 1 0 0 1 2 0 0 1 0 1 0 1 3 1 0 0 2 2 1 0 0 1 2 0 2 0 0 2 2 0 0 0 2 0 2 0 1 0 2 1 0 0 1 0 0 3 0 1 1 1 0 1 0 0 1 0 0 0 0 0 0 1 1 2 1 1 0 0 0 2 1 1 0 1 0 0 0 2 0 1 2 1 0 2 1 0 2 1 1 1 1 1 2 0 2 2 0 2 1 1 0 0 1 0 1 0 0 1 2 1 2 0 0 1 0 2 0 0 1 1 2 1 1 1 0 0 0 1 1 2 0 0 1 1 1 2 0 2 2 3 3 0 1 0 2 2 1 1 1 1 0 1 0 0 1 1 1 2 2 1 0 1 0 2 0 0 1 0 0 1 0 0 2 0 1 0 1 1 0 2 0 0 0 1 2 1 1 0 2 0 0 0 0 0 1 1 0 2 3 0 1 1 1 0 1 0 1 1 0 0 0 2 1 1 1 1 1 0 1 2 1 1 1 0 0 1 1 1 2 2 2 0 1 1 0 1 1 2 1 1 2 0 0 1 0 1 2 1 1 2 1 1 1 0 1 2 1 0 2 1 0 1 0 1 3 3 0 0 1 0 0 2 0 0 1 0 0 0 1 0 0 0 0 0 1 2 2 1 0 0 3 0 2 0 0 2 2 1 0 1 2 0 1 0 0 0 0 0 2 0 1 1 1 1 0 1 0 1 0 0 0 0 1 2 1 2 1 0 1 1 2 1 3 1 0 1 0 0 0 0 2 0 0 1 1 2 0 0 2 0 2 0 1 1 0 1 0 0 0 0 0 0 0 2 0 1 2 1 0 1 1 0 2 1 0 0 0 0 1 0 2 1 0 0 1 1 1 0 1 1 0 0 0 0 1 0 1 0 1 0 0 1 0 0 0 0 1 0 2 0 1 1 0 0 2 0 3 2 1 0 1 0 0 0 0 1 2 0 2 0 0 1 1 0 0 1 0 0 3 0 1 0 1 2 1 0 0 2 0 2 0 3 0 0 0 0 1 0 0 0 0 2 2 2 0 1 1 0 3 0 0 0 0 0 0 1 0 1 1 1 1 0 0 0 1 3 3 0 3 1 0 2 2 1 0 1 1 1 0 0 0 0 1 2 0 1 1 1 0 0 0 1 0 0 0 1 0 1 1 0 1 1 0 2 0 1 1 1 0 0 1 1 0 0 0 0 1 3 1 1 1 0 2 1 0 2 3 1 2 0 2 0 1 1 0 0 0 1 1 2 1 1 1 2 2 1 0 1 1 0 1 0 0 1 0 0 0 1 2 1 0 0 1 2 0 1 0 0 2 2 0 1 0 1 2 1 0 3 0 0 0 1 2 0 0 0 0 0 3 0 1 0 1 0 0 1 1 0 0 0 2 0 2 0 1 0 0 1 0 0 1 1 0 0 0 0 1 1 0 1 2 2 1 2 2 2 2 1 0 3 1 2 1 1 0 1 1 2 2 2 2 2 2 1 1 0 1 0 1 0 0 1 1 1 0 0 0 0 1 1 0 0 2 1 1 0 0 0 1 0 2 1 1 1 0 0 0 0 1 0 1 1 1 1 1 1 0 0 0 1 2 1 2 1 0 1 1 0 1 0 0 0 0 1 1 1 0 0 2 2 1 0 0 2 0 1 0 2 0 0 2 0 1 0 0 0 0 2 0 1 0 2 2 1 0 0 2 1 1 1 1 1 1 0 1 1 0 0 0 0 1 0 1 2 0 3 1 2 1 1 3 1 0 0 3 0 1 1 0 1 0 0 0 0 2 1 0 1 1 0 1 0 0 0 2 1 0 0 0 0 3 1 1 1 0 2 1 2 1 0 2 1 0 2 0 1 1 0 0 1 0 0 2 2 0 2 2 0 0 1 0 1 1 1 1 0 2 0 0 0 0 1 2 1 2 2 1 1 1 0 0 1 0 1 1 1 2 1 0 0 1 1 1 0 4 1 0 0 0 2 0 2 0 0 1 1 2 0 0 0 0 0 3 1 1 0 0 2 0 0 0 1 3 0 0 0 1 0 0 1 1 1 0 2 0 0 0 0 1 1 3 2 2 2 0 1 1 3 0 3 2 2 0 1 1 0 0 2 0 2 2 0 0 1 0 0 1 0 1 1 0 1 1 1 2 4 1 2 0 1 0 0 0 1 0 0 1 1 2 1 0 0 1 0 2 0 1 0 0 0 1 0 1 0 1 0 1 0 2 1 0 1 0 2 1 1 1 0 0 0 0 2 0 0 0 1 0 2 0 0 2 1 0 0 1 0 0 0 1 2 1 1 2 1 2 1 1 0 1 0 2 1 2 0 2 2 0 1 1 2 0 1 0 0 2 1 0 0 2 0 0 1 1 0 0 0 1 1 1 0 1 2 1 0 1 0 1 0 0 1 2 0 1 1 0 0 0 1 1 2 2 2 0 2 2 0 0 0 0 2 2 0 0 0 1 0 3 1 2 2 2 1 1 1 0 0 0 2 1 0 0 0 1 1 1 0 3 1 0 0 0 1 0 2 1 1 1 1 0 0 1 0 1 0 2 0 3 1 0 0 1 1 0 0 1 1 1 1 0 1 0 1 1 0 1 1 0 0 0 1 1 1 2 0 1 1 0 1 1 3 0 0 0 2 1 0 0 0 0 0 3 0 1 1 0 1 1 1 0 0 2 0 3 0 1 2 0 1 1 1 0 0 0 0 3 1 1 1 1 0 0 0 0 1 0 1 1 1 1 0 1 0 2 1 1 0 1 0 0 1 0 1 0 0 1 0 0 0 1 0 0 1 2 1 0 1 0 0 1 0 1 1 1 0 1 1 1 2 0 2 0 1 2 1 0 1 1 1 2 1 1 0 1 0 0 0 1 0 0 1 1 0 0 1 0 2 1 1 0 0 1 0 1 1 1 2 0 1 0 1 0 1 2 1 1 1 1 1 0 1 1 0 0 0 0 0 1 2 0 1 2 0 0 0 1 2 0 2 0 0 1 0 3 1 0 1 0 1 1 3 0 2 0 0 2 0 1 0 1 1 2 1 1 0 0 0 0 0 1 2 0 2 1 0 0 1 2 2 1 0 3 0 0 1 0 0 2 1 0 1 2 0 1 0 0 3 0 0 2 1 0 1 1 0 1 1 1 0 2 1 1 0 1 0 2 1 0 0 0 0 2 1 0 0 2 1 0 2 1 0 1 1 0 0 1 1 1 0 2 1 0 0 1 0 0 0 1 1 0 1 1 3 2 0 2 1 0 0 2 0 0 0 0 0 1 0 0 1 1 2 0 1 2 1 1 1 2 2 0 0 3 0 1 2 2 0 1 1 1 1 0 1 1 0 2 1 0 1 1 0 0 1 3 1 0 1 0 1 1 0 1 1 0 0 1 1 2 1 0 1 1 0 1 2 2 3 1 2 1 2 1 0 0 0 2 1 0 0 1 1 0 1 2 1 2 1 0 2 0 0 1 2 1 1 1 1 2 0 1 0 2 0 2 0 0 1 0 1 1 1 1 0 1 4 3 2 0 2 0 0 1 0 1 1 1 0 0 0 0 0 1 1 1 0 1 0 0 0 0 1 1 1 0 0 1 2 1 2 1 1 1 1 0 0 0 1 0 1 0 2 3 1 0 1 1 1 0 1 0 0 3 0 1 1 0 3 1 0 2 0 1 2 0 1 0 0 1 1 1 1 2 1 1 1 2 2 0 1 0 1 0 1 1 2 1 0 1 0 1 1 0 0 0 1 0 1 1 0 1 0 1 0 2 2 1 1 1 0 0 0 1 2 1 1 1 1 1 1 0 2 1 0 0 0 0 0 0 0 0 1 1 0 1 1 0 1 0 2 0 0 0 3 0 0 0 1 0 0 0 0 0 0 1 0 1 1 0 1 0 0 1 0 2 0 0 2 1 0 0 1 0 0 0 2 3 1 1 1 1 1 0 0 3 1 1 0 0 0 0 1 1 0 0 2 1 0 1 2 0 2 0 0 1 1 0 0 0 0 0 0 1 0 0 1 2 0 0 0 1 0 1 0 1 1 0 1 2 0 0 2 0 1 3 1 2 1 1 1 1 0 1 0 0 0 2 0 0 1 1 1 1 1 0 0 0 1 1 1 0 1 0 0 0 0 1 0 0 1 1 0 1 1 1 2 1 1 1 1 1 0 1 1 2 0 0 1 4 0 0 1 2 0 0 1 0 2 0 0 1 1 0 2 1 1 1 2 1 2 2 1 2 0 1 0 0 0 0 1 0 3 2 0 3 2 1 0 1 1 1 2 1 0 1 1 1 0 0 1 1 2 2 0 1 1 0 0 0 2 3 2 0 1 1 1 0 1 1 0 2 0 0 0 1 1 0 0 1 2 2 0 0 0 1 0 1 1 0 1 0 0 2 0 0 1 0 0 0 0 0 0 1 2 1 2 1 1 1 1 0 1 1 1 0 1 0 1 2 1 0 0 2 2 0 1 2 2 1 1 1 1 0 0 1 0 2 1 2 1 1 2 2 1 0 1 0 0 0 0 1 2 0 1 2 2 1 0 2 0 0 0 0 0 0 2 1 1 0 1 2 1 2 1 0 0 0 0 1 1 1 0 1 0 0 0 1 0 3 1 0 0 0 1 0 1 0 1 1 1 0 1 2 0 1 1 0 0 0 0 1 0 1 1 0 2 2 0 0 0 0 2 2 1 0 0 1 1 1 0 0 2 2 1 2 1 0 0 0 0 0 2 2 1 0 0 1 1 0 2 1 2 2 2 2 1 2 0 1 0 2 0 1 1 1 0 0 0 0 1 0 0 1 1 2 0 0 0 0 0 0 0 2 0 1 0 1 1 1 0 1 1 0 1 1 0 2 0 2 0 2 1 0 0 0 0 0 1 0 0 1 2 0 1 1 0 0 1 0 0 1 3 0 0 2 0 1 2 1 0 0 0 1 0 0 1 3 1 1 0 1 1 3 1 2 1 0 1 1 2 1 0 0 1 0 1 1 0 0 2 1 0 0 0 3 1 1 2 0 0 0 0 5 3 0 2 1 5 0 1 0 2 0 1 1 1 1 0 1 1 3 1 2 3 0 0 4 2 1 1 0 1 2 0 1 1 1 1 1 2 2 1 0 1 1 0 1 0 0 0 0 0 2 0 0 1 0 0 2 0 0 0 2 1 1 1 0 0 1 2 2 0 1 0 2 1 1 0 1 0 1 0 0 0 1 3 0 0 0 1 2 0 4 2 0 1 0 1 1 2 1 1 1 1 1 3 2 0 0 1 3 1 2 0 2 2 2 1 0 0 1 1 0 0 0 2 0 2 1 2 1 0 0 1 0 0 1 1 1 0 0 0 3 4 1 0 0 1 1 2 2 0 0 1 0 1 1 0 2 2 0 2 2 2 0 0 1 1 1 2 0 1 2 4 0 1 0 0 0 1 3 0 1 2 0 1 1 2 2 2 1 1 0 2 2 0 2 1 1 1 1 0 3 0 2 2 1 0 1 0 0 1 2 0 2 0 2 0 1 1 1 0 1 3 0 0 0 2 0 2 1 0 0 3 0 0 1 0 0 0 1 1 2 0 1 2 3 2 0 2 0 0 0 2 2 0 2 0 0 1 1 1 1 0 1 0 1 1 3 3 0 1 0 2 0 2 0 0 0 2 0 2 1 2 1 3 1 0 2 1 0 1 1 0 0 1 1 0 1 1 2 0 0 0 1 0 1 0 1 1 0 2 0 0 1 0 0 1 0 0 2 0 2 0 1 0 1 1 0 1 0 0 0 1 2 2 1 0 1 0 2 0 1 0 0 0 0 1 2 0 0 0 3 1 4 1 2 0 0 1 0 2 1 1 1 1 0 1 0 1 0 0 1 1 0 1 0 1 0 0 2 1 0 1 3 4 2 1 1 1 0 0 1 0 0 4 0 1 0 1 2 2 0 1 1 0 1 1 1 0 0 2 0 1 2 1 0 1 0 1 0 0 0 0 0 1 1 1 0 2 0 1 2 1 0 2 0 1 0 0 0 1 1 2 3 0 0 3 1 2 0 1 2 0 0 0 1 1 2 0 1 1 1 2 0 1 1 2 1 1 0 0 0 2 1 1 1 1 0 0 1 1 1 2 0 3 0 0 0 1 0 0 2 0 0 0 0 0 0 0 1 1 2 3 1 1 0 2 1 2 0 1 2 0 2 1 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 3 2 2 0 1 0 1 1 2 1 0 0 0 0 1 0 2 1 0 1 2 1 1 1 2 0 1 1 0 1 0 1 0 1 1 0 0 0 1 1 2 0 1 0 2 1 1 0 1 0 1 2 1 0 0 0 2 0 2 1 0 0 1 1 0 0 0 1 0 2 1 2 0 0 0 0 0 2 0 1 1 1 1 0 1 1 1 0 1 2 0 0 1 0 1 2 2 0 0 0 1 1 2 1 1 1 0 3 2 0 0 0 0 2 1 2 0 0 1 2 2 2 1 0 1 1 0 0 1 2 1 3 1 2 0 0 0 1 0 0 0 2 0 3 1 2 1 0 0 1 1 0 1 2 1 1 1 0 0 2 2 1 1 0 1 0 0 0 3 0 0 1 0 1 2 0 1 1 2 1 1 1 0 1 2 0 0 0 0 0 2 0 0 0 0 1 0 1 2 0 1 2 0 0 0 0 1 0 0 1 3 1 1 0 1 0 1 1 0 0 0 0 1 2 2 0 1 0 2 0 1 0 0 1 1 0 0 0 2 0 3 0 0 0 1 1 0 2 0 0 2 2 0 1 0 1 1 0 4 1 0 2 1 0 0 1 0 0 1 0 0 2 1 1 1 2 1 1 2 1 1 0 0 0 0 2 0 0 2 2 0 1 2 0 0 0 0 1 1 0 1 0 0 3 0 0 1 0 0 0 1 3 0 2 0 0 1 0 0 0 1 0 0 1 0 0 1 0 4 3 1 1 1 1 1 1 0 0 0 1 0 0 0 0 0 1 1 1 0 1 3 1 1 0 3 2 2 0 0 0 1 0 0 0 2 1 1 1 0 1 1 2 0 2 0 0 1 1 0 1 0 2 0 0 1 2 1 1 0 0 0 3 2 1 2 0 1 2 1 0 0 0 0 1 1 0 1 1 1 0 0 2 1 2 3 1 1 2 0 2 1 1 0 1 0 0 1 1 4 1 0 0 1 0 1 1 0 0 0 0 3 2 1 0 1 1 1 0 0 0 2 0 0 0 1 1 0 0 0 1 0 0 0 0 0 1 1 0 2 2 1 0 0 1 2 0 0 1 1 1 1 0 1 0 0 1 3 0 1 1 2 0 0 0 1 0 1 0 0 2 2 1 0 1 1 0 1 1 1 1 1 2 0 0 1 2 1 2 0 1 0 1 1 2 1 1 1 2 1 1 0 0 0 3 1 0 1 2 0 0 1 1 0 1 2 0 2 0 2 0 1 1 1 2 0 3 1 1 2 0 1 0 1 2 0 0 0 2 1 1 2 0 1 1 0 0 0 1 1 0 0 1 1 0 1 0 3 2 1 1 1 1 1 0 0 0 1 2 0 0 0 0 1 0 1 2 0 2 0 0 2 1 0 1 1 2 0 0 0 1 0 1 0 1 1 0 1 1 3 0 1 0 1 1 0 2 2 2 0 0 2 0 0 0 0 1 0 0 1 2 1 0 2 0 2 1 0 0 0 2 0 1 2 0 1 1 2 0 0 0 1 1 0 3 1 0 0 1 2 2 0 0 1 0 0 0 0 0 1 3 0 1 1 1 1 1 1 1 0 1 0 1 2 1 2 0 0 1 0 0 0 1 1 1 0 0 0 1 0 0 0 0 1 0 1 2 0 0 2 0 2 0 0 1 1 1 0 2 0 1 0 2 0 1 2 0 1 1 1 1 1 0 1 1 0 1 0 3 4 0 2 2 1 1 0 0 0 3 0 1 2 1 0 2 0 0 1 0 0 0 0 1 2 0 0 1 0 1 1 0 4 0 0 0 3 1 0 0 1 3 0 1 0 0 0 0 2 2 1 1 1 0 0 1 0 4 0 1 1 0 1 0 0 2 1 0 1 1 1 0 0 0 0 0 2 1 1 2 3 1 2 1 1 1 0 1 1 1 1 1 1 0 2 1 1 1 1 1 1 1 1 0 1 0 0 1 0 1 1 0 0 1 1 2 0 1 1 0 1 1 0 0 2 0 1 1 1 0 0 0 1 1 1 0 0 1 0 1 0 1 0 1 0 0 0 0 2 2 0 2 2 1 1 2 1 1 0 1 0 0 2 1 0 1 2 2 0 1 0 2 0 0 1 3 0 1 1 1 3 0 0 0 0 1 1 1 0 0 1 1 3 1 1 1 0 0 0 1 1 0 1 2 1 1 0 1 1 0 1 1 2 0 1 0 0 0 3 2 2 0 0 0 0 0 0 0 0 0 0 1 1 1 2 0 1 1 2 1 0 0 1 1 1 0 2 1 0 1 1 0 0 2 0 0 0 1 0 0 1 3 0 1 1 1 0 0 2 2 2 3 1 0 1 1 1 2 1 1 1 0 1 0 2 1 0 0 2 1 0 2 0 0 0 1 1 1 0 0 1 1 1 2 1 1 0 1 1 0 0 2 0 0 0 0 1 0 2 0 0 1 0 1 0 1 2 0 1 0 1 0 1 1 1 0 0 0 0 4 1 0 0 0 0 2 0 0 0 0 1 0 2 0 1 1 1 2 0 0 0 0 0 0 0 0 0 1 0 2 1 0 1 2 0 2 2 0 0 0 0 0 0 1 2 1 1 1 1 0 0 2 1 0 0 2 0 1 0 0 0 0 0 1 2 1 0 3 1 0 1 0 0 0 0 1 2 3 1 2 1 0 1 1 0 0 3 2 2 2 0 1 0 1 1 0 0 1 1 0 1 1 2 2 2 2 1 0 1 1 2 0 1 2 1 0 1 0 0 0 0 0 1 2 1 1 1 1 3 0 1 1 0 0 0 0 0 1 1 1 0 1 1 2 1 0 1 1 0 0 0 0 0 2 1 0 1 1 2 2 1 1 0 1 1 0 0 1 0 2 1 0 0 1 0 0 0 1 0 1 1 0 0 2 0 0 1 1 0 1 0 0 1 0 0 1 1 0 1 1 1 2 0 1 2 0 0 0 0 0 2 1 0 0 2 0 1 3 0 2 0 1 2 2 0 1 0 1 2 0 0 0 1 2 2 1 1 0 1 0 1 1 1 0 0 3 1 1 0 0 1 3 0 1 1 1 1 0 1 1 0 0 1 0 0 0 1 0 1 2 3 0 1 0 1 1 0 0 0 0 0 3 1 0 2 0 3 1 2 1 1 0 1 1 1 0 0 2 1 0 0 0 1 1 2 1 0 0 0 3 0 0 0 1 1 0 2 0 1 1 1 0 1 2 1 0 3 1 0 2 0 1 1 0 0 0 0 1 1 0 0 1 1 0 2 0 1 0 1 1 1 2 0 1 3 2 2 2 0 1 2 1 0 0 1 1 2 2 1 0 0 2 0 2 2 5 1 1 0 0 0 0 1 1 2 0 0 0 0 0 1 1 0 0 2 1 0 0 2 1 1 0 2 1 1 2 1 1 1 0 2 0 0 0 2 0 1 0 0 1 0 0 0 2 0 0 2 1 1 1 1 0 2 0 0 1 0 1 0 0 2 0 2 1 1 1 2 1 0 0 1 1 1 2 1 0 1 0 0 0 0 0 2 0 0 0 0 0 0 1 1 1 1 1 2 0 2 0 0 1 2 3 0 1 0 1 0 0 1 1 1 1 0 0 1 1 1 0 0 2 2 0 1 2 0 0 0 2 1 0 1 0 0 2 1 0 1 2 2 0 3 3 0 1 1 1 2 0 1 0 1 2 1 2 0 0 0 2 0 1 0 0 2 1 0 0 1 1 0 0 1 1 1 0 0 1 0 1 1 0 2 3 0 1 0 0 0 1 2 1 2 0 2 1 1 0 0 0 1 0 0 2 1 0 3 1 2 0 0 2 0 0 0 0 0 0 1 0 0 2 0 1 0 2 0 0 0 0 1 2 2 1 0 0 4 2 0 2 1 3 1 0 1 2 1 2 1 0 0 0 0 1 1 0 0 0 1 1 1 2 0 1 1 2 0 1 0 2 0 0 0 0 2 0 1 1 1 1 0 1 0 1 0 0 1 0 0 1 0 1 1 1 1 0 0 0 0 1 2 1 0 0 2 0 0 0 0 0 0 0 0 0 1 1 1 0 1 1 0 1 0 2 0 1 1 1 0 1 1 1 0 0 2 2 1 1 1 2 2 0 0 0 0 0 0 1 0 1 1 3 1 1 0 2 0 1 1 0 2 1 1 1 0 0 0 1 1 3 1 1 0 3 1 1 1 1 2 0 0 1 1 2 0 1 2 2 0 1 1 0 2 1 0 2 0 3 1 0 0 0 1 1 0 0 0 0 1 1 0 0 2 0 2 0 1 1 0 1 1 2 0 3 1 0 2 0 0 0 0 1 0 2 2 0 0 0 1 0 0 0 0 0 1 0 1 0 1 2 0 1 0 2 2 1 1 1 1 0 0 0 1 1 0 0 0 3 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 2 2 0 1 2 0 0 0 1 0 1 0 0 0 2 1 0 0 3 0 1 3 0 1 1 0 2 1 1 1 1 0 2 1 0 1 0 0 0 0 3 1 0 0 2 3 1 1 1 1 2 1 0 0 1 0 0 1 1 1 0 3 0 1 0 2 0 2 0 0 2 1 1 2 0 1 0 1 1 2 1 0 0 0 0 0 0 0 1 1 0 2 1 0 1 2 2 1 0 1 0 1 2 0 0 1 2 0 1 0 0 1 1 0 1 0 0 0 0 2 1 0 1 0 0 0 2 1 0 1 0 0 2 0 1 2 1 1 0 1 1 0 1 1 2 4 2 0 2 2 2 0 1 2 0 1 0 0 1 1 3 1 2 1 1 0 1 0 0 2 0 2 1 1 0 1 0 1 2 1 1 0 0 1 0 0 1 0 0 0 0 1 0 1 1 2 1 1 0 1 1 0 0 0 0 0 2 0 1 0 2 2 0 2 0 0 1 0 0 1 0 1 0 0 0 1 0 1 0 1 1 1 1 1 1 1 2 1 0 1 1 0 2 1 1 0 2 2 1 2 0 0 0 0 0 1 0 2 2 0 0 1 2 0 1 1 1 0 2 1 2 0 2 4 1 0 0 0 2 0 0 0 1 3 0 1 1 1 1 1 1 3 0 0 2 0 0 0 0 0 0 0 2 0 1 0 2 1 0 0 0 1 1 1 0 0 1 0 0 0 0 1 2 1 2 2 0 1 0 0 0 1 0 1 0 1 0 0 1 1 0 0 2 1 2 0 0 1 1 0 1 1 0 2 2 1 2 0 0 1 0 0 0 0 1 0 0 0 2 1 0 1 0 1 2 0 1 1 1 2 0 1 1 0 1 0 2 0 0 1 4 0 1 0 1 0 2 0 0 1 1 0 2 1 1 0 1 0 1 0 1 1 3 0 0 1 1 0 1 1 1 1 0 0 1 0 1 0 0 1 1 1 0 1 1 0 1 0 2 1 2 1 0 0 2 0 3 0 1 2 3 0 0 2 0 0 1 2 0 0 4 1 0 0 1 1 1 1 0 0 1 0 1 1 0 0 0 0 0 2 1 1 0 0 2 0 0 1 1 4 0 1 0 1 1 0 1 1 1 1 1 2 1 2 3 0 0 2 0 1 0 0 0 0 2 1 4 2 2 0 0 0 1 1 0 1 0 0 2 1 0 1 0 1 0 1 1 0 0 2 1 0 2 1 0 0 0 1 1 0 0 1 1 1 0 0 1 1 0 0 0 1 1 3 1 2 0 0 0 0 0 1 1 1 0 2 0 1 0 0 2 0 2 2 1 1 1 0 0 1 0 2 0 2 0 1 0 0 1 0 1 2 1 1 0 0 1 0 1 0 1 1 0 1 1 0 1 0 2 1 2 0 2 0 1 1 1 1 0 0 2 1 1 1 0 1 4 0 0 0 2 0 1 1 0 1 1 1 0 0 1 2 1 1 0 1 0 0 1 2 0 3 1 1 1 1 1 0 1 0 0 0 0 1 1 1 2 2 1 0 0 0 1 0 0 0 0 2 1 0 0 1 0 3 1 0 2 2 1 0 1 0 1 1 2 0 1 0 1 2 0 1 0 1 2 1 0 1 0 1 0 0 0 0 1 1 0 0 1 1 0 1 2 0 2 2 0 0 0 0 0 2 1 0 0 2 1 0 1 1 1 0 0 1 2 1 2 0 0 1 2 2 1 0 1 0 1 1 1 1 1 2 3 1 0 0 0 1 2 1 1 0 0 0 1 1 2 0 0 2 0 1 1 1 0 2 0 0 0 2 0 0 1 2 0 0 2 0 1 0 1 2 0 2 0 0 1 0 0 0 0 0 2 0 2 2 1 2 1 0 0 0 1 2 4 0 1 0 1 0 1 1 0 1 2 4 0 0 1 0 1 0 0 1 1 3 0 1 1 0 0 1 0 1 0 0 1 1 1 2 0 1 1 1 0 0 2 0 0 0 0 2 0 0 1 1 1 1 2 0 0 0 0 0 0 1 0 2 1 1 0 0 1 0 2 0 2 0 1 0 1 1 1 0 1 0 0 1 0 2 1 0 0 0 1 0 0 1 1 0 1 2 1 0 1 1 2 0 0 1 2 1 2 2 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 1 1 2 2 0 0 2 0 2 0 1 1 0 0 0 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 0 0 0 0 3 1 1 0 2 1 1 0 1 2 1 1 0 2 0 0 0 0 3 0 1 0 1 1 1 0 0 0 0 0 0 1 2 1 1 0 1 1 2 0 0 1 1 0 0 0 2 1 1 1 1 1 1 0 1 1 1 0 0 1 0 0 1 0 1 0 0 0 0 1 1 0 0 1 1 0 0 1 0 0 0 1 0 1 1 1 0 0 0 0 0 0 1 1 0 1 1 1 0 0 0 2 1 1 0 1 1 2 1 0 0 2 0 1 0 0 2 1 1 1 0 0 1 0 0 0 0 3 1 1 1 1 0 2 0 3 0 3 0 0 0 2 0 0 1 0 0 0 0 2 1 0 0 1 1 4 2 0 2 1 1 0 1 0 1 0 2 1 1 0 1 2 2 0 1 0 2 0 2 0 2 1 1 1 0 1 0 1 2 2 0 0 1 1 2 0 0 1 0 0 2 1 0 1 1 0 1 1 2 2 0 0 1 0 1 2 0 0 1 1 1 1 0 0 0 0 0 0 1 0 0 0 1 0 2 0 1 0 1 1 0 1 0 0 0 0 0 0 1 0 0 2 0 0 1 0 0 0 0 0 3 0 0 1 1 0 1 1 2 2 1 1 0 0 1 1 2 1 0 1 0 0 0 1 0 0 0 1 3 1 1 1 0 1 0 1 0 1 2 1 1 1 2 0 0 0 1 1 2 2 1 0 1 0 1 1 0 2 0 0 1 1 2 3 0 1 0 1 0 0 3 1 0 0 1 0 0 1 1 1 1 0 0 0 0 1 0 1 2 3 1 1 1 0 1 1 0 0 0 1 2 2 1 2 2 1 0 2 0 2 0 2 0 2 2 0 0 0 1 0 0 0 0 0 3 0 0 2 3 2 0 0 2 0 0 2 0 0 1 0 0 2 1 0 1 3 0 1 1 1 1 0 0 0 1 2 0 0 1 2 0 3 0 0 1 0 1 1 1 0 0 1 1 2 1 2 0 1 0 2 0 2 0 1 0 2 0 0 4 0 0 1 1 2 2 1 0 0 0 1 1 3 0 1 1 1 0 4 1 1 0 0 1 0 1 1 1 0 0 1 1 0 1 1 0 2 2 0 0 1 2 1 2 0 2 1 1 0 1 1 1 0 0 1 0 1 0 0 0 0 0 1 0 2 0 0 0 2 1 0 0 1 1 2 1 0 1 0 0 1 1 1 1 1 2 0 2 1 2 1 0 0 1 0 2 1 0 1 1 0 1 0 0 0 0 1 1 0 1 2 1 1 1 0 1 0 2 1 0 1 3 2 0 0 2 1 0 0 2 0 0 0 1 0 0 1 1 1 1 1 0 1 0 0 0 0 1 2 1 1 0 0 1 0 1 1 2 0 2 1 1 0 2 0 1 2 1 1 1 1 0 2 0 1 1 0 0 0 2 2 3 0 1 0 1 1 0 1 1 0 2 0 0 1 1 2 0 0 0 0 0 0 0 0 1 2 1 1 1 0 1 3 1 0 0 2 1 2 1 2 0 0 1 1 1 1 0 0 3 0 1 1 1 0 2 0 0 1 0 0 1 1 2 1 2 0 1 0 1 0 1 2 2 1 0 1 1 0 0 0 0 1 0 1 0 1 2 1 3 0 2 0 0 0 0 1 1 0 0 0 0 2 2 1 0 1 1 1 0 0 0 0 1 0 0 0 0 1 0 2 0 2 0 0 0 0 1 0 1 1 0 1 0 0 1 0 1 2 1 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 1 0 0 2 1 0 3 0 0 2 1 1 0 0 0 0 0 0 2 1 0 0 1 1 3 0 1 0 1 1 1 1 1 0 0 0 0 1 2 1 1 0 0 1 2 2 1 0 4 1 3 0 1 1 1 0 1 0 1 0 1 3 0 2 2 0 1 0 0 1 1 0 0 0 3 0 0 2 0 2 1 0 1 1 1 1 3 0 1 0 2 0 4 2 0 0 1 0 0 2 1 0 0 0 2 0 0 0 1 1 0 0 0 0 1 1 0 1 2 1 2 1 0 0 0 0 0 2 0 1 1 3 0 1 1 1 1 0 1 1 0 0 1 0 0 2 2 2 1 1 0 2 0 1 1 0 1 1 2 1 0 1 3 1 0 0 0 0 1 1 2 0 0 0 3 1 0 1 1 2</t>
   </si>
   <si>
     <t>Name</t>
@@ -270,52 +270,52 @@
     <t>R.Patterson</t>
   </si>
   <si>
-    <t>JSB(2.1881252821776087, 2.955670944131601, -16.263604896314817, 100.6357492496883)</t>
-  </si>
-  <si>
-    <t>18 20 13 24 27 6 10 7 3 21 21 13 7 16 20 20 14 26 20 10 24 19 3 17 23 24 9 10 13 10 30 23 9 10 12 28 13 23 14 0 16 20 27 3 24 27 17 21 28 7 24 20 6 18 7 9 18 19 5 17 6 7 17 14 19 14 22 17 16 17 14 20 16 10 23 31 18 12 3 10 22 3 13 12 10 17 3 20 6 17 7 14 7 16 24 19 24 20 13 23 23 14 26 20 9 14 22 13 19 27 27 17 14 17 29 16 16 20 16 21 24 26 16 21 17 17 10 20 17 17 13 13 27 30 14 13 24 23 14 14 35 10 13 17 10 13 24 16 9 23 16 10 6 24 7 10 23 13 27 9 14 9 26 7 16 46 27 13 6 17 13 20 9 6 20 16 14 21 17 9 16 10 9 20 10 19 12 27 3 13 9 17 20 21 11 6 16 27 7 12 3 17 17 20 20 6 13 10 17 17 5 20 19 6 3 14 7 3 6 19 14 23 28 20 42 14 10 16 16 16 24 3 31 19 10 17 17 12 14 19 20 38 30 26 10 14 27 6 20 13 9 17 17 7 8 10 17 6 23 3 23 24 31 27 13 36 38 26 27 13 17 27 20 27 10 45 20 16 18 10 7 13 3 13 27 13 28 20 16 9 13 20 13 17 26 0 20 17 12 9 28 19 19 16 31 27 17 35 17 17 13 9 15 12 7 20 24 19 27 17 12 3 20 3 18 27 6 14 10 16 17 6 10 3 28 13 7 23 16 13 20 13 14 10 27 29 17 17 27 3 17 20 23 10 14 16 17 17 12 6 24 3 13 20 13 24 17 24 16 16 20 13 33 13 24 17 17 20 10 23 18 10 34 30 11 17 28 7 26 16 19 10 6 21 16 17 25 13 7 13 23 19 21 10 19 10 13 17 28 14 11 10 14 10 16 20 19 17 18 13 28 21 16 10 24 15 13 24 7 16 10 28 13 16 34 30 23 23 13 24 16 17 3 24 10 3 19 14 11 9 15 20 20 14 41 19 19 13 16 17 9 13 24 10 10 20 10 6 13 14 13 7 10 21 20 21 3 25 24 16 20 10 16 14 7 23 7 17 17 6 16 31 3 17 3 6 19 7 7 24 24 17 16 10 26 23 13 24 31 26 20 20 12 25 9 14 28 20 16 28 10 14 10 17 23 13 17 9 10 27 6 13 13 24 6 24 31 20 25 7 29 16 19 3 13 16 16 23 24 13 19 6 13 13 7 23 13 16 15 16 16 20 13 10 16 15 17 17 6 31 21 31 13 13 21 6 14 28 24 21 14 27 24 21 20 17 12 17 27 6 37 7 12 16 27 10 17 3 23 24 9 17 3 20 20 7 10 0 3 24 17 7 10 27 16 7 30 6 11 20 21 14 19 24 19 7 21 21 27 9 14 27 20 24 28 14 26 21 19 13 24 17 23 6 17 9 14 32 35 32 24 17 21 15 23 13 28 10 19 12 17 3 25 10 23 17 14 10 14 6 12 23 14 17 22 13 6 20 23 28 10 3 13 13 17 24 6 6 21 16 27 16 6 10 30 23 16 23 16 22 19 12 7 28 13 10 16 21 20 18 13 20 23 7 14 3 17 3 27 13 10 17 20 16 23 20 31 3 6 10 31 17 30 6 20 10 23 16 21 10 10 24 6 12 24 19 20 20 24 13 23 19 30 12 20 11 7 32 16 20 17 26 20 21 28 13 14 7 13 17 9 34 22 17 29 7 3 7 13 16 24 17 13 14 16 23 15 28 17 16 8 17 17 13 10 23 21 3 33 20 30 20 23 10 17 3 17 3 28 29 10 20 24 13 14 0 20 20 24 7 10 10 20 27 3 16 3 20 35 16 24 10 10 12 24 17 17 13 14 18 23 9 17 16 20 13 30 17 13 21 23 13 12 19 13 21 24 27 20 6 19 13 27 20 0 16 26 17 22 3 14 8 20 20 12 16 23 13 14 23 13 21 13 10 14 20 13 31 23 14 20 13 10 23 3 20 13 17 20 0 20 3 17 28 13 9 10 10 30 17 10 13 22 12 12 24 0 20 24 9 37 27 17 26 17 24 13 16 13 3 21 13 12 10 22 0 6 16 20 21 23 18 20 14 12 24 13 27 23 13 14 14 20 7 15 7 20 31 20 20 20 20 23 13 13 27 16 27 19 16 24 12 14 17 7 13 17 15 25 25 13 24 3 17 16 20 3 10 13 20 23 18 9 10 18 30 20 2 16 14 24 10 11 16 23 12 9 9 13 24 24 16 9 6 27 0 24 20 17 17 20 13 23 18 24 24 27 24 20 30 13 6 10 13 21 20 20 14 21 19 17 24 7 17 9 17 3 7 20 6 20 19 16 28 25 17 22 21 19 7 16 17 9 7 27 13 33 17 10 13 18 17 9 26 19 0 17 13 7 19 23 16 20 34 13 24 13 23 17 6 9 23 24 24 27 17 10 20 10 10 17 7 21 9 13 10 10 14 27 16 16 16 17 19 10 17 19 21 7 9 24 13 14 7 20 19 45 13 16 15 17 26 12 17 20 17 20 12 31 13 17 23 6 25 16 17 18 6 10 24 10 17 16 15 17 17 10 27 7 16 10 20 9 17 20 20 28 17 3 21 7 15 14 10 30 20 10 10 16 10 16 34 17 19 27 17 3 10 20 14 16 23 20 16 14 27 17 17 14 14 10 17 19 31 13 12 14 12 24 11 6 10 17 6 11 13 17 10 17 13 10 21 17 6 7 3 12 17 14 21 7 17 12 17 27 13 20 20 15 24 10 11 27 23 17 23 21 3 21 19 21 13 19 16 31 10 28 18 13 20 13 17 23 24 17 16 23 24 24 28 9 23 10 25 3 13 16 7 15 30 27 12 9 28 6 23 6 13 27 3 24 11 17 17 6 28 10 27 3 23 18 13 21 19 20 6 20 13 10 17 3 16 9 9 9 6 23 6 23 14 17 3 27 18 13 20 10 10 6 12 13 7 14 16 16 7 24 13 10 9 22 17 10 23 21 16 24 6 7 9 13 19 19 27 17 14 6 20 10 12 19 19 22 18 10 24 10 30 10 23 18 10 27 10 22 17 31 28 22 13 16 19 14 23 9 6 41 13 13 23 17 13 9 9 13 10 0 20 6 17 33 13 20 6 10 14 17 17 3 18 10 7 14 24 21 31 23 31 3 16 13 13 14 27 9 9 13 20 16 16 13 16 10 7 7 17 14 17 22 21 17 16 13 38 14 17 17 17 14 16 12 16 17 17 17 7 20 27 13 13 10 22 20 20 9 14 22 23 17 6 21 3 14 16 13 14 9 6 26 13 15 21 9 20 17 9 19 3 20 13 16 6 28 23 10 14 3 16 24 24 9 16 14 10 21 6 16 23 17 23 23 9 24 21 17 18 6 28 35 12 7 23 13 9 21 16 19 9 20 10 28 12 24 20 17 14 7 31 6 20 19 6 13 10 20 17 20 16 24 21 16 34 17 13 13 23 20 17 24 17 6 16 14 27 14 27 7 9 10 22 19 24 23 17 20 14 19 13 10 16 17 19 21 11 17 14 17 20 10 16 6 23 23 17 10 8 17 20 0 7 24 13 17 19 6 17 16 27 23 24 20 24 10 13 13 14 26 20 19 23 13 17 14 12 10 12 16 13 19 20 17 28 10 6 14 25 17 6 10 14 10 17 10 14 9 13 30 14 12 13 31 14 10 10 25 31 7 6 14 9 21 13 10 18 18 9 21 28 20 14 13 20 13 24 18 13 13 29 7 13 23 30 10 3 10 20 21 9 20 3 16 14 0 23 31 20 10 7 9 10 10 6 20 22 26 23 17 28 17 7 23 14 13 14 14 17 14 20 16 21 12 3 20 9 13 21 12 14 17 24 13 31 17 9 8 17 20 20 14 23 20 20 14 10 24 23 13 31 10 20 6 27 26 23 30 10 20 3 6 20 9 17 14 3 17 14 14 22 10 6 16 13 10 9 6 7 41 27 20 13 13 12 21 18 9 19 20 13 7 13 6 16 24 9 23 15 28 22 13 9 13 19 12 17 13 21 12 17 23 17 9 21 20 10 20 17 10 6 6 24 16 17 9 24 28 27 24 3 23 18 17 20 20 27 20 24 28 16 20 20 13 27 17 13 17 20 21 13 27 19 28 13 24 24 31 38 7 47 3 14 21 24 19 14 21 17 12 18 20 23 3 14 16 13 10 18 20 17 31 23 17 13 14 27 13 17 15 21 10 16 10 17 21 12 24 23 17 14 18 17 17 26 15 14 10 10 16 10 14 17 20 0 16 22 21 28 18 17 17 14 10 10 16 16 7 17 24 16 6 20 20 21 12 23 24 27 12 13 17 10 27 29 22 14 30 23 3 31 3 24 24 10 17 26 13 20 6 9 20 8 26 16 16 9 12 31 14 21 3 10 10 16 14 3 21 19 17 13 11 18 17 6 3 14 24 14 10 6 13 10 0 16 13 17 6 12 22 20 10 17 27 16 20 20 10 10 7 24 27 14 30 16 20 7 10 14 10 24 10 19 12 21 14 11 30 21 19 31 24 24 30 13 29 14 30 6 16 23 3 34 20 19 25 10 27 20 11 12 29 13 20 16 10 20 12 6 16 3 14 7 10 18 7 17 10 13 41 10 12 24 9 13 19 24 32 20 24 25 18 27 9 13 16 21 20 23 22 15 34 16 24 10 6 24 25 23 27 20 13 20 6 22 17 17 14 9 13 13 17 31 18 21 17 13 24 16 13 15 16 13 21 20 13 17 13 20 17 16 15 10 16 31 17 23 9 23 24 3 10 3 29 40 17 18 10 0 23 12 26 15 20 13 22 24 17 20 14 6 13 13 0 14 12 10 13 9 17 13 6 17 34 9 12 0 13 10 9 16 20 25 25 13 15 28 9 17 17 23 28 6 23 7 25 23 17 16 30 20 14 0 20 10 31 13 16 6 20 20 22 16 8 16 16 14 13 9 17 17 12 23 13 12 7 15 3 24 24 26 19 14 3 38 3 35 24 14 23 24 7 9 13 12 16 3 8 17 21 16 13 20 10 27 16 15 19 16 20 15 28 23 17 27 11 6 10 23 13 3 12 27 25 10 20 27 3 3 21 35 21 23 12 12 12 20 26 14 19 20 14 10 17 14 12 24 17 9 26 24 9 7 22 24 20 28 26 31 19 17 9 9 24 22 27 11 21 3 31 14 10 23 27 14 24 13 20 21 13 14 16 21 17 13 6 23 17 17 17 14 16 10 13 13 23 16 20 16 18 17 27 13 10 0 14 13 18 20 17 21 16 9 15 24 17 10 7 6 31 17 15 10 13 23 10 7 23 13 23 10 10 3 16 24 20 16 22 20 7 7 6 11 21 13 28 34 20 7 16 10 8 12 9 22 16 27 23 10 20 9 13 24 3 13 18 7 19 13 21 14 6 23 20 10 16 13 14 10 13 13 10 16 23 28 10 9 27 16 24 35 16 27 24 12 13 10 16 10 10 20 16 13 6 13 13 10 13 31 10 8 16 41 20 23 15 20 13 23 9 17 17 34 8 20 21 16 30 13 20 19 16 19 27 14 16 7 27 16 9 3 20 19 21 13 24 26 10 14 17 14 30 15 21 10 24 20 15 27 16 13 19 6 16 9 13 23 17 30 17 25 13 10 26 14 10 10 19 24 22 17 10 7 23 24 16 20 21 19 24 10 24 20 17 3 31 6 11 6 10 12 17 3 19 14 33 17 24 7 18 27 13 23 33 24 10 17 13 20 9 13 13 3 9 15 20 6 23 9 17 27 20 17 14 10 20 10 17 13 17 9 25 20 17 12 19 24 7 14 17 16 30 28 27 13 16 21 9 20 14 21 17 20 13 3 24 14 16 6 16 16 0 16 10 17 10 21 23 20 24 16 17 13 19 13 14 17 17 28 3 13 6 20 33 13 16 16 28 7 9 12 27 27 20 18 13 31 31 13 20 10 29 7 9 21 29 28 33 3 16 20 36 27 13 12 15 26 17 19 27 13 13 15 30 6 33 24 16 13 13 11 13 17 26 17 7 33 10 34 27 13 10 10 24 31 17 12 16 3 10 24 17 15 26 8 16 13 10 28 20 14 20 6 24 13 15 6 20 24 20 35 17 20 17 17 7 8 14 29 37 10 32 25 23 31 19 28 13 13 12 14 21 17 16 23 22 13 16 6 17 10 16 16 17 21 21 10 17 7 15 23 14 15 19 20 16 23 26 20 20 7 24 19 21 13 22 33 13 16 21 14 3 17 23 6 19 17 7 13 23 15 23 10 30 23 17 16 13 28 6 20 26 7 12 17 16 12 24 31 17 13 20 20 19 10 20 23 10 14 17 17 13 3 17 27 11 27 17 10 10 24 17 24 13 15 16 15 21 11 28 6 26 27 21 24 19 23 17 18 19 13 23 24 17 17 23 12 24 13 26 13 14 18 19 21 23 21 10 10 7 13 33 23 21 20 14 10 7 7 10 0 19 19 14 3 23 20 20 17 10 10 24 9 20 17 24 21 15 30 3 13 10 24 23 16 0 26 12 20 28 10 13 13 20 9 30 17 28 23 10 24 30 20 6 10 7 24 6 17 13 10 24 13 7 10 20 24 13 14 16 17 3 3 28 14 10 28 6 16 13 17 11 22 17 20 16 14 9 7 10 13 10 6 23 14 11 23 10 19 19 23 21 27 23 21 24 21 6 15 7 20 19 26 15 12 6 0 17 21 41 21 3 17 20 24 20 17 23 13 10 13 14 16 14 27 13 19 20 21 14 13 12 30 9 10 13 13 28 17 17 14 16 12 16 19 10 7 27 17 28 6 9 18 20 7 14 17 29 0 16 24 16 6 23 22 19 17 12 20 15 20 13 23 17 17 20 20 5 14 17 19 13 10 22 24 10 31 17 20 6 21 14 19 24 15 10 15 19 20 35 7 17 25 24 20 7 31 31 7 28 10 24 35 12 19 6 16 14 16 12 22 20 12 7 10 18 13 15 23 14 10 15 9 17 17 3 16 17 23 10 14 13 20 17 10 23 16 35 34 14 16 17 16 9 13 31 24 12 14 9 20 9 19 27 16 19 17 18 13 8 26 16 10 17 16 10 6 23 17 21 17 25 3 10 7 17 23 7 7 15 16 17 10 17 6 14 22 28 16 15 12 10 19 23 16 3 22 14 9 21 17 25 13 15 3 16 7 23 24 10 10 26 12 23 6 17 21 26 17 6 7 14 23 27 21 23 19 27 27 9 10 20 26 19 21 5 13 12 13 23 21 12 30 9 9 10 31 16 18 13 7 9 11 23 14 26 10 14 22 21 23 16 17 17 23 10 9 17 22 24 6 17 20 13 24 13 6 34 6 27 20 13 29 16 20 16 9 15 14 21 3 20 24 11 6 9 16 20 13 16 26 20 6 20 7 6 23 13 13 25 22 21 13 14 20 6 13 15 13 16 14 32 20 22 10 10 24 24 13 20 7 9 14 14 14 14 38 24 25 10 17 10 7 6 13 6 7 10 6 22 18 28 0 20 19 15 20 31 13 13 14 23 26 17 22 13 7 24 24 16 17 27 12 13 24 21 10 13 14 13 3 3 38 9 24 26 20 23 19 14 17 20 3 10 7 16 22 23 28 6 13 13 10 23 14 24 24 17 28 13 8 28 19 19 15 24 7 7 24 23 9 24 17 16 9 30 13 9 23 13 20 22 13 17 23 21 6 30 17 20 9 20 24 10 6 27 10 20 16 19 21 31 21 14 15 10 6 10 10 20 15 9 23 20 27 12 13 6 9 20 24 30 21 17 16 31 20 17 19 20 7 16 6 9 17 19 9 21 15 10 12 17 13 14 17 13 12 10 6 20 20 20 21 28 3 6 12 28 16 10 20 17 24 16 6 31 20 21 27 20 31 16 17 15 7 45 6 17 22 23 13 14 27 17 13 14 9 13 16 6 7 10 19 17 17 16 16 13 19 17 40 14 16 7 22 31 28 24 9 12 17 9 19 17 24 19 24 31 10 13 15 9 13 12 23 10 17 14 10 17 19 9 13 13 10 12 9 24 22 19 10 29 10 7 14 21 16 10 26 16 7 17 20 13 14 24 16 13 10 31 17 14 24 27 16 6 10 28 30 20 14 14 18 23 9 31 17 10 24 19 13 6 13 24 16 21 23 14 10 10 20 20 10 0 17 6 17 13 15 9 21 13 10 10 16 21 19 17 8 27 9 15 34 7 21 12 20 7 14 10 9 9 28 27 28 7 11 26 10 14 27 19 10 13 13 10 10 10 16 14 13 19 10 18 3 21 6 16 16 6 19 10 22 14 17 24 17 13 35 6 17 16 13 6 11 20 20 27 17 12 10 21 10 18 19 10 14 27 3 6 19 10 21 20 19 25 27 17 27 23 19 14 16 3 28 20 19 34 17 17 11 19 23 11 7 10 30 16 16 25 17 13 10 3 17 40 23 22 7 23 20 28 17 27 17 6 24 29 18 17 14 0 31 24 9 20 13 19 16 10 15 24 17 23 13 6 3 31 15 17 20 13 23 30 13 23 34 8 30 13 12 21 16 16 13 26 19 19 23 10 14 20 16 12 7 20 20 28 16 28 7 13 27 13 13 28 20 17 13 7 28 24 19 17 23 17 13 16 23 24 10 16 20 17 37 14 16 12 10 3 24 13 18 10 3 27 15 21 19 26 21 23 10 24 6 17 17 10 9 9 16 21 24 13 3 10 26 16 23 14 13 14 24 14 24 31 24 21 10 3 17 26 23 13 6 27 3 20 20 10 14 14 12 17 6 38 17 10 6 20 19 31 27 17 10 23 14 13 23 23 13 22 16 21 13 19 20 20 13 17 15 14 10 11 23 17 16 17 23 19 20 25 27 3 24 16 19 37 14 9 21 17 9 13 12 24 14 21 10 20 21 6 10 13 23 16 16 31 21 13 3 11 14 13 21 13 21 26 23 9 13 27 17 24 10 23 12 7 17 27 17 7 22 14 6 13 21 19 14 14 13 20 16 23 16 14 9 17 6 12 17 14 16 17 17 22 12 16 21 17 6 15 14 9 21 6 7 13 24 3 34 20 10 6 6 24 9 10 20 6 23 14 16 9 13 7 10 10 22 23 23 27 31 19 10 6 10 20 14 19 10 16 22 16 3 16 7 18 31 23 14 9 19 19 13 16 13 13 27 17 10 14 18 34 3 13 19 24 18 28 10 9 17 31 20 12 13 14 21 7 7 20 17 10 14 9 34 13 28 17 3 13 24 22 3 16 3 16 47 17 27 13 23 18 24 13 30 20 34 24 13 16 23 24 24 30 34 19 10 30 6 10 18 10 10 31 23 13 16 19 21 7 17 20 9 20 16 24 29 17 28 17 17 23 23 25 10 13 16 13 24 20 20 20 24 27 13 34 18 24 26 7 13 20 7 9 9 23 21 17 20 10 19 29 16 3 20 26 20 13 6 21 12 20 13 16 17 24 12 27 24 20 27 23 26 7 17 30 6 17 23 3 24 15 10 24 17 3 20 9 10 13 13 24 19 17 19 6 10 30 14 16 3 20 23 20 27 6 16 38 15 16 14 17 27 14 6 20 17 10 20 3 14 23 17 17 23 17 16 16 13 17 24 17 24 9 17 32 9 17 6 13 3 28 12 7 17 23 20 17 13 23 13 20 13 9 23 24 10 21 17 16 15 24 24 24 0 23 37 22 9 17 15 42 7 13 27 14 28 24 20 17 13 23 10 13 10 28 13 10 3 12 15 16 26 10 23 28 20 20 24 11 7 21 19 30 22 7 20 14 9 13 6 10 6 17 7 17 16 17 14 28 22 12 10 14 3 24 19 27 10 14 23 12 7 7 10 31 16 18 8 13 14 17 13 20 13 23 13 28 20 17 10 24 23 9 10 14 24 14 13 26 17 27 16 14 13 15 24 9 15 21 17 14 6 28 14 13 13 24 10 16 13 12 18 33 6 22 29 10 12 13 17 27 28 16 21 24 24 16 6 10 20 7 29 13 17 14 19 7 17 13 21 20 17 3 33 19 21 20 20 21 15 16 0 10 3 10 6 20 23 24 3 23 20 12 16 6 9 9 13 12 13 14 19 17 6 7 20 21 20 17 13 23 30 6 7 17 23 19 17 10 24 20 17 20 37 3 18 10 27 16 20 24 17 14 20 14 13 10 6 3 14 20 10 14 10 27 20 15 17 10 15 20 19 3 35 32 21 21 27 3 24 27 24 9 6 3 6 17 13 28 23 19 7 20 13 20 23 6 10 17 10 7 21 28 22 10 24 13 20 10 24 20 7 37 10 14 19 10 38 19 16 18 13 23 17 20 7 24 10 24 13 21 13 6 19 21 9 3 3 23 21 17 12 24 21 27 5 6 12 21 6 17 19 28 17 10 23 23 24 6 16 16 23 22 27 21 20 9 27 17 17 27 6 23 17 33 17 17 10 3 7 14 20 20 3 24 17 14 17 10 24 29 24 19 10 13 10 21 34 12 17 25 17 24 12 6 30 7 28 24 24 17 7 7 20 20 14 27 13 7 24 29 23 19 24 10 6 11 6 20 21 17 20 20 10 31 29 23 17 20 20 19 17 24 6 20 34 13 19 16 20 7 26 10 15 23 16 13 20 13 13 16 7 34 8 17 14 19 34 15 9 21 10 9 24 21 10 21 24 6 20 6 10 30 20 13 14 10 6 26 23 15 19 10 31 3 16 17 24 17 14 20 22 21 27 16 16 10 20 24 23 14 13 20 16 14 3 16 19 10 20 20 27 13 17 9 29 31 34 17 23 7 19 25 12 27 24 14 13 13 17 17 23 10 16 13 15 20 17 13 12 27 13 28 10 17 20 23 12 12 34 13 13 17 20 0 18 20 7 14 6 9 7 20 20 23 15 13 9 15 20 10 26 17 26 23 15 17 13 6 24 13 13 31 24 16 12 6 12 36 14 14 14 17 13 16 17 17 24 7 20 16 10 17 19 14 20 23 21 7 9 41 30 3 12 14 13 20 24 17 28 17 22 17 21 24 27 10 14 13 9 17 27 16 10 16 17 13 34 20 27 20 24 13 7 17 21 19 30 16 20 20 23 23 13 27 21 17 23 17 6 13 14 15 9 10 21 20 17 12 18 24 24 19 16 20 17 20 30 27 17 13 24 14 9 26 16 24 16 15 24 11 24 17 22 13 3 10 13 24 21 11 24 9 9 24 26 27 30 10 13 16 10 7 27 24 23 16 16 6 37 21 28 14 14 16 22 37 17 7 26 15 17 6 9 10 10 14 13 22 24 13 10 13 27 17 34 19 3 21 19 9 30 24 10 7 23 13 13 15 27 18 9 13 10 3 14 13 29 13 17 27 17 13 10 18 6 22 0 11 6 9 10 9 24 31 24 10 30 10 13 27 13 31 23 23 14 31 7 28 23 13 18 14 10 20 17 16 13 27 6 14 21 27 6 14 22 21 21 21 20 6 20 14 24 3 10 17 23 10 6 19 17 21 13 20 24 24 13 24 12 19 17 13 17 9 13 0 13 26 16 34 14 20 17 17 7 12 13 6 13 17 23 17 21 20 17 20 12 16 11 27 10 10 13 33 20 13 9 20 10 14 20 13 23 10 23 23 17 6 16 15 30 13 21 15 15 28 12 20 10 3 6 23 13 16 17 18 21 16 20 37 23 13 7 17 8 16 20 16 27 33 31 16 20 13 10 10 13 10 24 10 13 15 23 15 13 20 4 13 13 14 13 15 22 33 23 23 21 26 21 3 13 13 17 3 26 32 26 24 10 9 34 15 10 18 28 6 20 23 16 14 10 17 31 7 21 16 13 17 6 20 21 13 20 21 14 14 20 20 13 9 6 17 20 3 17 30 23 27 23 6 13 31 10 20 27 13 11 22 13 14 29 7 24 3 9 31 6 12 22 23 21 9 16 13 10 20 17 23 16 24 20 30 21 14 19 41 0 26 9 30 24 18 13 14 10 13 7 20 23 24 17 26 20 3 30 27 23 20 28 20 13 16 24 12 14 17 17 22 14 6 16 16 19 13 12 24 10 16 10 14 7 20 6 27 17 14 21 20 10 26 3 21 30 11 26 0 11 7 20 14 8 13 16 21 23 14 27 13 20 10 10 20 16 31 20 16 11 6 13 10 19 16 7 27 12 21 3 17 3 13 16 19 16 23 20 20 3 7 22 10 17 16 10 21 7 17 19 10 27 13 3 20 14 17 20 20 10 14 23 17 34 12 17 20 17 31 20 38 19 10 13 20 23 6 7 11 28 14 10 30 20 6 21 20 14 7 9 20 14 6 9 15 8 15 6 17 17 19 9 18 20 19 27 14 23 29 15 37 0 16 24 13 17 20 13 25 20 7 17 17 14 13 17 7 14 13 13 34 24 24 10 24 10 10 20 20 7 28 13 17 31 24 13 20 19 30 17 10 10 20 22 15 13 16 21 20 17 10 6 20 13 24 17 21 20 16 17 24 23 14 34 10 13 16 31 20 16 16 13 17 12 10 13 3 20 24 16 19 33 3 27 20 20 13 10 20 17 23 16 13 20 13 18 24 17 18 16 10 11 18 13 10 7 10 6 34 3 6 19 6 35 24 24 31 24 19 7 23 9 13 27 10 10 29 20 28 10 10 7 15 13 34 20 19 13 10 6 16 16 10 20 22 6 20 14 34 23 12 14 17 10 17 13 28 12 14 19 24 21 16 12 30 13 19 14 10 17 20 13 9 24 7 11 14 20 26 6 28 20 24 23 12 20 6 10 25 10 14 17 8 23 19 24 10 26 6 30 16 24 26 13 14 21 17 24 21 9 17 20 21 28 24 24 20 24 26 6 22 7 30 17 21 13 24 21 3 30 10 17 16 27 24 13 19 13 42 13 34 20 6 24 21 13 27 10 16 12 6 17 31 9 10 20 20 17 10 0 17 3 20 28 16 17 20 7 14 9 6 10 27 17 13 16 7 12 9 28 25 23 10 31 20 23 23 28 10 23 14 10 24 24 14 0 10 30 27 10 13 19 7 6 11 24 32 10 12 19 24 24 7 17 27 27 16 3 16 16 7 3 20 16 22 14 10 24 13 13 3 21 13 16 6 6 20 23 12 13 20 20 13 15 17 27 17 23 9 27 23 16 12 20 16 28 13 27 3 10 10 9 20 22 23 27 31 9 12 20 0 12 17 7 17 38 28 12 10 23 9 23 31 20 25 19 19 20 23 16 10 10 9 31 23 6 9 13 13 16 10 12 30 20 16 13 14 24 30 27 38 15 17 12 24 23 6 19 22 3 20 21 27 24 13 17 14 17 24 6 28 10 3 13 7 19 7 14 7 34 19 23 6 21 16 16 3 17 20 13 17 21 34 14 10 22 20 14 23 20 9 12 17 24 17 10 7 6 10 19 33 18 13 20 12 19 6 16 17 14 24 14 17 14 28 6 7 20 12 6 11 15 34 16 9 0 30 13 14 6 23 16 17 10 3 20 30 9 6 16 23 23 20 16 19 11 0 6 21 20 17 35 17 26 15 10 19 17 12 21 16 20 20 6 6 17 16 15 18 3 10 21 20 13 16 16 23 27 17 16 3 10 17 25 21 16 20 13 10 17 13 14 10 17 17 10 24 17 10 9 16 27 12 23 13 27 20 7 7 13 6 38 21 6 16 23 13 12 25 6 20 10 17 30 17 10 12 27 14 6 13 19 3 19 3 14 31 17 3 13 20 22 12 3 17 13 3 10 20 9 35 13 14 16 10 13 20 23 10 12 13 17 9 10 13 14 33 14 23 12 10 14 6 10 14 19 30 11 20 9 17 12 20 16 10 7 18 15 24 0 17 22 20 13 13 20 6 13 24 17 17 24 10 20 24 20 25 12 10 17 18 13 24 16 6 15 18 18 10 10 7 16 24 10 27 12 7 9 17 23 15 17 21 17 23 3 10 20 20 21 19 10 17 7 13 16 13 24 17 23 31 17 26 30 6 20 3 11 28 20 10 24 23 20 14 6 13 31 7 26 7 19 22 5 24 9 19 6 14 16 7 14 11 9 18 9 26 14 31 13 24 20 11 23 5 6 12 17 0 27 6 22 6 14 20 13 6 15 6 27 27 7 12 6 0 6 20 11 17 13 21 17 29 22 19 23 13 23 13 19 17 20 27 14 16 14 20 0 22 22 24 3 13 7 13 6 13 13 6 20 13 16 38 23 17 13 13 16 26 20 20 12 17 13 13 10 24 20 18 13 19 24 24 17 6 10 10 13 30 10 13 16 10 17 10 13 14 10 14 9 7 13 19 10 17 34 7 14 6 7 21 17 7 19 21 12 13 14 13 0 17 17 13 14 10 14 16 14 24 17 9 34 16 15 14 27 18 16 13 6 14 22 20 7 17 9 23 12 6 14 21 13 20 14 17 20 22 20 20 18 10 20 21 19 17 8 14 19 20 16 9 24 23 10 24 24 6 16 23 16 23 21 10 12 13 20 14 19 31 10 23 6 41 31 17 10 10 14 21 20 24 9 10 30 17 36 6 13 10 7 24 19 16 16 13 10 27 20 17 9 25 6 14 6 10 17 20 30 9 24 17 6 10 23 14 27 26 23 24 17 38 6 6 13 16 3 13 16 23 20 18 21 11 16 15 20 13 26 10 13 3 15 16 17 14 17 12 9 23 6 15 20 7 27 9 22 16 17 16 14 9 6 12 14 0 9 3 17 7 16 21 19 6 16 14 10 20 17 16 17 9 28 17 13 6 26 10 10 23 28 10 3 23 9 15 21 21 13 20 27 23 14 6 12 16 24 21 10 13 13 13 22 15 22 33 7 0 10 17 17 20 16 27 7 9 9 15 24 26 20 24 20 23 17 10 3 23 27 14 14 17 12 3 20 12 20 3 23 16 22 13 7 10 20 10 23 9 10 10 7 34 21 20 13 34 27 31 33 16 6 10 10 10 10 17 24 10 14 0 34 20 5 28 12 14 23 28 17 23 9 13 10 16 20 11 20 16 14 6 6 29 20 12 17 10 36 9 12 16 9 21 16 6 22 16 13 27 13 20 20 10 20 9 6 20 24 13 13 6 6 30 5 13 12 40 27 13 9 6 16 8 6 20 19 10 13 24 20 12 16 3 19 23 30 19 9 14 20 16 13 16 32 13 12 27 17 10 9 23 15 27 6 10 20 30 27 9 8 16 22 6 13 14 31 23 21 21 14 0 9 17 3 17 30 18 13 6 7 13 21 13 13 7 21 17 9 16 13 14 22 26 31 12 21 6 14 16 33 10 25 24 19 17 14 19 21 11 19 9 6 19 23 13 9 21 16 10 24 34 13 9 20 10 23 13 29 23 27 21 14 16 6 16 6 23 17 36 23 17 10 3 7 27 18 9 22 30 12 19 12 31 14 16 27 27 6 17 20 14 31 23 10 17 14 27 12 23 10 12 24 14 9 10 16 14 13 11 10 27 20 17 7 19 17 13 13 20 20 10 8 20 3 27 23 23 3 23 13 27 3 19 26 10 13 20 10 19 12 21 6 13 16 20 12 21 14 17 16 17 27 24 13 6 13 3 9 7 14 10 3 25 13 14 13 3 26 34 24 17 7 13 35 19 9 23 31 27 26 15 14 17 10 20 6 23 23 34 15 29 17 16 16 11 0 14 13 20 20 20 13 16 23 13 18 22 16 33 24 13 20 18 17 15 28 24 14 19 16 30 18 10 6 7 16 33 20 17 17 16 30 16 15 19 13 3 16 12 7 14 20 23 14 17 34 10 7 16 13 6 6 10 14 27 24 7 13 10 9 10 23 7 17 17 24 37 24 34 23 20 12 17 25 13 13 31 26 16 6 31 16 26 0 23 23 20 17 24 17 24 3 6 19 23 19 27 24 19 17 28 24 14 31 15 24 10 6 12 9 20 0 21 27 26 20 13 17 6 0 13 24 25 17 16 16 22 14 17 31 14 10 27 17 20 31 21 33 17 17 14 27 16 21 17 13 27 20 21 15 10 16 17 12 9 6 16 23 14 20 20 24 24 10 17 30 14 31 14 12 21 13 13 10 20 20 20 3 17 28 20 7 23 16 13 23 21 26 22 6 16 20 6 16 21 16 24 7 7 30 23 15 16 17 23 6 12 17 6 9 26 20 9 6 14 3 7 27 26 27 20 9 14 7 12 20 10 17 26 26 21 14 7 17 6 20 24 16 37 9 6 24 20 3 14 20 13 23 27 24 18 12 3 12 16 13 13 24 7 10 29 23 31 24 14 19 6 10 34 13 27 0 32 23 23 23 14 25 16 18 24 20 17 17 24 13 19 31 12 14 26 24 21 20 7 21 17 23 21 19 17 13 16 7 7 14 16 13 17 13 21 20 10 10 31 21 14 12 27 14 23 13 13 10 35 21 13 10 21 20 9 3 13 24 9 20 34 25 23 17 14 35 12 20 16 16 17 13 6 14 21 7 16 17 3 20 17 17 14 20 16 13 9 20 13 20 16 6 13 10 16 10 6 30 17 17 15 13 24 18 7 10 27 13 8 15 27 16 6 7 18 3 24 6 24 19 10 10 24 36 17 17 23 14 14 20 19 18 19 16 24 3 23 19 17 27 27 6 13 27 6 24 14 25 14 9 19 18 23 17 20 27 20 16 16 22 27 13 16 31 24 27 13 3 31 13 21 14 20 17 14 23 17 10 21 7 24 16 13 19 24 23 20 23 9 11 7 13 9 24 16 27 13 13 21 26 10 10 6 20 13 10 21 16 17 19 26 16 23 14 6 13 23 24 13 20 10 7 34 17 9 13 10 21 13 3 6 13 22 7 16 27 17 15 23 35 9 10 6 9 16 15 21 17 14 10 16 16 13 13 14 14 12 27 17 17 16 27 18 17 3 27 10 20 20 21 13 9 13 23 34 16 23 17 19 27 15 20 26 13 35 9 10 10 16 16 20 7 21 11 24 10 3 14 7 17 12 20 27 35 23 13 16 14 19 23 23 3 3 24 17 23 20 9 17 7 6 10 12 12 14 21 17 24 13 21 0 30 14 31 17 18 7 24 17 3 27 17 18 5 20 16 20 16 30 28 14 21 21 23 27 10 23 15 16 9 23 24 16 12 13 11 17 33 17 17 13 7 24 20 13 16 21 12 16 20 22 28 20 6 16 10 7 13 16 3 13 17 27 10 17 26 20 18 11 27 3 17 13 6 17 30 21 10 16 14 28 10 20 9 17 26 30 24 20 4 9 24 3 3 24 13 15 13 14 13 31 13 9 27 9 13 29 6 33 16 37 16 21 11 20 17 21 13 10 23 13 21 20 9 7 0 41 21 16 13 27 7 20 14 11 16 7 14 14 14 3 27 7 31 24 10 3 13 28 12 27 9 10 19 9 17 23 21 21 3 13 13 13 7 6 17 13 10 14 13 24 13 14 12 10 9 26 31 3 16 13 15 24 17 16 3 6 33 17 30 15 28 9 23 10 9 8 17 24 16 28 44 20 22 24 16 27 13 14 3 10 30 6 19 16 14 17 13 29 18 10 23 13 17 20 9 10 17 23 17 30 20 23 23 16 20 23 20 16 22 10 28 20 23 24 16 20 17 12 14 19 23 16 33 26 12 30 19 31 14 28 12 20 20 21 24 21 13 23 10 10 27 17 27 3 14 34 23 34 15 10 9 27 24 13 7 10 27 9 27 17 20 8 7 24 20 16 13 23 9 7 20 17 20 10 22 0 27 25 16 20 20 17 24 14 9 16 15 23 8 37 27 24 3 20 14 7 16 17 27 7 10 19 11 14 15 20 24 20 20 13 17 10 17 13 14 0 12 27 16 7 26 34 21 13 3 24 16 22 21 17 9 30 27 17 13 20 15 3 13 19 27 23 17 20 20 17 28 3 23 14 16 10 13 12 21 17 10 17 24 34 27 10 14 31 17 24 6 27 13 26 19 9 31 24 17 6 13 31 18 26 17 18 6 21 6 16 10 10 24 6 6 0 16 16 13 24 3 17 18 28 22 10 20 10 6 16 10 3 3 14 10 14 16 20 20 21 27 14 21 16 7 13 20 27 7 24 24 30 23 16 13 26 6 20 20 27 17 23 13 26 10 24 6 23 24 24 14 6 17 23 30 21 3 24 3 15 24 15 10 21 9 14 16 13 20 16 17 21 23 19 0 17 10 16 19 26 24 17 16 12 19 10 22 16 38 7 0 13 17 13 13 9 24 17 26 19 6 9 20 9 16 13 16 10 16 10 27 27 6 13 20 13 3 23 13 10 20 24 24 31 20 13 23 17 27 17 6 20 20 17 17 16 23 20 10 3 17 3 16 10 20 30 17 6 13 19 10 7 18 17 14 7 35 10 10 19 20 19 20 14 20 6 3 21 22 20 16 16 6 9 18 5 20 23 24 10 13 17 17 9 20 0 17 6 10 31 14 7 12 14 17 17 24 24 13 3 10 17 15 20 6 34 17 19 13 6 20 6 6 7 30 13 3 27 30 9 15 13 21 23 14 20 20 16 10 17 28 24 10 23 24 24 3 13 9 24 16 12 13 17 17 20 20 17 6 17 14 7 10 6 17 24 26 23 24 24 21 17 10 13 20 6 37 20 7 24 22 21 19 14 16 26 13 10 10 22 16 13 21 24 26 9 12 23 17 9 13 16 16 21 20 21 9 20 27 3 3 28 24 14 27 10 16 2 21 13 23 20 7 6 17 21 6 17 10 21 7 26 13 0 7 14 24 13 20 13 13 6 14 7 17 16 16 30 22 23 24 3 17 16 14 14 10 17 20 10 24 21 17 10 24 14 38 15 24 26 7 9 34 24 20 23 27 16 14 12 19 10 14 17 17 16 10 20 10 14 27 14 16 20 17 10 10 13 3 21 13 13 10 27 14 20 24 7 10 23 13 13 10 14 19 27 17 14 15 10 19 19 19 6 17 13 12 13 16 17 24 13 30 23 23 3 17 17 21 10 17 9 17 22 9 16 23 20 10 6 27 15 15 23 17 13 7 15 13 31 3 27 27 13 17 16 28 22 10 3 12 15 13 24 10 15 20 27 23 24 6 13 6 9 16 17 16 20 27 10 10 3 17 20 20 13 17 10 13 13 13 16 16 24 31 14 3 22 3 27 13 26 13 17 29 27 13 6 27 14 27 7 23 30 13 3 6 23 7 26 10 27 14 3 10 10 23 21 28 10 16 24 44 14 12 13 17 21 12 17 28 20 14 21 15 30 11 9 17 20 27 24 7 16 10 27 7 27 17 21 20 9 27 21 9 23 9 17 17 3 24 16 10 23 17 7 20 13 13 14 16 9 7 10 21 3 21 20 19 17 20 27 24 16 16 13 12 21 13 9 29 31 16 3 3 15 17 19 14 14 6 19 21 17 9 16 9 10 7 28 14 20 34 20 16 6 16 22 26 17 6 17 17 9 19 31 17 14 17 23 10 13 18 23 23 20 20 17 10 9 10 13 19 9 3 20 23 29 20 13 20 26 10 16 10 31 20 17 16 17 26 17 33 13 13 28 17 23 24 21 21 24 10 7 20 17 3 22 10 16 20 12 0 26 21 16 17 17 17 21 13 10 10 16 17 20 27 9 20 0 17 11 6 20 9 10 23 15 14 14 3 21 27 16 6 34 7 20 17 13 14 14 17 9 12 0 13 13 7 17 27 29 22 10 16 9 15 17 12 13 31 16 7 20 14 10 38 15 13 14 7 20 24 34 17 3 13 10 0 24 21 6 24 27 21 9 21 22 23 17 22 18 26 13 29 17 24 22 24 14 23 25 14 10 10 10 20 14 13 17 24 37 13 14 24 10 21 20 16 24 14 24 23 9 17 14 16 17 30 24 20 20 16 20 24 17 9 21 13 21 16 16 13 20 17 28 14 9 6 0 17 24 10 13 6 31 23 20 13 15 24 18 20 20 9 17 15 20 20 14 23 20 17 19 14 31 16 15 14 17 10 21 10 17 25 20 17 10 10 21 17 13 17 15 16 17 23 9 15 10 10 23 17 17 14 3 26 14 10 17 17 21 13 7 10 13 18 20 13 24 13 3 6 17 15 17 13 2 9 17 10 16 21 24 14 17 24 10 9 20 16 19 7 35 16 17 42 27 10 17 16 14 13 43 16 13 24 13 11 13 17 20 37 16 16 13 17 14 7 21 17 20 10 20 13 3 13 20 24 31 13 19 17 37 35 9 3 6 27 24 32 0 6 9 7 10 23 10 24 30 10 19 30 20 10 13 19 16 12 27 20 17 20 20 14 7 17 38 6 17 6 14 16 16 6 14 20 9 17 13 3 30 13 10 10 18 20 23 27 30 10 13 10 20 7 16 0 27 15 31 7 23 24 17 28 19 20 24 16 24 6 24 23 25 0 13 17 6 24 7 17 35 9 26 27 13 7 0 6 16 12 12 16 20 30 23 10 20 6 27 15 23 17 16 10 14 23 20 15 17 6 17 15 26 16 17 23 14 24 13 7 6 13 13 17 13 19 13 13 17 9 14 13 10 19 33 14 10 31 16 28 24 13 15 24 37 23 28 3 17 0 6 13 17 10 21 24 21 20 23 20 17 20 30 22 6 20 14 9 16 14 21 23 14 16 12 13 34 14 27 24 8 6 20 10 24 17 9 3 19 15 14 23 23 24 17 13 20 14 17 27 22 16 20 28 24 34 23 18 10 20 35 14 10 10 12 12 16 20 17 23 19 13 30 17 22 20 3 24 18 10 36 13 13 23 6 10 23 16 28 26 9 3 9 20 20 23 27 17 17 26 0 26 21 9 14 15 14 7 14 13 20 26 14 10 23 13 10 17 21 16 9 31 9 0 9 21 24 13 10 19 28 17 9 18 13 13 10 23 27 16 9 16 28 23 20 10 14 14 16 17 17 14 16 24 20 27 10 17 13 9 12 23 10 14 27 10 24 13 29 18 21 17 3 23 7 15 16 18 22 13 10 10 13 15 13 20 10 14 24 16 8 27 24 10 25 6 13 17 13 14 15 21 17 20 14 24 24 14 19 21 20 18 13 23 26 13 18 14 16 16 23 15 10 20 17 20 6 27 10 17 17 41 13 28 0 0 0 13 17 16 12 24 27 34 17 21 14 17 10 17 7 14 23 18 3 17 21 16 27 27 23 13 20 24 20 6 10 16 10 13 24 9 20 7 17 10 25 20 31 12 12 14 27 12 13 16 27 14 21 13 17 13 21 10 30 13 9 13 16 14 29 13 16 20 16 14 26 10 6 10 20 6 13 14 14 24 20 15 27 21 14 16 14 21 38 17 14 24 13 6 24 20 6 20 15 15 16 17 19 20 6 17 17 20 20 20 7 18 17 17 28 14 19 14 24 37 21 13 0 22 35 24 15 19 13 6 17 23 20 6 20 23 12 17 21 17 6 13 10 17 16 9 12 21 14 31 27 10 21 27 6 15 34 31 13 41 20 16 13 3 16 20 6 17 6 13 27 16 29 17 14 7 9 24 7 10 17 24 12 17 24 14 16 28 25 26 15 17 33 30 13 24 16 3 15 24 13 0 13 14 27 9 34 10 6 7 17 9 13 7 12 11 27 30 24 17 20 24 9 14 18 14 21 23 22 19 17 16 9 17 13 13 7 24 31 22 13 12 7 31 42 10 26 13 22 14 30 17 9 10 0 20 16 31 7 6 24 20 13 28 7 21 16 12 20 9 24 17 13 24 7 9 14 19 13 38 47 13 23 10 13 19 19 20 21 20 24 14 23 6 7 20 20 10 13 7 13 15 27 14 12 7 14 17 10 6 22 10 27 24 17 14 16 9 14 15 7 13 15 7 14 19 27 20 7 17 23 0 9 25 12 10 24 29 21 20 14 0 10 16 26 3 15 13 24 28 6 28 27 7 7 27 17 30 9 12 17 20 20 14 17 10 13 21 10 24 0 23 14 19 10 18 13 21 31 12 13 14 18 10 10 14 23 9 9 13 20 16 17 16 14 17 20 7 3 13 3 17 27 17 21 3 23 10 16 17 22 20 11 24 13 14 3 13 13 15 28 12 14 17 21 24 7 16 15 27 22 28 17 21 20 23 20 23 24 14 19 16 17 24 12 24 16 12 16 16 16 15 6 14 13 42 13 7 31 17 17 31 10 9 13 9 9 24 13 19 0 16 16 13 9 20 7 19 14 17 7 10 13 12 24 17 5 15 10 9 9 21 9 19 9 14 16 16 20 27 17 16 20 19 25 17 22 10 6 14 23 21 23 15 9 27 22 24 11 13 42 15 9 27 31 26 14 37 9 16 17 16 7 21 34 21 20 13 17 12 21 14 3 26 10 7 13 0 9 17 16 17 13 20 19 26 21 20 27 6 10 16 27 24 10 9 21 23 26 13 14 19 27 17 3 27 7 10 17 6 16 16 10 20 23 20 14 17 20 17 28 23 23 14 14 11 21 16 3 16 6 37 33 23 6 13 18 7 9 23 10 24 10 19 23 13 19 16 6 23 13 17 17 10 16 24 10 10 10 22 20 10 17 7 20 16 20 13 7 10 16 6 29 9</t>
-  </si>
-  <si>
-    <t>JSB(2.7402010322247827, 4.833078655267499, -11.457768874748687, 92.96687556930064)</t>
-  </si>
-  <si>
-    <t>26 16 17 25 32 21 30 17 12 22 31 25 23 22 20 27 11 24 27 23 28 18 16 17 25 22 16 26 12 24 33 19 28 23 29 26 23 26 15 22 21 24 23 25 17 30 22 22 22 13 25 20 20 18 23 20 27 19 21 20 17 19 33 18 24 27 21 21 20 17 28 15 20 16 14 33 25 19 26 26 23 21 28 18 18 24 23 19 25 14 18 20 20 14 21 25 15 22 15 22 24 16 27 13 21 19 27 22 22 22 29 18 19 25 22 12 21 19 15 22 20 24 24 20 21 19 21 23 19 23 30 20 34 28 14 26 30 24 16 24 26 19 21 32 24 30 26 19 17 24 21 22 20 23 16 21 27 20 23 24 19 15 21 20 27 37 24 26 22 25 22 23 17 25 22 18 12 26 29 22 26 22 17 29 18 22 20 24 16 25 23 21 23 24 24 22 19 26 24 25 21 23 22 17 17 27 20 21 29 20 23 18 27 26 17 20 21 20 19 21 16 29 21 23 23 22 21 27 19 22 23 17 32 21 24 21 16 16 29 25 27 31 28 20 18 20 18 18 17 24 21 28 22 16 17 19 17 22 18 17 23 19 22 25 27 35 29 26 21 23 20 21 26 31 21 40 22 26 20 19 17 21 12 18 23 26 31 18 18 19 30 16 25 20 24 25 22 21 21 19 31 20 25 20 27 24 22 24 22 17 19 22 26 18 23 35 26 21 26 26 19 18 27 23 30 27 20 18 27 22 21 21 22 25 22 18 16 29 25 18 20 18 23 22 28 27 25 21 22 17 27 24 31 22 23 27 20 24 32 17 18 23 21 22 27 26 18 25 23 24 24 17 26 12 21 30 27 18 22 20 28 23 22 28 20 13 25 23 20 22 20 21 22 20 20 20 22 22 21 19 26 26 17 18 23 30 20 28 18 27 19 20 27 26 25 26 19 26 24 23 25 19 25 23 23 23 20 21 22 19 19 21 28 21 22 22 29 23 18 21 20 23 18 19 19 21 26 15 19 21 17 21 28 19 30 20 19 14 21 24 18 20 25 31 21 14 24 22 28 17 23 27 26 20 17 27 16 17 25 20 23 27 19 19 22 24 15 18 22 14 22 28 15 24 24 21 20 14 16 22 21 14 16 24 28 20 12 33 26 33 23 31 19 23 23 19 29 18 22 23 17 25 23 23 27 25 20 25 32 17 22 20 24 28 20 19 25 29 20 27 29 24 25 25 16 28 16 24 22 21 22 17 23 17 10 26 16 20 23 17 20 21 22 18 15 19 24 21 22 21 22 28 22 18 19 21 21 17 35 28 18 19 25 26 10 18 18 19 24 16 31 19 27 21 21 19 23 18 21 25 18 26 23 24 13 25 14 17 26 22 25 17 17 19 20 18 31 16 19 25 24 22 19 29 19 19 23 26 33 18 18 26 23 23 24 25 22 18 21 19 19 22 22 22 22 22 26 31 32 25 28 28 22 28 20 19 22 23 27 29 19 14 28 18 30 15 15 19 26 11 11 29 23 25 27 19 21 19 21 27 17 11 27 17 20 24 20 14 20 25 31 22 22 18 24 20 20 18 21 25 23 31 21 23 25 22 22 21 30 27 19 30 31 24 23 18 22 19 24 22 23 23 26 24 21 21 28 22 23 17 26 31 24 24 26 27 23 22 28 19 16 27 19 28 29 21 25 17 24 25 28 18 15 24 28 15 17 21 21 26 21 29 31 22 26 19 22 24 18 18 27 28 23 16 34 20 23 27 17 23 27 24 20 27 32 26 28 29 23 20 19 22 20 29 21 29 16 23 29 27 22 25 17 24 18 17 21 21 23 28 24 25 22 18 22 14 20 17 20 19 22 20 33 24 19 28 19 16 31 29 29 18 23 21 33 20 23 17 18 22 26 22 20 24 24 25 31 21 26 21 21 19 24 22 24 20 25 25 20 21 26 20 27 16 16 20 22 26 18 17 23 21 21 21 27 18 26 18 18 27 19 19 28 23 22 23 17 30 26 20 16 19 19 24 20 20 22 19 25 9 19 22 23 20 22 15 24 23 25 27 15 30 27 26 16 18 17 18 20 17 18 22 16 22 33 26 22 22 22 23 20 21 17 17 24 20 29 19 26 23 24 20 19 16 28 31 21 28 23 20 16 20 18 17 16 17 18 23 23 18 28 21 16 30 17 22 22 18 17 23 25 20 23 30 27 21 10 17 29 25 21 19 23 29 21 33 17 18 17 26 20 19 18 18 17 29 27 22 25 24 22 22 25 26 24 22 25 23 26 27 26 24 22 21 21 23 28 27 21 23 20 20 16 19 20 16 22 27 18 32 22 21 18 16 22 28 22 20 28 20 26 17 15 24 22 21 16 18 27 24 25 22 20 18 22 20 22 27 26 10 23 25 26 11 24 17 27 23 22 11 23 29 23 24 17 20 25 17 21 22 19 21 25 22 12 21 21 23 18 30 23 24 26 21 28 23 17 20 21 26 30 17 21 22 28 16 17 16 21 19 22 20 22 24 24 13 24 17 15 15 19 12 18 18 18 34 34 17 24 25 21 34 20 25 17 20 25 22 17 13 20 20 26 20 24 24 28 15 22 22 13 23 24 23 22 22 16 16 26 22 12 23 28 22 19 24 28 30 17 22 17 21 19 29 25 32 22 22 19 18 20 23 16 18 30 18 19 25 25 24 19 20 25 26 21 20 21 20 22 25 22 19 24 22 19 21 24 23 36 23 21 23 23 19 27 21 21 20 24 25 28 22 20 28 19 28 21 24 23 23 20 25 23 16 26 20 28 20 24 23 17 16 28 25 23 21 29 18 25 22 21 19 18 19 25 21 29 27 15 27 23 19 27 29 25 25 22 25 27 21 16 24 26 25 18 21 22 20 29 20 26 23 18 26 22 23 11 21 23 17 23 29 26 26 19 24 17 27 22 21 29 30 23 26 15 23 23 15 20 16 17 25 17 21 19 23 21 19 21 21 26 18 23 20 19 18 18 26 22 24 19 22 25 27 23 19 23 22 11 17 25 36 12 26 23 15 25 19 21 23 20 27 25 24 24 20 20 19 21 20 16 29 21 27 21 25 13 24 19 24 20 14 23 15 25 21 24 22 31 26 21 24 15 24 29 13 25 32 20 17 28 24 23 23 19 17 20 24 18 20 30 16 29 22 24 26 17 17 22 26 20 27 23 28 23 21 23 21 21 27 20 23 23 20 14 20 29 20 25 23 23 17 16 22 21 17 24 34 21 27 19 20 20 28 23 21 28 20 21 27 30 24 29 26 20 19 23 23 24 24 20 25 24 19 21 17 30 24 26 23 26 19 23 33 26 16 25 26 24 27 21 26 20 26 17 24 20 25 26 22 15 19 23 16 17 18 28 28 29 27 19 20 30 17 21 16 21 26 28 25 27 11 25 25 26 26 18 26 27 21 25 26 25 23 21 29 28 24 19 15 20 19 22 20 19 20 15 32 16 19 26 20 24 18 19 21 22 23 26 32 20 27 35 33 24 26 27 23 23 20 12 17 21 28 23 19 28 17 23 24 19 25 24 27 29 13 22 20 19 18 15 20 29 21 22 16 25 25 29 28 13 19 27 27 24 33 24 25 16 21 22 18 26 31 26 27 23 27 22 18 23 25 24 18 34 17 21 24 25 33 27 19 22 15 28 26 23 18 23 24 28 23 17 22 21 24 32 25 13 26 25 28 28 19 16 24 25 22 21 23 24 26 22 26 23 31 18 24 16 21 30 24 20 20 25 24 23 29 17 24 16 23 23 22 22 24 24 28 19 22 20 27 21 13 31 19 24 21 19 19 23 18 17 20 24 28 26 25 20 21 23 24 21 18 28 25 22 18 25 26 23 16 14 26 21 15 22 29 17 21 22 9 22 24 16 23 19 13 25 21 20 21 16 19 18 19 32 20 18 23 21 24 19 23 24 25 27 25 20 23 18 23 21 19 27 20 24 27 17 17 17 24 24 18 14 27 21 21 22 15 21 15 28 14 26 22 28 24 28 24 28 19 23 31 21 26 25 27 26 18 23 27 21 16 23 18 19 22 23 15 21 22 28 25 14 23 22 21 18 23 10 25 23 13 26 19 22 17 21 19 22 26 19 24 22 24 23 17 19 19 26 24 20 20 21 25 27 28 34 33 16 19 25 20 19 28 17 19 28 29 21 21 22 28 26 26 16 32 19 24 22 26 21 24 19 26 26 26 19 22 22 18 27 18 22 20 17 17 25 27 20 18 21 20 16 19 23 17 23 22 21 17 22 21 25 29 28 24 19 19 21 24 16 19 19 18 23 13 19 21 22 30 27 27 25 21 25 27 17 25 16 30 17 17 27 29 26 15 28 19 26 28 18 22 19 22 22 18 22 22 34 21 19 20 26 26 17 31 15 28 26 21 25 17 22 24 18 13 26 19 20 19 28 18 25 24 29 23 14 18 27 19 20 13 32 16 28 20 19 22 16 18 16 18 21 20 23 27 20 24 18 20 22 19 17 27 19 25 20 21 24 25 18 21 29 25 18 20 30 28 28 18 20 18 15 22 22 26 20 23 14 21 22 27 32 21 18 26 25 24 31 25 29 21 23 17 27 38 18 29 14 27 22 19 20 21 23 14 23 26 17 22 25 16 19 17 20 11 21 19 19 23 29 22 20 20 28 16 30 23 15 20 22 22 30 24 29 23 29 19 18 25 15 26 21 20 30 17 29 22 27 13 21 17 17 19 22 22 29 18 22 17 25 22 18 23 22 27 22 25 16 23 22 28 21 21 27 18 16 18 22 18 22 29 21 30 22 26 21 25 24 25 21 19 22 24 22 16 22 14 25 29 24 20 28 22 25 25 26 33 36 27 22 27 21 29 17 20 16 25 25 18 16 24 29 23 21 17 12 29 26 22 19 17 22 18 22 24 18 21 26 20 22 24 19 17 29 20 22 20 22 19 24 27 25 25 27 26 19 26 19 26 25 22 28 18 27 25 25 16 19 18 22 18 21 14 21 27 21 24 26 19 18 23 20 24 14 24 26 23 21 28 19 31 25 27 21 30 10 22 26 25 22 17 26 23 20 29 23 19 24 31 22 19 23 21 27 31 27 30 23 25 19 19 20 19 21 15 18 26 24 17 32 22 15 12 37 25 29 28 17 24 22 21 29 22 22 18 25 19 24 24 20 25 20 15 30 20 26 25 27 19 27 27 14 29 20 23 27 17 20 20 33 19 20 23 30 18 26 23 21 17 23 26 15 25 19 26 19 18 23 23 21 23 20 25 20 14 22 25 19 25 25 20 30 27 23 27 33 16 25 16 20 20 18 23 32 26 23 20 24 24 20 18 28 18 26 24 17 21 27 23 23 20 19 13 26 18 26 33 18 23 17 16 25 17 19 14 27 33 20 27 23 26 26 18 24 17 21 28 22 23 16 19 19 21 30 24 27 20 25 28 17 21 16 21 22 16 16 26 27 27 27 23 22 19 16 19 20 22 24 30 33 18 29 18 24 30 30 31 26 15 18 21 20 28 15 21 20 22 27 19 26 15 26 29 15 25 27 24 22 20 31 22 24 26 16 17 22 20 20 17 24 24 29 18 23 25 28 27 23 20 20 17 28 17 16 27 26 24 18 20 23 22 26 23 24 20 27 24 31 27 26 17 24 26 23 21 23 16 22 24 17 24 20 24 23 20 18 20 25 19 23 18 23 23 25 22 21 30 24 20 17 16 27 17 30 18 32 21 16 23 21 19 22 13 27 24 16 20 23 18 30 27 21 17 22 19 19 19 20 23 16 23 23 18 25 24 22 26 21 19 22 16 24 22 20 20 22 24 27 18 19 30 25 20 21 17 25 22 23 19 24 24 21 22 13 23 30 28 17 25 23 25 16 19 19 25 21 24 23 10 19 18 28 25 20 27 19 16 22 29 20 28 21 28 23 19 29 24 36 20 22 25 22 30 10 23 22 23 24 18 17 16 27 20 28 18 23 27 28 20 20 20 28 27 25 22 29 19 22 28 17 32 18 24 22 19 26 29 19 26 30 30 30 24 26 15 15 21 22 21 26 26 21 15 23 24 23 24 20 14 22 30 19 26 18 24 19 16 29 25 18 21 25 21 19 19 17 18 17 18 23 14 21 27 19 25 19 18 20 26 20 18 26 22 23 21 21 21 16 23 19 22 27 22 29 25 22 28 25 21 21 26 20 28 20 18 17 26 24 27 20 19 23 22 22 20 21 15 22 23 22 19 31 19 21 24 25 21 23 25 21 23 26 33 16 18 22 17 26 16 18 35 22 23 20 18 19 28 28 21 22 29 20 22 25 26 31 14 32 24 22 21 19 30 19 20 18 19 23 17 22 25 21 21 24 23 23 31 22 30 19 25 17 26 22 25 24 20 13 25 18 20 32 18 20 23 16 26 18 22 24 17 21 16 21 18 32 24 24 22 23 36 22 24 28 28 23 16 21 22 23 23 22 21 17 23 15 17 22 23 26 22 19 12 14 22 29 21 17 19 19 16 22 23 22 19 19 28 24 26 17 25 19 22 16 14 30 20 22 16 27 22 17 21 21 15 16 20 20 26 17 25 17 21 25 28 18 25 14 16 28 28 22 23 21 29 28 25 18 18 17 19 16 25 18 23 28 25 18 22 15 26 27 17 24 29 12 20 25 20 22 26 26 15 14 21 22 20 30 16 20 25 16 14 29 18 23 21 23 22 22 29 16 36 22 23 18 25 24 29 22 24 16 23 13 25 18 25 18 17 20 21 24 21 29 19 10 20 24 17 26 22 27 22 20 11 22 24 22 15 20 26 24 23 14 25 19 26 24 14 18 20 31 20 18 21 25 24 24 18 23 30 24 18 22 19 17 23 22 16 20 16 25 23 22 27 18 22 31 25 24 22 19 32 17 30 25 19 26 25 26 24 16 30 24 17 26 28 31 16 20 25 20 26 19 16 17 27 21 25 21 22 22 26 28 16 29 22 21 25 12 28 23 17 26 26 21 23 23 23 23 25 18 19 21 28 24 30 18 24 27 21 30 21 19 18 28 17 20 19 21 14 30 29 22 17 23 19 17 15 26 26 26 33 23 21 20 22 24 18 30 27 20 17 28 19 22 26 25 24 18 22 15 24 16 27 23 21 19 17 21 22 21 16 31 20 30 21 13 20 22 28 22 24 23 18 23 22 29 18 25 21 21 36 23 13 21 17 19 24 20 20 25 18 29 18 22 20 22 29 18 22 27 22 19 15 26 31 21 22 14 26 22 19 18 19 15 29 20 25 26 22 29 25 19 21 22 25 19 23 19 20 16 20 18 18 18 22 22 19 22 20 26 30 18 23 25 19 29 23 28 19 20 15 24 21 16 27 28 23 18 32 15 27 23 17 25 24 26 23 22 20 32 30 26 29 23 20 25 17 18 21 18 26 26 25 26 30 17 21 20 22 30 24 18 32 27 23 26 22 21 22 21 35 21 26 25 23 26 26 26 25 22 24 21 22 26 22 19 25 16 14 27 20 21 17 15 24 27 25 21 29 25 27 19 19 31 21 20 18 16 24 16 18 22 24 21 17 21 17 20 26 29 23 15 14 24 31 26 32 20 18 23 30 23 20 21 21 21 26 26 22 24 19 15 20 23 33 29 21 24 22 23 23 23 29 25 19 21 25 24 18 23 28 30 15 20 19 27 21 18 18 17 22 21 25 28 17 30 15 27 19 16 19 25 22 26 17 18 21 25 26 24 21 28 23 20 19 20 32 21 17 26 16 19 18 18 25 23 17 26 22 19 32 32 22 28 30 19 19 18 26 20 29 24 28 20 22 25 32 18 20 25 26 25 24 25 24 24 20 28 16 21 21 27 18 21 20 31 26 20 21 31 25 18 23 26 21 22 27 17 18 17 11 28 15 21 27 32 22 19 22 27 23 19 14 24 16 27 27 21 23 22 22 22 28 30 19 23 29 28 21 20 15 24 22 25 22 21 21 20 17 19 26 17 18 21 24 26 19 24 28 15 23 30 30 17 20 15 22 29 29 22 27 24 19 20 25 24 23 25 22 35 20 22 30 25 18 23 21 17 23 20 18 24 19 25 22 22 21 28 20 27 22 16 15 24 27 24 22 27 21 20 18 23 24 20 27 22 27 28 17 13 23 21 17 25 20 24 33 17 28 25 25 21 22 26 28 26 17 28 22 18 22 17 18 17 20 26 17 24 29 16 23 17 17 30 29 14 24 21 18 22 16 18 28 19 17 24 19 25 16 23 28 18 14 26 27 20 21 23 19 18 20 20 30 25 23 26 22 22 18 24 21 16 19 24 18 18 23 20 25 30 24 22 20 28 30 17 21 22 26 17 23 18 21 16 21 24 24 23 24 21 25 36 24 25 21 25 21 29 20 24 17 17 34 26 20 21 20 18 23 19 20 17 25 18 20 22 27 31 21 27 24 21 27 23 26 18 22 23 28 30 22 23 30 22 23 23 14 26 25 27 24 20 14 17 25 22 27 24 20 20 24 23 26 21 24 22 23 16 24 24 28 16 25 21 28 23 20 25 16 27 24 25 28 24 17 28 25 19 23 23 30 18 20 29 24 26 25 18 26 19 21 22 21 23 24 23 26 29 30 18 24 32 15 25 28 18 26 19 22 27 20 26 18 21 19 23 18 25 16 29 25 19 18 21 24 24 20 17 23 18 29 25 19 19 18 16 30 23 22 16 16 16 19 24 24 21 20 23 24 25 18 21 24 31 29 20 16 21 25 23 15 23 23 25 21 20 21 15 26 17 24 24 20 13 32 21 23 33 21 15 22 14 17 20 22 22 19 34 23 24 28 23 19 19 21 23 16 34 16 20 19 23 28 26 25 17 22 28 29 20 23 19 21 25 24 25 21 23 21 22 26 24 22 15 16 18 29 21 20 28 22 25 26 19 21 17 22 27 22 29 24 23 24 26 23 23 18 25 22 17 25 22 23 15 19 18 31 26 28 32 21 21 13 25 17 18 29 22 19 29 22 18 23 23 20 19 21 31 19 18 22 22 23 24 26 30 20 14 24 21 25 18 22 20 18 24 20 24 24 15 24 19 18 24 22 23 19 22 18 23 21 25 13 27 25 24 25 20 20 26 29 23 22 27 19 18 24 23 22 14 24 13 25 18 19 22 27 16 32 15 23 24 28 26 26 20 21 24 26 24 21 24 18 23 27 16 17 26 19 26 23 27 29 25 24 24 21 19 18 19 26 25 21 24 24 28 14 22 17 26 26 22 17 24 18 30 24 25 23 17 26 19 26 27 23 22 22 14 29 25 25 28 24 19 19 32 15 24 26 25 29 16 25 25 25 24 30 15 24 25 25 20 24 23 26 29 23 26 28 23 14 27 18 21 27 23 20 26 27 20 25 27 22 24 25 21 25 30 25 19 26 17 17 18 29 31 21 24 21 20 19 28 17 28 19 21 24 26 19 27 17 18 23 18 15 16 17 32 21 20 26 34 21 15 20 21 16 16 24 23 25 21 12 26 15 27 25 23 30 21 22 28 21 22 19 23 22 24 21 32 22 28 24 18 24 33 15 31 30 21 26 24 19 28 23 23 19 22 26 22 17 29 24 26 15 31 24 19 23 22 24 22 22 17 19 22 26 23 21 24 18 24 18 20 16 20 23 17 30 22 26 17 24 16 23 22 30 21 24 30 21 24 18 27 16 25 30 23 25 21 20 20 32 22 25 22 17 18 27 26 17 21 21 20 17 26 27 22 26 18 26 23 21 27 21 21 19 21 23 18 30 24 24 19 17 23 19 23 19 17 19 21 18 21 18 19 22 26 25 28 26 21 15 25 16 15 17 24 21 15 25 17 34 22 25 25 19 19 18 20 32 23 19 20 26 20 22 27 15 27 23 19 19 23 23 20 18 17 25 26 25 21 25 24 21 23 21 21 22 27 22 23 25 20 21 31 26 20 20 20 32 21 27 25 19 25 21 25 21 22 19 28 23 14 28 27 16 17 24 13 19 19 20 24 20 28 31 24 18 23 27 21 19 19 19 28 29 22 22 24 23 18 15 17 18 20 26 18 25 19 13 21 19 27 26 26 20 17 19 29 21 24 23 22 25 25 20 24 28 26 23 27 22 24 19 19 25 25 18 19 15 18 28 20 24 21 19 17 10 16 17 17 28 19 19 28 24 28 27 21 27 27 16 21 26 33 19 17 28 18 22 26 26 21 22 27 17 20 19 26 18 18 19 20 18 28 18 25 28 23 20 22 19 22 24 25 23 26 23 19 25 18 25 30 26 29 17 18 26 22 28 24 26 29 24 16 9 28 20 22 22 21 23 27 23 15 21 25 23 22 27 17 27 21 21 22 20 28 24 14 20 19 29 21 28 25 28 36 17 28 22 29 18 21 17 22 24 21 31 29 19 13 22 20 17 25 21 27 24 28 24 28 27 20 18 22 31 18 26 22 17 22 20 23 33 22 19 19 16 22 21 21 26 25 21 19 20 26 17 29 28 24 25 22 15 16 26 16 15 16 27 21 26 19 23 32 36 19 19 18 28 24 23 21 21 18 23 27 25 16 21 18 24 26 24 20 16 18 21 25 24 23 20 20 25 26 25 22 25 23 23 18 21 20 21 23 21 28 18 31 28 21 31 27 26 26 23 20 21 28 22 15 21 22 21 18 21 23 23 22 25 15 19 18 22 15 32 29 20 28 20 23 30 20 17 20 17 22 25 21 23 24 34 27 25 29 13 25 29 18 16 17 21 22 24 28 22 19 29 23 22 20 29 22 21 19 20 16 26 17 24 21 22 31 24 14 27 25 23 29 22 26 21 25 21 22 27 26 24 21 22 18 23 18 22 15 21 22 21 20 19 18 21 13 22 11 25 20 20 18 24 26 25 22 18 23 22 35 14 20 31 23 17 26 29 19 19 22 23 30 25 21 23 28 12 18 19 22 23 30 28 21 21 17 26 21 15 29 24 26 20 23 23 23 26 20 16 26 26 22 17 25 18 30 26 17 17 19 26 27 20 24 22 28 25 24 19 20 15 16 24 22 24 22 17 25 26 23 17 26 33 26 32 19 26 25 20 26 22 29 28 19 21 20 24 20 21 24 16 17 20 22 31 24 25 17 19 24 21 19 21 26 30 26 23 20 20 27 23 23 20 19 21 15 22 19 20 24 19 20 23 20 26 25 21 21 19 26 14 24 15 29 26 25 22 18 29 18 13 23 20 24 20 18 29 21 25 26 21 19 16 26 35 24 23 25 26 21 22 27 30 21 29 19 25 23 18 22 19 33 27 25 16 27 25 20 20 22 16 21 18 24 18 17 23 24 17 20 20 17 23 19 26 24 24 20 24 24 25 26 25 29 17 23 27 30 21 30 26 21 18 26 13 23 23 23 16 25 18 21 25 23 29 28 27 21 21 32 22 25 24 30 16 16 25 18 14 17 24 18 29 21 27 20 17 33 24 28 26 24 23 29 16 21 18 21 20 27 21 26 10 20 21 25 11 21 21 27 16 28 24 28 25 15 29 15 22 24 20 21 16 26 21 28 22 24 26 21 25 20 23 21 21 32 26 26 21 22 25 22 29 20 24 23 16 27 11 19 28 19 16 18 17 19 31 28 10 25 28 25 23 25 29 28 18 32 18 20 25 27 28 18 21 25 21 22 22 31 28 17 31 19 25 18 25 26 24 26 27 20 22 21 24 18 22 16 27 19 19 21 17 20 30 25 17 34 27 16 22 18 21 22 26 24 26 19 24 17 29 28 20 22 23 16 23 17 18 22 25 27 24 30 11 22 20 21 19 24 25 24 22 17 18 28 24 13 16 14 15 11 30 35 23 20 23 21 27 19 16 24 23 19 20 19 21 30 22 22 27 27 24 29 23 21 17 21 21 17 25 18 32 19 20 18 21 24 25 22 28 19 26 24 27 20 22 19 19 19 20 25 27 18 23 24 17 23 30 19 23 11 17 30 17 21 23 23 28 27 30 21 26 22 25 26 22 29 20 16 25 19 34 33 19 24 17 25 32 36 15 14 26 19 18 18 19 25 22 23 31 23 14 25 20 23 20 23 20 26 20 20 31 19 25 13 20 18 19 26 22 22 20 25 19 23 22 20 17 25 16 24 19 22 27 20 33 26 26 23 32 19 26 17 25 21 22 25 17 28 29 29 22 24 22 17 21 23 14 22 26 29 28 21 23 17 30 15 23 26 27 23 15 27 20 27 12 19 23 17 24 20 21 21 23 15 24 19 18 20 18 31 23 31 26 20 30 21 16 34 20 25 27 22 16 24 29 29 30 30 22 26 24 18 23 30 25 15 27 24 24 23 24 18 27 19 23 26 20 23 24 16 20 24 16 22 23 18 25 23 18 21 23 27 26 25 21 27 22 30 28 25 24 21 21 27 18 23 16 18 27 25 29 23 19 19 18 23 26 18 20 25 25 25 17 32 27 15 20 22 24 17 17 28 14 27 17 18 31 23 24 31 21 24 28 21 28 19 24 30 17 27 22 18 15 19 26 25 17 25 19 30 17 19 29 27 24 24 28 19 19 21 30 31 19 24 21 23 27 23 21 23 21 21 16 20 26 19 28 22 28 20 18 22 22 26 26 16 20 22 25 22 26 30 25 25 22 24 22 26 26 17 24 31 27 22 23 18 29 19 19 27 24 21 20 29 15 16 24 30 19 24 19 30 31 20 17 24 14 26 18 23 25 22 20 28 22 23 25 27 19 19 21 35 19 19 21 20 28 25 21 23 22 22 21 22 23 12 25 29 23 24 20 19 25 22 20 21 23 11 26 32 27 21 22 26 29 22 29 21 20 23 24 23 18 26 29 17 23 20 26 27 28 25 24 18 31 22 20 21 22 22 25 25 18 24 19 26 27 20 26 27 23 24 16 24 25 21 17 29 19 20 23 16 19 27 21 16 18 27 21 27 22 31 18 31 27 27 20 17 22 13 19 26 24 17 22 23 18 25 21 29 18 13 15 20 18 26 23 29 20 22 20 23 22 14 19 26 19 24 16 19 25 17 26 24 27 16 24 20 23 19 28 21 10 23 23 20 21 18 21 26 26 21 21 15 22 20 29 23 26 25 22 17 24 24 25 23 17 23 21 23 22 19 17 17 21 22 20 26 22 22 20 17 28 14 27 22 31 20 25 18 22 23 25 19 13 16 21 27 27 13 22 19 28 22 18 23 25 22 34 23 24 23 16 12 21 17 24 26 23 30 20 19 21 17 21 20 21 18 36 27 24 16 23 21 28 29 20 23 15 19 22 27 25 22 24 16 24 30 24 22 24 26 24 24 25 22 33 24 16 22 28 26 23 28 28 16 22 24 22 17 29 28 22 26 26 14 16 27 15 19 20 24 22 27 22 12 21 29 26 23 22 16 28 19 19 18 25 25 24 30 22 19 23 19 22 33 23 21 13 22 21 21 28 20 18 23 20 22 20 21 19 17 20 24 28 16 33 22 24 26 13 23 14 25 26 19 18 31 14 19 29 27 18 23 21 29 24 26 21 17 24 19 18 27 19 24 19 15 23 26 25 19 23 21 26 19 25 22 22 17 17 25 27 29 28 20 26 19 15 27 21 21 21 20 18 22 23 14 23 22 20 23 18 23 23 24 20 17 28 24 28 22 20 25 24 23 25 27 30 28 24 18 26 21 19 30 22 17 19 17 18 17 17 22 31 25 27 27 28 21 28 21 25 15 29 19 17 22 22 26 20 31 12 24 20 24 29 24 20 24 17 19 20 23 18 35 24 30 21 27 24 25 24 23 20 20 23 23 24 19 19 17 18 23 24 18 20 19 26 23 24 15 21 20 24 23 22 21 21 28 14 20 24 15 23 13 18 29 31 24 18 30 22 32 17 23 19 19 22 25 28 22 18 24 17 22 24 26 21 24 20 30 16 22 22 17 23 21 27 25 20 17 19 16 18 25 18 23 24 21 29 19 21 11 19 21 20 27 20 10 23 32 24 35 21 18 23 20 16 21 20 22 27 21 22 22 21 16 21 28 17 25 24 25 27 17 24 20 24 20 22 23 25 15 21 26 21 19 28 26 20 16 28 22 17 21 25 28 25 18 29 22 24 19 21 26 16 19 18 25 22 20 12 28 30 21 17 15 20 27 21 21 23 20 21 24 22 24 26 30 17 28 18 26 15 21 17 25 19 22 18 20 19 28 20 37 25 24 14 23 29 21 30 18 28 21 27 30 20 22 23 21 27 22 20 18 20 16 22 19 19 21 35 23 18 29 27 22 20 25 23 22 19 19 18 13 19 23 20 19 20 20 13 14 29 22 28 20 17 22 20 23 20 20 23 17 18 28 14 15 20 14 19 17 25 18 21 20 28 20 26 16 17 21 19 16 22 25 18 19 21 23 20 25 29 17 24 27 26 20 22 24 21 17 31 20 15 19 13 18 22 20 20 16 26 17 21 28 25 27 26 23 26 28 22 22 17 20 17 26 29 20 22 25 20 23 26 19 24 25 25 23 19 20 22 21 20 22 31 22 23 16 26 22 23 11 22 16 25 25 28 27 24 21 19 29 28 21 15 18 18 23 21 21 25 20 23 22 25 23 26 20 10 23 21 19 25 17 22 24 27 26 26 29 14 25 26 19 29 20 23 24 19 25 14 20 24 26 26 25 16 23 19 29 26 21 22 22 23 19 21 24 24 22 30 18 21 20 26 24 28 24 29 18 21 26 24 20 24 17 18 24 17 17 31 20 23 17 20 16 25 18 18 32 23 20 23 30 29 31 19 28 22 23 23 25 25 32 21 18 15 23 30 20 24 20 22 24 25 22 21 30 21 20 15 18 23 22 21 26 21 24 25 25 21 16 31 21 26 27 22 21 26 24 21 26 25 24 18 24 18 22 23 27 16 28 23 22 17 23 23 21 32 21 24 18 20 23 21 21 35 15 22 22 25 24 19 23 18 26 23 20 29 21 23 22 23 14 27 17 16 22 22 24 17 22 24 28 23 25 28 26 23 19 24 18 25 27 26 20 18 15 27 25 23 29 24 19 27 33 28 18 16 23 16 17 19 24 22 16 24 21 24 30 27 23 27 19 29 23 23 17 29 21 25 12 28 23 24 26 18 17 20 20 24 20 17 23 28 20 19 19 17 27 19 27 21 19 25 21 21 16 23 23 21 16 26 24 25 22 31 22 19 27 26 26 19 31 20 17 15 31 24 24 19 23 24 20 17 16 19 20 24 25 21 16 16 20 27 19 19 20 25 16 21 23 30 23 16 28 24 22 21 17 31 16 25 26 24 21 21 22 24 23 22 25 20 18 22 20 23 14 31 26 22 28 23 14 20 25 25 25 30 26 23 16 28 21 20 18 19 16 29 25 20 23 19 28 26 14 22 28 25 21 22 23 23 30 20 27 26 28 21 21 20 22 26 24 13 32 28 24 13 18 17 23 21 16 32 23 25 25 18 19 27 20 23 31 25 28 17 26 33 24 15 24 19 23 18 20 19 23 17 17 20 20 29 21 24 33 25 21 27 23 21 21 26 21 24 29 25 21 20 27 15 28 22 19 18 21 22 27 23 14 20 24 22 21 16 28 28 24 23 19 20 28 21 21 24 20 20 23 19 24 16 13 16 18 22 17 20 28 26 19 26 26 26 21 21 31 24 26 24 28 28 28 21 22 20 25 20 19 14 22 24 28 23 24 22 21 24 24 32 21 17 24 22 25 14 19 24 25 27 20 23 13 27 23 17 33 20 23 27 27 19 20 29 30 23 18 22 22 28 30 15 20 20 24 19 15 22 24 22 24 18 28 19 19 24 23 20 20 31 27 15 26 26 19 30 20 29 18 27 24 24 27 17 27 20 15 20 16 21 17 19 24 28 33 24 23 19 27 20 25 24 23 17 23 31 16 21 20 20 26 22 29 21 22 20 26 19 22 21 18 29 24 24 25 28 17 19 28 29 15 27 19 27 23 23 19 20 23 16 17 21 24 18 18 22 22 16 22 27 19 26 17 31 21 22 20 26 22 21 28 21 21 29 20 25 25 16 18 27 31 27 17 19 30 25 25 25 19 17 25 22 20 16 25 26 17 19 27 25 23 16 20 31 22 24 28 18 24 21 15 25 31 22 25 13 23 29 19 24 23 22 23 30 24 21 20 18 18 20 12 26 22 20 22 19 24 27 19 19 21 17 21 23 23 25 19 19 26 22 26 21 14 17 23 23 25 24 31 21 24 20 16 20 28 23 26 25 22 21 10 19 17 23 17 19 31 20 19 25 22 17 21 19 23 25 29 15 29 19 16 24 22 28 16 26 15 23 34 17 24 22 19 20 19 24 26 23 24 20 31 31 22 24 24 26 28 16 20 32 13 15 30 19 18 26 20 17 30 22 23 23 21 26 24 25 21 18 17 23 26 17 21 19 27 22 18 18 21 26 18 19 33 25 25 13 26 24 19 14 22 17 29 16 23 15 25 17 20 26 22 19 18 18 21 23 15 14 31 28 18 22 17 22 20 22 12 21 24 16 23 21 21 27 18 21 18 25 30 25 19 24 28 27 20 18 23 29 20 24 19 28 17 20 26 20 17 20 23 24 19 24 24 20 26 20 21 25 24 17 26 25 19 22 26 21 23 26 24 21 19 26 26 22 22 23 22 16 16 19 24 21 23 27 31 14 18 24 15 24 20 26 23 23 26 21 30 21 17 18 30 23 20 26 21 20 18 26 22 23 18 20 26 21 27 16 27 17 18 25 25 18 26 21 23 28 25 27 26 23 22 21 14 23 21 15 17 21 30 17 20 17 25 18 18 25 13 17 20 20 30 20 23 22 24 32 22 24 14 27 25 20 24 29 22 17 27 30 22 17 16 26 18 32 12 17 20 17 22 24 23 24 19 28 22 21 18 17 20 22 30 21 28 17 19 30 23 19 20 19 25 14 20 23 20 23 22 18 19 25 20 18 20 23 22 15 21 28 30 29 23 24 21 24 22 20 27 21 23 19 18 26 27 23 35 21 24 21 23 20 8 19 17 23 12 24 25 23 27 25 25 20 20 21 21 33 14 15 22 22 21 21 21 21 26 19 16 20 20 24 18 19 21 24 14 22 18 24 25 26 23 26 22 24 30 26 24 23 26 23 21 25 25 28 19 25 19 21 13 22 19 25 21 20 19 26 22 20 22 17 22 32 25 21 27 18 23 20 17 26 19 19 17 17 23 28 24 26 24 19 19 14 17 23 26 24 31 14 25 24 23 24 17 23 18 15 21 26 28 23 29 14 20 26 19 14 16 17 30 23 33 19 29 16 26 24 16 19 22 19 25 22 18 14 25 27 21 24 19 19 23 10 24 26 24 21 23 27 22 22 19 29 25 26 22 16 19 24 22 18 31 18 18 26 23 15 22 22 20 16 17 19 28 16 18 28 22 27 25 22 11 17 14 26 25 22 23 24 22 17 18 30 19 20 27 20 26 29 11 15 20 22 17 26 27 17 20 18 21 21 26 27 31 20 30 34 23 17 23 20 19 26 23 25 28 24 29 22 24 21 28 22 27 18 27 37 29 24 28 23 22 18 19 25 25 26 20 24 32 19 20 25 26 23 19 26 20 19 25 29 21 19 28 18 23 27 25 15 21 23 17 22 24 18 16 26 26 17 23 21 17 29 15 21 25 25 20 24 15 25 27 21 25 23 21 26 23 21 15 17 22 24 32 20 21 22 21 26 23 22 29 21 28 22 20 23 26 33 20 21 26 19 13 31 20 20 23 26 25 27 21 21 16 24 23 19 32 21 21 25 20 23 35 25 20 20 19 22 24 25 22 26 23 26 28 27 24 16 26 27 14 27 20 29 25 23 20 22 25 29 25 23 24 24 21 23 14 31 17 21 15 19 17 21 19 24 20 19 16 19 22 22 15 17 24 21 28 35 19 26 26 28 26 14 28 22 24 22 23 22 22 29 8 27 24 21 23 14 25 21 23 21 25 19 26 18 20 25 22 20 21 22 19 18 27 26 18 20 23 24 20 16 23 29 24 24 21 26 23 21 19 19 29 21 28 15 20 20 21 27 19 18 23 21 20 22 17 25 20 12 21 19 18 17 27 14 22 23 30 21 24 34 17 21 18 15 28 23 27 14 18 23 17 28 20 18 20 15 14 23 22 18 25 20 23 20 25 17 22 25 17 21 17 30 25 28 28 20 23 28 20 26 26 20 24 18 26 16 28 26 19 20 24 24 15 16 32 20 27 23 22 18 31 22 16 18 23 28 19 33 11 22 21 20 22 18 25 23 21 23 27 16 24 29 18 30 20 20 16 23 31 26 23 18 15 22 30 24 26 19 20 21 26 22 18 28 21 18 24 21 23 21 21 20 24 16 27 21 27 23 19 22 15 25 15 22 25 28 24 28 26 12 23 17 30 16 24 31 22 22 28 25 27 22 17 25 21 20 22 24 22 18 25 21 27 22 24 20 23 20 15 27 22 28 24 21 14 17 21 26 22 20 23 26 13 18 17 27 19 27 10 19 22 27 30 16 35 22 21 25 21 21 22 17 20 27 23 24 33 18 21 14 22 22 24 21 21 18 25 23 17 22 18 31 26 23 15 17 24 19 26 23 17 23 27 27 23 16 21 21 23 17 14 22 21 20 28 28 23 22 28 30 21 16 20 20 21 28 26 21 30 26 18 22 30 33 30 23 14 24 27 24 25 19 21 29 18 20 24 23 21 26 25 26 16 21 19 23 17 26 22 23 23 18 16 28 22 20 20 19 26 22 25 21 19 16 26 22 19 19 23 32 20 18 15 23 23 22 25 27 25 21 19 21 18 25 21 32 22 19 23 30 17 23 20 26 25 27 22 21 20 22 26 23 24 22 25 29 18 21 18 20 22 21 28 29 19 20 21 24 21 16 22 20 31 19 20 23 27 24 29 28 27 23 23 19 25 21 20 15 25 20 16 24 22 29 26 27 19 19 20 23 17 21 24 24 25 26 24 16 18 24 23 24 18 29 22 20 19 17 17 28 24 32 28 21 20 21 21 19 20 26 17 13 24 18 15 21 21 19 19 25 15 19 27 20 19 25 18 15 24 14 27 30 17 27 23 21 23 21 25 29 29 28 24 18 19 15 23 21 26 19 19 21 26 20 23 27 24 30 24 23 15 25 20 21 20 25 34 15 27 19 19 24 19 27 21 21 26 14 23 14 24 24 19 19 26 22 19 22 27 25 24 23 25 25 23 15 18 26 33 18 25 25 24 22 17 21 31 15 17 26 30 34 23 21 24 27 23 24 18 22 30 21 29 28 26 29 24 22 19 30 15 16 16 25 29 16 31 27 25 24 13 20 29 14 28 20 28 25 13 23 19 30 27 22 15 15 19 15 24 20 21 13 17 23 12 21 18 20 21 16 27 29 25 23 25 22 25 17 21 26 26 20 22 19 30 26 25 29 23 22 26 27 26 23 14 21 16 13 26 15 19 25 25 30 15 24 23 34 19 27 13 16 17 24 21 21 23 21 21 12 22 21 26 23 32 22 25 23 14 20 24 29 14 28 26 26 22 22 19 23 23 24 21 26 18 26 16 20 23 26 22 20 13 16 25 16 27 26 29 28 20 20 15 26 26 24 21 20 22 19 19 16 26 18 27 18 17 35 25 16 20 19 20 26 25 23 22 27 17 25 15 25 22 20 14 21 18 18 22 19 20 28 20 26 28 20 18 16 30 23 20 27 23 13 18 30 29 23 19 24 18 19 15 23 25 22 21 23 24 29 25 20 30 14 17 18 23 23 25 25 24 28 23 24 16 25 23 19 27 16 21 20 21 21 17 25 23 21 28 23 29 28 20 28 22 30 27 19 24 21 27 23 18 20 22 23 24 31 18 25 27 20 19 21 26 25 19 31 20 26 31 20 19 22 21 19 24 23 26 21 22 22 26 27 29 23 28 27 26 26 23 23 23 20 25 18 19 16 13 18 20 26 18 21 36 20 29 15 24 32 22 22 19 19 19 23 30 26 21 30 26 17 27 27 24 16 20 18 25 18 13 22 26 19 21 22 19 27 22 19 25 21 19 19 25 23 22 24 19 25 22 24 26 24 22 37 22 17 19 25 27 21 14 34 17 31 17 18 14 30 27 21 19 16 18 21 19 19 20 11 25 22 20 19 20 27 21 22 23 30 16 16 29 16 23 28 28 24 18 25 17 26 28 20 26 25 27 22 22 24 21 24 29 18 19 26 24 24 21 25 30 20 22 14 13 23 26 22 27 17 16 19 34 21 25 22 16 23 23 27 23 21 19 18 21 23 27 25 28 25 16 24 29 26 19 25 22 15 25 16 16 30 28 19 20 23 24 18 23 19 25 17 23 17 19 28 13 21 27 18 25 14 24 20 29 19 25 17 26 18 18 15 19 18 22 25 24 26 20 23 22 26 16 26 29 26 23 20 19 30 22 28 16 21 16 21 22 32 27 20 25 26 19 29 16 25 15 18 29 24 19 18 34 22 26 27 24 14 28 24 26 22 28 16 21 23 20 29 23 24 17 21 24 25 21 26 22 21 25 24 27 24 20 16 18 19 16 22 18 12 24 19 30 27 31 20 23 26 25 25 25 25 25 27 30 22 25 15 27 24 15 30 21 23 27 27 25 21 30 22 24 25 27 27 25 18 24 22 22 24 23 28 25 16 18 28 28 20 22 17 14 15 19 16 27 21 24 21 28 21 19 23 32 22 20 26 25 23 19 29 14 24 23 20 27 32 16 21 22 20 26 20 17 19 15 22 25 18 27 18 21 29 26 32 15 23 21 20 28 20 30 29 23 21 18 20 27 20 21 26 16 25 22 23 25 27 22 18 19 27 18 29 29 26 14 26 20 21 24 13 27 26 24 16 22 23 22 34 25 23 19 24 16 12 24 29 23 22 15 21 22 26 22 25 22 20 21 27 23 21 17 21 23 16 26 18 24 16 20 17 16 20 21 21 22 18 25 24 19 24 19 22 17 21 20 21 29 22 20 25 22 15 29 21 21 22 20 25 18 17 25 19 32 24 15 21 22 19 20 16 25 26 25 25 28 23 25 17 23 16 18 19 23 22 29 26 19 24 22 21 22 26 20 24 22 18 18 22 23 24 18 32 19 18 19 25 26 20 14 20 28 29 27 16 19 15 29 22 21 24 19 22 30 23 29 16 27 30 18 20 21 27 20 19 14 17 24 24 35 27 19 20 19 31 30 20 27 26 22 26 26 20 19 27 22 22 27 18 22 27 19 17 18 16 20 19 26 23 28 28 21 29 35 22 21 27 24 19 21 23 28 27 25 23 25 20 23 24 17 15 16 23 24 25 22 29 26 19 28 21 26 23 25 25 29 27 26 21 19 19 25 26 27 36 26 34 27 24 20 16 17 22 20 22 17 25 10 19 24 26 28 24 24 19 21 23 22 18 19 17 31 25 19 21 27 20 24 23 25 25 25 19 23 26 23 21 27 23 18 32 22 16 15 25 20 20 20 18 21 25 15 22 22 27 33 29 14 19 20 14 21 21 16 20 16 19 30 13 25 26 24 21 23 24 25 24 24 29 20 22 21 10 20 29 22 23 25 22 29 21 14 23 18 18 24 21 25 18 18 20 27 22 36 21 19 30 19 15 28 25 21 25 25 38 21 35 24 24 10 27 20 26 23 24 20 30 29 22 21 16 31 20 15 28 34 26 25 27 18 32 30 18 20 26 25 31 21 24 24 14 25 23 26 31 17 21 21 19 16 30 29 23 24 22 21 27 25 24 19 18 30 28 21 30 19 25 28 20 27 21 22 31 23 25 25 24 16 20 29 23 26 23 20 21 20 23 18 24 28 28 22 22 24 16 19 29 27 25 15 29 23 17 17 18 20 20 25 16 28 25 26 22 21 24 22 18 26 15 18 24 24 19 27 25 37 20 20 24 17 16 23 22 20 23 25 22 17 21 26 19 22 24 31 26 19 22 18 18 19 26 22 27 31 27 19 30 18 26 21 26 21 18 20 25 23 21 24 17 18 21 27 16 20 16 19 27 23 18 17 30 16 25 25 21 18 21 15 26 22 24 21 24 24 18 28 22 21 23 29 23 14 19 13 18 18 26 27 23 28 21 20 30 29 19 20 26 24 30 20 16 28 29 23 21 27 25 23 23 20 26 23 25 21 16 27 22 26 23 30 26 20 28 22 22 28 18 28 18 24 24 23 20 18 22 19 27 18 21 22 20 24 20 19 20 21 24 24 25 17 28 13 25 13 26 21 23 18 21 13 26 19 22 26 24 24 27 21 13 21 24 25 21 19 21 19 27 27 18 22 23 16 22 19 25 28 24 30 20 23 23 28 25 27 26 27 17 22 24 12 25 33 23 23 19 26 27 28 19 17 23 25 24 17 21 19 23 24 29 17 24 26 25 36 22 28 23 21 20 21 17 20 19 24 25 25 18 20 23 24 24 23 29 22 20 24 18 20 32 20 23 24 20 18 22 15 17 27 25 30 22 20 14 27 22 13 19 23 25 25 25 21 13 29 21 26 24 19 27 19 21 21 22 21 19 22 27 19 17 21 20 19 21 23 18 14 24 24 22 30 18 20 21 27 22 23 18 19 22 28 18</t>
-  </si>
-  <si>
-    <t>NIG(100.73842954073565, 70.61619599328552, -1.0025245826986717, 34.200687012804764)</t>
-  </si>
-  <si>
-    <t>42 29 19 35 41 35 41 29 24 28 35 37 35 32 28 35 16 35 38 33 35 23 31 30 40 32 28 36 28 35 44 33 36 32 41 35 31 31 24 36 30 32 30 35 27 41 33 34 28 36 39 30 34 32 37 32 42 25 35 28 26 30 43 29 30 36 27 28 29 25 37 23 25 32 24 43 36 31 41 37 29 33 38 29 26 36 41 28 38 25 26 30 28 20 28 34 20 36 29 29 30 26 32 19 32 29 36 31 30 36 39 28 28 41 29 24 33 26 26 27 30 31 35 29 29 26 35 33 29 35 42 30 41 39 31 39 39 33 23 29 35 25 30 41 31 41 35 29 30 37 32 35 31 34 35 39 34 26 29 36 41 27 33 34 39 48 31 42 35 34 39 29 27 43 30 30 17 31 39 33 40 29 31 43 31 35 30 38 30 42 39 34 25 31 34 38 26 32 36 37 35 39 29 33 29 43 32 35 37 37 37 29 36 38 44 30 36 24 28 35 26 34 29 35 31 31 35 36 33 32 29 34 43 29 32 29 26 25 45 31 37 39 36 31 28 27 27 24 29 28 38 33 29 28 34 28 28 33 27 36 31 24 31 38 50 46 36 33 30 28 28 28 33 35 33 45 26 35 27 27 22 30 23 25 31 34 37 26 26 29 40 21 36 32 35 41 34 32 33 28 44 25 41 34 33 30 34 30 31 27 28 39 38 28 29 46 36 28 29 33 27 30 43 38 46 36 35 22 38 34 32 35 36 36 26 25 22 37 38 27 29 26 30 28 34 35 32 28 30 27 43 33 40 29 36 36 28 33 41 30 23 36 34 32 45 34 27 33 36 43 33 26 37 21 24 39 32 27 27 27 36 35 33 34 32 16 37 39 30 35 33 31 34 29 30 31 30 31 35 26 37 35 22 32 36 44 30 41 27 37 28 36 34 41 32 39 26 43 37 42 34 25 32 37 29 36 26 29 35 34 31 27 41 34 35 29 44 31 28 31 31 37 27 31 30 30 33 26 34 31 29 26 38 29 35 35 27 24 36 29 23 32 31 46 27 21 35 29 37 25 42 39 47 22 26 37 25 24 34 26 37 43 27 27 29 36 29 27 33 22 27 36 29 29 33 28 27 29 26 29 28 24 24 37 32 26 16 49 34 47 30 45 24 34 38 25 38 22 37 29 25 39 31 27 36 41 30 35 46 23 31 25 35 33 33 27 35 35 28 42 35 39 35 38 29 37 27 33 33 32 38 28 30 27 18 33 28 30 33 27 26 30 33 27 28 27 33 38 31 31 34 35 34 29 32 33 28 27 45 40 22 27 29 35 17 24 31 31 39 32 38 30 43 27 27 26 30 32 32 37 29 40 35 34 25 38 27 28 41 30 39 26 28 36 33 32 36 24 27 37 35 27 31 39 31 29 33 36 45 33 25 28 31 31 32 35 31 32 33 38 22 34 34 36 33 28 36 42 40 34 42 35 33 42 35 31 27 32 38 37 24 33 43 30 36 23 23 26 40 18 29 41 27 35 38 31 39 31 31 32 26 23 38 35 34 34 31 26 32 36 44 40 46 25 33 28 29 23 26 43 29 51 26 27 37 35 35 23 43 39 26 40 43 36 27 39 32 35 33 32 37 40 31 34 32 31 38 33 35 29 33 41 35 40 35 46 37 27 39 26 29 37 33 41 32 29 34 29 33 31 37 28 26 35 36 25 36 31 28 34 27 35 37 31 34 29 30 36 34 27 37 39 35 24 44 28 30 35 26 31 35 31 31 40 38 31 40 31 34 34 30 30 40 44 34 38 20 34 38 43 35 32 23 34 28 27 28 27 34 43 40 32 26 31 36 24 31 28 26 30 31 33 47 31 37 40 32 26 45 40 38 27 31 35 42 31 31 26 26 30 35 33 28 35 34 33 36 30 41 28 31 32 38 34 31 32 34 38 30 32 40 31 34 28 27 28 34 26 27 26 39 34 29 29 34 31 33 29 27 32 29 25 39 36 31 31 26 38 33 31 23 27 27 32 25 27 31 28 29 21 27 35 35 30 36 25 33 36 32 35 30 38 37 39 29 25 31 28 29 25 26 29 19 32 42 38 35 33 34 40 30 28 27 32 32 40 49 30 35 33 32 27 25 25 35 38 30 38 39 35 26 27 30 29 28 31 23 33 29 23 41 32 20 40 27 33 32 21 24 35 32 27 33 42 42 37 20 25 39 36 34 26 39 42 34 44 28 30 25 34 29 29 28 34 30 35 39 40 34 34 35 37 35 43 33 28 39 33 34 32 29 32 35 36 36 36 36 41 35 32 29 31 32 30 31 23 26 36 29 51 35 32 22 26 26 36 29 35 35 29 35 23 24 32 33 36 30 26 33 42 36 34 35 28 35 33 36 38 33 25 33 32 38 20 29 24 35 39 26 23 35 39 49 28 31 34 30 32 35 31 30 29 35 29 20 33 34 32 30 40 33 35 38 32 40 37 26 34 32 38 39 35 31 33 37 28 34 34 36 31 33 26 33 33 36 21 32 27 24 29 22 18 29 32 37 43 41 28 43 35 31 49 32 31 28 34 33 39 36 21 31 29 44 32 35 39 34 32 35 26 20 35 30 39 29 33 28 26 35 31 20 29 41 30 25 35 38 36 28 34 25 32 35 39 29 40 31 35 33 37 26 34 28 25 37 27 29 39 30 33 29 31 37 43 24 28 32 26 38 31 38 26 36 31 32 32 35 31 42 41 42 32 38 31 47 33 26 36 35 36 40 31 25 44 24 40 33 36 33 34 30 42 29 23 35 29 41 28 36 29 27 25 35 35 30 29 33 29 35 31 30 31 25 38 32 28 38 39 23 38 32 31 39 43 33 33 32 34 33 29 29 33 36 37 31 30 28 29 44 27 33 33 29 34 35 36 25 29 32 29 29 43 35 34 24 40 23 46 34 30 42 45 35 37 21 33 26 23 34 29 27 37 33 36 31 34 31 29 29 29 33 28 32 33 29 26 34 36 35 37 31 30 41 36 30 28 32 35 26 23 36 41 21 40 31 20 38 33 29 36 31 34 35 32 39 32 34 25 35 30 25 41 31 46 32 31 25 30 35 32 36 24 30 22 41 33 30 29 42 34 32 32 29 31 39 29 30 50 32 27 40 43 31 30 30 23 31 33 40 28 44 25 43 35 38 33 26 24 35 38 28 37 33 38 37 31 35 28 35 41 30 35 33 29 22 35 47 27 37 38 33 25 27 40 30 24 34 42 28 35 31 32 32 34 35 37 38 30 32 35 50 35 42 38 24 29 35 30 33 36 28 34 31 29 32 30 41 31 39 41 42 34 31 46 46 30 36 38 31 42 34 40 34 41 30 42 27 35 39 34 32 33 36 23 24 25 44 37 40 36 28 25 39 27 35 25 30 28 40 28 34 22 30 33 35 35 32 38 37 34 33 34 35 41 31 38 36 38 28 23 25 34 33 29 29 26 29 40 32 23 37 28 38 27 29 35 26 31 34 37 28 37 47 43 35 35 34 33 28 31 21 26 35 46 32 35 41 24 33 36 32 35 34 38 38 17 36 35 29 34 24 32 41 31 27 26 36 35 41 37 27 39 35 33 37 48 29 31 29 36 28 32 35 44 38 39 33 35 31 29 32 33 42 29 47 26 33 34 32 44 36 31 29 29 40 32 32 29 28 36 38 30 26 39 30 37 42 32 23 34 33 37 42 28 34 37 34 35 35 31 40 34 30 38 32 41 25 32 28 25 40 34 34 29 39 40 29 35 26 30 25 36 32 29 29 38 31 41 25 32 24 42 32 24 39 25 30 31 26 32 34 28 36 28 32 39 35 30 26 28 35 29 32 25 35 35 34 29 31 50 30 28 22 36 29 27 33 35 25 35 35 22 31 34 20 30 33 18 36 34 27 29 24 37 29 30 40 27 25 28 31 34 33 42 32 31 32 34 27 29 27 36 32 28 36 36 36 40 33 21 33 37 32 30 20 39 32 32 36 26 33 29 40 33 37 30 35 31 36 38 42 28 28 48 30 43 30 36 43 31 32 36 35 22 37 31 26 31 33 27 29 32 41 36 30 34 37 26 25 29 21 35 43 26 36 27 33 32 38 30 33 37 27 33 30 38 33 28 26 32 37 39 28 32 28 34 39 36 45 42 29 27 33 31 28 36 21 29 38 41 25 26 33 36 37 36 30 47 36 32 30 38 29 33 29 33 37 37 27 34 32 24 37 26 33 34 25 21 36 35 35 28 29 30 24 31 34 22 32 30 31 27 32 28 39 35 41 30 30 28 26 32 24 26 30 26 30 23 31 31 35 42 39 31 36 26 39 38 30 38 27 42 32 29 42 36 31 28 44 30 38 35 24 29 27 28 27 26 31 33 41 30 29 28 31 33 30 41 27 42 41 30 31 30 34 34 32 23 34 35 27 27 35 31 37 29 36 36 26 30 35 30 28 28 44 30 35 28 35 31 29 31 30 27 31 23 37 36 24 39 31 26 30 29 31 42 29 39 30 30 33 34 24 31 44 34 32 31 35 35 38 28 30 26 25 30 37 34 36 34 24 30 31 43 39 30 24 31 36 39 39 34 36 30 38 30 35 48 32 37 22 39 33 30 27 29 34 21 30 41 28 31 33 25 28 31 34 23 29 31 35 33 36 36 35 32 41 27 40 37 26 29 32 27 37 32 39 30 47 29 27 39 27 31 28 31 39 27 35 32 32 19 37 30 28 33 27 34 38 31 32 24 30 43 30 32 32 48 24 31 31 27 32 48 35 31 34 25 24 25 32 22 28 36 25 43 31 31 30 37 37 36 28 26 31 28 33 28 35 33 37 40 34 26 42 32 34 45 35 47 48 35 34 36 43 40 32 32 23 33 35 31 28 38 40 38 37 26 22 44 34 32 33 31 33 28 35 31 31 29 35 34 35 34 39 23 48 33 30 29 24 30 28 36 39 34 40 41 25 39 24 34 32 31 38 31 39 30 32 28 33 28 29 28 31 23 29 40 39 36 35 32 27 32 34 28 21 34 37 32 51 35 32 38 28 37 27 42 20 32 42 35 28 29 40 40 29 39 34 26 35 43 37 34 37 31 35 40 38 42 35 40 29 30 36 28 34 32 25 42 36 30 40 29 33 27 44 32 33 37 31 39 36 28 38 31 31 24 39 32 34 36 30 33 32 24 39 28 33 34 36 28 36 41 21 38 28 38 41 29 33 32 41 29 28 42 37 22 34 34 30 23 36 34 25 30 21 36 35 27 30 37 37 34 31 33 30 32 33 44 26 39 33 28 35 39 32 39 37 26 37 37 24 34 32 25 44 36 33 35 31 34 23 31 40 28 45 35 28 30 41 33 33 32 29 21 42 29 36 44 28 32 27 29 35 27 27 21 42 52 30 41 32 38 28 35 35 30 36 44 33 37 24 31 34 32 39 39 36 28 40 38 25 31 23 29 40 20 24 35 40 42 41 39 27 27 32 37 33 33 34 42 46 22 43 30 29 36 40 41 37 25 23 32 33 48 27 34 24 28 39 30 34 26 40 39 25 34 38 35 36 26 46 39 40 40 28 24 31 27 40 19 31 39 39 31 31 33 38 36 29 33 32 29 38 27 25 41 38 35 24 29 30 29 29 31 36 31 39 37 42 40 38 25 36 33 37 31 34 25 37 34 31 31 30 33 37 28 26 32 39 30 31 24 32 30 43 36 29 45 30 28 29 22 33 27 44 28 43 30 27 37 28 26 34 23 38 39 23 34 33 35 41 41 33 29 32 30 25 30 26 26 26 28 38 23 40 39 34 43 44 35 33 33 36 33 30 27 31 30 42 26 26 39 36 31 26 32 36 31 34 31 33 36 32 37 27 36 33 32 21 38 33 37 21 22 25 34 32 30 31 22 26 30 44 40 30 38 35 24 29 40 32 35 24 34 34 31 35 35 42 33 32 39 35 36 20 36 40 29 36 30 27 26 41 29 42 27 34 36 35 27 28 25 37 40 31 37 43 30 37 37 27 40 27 31 36 25 32 36 33 35 35 42 37 33 35 23 23 29 31 32 36 45 32 23 34 28 30 32 29 24 36 35 36 34 29 33 28 28 42 32 26 27 33 33 25 25 28 29 29 32 33 22 27 32 23 35 26 31 26 35 29 33 33 36 34 27 26 31 27 37 35 39 41 27 32 35 35 39 33 25 27 33 29 39 27 32 26 33 33 39 29 25 32 33 29 29 26 24 32 36 33 30 36 35 37 29 35 31 33 33 29 34 33 45 22 27 25 25 38 26 21 47 29 32 26 24 29 45 37 29 32 38 28 29 38 37 44 24 43 36 30 29 31 37 28 28 27 36 31 27 27 36 30 29 33 33 29 46 35 39 24 34 32 42 29 32 33 36 23 39 31 38 38 27 29 35 23 36 29 32 37 29 32 27 27 27 41 31 36 31 31 60 32 34 42 46 27 24 31 29 33 42 27 35 27 32 26 30 39 34 36 25 29 18 25 31 35 32 27 30 31 28 36 38 38 31 22 43 35 37 26 36 26 32 25 25 42 36 28 25 32 31 24 26 33 27 30 29 39 35 24 34 23 25 33 38 26 39 25 24 39 43 25 30 34 40 40 42 33 32 29 33 29 37 30 31 36 40 27 31 24 37 44 31 33 40 19 33 36 30 30 28 44 27 24 28 34 27 42 28 33 30 23 30 48 26 38 43 34 36 38 39 26 50 35 32 27 30 29 37 25 29 25 29 21 38 21 33 25 27 33 31 33 27 38 33 19 25 30 31 38 28 38 35 29 20 33 35 31 22 27 37 31 31 17 39 28 36 41 20 26 32 39 36 24 27 32 38 32 28 34 49 32 25 30 32 29 36 39 31 30 27 36 41 31 43 31 31 40 36 36 28 27 45 25 42 41 30 38 34 40 38 29 39 35 25 36 45 36 23 32 29 28 36 28 22 32 37 30 35 37 34 30 40 37 27 40 41 32 34 24 43 30 25 31 43 31 36 34 32 39 43 31 29 30 36 36 47 34 33 31 29 44 24 31 32 37 35 27 30 35 24 36 39 33 25 35 26 24 29 32 36 29 42 34 33 27 41 34 32 42 37 27 27 44 28 30 36 30 32 27 34 25 37 28 31 37 29 29 24 31 29 34 25 38 27 39 39 20 30 31 40 30 36 38 30 28 31 40 24 36 35 30 45 28 27 28 25 27 33 29 29 38 25 44 24 30 32 32 40 29 40 41 31 31 25 37 45 30 35 26 32 32 27 33 28 22 34 32 32 32 29 36 36 29 38 34 37 37 35 39 31 27 37 26 28 28 34 31 27 33 27 37 40 33 34 36 27 44 41 41 27 31 26 33 29 24 34 40 33 25 41 24 35 30 25 32 37 40 27 27 26 48 40 37 36 29 28 33 26 27 33 29 37 36 41 39 40 25 34 31 32 38 36 26 40 41 38 34 36 26 33 30 48 32 35 35 36 41 36 40 35 31 40 31 32 33 30 30 40 26 24 34 26 28 31 25 29 33 32 34 37 28 32 26 27 47 28 35 26 29 38 26 30 32 36 28 25 33 27 31 37 36 35 25 26 39 44 41 39 31 24 31 37 29 31 30 28 32 38 35 28 38 25 26 37 40 41 44 32 32 32 33 34 39 45 34 33 34 30 37 24 31 37 43 22 27 28 31 31 25 31 24 30 28 44 36 27 43 28 38 25 27 26 40 35 32 22 35 34 30 34 39 25 42 34 36 33 30 42 29 29 35 25 27 30 26 32 28 27 36 28 34 51 48 31 34 41 35 30 33 39 27 49 32 38 31 32 37 39 29 26 41 45 41 38 33 40 35 28 41 24 31 31 38 34 35 27 45 41 35 33 44 35 33 39 32 28 36 34 27 25 26 24 45 24 33 32 40 35 27 31 32 32 30 23 43 30 37 37 28 29 29 28 27 40 38 26 36 40 40 29 30 30 36 30 34 32 35 32 32 29 30 34 25 26 28 31 39 22 32 40 28 40 37 39 31 30 27 40 37 41 30 44 45 22 28 33 32 35 35 30 46 35 33 41 33 20 42 29 28 29 25 35 37 23 33 27 40 33 45 29 41 26 23 29 32 39 35 29 36 35 30 25 32 36 32 40 30 37 34 31 25 35 32 22 32 34 41 44 33 37 30 37 31 35 38 41 40 29 35 25 26 39 30 24 26 34 32 27 31 49 25 34 28 27 38 46 23 43 28 23 30 34 26 38 31 22 39 29 31 19 31 42 19 24 34 40 27 29 34 27 25 31 35 46 39 35 32 25 35 29 31 29 26 25 38 32 26 32 27 41 36 35 35 30 42 41 24 35 36 36 29 37 28 26 32 31 36 40 32 31 31 34 49 35 37 28 40 35 42 29 34 20 25 46 35 30 37 30 30 35 29 32 25 36 28 26 26 37 42 33 36 28 26 36 42 31 35 34 27 40 38 31 29 44 34 33 34 23 39 37 33 33 34 25 28 30 29 41 36 31 31 35 37 33 25 32 36 28 33 31 35 35 31 38 33 36 31 30 30 25 36 32 39 36 35 28 42 31 29 35 27 42 25 28 40 37 36 30 24 31 28 32 37 33 29 33 32 37 39 38 27 33 50 24 35 40 35 34 28 33 35 31 37 31 30 27 34 25 36 25 36 38 30 28 26 36 35 29 24 36 31 39 34 36 27 34 31 35 32 33 29 34 26 27 30 32 38 41 34 31 30 27 31 30 39 42 31 23 31 38 30 24 39 33 33 33 31 35 27 36 28 35 32 26 27 43 34 36 39 31 23 33 25 26 32 35 28 25 43 34 33 33 36 27 27 39 32 33 37 27 33 34 33 39 35 31 26 38 36 40 31 33 28 38 38 33 32 30 39 28 29 39 29 28 22 24 34 39 34 25 38 32 35 36 26 28 28 32 40 34 34 39 35 32 40 32 35 24 30 33 26 37 28 31 36 28 31 43 39 35 38 27 35 24 43 28 22 42 35 23 35 30 27 42 26 28 23 29 44 30 31 34 32 33 38 35 42 37 22 33 31 38 27 30 24 23 35 34 36 37 25 30 23 29 39 38 37 25 30 22 37 34 34 27 37 35 37 31 32 26 36 36 34 32 40 28 32 33 32 31 25 31 19 38 28 33 32 41 20 40 26 27 34 39 33 30 28 35 37 33 33 34 34 28 32 37 28 34 40 31 38 29 36 39 39 32 35 27 22 32 26 37 31 30 38 35 36 27 28 26 38 33 29 30 29 26 39 35 37 30 29 40 30 35 40 32 41 31 22 38 36 32 37 40 28 29 40 24 35 43 44 43 29 40 39 35 33 39 21 41 38 31 29 37 30 30 42 33 30 35 31 27 31 24 32 38 36 35 38 31 28 38 39 26 37 35 38 38 42 31 28 32 27 25 27 40 42 28 32 38 30 28 46 27 35 26 33 40 32 25 38 27 26 32 28 28 25 29 44 42 28 36 53 27 29 32 35 27 31 34 31 36 35 21 34 24 37 33 33 40 29 30 34 32 28 27 33 27 35 30 42 33 38 33 30 32 43 23 43 42 31 35 38 29 42 30 38 28 31 36 33 22 36 33 38 21 40 34 31 31 30 30 26 30 28 34 30 39 32 34 31 28 35 28 29 28 28 31 24 37 27 33 24 30 28 35 28 42 31 36 39 40 33 33 36 32 31 39 34 35 30 31 27 42 33 29 31 27 25 37 39 23 30 32 25 25 33 33 36 39 31 37 30 33 37 26 28 25 26 37 32 39 31 35 25 31 30 33 33 31 22 21 35 30 31 27 30 39 42 36 43 38 32 25 39 34 27 25 34 28 25 36 28 46 34 43 34 26 30 30 31 40 34 27 31 37 33 34 37 32 30 36 25 29 28 30 26 33 21 35 35 38 27 35 31 39 37 29 29 28 37 36 27 31 35 30 44 38 32 33 33 35 34 40 37 24 37 37 35 33 37 24 38 36 28 41 33 28 33 35 28 32 30 26 32 33 41 44 31 34 33 38 35 33 27 30 33 37 36 27 31 28 27 30 25 26 30 32 29 33 31 19 32 26 45 36 40 28 33 28 38 34 36 29 31 38 35 33 35 50 40 39 35 31 30 32 31 36 30 29 30 24 32 44 33 37 30 26 24 21 24 31 26 36 30 30 39 31 46 39 31 44 34 29 29 35 43 31 28 37 34 31 35 35 33 32 35 28 29 35 39 25 28 24 40 32 44 38 30 42 25 32 31 28 36 37 45 33 37 28 26 34 29 35 42 34 39 23 30 36 36 44 32 41 34 33 28 18 38 31 36 33 33 31 38 33 24 33 35 34 32 35 25 34 34 31 33 32 40 41 23 31 35 36 31 37 35 37 50 24 39 36 37 30 34 31 32 38 31 48 41 29 22 29 28 23 32 39 31 32 34 43 45 41 28 26 29 43 20 35 37 29 30 24 31 42 37 36 31 27 33 32 28 36 31 35 26 37 32 32 37 38 34 37 34 30 23 33 26 33 27 40 32 38 32 33 39 43 30 28 34 40 36 32 34 26 26 25 41 34 25 32 24 32 31 36 25 24 30 33 37 31 35 30 31 36 38 34 35 34 29 40 41 32 26 36 30 32 38 29 43 38 27 39 33 32 35 33 28 27 40 33 24 34 34 25 28 30 38 37 30 33 28 29 36 32 28 45 41 32 40 26 27 37 28 27 24 26 29 35 29 33 29 38 45 34 40 20 34 35 28 25 24 37 35 36 43 28 36 34 40 30 26 37 29 27 25 36 20 31 28 33 30 30 41 33 20 37 36 36 41 37 39 34 39 35 32 38 36 32 31 33 21 29 25 32 23 33 27 32 31 26 27 33 22 28 20 34 26 26 34 38 31 34 32 35 34 27 40 20 26 46 25 26 39 41 27 32 32 33 41 37 31 31 33 26 28 35 36 30 42 39 31 30 24 36 29 26 38 29 38 36 30 41 32 31 31 33 32 30 34 27 37 25 36 38 25 27 30 39 33 28 35 35 40 33 37 31 30 24 28 27 38 28 36 26 30 39 38 30 36 42 35 42 22 31 33 31 33 33 37 39 36 30 26 35 26 31 41 31 24 29 34 43 34 33 24 31 33 28 32 24 41 41 39 36 29 31 33 26 29 24 31 31 26 35 26 26 31 26 34 35 31 33 39 31 32 26 33 25 30 26 38 33 29 32 25 37 28 27 30 28 33 28 29 37 28 35 38 31 29 23 36 45 32 32 39 39 31 29 34 41 33 34 34 38 32 28 31 24 47 39 32 27 52 28 27 28 27 24 34 26 35 26 30 29 33 28 33 33 22 31 32 43 32 31 30 36 33 30 31 32 37 27 34 40 50 33 33 38 37 24 47 30 39 38 34 23 37 34 34 36 38 33 37 35 33 31 49 28 38 36 38 29 29 31 27 23 29 46 26 34 32 36 26 35 46 32 46 39 32 35 36 25 30 31 35 27 40 33 33 22 30 29 30 23 34 29 36 29 40 33 41 34 26 38 24 31 38 33 31 30 35 31 42 42 31 35 38 35 26 34 25 35 42 35 38 32 35 36 31 52 34 39 27 24 32 19 31 43 31 29 26 28 34 45 37 22 32 41 33 34 35 39 39 28 44 29 30 41 37 39 37 33 32 30 31 28 45 34 25 37 30 41 36 34 36 30 44 39 34 33 33 35 33 38 26 37 25 28 32 26 30 37 32 23 39 35 29 33 27 29 31 34 45 31 29 29 34 38 50 28 37 37 27 35 27 26 29 35 36 32 40 22 32 34 36 38 32 35 31 29 26 25 38 32 19 27 20 25 20 40 45 29 25 32 37 37 27 35 38 32 34 31 27 31 41 30 31 40 41 38 42 36 26 36 29 25 28 38 26 44 30 34 31 31 37 32 30 37 26 36 31 32 28 32 27 32 26 29 34 35 28 33 29 32 37 37 34 31 22 26 39 28 33 34 33 41 38 43 27 39 30 37 37 28 38 30 26 32 33 47 43 37 35 34 36 43 47 25 23 38 30 28 32 29 34 27 28 43 40 24 33 31 36 28 37 33 35 26 27 45 34 37 31 33 25 34 44 33 34 29 40 30 33 34 30 28 34 28 32 24 30 35 28 46 37 37 34 47 23 34 28 46 36 32 29 26 47 46 40 35 34 30 33 27 43 23 29 37 43 42 30 35 35 46 27 35 32 40 29 27 31 28 32 32 31 31 30 37 27 34 34 35 29 34 26 22 33 27 42 30 45 36 30 38 32 26 51 24 37 31 32 35 29 36 38 47 41 30 31 33 27 30 41 38 26 38 38 33 32 41 21 34 29 30 39 32 36 33 25 27 32 24 30 35 27 37 31 35 42 35 38 39 32 37 37 27 38 33 36 42 42 35 37 30 32 27 32 33 35 35 33 25 24 32 28 36 27 29 38 31 36 28 41 32 21 33 35 37 29 19 36 28 32 29 31 38 35 37 40 32 36 31 33 38 31 31 48 32 35 28 28 22 28 38 36 22 36 22 41 28 28 51 35 35 34 39 26 40 26 39 42 30 35 34 32 33 36 31 35 32 27 19 30 36 34 36 34 40 30 34 26 34 40 35 26 30 31 36 34 36 51 37 38 37 37 33 33 34 24 40 37 42 38 36 29 42 26 29 33 31 27 33 39 25 29 33 47 32 31 30 45 43 28 34 33 24 35 31 29 37 35 29 34 33 35 34 39 33 30 35 44 28 33 27 26 37 37 31 34 38 32 33 32 27 25 37 34 32 33 30 31 28 25 34 32 31 24 38 37 35 31 37 39 33 37 40 32 29 39 33 33 25 36 35 27 34 30 33 38 38 30 32 28 37 28 34 29 27 34 34 35 29 35 29 32 38 21 34 43 28 32 27 31 34 28 27 42 30 30 31 22 26 37 27 22 33 37 30 43 33 35 29 39 39 42 24 24 35 20 28 36 29 30 26 31 31 33 32 36 29 19 21 25 32 38 29 38 31 38 31 37 36 30 37 36 31 30 29 30 38 26 29 31 39 34 32 32 34 29 40 31 24 34 35 25 31 25 34 38 36 34 26 25 34 31 41 36 33 34 34 29 32 29 33 40 23 35 34 35 40 25 30 31 35 32 34 38 30 37 32 26 43 26 40 30 41 30 36 26 33 29 34 28 18 26 25 36 37 21 31 30 40 30 26 37 33 33 39 42 30 30 29 25 30 27 37 37 29 38 30 35 29 27 41 40 34 29 48 31 45 26 33 30 35 38 34 31 19 29 28 35 36 30 40 28 32 40 34 40 38 35 32 34 35 33 43 32 29 32 39 35 32 37 40 26 31 31 28 29 43 38 40 30 40 22 23 34 22 30 28 32 33 33 30 26 30 46 31 31 32 25 39 31 31 27 31 32 41 45 29 35 38 32 31 40 32 31 23 30 31 27 34 28 31 35 22 31 31 29 34 27 32 32 41 28 44 42 37 43 18 34 16 33 34 27 24 38 24 34 41 35 29 38 31 37 33 40 34 29 39 33 31 41 26 37 37 27 35 35 43 40 31 31 39 23 30 31 31 30 29 35 39 42 33 29 32 26 31 35 30 44 30 33 27 26 32 24 33 32 29 28 40 30 30 32 28 33 40 36 42 32 32 38 29 32 39 32 41 42 35 30 40 33 29 42 30 22 29 26 24 23 30 31 36 39 35 33 33 26 45 34 35 25 36 30 29 33 42 36 24 38 22 29 26 32 40 32 31 45 29 34 38 32 24 48 32 43 35 39 36 37 37 36 29 28 38 35 34 28 29 26 30 26 38 28 33 26 39 31 36 22 31 34 36 33 27 32 31 36 26 31 35 24 31 24 32 40 36 28 30 39 38 46 26 31 33 36 32 34 35 28 33 34 28 33 39 31 30 36 28 36 27 32 33 31 32 29 36 37 32 27 32 34 26 34 27 43 31 33 41 30 31 24 30 32 33 42 35 19 30 52 33 45 25 27 31 27 27 30 29 30 38 28 37 34 29 23 25 39 25 34 31 30 33 24 24 35 32 35 29 30 36 18 30 35 36 30 41 31 28 29 40 28 35 34 38 37 50 28 41 28 34 28 24 44 26 34 26 32 29 29 23 44 39 32 23 24 35 38 30 32 32 37 34 41 28 38 30 58 32 40 26 32 26 33 33 37 29 31 33 25 29 35 23 46 29 39 22 32 35 37 47 30 37 29 38 45 28 32 39 28 37 29 32 27 30 25 39 26 29 28 53 36 34 37 35 33 23 38 30 29 22 28 31 20 33 30 37 27 27 25 26 23 36 27 34 28 22 33 32 30 31 32 36 28 23 42 18 23 35 22 35 27 33 27 26 38 33 31 35 24 32 39 30 32 32 33 29 32 31 37 32 34 39 26 39 40 35 28 35 31 30 24 37 27 26 33 19 29 39 28 34 29 40 23 29 39 38 35 33 32 32 37 30 33 29 27 22 31 35 30 32 36 27 36 38 25 40 35 31 36 30 30 28 29 34 31 44 26 31 21 37 28 30 23 35 27 34 35 35 33 29 32 25 41 37 29 24 33 26 32 32 33 38 32 35 30 32 38 41 24 21 41 30 35 39 28 30 28 32 35 37 39 29 36 38 28 38 27 31 35 31 40 31 39 34 37 33 29 29 29 31 41 43 32 29 36 33 29 34 38 33 40 38 24 24 34 42 35 40 44 40 31 30 41 32 25 33 32 34 29 23 27 41 24 34 32 28 30 30 27 26 49 38 27 38 51 41 37 21 40 29 26 33 37 34 47 33 24 21 37 41 34 31 24 33 33 36 37 32 40 28 29 22 28 33 33 35 37 35 28 32 33 33 32 42 33 33 34 33 33 44 36 31 41 32 33 33 40 30 34 29 34 27 33 34 35 33 35 34 31 45 30 37 30 33 32 27 33 44 21 32 40 38 37 32 30 29 45 29 33 42 33 33 43 37 19 42 33 27 32 33 29 26 32 32 32 32 33 34 35 36 32 42 31 39 31 33 33 26 22 37 32 39 39 41 35 40 38 39 23 29 33 33 29 31 40 32 28 32 29 36 38 37 36 37 31 36 34 36 26 43 31 36 24 36 40 36 37 25 22 23 27 33 28 32 31 43 29 40 33 30 36 37 38 28 29 36 29 34 26 31 33 33 26 37 34 38 29 39 36 29 41 33 36 28 38 33 26 30 46 38 34 27 32 29 29 28 29 27 30 37 38 38 27 26 24 34 31 31 32 33 26 41 34 37 32 25 31 36 33 34 27 42 20 32 38 31 29 35 31 36 35 26 42 28 27 34 27 34 25 43 35 31 41 32 27 33 37 33 33 37 35 33 24 45 29 28 28 28 23 39 34 36 34 30 45 37 24 30 41 40 34 31 38 26 47 24 38 41 36 27 25 29 30 37 29 20 39 38 33 18 28 33 31 38 22 41 31 38 26 27 26 37 26 32 40 36 42 31 35 39 38 25 33 30 30 33 27 34 36 23 27 38 31 37 27 36 47 37 30 37 40 32 26 34 29 37 38 34 28 30 35 25 31 29 30 33 29 29 34 38 20 29 33 41 26 29 39 45 33 38 33 27 43 34 29 32 33 27 32 24 35 24 29 23 29 34 29 28 41 45 29 40 37 38 38 34 40 35 38 33 43 39 38 34 32 29 31 34 28 22 36 38 37 32 36 36 30 38 37 45 31 25 38 36 33 26 28 34 42 35 28 31 19 36 32 26 46 27 32 35 36 34 26 35 36 39 29 34 33 35 44 29 25 33 33 28 28 32 38 32 34 37 47 29 36 37 33 34 31 45 36 27 36 37 33 45 36 46 38 34 39 31 35 22 39 29 18 30 27 33 26 32 33 40 44 27 32 27 34 31 30 37 36 24 32 43 24 35 30 32 31 40 39 30 33 31 42 24 26 35 28 38 31 33 32 37 23 29 40 41 20 32 25 34 39 35 30 34 29 29 23 30 30 25 28 33 40 27 35 35 32 34 30 42 29 33 32 33 33 29 39 34 35 37 26 33 34 24 28 34 40 32 25 27 42 36 39 40 27 26 37 32 33 22 30 35 25 27 38 33 34 26 29 41 33 28 36 25 35 33 23 36 37 34 35 19 37 36 33 33 31 31 31 37 36 32 28 27 35 28 33 38 29 28 30 29 37 36 29 28 32 28 26 40 30 34 31 34 32 30 39 29 23 28 31 31 30 43 36 24 33 29 27 27 41 35 35 34 32 26 19 25 30 32 24 25 47 36 32 32 35 30 29 31 29 37 41 23 42 30 27 40 34 39 30 33 20 41 48 26 34 32 28 27 29 38 34 34 31 36 44 43 37 33 33 37 43 19 25 43 24 26 43 30 27 31 29 27 40 31 33 32 33 42 34 32 31 28 33 34 32 25 29 28 40 30 30 25 29 33 29 26 49 33 41 18 33 37 33 26 29 26 36 28 30 27 37 30 32 37 36 24 37 29 33 33 20 20 50 37 26 32 33 32 29 38 26 33 33 35 37 27 36 31 29 32 28 38 41 38 30 35 41 36 35 29 34 33 34 38 32 34 26 31 40 29 29 29 32 35 28 32 40 31 33 31 35 41 38 26 33 39 27 33 32 35 31 33 37 35 25 36 44 31 27 36 35 26 23 32 35 30 36 35 40 29 28 32 25 37 31 38 27 38 34 29 46 30 30 24 47 36 28 36 28 33 25 32 31 28 28 35 36 32 37 25 33 25 30 34 37 29 36 32 32 40 32 31 33 33 27 29 22 37 28 22 38 33 41 22 28 28 39 28 31 45 18 23 31 27 42 32 36 37 37 47 33 33 25 44 32 30 39 41 30 27 37 46 37 25 30 36 29 43 23 26 28 28 31 29 35 36 22 40 37 29 32 31 33 38 46 29 38 31 29 38 31 20 34 29 37 18 32 27 34 32 32 27 29 30 34 25 30 32 36 29 33 38 41 39 35 30 33 37 35 23 35 32 24 30 35 34 40 31 47 31 31 41 32 30 23 32 23 41 20 29 32 30 34 32 37 26 27 31 28 48 22 22 36 31 34 32 31 43 36 30 23 25 30 32 25 27 26 30 25 30 26 29 30 40 35 33 32 38 41 36 29 45 36 34 26 34 32 34 34 44 33 27 16 34 31 39 31 36 29 30 32 31 35 29 40 44 35 32 35 32 32 28 30 44 27 30 25 27 39 38 31 37 33 28 32 26 22 32 37 37 45 24 36 34 38 34 32 35 29 23 38 41 43 37 41 25 28 34 23 27 22 30 38 34 43 29 40 26 37 31 31 32 27 26 36 35 29 23 38 36 30 31 30 35 29 25 35 38 35 30 37 48 32 37 25 42 40 38 35 21 28 38 31 29 38 26 32 38 29 21 28 27 35 25 29 34 36 25 31 39 34 36 32 37 29 26 21 39 34 35 36 40 42 39 29 36 27 36 39 27 36 39 20 25 26 35 27 36 31 25 28 29 40 30 34 30 39 32 38 47 33 24 32 34 29 38 35 32 39 29 39 28 36 28 43 37 32 28 36 46 39 39 41 31 30 37 29 34 37 31 28 34 42 29 30 36 37 28 28 35 31 30 32 42 37 28 39 30 28 40 29 24 32 27 24 28 35 27 31 36 40 27 29 34 25 40 25 28 38 39 29 41 21 41 39 33 30 29 30 34 35 30 21 23 29 34 40 33 29 31 30 39 41 32 40 27 32 34 29 37 36 42 32 33 36 27 22 37 33 30 31 38 32 35 30 37 26 36 35 26 48 23 31 38 28 33 47 35 28 30 26 33 32 40 31 38 33 35 36 33 33 30 41 36 23 37 30 40 40 38 28 38 32 41 35 31 30 29 32 43 27 41 21 31 29 29 27 33 32 32 28 27 27 36 31 26 20 25 36 33 40 47 23 35 33 40 42 22 46 29 36 35 31 34 32 35 23 33 34 27 34 20 38 29 31 32 38 30 37 23 34 32 29 27 26 39 26 25 32 33 30 28 30 33 34 29 27 48 32 38 29 35 27 33 30 33 38 32 40 22 35 33 32 44 22 30 34 27 28 31 28 37 32 26 31 30 28 26 33 25 29 36 33 28 31 52 24 29 31 29 37 34 38 21 28 30 25 40 37 31 23 27 22 36 34 33 43 27 35 30 35 32 34 29 23 31 24 36 42 34 31 32 35 55 27 38 34 33 29 28 39 23 36 33 32 27 32 37 23 28 49 31 32 30 30 24 38 30 30 26 33 37 31 39 21 36 33 27 34 31 35 37 30 32 37 30 40 38 30 39 30 37 23 35 45 35 36 28 19 30 43 35 38 26 37 32 32 33 24 34 28 24 37 31 30 35 36 30 34 26 32 36 38 36 33 31 29 29 21 25 36 41 31 41 29 25 32 25 42 36 36 36 36 37 37 35 43 31 28 37 32 36 37 31 28 26 36 32 41 33 38 34 31 28 25 40 38 42 36 29 26 25 31 35 32 30 33 40 23 35 26 38 25 42 26 28 34 42 40 25 43 34 34 35 39 34 33 21 29 38 33 36 40 25 30 21 34 32 31 35 33 30 35 32 26 36 23 43 31 31 23 34 32 29 36 32 26 34 39 36 35 20 27 32 40 31 20 35 35 31 44 38 30 30 40 36 30 33 34 30 29 38 35 37 42 36 28 30 50 41 45 35 21 35 32 44 32 26 31 45 34 29 32 37 33 43 35 36 23 31 26 37 29 35 33 31 27 29 26 36 30 33 32 25 39 26 35 35 35 22 39 36 28 31 34 44 33 30 34 32 35 29 39 36 35 36 35 29 25 37 35 39 28 34 28 37 32 40 26 41 38 36 32 26 41 38 33 27 36 30 40 37 29 29 26 31 32 26 42 40 25 28 39 35 29 25 40 30 43 26 31 33 35 34 52 36 37 41 37 25 33 33 36 23 29 33 23 38 32 35 38 38 28 26 35 28 25 32 36 34 38 40 33 26 35 32 29 34 29 42 34 29 28 19 26 34 35 39 37 30 28 35 27 32 35 41 31 17 30 26 19 30 32 27 33 35 26 28 45 29 32 44 25 22 32 29 42 38 29 39 35 32 36 35 38 42 38 43 34 29 25 23 26 32 30 30 27 34 40 36 33 34 33 37 30 30 30 38 27 29 27 33 51 19 38 32 31 33 30 35 36 33 40 22 27 25 38 35 29 32 34 32 30 28 42 31 37 32 32 40 30 33 26 35 47 24 30 35 34 31 28 38 40 21 29 35 40 42 33 30 30 34 33 39 24 33 40 30 40 42 35 41 38 30 24 35 25 25 24 34 38 30 41 36 34 36 19 25 43 25 37 31 36 35 30 30 28 42 33 29 20 25 30 26 39 27 31 23 31 39 28 28 34 29 33 24 32 43 29 31 40 34 38 27 33 34 33 28 32 31 43 34 34 38 37 28 38 37 32 36 26 30 29 18 35 32 26 31 33 48 28 33 35 46 27 38 18 22 27 33 30 31 33 31 29 25 35 27 35 32 40 34 34 33 28 28 38 38 23 40 34 35 29 31 34 27 30 33 32 39 23 40 28 28 31 32 38 29 24 30 37 20 32 31 38 32 25 29 26 35 44 33 27 29 31 29 35 26 32 25 36 31 25 47 43 26 25 24 27 34 32 33 33 34 30 34 22 38 30 29 21 27 28 28 34 30 28 34 33 40 36 30 24 22 43 33 27 37 37 28 28 41 46 34 25 32 26 31 32 31 34 28 29 34 33 36 44 30 42 21 25 25 34 37 35 32 38 36 34 33 29 36 38 32 36 24 29 30 27 27 29 39 31 40 41 32 38 35 30 41 31 38 41 26 28 29 39 38 27 31 35 32 37 47 32 31 36 32 27 26 34 31 30 45 31 35 37 28 28 30 27 30 36 32 38 23 31 27 32 36 41 33 36 37 34 50 29 35 32 27 28 26 29 30 28 28 27 32 26 29 47 29 35 22 34 36 29 33 26 28 28 41 39 35 30 37 36 24 42 37 32 27 31 32 36 27 22 33 37 25 27 33 31 39 34 32 35 29 25 27 34 31 32 35 31 37 27 33 42 37 27 43 29 31 24 35 37 32 27 45 26 40 25 30 22 42 40 29 28 25 28 34 34 27 26 21 35 31 28 34 26 33 33 36 32 40 26 26 36 36 28 30 35 36 26 33 29 33 38 30 31 26 39 38 29 34 32 33 41 27 32 33 36 38 33 33 39 32 30 24 27 36 41 25 37 28 31 28 42 27 44 41 31 35 29 37 41 31 26 33 34 30 38 28 41 39 23 35 42 40 30 32 28 28 39 25 23 44 37 35 30 34 32 28 38 39 35 34 28 30 25 46 26 35 41 30 36 27 31 25 42 30 30 23 34 25 27 32 26 27 31 40 37 36 37 35 29 36 24 29 35 42 32 26 32 36 32 42 29 34 25 33 35 43 32 30 30 33 28 39 30 34 24 36 48 35 29 26 44 35 37 43 31 22 38 32 36 30 39 24 30 32 29 45 34 36 29 37 39 43 32 34 34 28 38 31 33 35 28 25 23 32 35 35 27 19 37 30 35 38 42 33 30 30 39 35 37 35 37 34 35 34 29 22 33 42 23 37 28 35 35 38 33 31 37 33 39 35 37 42 44 28 38 36 33 38 35 32 39 23 26 37 32 31 30 27 24 28 27 29 33 28 42 36 37 35 25 33 42 29 28 35 35 25 29 41 23 35 30 32 35 43 23 31 27 29 36 30 22 30 27 32 32 26 34 24 34 35 35 40 20 31 29 32 33 42 35 40 36 31 34 25 38 28 30 37 23 36 29 33 32 35 26 29 26 39 32 35 36 35 21 34 34 30 36 20 36 31 33 27 32 39 35 51 35 34 30 40 25 24 31 38 30 33 25 30 24 37 38 44 29 25 33 38 32 31 24 25 32 28 30 29 32 21 31 24 28 30 32 34 26 27 34 35 33 36 34 30 28 29 26 28 35 31 30 35 26 24 41 31 29 34 31 40 30 34 35 29 41 35 24 30 35 32 25 23 38 36 33 34 47 37 29 29 32 24 29 31 30 28 39 36 30 37 30 31 36 37 28 28 28 28 29 34 36 36 29 45 32 31 28 36 36 27 21 32 33 41 42 21 28 26 41 33 38 40 24 30 43 32 40 20 36 38 27 34 37 40 28 30 25 26 32 33 52 36 34 28 29 46 38 40 35 35 32 41 32 37 28 37 30 27 38 33 28 41 29 26 25 27 30 24 36 32 33 37 34 43 46 29 30 37 36 29 33 35 35 36 36 30 36 30 29 31 36 26 24 35 37 36 32 35 33 28 37 29 41 35 35 37 37 37 35 26 31 34 32 37 42 48 31 45 34 32 34 28 36 28 26 29 26 33 17 24 32 33 40 35 37 36 28 34 32 28 31 30 41 35 36 32 37 30 30 30 36 41 36 25 35 40 35 25 37 36 30 39 29 20 22 33 31 27 23 24 31 32 21 37 32 40 48 44 24 31 32 25 29 27 21 36 28 28 36 25 32 39 34 34 32 36 33 38 30 41 27 37 32 16 32 37 34 30 38 29 41 30 23 30 26 34 36 27 40 31 31 28 36 35 45 31 33 40 28 27 44 43 31 46 32 46 31 44 33 39 20 39 27 32 25 36 27 39 38 30 38 29 38 29 27 37 43 40 34 38 30 41 36 33 26 39 32 50 28 36 32 33 34 29 40 42 26 30 23 28 19 41 39 34 31 36 36 40 33 34 35 28 44 37 38 41 30 36 37 33 31 36 35 39 38 37 39 33 30 26 34 34 36 41 30 33 28 32 25 40 36 34 25 29 34 25 28 42 36 35 21 35 31 26 31 28 28 25 34 31 47 39 42 31 32 40 35 29 33 27 30 32 34 37 34 33 53 33 33 47 32 27 28 34 29 31 34 31 25 30 42 32 32 36 41 35 23 38 34 27 27 33 27 38 44 35 34 35 27 34 27 34 32 35 28 32 32 36 39 25 26 32 37 28 28 34 30 38 33 27 31 43 27 34 31 30 28 28 32 37 34 34 41 39 35 29 39 38 23 34 40 33 22 31 20 26 27 44 33 36 46 28 25 38 37 28 30 34 36 50 33 24 39 42 33 28 41 31 34 32 35 31 35 35 28 24 36 27 33 34 44 39 27 34 38 36 36 28 38 28 33 35 30 30 27 28 28 40 39 35 29 30 35 31 25 31 36 32 37 37 27 42 22 33 28 39 31 41 28 27 23 33 30 32 39 35 34 35 32 21 33 31 42 25 32 34 29 39 40 25 34 29 30 33 28 34 39 38 38 25 40 35 33 40 37 35 45 27 28 39 17 34 41 36 34 33 38 38 41 24 31 28 31 32 25 37 28 39 29 43 28 29 39 40 42 43 36 36 40 33 30 24 25 34 34 37 35 26 32 30 33 32 33 38 31 33 37 34 25 40 31 28 32 26 24 31 31 25 37 41 34 28 34 25 38 28 21 30 35 33 32 36 33 24 40 30 37 29 29 39 35 35 27 34 31 30 32 40 26 31 26 28 25 34 34 30 24 36 31 37 41 30 29 29 42 29 34 34 26 37 36 37</t>
-  </si>
-  <si>
-    <t>FTL(0.07033088224446951, -432.2261903159804, 652.63623686046)</t>
-  </si>
-  <si>
-    <t>246 162 175 234 326 208 289 174 124 218 286 219 243 224 238 266 104 260 274 225 276 232 160 182 250 216 167 252 133 205 329 169 269 181 288 246 238 265 181 197 197 228 206 244 150 322 221 208 213 146 260 184 202 196 227 190 260 209 208 184 157 175 340 183 262 263 183 239 204 192 308 146 188 163 157 298 234 201 262 240 198 227 267 187 181 221 228 199 238 170 174 197 210 157 196 246 174 225 156 220 230 147 244 112 190 174 253 233 236 230 268 215 200 224 219 151 225 181 179 222 214 237 251 207 189 195 219 224 206 216 305 175 339 250 174 246 283 243 169 214 248 194 235 290 255 300 280 189 174 248 202 201 190 230 181 197 269 184 231 224 208 159 199 196 238 354 280 223 231 254 241 249 143 249 189 165 121 277 275 207 233 198 168 301 161 223 193 257 145 256 207 197 220 277 216 196 195 260 209 263 209 228 214 161 170 280 199 213 281 184 202 174 274 250 163 170 214 184 178 202 156 301 202 255 248 184 184 295 170 220 227 155 325 225 226 219 180 159 281 256 236 297 300 223 168 204 188 143 180 243 191 276 187 177 168 166 163 192 174 174 221 194 205 253 250 339 283 262 227 235 211 203 225 311 211 388 228 273 203 172 149 189 117 184 256 275 320 186 165 208 309 171 237 230 252 270 194 229 199 197 316 205 284 238 299 235 210 245 213 175 194 204 265 167 256 372 263 178 268 225 206 188 281 207 317 272 199 167 260 221 191 209 205 215 241 159 150 292 267 173 212 176 239 218 286 283 275 191 198 151 236 230 324 223 239 221 201 248 276 168 143 236 240 208 247 239 162 222 199 242 246 198 247 120 200 287 270 204 228 183 283 198 233 275 193 120 274 192 215 237 208 213 239 211 228 203 252 242 201 175 298 267 164 171 233 280 207 285 175 244 183 200 266 285 260 245 191 263 225 247 260 182 250 237 207 209 174 199 253 169 192 194 256 206 239 204 308 262 192 223 201 220 177 177 207 204 256 144 193 213 172 196 264 184 314 216 198 136 234 235 178 198 267 326 185 162 271 228 286 188 227 254 244 177 197 248 153 157 224 196 225 271 165 171 185 211 143 161 236 159 224 295 156 224 214 186 221 120 146 181 270 126 176 234 283 216 126 301 266 318 217 266 176 231 241 158 331 183 218 219 156 236 241 220 285 209 208 245 323 184 169 226 261 274 208 213 275 316 205 254 286 228 255 249 159 303 157 271 206 231 230 160 216 182 101 244 148 195 247 132 189 216 226 182 142 190 261 233 205 245 202 275 213 163 198 210 195 193 370 242 170 206 266 271 85 167 174 187 221 158 272 175 258 212 227 185 222 176 192 272 167 258 232 276 139 248 143 160 268 201 222 158 168 186 180 174 321 165 183 253 247 210 206 289 186 179 236 300 332 184 173 277 234 236 212 231 248 178 225 184 195 216 192 208 203 191 251 309 306 246 319 255 239 294 176 189 218 208 265 286 205 116 298 187 315 152 152 193 241 95 96 282 227 221 285 180 215 198 229 287 164 142 242 166 213 281 186 134 213 235 280 208 216 165 270 197 207 178 216 243 212 299 217 228 221 227 230 219 329 270 183 271 277 236 238 156 231 196 236 218 220 217 247 231 247 240 249 184 212 170 251 286 216 260 252 283 224 203 280 176 158 257 174 250 283 197 254 173 257 265 284 188 154 220 278 138 189 179 216 271 202 282 322 216 254 214 194 244 180 183 271 307 224 151 331 189 236 273 160 208 224 227 159 286 294 258 265 268 222 198 187 239 226 280 198 285 171 206 279 257 214 224 170 253 192 156 209 216 246 303 246 248 220 175 203 139 200 146 225 186 206 173 359 239 174 263 183 176 323 279 292 164 217 229 317 231 205 152 165 231 265 199 194 232 222 257 285 220 257 219 210 187 254 195 199 204 251 268 200 218 283 191 273 161 125 208 248 268 194 166 210 216 204 193 274 208 257 172 199 288 200 209 251 208 226 255 196 368 287 180 162 188 151 223 186 205 241 178 239 81 182 210 243 223 220 175 236 220 258 283 177 321 291 294 164 184 201 162 200 145 192 233 154 224 327 274 220 247 226 216 192 206 156 146 185 192 287 166 253 270 216 218 176 155 261 286 244 288 246 205 138 199 183 175 152 154 189 211 285 158 319 215 161 297 192 206 236 194 151 253 245 192 236 246 265 195 96 200 276 236 194 202 237 282 201 303 156 182 176 244 198 199 167 180 166 257 274 250 226 248 260 207 224 256 227 210 265 229 221 254 281 200 206 213 235 225 284 265 231 231 217 188 164 192 206 168 251 275 205 350 237 171 148 156 225 288 238 221 251 216 241 180 166 238 219 232 151 187 259 260 265 234 211 178 218 205 234 257 286 107 240 237 252 99 229 141 283 209 231 100 248 285 238 218 184 187 256 179 221 220 180 176 272 244 110 212 211 241 177 285 223 246 253 223 292 260 178 164 191 265 293 171 250 226 265 168 169 144 213 230 221 203 212 244 219 155 253 168 125 162 210 97 172 181 185 327 364 183 224 242 227 339 224 222 147 190 229 240 210 156 213 211 256 211 233 238 295 128 216 207 104 268 223 237 235 173 142 170 258 192 137 213 274 245 196 244 308 290 159 235 185 202 173 260 253 311 210 185 213 157 220 220 158 162 325 194 161 227 228 216 211 191 230 267 217 195 188 181 242 282 257 177 239 222 169 199 252 221 352 237 203 231 252 220 287 210 240 210 210 233 281 222 200 278 195 280 186 226 242 214 197 252 210 191 259 222 273 205 231 233 160 162 288 255 226 209 287 175 237 224 212 163 178 192 256 217 295 254 163 260 231 197 274 293 273 269 244 262 261 219 179 222 212 255 219 222 217 174 305 223 263 198 201 227 205 236 124 217 231 179 255 288 252 243 202 232 182 268 214 243 302 294 243 247 148 238 253 129 194 159 167 219 164 199 198 251 201 202 223 206 245 184 227 209 204 169 173 258 217 242 203 243 256 268 200 199 232 222 110 150 243 347 116 250 243 154 260 189 192 219 208 271 274 254 226 198 196 214 188 215 137 330 220 267 217 229 143 254 202 255 221 132 257 129 224 215 245 219 324 274 219 252 135 202 278 120 258 318 179 172 287 248 218 213 215 192 201 272 184 219 346 125 285 223 254 275 157 158 182 279 232 265 219 287 232 223 221 225 223 272 200 210 204 170 138 200 327 186 269 225 209 156 156 195 193 163 227 323 193 257 214 199 198 272 205 215 276 176 204 264 325 232 296 262 215 204 207 233 247 227 193 237 196 195 199 146 305 225 291 210 239 183 196 334 257 168 221 257 210 302 205 250 236 281 188 231 198 242 261 201 154 169 224 167 147 194 285 270 288 223 202 229 276 146 220 154 204 233 283 218 266 103 271 263 231 265 173 275 275 245 247 292 240 201 193 280 265 256 174 159 203 182 176 218 202 185 153 303 153 180 277 195 217 174 203 183 251 208 238 315 221 268 312 314 227 271 244 234 236 204 123 164 189 299 210 214 274 189 244 256 193 254 255 276 280 136 211 176 179 187 153 199 261 187 215 150 243 292 292 295 125 192 259 246 250 305 248 260 178 201 205 185 251 338 258 222 259 274 238 158 227 268 243 179 343 190 218 243 238 305 226 212 211 145 279 285 206 169 211 253 300 215 148 184 222 264 337 209 117 280 239 271 258 180 145 223 229 195 227 203 254 255 209 258 258 298 186 215 183 202 286 211 184 186 240 245 244 274 142 222 142 254 244 221 216 213 228 271 165 244 222 249 193 104 290 183 227 209 196 192 241 188 149 220 249 288 246 237 213 186 231 209 217 191 285 259 238 167 250 298 236 176 146 223 203 151 198 299 169 221 205 96 191 233 152 237 182 168 258 225 209 237 169 171 165 182 364 208 184 245 221 215 189 219 255 247 305 275 222 232 185 254 204 212 297 220 237 272 184 196 171 250 254 179 149 268 215 223 221 148 206 143 281 114 245 225 266 241 248 253 249 213 220 261 203 250 225 290 245 171 236 281 194 166 247 193 193 249 240 143 208 204 295 234 150 230 222 198 183 203 110 235 258 122 245 182 230 203 235 194 203 256 173 244 222 229 252 184 179 214 237 240 195 195 222 286 272 258 344 330 122 197 246 190 191 260 160 215 286 286 198 197 218 307 284 284 181 345 149 228 217 266 206 255 198 279 258 272 171 231 211 200 250 174 195 204 185 170 256 275 179 175 217 211 133 179 222 164 217 223 230 161 195 203 258 255 279 265 191 175 222 279 158 169 193 163 229 108 198 214 233 308 256 289 252 224 255 272 204 240 169 267 181 184 247 297 269 153 256 221 258 274 201 229 196 252 229 177 230 215 347 230 184 226 272 233 167 295 165 272 292 213 244 190 218 211 202 147 248 187 203 191 272 175 233 244 261 249 114 162 276 201 209 122 318 194 280 186 189 244 151 182 153 165 222 200 225 245 206 259 180 228 219 197 162 267 163 249 215 196 246 225 186 220 288 248 148 209 303 279 287 209 216 196 143 222 226 235 171 214 117 208 222 236 289 203 180 260 249 228 310 249 309 218 231 154 249 345 152 285 141 275 242 196 215 190 231 146 250 239 171 224 258 160 196 161 210 119 214 184 201 235 277 236 204 206 324 155 315 245 161 218 227 240 303 246 298 226 254 208 184 252 136 268 196 206 329 179 308 195 298 135 189 169 196 199 226 206 270 165 209 175 254 225 207 207 215 287 205 235 201 212 225 285 241 213 287 196 172 175 235 177 236 281 199 274 224 254 229 245 262 262 183 174 222 250 191 152 220 133 238 304 229 204 272 204 278 241 269 269 351 291 201 281 230 284 179 187 154 266 265 174 146 226 275 233 175 176 118 299 248 231 192 183 222 200 189 230 206 210 267 202 231 256 193 156 278 222 198 202 218 201 256 258 262 268 278 267 208 285 196 246 257 225 268 163 285 249 271 160 204 183 226 163 211 132 194 222 223 243 274 182 189 188 186 276 151 238 263 226 227 278 186 319 246 259 222 264 84 233 268 245 245 178 258 255 191 273 236 169 239 323 222 207 206 219 261 308 248 286 205 258 201 212 195 199 229 119 175 232 276 189 336 189 155 138 350 223 289 291 151 270 228 206 298 215 221 188 276 195 249 241 197 252 232 138 289 193 281 238 261 203 256 270 135 309 201 236 273 186 205 202 300 178 208 225 290 170 241 263 217 186 209 254 169 275 181 260 197 223 243 210 215 261 192 253 192 136 230 227 167 272 224 199 294 260 218 268 330 154 231 167 181 229 192 257 335 259 228 206 230 240 191 182 270 186 285 251 173 198 250 220 235 172 176 118 255 175 243 334 158 247 169 182 241 168 178 149 260 292 209 287 233 282 231 170 252 170 213 282 225 211 167 185 210 214 266 202 237 191 219 259 189 188 162 229 209 154 161 248 243 241 279 210 239 188 137 175 170 200 230 280 327 183 299 177 233 289 326 302 275 169 194 187 195 278 130 219 181 224 242 179 277 134 249 296 155 246 270 256 226 193 297 229 255 260 152 161 212 230 180 154 242 237 297 165 277 235 282 288 239 187 191 163 291 140 176 300 233 248 195 196 226 258 243 199 266 195 273 231 323 227 233 172 232 259 218 209 225 173 230 243 141 243 182 241 267 216 169 191 226 189 214 183 216 222 251 213 184 292 247 214 171 169 246 168 286 191 327 245 158 214 230 195 193 162 234 221 173 195 230 187 319 233 179 176 226 164 164 181 226 225 168 247 205 199 231 255 232 233 202 208 242 173 215 218 185 174 224 227 257 181 229 332 245 182 227 169 245 229 235 194 242 226 196 225 133 260 265 298 183 221 210 258 126 175 208 262 190 242 229 87 185 161 255 247 185 244 164 174 202 272 205 274 200 275 261 189 270 204 361 197 237 244 209 272 101 202 204 245 227 185 183 179 261 216 254 199 204 273 269 206 199 211 298 299 226 203 281 190 217 251 170 335 192 204 242 203 250 255 188 281 318 294 279 243 258 145 139 222 225 216 266 234 207 166 231 225 219 260 232 163 207 302 185 257 187 233 189 175 285 263 178 207 241 197 209 167 178 175 208 162 249 151 183 265 179 245 182 156 187 245 191 178 279 224 255 211 270 202 160 242 184 208 246 247 276 199 200 312 234 208 195 273 223 278 187 171 201 257 228 281 212 181 250 190 217 196 208 158 214 209 221 169 276 170 225 239 235 211 196 245 219 187 263 361 141 178 221 181 243 186 204 319 242 227 210 175 212 288 303 213 226 275 176 197 252 265 308 163 344 248 204 184 193 282 199 185 177 197 245 163 229 226 177 188 243 218 231 327 265 300 202 258 172 226 239 228 203 195 153 246 192 216 293 196 219 234 173 273 195 208 227 186 212 167 226 181 366 223 257 223 222 364 226 264 310 304 205 140 219 202 224 232 225 214 186 221 163 178 228 237 223 190 198 141 153 221 295 209 167 236 192 146 257 235 228 207 178 313 261 280 183 266 195 218 157 148 319 192 236 132 280 207 152 192 220 154 169 209 239 261 135 265 170 178 252 288 161 244 149 150 351 268 230 222 225 289 280 252 176 201 148 181 187 263 161 218 330 282 187 200 117 256 269 159 234 300 111 199 251 197 216 277 255 161 149 231 205 204 244 168 177 294 160 118 269 179 210 185 220 224 206 281 157 336 249 227 182 244 245 306 222 212 143 206 133 258 169 241 187 177 202 190 218 215 283 200 82 244 238 148 248 256 268 232 201 143 182 261 230 176 207 266 210 246 127 244 199 285 236 124 169 213 287 213 171 214 225 261 236 189 247 308 233 188 230 200 167 213 233 148 209 151 253 250 214 257 188 197 319 235 235 198 163 335 166 319 259 208 256 224 243 207 159 281 205 158 269 272 322 194 195 274 209 232 192 157 166 277 226 242 235 188 220 290 284 178 306 210 209 245 122 287 243 171 249 233 193 287 213 221 189 279 176 207 219 261 253 298 167 219 249 185 286 220 198 178 266 184 205 175 211 120 263 303 226 161 230 196 170 168 254 221 267 325 219 198 225 213 249 211 328 222 212 177 276 209 215 270 244 218 205 214 131 242 182 257 194 184 219 159 216 220 186 159 279 190 282 224 142 206 212 284 232 220 247 174 229 235 285 184 253 217 237 354 252 128 234 179 169 234 235 213 238 186 342 156 236 227 230 251 182 195 263 227 177 142 275 296 197 218 126 239 235 186 175 218 158 259 215 236 237 213 321 227 179 184 243 242 203 239 189 207 168 191 182 205 149 265 229 210 198 216 279 280 190 248 250 208 305 218 264 186 183 152 250 193 166 272 339 221 194 292 147 280 229 159 253 213 277 217 212 212 314 296 259 277 251 211 214 154 174 231 143 252 261 226 234 274 218 245 215 231 314 262 203 315 255 213 239 245 190 230 212 355 190 243 258 283 243 225 218 209 230 229 188 226 258 217 199 248 164 150 275 205 216 143 151 245 258 244 211 300 224 266 188 199 300 178 201 159 172 211 183 200 244 220 216 162 228 186 205 256 303 253 154 141 222 276 284 294 207 193 247 268 226 198 201 211 216 256 276 196 251 199 152 177 222 318 256 194 257 222 207 250 248 280 232 185 206 271 281 180 204 270 285 164 217 190 281 200 200 186 167 229 192 244 292 158 314 158 291 186 166 191 192 207 236 173 174 198 288 299 222 188 276 216 218 191 207 313 218 188 270 186 202 188 226 240 223 177 319 202 183 316 311 245 254 354 160 191 193 243 204 298 229 280 208 232 267 302 167 194 228 245 239 240 241 244 236 199 291 154 210 199 269 169 218 192 299 264 193 199 276 246 161 214 243 189 228 272 153 167 161 119 332 172 222 277 329 239 184 247 240 205 197 159 228 201 275 278 190 223 217 235 237 261 334 190 207 275 240 196 193 149 235 194 215 231 210 195 195 161 179 251 175 168 215 219 239 187 256 285 135 242 303 313 166 191 151 232 305 272 225 253 224 182 211 267 255 260 229 231 338 204 235 258 253 161 213 196 195 243 227 193 203 163 273 210 202 213 262 195 257 220 166 161 225 280 257 200 284 218 212 176 222 236 208 284 233 252 273 173 122 215 208 172 237 218 274 327 157 254 254 305 252 230 254 289 263 187 306 198 183 272 189 193 172 198 260 172 240 328 153 237 186 182 294 259 133 214 217 199 241 160 189 279 204 172 236 205 247 145 213 262 186 131 288 284 169 184 238 172 195 207 217 304 277 235 244 208 215 152 245 200 178 203 233 174 195 220 199 243 256 243 200 202 269 294 161 208 230 247 178 223 179 213 139 241 248 276 236 264 207 251 325 218 283 229 297 194 300 207 267 142 178 338 247 235 185 221 137 224 201 181 162 248 180 203 233 249 279 219 277 213 223 265 229 268 167 247 241 283 313 206 216 307 227 231 209 150 248 254 263 235 232 129 172 231 192 273 240 194 187 215 275 272 196 254 242 236 156 227 240 302 157 216 174 274 219 201 283 145 271 240 241 279 267 174 310 265 204 199 237 285 163 239 270 242 270 278 196 262 194 209 205 226 227 230 227 273 345 278 215 268 299 130 245 287 155 227 198 211 253 203 265 186 221 190 238 164 286 187 268 237 187 164 248 235 236 195 164 226 181 279 260 224 205 199 165 276 227 245 175 173 152 199 242 228 231 162 261 248 239 192 178 231 313 265 221 169 222 236 244 137 240 230 222 198 207 219 146 256 187 256 248 191 130 307 222 218 339 207 175 221 156 167 189 197 202 146 361 214 243 282 251 188 185 200 276 137 374 144 189 191 246 322 260 224 168 217 270 275 198 191 187 228 264 229 225 225 256 201 224 246 213 185 171 156 176 254 224 212 249 219 258 301 194 228 162 213 245 232 271 221 221 250 254 235 225 184 259 211 165 274 198 211 128 199 164 307 257 287 316 204 242 117 209 203 176 266 222 183 287 264 163 223 248 216 187 196 316 203 156 263 211 220 258 269 314 186 142 229 231 260 148 179 173 172 272 172 220 231 163 235 181 193 224 224 213 196 228 184 278 232 254 142 262 255 224 233 233 209 250 327 213 235 289 168 163 253 231 215 124 208 122 284 161 190 206 292 150 294 152 246 240 305 248 261 225 215 205 208 243 184 261 193 225 316 183 150 279 197 253 234 258 268 264 274 259 196 194 178 177 288 259 200 214 258 296 148 217 156 246 244 191 158 238 169 303 249 236 251 162 270 182 248 260 230 209 202 144 305 259 214 222 246 196 222 316 148 232 256 253 294 150 241 259 239 259 337 125 233 272 244 210 248 226 240 287 232 259 275 263 150 314 159 206 250 230 245 252 250 199 232 283 197 230 248 220 235 301 235 208 262 183 207 168 301 328 202 266 235 190 184 277 143 278 186 219 199 254 177 289 161 216 243 172 148 180 161 314 195 195 224 298 228 162 215 202 150 160 266 228 246 216 130 257 142 261 246 231 313 232 239 244 213 225 188 258 226 243 197 362 187 286 273 179 247 308 127 298 305 201 238 247 194 300 206 249 180 215 255 234 174 285 224 248 146 301 236 187 221 209 209 238 200 185 223 256 259 213 204 232 208 228 168 204 163 189 221 212 281 208 221 147 216 183 247 227 272 225 216 301 191 209 202 267 199 247 261 214 243 216 201 209 310 209 260 209 149 183 296 261 154 201 250 191 165 252 264 191 226 184 237 222 197 267 198 254 196 195 247 163 283 220 248 179 161 223 208 233 195 155 194 184 225 209 174 175 208 263 263 292 254 216 140 235 194 144 169 261 212 158 251 196 324 213 261 250 165 184 175 212 355 218 195 212 265 175 192 225 166 249 255 213 215 211 278 177 147 170 220 283 265 213 239 238 191 235 192 205 211 292 221 240 269 215 188 305 258 205 189 199 303 195 268 258 195 262 205 256 212 229 202 283 235 178 282 262 154 188 249 137 210 178 172 242 196 275 300 211 205 239 270 206 202 204 180 291 325 212 201 256 219 210 167 169 190 194 241 188 251 227 142 221 182 252 244 282 203 145 179 295 195 288 237 219 235 256 181 243 307 225 231 248 226 238 175 177 257 241 180 183 137 184 277 198 250 230 190 170 113 163 188 168 251 191 183 265 240 254 340 189 279 317 144 203 247 299 200 180 259 148 198 253 237 189 238 265 156 172 188 258 197 162 180 233 188 261 188 263 279 216 177 216 195 204 284 268 215 248 228 181 256 168 276 295 279 294 164 193 264 229 272 213 280 284 244 178 89 260 181 202 233 215 208 298 235 179 205 228 210 211 253 193 263 207 234 223 183 292 226 134 213 197 310 198 278 235 248 316 175 285 201 271 159 228 166 239 250 211 331 258 184 125 192 176 165 245 233 252 229 270 239 284 263 201 194 217 316 193 285 236 147 210 194 208 302 210 196 208 150 231 192 229 225 239 197 218 213 242 176 292 241 239 272 207 164 146 228 171 159 160 278 208 287 182 239 308 371 188 178 166 289 253 221 187 193 197 216 249 251 152 207 159 236 270 234 182 155 182 201 265 239 230 177 182 238 249 244 220 258 247 229 195 214 196 178 232 199 292 178 324 274 206 302 305 222 270 235 223 234 266 253 142 225 229 208 170 254 222 249 209 234 151 228 154 198 158 322 296 203 287 192 242 303 220 148 203 194 206 245 208 254 226 298 234 255 280 125 280 279 191 143 163 195 203 248 274 234 149 288 248 204 185 286 193 199 178 224 160 274 151 266 205 214 316 244 143 262 271 243 258 189 255 237 217 198 202 268 244 224 203 204 171 252 196 222 156 183 240 196 212 178 165 195 151 243 93 277 191 210 206 248 253 227 218 170 244 190 343 140 185 303 225 176 226 271 195 218 189 244 285 237 230 215 258 103 162 184 207 206 307 252 217 217 181 254 212 154 281 234 254 212 222 210 231 282 201 198 241 228 232 137 303 180 299 257 175 191 205 238 278 205 250 246 271 251 237 208 226 139 168 216 206 243 198 177 240 254 205 165 258 316 232 337 204 292 244 218 259 201 293 264 162 184 200 231 198 186 225 151 175 201 217 340 240 270 136 221 232 201 159 205 229 302 267 222 187 205 275 214 246 221 172 201 166 195 200 164 230 159 213 241 219 263 249 198 232 191 231 163 245 137 321 235 284 200 169 333 178 129 234 204 238 198 178 283 190 243 254 211 202 160 253 369 244 225 254 249 226 246 269 291 241 266 168 266 235 206 226 190 323 291 250 151 245 245 222 220 244 145 222 196 247 201 200 294 230 130 190 196 179 195 173 243 253 236 202 258 265 232 234 232 252 150 268 269 300 228 294 265 201 184 259 141 249 215 225 165 274 178 205 257 242 286 291 309 234 230 295 188 256 247 301 172 156 235 170 123 170 264 181 276 218 265 186 183 357 251 268 275 246 210 287 118 239 203 220 208 255 227 249 110 185 209 260 100 232 223 292 169 268 220 260 239 186 253 151 202 228 190 223 181 235 251 257 216 202 269 201 272 198 244 187 227 341 277 271 194 225 231 207 297 180 226 248 173 306 115 175 267 207 150 164 182 196 343 256 106 268 262 243 218 257 344 292 207 343 197 190 252 240 277 167 219 244 208 205 233 316 266 147 265 201 244 177 230 262 254 303 249 201 213 225 244 198 240 132 281 199 186 221 184 185 280 230 189 316 277 151 188 222 205 192 239 243 271 197 226 165 281 264 185 193 234 149 239 163 175 214 264 286 249 269 99 232 190 190 170 246 258 250 218 166 179 291 239 130 168 160 177 104 299 336 216 221 207 202 271 173 165 208 234 172 208 205 186 271 215 227 262 214 235 288 223 209 187 183 209 168 248 193 319 177 216 183 226 244 233 227 310 186 291 252 273 200 208 166 169 213 177 263 313 202 220 268 173 252 315 190 254 125 171 313 169 226 234 246 255 250 275 198 285 197 256 248 174 305 205 143 253 176 353 339 188 248 178 265 299 364 121 154 259 204 160 173 212 242 215 214 308 236 166 251 187 229 199 238 184 249 206 191 301 193 258 124 208 161 188 278 229 231 200 260 203 222 217 185 147 247 150 234 180 208 261 222 286 274 244 243 341 180 248 169 254 212 194 236 150 275 280 243 213 248 204 175 227 238 126 231 244 283 272 206 229 167 309 141 209 267 248 226 141 259 210 263 122 173 209 174 225 185 211 184 224 140 247 186 171 184 185 270 220 310 263 174 361 222 140 346 168 262 280 194 155 229 269 265 316 232 226 278 233 198 223 310 258 137 280 272 259 241 217 183 246 200 219 245 254 228 214 177 209 212 185 222 230 163 252 209 204 198 253 263 278 238 211 262 232 301 278 239 230 231 214 300 201 188 161 195 243 252 292 218 191 170 195 255 237 174 198 232 220 257 176 344 267 136 201 207 222 148 172 261 130 271 179 179 322 216 250 286 224 242 276 182 261 200 251 290 207 233 208 181 131 206 275 226 174 260 187 311 154 196 333 267 277 237 309 171 205 203 284 327 211 255 231 236 274 234 229 218 223 219 169 211 263 175 269 217 249 205 175 228 211 260 225 175 197 226 266 248 287 269 243 246 204 256 192 260 247 179 267 290 250 220 245 181 310 174 188 259 227 194 192 250 155 196 225 268 178 221 196 296 322 189 172 272 164 266 158 217 273 252 194 302 204 206 240 274 163 193 173 362 165 195 210 213 271 225 232 283 211 228 230 206 212 145 270 317 227 221 213 216 227 246 195 232 233 116 256 300 263 207 233 261 282 213 294 204 220 236 225 262 173 256 260 166 179 214 232 294 277 192 265 190 266 245 214 202 231 248 266 265 176 269 199 240 293 213 256 222 234 205 168 227 284 234 154 299 222 200 228 165 214 267 201 145 203 269 217 233 230 348 179 336 294 259 215 167 217 154 207 242 249 180 194 235 174 248 219 310 185 161 139 186 195 265 231 272 220 216 172 260 205 150 169 257 154 253 195 218 243 168 248 262 264 159 244 219 235 193 280 195 100 257 236 203 214 185 208 249 257 251 210 152 218 174 283 211 233 269 201 163 216 237 240 219 186 245 219 215 207 182 186 166 189 230 192 284 225 215 175 190 262 131 269 204 287 200 229 154 216 246 249 201 114 153 230 268 271 136 235 182 277 220 169 241 257 228 354 252 239 222 140 115 211 173 228 269 252 300 171 163 203 165 213 189 213 193 362 277 240 154 242 220 279 319 177 240 164 197 214 279 210 179 223 176 261 332 217 232 272 222 244 224 251 228 299 244 159 256 284 261 233 264 291 183 221 244 219 180 304 278 206 273 267 145 131 284 154 184 198 265 212 279 202 115 216 257 228 236 214 145 323 197 162 189 226 207 251 272 226 189 203 183 207 330 247 202 160 244 202 229 270 188 165 249 192 192 226 195 195 157 203 260 256 136 321 211 254 288 141 221 125 274 224 171 194 343 152 172 303 269 188 260 236 261 268 230 188 167 220 180 173 244 174 226 187 140 282 254 228 209 211 237 263 190 264 235 205 171 164 257 248 265 260 184 240 181 152 220 194 223 215 233 161 231 225 158 261 218 206 228 173 227 235 248 181 173 278 253 291 197 202 255 225 204 262 268 294 275 277 183 302 226 190 309 216 170 179 166 173 187 174 182 337 224 274 264 267 189 292 216 233 135 276 222 153 228 245 266 216 292 108 244 223 243 285 220 196 266 215 199 175 214 177 325 232 309 247 298 257 264 227 230 207 226 204 227 234 174 202 154 188 236 248 170 187 197 256 241 247 156 207 204 224 219 204 206 216 245 133 207 256 125 206 129 202 269 299 218 218 304 241 280 182 242 174 174 254 273 263 201 172 226 154 221 268 241 203 213 193 331 154 202 255 161 210 207 255 234 179 161 201 155 186 256 177 213 224 220 289 192 214 123 174 214 232 278 180 102 215 322 238 339 236 161 223 196 158 207 182 222 263 220 203 217 198 167 191 281 163 236 253 242 269 152 250 196 243 190 220 209 261 146 216 263 222 178 280 241 191 165 304 217 212 224 238 275 235 185 250 190 244 201 185 243 178 179 194 233 214 214 124 274 274 186 150 173 196 276 246 208 183 182 213 231 198 244 257 287 178 267 171 244 128 224 188 209 199 200 187 211 173 277 189 354 256 253 166 186 275 206 284 184 266 209 274 320 220 200 201 206 296 238 203 178 175 164 214 208 198 216 323 205 185 279 284 203 187 255 240 236 183 201 156 129 176 230 188 193 206 156 133 160 246 203 276 217 143 206 196 229 237 219 218 177 160 301 169 139 212 151 203 171 233 203 209 215 294 204 248 166 170 211 180 173 188 225 179 202 231 231 173 255 249 166 236 262 282 197 219 273 214 158 302 200 160 207 147 180 233 204 196 154 243 179 196 275 251 270 283 246 250 304 220 224 151 184 167 263 302 189 225 230 180 248 252 181 228 220 251 246 190 212 268 219 189 233 333 238 232 170 217 202 232 116 238 157 237 239 249 269 224 220 207 277 275 199 138 203 197 221 203 174 215 225 255 217 261 224 263 164 127 275 220 197 243 158 187 264 241 246 231 288 152 225 245 172 290 201 262 221 208 258 140 213 246 248 279 255 169 250 202 335 273 228 228 242 192 185 209 231 235 244 285 208 196 165 256 235 270 252 272 184 206 267 232 212 258 152 198 250 157 169 300 176 210 130 202 182 237 168 179 354 224 203 231 313 297 281 176 218 173 224 201 251 250 316 189 166 152 204 262 208 258 200 231 229 267 194 200 270 227 193 149 211 235 219 206 241 189 273 286 228 217 140 292 173 239 279 231 184 249 219 230 246 236 217 178 266 176 210 223 237 177 245 201 210 156 220 208 226 271 240 251 193 209 249 211 197 317 134 209 251 226 230 165 207 177 251 257 207 275 173 217 231 224 143 292 158 157 231 229 207 185 219 217 275 202 243 309 270 226 153 234 183 219 267 243 184 190 142 276 251 204 284 246 185 254 313 280 181 159 239 154 186 187 213 237 151 286 231 238 291 260 207 249 192 323 203 223 159 254 207 251 101 259 219 240 278 198 176 217 230 226 198 175 237 277 176 171 160 155 237 190 250 218 194 230 216 207 163 224 229 182 159 271 238 225 229 322 196 195 259 270 252 225 308 179 176 153 300 262 234 220 214 240 205 189 158 198 246 233 247 216 159 154 216 265 186 175 211 234 179 202 211 308 220 186 282 223 239 224 188 325 178 250 280 236 203 227 215 214 199 219 250 187 197 236 194 216 129 294 229 216 287 213 134 219 241 276 241 286 248 239 162 286 206 241 169 166 137 302 269 211 242 173 281 249 140 212 276 234 183 197 221 220 347 180 246 257 282 196 222 188 222 212 240 131 309 282 214 119 176 180 229 238 145 356 229 243 217 179 215 268 219 221 290 238 285 166 283 362 281 145 259 174 237 188 196 169 205 204 175 207 198 262 211 223 321 260 220 298 206 190 205 238 237 234 318 254 218 186 278 148 249 239 163 200 216 178 240 254 153 201 242 200 207 160 276 278 240 215 210 201 288 203 196 231 191 172 251 168 240 153 139 159 194 220 132 206 275 249 205 242 298 251 203 174 330 279 250 214 255 304 277 268 221 259 273 201 221 154 266 227 281 237 246 224 197 247 240 289 203 157 244 180 223 182 207 219 251 261 220 262 119 274 253 192 335 206 240 226 257 166 175 280 318 258 168 214 223 259 272 161 175 215 258 175 165 199 245 215 206 187 317 210 186 246 208 171 192 308 274 185 272 286 206 278 184 284 182 307 218 260 277 189 243 216 137 219 137 221 191 188 239 271 357 255 253 192 283 189 248 234 238 187 215 295 145 212 195 213 251 223 282 217 216 193 246 161 229 217 164 277 206 242 272 279 183 197 267 260 136 264 195 284 260 178 217 180 204 150 172 209 221 186 196 210 217 137 210 292 161 226 159 271 222 215 200 268 210 205 251 195 225 263 213 261 238 154 189 267 295 232 163 190 295 229 234 244 196 192 275 209 207 157 254 284 197 162 264 267 251 167 189 347 231 249 262 184 232 219 134 233 344 201 227 132 227 283 179 245 221 237 241 310 245 221 204 193 208 192 109 223 214 194 243 178 208 303 184 212 199 157 232 225 228 228 201 193 273 226 259 207 130 183 223 236 283 250 307 232 231 224 146 176 257 222 223 278 218 229 103 206 163 241 178 194 294 183 181 230 219 191 216 163 244 246 326 144 316 162 173 241 215 298 169 238 159 246 347 171 244 206 189 195 167 221 238 211 220 181 351 275 219 223 250 249 328 165 203 275 136 153 279 179 163 236 220 159 315 241 207 232 204 277 250 263 182 134 158 233 270 163 199 174 276 216 162 194 194 256 173 218 334 276 284 121 260 219 189 158 211 150 275 193 227 136 251 194 188 281 226 196 170 208 242 225 153 151 294 279 164 218 162 193 196 206 95 216 248 173 224 208 212 271 192 195 199 245 283 306 170 258 270 268 176 153 238 297 188 254 193 325 172 210 231 213 187 204 225 268 223 244 261 209 234 198 223 244 229 149 267 231 196 215 258 190 238 279 215 197 210 258 268 201 203 266 214 169 183 195 249 220 196 260 362 112 163 227 147 240 227 259 218 229 276 218 325 218 158 188 289 212 219 245 230 232 182 274 220 229 194 193 271 228 249 190 277 170 189 242 259 179 274 225 215 242 251 254 277 230 240 232 132 197 209 129 166 210 285 157 209 206 250 188 184 248 146 192 175 203 299 176 245 199 245 327 212 244 117 269 231 186 247 279 211 171 252 311 202 183 140 247 192 314 126 162 202 187 260 230 247 246 199 273 221 219 175 195 200 224 318 211 291 164 166 292 208 189 181 201 266 180 201 212 168 244 206 178 178 235 179 184 217 227 235 165 200 312 317 291 254 224 216 265 239 212 282 202 222 194 170 263 280 200 393 233 224 213 275 163 74 228 190 241 99 217 232 249 247 241 227 205 195 205 215 354 123 132 214 187 224 190 225 217 281 194 191 204 182 243 156 189 197 263 116 206 155 257 245 236 221 246 228 234 304 271 221 225 244 234 224 249 258 282 207 274 210 203 118 221 217 189 196 197 171 277 203 183 213 221 209 337 217 167 290 175 236 213 167 266 170 188 197 174 226 292 236 292 267 204 185 136 160 220 233 228 300 151 280 216 247 238 175 213 179 172 221 242 266 214 311 147 193 250 202 144 139 170 296 222 322 182 290 160 270 261 154 197 216 167 268 208 169 142 257 248 209 207 171 213 224 92 245 272 235 214 205 278 218 251 183 285 226 268 227 159 173 223 191 148 323 190 183 270 216 144 217 199 208 164 152 167 256 180 170 323 259 238 262 229 101 189 143 266 270 185 216 245 211 202 195 305 197 183 283 215 257 274 115 176 203 213 142 242 271 191 186 187 208 194 254 235 317 190 298 333 242 187 248 243 161 272 227 240 275 278 297 245 209 216 264 229 251 188 287 347 291 211 256 235 253 145 168 236 235 258 187 225 302 179 187 223 292 230 207 217 218 188 255 291 237 199 245 195 216 247 244 169 219 232 170 215 228 189 158 260 270 181 259 244 215 249 151 194 216 251 197 229 202 219 256 228 241 238 196 272 232 210 153 190 237 216 264 183 161 242 194 254 231 210 282 229 280 249 164 222 286 335 170 206 253 211 130 338 181 214 223 269 289 287 216 204 193 219 221 189 314 240 199 236 180 225 330 242 197 206 186 254 204 255 211 248 225 254 292 240 236 149 292 261 123 305 208 263 248 202 211 217 232 281 238 259 251 216 213 222 144 314 169 210 147 170 170 217 223 276 201 203 143 189 251 201 136 175 222 184 274 317 168 274 262 265 263 135 273 211 265 225 213 188 230 320 92 257 221 210 261 137 268 206 239 192 268 204 274 178 211 229 231 197 201 211 201 187 246 271 190 200 224 226 179 172 209 292 281 249 202 247 198 216 212 200 286 218 281 155 196 206 245 275 208 181 233 219 217 228 152 269 206 120 208 168 212 182 268 147 235 218 306 231 228 309 159 223 180 152 237 194 259 120 183 233 183 317 170 188 212 156 148 219 209 221 246 213 237 165 215 178 232 224 164 204 144 276 253 279 266 196 230 281 171 259 253 173 218 192 253 172 272 260 193 192 219 257 164 157 310 233 279 266 203 192 286 203 170 184 222 289 214 321 125 220 194 186 218 185 262 253 236 243 280 173 209 257 178 277 197 210 193 271 287 247 264 183 141 194 339 232 248 178 221 220 247 238 185 306 197 203 250 198 252 211 213 202 237 171 260 240 282 202 169 255 142 220 147 246 248 263 220 271 266 107 206 171 266 166 228 337 248 206 257 250 268 223 172 234 217 184 246 264 239 209 260 197 262 229 246 183 228 178 135 274 207 282 239 202 121 184 195 241 222 185 199 236 140 179 168 266 181 253 78 184 239 258 313 176 359 223 211</t>
-  </si>
-  <si>
-    <t>MIE(0.3725221918875401, 2.0047366865427225, -1.1831588772793882e-29, 1.4000179806960102)</t>
-  </si>
-  <si>
-    <t>1 1 1 2 3 0 0 1 0 2 2 1 1 1 1 2 1 2 2 0 1 1 0 1 1 2 0 1 0 1 3 0 0 1 1 3 1 1 2 0 1 1 3 0 2 2 1 1 2 1 1 1 0 0 1 1 2 1 0 1 0 1 1 0 1 2 0 0 1 1 2 1 1 1 1 3 1 0 0 1 1 0 1 0 1 2 0 2 0 0 0 2 1 0 1 1 2 1 1 1 0 2 2 1 1 1 2 0 0 3 2 1 1 2 3 0 0 1 0 2 2 1 1 3 2 1 1 1 1 1 1 1 2 2 2 1 1 1 0 2 5 1 0 2 0 2 3 2 0 0 1 1 0 2 1 1 1 1 3 0 0 1 1 1 1 4 2 1 0 2 1 1 1 0 1 1 1 2 2 1 1 1 0 1 0 1 1 2 0 1 0 1 1 1 1 0 1 2 1 1 0 1 1 1 1 0 1 0 1 2 0 2 0 0 0 2 1 0 1 2 1 0 4 3 1 2 0 2 0 1 1 0 4 1 1 1 1 0 1 1 2 5 1 1 1 1 1 0 0 1 0 2 2 1 0 0 2 0 2 0 1 3 3 1 1 2 3 0 0 1 0 3 2 1 1 5 0 1 1 1 1 1 0 1 2 1 2 0 1 0 0 0 1 2 1 0 2 0 0 0 4 0 1 0 3 1 2 3 0 2 1 0 2 1 1 2 1 1 1 2 0 0 2 0 1 2 0 2 1 1 0 0 1 0 2 0 1 2 1 0 2 2 1 1 2 2 2 1 2 0 2 1 2 1 1 1 1 0 1 0 3 0 0 1 1 1 0 1 1 0 2 1 3 0 3 1 1 1 0 2 0 1 2 1 1 1 2 0 3 2 1 1 0 2 0 1 1 0 1 0 2 1 0 0 1 1 1 2 3 2 0 1 2 0 1 2 1 1 1 0 3 1 0 1 2 1 0 0 1 1 0 2 1 1 2 1 3 1 0 2 0 1 0 3 1 0 0 2 1 0 1 3 1 1 2 1 1 1 1 1 0 1 2 1 0 1 0 0 1 0 1 1 1 2 1 2 0 3 3 1 1 1 0 1 1 2 1 2 1 0 1 3 0 2 0 0 1 1 0 3 2 1 1 1 2 0 0 1 3 2 2 1 1 1 0 2 3 1 0 3 1 0 0 1 2 1 1 0 1 0 0 0 1 3 0 2 1 1 2 1 2 2 2 0 1 1 0 1 2 1 2 0 1 0 0 2 1 2 1 2 1 1 0 1 0 1 2 2 0 0 3 4 1 0 2 0 2 3 3 3 1 1 1 2 0 2 0 2 3 0 3 1 1 0 3 1 2 0 0 2 0 0 0 1 1 1 1 0 0 2 2 0 1 0 1 1 4 1 0 2 1 1 1 2 1 0 2 1 2 1 1 1 2 3 2 1 0 1 0 1 3 2 1 0 2 0 1 3 3 1 3 0 1 1 1 0 2 1 3 0 2 0 1 1 2 1 1 0 1 0 0 2 2 2 1 0 0 0 2 2 1 0 0 1 1 2 0 0 2 1 3 1 0 0 1 2 1 1 1 1 1 1 0 3 1 1 1 3 1 2 1 2 3 1 2 0 1 0 2 1 1 1 2 1 2 2 3 0 0 1 2 1 2 1 2 1 2 2 3 0 0 2 1 0 3 1 1 2 2 1 2 1 1 0 2 1 0 3 0 2 1 2 3 1 3 0 2 0 1 2 0 2 1 1 3 1 0 1 1 1 3 2 2 1 1 2 2 3 2 1 1 2 2 1 1 1 1 0 2 1 2 2 1 1 1 0 2 0 2 2 0 0 3 0 2 0 1 1 1 1 1 1 2 3 0 1 0 0 3 1 1 1 1 0 3 1 1 1 1 2 1 1 2 0 1 1 3 1 1 1 1 0 0 1 1 1 2 2 2 0 0 1 3 0 0 1 1 2 0 0 2 1 2 1 2 1 1 0 0 1 1 0 1 0 1 0 0 2 1 2 2 0 1 1 0 1 1 2 2 0 1 0 1 2 0 0 1 1 1 1 1 1 2 1 0 0 0 1 1 0 1 2 1 1 1 1 0 1 1 0 3 1 0 0 1 0 0 1 2 2 1 1 1 2 1 3 1 1 0 1 1 1 0 1 1 1 1 1 1 1 1 1 2 0 0 2 0 2 0 0 3 1 2 2 1 1 0 1 3 2 1 2 0 1 1 1 0 0 0 2 1 2 0 1 2 2 2 0 1 1 2 1 0 2 2 1 0 0 1 3 2 1 1 0 2 0 2 2 2 2 3 1 0 2 2 2 1 3 2 1 1 0 1 0 2 1 1 1 3 1 1 2 1 1 0 1 0 1 1 0 2 1 1 3 2 2 1 3 2 0 0 2 0 1 0 0 2 1 1 1 2 1 1 1 0 0 1 0 0 2 1 1 0 4 1 1 1 3 1 1 1 2 0 1 2 1 1 2 0 1 2 1 2 0 2 1 1 1 2 1 1 0 0 0 1 1 1 1 1 0 2 1 1 0 1 1 3 1 1 1 0 3 1 1 1 1 1 1 4 0 2 1 0 2 0 0 1 0 1 2 1 2 1 0 1 1 1 0 1 1 0 2 0 1 1 1 3 2 0 2 1 0 1 1 1 1 1 1 1 1 1 3 0 0 2 1 0 1 1 2 1 2 2 1 1 2 1 2 1 1 0 2 1 1 0 0 1 1 2 1 0 1 1 0 1 1 1 0 0 1 1 1 2 0 0 0 0 2 2 2 1 2 0 2 3 1 2 0 1 1 1 1 1 1 1 2 1 0 2 2 2 1 1 0 2 1 3 1 0 2 0 0 1 1 0 0 0 2 2 2 0 2 1 1 0 1 1 1 0 2 2 1 0 2 0 2 0 1 3 0 1 1 1 2 0 4 1 3 0 2 2 1 3 1 1 0 1 1 0 0 0 1 0 0 0 0 1 0 1 2 2 0 1 1 0 2 0 1 0 0 1 1 1 1 1 0 2 1 1 0 2 2 0 0 2 0 2 0 1 0 1 1 2 3 1 1 1 0 1 1 1 0 1 2 1 3 1 3 1 2 1 1 2 0 2 1 3 4 1 1 1 0 2 2 1 0 4 1 1 1 2 0 1 0 1 0 0 1 0 1 2 0 1 0 0 1 1 1 0 0 0 0 1 1 1 2 1 2 0 1 1 0 2 3 1 0 0 1 1 1 0 1 1 1 1 1 1 2 2 1 1 1 1 4 0 1 2 2 1 1 1 0 2 2 2 1 1 1 0 1 1 2 1 0 0 1 2 2 1 0 2 0 1 2 2 1 1 0 3 1 2 3 0 2 1 1 1 0 2 1 1 0 2 0 1 2 0 2 1 3 0 1 2 0 2 0 0 0 1 3 1 0 2 3 1 0 0 2 2 0 0 1 1 0 1 0 0 0 3 0 3 0 3 2 1 2 1 4 0 2 0 1 0 1 0 1 2 2 2 3 1 4 2 1 1 2 1 0 2 1 0 2 2 2 1 1 0 0 1 1 0 2 2 2 2 0 0 1 0 1 1 1 2 1 2 1 1 1 1 1 0 2 3 2 0 1 2 0 0 1 2 1 1 1 0 2 1 2 1 1 1 3 1 1 1 2 1 2 1 3 1 0 1 0 0 0 1 0 1 2 1 3 1 0 2 1 2 0 0 2 0 2 1 1 0 0 2 1 0 1 3 2 1 1 0 2 0 1 1 0 2 0 1 2 1 1 1 2 2 1 1 2 1 1 0 1 1 2 1 1 1 2 1 0 0 2 1 0 0 0 1 1 0 1 2 1 0 1 0 1 1 0 2 1 1 1 1 0 0 1 1 2 0 2 2 0 0 2 1 1 1 0 2 1 1 2 0 1 1 2 0 4 0 0 1 1 2 0 2 1 2 1 1 1 2 0 0 3 1 2 0 3 2 0 1 1 1 0 0 2 0 1 2 0 2 1 1 2 1 0 1 1 1 0 0 1 5 3 2 1 1 1 3 1 0 1 1 1 1 1 1 1 2 0 2 0 2 1 1 0 1 1 1 0 0 3 0 1 2 1 0 2 2 0 2 0 1 0 0 1 0 2 0 0 1 2 2 0 2 1 2 2 1 0 1 1 2 1 2 2 2 1 2 1 0 2 1 1 2 2 4 1 1 3 3 2 1 6 0 2 3 2 0 2 2 1 0 2 2 1 0 1 0 0 1 2 2 1 3 1 0 0 2 2 0 2 1 3 0 1 1 2 3 0 1 3 2 2 1 2 2 1 2 2 0 1 1 1 2 0 1 0 1 2 3 4 2 2 1 2 1 0 1 0 1 1 2 0 1 0 2 3 0 1 2 3 1 1 1 0 4 0 1 0 3 2 0 1 0 3 1 1 1 1 1 2 0 0 2 1 2 0 2 0 1 3 1 1 0 0 1 0 2 0 1 0 0 1 1 0 1 0 0 1 2 1 0 1 0 0 0 1 0 2 0 0 1 2 1 1 3 1 2 1 1 1 0 1 1 2 2 0 1 1 0 1 0 1 1 0 1 3 2 1 3 1 0 1 2 3 2 1 3 2 1 0 1 2 0 3 1 2 1 1 3 2 1 0 2 1 1 1 0 1 0 0 0 0 1 1 1 0 0 2 1 1 4 0 0 3 0 1 0 1 3 1 3 1 1 1 0 1 1 3 2 1 0 2 2 2 2 1 0 3 1 1 1 1 1 1 0 1 2 1 1 0 1 0 2 3 1 2 1 1 3 1 0 1 1 0 2 1 0 2 1 2 1 1 1 1 2 4 1 2 0 0 3 0 0 0 3 4 2 1 0 0 0 1 2 2 1 0 1 2 1 1 2 0 0 0 0 2 0 0 2 0 2 0 0 2 2 0 0 0 1 1 0 1 1 2 1 1 0 2 0 1 2 2 4 0 2 1 1 1 1 0 4 0 0 0 2 1 3 1 1 0 2 1 0 0 0 0 1 1 0 0 2 2 0 2 1 1 0 0 0 1 1 2 2 1 0 3 0 4 2 1 2 2 1 0 0 0 2 0 1 2 0 2 0 2 0 3 1 1 1 1 1 1 3 2 1 0 0 0 1 0 1 0 1 2 1 1 2 1 0 0 2 5 3 1 1 0 2 0 2 2 1 2 2 1 2 2 0 1 1 0 2 1 1 1 1 2 2 2 3 2 1 1 0 1 3 0 3 1 1 0 3 2 0 1 2 2 2 1 0 1 1 2 1 1 2 1 0 0 1 2 1 1 2 1 0 0 1 1 2 1 2 1 4 1 0 0 1 1 1 1 1 3 0 0 1 3 2 1 0 0 2 2 1 0 1 1 0 1 1 0 2 0 1 0 0 2 1 0 1 1 1 1 0 1 1 1 3 3 2 1 1 1 1 1 0 1 2 1 2 1 1 0 1 2 0 1 1 0 0 1 3 1 0 2 1 1 0 2 1 1 1 0 1 1 2 2 1 0 3 1 0 2 2 3 3 0 1 0 0 1 1 1 0 1 0 1 1 1 0 4 1 0 1 5 1 2 2 1 0 2 0 0 1 2 1 2 0 1 1 1 0 0 1 2 2 1 0 1 1 1 0 0 0 0 2 1 0 1 0 2 2 0 2 0 3 1 2 1 0 1 1 0 0 1 1 0 1 2 1 2 2 1 0 1 0 1 1 1 2 1 1 2 1 1 1 1 0 1 2 0 2 0 2 0 1 0 1 0 1 0 0 0 1 0 1 1 3 1 3 1 0 1 0 1 2 1 1 1 1 0 1 0 0 0 0 0 1 0 2 1 2 2 0 1 2 1 1 0 1 1 1 0 1 1 1 1 1 2 1 1 1 1 3 1 0 0 0 3 0 1 1 1 1 3 1 0 0 1 2 0 1 1 0 0 1 1 1 1 3 2 2 0 2 2 1 1 1 2 1 3 0 0 0 1 4 0 1 1 1 1 1 0 3 1 1 1 0 3 2 0 2 1 3 0 1 3 2 2 0 0 1 1 3 1 1 1 1 1 0 1 2 0 0 1 2 0 2 2 0 0 1 1 1 2 0 1 0 3 1 2 2 1 0 0 3 4 1 0 0 0 1 3 1 0 1 1 1 1 0 2 1 2 1 0 3 0 1 0 1 2 2 2 1 2 2 1 1 1 1 2 4 1 2 1 1 2 1 4 1 1 0 2 2 2 0 1 1 0 1 0 2 0 1 1 1 3 2 1 2 1 1 2 2 2 1 1 0 2 1 3 2 1 2 0 3 0 2 3 0 1 1 0 0 2 1 0 1 2 1 0 2 1 1 0 3 1 2 2 0 3 0 1 2 0 1 1 1 0 1 2 1 1 1 2 1 1 2 2 0 2 2 1 1 0 0 2 0 2 2 1 1 3 0 2 0 1 1 0 2 0 0 0 2 2 1 2 2 3 1 0 1 1 1 1 1 2 0 0 2 1 0 1 2 1 0 1 1 1 1 0 0 1 3 0 1 1 2 0 1 1 1 0 1 1 1 0 1 2 1 1 0 0 1 0 1 2 0 3 2 2 0 1 1 0 1 2 0 1 0 2 2 1 2 1 1 0 3 1 3 2 0 3 1 1 0 1 0 1 0 1 1 0 2 1 0 0 2 2 1 1 2 1 0 0 0 1 1 1 0 1 1 1 0 2 1 0 2 2 0 1 1 1 1 0 1 2 1 2 1 2 1 2 1 2 2 2 2 1 0 0 0 1 1 1 0 0 0 0 1 1 3 1 0 2 2 2 2 1 1 1 1 1 1 1 2 1 1 2 3 2 1 1 1 2 0 1 1 0 3 1 1 1 2 2 1 2 1 1 3 0 3 0 0 2 1 0 0 1 3 0 0 1 1 0 2 2 1 1 0 1 2 3 1 1 1 2 1 1 0 1 1 1 1 0 0 0 1 3 2 1 0 1 1 2 2 2 1 2 1 2 4 1 1 2 3 2 1 3 2 1 3 1 3 2 0 0 1 1 1 0 1 1 1 0 0 1 1 1 0 2 1 1 2 0 0 2 0 0 2 1 1 1 1 0 0 0 1 0 1 2 2 1 1 1 0 0 3 3 0 0 1 1 0 2 3 1 0 1 0 1 0 2 0 0 1 1 1 0 0 1 2 1 2 0 0 1 1 2 1 1 2 1 1 1 1 0 1 2 1 0 2 1 1 1 2 1 0 1 2 0 2 1 2 0 0 0 1 1 2 1 1 0 3 1 3 1 2 3 2 0 0 1 1 2 2 3 3 0 2 3 0 1 1 1 1 2 0 0 0 1 1 2 0 2 0 0 1 1 1 2 0 1 0 1 2 1 2 1 1 2 1 0 1 2 2 1 0 1 2 1 1 0 1 1 1 3 1 0 3 1 1 2 0 3 1 1 0 0 2 2 2 0 2 1 0 0 0 1 2 0 0 3 1 0 1 1 0 2 1 1 2 2 2 1 2 1 0 1 1 0 1 2 2 1 1 0 0 0 1 1 2 0 0 1 1 2 1 4 1 1 1 2 1 0 0 1 0 1 1 1 0 2 3 0 1 0 0 2 2 1 1 0 1 1 1 3 0 0 2 2 1 0 2 1 0 3 3 1 1 2 2 0 0 4 0 1 2 3 1 2 1 1 2 0 1 1 2 1 1 3 1 0 2 1 1 2 2 1 0 2 1 1 4 1 0 0 2 0 1 2 2 0 2 1 0 0 2 1 0 1 1 2 1 0 2 1 1 0 3 2 2 0 0 3 0 0 0 1 1 1 2 2 3 2 1 1 1 0 1 0 1 2 0 1 1 2 0 0 1 1 2 1 1 1 1 1 2 1 1 1 3 1 0 1 0 1 1 0 2 0 1 1 2 1 1 1 1 0 1 0 2 1 0 2 3 0 0 0 4 0 1 1 1 0 0 0 1 2 2 2 1 2 2 1 1 1 5 0 2 0 1 1 1 0 2 1 1 0 1 1 0 1 0 2 2 0 0 0 1 1 2 2 1 1 1 0 2 4 2 1 0 1 0 1 2 2 2 2 2 0 1 1 0 0 0 1 0 2 1 1 1 1 0 0 1 0 1 1 3 1 0 1 1 0 0 2 2 1 1 2 1 1 1 1 0 0 2 1 1 1 1 2 2 2 2 1 0 1 4 2 2 1 1 2 2 0 2 1 1 3 1 0 0 0 3 1 3 2 2 1 1 2 2 1 0 0 0 2 1 0 1 2 1 0 1 0 3 0 2 1 2 0 1 2 1 1 0 2 1 1 1 1 1 2 3 2 1 1 1 1 2 3 0 1 0 1 1 1 1 0 1 2 2 1 1 0 1 0 1 1 0 1 0 2 1 2 3 0 1 3 1 0 1 1 0 1 2 2 2 2 1 0 2 1 1 1 0 1 2 0 0 0 1 2 2 1 2 2 2 1 1 1 2 1 0 2 2 0 3 2 1 1 2 2 1 0 1 2 2 0 2 1 0 1 0 2 1 2 2 1 1 1 3 2 3 1 0 3 2 0 2 2 0 3 1 0 1 1 1 1 1 0 2 1 1 1 0 0 0 1 1 0 2 1 1 0 2 2 1 1 0 0 2 0 1 1 1 2 0 0 1 1 2 1 0 1 1 0 2 1 3 1 0 2 1 1 1 1 2 1 0 2 1 1 1 2 1 1 1 1 1 1 2 1 2 2 1 0 0 1 0 1 2 2 1 0 1 1 3 1 1 2 3 1 0 0 0 1 1 0 0 1 2 2 1 0 0 2 0 1 1 1 0 1 2 2 3 3 0 1 0 1 1 3 1 1 3 0 0 1 0 2 2 0 1 0 4 1 0 0 1 1 3 2 2 1 0 1 1 3 1 1 3 2 3 1 0 1 2 0 2 1 1 0 1 2 0 2 2 1 1 0 2 1 0 0 1 1 3 1 0 1 2 0 1 1 1 1 1 1 1 2 0 0 1 2 2 0 2 2 0 0 1 2 1 2 1 2 1 2 0 1 1 0 2 1 2 0 1 1 1 1 1 1 1 0 0 1 1 1 2 1 3 1 2 1 2 0 2 0 0 1 1 1 1 2 3 0 1 0 1 0 1 1 0 2 0 1 1 2 0 3 2 1 0 0 1 0 1 2 0 1 1 1 0 1 1 1 1 0 3 3 3 3 0 1 1 1 1 0 1 1 1 1 0 0 2 0 2 1 2 2 0 1 0 2 1 1 0 2 1 1 2 2 2 0 1 2 1 1 2 1 0 1 3 2 1 1 1 2 1 1 2 2 0 1 0 3 1 2 1 0 1 2 2 0 0 0 1 2 2 2 0 2 1 2 0 2 1 4 1 1 0 1 3 3 2 3 2 0 3 0 0 2 0 0 3 1 0 0 2 2 1 2 2 0 1 1 1 2 2 1 0 1 2 1 3 1 1 1 0 1 2 2 1 2 3 1 3 1 1 3 1 1 1 0 0 0 3 3 2 2 1 0 0 1 0 1 1 1 1 0 2 0 2 0 0 2 1 0 3 2 1 1 1 2 1 2 2 1 2 1 0 2 1 1 3 2 0 2 1 1 0 1 1 1 1 0 0 1 1 1 2 0 2 0 0 1 0 1 3 1 0 2 0 1 2 0 1 1 0 1 0 0 2 2 2 2 0 0 0 1 1 2 0 2 1 2 3 0 2 0 1 0 3 0 1 2 3 1 0 1 2 1 2 1 0 1 1 1 2 2 2 1 3 1 2 0 0 2 2 1 2 1 2 0 1 3 0 3 1 0 0 0 3 1 1 1 2 1 1 0 0 1 0 1 0 2 1 1 1 1 1 1 2 0 1 2 1 2 1 1 2 0 1 1 1 0 2 1 2 1 2 1 1 0 2 0 2 1 3 1 1 1 1 1 1 1 3 0 2 0 2 2 1 1 1 1 2 1 0 1 1 1 3 1 0 1 1 3 2 0 1 2 3 1 1 2 1 2 0 1 3 1 2 0 2 2 1 1 1 1 0 0 0 2 1 0 2 1 1 0 0 1 3 2 0 2 1 2 1 0 1 2 1 1 1 2 2 1 1 2 1 1 1 0 0 2 2 0 1 0 0 2 0 0 1 0 1 0 1 1 3 0 0 1 0 1 0 0 0 1 1 1 2 1 1 0 1 1 1 2 1 0 2 2 0 0 1 2 1 2 1 3 1 1 0 3 0 2 1 2 1 2 1 1 0 1 1 2 0 0 0 1 2 1 0 1 3 0 1 2 1 0 1 1 0 4 2 3 2 1 0 2 3 2 0 1 0 0 1 0 4 2 0 0 3 0 2 1 0 1 2 1 0 1 4 1 1 2 0 0 0 3 1 1 2 1 1 1 1 2 0 2 2 1 2 1 1 1 2 1 2 1 2 1 0 2 2 0 0 0 1 1 1 0 3 1 2 0 0 0 3 0 1 2 0 2 1 1 0 2 1 2 1 1 1 2 3 2 0 2 2 1 3 0 1 0 1 1 1 1 0 1 1 1 1 0 1 1 2 1 1 1 2 3 0 1 1 1 2 2 0 1 1 0 3 1 0 1 1 4 2 1 2 1 0 1 1 1 2 1 1 3 1 0 2 1 1 0 1 1 1 2 1 1 1 1 3 0 0 1 1 2 1 1 3 0 2 3 0 2 0 2 1 2 1 1 2 1 1 1 1 0 0 0 1 1 1 2 1 3 1 0 2 1 0 2 1 0 2 1 0 2 0 1 2 2 0 2 1 0 2 1 1 0 1 2 0 0 1 3 2 1 0 1 1 1 0 2 1 1 2 1 1 0 2 0 0 0 2 0 1 1 2 2 0 1 0 1 3 3 2 1 0 2 1 1 2 0 0 0 1 1 0 1 1 1 1 0 2 2 1 1 1 0 2 1 1 2 1 0 0 2 0 1 1 1 0 2 2 1 1 0 0 1 3 1 2 0 0 0 1 1 1 1 2 1 1 1 1 0 0 2 0 1 4 2 1 1 0 0 3 1 1 1 2 1 2 1 0 1 1 0 0 0 2 1 1 1 2 2 0 0 4 2 0 0 0 2 2 1 1 2 2 0 0 3 2 2 1 1 1 1 1 2 1 1 1 2 0 3 1 2 3 1 1 1 1 2 1 0 0 1 1 0 2 0 1 0 2 1 1 0 0 1 2 0 1 1 3 2 0 0 0 2 1 1 1 0 1 2 1 2 0 1 2 0 0 1 2 0 1 2 1 3 2 1 0 0 0 1 3 2 1 2 0 0 3 2 2 2 1 1 1 1 0 2 3 2 2 0 0 4 2 2 2 2 0 2 2 2 0 1 1 1 0 0 1 1 1 1 1 2 0 0 1 2 0 0 1 0 1 2 1 3 3 1 1 1 1 1 0 2 2 0 0 0 0 2 0 2 1 0 1 0 2 1 2 0 0 0 1 0 0 0 0 1 2 2 0 3 1 1 1 1 3 2 1 0 3 1 2 0 1 1 1 0 2 1 1 0 1 0 1 1 2 0 1 1 2 1 1 1 0 1 1 2 0 0 0 1 1 0 0 1 3 1 2 2 1 0 2 1 1 1 1 1 0 1 0 1 3 2 3 0 1 1 1 1 1 2 0 1 2 2 2 2 1 2 2 1 0 0 3 0 1 1 3 1 0 1 2 1 2 2 1 2 0 3 0 1 0 1 1 1 0 3 0 0 2 1 0 1 0 0 1 0 0 1 2 3 2 0 3 2 0 0 1 0 1 2 1 0 1 4 1 1 0 1 0 0 1 2 1 0 2 2 2 1 1 0 0 1 0 0 0 0 3 1 1 2 3 2 0 1 1 1 0 1 3 1 2 1 0 3 1 1 2 1 1 1 1 1 2 1 0 2 1 1 2 1 2 1 1 1 0 1 1 2 1 1 1 0 1 0 1 1 0 1 3 0 2 1 0 1 2 1 2 3 1 1 1 0 1 2 1 2 0 0 4 0 0 2 1 2 0 1 1 1 1 2 2 2 3 0 2 1 2 1 2 0 2 1 1 3 2 0 1 1 1 1 2 0 2 0 3 1 0 3 2 2 0 3 2 1 1 3 2 2 2 2 1 1 0 1 0 2 1 1 3 0 1 1 2 1 1 0 1 1 1 2 2 1 2 0 2 1 1 1 0 1 1 1 1 1 1 2 3 2 2 2 1 0 1 0 1 1 3 2 1 1 1 0 1 1 1 1 2 1 2 0 0 0 1 1 1 1 1 1 2 0 1 1 0 2 1 0 1 1 1 2 1 2 1 0 1 1 2 2 1 0 2 0 1 2 1 1 2 2 3 1 4 1 1 0 1 1 1 0 1 2 0 1 3 1 0 3 0 1 1 0 1 2 0 0 0 0 1 0 1 2 2 1 1 1 2 2 2 1 1 0 2 0 2 0 0 1 1 1 3 0 0 1 1 2 1 2 1 2 0 1 1 2 1 1 2 1 1 1 2 0 3 1 1 3 1 1 2 1 2 0 1 1 1 1 2 0 0 3 0 0 1 0 2 1 2 0 2 1 0 2 2 1 2 4 1 1 1 2 2 2 1 1 2 1 0 1 0 2 1 1 1 1 0 1 2 2 0 0 1 2 2 1 1 0 0 2 2 2 2 2 1 1 1 1 1 1 1 1 2 0 0 2 0 1 1 0 3 3 1 1 2 0 0 2 0 1 3 2 2 1 1 0 0 0 3 0 2 1 1 0 1 0 1 1 2 0 1 1 2 1 0 2 1 0 2 1 3 0 1 1 3 3 0 1 1 1 2 1 1 1 3 1 0 2 0 0 1 1 1 0 3 1 3 0 0 2 1 0 1 0 1 1 1 2 1 2 0 2 0 1 1 2 1 1 1 1 2 3 3 0 1 1 3 3 2 0 2 1 1 0 3 0 3 1 3 0 3 2 0 1 0 1 1 2 2 1 2 0 4 0 3 1 0 1 3 1 2 1 0 0 0 1 3 1 0 0 1 1 0 0 2 0 1 3 1 1 1 1 2 0 1 1 2 2 0 0 1 0 0 4 3 1 1 3 1 2 1 3 0 1 1 1 1 3 1 0 1 2 2 1 1 1 0 1 1 2 2 1 1 2 3 1 1 2 2 2 1 0 1 1 0 0 1 0 1 2 1 1 1 1 0 0 1 1 0 0 1 2 1 0 1 1 0 1 1 3 0 1 0 2 1 1 0 1 1 3 1 3 0 1 1 1 1 1 2 2 3 1 0 0 0 1 2 1 1 2 1 0 0 2 0 1 3 2 2 1 1 1 2 1 0 1 1 1 1 1 1 1 1 0 1 0 2 2 1 0 1 1 2 1 4 1 0 1 1 2 0 1 1 0 1 3 1 0 0 2 1 2 0 0 4 1 0 1 1 0 1 2 0 2 0 1 0 2 1 1 0 0 1 1 1 1 4 1 0 0 0 1 2 2 0 0 1 1 1 0 1 0 1 0 1 2 0 2 1 1 0 1 1 0 2 2 1 1 3 0 1 2 0 0 0 0 4 1 1 0 3 0 2 0 2 2 2 1 0 2 1 1 0 1 2 1 2 2 1 1 0 0 0 2 2 3 2 1 1 0 2 2 0 0 1 2 0 0 0 0 1 1 0 0 0 3 2 1 2 1 1 2 1 2 0 1 1 2 2 1 2 0 0 1 0 2 1 1 1 1 1 2 1 0 1 3 1 0 1 3 1 1 1 0 0 3 3 0 1 1 1 0 2 0 2 1 1 3 1 1 0 0 1 0 0 0 0 1 0 2 3 2 0 2 1 3 0 0 2 1 0 1 1 0 4 0 1 2 1 1 2 0 0 0 1 2 0 1 1 1 4 2 0 0 1 2 0 0 2 1 2 1 2 0 1 0 2 1 1 1 2 1 3 0 1 1 1 0 1 2 0 0 3 1 1 2 0 2 2 1 1 0 1 1 2 0 3 1 0 1 1 2 0 1 0 1 3 0 3 0 0 0 2 2 1 2 2 2 2 0 1 1 1 2 0 1 2 1 1 1 1 1 2 0 4 2 1 2 0 0 0 1 1 2 1 3 1 0 1 0 0 3 1 2 1 1 0 0 2 1 1 0 1 0 1 1 1 0 0 0 1 2 3 1 1 1 0 1 0 0 0 2 0 3 1 0 0 1 2 1 0 0 0 1 1 1 0 1 0 1 2 1 0 1 2 1 3 0 0 1 1 1 0 2 0 1 0 2 0 2 2 0 2 1 1 0 0 1 1 0 0 0 0 2 1 0 4 1 2 0 0 1 1 1 1 0 2 1 0 0 0 1 1 0 0 3 2 2 0 1 1 1 4 1 1 1 1 2 1 1 0 1 1 0 1 1 1 1 2 4 1 1 0 1 2 1 0 1 2 1 1 1 1 0 2 2 0 2 1 1 0 1 1 2 0 2 0 1 1 2 0 1 1 0 1 1 2 1 2 0 2 0 0 2 2 1 1 1 1 2 1 2 0 2 1 3 2 2 1 1 2 0 2 1 0 1 2 1 2 3 0 1 0 1 1 3 1 0 1 1 2 2 4 1 1 1 4 3 1 1 1 2 1 2 3 0 0 1 1 2 0 1 1 0 2 1 0 2 1 1 2 2 1 0 1 0 0 0 1 0 2 1 0 1 1 0 1 0 2 3 1 1 2 0 5 1 0 1 0 0 1 0 2 1 1 3 1 1 2 2 1 2 1 1 0 2 0 1 2 2 0 0 2 0 1 1 1 4 1 2 0 2 2 0 1 0 1 1 0 0 0 1 1 1 3 1 0 2 1 0 0 0 1 2 0 2 1 0 0 1 1 1 3 2 1 0 0 0 1 3 3 1 1 2 2 2 1 0 1 2 2 1 1 0 0 0 0 2 1 1 0 0 2 0 3 0 1 1 0 0 1 2 1 2 2 1 1 0 1 0 3 3 1 1 0 1 0 2 0 0 0 1 0 2 1 1 1 1 1 1 0 0 0 1 2 1 0 0 4 1 4 4 1 0 1 1 0 0 1 2 1 1 0 3 1 0 2 0 0 1 4 2 2 0 1 1 1 2 1 0 0 1 0 0 2 1 0 2 0 2 1 2 1 0 1 1 0 1 1 1 0 1 1 1 1 1 0 0 1 1 1 1 0 0 2 0 0 1 3 2 1 0 0 1 1 0 1 0 0 1 2 0 1 1 0 1 1 2 0 0 1 1 2 1 0 1 1 0 1 0 0 0 2 1 3 0 1 2 0 2 0 1 1 0 0 1 1 3 1 1 3 2 0 1 2 0 1 2 1 1 0 1 2 2 1 1 1 2 0 1 2 0 2 1 2 3 1 0 0 2 1 3 1 0 3 1 0 2 0 1 1 0 0 0 1 0 1 0 3 1 0 2 1 0 0 1 1 3 0 1 1 2 3 2 1 0 2 0 2 1 3 3 2 1 0 0 2 1 0 1 1 0 1 0 2 2 1 1 2 0 1 2 1 2 1 1 2 1 3 0 1 1 0 1 1 1 0 1 1 0 1 1 1 1 2 1 1 2 1 0 1 0 0 0 1 0 3 1 2 0 1 0 1 0 0 1 1 1 0 0 1 1 2 0 0 0 2 1 3 2 2 1 2 1 2 0 0 0 0 1 1 1 1 0 0 1 1 0 0 1 3 3 2 1 1 2 0 0 2 0 3 1 0 2 1 0 2 0 2 2 3 2 2 2 0 1 0 0 1 0 2 0 1 1 1 0 1 1 1 1 4 1 0 0 1 0 0 3 3 2 2 1 2 1 1 0 1 1 4 2 1 2 1 2 1 2 2 2 0 1 2 1 0 0 2 1 1 3 1 1 1 1 0 0 1 2 4 1 0 1 0 0 1 1 0 2 1 2 3 2 2 2 1 0 2 3 1 1 2 2 1 0 2 1 1 0 1 2 2 1 2 1 0 0 0 2 1 1 3 0 1 0 1 1 0 4 0 2 0 0 0 1 2 0 1 1 2 1 1 0 0 0 1 2 2 2 0 2 3 2 2 3 1 0 3 0 0 4 2 2 1 1 2 1 1 2 1 1 1 2 2 2 0 2 0 0 1 0 1 2 2 1 1 3 1 0 1 2 2 4 1 1 3 1 0 1 2 2 1 0 1 4 1 1 1 1 1 3 2 3 1 0 1 2 0 1 1 1 2 1 1 1 1 0 1 1 1 0 1 2 0 0 1 2 0 0 2 0 1 2 2 1 2 0 2 1 1 1 1 2 2 1 2 2 1 0 0 0 2 1 2 0 0 1 1 0 1 0 1 1 1 1 1 0 0 0 1 0 0 2 0 1 3 0 2 3 1 0 0 0 3 1 1 0 2 3 0 2 1 2 1 0 0 2 0 1 3 0 1 2 0 0 2 3 2 2 1 2 1 3 1 1 1 0 1 1 1 2 1 1 1 1 3 1 1 0 3 2 1 1 0 1 1 1 0 1 4 1 1 1 2 1 0 0 0 1 0 0 2 1 0 1 1 3 0 1 0 1 1 1 0 1 1 1 1 2 0 1 2 1 2 1 2 1 1 2 1 2 1 0 0 1 2 1 0 2 2 1 2 1 2 2 1 0 0 0 1 1 3 2 0 1 2 0 1 0 1 1 1 1 1 4 2 2 0 1 1 1 2 0 1 1 1 0 1 1 1 3 2 0 1 1 0 1 1 2 1 0 1 0 1 1 1 0 2 1 2 2 3 1 0 2 1 2 0 0 3 0 3 2 1 1 1 1 2 0 2 1 1 1 0 2 2 1 1 1 1 1 1 0 0 1 0 1 1 1 2 1 1 1 1 1 1 0 1 1 2 0 1 2 2 2 0 1 2 1 1 2 0 1 3 1 0 0 1 3 1 0 0 1 3 0 2 2 0 1 2 5 0 1 0 0 1 2 2 0 1 1 1 1 1 1 2 0 1 0 1 2 2 1 1 1 0 2 1 1 1 2 1 0 0 1 1 1 2 1 1 0 0 2 2 1 4 0 0 1 2 0 1 1 2 1 1 1 0 2 1 2 0 1 2 3 2 1 2 1 1 2 1 0 0 1 1 2 1 0 2 1 0 1 0 0 1 0 0 2 1 2 0 1 0 1 2 2 0 2 1 0 3 2 2 0 2 1 0 2 3 2 2 1 1 2 0 1 1 2 1 1 1 2 1 1 0 0 2 2 2 1 1 1 2 1 0 1 2 0 2 1 2 4 2 0 1 0 1 0 1 0 0 1 2 1 2 1 2 0 1 2 0 0 1 0 0 2 2 1 0 2 2 0 3 1 1 1 1 2 2 0 0 1 0 0 2 1 0 1 2 1 2 1 0 3 0 1 2 0 1 2 1 0 3 0 1 2 2 0 1 2 0 1 1 0 1 0 3 1 0 1 2 1 2 2 0 1 1 2 1 1 0 2 0 4 3 1 0 1 1 1 0 0 0 1 1 1 0 3 1 0 1 1 1 1 0 1 1 1 1 1 2 1 2 1 1 0 1 3 0 1 2 1 2 1 1 0 1 3 1 2 0 1 0 1 1 0 1 2 1 1 3 2 2 2 2 0 2 1 1 0 1 3 0 2 1 2 1 1 2 0 0 1 0 2 0 0 1 0 1 2 2 2 1 1 1 0 1 2 1 1 0 2 2 3 1 1 0 2 0 2 0 2 1 1 2 1 2 0 3 2 3 1 0 0 2 0 2 0 1 1 0 2 2 2 0 2 2 1 3 0 0 0 2 2 1 1 1 1 0 2 2 2 0 1 2 2 1 1 1 1 1 1 2 1 1 2 0 3 3 1 3 1 2 3 1 0 0 1 0 0 1 1 2 0 2 1 0 1 1 2 1 1 0 1 1 0 2 1 0 0 1 1 0 1 0 2 0 1 1 1 1 2 3 3 0 0 1 1 1 1 2 1 2 2 1 0 1 1 0 0 1 3 0 1 2 1 1 2 0 1 2 0 1 1 0 3 1 1 2 2 2 1 0 1 2 1 0 1 1 1 1 2 1 2 2 0 0 1 4 2 1 2 1 0 3 0 1 1 1 1 0 0 0 0 1 1 2 0 1 2 3 1 1 1 0 0 1 1 0 0 2 1 1 1 2 1 1 2 2 3 1 1 0 2 1 0 1 3 1 2 0 1 2 0 2 2 1 0 2 0 2 1 3 0 1 2 1 2 0 0 1 3 3 0 2 0 0 1 1 1 3 0 2 0 1 0 1 2 1 1 1 0 2 1 2 0 3 2 2 0 0 1 0 1 1 4 0 0 1 1 0 1 0 3 0 3 1 0 1 0 1 1 1 0 0 1 1 2 2 1 1 2 1 0 2 0 0 1 3 1 1 2 1 1 1 2 2 0 2 0 1 1 1 2 1 1 0 0 0 1 1 1 3 2 0 1 1 1 0 0 2 2 1 5 0 1 0 2 2 1 1 1 0 0 1 2 1 0 1 0 0 1 0 1 1 2 1 1 0 2 0 2 0 1 1 1 3 1 1 1 0 1 1 2 1 2 0 1 2 1 2 0 1 2 2 1 0 0 0 0 0 1 0 0 1 0 0 1 1 1 0 1 0 2 2 1 2 1 0 1 2 3 1 0 1 1 2 1 0 0 1 2 0 0 2 0 2 2 1 1 0 2 3 2 1 3 2 3 1 0 0 2 0 2 0 0 2 1 2 2 1 1 2 0 0 1 2 1 1 3 0 2 0 0 3 2 0 1 1 0 1 1 1 0 2 2 0 0 2 2 1 3 1 0 0 2 1 1 1 1 0 0 1 0 1 1 2 1 1 1 0 1 2 3 1 2 1 1 0 1 1 1 2 1 2 2 2 3 0 2 1 1 1 1 1 1 1 1 3 1 0 2 1 4 1 2 0 1 0 2 2 1 2 2 1 2 0 0 0 2 2 1 0 1 2 1 1 3 2 1 2 2 1 1 1 0 2 0 1 1 2 2 1 2 1 0 0 1 0 0 2 1 3 2 2 0 1 0 1 1 0 1 1 0 1 1 1 2 1 2 3 2 0 2 2 2 1 2 0 1 2 0 1 2 2 0 0 3 0 0 2 2 1 1 0 1 3 0 2 2 0 1 1 3 0 1 0 2 1 2 1 1 0 1 3 1 2 0 1 0 1 0 0 1 1 2 1 1 0 1 2 1 1 1 1 0 0 1 0 1 2 2 2 0 1 0 1 0 1 1 1 1 1 1 0 2 2 3 1 1 2 1 0 0 0 1 3 1 1 2 0 1 1 1 3 0 0 1 2 6 0 0 1 1 1 0 1 1 2 1 3 2 1 1 0 1 0 2 2 0 1 1 2 1 3 2 1 1 0 1 2 0 1 1 1 2 0 1 0 1 2 2 1 0 0 0 1 2 0 0 1 0 0 2 1 1 1 0 2 2 1 1 1 0 1 0 0 1 3 1 0 0 2 1 1 1 2 0 2 1 1 0 1 1 1 1 4 2 1 3 2 1 0 1 1 3 1 0 1 1 0 1 2 2 2 2 3 1 2 1 2 2 1 1 2 1 0 1 0 1 0 0 2 2 3 1 0 1 1 0 1 0 2 1 2 1 1 1 2 1 1 0 3 1 2 2 2 2 2 0 1 1 1 0 3 0 1 0 1 0 0 1 1 1 2 2 2 0 1 1 0 1 0 2 0 2 0 2 0 0 1 0 1 2 1 1 2 0 0 2 1 0 2 0 2 1 1 1 1 2 0 0 0 0 1 1 1 2 2 1 1 1 0 0 1 1 0 4 1 1 0 0 1 3 1 1 2 1 1 1 1 2 0 0 1 0 2 2 0 1 1 2 0 2 1 2 1 0 2 1 0 3 2 2 1 1 1 2 2 2 0 1 0 2 1 1 0 2 3 1 2 2 1 2 2 1 1 1 2 2 0 0 2 1 2 2 3 2 2 1 2 2 1 0 2 1 2 1 0 1 1 1 3 2 1 0 0 1 2 1 0 1 2 2 1 1 1 2 2 2 0 0 0 0 2 0 2 1 2 2 2 2 4 1 1 1 1 0 0 1 2 3 1 2 1 1 1 0 1 2 1 2 1 2 0 2 1 1 2 2 1 1 0 3 1 0 2 2 2 1 0 1 1 2 1 1 1 1 0 0 2 0 0 1 0 1 1 0 2 3 2 1 1 2 0 0 2 0 1 1 2 1 2 3 3 1 1 2 1 1 1 1 0 2 1 1 1 1 0 4 1 0 0 2 1 1 0 2 2 1 1 1 0 1 2 1 1 0 1 2 4 5 0 0 0 1 0 2 0 0 0 1 0 1 1 2 1 1 0 1 2 1 0 1 1 0 3 0 1 2 1 1 1 1 1 0 1 0 1 0 1 0 2 1 0 1 1 0 1 1 0 0 2 1 1 1 3 0 1 1 1 1 0 0 3 1 2 1 1 1 1 3 2 1 1 0 2 0 3 3 1 0 0 1 1 3 1 1 2 0 1 2 0 1 0 1 2 1 0 0 2 2 1 1 1 0 2 1 1 1 1 0 1 1 2 1 2 0 2 0 3 0 1 1 1 2 1 1 1 1 1 1 1 0 0 1 1 1 0 1 1 1 2 1 1 3 1 4 2 1 2 3 5 1 3 0 2 0 0 1 1 0 2 3 2 1 3 2 1 1 1 2 0 1 0 0 2 2 2 2 2 1 1 1 2 1 0 0 0 0 1 1 1 2 0 0 2 2 2 1 0 2 2 0 1 2 2 2 1 1 2 2 2 3 1 1 1 0 4 2 0 1 0 0 1 2 2 2 1 1 3 2 1 2 0 2 2 1 3 2 1 1 0 1 1 1 3 3 0 0 0 0 1 2 1 0 1 1 0 0 0 0 2 1 0 0 2 0 1 2 1 1 1 1 0 2 0 2 0 3 0 0 0 2 3 0 0 1 3 1 0 0 1 1 1 0 2 1 1 0 2 2 2 1 1 1 1 1 0 2 1 2 2 2 1 2 1 1 0 1 1 2 2 0 3 0 1 1 2 2 0 2 1 1 1 2 1 0 1 1 1 1 1 1 0 1 3 1 1 2 1 1 3 0 0 1 1 0 1 2 2 2 1 2 0 2 2 0 2 1 1 2 2 0 0 2 2 0 0 1 1 1 1 1 0 1 1 2 0 4 0 2 0 0 0 1 1 1 0 2 2 2 2 2 2 1 1 1 1 2 2 1 0 2 2 0 3 1 1 0 1 1 2 0 1 1 0 1 3 1 2 1 1 1 2 2 3 1 0 1 2 0 0 1 3 2 2 1 1 0 2 1 2 0 0 1 1 0 3 1 1 1 1 1 3 0 0 0 2 0 1 1 1 3 1 2 2 0 2 1 2 2 2 1 1 0 1 0 3 2 0 3 2 2 1 1 1 1 0 1 1 1 2 2 0 0 2 1 3 2 2 1 1 3 3 0 0 2 3 2 1 1 0 0 1 1 1 0 1 1 0 1 3 0 1 1 0 1 0 0 0 2 2 3 2 1 2 3 0 1 2 2 1 4 0 1 1 0 1 0 0 1 0 0 2 1 2 1 1 0 0 0 1 1 1 2 0 2 2 0 1 3 1 1 1 1 3 0 0 2 0 0 1 3 1 0 1 2 2 0 3 1 0 1 0 0 1 1 0 1 2 3 3 2 2 1 0 1 2 2 2 1 2 0 2 1 0 2 1 0 1 3 4 0 1 1 1 3 5 1 1 0 1 2 0 1 1 0 0 1 0 4 0 0 2 1 1 3 1 3 1 0 1 0 3 1 0 1 1 1 2 0 1 2 3 1 3 1 1 1 1 1 0 1 1 1 1 0 1 2 2 1 1 0 0 1 2 1 1 1 1 1 1 0 2 1 2 3 0 2 1 0 2 2 1 1 2 1 2 1 2 2 1 2 1 0 0 3 1 1 3 3 2 1 1 0 1 1 2 0 0 1 2 2 0 2 0 0 0 3 2 2 0 1 0 2 0 1 2 0 2 1 1 2 0 1 2 1 1 1 1 2 3 1 1 1 2 0 1 0 2 0 0 1 0 1 1 0 1 2 0 1 0 2 0 1 3 2 1 0 3 1 0 1 1 1 1 1 1 2 0 0 1 2 4 0 1 0 3 1 1 0 2 2 1 3 1 2 2 1 1 1 2 2 1 2 1 2 0 1 0 1 1 1 2 2 0 1 1 3 0 1 3 2 1 2 0 0 1 0 0 2 1 2 0 1 0 0 1 1 1 2 1 1 0 0 1 0 0 1 0 0 0 0 0 1 0 1 0 2 1 1 0 2 1 1 2 1 1 2 2 0 0 2 2 2 1 1 0 2 2 1 1 1 3 1 1 2 3 1 2 1 0 0 2 1 0 2 3 2 3 0 2 0 0 1 0 3 1 1 1 0 0 2 1 2 0 2 2 2 1 0 1 0 1 1 2 1 1 0 1 2 1 1 0 2 1 1 0 3 1 1 2 1 0 1 1 1 1 0 2 1 1 1 3 1 3 2 1 1 2 1 0 0 0 4 3 2 0 1 1 0 1 3 0 2 1 0 1 2 2 0 0 1 1 2 2 0 1 1 1 1 1 2 2 0 2 1 0 2 2 1 1 0 1 0 3 0</t>
-  </si>
-  <si>
-    <t>GAM(0.2855406021227048, -7.094207864601496e-29, 0.6496797382759452)</t>
-  </si>
-  <si>
-    <t>0 1 0 0 0 0 0 2 0 1 0 0 1 2 0 1 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 0 1 2 0 0 0 0 0 0 0 0 0 2 1 0 1 0 1 0 0 0 0 2 0 0 0 0 0 0 1 1 0 1 1 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 2 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 1 1 0 0 0 0 0 2 1 0 1 0 1 0 0 0 0 1 0 1 0 0 0 0 1 0 0 1 0 0 2 1 0 1 0 1 1 0 0 0 0 1 1 1 0 1 0 0 0 0 0 2 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 1 1 1 1 0 0 0 0 1 1 0 0 1 2 0 2 1 0 0 1 0 1 2 0 0 0 0 1 0 0 0 0 0 0 2 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 2 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 2 1 0 1 0 0 0 0 0 1 1 0 2 0 0 0 0 0 1 0 1 1 0 0 1 0 0 1 0 1 0 0 0 0 0 1 0 0 2 0 0 0 0 0 0 0 1 2 0 1 0 0 0 1 0 0 1 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 2 0 0 1 0 0 0 0 0 1 0 1 0 0 0 1 1 0 1 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 2 0 0 1 1 0 0 1 0 0 0 0 0 0 0 2 0 1 1 2 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 2 1 0 0 1 0 3 3 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 1 0 1 0 1 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 1 2 0 0 0 1 0 0 1 0 0 0 0 1 0 1 0 1 0 0 1 0 0 0 0 0 2 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 1 0 0 0 2 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 2 0 0 2 0 0 0 1 0 0 0 1 1 1 1 0 1 1 0 0 0 0 1 0 0 0 3 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 2 1 0 0 0 0 1 0 1 0 0 1 0 0 1 1 0 1 0 1 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 1 1 0 1 1 0 1 0 1 1 0 0 0 1 1 0 1 1 1 1 1 0 0 0 1 0 0 0 0 1 0 1 1 0 0 0 0 1 1 1 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 2 0 1 0 0 0 1 0 1 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 2 0 0 0 1 0 0 1 0 0 1 0 0 0 1 1 0 0 1 0 1 1 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 1 0 1 0 0 0 0 1 0 0 1 1 0 1 0 0 0 0 0 0 0 1 0 0 0 2 1 0 2 0 0 2 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 3 1 1 1 2 0 0 0 3 0 0 0 1 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 3 0 0 0 1 1 0 0 0 0 1 2 1 2 0 0 2 0 0 1 1 0 0 0 1 0 1 1 1 1 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 2 0 0 1 0 0 1 0 1 0 0 1 0 0 1 0 1 0 0 2 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 2 0 1 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 1 1 2 0 0 0 2 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 2 0 0 1 1 0 0 0 0 0 0 0 0 1 0 1 1 2 0 0 0 1 0 0 2 0 1 0 1 0 0 0 0 0 0 0 2 0 1 0 1 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 2 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 1 0 1 1 0 1 0 1 2 2 0 2 0 0 0 1 0 0 1 0 2 1 0 0 0 0 0 0 1 0 0 0 1 0 2 1 0 1 0 0 0 2 1 0 0 0 0 0 2 0 0 1 0 1 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 1 1 2 1 0 0 1 0 2 1 2 0 0 0 0 1 2 0 0 1 0 0 0 2 1 0 0 0 0 1 1 0 1 1 0 0 0 0 0 0 0 1 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 2 1 1 0 1 0 0 1 0 0 1 1 1 0 1 1 0 3 1 1 0 0 0 0 0 0 0 0 1 0 0 0 1 1 2 0 0 0 1 0 0 1 1 1 1 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 1 0 1 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 1 1 0 1 0 2 0 1 0 2 0 0 1 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 1 1 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 1 2 0 0 2 1 0 1 0 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 2 0 0 0 0 0 2 1 0 0 0 1 1 0 2 0 0 0 2 0 0 0 0 0 0 1 1 0 0 2 0 0 2 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 1 0 0 1 0 0 1 0 3 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 1 0 1 1 0 0 1 1 0 1 1 1 0 1 1 1 0 0 0 0 0 0 0 1 2 2 0 1 1 0 0 0 1 0 0 2 0 1 0 1 0 1 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 3 1 3 0 0 1 0 0 0 1 1 0 0 0 1 1 0 0 0 0 0 1 1 1 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 2 0 1 1 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 2 1 0 0 0 0 0 0 1 1 2 1 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 1 0 1 0 0 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 1 0 0 1 0 1 1 0 0 0 1 0 0 0 1 0 0 1 1 0 1 0 0 1 1 0 0 0 1 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 1 0 1 0 0 0 0 0 0 3 1 3 0 0 0 1 0 1 0 0 1 0 1 1 0 0 1 2 1 0 1 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0 0 0 2 0 0 2 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 2 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 2 0 0 0 1 1 0 0 0 1 0 0 1 0 0 1 0 1 2 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 2 1 0 1 0 0 1 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 2 0 2 0 0 1 0 1 0 1 0 0 0 0 1 0 0 0 1 0 1 2 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 1 0 1 1 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 1 0 1 0 0 0 1 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 1 0 1 1 1 0 0 0 0 0 0 0 0 1 0 1 2 1 1 0 0 1 0 0 0 0 2 0 0 0 0 1 1 0 1 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 2 0 0 0 0 0 1 1 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 0 1 0 2 0 0 0 1 0 0 0 0 2 0 0 1 0 1 0 0 1 1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 1 1 0 2 1 0 0 0 0 0 0 0 1 0 0 1 0 1 0 1 0 2 0 0 0 1 0 0 1 0 0 2 0 0 1 1 1 0 0 0 1 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 2 0 1 0 1 0 1 0 1 0 0 1 0 0 0 1 0 1 0 1 0 1 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 1 0 0 1 0 0 0 0 1 1 2 0 0 0 0 0 1 0 0 0 1 0 1 0 3 0 0 0 0 1 0 1 0 0 1 0 1 0 1 0 0 0 1 0 0 0 1 0 1 0 1 0 1 0 2 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 2 1 0 2 0 0 0 1 1 1 0 0 0 0 0 1 1 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 1 0 1 1 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 1 1 1 0 0 0 1 0 0 0 2 0 1 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 2 0 0 3 1 0 1 0 1 0 1 0 0 1 0 1 1 0 1 0 0 0 1 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 1 1 0 2 0 0 0 0 0 0 0 0 0 1 1 0 1 1 1 0 0 0 0 0 1 0 0 1 0 0 1 1 1 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 2 0 0 0 1 0 0 0 0 1 0 1 2 0 0 0 0 0 1 0 1 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 2 0 1 0 1 0 0 0 1 0 1 0 0 1 0 0 1 1 2 1 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 2 0 0 0 1 1 1 0 2 0 1 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 2 0 1 0 1 1 0 1 0 0 1 0 1 0 0 1 1 0 0 0 1 0 0 0 0 1 0 1 0 1 0 0 2 0 0 1 0 1 1 0 1 2 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 2 0 1 0 0 0 0 0 2 0 2 0 0 0 1 0 0 0 1 1 0 1 0 2 1 1 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 1 0 0 0 3 0 0 3 2 0 0 0 0 1 1 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 1 0 1 1 0 0 1 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 1 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 2 0 0 0 0 0 1 1 1 0 0 1 1 0 3 0 1 2 0 0 0 0 0 0 0 0 1 2 0 0 0 1 0 0 1 1 1 1 0 0 1 0 1 0 1 2 2 0 1 1 1 0 0 0 0 1 0 1 3 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0 1 0 0 1 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 1 0 0 1 0 0 0 0 1 0 1 0 0 0 1 0 3 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 1 1 0 0 1 0 1 0 0 0 1 0 1 2 1 0 1 0 0 0 0 0 0 0 0 1 0 0 1 1 1 0 0 3 0 0 0 0 0 0 0 0 1 0 2 1 0 1 0 0 0 0 0 1 1 0 1 0 0 1 0 1 0 0 0 0 1 0 1 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 2 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 1 2 1 0 2 0 2 0 0 0 1 0 2 0 0 0 0 1 2 0 0 1 0 0 1 0 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 2 0 0 2 1 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 3 0 0 0 1 0 0 0 1 0 0 0 1 0 2 0 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 2 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 1 0 0 0 1 1 0 0 0 1 1 0 2 1 0 1 1 0 0 0 0 1 0 1 0 0 0 1 1 0 0 0 2 1 1 0 0 0 0 2 1 1 0 0 1 1 0 0 0 0 1 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 1 0 1 1 0 0 2 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 1 0 0 0 2 1 1 1 0 0 0 1 0 0 0 0 0 1 1 2 1 1 0 0 0 1 0 0 0 0 2 0 0 0 2 1 0 0 0 0 0 1 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 1 3 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 1 0 0 0 1 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 1 0 0 0 1 1 0 2 0 0 1 0 0 2 1 0 0 0 2 0 1 1 1 1 0 1 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 1 0 0 2 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 1 0 0 0 3 0 0 1 0 0 1 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 1 1 0 0 0 1 0 0 1 1 0 0 1 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 1 1 0 0 0 2 2 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 1 1 1 1 1 0 1 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0 1 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 3 1 0 1 1 1 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 1 1 0 0 0 0 0 1 2 1 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 1 0 0 0 1 1 0 3 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 1 1 0 0 1 0 1 0 1 0 1 1 0 0 0 1 1 0 0 0 0 0 0 1 0 0 1 1 1 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 2 0 1 0 0 0 1 0 0 2 0 0 1 0 1 1 1 0 1 0 2 1 2 0 0 0 1 0 1 0 0 0 1 1 2 0 0 0 0 1 0 1 0 0 0 1 0 0 1 2 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 1 1 0 1 0 1 0 1 2 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 1 1 0 0 1 0 1 2 0 1 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 1 1 0 0 0 0 1 0 0 1 0 2 0 2 0 0 0 0 0 0 1 0 0 1 1 0 0 0 1 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 1 0 1 0 2 0 0 0 0 1 0 0 0 0 1 1 2 0 0 0 0 1 1 0 0 2 0 0 1 0 1 0 0 0 1 1 0 0 1 0 1 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 1 0 1 0 0 1 1 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 1 0 1 1 1 0 0 0 1 1 0 1 1 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 1 0 1 0 1 0 0 0 0 0 0 1 1 0 1 0 0 1 1 0 1 1 0 0 3 0 0 0 0 2 0 0 0 0 0 3 0 0 1 0 0 0 0 2 1 1 1 0 1 0 1 0 0 0 0 1 1 0 0 1 1 0 0 0 1 0 0 0 0 1 0 2 1 0 0 1 0 1 0 1 0 0 0 1 0 1 0 3 1 0 1 0 0 1 0 0 0 0 0 0 2 1 0 2 0 0 0 1 0 0 0 0 1 1 0 1 1 0 0 1 0 0 1 0 0 1 0 1 0 1 1 0 1 0 0 1 0 0 0 0 0 0 0 0 1 1 3 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 1 0 0 0 0 1 2 0 2 1 2 2 1 0 1 0 0 1 0 1 1 2 2 0 0 0 0 0 0 0 0 2 1 1 0 0 0 0 0 0 0 0 2 0 0 0 1 1 0 0 0 0 1 0 0 0 0 1 0 0 0 1 1 0 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 2 1 0 1 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 3 0 0 2 1 0 0 0 0 0 0 1 0 1 0 1 0 1 0 1 0 0 0 1 1 1 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 1 1 0 1 1 0 1 1 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 2 0 0 1 0 1 0 0 0 0 1 0 1 0 0 1 0 2 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 1 1 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 1 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 1 0 0 0 0 0 0 0 1 1 2 0 0 0 1 0 1 1 0 3 0 2 1 0 0 0 0 0 0 0 0 0 1 0 1 1 2 0 0 2 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 4 2 0 0 0 0 1 0 0 0 0 1 0 0 1 0 1 1 0 0 1 0 1 0 0 1 0 1 0 0 1 0 1 0 1 1 2 0 2 0 1 1 0 0 0 3 1 0 1 0 1 0 0 0 2 0 2 1 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 2 3 1 0 0 0 1 0 0 1 0 0 0 1 1 1 1 0 0 1 0 0 0 1 1 0 1 1 1 0 0 1 0 0 0 1 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 1 2 1 0 1 0 1 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 0 1 0 1 0 0 1 0 0 2 0 0 0 0 0 2 0 0 2 0 0 0 0 0 0 0 0 0 2 0 0 1 1 0 1 0 0 1 0 0 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 2 0 1 1 1 0 0 0 1 0 0 2 0 1 0 0 0 0 0 0 0 1 0 0 2 0 0 0 0 0 0 0 0 0 1 0 0 1 0 2 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 2 1 1 0 0 0 1 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 2 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 1 2 1 0 0 0 0 0 0 1 0 1 0 0 0 1 1 0 1 0 0 0 0 0 1 0 0 1 0 1 1 0 0 1 0 0 1 1 2 1 0 2 0 2 1 0 0 1 1 0 1 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 1 1 2 0 0 0 1 0 1 0 0 0 0 1 0 1 0 0 0 0 1 0 2 2 1 0 0 0 0 0 0 0 1 0 0 1 1 1 0 1 0 0 0 0 0 0 0 3 0 2 1 0 0 0 2 0 0 1 1 1 0 0 1 0 0 1 2 0 0 0 0 0 0 1 0 1 0 1 1 1 1 1 1 0 1 0 0 1 0 0 0 1 1 0 0 0 1 0 0 0 1 2 0 0 1 0 0 0 0 0 0 1 0 0 1 1 1 1 0 0 0 1 0 0 3 0 1 0 1 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 1 1 0 0 1 1 0 1 0 0 1 0 0 2 1 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 2 0 0 1 0 0 1 0 0 1 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 1 1 0 0 1 1 0 0 0 0 0 0 0 0 1 0 1 0 1 2 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0 2 0 0 1 1 0 1 1 0 1 0 0 0 0 0 0 0 1 0 2 0 0 1 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 1 1 2 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 1 2 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 1 0 1 0 1 1 0 0 0 0 0 1 0 1 0 0 0 1 0 1 0 1 0 1 0 1 0 0 0 0 0 1 1 3 0 2 1 0 0 0 0 1 0 0 0 1 0 1 0 1 0 1 0 0 0 1 0 1 0 0 0 1 0 0 1 1 0 0 2 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 2 0 1 0 0 1 1 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 2 0 0 1 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 1 1 0 0 1 0 1 1 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 2 2 0 0 0 0 0 0 0 1 0 1 1 1 0 1 0 0 0 0 0 0 0 0 1 1 1 0 1 1 1 0 0 1 0 1 0 0 1 1 0 0 0 1 0 1 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 2 0 1 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 2 0 1 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0 2 2 0 1 1 0 0 0 1 2 0 0 0 1 1 0 0 0 0 0 0 0 1 0 1 0 2 0 0 2 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 1 1 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 1 1 1 0 0 3 0 0 2 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 1 0 1 0 1 0 0 0 1 0 0 0 1 0 1 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 3 0 1 0 0 0 0 0 2 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 1 0 0 1 0 1 1 0 0 1 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 2 0 2 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 1 0 0 0 1 2 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 2 0 0 1 2 1 0 0 1 0 1 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 1 1 1 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 2 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 1 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 2 0 0 1 1 0 0 0 0 0 0 1 0 0 1 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 1 2 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 1 1 0 0 1 1 1 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 2 0 2 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 2 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 3 0 1 1 3 0 0 0 1 0 1 0 1 1 1 0 0 0 0 2 0 0 1 1 0 1 0 0 1 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 2 1 0 1 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 1 2 0 1 1 0 0 2 1 0 0 1 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 2 1 0 0 0 1 0 1 1 1 1 0 1 0 1 0 1 0 1 2 0 0 0 0 0 1 0 1 1 1 1 1 0 1 0 0 1 0 1 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 1 0 1 1 2 1 0 1 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 2 0 1 1 0 0 0 0 3 2 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 1 2 2 0 0 1 0 0 0 0 2 0 0 0 0 2 0 0 3 0 1 1 0 1 1 0 1 1 1 0 0 0 0 0 1 0 1 0 0 0 0 2 0 0 1 1 1 1 0 1 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 1 1 0 1 0 1 0 0 2 0 0 0 0 1 0 1 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 1 2 0 0 1 1 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 2 0 1 0 1 0 1 0 0 2 1 0 0 0 0 0 1 1 0 2 0 1 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 1 0 0 2 1 1 0 0 1 0 2 1 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 1 0 0 0 1 1 1 0 0 0 0 0 0 0 1 0 0 1 1 1 0 0 1 1 0 0 0 1 0 0 0 0 0 0 1 0 1 0 1 1 0 0 1 0 0 1 1 0 0 1 1 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 1 2 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 1 0 0 2 0 0 0 1 0 0 0 1 0 1 0 1 1 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 1 0 1 0 1 0 0 1 0 0 1 0 1 0 0 0 1 0 2 0 0 0 1 0 1 0 0 1 0 0 0 0 1 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 2 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 1 0 1 0 0 1 1 1 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 1 0 0 0 1 0 0 1 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 1 0 0 0 1 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 2 1 2 0 0 0 0 0 1 0 0 0 5 0 0 0 1 0 0 0 0 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 2 0 0 2 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 1 0 1 0 0 0 0 3 1 0 0 0 0 1 0 0 0 0 1 1 0 1 0 0 0 1 0 0 1 0 0 0 0 2 2 0 1 1 0 1 2 1 2 1 0 1 1 0 0 0 0 0 0 0 0 2 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 1 0 0 0 1 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 1 2 1 0 0 0 0 2 1 0 0 0 0 0 2 0 1 0 0 0 0 0 1 0 0 2 1 1 1 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 2 0 0 1 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 1 0 0 0 1 0 0 0 0 1 0 1 0 0 0 1 0 1 0 2 1 0 0 0 0 1 0 1 0 0 1 0 0 0 1 0 0 1 0 1 0 0 0 0 1 0 0 1 1 0 0 1 0 0 0 0 2 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0 1 0 0 0 0 0 0 0 0 2 0 1 0 1 1 0 1 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 0 1 2 0 1 1 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 2 0 1 0 1 1 0 0 0 0 1 0 0 0 1 1 1 1 1 0 1 2 0 0 1 0 0 0 1 0 0 0 1 1 0 0 0 1 0 0 0 1 1 0 2 2 1 1 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 2 0 0 0 0 2 1 0 0 1 0 0 0 0 0 0 0 0 0 1 2 0 0 1 0 0 2 0 0 0 0 0 1 0 2 2 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 1 0 1 0 1 1 0 0 0 0 0 0 1 1 0 2 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 1 0 0 3 0 0 0 0 0 0 0 0 0 0 0 2 0 1 1 0 0 0 2 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 2 3 1 1 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 2 1 0 0 1 1 0 0 1 0 1 1 0 0 2 0 0 1 0 0 0 1 0 0 1 1 0 0 1 1 1 0 1 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 1 1 1 1 0 0 0 0 0 2 1 1 0 0 2 0 0 1 0 0 0 0 0 0 0 0 1 1 0 1 1 0 0 0 0 0 3 1 1 0 0 1 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 3 0 1 0 0 0 0 0 0 1 0 0 0 2 0 0 0 1 0 0 1 0 0 0 0 0 0 1 1 0 1 0 1 0 0 0 2 0 0 1 0 1 0 1 2 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 2 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 2 0 2 0 0 0 0 1 1 0 0 0 1 0 0 2 0 0 0 0 1 0 0 0 0 1 0 0 1 1 0 0 0 0 0 1 0 1 0 0 0 0 1 1 1 1 0 1 1 0 0 0 1 0 0 1 1 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 1 0 2 0 0 1 1 0 1 0 0 2 1 0 0 1 1 0 1 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 1 0 1 0 0 1 0 0 1 0 2 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 2 0 0 0 0 1 0 1 0 0 0 0 0 0 2 1 0 0 0 0 0 1 1 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 2 1 0 0 0 0 0 0 2 1 2 0 1 1 0 0 0 0 1 1 0 1 0 0 0 0 1 0 1 0 0 0 0 0 2 0 0 0 0 0 1 0 1 0 1 0 1 0 2 1 0 0 0 2 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 1 0 0 1 0 0 2 3 0 0 0 0 0 1 1 1 0 0 0 2 0 1 0 0 0 0 0 2 1 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0 1 0 3 0 0 0 1 0 2 0 2 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 2 1 0 0 0 1 0 2 1 0 0 0 0 1 0 0 2 0 0 0 0 0 1 1 2 0 1 0 0 0 0 1 1 0 0 0 2 2 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 2 1 1 0 0 0 0 0 0 1 0 0 1 1 2 1 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 1 0 0 0 1 0 1 0 1 2 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 1 0 2 0 0 1 0 1 1 1 1 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 3 1 0 0 0 0 0 2 0 0 0 0 0 0 1 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 3 0 0 0 0 1 1 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 1 0 1 1 0 1 0 1 0 0 0 0 0 0 1 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 2 1 1 1 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 1 2 0 0 0 0 1 0 0 0 1 1 0 2 0 0 0 1 0 0 1 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0</t>
-  </si>
-  <si>
-    <t>GAM(20.112613817220243, -71.29472731793591, 8.523284351199742)</t>
-  </si>
-  <si>
-    <t>71 124 117 64 141 60 75 90 55 166 109 86 88 111 90 100 99 134 54 85 78 104 110 56 56 234 149 111 110 97 87 174 88 101 34 151 60 86 105 46 72 115 124 60 103 67 102 88 152 57 147 138 64 164 73 48 51 94 93 117 125 20 59 93 103 60 87 148 78 88 102 149 96 76 153 66 162 147 72 81 108 102 86 105 151 118 56 114 66 67 71 97 78 114 208 103 204 68 56 123 126 130 194 153 136 95 102 99 68 105 95 106 79 124 203 95 71 195 118 85 168 141 95 79 96 71 66 98 67 154 51 87 103 107 93 33 118 115 94 109 113 99 52 41 102 46 117 107 65 157 106 36 18 101 74 160 87 90 162 103 79 37 133 19 60 100 63 105 46 59 71 175 127 83 132 120 72 117 17 82 80 94 68 91 119 65 67 112 30 62 93 70 143 116 80 136 147 144 38 74 54 107 120 123 104 44 131 111 127 95 85 116 126 63 46 73 62 76 19 132 109 83 127 31 186 91 65 85 88 70 100 90 121 122 30 130 66 117 45 50 148 173 164 89 76 161 73 76 170 110 73 102 87 77 63 103 133 38 113 38 158 126 115 81 66 99 178 132 158 143 81 137 115 93 47 124 161 88 121 93 84 109 106 67 148 88 57 114 157 35 161 126 57 116 144 49 75 103 79 83 109 65 84 77 83 99 83 213 110 58 68 86 11 132 85 80 136 105 169 83 86 98 67 44 91 123 93 73 95 86 112 59 76 69 117 75 48 184 69 119 100 104 101 59 103 121 67 119 48 51 25 100 73 53 125 154 73 101 95 77 166 103 53 216 94 132 85 135 78 121 83 118 177 99 145 102 53 125 71 183 131 80 137 107 84 63 109 77 105 95 153 84 73 142 33 137 92 129 69 149 105 80 111 60 160 49 98 112 110 93 92 17 66 73 72 134 105 124 149 97 93 158 105 65 116 112 111 184 150 100 78 90 49 98 154 267 77 113 86 178 107 101 82 108 122 87 134 95 12 122 108 119 92 127 162 99 138 114 115 83 139 104 81 39 64 140 134 39 91 103 52 46 87 120 156 149 82 175 92 103 99 71 115 109 127 116 46 99 109 84 124 84 28 63 38 64 124 51 65 133 100 91 99 45 94 78 87 76 116 86 97 84 118 163 56 104 176 112 101 89 53 65 89 72 83 81 112 102 41 165 71 106 163 108 58 143 131 74 136 30 102 56 113 66 86 112 123 93 118 43 80 59 52 167 129 112 76 78 96 77 89 120 100 108 199 110 99 110 93 99 150 104 58 119 92 105 66 129 43 144 88 160 134 139 197 139 129 107 173 115 121 23 91 110 90 67 39 63 128 78 58 121 70 83 214 56 64 21 32 182 73 130 157 102 167 59 95 45 86 102 88 182 107 102 109 33 60 82 96 51 136 93 114 90 108 86 140 103 75 73 151 93 65 118 76 245 25 69 158 108 99 121 133 119 144 112 94 170 43 111 74 28 114 53 111 123 53 62 159 112 84 119 122 76 81 72 38 114 105 114 71 36 60 92 62 99 109 45 174 157 126 79 64 96 157 70 69 193 81 112 113 55 49 100 49 55 80 118 112 101 53 149 89 47 114 64 78 36 109 55 85 142 60 93 106 83 111 52 109 76 138 98 138 51 93 57 117 90 185 89 131 115 60 89 168 101 165 93 151 45 95 68 148 123 98 103 90 90 119 101 95 110 86 134 132 193 57 28 165 89 57 95 111 141 137 26 48 59 143 98 131 106 71 79 85 112 59 113 82 148 35 98 78 65 61 138 170 133 108 129 212 93 127 75 161 83 88 107 149 102 103 87 131 65 107 54 80 146 179 46 51 87 68 134 29 155 28 126 143 102 66 110 96 122 109 112 76 117 110 91 133 105 83 90 120 70 123 71 58 139 134 69 70 146 107 122 112 113 90 62 98 147 128 95 19 66 80 131 162 73 77 28 77 109 79 102 136 104 94 79 114 124 82 88 71 133 79 78 118 94 124 77 152 212 82 169 71 146 139 59 104 115 113 145 110 103 54 42 122 95 79 90 56 38 104 142 61 78 99 88 195 98 123 124 46 91 103 63 86 57 88 105 105 93 115 59 45 163 89 119 140 104 133 75 96 99 60 173 100 77 105 131 130 129 162 66 138 113 99 171 85 102 161 77 119 142 72 158 136 68 88 85 105 104 58 78 176 107 72 89 130 92 38 39 127 97 72 92 147 111 119 113 101 96 79 77 74 102 97 82 115 56 46 58 72 109 86 68 77 108 69 81 108 42 124 100 121 111 131 134 151 91 168 105 226 162 146 147 73 50 97 96 54 142 108 105 126 106 81 145 115 225 134 132 97 58 37 86 97 103 93 68 96 179 118 135 79 63 94 98 55 77 128 103 126 81 167 117 85 129 48 147 11 184 148 42 98 107 103 129 144 65 91 127 64 101 147 126 122 78 51 101 139 103 106 127 125 99 69 84 54 52 112 87 174 39 110 62 125 131 64 139 101 100 38 68 52 152 85 53 91 89 111 97 116 64 117 60 109 62 113 65 59 120 169 94 99 41 163 65 114 138 95 131 193 96 106 82 36 114 98 69 125 128 92 79 65 199 105 156 155 108 76 59 82 120 155 64 47 75 80 109 89 127 131 126 81 146 75 91 75 126 130 76 100 132 47 53 158 64 71 115 128 71 58 149 86 143 47 97 111 69 99 146 151 94 96 45 67 65 32 75 79 113 20 49 106 75 127 34 78 67 90 26 91 85 67 73 79 141 81 82 117 95 116 108 114 122 117 139 87 51 127 135 96 110 99 56 94 108 143 178 91 126 85 85 83 142 85 91 80 169 115 84 98 148 93 46 114 189 105 134 83 105 64 91 120 40 70 145 149 55 55 189 31 121 149 163 156 26 91 37 107 78 79 171 73 112 32 116 53 113 140 100 97 46 97 125 41 65 94 89 137 71 68 81 102 115 132 126 164 61 96 70 99 98 132 78 99 76 68 51 86 146 81 89 150 93 150 143 103 87 73 85 52 85 102 79 133 56 98 102 135 69 76 78 34 114 66 106 111 96 204 56 103 151 116 121 72 94 90 114 152 115 63 60 103 102 58 57 91 112 107 128 73 60 134 60 136 90 74 65 79 114 56 100 53 93 53 111 98 161 92 89 82 86 146 113 97 62 101 85 66 63 116 189 103 168 93 82 120 98 94 145 87 120 97 127 74 28 87 155 92 36 62 94 73 68 152 176 62 130 75 159 94 115 112 51 104 118 60 102 141 118 60 58 120 164 95 63 94 60 86 188 76 78 64 127 131 64 50 17 55 69 77 80 39 31 146 74 38 111 37 68 99 41 131 78 114 102 55 69 131 160 109 143 61 121 130 69 78 83 38 95 89 78 107 175 77 108 137 83 123 58 66 101 85 125 118 117 74 77 152 63 78 51 123 36 139 99 95 91 89 97 102 89 81 65 110 139 89 80 101 106 119 55 143 82 104 58 132 126 73 58 75 94 137 93 92 127 137 83 87 57 89 135 55 111 78 128 126 95 137 70 96 130 63 55 98 103 161 213 90 77 104 84 83 106 69 144 44 198 69 120 165 61 111 88 63 73 121 63 93 34 102 41 54 144 69 190 127 106 24 53 70 98 115 96 121 112 141 143 132 116 54 99 99 84 115 106 108 146 89 63 60 118 92 29 113 114 100 63 36 95 41 76 138 30 88 78 115 145 46 25 192 112 89 29 110 89 68 117 66 75 68 64 115 124 134 63 77 46 77 134 84 99 70 109 70 73 75 162 94 79 61 140 160 78 188 55 92 144 63 134 106 114 49 63 119 90 120 78 94 157 97 76 119 182 90 61 122 107 109 72 78 135 95 79 117 146 115 90 136 74 85 117 55 174 70 165 89 162 103 22 28 66 16 57 102 83 111 113 125 67 115 63 91 81 64 100 70 90 104 148 125 75 116 48 50 121 84 101 36 48 66 56 101 108 133 111 77 94 80 66 58 92 128 183 120 94 43 165 98 128 138 91 90 78 69 138 81 105 83 97 155 194 156 97 145 134 121 114 78 137 102 95 59 100 185 135 72 140 104 56 123 126 82 54 76 135 115 83 115 118 118 178 92 37 128 140 163 145 165 124 161 93 81 98 118 69 92 147 85 95 143 47 134 47 132 48 204 82 93 53 110 227 42 143 57 91 107 76 124 111 125 58 82 108 175 113 111 107 137 159 56 147 169 82 112 116 95 127 47 113 110 83 120 122 97 34 80 125 163 112 140 148 55 34 108 113 66 150 123 125 71 89 112 87 60 79 142 88 136 142 26 168 50 73 100 139 52 95 112 127 16 82 90 106 16 77 65 101 93 95 78 114 135 119 89 148 135 195 71 90 134 99 49 145 53 121 120 125 119 112 53 124 89 60 104 69 131 152 70 75 38 179 76 109 40 92 41 122 65 25 137 106 36 91 29 145 158 54 93 121 166 92 145 45 120 120 86 153 112 88 109 70 113 72 104 107 168 89 189 170 67 73 84 79 103 57 180 74 143 99 100 74 126 100 72 88 35 141 135 68 88 112 130 142 128 157 93 79 60 118 128 146 60 94 77 132 123 123 70 41 143 158 44 158 88 58 121 106 98 170 170 45 74 57 104 19 60 144 125 93 84 101 158 161 83 130 143 71 97 115 74 98 116 116 86 131 90 86 92 88 120 114 82 51 88 52 83 108 59 79 138 96 122 104 119 170 74 138 73 39 78 49 87 57 167 92 88 147 91 58 93 85 32 98 70 80 129 88 183 138 68 58 106 93 93 20 15 124 76 167 85 136 78 90 67 70 109 133 63 104 92 42 90 16 87 63 121 68 103 78 50 125 80 99 166 143 42 80 160 62 68 73 77 125 103 87 146 104 76 55 102 120 97 114 105 125 102 74 59 152 90 122 49 154 132 83 88 86 149 82 51 128 168 160 88 27 151 66 99 51 155 40 84 134 88 87 61 148 72 84 110 69 152 47 62 167 83 83 92 117 56 118 102 143 127 79 39 137 48 67 135 93 170 89 66 158 54 104 82 86 46 75 143 62 77 110 139 114 92 63 116 134 93 59 131 65 131 93 77 62 62 50 67 123 72 192 139 26 105 128 41 58 47 148 93 144 142 82 48 120 102 50 163 169 96 90 102 133 107 148 112 103 129 149 81 53 98 131 104 121 152 138 183 114 37 117 158 180 71 43 132 27 118 77 116 111 129 111 137 77 169 164 43 79 188 80 85 64 63 103 87 68 103 98 76 59 101 76 106 145 45 131 104 69 133 107 142 38 117 118 105 90 90 119 97 59 107 83 98 89 31 82 99 51 97 51 49 113 56 45 133 167 115 91 82 32 131 82 108 155 102 106 84 38 48 36 176 33 55 175 196 56 89 37 64 65 65 122 143 161 119 90 133 84 58 134 59 98 75 79 136 105 137 110 69 98 83 109 144 30 133 87 123 91 102 60 72 142 85 91 116 113 152 142 86 71 125 114 59 56 109 33 150 113 99 79 60 159 73 62 59 103 99 95 108 157 133 146 31 53 64 75 44 155 124 222 28 191 120 107 119 69 73 130 70 52 161 99 166 100 143 78 67 69 72 109 84 140 83 139 133 123 44 150 129 130 48 70 110 160 77 186 51 99 63 25 141 99 65 96 81 133 120 99 50 95 97 126 91 57 110 113 106 74 111 38 97 140 142 85 121 123 108 38 85 91 92 98 105 59 69 109 40 97 106 62 107 93 67 110 105 84 113 110 106 119 156 109 46 74 100 117 88 70 64 23 74 132 103 65 173 80 83 136 129 20 64 66 76 89 118 52 112 97 122 116 126 133 111 113 43 100 84 94 146 150 130 138 89 108 96 132 57 122 183 70 102 94 107 188 121 91 78 87 48 125 101 136 84 127 146 119 121 133 101 103 45 65 95 106 53 72 51 138 71 90 119 157 107 124 129 79 30 76 137 112 116 89 78 185 206 52 91 72 151 114 109 117 162 85 119 63 99 102 173 102 66 111 74 122 92 154 121 89 182 73 136 82 82 34 85 102 25 57 81 74 102 86 71 119 43 172 141 70 80 124 141 165 117 148 170 89 75 205 119 170 189 39 143 100 122 81 112 57 168 78 76 146 109 52 131 76 84 218 14 113 99 90 45 15 91 119 123 130 197 83 182 204 96 142 83 97 152 82 126 109 90 118 106 101 49 53 80 95 118 139 92 95 100 149 90 72 31 79 154 101 92 80 130 157 132 170 116 86 151 139 69 83 132 168 105 108 109 84 90 113 198 58 109 90 45 65 135 38 137 60 134 76 90 89 80 146 59 105 131 65 96 99 120 121 129 149 89 113 51 41 129 81 131 111 63 44 110 95 80 91 159 177 52 143 99 81 139 65 135 140 75 57 102 91 88 49 144 108 93 223 145 121 86 45 98 111 121 9 114 213 126 93 121 113 127 88 183 63 124 122 150 79 136 100 130 89 113 71 80 146 99 180 112 83 109 72 39 61 93 121 157 64 141 78 128 81 94 89 46 63 132 134 145 107 155 188 70 99 148 141 61 76 147 105 92 138 156 74 92 35 77 100 100 105 142 102 55 150 116 129 52 79 23 170 106 114 134 147 78 104 67 64 139 74 80 76 63 135 82 69 140 109 63 118 73 117 124 80 56 113 186 74 80 65 113 78 69 91 48 35 96 114 38 86 67 36 109 95 89 120 89 84 74 101 83 66 128 97 60 98 108 125 111 74 137 46 181 135 32 95 65 172 83 126 78 128 99 108 81 91 89 136 71 95 71 70 133 113 126 84 87 91 121 100 155 97 75 71 121 58 127 153 102 41 107 73 148 129 62 45 107 44 120 72 106 58 108 72 36 55 72 121 145 148 71 99 90 80 35 123 139 78 157 110 119 38 111 124 77 79 77 132 40 147 59 114 42 120 117 74 155 14 102 34 78 24 112 74 101 82 73 82 90 72 215 80 91 44 143 145 135 158 51 64 54 108 127 174 79 47 112 113 119 82 59 115 117 71 28 54 174 110 38 166 139 77 72 107 108 77 136 103 118 107 259 136 81 145 99 135 78 132 92 91 93 101 38 148 95 109 135 89 145 56 126 83 50 114 92 74 215 110 45 60 105 120 158 110 134 81 116 91 130 150 34 80 74 61 166 85 59 92 28 109 142 67 47 116 95 152 165 81 77 131 77 111 72 112 97 68 116 34 94 79 147 157 82 110 92 101 161 5 160 121 124 135 48 96 130 158 151 106 101 109 115 102 114 32 140 87 138 114 67 55 84 94 117 204 120 50 92 85 64 153 73 38 123 64 72 96 114 39 185 138 122 95 136 131 108 46 67 117 49 59 97 96 136 60 111 140 37 150 97 78 76 29 180 96 48 124 134 114 91 83 159 24 104 11 83 111 88 68 102 45 97 104 91 130 131 75 95 46 133 119 64 108 132 129 97 80 80 110 120 62 42 76 113 46 150 137 115 96 86 201 111 68 108 71 97 125 145 105 77 113 179 96 105 96 41 89 104 104 150 64 118 33 128 105 145 90 152 121 51 80 140 71 99 102 80 136 66 105 90 95 96 68 118 67 155 92 109 124 74 90 51 81 40 76 122 93 111 201 99 155 194 47 49 63 75 31 106 89 67 170 99 72 61 78 43 75 107 45 122 138 121 140 106 64 152 166 78 113 105 55 56 107 73 40 147 35 126 116 84 98 55 182 65 45 111 94 58 78 105 109 60 60 70 138 152 135 138 121 65 99 132 55 65 90 137 76 105 77 51 89 61 75 145 89 104 129 86 74 83 102 32 163 58 102 102 120 123 119 69 127 69 156 17 52 194 46 70 89 111 62 84 137 70 63 98 58 201 108 114 47 97 98 116 135 79 153 51 63 95 36 95 141 67 102 87 128 108 59 197 121 72 149 109 88 56 89 54 43 255 114 98 174 62 60 113 174 70 81 77 62 72 102 97 78 90 94 52 111 51 130 112 145 120 154 106 111 46 164 94 130 169 47 55 148 98 101 67 99 82 120 123 66 84 88 68 91 122 121 76 49 85 104 146 214 72 113 68 55 41 99 87 173 143 58 128 135 108 132 32 93 90 165 131 89 106 114 82 71 132 171 164 82 207 138 78 121 87 43 26 75 80 130 69 126 73 49 115 97 108 117 120 80 190 130 90 74 112 193 120 32 43 64 132 166 91 26 45 97 96 95 68 233 116 68 106 127 56 120 95 225 140 23 151 87 110 102 153 118 99 126 93 145 125 40 44 158 82 126 72 48 113 136 81 139 117 41 98 75 95 89 84 69 79 205 50 84 110 71 119 51 129 105 86 130 139 137 82 107 140 108 113 154 19 117 83 122 46 80 89 112 158 121 143 108 157 83 55 82 83 141 154 27 91 80 95 168 78 112 99 131 74 166 146 119 21 103 112 98 112 55 92 66 64 67 101 134 62 59 21 143 120 72 110 72 130 129 112 35 156 150 98 96 100 87 142 61 94 155 54 128 87 97 94 92 67 132 144 82 86 127 140 136 71 67 146 116 93 31 72 14 96 84 154 84 70 130 131 65 166 161 34 265 83 138 85 124 110 84 47 103 95 79 55 100 110 69 49 41 57 115 136 72 124 88 74 156 45 108 132 153 102 32 69 150 117 135 77 87 121 99 155 76 81 68 87 94 154 108 47 101 109 73 44 124 66 90 71 88 96 66 103 163 173 101 22 84 89 112 81 91 91 93 102 83 134 155 27 54 60 132 195 170 85 83 137 96 46 109 95 148 135 87 115 102 108 137 73 58 52 45 141 82 202 59 57 142 26 39 141 114 103 55 54 44 85 88 160 97 70 42 52 151 89 91 60 119 193 74 137 137 82 91 165 108 115 45 47 90 181 117 95 95 97 80 148 223 101 178 89 121 137 126 78 170 32 108 80 83 77 106 108 51 115 117 17 98 124 149 42 68 111 125 84 68 51 131 110 98 106 107 92 93 83 60 124 116 69 107 120 64 103 144 145 116 46 96 43 57 117 81 95 46 98 32 134 65 150 138 60 37 118 59 65 86 48 125 116 73 97 32 47 143 163 66 109 118 112 91 63 106 85 106 49 106 105 127 66 106 140 74 82 122 116 83 101 74 100 54 83 34 58 110 83 133 133 133 143 79 84 69 89 76 58 50 28 111 90 73 94 51 65 173 202 74 65 88 99 53 150 93 78 147 89 57 46 94 116 51 109 126 162 110 214 59 118 143 103 71 85 109 88 17 97 37 123 120 55 57 124 148 136 165 105 26 78 111 90 70 96 83 110 159 105 118 116 118 65 119 104 151 111 167 119 30 88 124 120 128 133 83 94 91 105 87 129 96 60 95 96 61 81 176 156 109 55 89 114 53 98 126 90 139 120 146 108 83 97 138 89 80 78 49 43 189 40 132 116 170 141 85 152 150 88 87 100 119 101 150 114 59 180 78 35 106 74 139 89 134 57 83 126 94 101 95 119 106 179 128 115 99 81 89 193 150 115 201 85 102 101 82 96 112 84 103 49 165 121 95 110 88 41 99 48 87 70 77 71 189 66 92 74 62 117 71 62 73 76 120 182 158 76 130 141 120 124 67 91 140 132 37 84 88 76 125 83 95 177 97 111 130 174 122 149 88 118 93 80 91 68 53 111 65 101 64 61 90 80 159 49 84 145 106 225 83 105 62 142 108 87 135 212 49 171 43 96 138 80 141 141 44 94 123 82 97 79 168 189 32 121 151 104 126 114 130 169 138 89 55 80 62 156 131 86 91 101 98 62 95 92 105 108 122 146 182 66 137 164 92 62 111 58 87 104 80 36 0 65 32 137 104 163 84 117 61 126 84 107 71 60 67 82 83 148 103 196 122 106 87 81 97 108 105 136 59 54 98 45 104 185 115 95 41 149 149 62 136 133 162 86 111 65 76 150 45 127 138 134 100 138 69 83 86 66 136 111 45 79 78 141 94 120 27 150 110 103 62 113 80 154 30 111 181 44 90 128 123 92 62 131 133 119 228 91 98 106 112 63 97 109 47 81 161 50 113 48 98 83 115 48 152 93 145 81 164 96 67 71 93 116 16 70 64 114 78 79 131 132 119 91 154 92 144 167 59 151 72 49 188 58 39 81 127 115 146 132 99 94 163 124 59 121 145 83 151 87 126 82 157 117 151 37 74 72 98 85 145 122 83 114 159 50 94 83 96 24 129 110 107 39 53 131 74 81 153 85 67 120 120 26 111 197 111 130 126 39 118 140 225 114 81 47 122 114 87 53 88 135 74 117 82 94 184 62 55 85 72 79 138 133 161 72 98 145 82 74 112 139 119 171 48 207 120 116 101 178 60 168 161 73 191 65 67 83 73 128 166 143 102 91 66 68 85 102 79 157 140 47 87 117 55 110 71 55 74 96 54 164 18 169 40 48 211 117 120 65 41 62 129 124 154 121 108 115 159 77 56 122 96 153 106 121 36 152 67 77 85 103 171 98 49 184 121 43 192 80 128 121 100 142 90 60 130 135 124 104 108 93 172 119 81 99 203 76 128 59 81 122 55 89 138 95 91 86 72 49 103 159 143 153 90 80 37 76 109 189 71 133 47 122 54 122 136 151 57 84 84 107 130 91 126 94 229 95 123 99 113 73 86 100 52 128 86 85 116 9 84 178 28 147 87 57 114 97 153 91 68 124 89 103 73 88 71 112 144 49 113 28 89 86 110 54 78 101 111 116 121 71 134 80 121 49 94 132 69 78 101 105 83 130 181 114 62 137 127 117 93 166 110 45 155 67 57 90 79 106 138 114 160 68 119 86 60 155 143 109 129 109 140 109 93 124 115 96 105 93 80 186 60 83 171 85 94 121 114 77 74 155 117 108 84 117 102 138 92 81 158 114 70 92 118 70 119 61 71 103 95 63 86 23 114 88 76 91 38 82 137 67 110 63 147 129 110 67 100 60 123 100 67 180 90 108 76 35 102 180 114 95 39 66 117 65 114 83 135 29 96 126 95 48 94 72 92 77 79 59 109 110 129 88 95 99 54 108 92 164 142 116 190 81 111 79 83 80 93 87 112 82 94 135 61 107 145 80 159 117 144 102 117 51 34 132 141 88 94 126 217 142 120 75 101 152 146 88 107 119 45 162 62 80 137 133 68 136 107 168 119 133 135 100 135 115 84 77 175 234 131 76 126 100 80 116 90 145 97 165 97 41 81 63 126 69 28 114 38 83 134 87 126 70 57 105 153 105 130 119 76 137 44 73 177 58 192 41 136 93 161 84 127 89 133 101 93 119 102 102 128 128 154 45 125 87 120 58 73 116 115 92 98 44 104 121 214 82 111 123 119 51 182 71 43 73 199 53 121 77 93 81 75 101 47 45 37 51 116 59 84 199 181 52 63 88 81 125 44 56 66 65 35 94 133 105 91 101 85 103 51 81 108 119 99 167 107 84 176 171 157 86 129 58 124 97 117 115 90 150 135 124 142 69 42 45 100 131 92 163 130 56 151 77 119 46 109 158 80 81 104 166 75 55 91 102 149 112 105 46 76 99 131 92 143 57 18 29 94 68 77 148 112 174 113 72 84 95 131 50 86 93 104 138 71 106 118 116 95 173 57 120 33 89 75 193 106 81 82 41 71 107 117 90 83 108 170 157 88 29 143 96 124 75 113 109 113 101 19 172 88 56 32 74 86 38 104 68 92 187 115 141 108 100 74 101 36 80 89 24 84 153 143 72 101 115 44 103 44 61 108 136 81 66 44 62 121 144 143 75 181 61 101 102 140 156 124 115 146 108 165 52 120 122 120 136 69 126 78 129 51 76 114 145 58 63 139 55 86 54 115 67 126 101 134 67 75 53 95 190 48 165 123 72 91 107 49 132 61 150 121 43 58 162 132 76 108 194 83 75 153 127 99 88 54 110 122 48 75 125 88 63 96 97 120 52 89 102 53 60 121 96 96 54 129 151 64 127 72 114 74 74 118 173 85 137 20 205 91 151 113 143 140 24 120 111 51 77 73 111 131 93 99 82 59 65 209 155 114 97 119 113 27 118 132 128 70 109 62 107 89 88 111 55 120 115 106 111 80 74 67 56 86 120 54 149 200 81 119 107 70 113 80 223 119 99 155 66 47 35 107 99 67 33 111 60 129 58 130 96 82 48 117 70 31 128 112 62 83 29 107 101 95 98 101 116 121 122 80 86 25 86 144 124 38 156 129 170 54 84 112 128 123 89 65 126 62 120 90 90 82 83 71 136 54 61 123 111 77 117 53 113 168 67 140 57 111 156 53 158 118 72 70 130 106 118 78 65 104 127 46 155 123 54 101 132 97 90 123 61 32 46 125 101 40 130 128 110 114 111 65 109 71 80 169 63 148 148 101 171 89 101 182 64 162 34 72 74 106 92 65 68 98 159 102 68 97 129 57 166 110 231 61 92 101 99 113 60 65 82 91 136 82 92 108 40 143 121 127 93 76 86 108 124 67 76 86 102 124 136 79 113 143 182 131 68 126 119 36 93 71 75 107 86 25 113 155 74 101 105 105 67 77 47 66 57 93 107 103 151 165 38 115 148 95 50 61 100 70 108 64 86 100 124 98 177 68 14 59 88 78 146 66 123 122 178 19 136 158 156 99 97 105 127 119 99 132 194 77 115 87 128 72 59 87 157 129 74 123 70 68 41 176 60 81 176 92 44 60 90 76 40 129 71 42 84 58 111 175 131 137 121 116 90 57 130 73 67 105 98 89 118 115 89 108 115 146 71 161 68 94 88 123 167 32 83 107 132 100 138 58 50 82 114 73 28 139 157 91 61 75 72 94 143 101 50 131 68 152 78 100 87 95 48 108 93 75 53 80 108 78 117 117 107 106 63 102 129 60 150 69 164 155 34 84 105 86 52 154 84 109 211 147 168 52 83 77 129 87 129 124 48 110 29 56 111 63 80 87 34 170 171 65 124 156 227 87 121 44 158 78 85 135 78 163 107 64 58 25 66 104 89 83 113 131 43 129 79 111 115 96 150 103 123 63 155 116 57 164 81 48 140 203 175 58 60 179 146 66 120 129 128 37 26 58 143 117 54 123 127 98 79 110 120 162 155 29 127 175 88 49 143 63 128 51 54 149 144 69 58 141 98 131 89 62 88 120 70 133 80 146 101 155 175 183 98 137 134 100 96 154 91 112 148 120 31 154 76 87 114 82 174 110 86 104 98 139 154 117 57 55 48 67 112 90 79 45 78 107 113 113 93 127 63 120 79 112 117 165 74 92 103 124 71 35 95 65 35 67 64 114 155 55 92 108 60 127 149 102 166 142 134 52 73 182 61 124 134 42 119 95 203 208 64 66 66 160 75 96 138 81 54 57 76 114 103 67 83 130 165 133 44 131 127 91 20 162 180 71 131 205 97 68 43 128 79 113 84 89 120 108 79 144 80 106 102 99 102 65 123 118 91 73 75 94 44 169 130 166 113 95 100 106 123 121 91 118 87 50 108 80 184 34 126 35 187 106 83 126 89 99 52 38 63 84 129 40 99 122 146 86 109 94 117 57 68 69 59 102 62 86 163 104 125 155 81 104 103 169 85 116 89 114 89 111 84 112 82 62 88 81 79 129 88 112 88 98 94 101 58 104 101 127 147 120 162 132 140 80 151 143 55 92 154 111 141 108 100 102 82 103 132 104 112 97 137 74 94 113 101 136 113 108 201 122 37 133 133 39 114 115 50 66 88 75 89 168 79 66 102 108 30 128 29 107 125 79 43 39 84 141 98 58 114 99 73 52 94 79 133 82 115 63 122 74 105 99 121 98 128 130 51 56 53 77 138 123 141 93 96 94 81 46 99 53 116 23 37 62 62 65 112 168 104 68 35 81 110 36 96 104 96 114 166 96 67 94 113 91 101 123 90 118 144 65 104 68 89 138 62 99 131 83 55 103 114 80 96 84 64 105 90 117 98 92 144 142 60 154 70 80 155 108 81 39 48 97 116 116 102 76 91 64 76 163 70 208 57 88 127 50 178 242 105 167 50 43 96 49 97 108 84 135 109 66 59 197 115 62 57 190 104 83 120 65 155 74 93 143 143 38 61 101 92 109 151 114 140 80 112 94 81 232 53 90 57 40 31 175 51 160 57 62 101 52 73 135 68 129 133 34 134 81 97 78 130 25 84 150 112 96 41 63 122 180 91 120 91 68 162 141 100 47 93 50 179 21 169 145 143 64 128 52 128 49 114 81 89 135 152 105 154 81 112 113 72 145 146 144 138 106 121 147 75 104 170 136 151 85 122 122 141 130 93 90 107 96 114 64 74 105 107 110 121 77 69 52 124 81 98 41 89 119 84 101 73 45 60 63 69 166 57 153 91 32 126 88 85 43 46 109 118 76 88 103 95 66 151 148 75 181 96 132 88 137 105 93 104 110 92 164 92 21 128 45 93 160 79 78 87 154 110 108 94 131 65 106 169 76 189 80 71 64 93 65 93 136 92 79 63 81 82 63 109 93 96 101 125 57 170 145 74 97 131 72 90 102 173 96 120 76 115 115 97 98 152 100 95 84 257 36 69 120 90 112 96 77 70 19 45 97 103 70 206 62 194 157 51 118 98 74 109 127 138 37 179 113 123 97 105 129 153 82 63 155 103 116 166 125 118 58 43 148 78 100 104 177 97 112 126 69 51 89 65 100 96 196 40 78 51 68 82 90 207 102 52 143 125 117 140 37 71 99 69 203 131 77 76 90 54 35 122 77 74 61 111 59 28 74 65 68 65 50 32 91 120 102 76 92 34 174 153 91 82 190 76 74 130 137 40 65 129 102 91 63 113 123 135 105 148 58 32 62 98 118 103 28 155 75 55 99 116 97 160 78 6 70 88 96 99 76 151 107 84 120 101 98 141 82 142 155 81 99 58 44 160 95 151 50 80 86 27 139 105 148 86 87 106 139 85 62 20 53 113 126 79 104 32 47 205 132 114 155 78 108 148 143 110 29 134 57 93 67 137 89 129 86 45 190 86 49 119 116 84 141 154 45 124 98 88 77 120 148 70 98 153 121 29 83 87 86 58 68 119 133 103 42 95 53 77 134 83 155 34 131 124 96 98 157 42 118 123 55 72 99 107 77 82 62 96 152 26 108 115 151 134 74 45 116 48 49 120 80 179 36 131 167 52 81 57 121 143 162 35 59 29 130 79 57 98 131 83 131 159 135 93 107 83 156 131 37 78 162 178 107 39 59 134 97 80 75 134 112 135 112 165 104 79 73 162 66 135 179 62 92 76 42 104 165 122 108 60 160 90 44 92 103 97 146 133 146 40 128 109 142 76 111 49 66 105 73 184 35 118 103 61 176 124 117 72 108 105 101 118 67 186 164 161 102 89 69 19 113 123 267 83 138 99 147 110 59 91 70 164 150 166 136 98 134 68 119 73 74 72 109 147 137 135 170 122 80 99 86 112 103 133 91 50 113 112 96 35 88 119 75 200 55 116 153 126 55 76 87 44 115 55 23 52 69 105 62 108 86 120 112 118 174 85 53 150 65 116 149 127 54 140 100 115 33 124 111 99 59 143 116 138 25 96 127 114 93 88 66 128 61 86 123 75 120 97 118 72 107 64 37 16 98 48 65 135 97 65 89 30 117 121 86 116 50 63 116 149 79 84 138 113 131 106 64 124 85 83 35 132 62 132 78 140 39 102 140 49 71 98 94 135 150 64 74 85 164 63 119 88 107 77 96 65 81 60 81 88 82 126 68 114 50 178 79 40 45 56 63 127 65 95 112 86 143 126 24 47 118 53 96 38 35 152 75 121 84 85 197 88 36 120 46 67 24 90 131 114 90 166 115 78 72 83 100 82 90 70 171 61 120 153 80 87 109 77 49 57 87 191 122 165 47 105 97 134 63 107 115 64 94 120 164 152 44 63 50 119 53 79 73 104 129 145 106 174 103 120 141 63 59 67 42 123 69 88 222 137 180 68 168 56 55 65 110 143 118 145 41 73 109 94 127 76 24 124 134 153 129 53 134 129 194 64 127 13 114 93 58 101 109 107 93 126 89 121 102 91 95 111 72 92 142 108 84 83 112 118 109 76 161 134 85 118 60 124 89 113 58 74 57 64 100 107 66 164 81 93 145 99 142 153 77 189 137 65 102 75 147 141 122 35 70 95 100 104 98 95 36 104 98 84 124 150 148 123 66 135 64 52 119 132 94 115 79 137 42 88 103 47 208 120 116 196 70 61 125 82 108 198 78 137 98 103 123 110 61 99 148 65 111 104 136 78 125 118 83 142 121 82 149 134 72 159 122 182 155 94 80 67 125 110 70 195 72 108 118 107 136 71 108 78 97 96 53 127 138 105 71 100 116 128 88 90 76 173 103 32 69 70 116 110 140 129 120 56 95 63 76 111 87 85 107 109 94 63 95 107 88 40 141 70 60 145 163 109 95 115 106 135 131 106 78 114 119 121 183 98 149 159 130 168 116 33 186 99 105 118 87 92 77 26 132 144 72 80 125 23 172 70 116 144 83 92 96 118 83 127 78 84 58 60 73 90 62 98 113 122 135 149 40 162 82 53 64 134 112 88 75 105 88 87 109 75 85 76 43 164 147 56 121 116 119 91 149 101 66 32 67 95 91 112 131 148 107 178 48 149 94 74 55 32 99 72 163 75 99 49 82 100 109 93 110 112 139 111 36 153 129 141 104 139 165 189 145 143 97 132 92 108 82 87 83 124 129 85 87 131 50 147 155 65 54 66 162 84 128 86 28 71 122 29 165 118 168 109 44 66 130 108 101 69 42 58 112 99 109 54 132 189 46 173 61 82 71 74 137 117 102 105 90 109 68 95 73 79 101 52 76 127 112 68 147 39 167 88 27 170 225 113 116 65 121 58 104 54 134 46 105 86 104 90 81 65 111 91 189 119 77 119 160 118 100 95 111 85 116 103 89 56 58 56 115 136 140 71 103 63 232 83 176 76 115 150 130 136 59 55 48 74 52 173 36 66 91 32 59 72 99 117 165 135 210 182 84 97 80 186 155 62 48 104 195 125 100 111 122 98 31 85 56 47 86 127 161 120 86 98 80 35 149 159 137 155 52 58 88 76 38 143 50 82 158 66 101 101 39 93 119 85 129 119 115 246 40 101 23 94 28 154 110 109 82 97 63 59 83 56 201 77 27 146 109 73 48 125 79 106 117 98 100 96 30 8 58 86 98 71 84 106 151 97 139 77 119 137 100 52 104 53 103 82 82 87 150 97 93 69 76 157 104 100 129 151 121 107 137 41 80 98 105 87 57 121 126 126 187 117 95 100 103 59 137 65 113 128 84 193 77 201 129 68 63 136 115 114 114 59 128 104 180 135 68 41 73 219 89 144 84 93 79 122 92 66 81 78 152 61 57 75 125 122 141 116 54 75 75 185 71 106 150 28 130 65 101 135 84 166 69 111 116 95 52 99 160 61 93 77 64 96 109 82 155 100 136 132 127 27 121 69 24 115 61 121 35 45 154 91 197 88 89 85 168 119 121 45 82 193 140 118 143 73 157 112 98 140 92 89 33 63 133 114 129 98 30 114 78 91 155 79 137 137 87 77 91 73 136 141 103 148 100 104 119 100 78 139 104 162 188 109 123 111 148 85 71 114 67 96 67 129 139 146 178 104 112 89 137 157 44 125 40 122 254 147 150 97 103 169 88 77 132 101 76 4 53 86 168 165 109 66 64 179 87 92 96 69 139 90 170 81 135 14 56 108 51 91 72 135 63 48 91 77 82 152 57 47 135 59 134 99 101 117 157 117 47 92 110 111 94 169 210 71 153 101 94 69 145 125 107 92 93 100 65 50 65 156 139 147 127 87 83 93 107 64 97 39 120 175 193 111 112 201 80 106 40 140 80 204 134 103 87 118 152 168 98 93 42 21 129 77 171 68 167 101 73 103 64 90 87 57 122 92 90 70 99 114 41 89 114 150 153 119 43 121 119 176 19 119 134 137 110 79 169 135 96 80 160 108 50 104 76 89 113 172 92 61 40 122 132 52 92 40 158 131 96 97 58 82 96 173 143 43 90 43 68 69 136 77 40 50 84 82 118 71 177 79 147 48 79 173 94 91 82 122 79 125 140 172 132 90 117 130 72 130 128 167 68 53 64 106 142 114 109 87 94 113 68 93 69 143 149 76 67 100 11 112 108 82 88 61 51 60 101 108 93 163 155 142 118 105 29 76 90 59 80 98 194 60 104 108 98 53 95 94 87 94 70 87 144 85 62 93 99 61 114 119 81 36 69 88 101 102 125 96 70 59 116 101 39 99 136 80 76 65 91 130 132 103 124 162 103 101 132 66 133 65 76 135 108 75 122 100 126 169 61 69 128 77 129 129 110 107 135 75 101 120 96 96 168 14 99 63 92 13 54 169 82 81 70 92 126 68 116 147 92 75 91 109 103 31 104 71 132 89 144 52 154 142 107 80 175 66 75 45 60 141 87 63 139 99 69 68 86 181 26 97 78 96 72 60 54 125 148 150 102 43 76 80 60 106 117 87 37 110 189 76 111 65 113 97 83 174 148 73 79 118 155 189 78 147 140 210 103 86 96 147 79 92 127 96 85 156 95 75 86 50 90 92 122 112 81 47 71 121 106 95 117 50 79 107 89 63 250 151 90 113 98 100 74 147 62 115 66 92 77 108 65 62 127 90 60 71 69 134 94 87 89 76 94 162 90 77 59 90 152 125 132 149 88 67 171 93 116 89 102 105 139 83 27 106 105 77 26 110 101 75 9 125 93 81 45 66 125 149 103 87 131 50 89 53 85 129 71 232 124 173 89 30 60 85 63 41 85 106 144 32 85 118 69 133 68 98 191 112 69 127 93 87 204 56 121 155 176 89 83 122 111 61 98 63 99 154 115 102 68 84 88 35 122 119 77 104 104 109 62 132 105 154 84 150 40 59 112 90 161 193 96 99 80 97 79 147 76 64 173 49 117 93 122 98 29 82 58 63 145 124 108 98 83 71 142 52 96 61 116 52 83 105 179 86 103 79 107 153 67 83 47 137 79 104 96 58 35 162 67 149 65 140 85 130 103 145 181 106 117 81 61 89 77 127 82 105 89 141 105 76 95 116 166 17 120 131 124 137 97 92 126 47 110 131 120 95 92 17 96 93 47 96 87 64 138 74 77 78 74 130 125 193 29 103 129 118 81 65 134 110 181 165 181 121 39 71 112 141 56 158 35 191 103 71 77 30 114 96 178 66 145 74 105 93 142 72 145 131 111 73 179 98 49 55 46 140 27 41 99 74 134 140 145 153 107 121 97 108 90 82 86 120 138 50 108 110 94 78 76 49 171 196 91 92 49 77 104 111 101 81 76 106 78 94 131 46 127 88 118 161 125 127 120 82 92 102 87 113 66 135 177 120 89 45 117 23 100 87 107 55 97 38 63 69 107 99 45 73 108 146 23 115 116 71 59 74 98 88 68 140 56 168 98 86 108 225 63 121 98 193 58 58 61 103 130 155 89 61 96 107 40 126 113 92 37 94 92 175 115 130 159 230 68 107 141 147 120 137 92 69 135 95 146 132 118 97 155 84 100 85 73 135 72 62 79 43 140 88 98 85 103 45 54 93 153 97 95 131 56 83 107 42 94 99 132 142 103 43 40 129 104 71 46 73 51 25 166 125 131 67 86 150 213 105 117 87 80 121 124 125 115 110 85 58 99 137 103 86 23 95 116 177 152 73 174 83 108 153 121 90 118 80 48 65 148 97 227 119 124 84 48 130 74 160 96 64 96 117 22 82 109 58 86 149 138 82 90 112 190 149 82 57 103 137 132 57 92 83 98 60 96 74 65 104 86 70 141 97 30 117 108 116 109 92 80 90 125 215 76 96 77 85 134 81 151 71 186 104 142 126 89 80 44 112 54 30 99 133 48 92 67 112 59 171 154 133 80 93 82 81 101 163 116 157 65 82 115 135 59 70 72 95 90 170 113 99 71 90 133 123 61 105 79 100 129 125 129 48 79 56 136 211 48 98 85 121 80 144 70 106 117 42 90 88 72 101 54 72 69 46 87 99 85 59 56 54 121 69 72 72 72 111 80 48 67 150 77 138 130 186 37 16 86 84 74 95 107 58 12 102 63 70 109 106 103 98 64 96 74 61 92 141 83 102 132 86 199 115 44 85 132 75 81 201 96 144 120 123 77 142 132 124 148 97 150 82 75 71 24 46 28 137 166 109 110 89 131 76 123 156 176 168 97 81 144 85 87 86 96 180 67 52 70 132 78 85 127 27 83 113 76 152 127 71 57 142 92 65 96 88 128 130 60 93 87 79 109 130 77 41 74 56 138 95 65 46 88 44 95 38 56 127 58 77 105 64 147 121 148 71 87 92 87 123 64 113 42 129 137 141 74 103 112 122 61 90 86 146 43 236 55 77 141 178 67 99 152 51 49 79 104 163 100 150 83 106 51 19 49 75 95 113 148 77 152 144 95 94 133 88 91 115 90 128 66 105 195 101 67 129 86 89 132 133 102 55 182 76 124 30 11 50 86 89 96 75 104 117 80 148 183 50 105 66 51 175 101 79 148 66 128 56 57 76 107 111 156 85 97 66 43 99 49 134 63 90 126 106 142 77 124 64 73 113 55 84 164 62 36 107 41 86 132 39 100 111 105 151 175 144 115 35 80 66 70 115 74 45 65 85 73 74 93 103 148 128 50 111 62 70 158 85 55 118 147 101 120 86 82 124 156 190 83 100 87 85 62 67 155 109 120 137 101 105 94 209 65 89 143 92 28 146 84 54 136 91 88 85 123 195 131 145 70 95 90 73 158 119 111 150 90 34 127 166 86 144 84 122 48 116 86 92 129 61 98 191 88 108 25 95 41 93 113 51 89 117 84 105 120 69 115 85 44 48 95 126 169 124 125 172 124 61 84 147 136 138 66 85 69 135 106 91 86 79 85 133 156 81 127 129 77 57 87 57 67 148 92 90 84 199 45 139 100 103 122 101 111 167 65 146 75 32 140 70 66 106 120 135 74 136 192 53 123 107 84 70 73 160 81 110 122 123 146 67 97 63 178 114 58 80 143 114 128 86 107 142 63 162 127 118 116 150 65 78 119 82 97 93 132 61 112 161 182 73 186 94 60 18 71 136 68 113 147 127 121 74 178 64 98 74 89 52 98 201 83 15 96 78 122 119 117 200 99 137 131 91 51 48 81 55 92 111 25 102 63 125 97 62 69 108 53 92 65 181 113 162 93 60 99 57 39 113 61 33 82 134 91 100 104 126 101 98 80 82 131 120 134 131 81 1</t>
-  </si>
-  <si>
-    <t>GAM(0.5290055731756973, -9.621499147121897e-28, 0.4945391179216178)</t>
-  </si>
-  <si>
-    <t>1 1 0 1 0 0 1 0 0 1 1 0 0 0 1 1 0 0 1 1 2 0 0 1 1 1 0 0 1 0 0 3 0 0 1 1 0 1 0 0 0 1 0 0 1 1 1 2 2 0 2 1 0 0 0 0 0 1 0 1 0 0 1 2 0 0 3 2 0 1 0 1 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 2 1 0 0 1 2 0 1 1 0 1 2 0 1 1 0 1 0 1 1 0 1 1 1 0 0 1 1 1 1 0 1 1 0 0 0 1 0 1 1 1 0 0 1 1 0 0 2 1 1 0 0 0 1 0 1 0 0 0 0 2 0 0 0 1 0 0 2 1 0 0 1 0 1 0 0 2 1 0 0 0 0 1 0 0 1 0 1 1 0 0 1 0 0 1 1 0 0 1 0 0 0 1 1 2 0 0 0 1 0 0 0 1 1 1 1 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 1 2 0 0 4 0 1 0 1 0 2 0 0 1 0 1 1 0 0 0 0 0 3 1 0 1 2 0 2 0 0 0 0 0 0 1 0 1 0 0 1 0 1 2 0 2 2 2 3 0 2 0 1 2 0 1 2 0 0 0 0 0 0 0 1 0 1 2 0 0 1 2 0 0 2 0 0 2 0 0 0 1 1 1 1 2 0 2 2 0 0 1 0 0 0 1 2 0 2 0 0 0 0 0 0 1 0 0 0 0 2 0 0 0 2 1 0 0 0 1 0 0 0 0 1 2 0 1 1 0 0 1 1 0 1 0 1 2 0 0 0 0 1 1 0 2 2 2 0 1 0 0 0 1 0 0 1 1 1 1 0 0 2 2 0 1 1 1 0 0 0 0 0 1 1 1 1 1 0 1 0 0 3 1 1 0 0 0 0 0 1 0 0 1 0 0 1 0 1 1 1 2 1 0 1 0 2 3 0 0 1 2 0 0 2 2 0 1 1 1 1 1 0 0 0 0 2 0 0 0 0 0 1 1 3 0 1 0 1 1 0 0 1 0 1 1 1 0 0 2 1 0 0 1 1 1 0 0 0 1 1 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 1 1 0 0 1 2 1 2 1 1 0 1 0 1 0 0 1 1 1 1 0 2 1 1 0 0 1 0 0 3 0 1 1 0 0 1 3 1 1 0 1 0 0 0 0 0 1 1 1 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 1 0 0 0 0 4 0 0 0 1 1 0 0 1 0 0 1 2 2 1 2 0 0 0 0 0 2 0 0 1 0 0 0 0 2 1 0 0 0 0 1 0 0 0 0 1 0 1 0 3 0 0 0 0 0 0 1 1 0 1 0 1 1 1 1 0 1 2 0 0 1 1 3 2 1 0 0 0 1 0 0 0 0 0 2 3 0 2 2 0 1 1 2 0 0 0 0 0 1 0 1 1 1 1 0 0 0 0 0 0 0 1 0 2 0 2 0 0 1 0 1 1 0 0 0 0 0 0 0 1 2 1 0 1 0 1 1 0 1 1 0 0 1 0 1 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 1 0 0 0 2 1 1 0 1 0 0 0 0 1 1 1 0 0 0 0 1 0 1 0 1 1 2 0 0 0 1 0 1 0 1 1 0 2 1 1 0 1 0 0 0 2 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 2 0 1 1 1 0 1 0 1 0 0 0 2 2 1 2 0 1 0 0 1 1 2 0 0 0 0 0 0 0 0 2 2 0 2 0 0 1 0 1 1 0 1 0 1 0 0 1 1 0 0 1 0 2 1 1 0 0 0 1 1 1 0 0 1 0 1 2 0 0 1 0 2 0 0 0 0 1 0 0 1 1 2 1 0 2 0 1 1 2 1 2 2 0 0 1 0 2 0 1 0 0 0 0 1 0 1 2 1 0 0 0 2 1 0 0 0 0 0 3 0 1 2 0 3 1 1 1 1 2 1 1 0 0 0 0 0 1 1 0 0 0 0 0 1 0 1 0 0 0 0 2 2 0 1 1 2 0 0 0 1 3 1 1 1 1 1 1 1 1 1 1 2 1 0 0 0 0 0 0 2 0 0 0 0 1 0 0 0 1 0 1 1 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 1 0 0 0 0 0 2 0 1 1 2 0 0 2 0 0 0 1 1 2 1 1 0 0 1 1 0 1 0 1 0 0 1 0 0 0 1 1 1 0 1 0 0 0 1 0 0 0 3 1 2 1 0 0 0 1 0 2 1 0 1 1 1 0 1 0 2 0 0 2 0 0 1 0 0 0 3 1 1 1 0 0 1 0 0 0 1 0 0 0 0 0 2 0 0 1 2 1 0 1 1 1 0 0 1 0 1 1 1 0 3 0 0 0 2 0 0 1 1 1 1 0 0 1 0 1 0 0 1 2 1 0 0 1 0 0 1 1 1 1 0 3 0 0 1 0 1 1 1 1 1 0 0 1 0 0 0 0 2 1 0 0 0 0 0 1 2 1 1 1 0 0 2 0 0 0 0 0 0 1 1 0 1 1 1 0 0 3 1 0 1 0 1 0 0 0 1 0 0 0 1 1 2 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 2 1 2 0 0 2 1 1 0 2 0 0 0 1 0 0 1 2 0 1 0 1 0 1 2 1 2 2 1 2 1 1 2 0 1 0 2 0 0 0 0 2 1 1 0 0 1 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 1 0 1 2 0 0 0 0 0 0 1 0 1 0 0 0 2 1 1 0 1 0 0 1 0 0 1 0 0 1 1 0 0 0 0 0 1 2 1 1 1 0 0 0 0 0 0 0 1 0 0 2 0 0 0 2 1 0 0 0 0 0 0 0 1 0 1 1 0 1 1 0 0 0 0 2 0 0 0 0 2 0 0 1 0 1 0 0 0 1 0 1 0 1 1 1 1 0 1 1 1 0 0 1 1 1 1 2 1 2 1 2 0 0 0 1 0 0 0 0 1 1 0 0 1 0 0 0 0 1 0 0 1 2 1 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 2 1 1 0 1 1 2 0 1 1 1 1 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 2 2 0 0 0 0 2 0 1 0 0 1 1 0 1 3 0 0 1 0 1 0 0 1 0 2 3 0 1 1 0 0 1 1 1 1 0 1 1 1 0 1 1 0 0 0 0 0 2 0 1 0 2 1 0 0 1 0 1 0 0 0 0 0 1 2 1 1 0 0 0 1 1 2 1 0 0 0 1 1 1 0 0 2 1 0 1 0 1 0 1 0 0 0 1 1 0 0 1 0 0 0 1 0 0 2 0 0 1 0 1 0 0 0 1 1 2 2 1 0 0 0 0 0 1 0 1 0 0 2 1 0 1 1 0 1 1 0 0 1 0 0 0 1 0 0 1 0 1 0 0 1 0 1 1 0 0 0 1 0 0 0 2 2 1 0 1 0 1 1 0 0 0 0 2 2 0 1 0 0 0 2 1 0 0 1 0 0 1 1 0 0 1 0 2 0 3 0 0 1 0 1 2 1 1 0 0 0 0 0 1 1 1 1 1 4 2 0 1 0 1 0 0 2 2 0 0 1 0 0 0 0 0 1 1 1 1 1 1 0 2 0 0 1 0 2 0 1 0 1 0 0 1 2 1 1 0 0 0 0 0 2 2 0 1 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 1 0 1 1 2 1 0 0 0 0 0 2 1 0 0 1 1 1 0 1 0 1 0 2 0 0 0 2 1 0 0 3 3 1 1 0 1 1 0 0 1 3 1 2 2 0 0 0 0 2 0 0 2 0 2 0 1 0 0 0 2 0 1 3 0 0 0 0 0 1 2 0 1 1 0 0 0 1 0 1 1 1 0 0 0 1 1 0 1 1 0 1 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 1 0 0 2 1 0 0 0 0 0 0 0 1 0 0 1 0 2 0 1 1 1 0 2 1 0 0 1 1 0 0 0 1 1 0 2 1 1 1 0 0 3 0 0 2 0 1 1 0 0 0 0 0 0 1 1 0 0 0 1 1 1 0 1 0 1 0 0 2 1 2 0 0 1 1 0 0 1 1 1 1 0 1 1 0 0 1 0 0 1 1 0 0 1 1 0 0 1 0 0 1 2 2 0 2 1 1 0 1 1 1 2 0 1 0 0 0 0 1 2 2 3 1 0 1 0 1 0 2 0 0 1 0 1 2 0 2 0 0 0 0 0 1 0 1 0 1 1 0 0 1 0 1 0 0 1 1 0 0 0 1 1 0 0 0 0 2 2 0 1 0 1 1 2 0 0 0 0 0 1 2 0 3 0 1 0 0 0 2 1 2 1 0 1 0 1 0 0 1 0 0 1 0 1 0 1 1 0 0 0 1 0 0 1 1 1 1 0 0 0 1 0 0 0 0 0 1 1 0 2 0 0 1 0 0 1 0 0 1 0 2 0 0 0 1 1 0 1 1 1 0 0 2 1 0 0 0 1 0 0 0 1 0 0 2 0 0 0 0 0 0 1 1 0 2 0 0 2 0 1 0 0 0 0 0 0 2 1 1 1 0 2 2 0 1 0 1 0 0 0 0 1 1 1 1 1 0 1 1 0 0 0 0 0 0 0 1 1 0 2 2 0 0 1 0 2 0 1 1 1 0 1 0 0 1 0 0 0 0 0 3 0 1 0 1 0 0 0 0 0 1 0 1 0 1 2 1 0 0 2 0 0 0 1 1 0 0 2 0 0 1 0 0 1 0 0 0 2 0 0 1 0 0 0 0 0 0 2 0 0 1 2 0 0 1 1 1 0 0 2 1 1 1 0 0 2 0 0 2 0 1 0 1 1 1 0 1 0 2 2 0 0 0 2 0 0 0 2 1 0 1 1 0 0 1 1 1 0 0 1 0 1 0 0 1 0 1 0 0 1 1 0 1 0 0 0 0 0 1 0 1 0 0 1 0 1 1 0 1 1 0 1 0 0 1 1 1 1 1 2 0 0 0 0 2 0 1 1 0 0 0 0 0 0 1 0 0 2 0 0 1 0 0 1 0 0 1 1 2 0 0 1 0 0 1 0 1 0 0 0 0 1 0 0 1 2 0 0 1 1 3 2 0 0 0 1 0 1 1 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 2 1 2 0 0 3 0 2 0 2 1 1 0 1 1 1 0 2 0 0 0 1 2 1 0 2 1 1 0 0 2 1 0 0 0 1 1 0 2 0 1 2 0 0 0 1 0 1 1 0 2 1 0 2 0 0 0 0 2 1 0 0 0 1 2 1 1 1 2 1 1 1 2 1 0 3 0 0 0 1 1 1 0 0 1 0 1 0 0 1 2 2 1 2 2 0 1 0 2 0 1 1 0 0 1 1 0 0 0 0 1 2 0 0 0 1 1 1 1 1 0 2 1 1 0 0 1 0 1 0 0 1 3 3 1 1 0 0 1 1 2 1 0 1 0 3 1 0 0 0 0 0 1 0 1 0 2 0 1 0 1 0 0 0 1 1 0 1 1 0 1 0 1 0 1 0 0 2 0 0 0 1 2 1 1 1 1 2 1 0 0 0 1 0 0 2 2 3 0 0 2 2 2 0 0 0 1 2 1 2 1 1 0 1 0 1 1 1 1 0 0 1 0 2 1 1 1 0 2 1 0 1 1 0 0 1 0 1 0 0 0 1 0 1 0 0 0 1 2 1 0 1 0 0 1 0 0 1 1 0 2 1 0 0 1 0 0 1 2 0 0 1 1 1 2 0 0 0 0 0 0 1 0 1 1 0 1 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 1 1 1 1 0 0 0 1 2 0 1 0 0 1 0 2 1 0 0 1 0 1 0 0 1 0 1 1 1 1 1 0 0 1 1 0 1 1 1 1 1 0 0 2 2 1 0 1 0 1 0 0 0 1 0 0 1 0 0 2 1 0 1 0 0 0 0 2 1 1 0 1 0 1 1 4 0 0 1 1 1 0 0 0 1 0 0 1 2 1 0 2 0 1 0 2 0 0 0 1 2 1 2 0 1 1 0 1 2 2 1 0 1 0 0 0 0 1 1 1 0 1 0 1 1 1 1 2 1 1 0 2 0 0 1 0 0 0 3 1 0 0 1 0 0 1 0 0 0 1 1 0 0 1 1 1 0 2 1 0 0 0 1 0 1 0 1 1 0 1 1 0 1 0 0 0 1 0 0 3 0 0 3 0 0 0 1 0 0 1 2 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 2 1 1 1 1 2 0 2 1 1 0 2 2 0 0 0 1 2 2 1 0 0 0 1 0 1 2 0 0 1 0 0 0 2 0 0 0 1 1 0 1 1 0 0 0 1 1 1 1 1 0 0 1 0 0 0 0 2 1 0 0 0 1 1 2 1 0 0 2 2 0 0 0 1 0 1 0 1 0 0 0 1 1 0 1 1 0 0 1 0 0 1 1 3 0 1 0 2 0 1 1 0 1 0 0 0 0 0 1 0 1 1 0 0 0 1 2 0 1 0 0 2 0 1 0 0 1 1 0 1 0 1 1 0 1 0 1 1 0 0 0 0 2 0 0 1 0 1 0 1 0 2 2 1 1 1 4 2 0 0 1 0 0 1 1 0 0 2 0 1 0 0 0 0 1 1 1 0 0 1 1 1 1 0 0 0 2 1 1 1 0 0 1 0 1 0 0 0 0 0 1 0 1 1 0 0 2 1 0 0 0 0 1 0 0 1 0 0 1 1 1 1 1 0 0 0 0 2 0 1 0 0 0 0 0 0 0 1 0 0 1 1 1 0 0 1 1 0 0 0 1 1 0 1 0 1 0 0 1 1 0 1 0 0 0 3 0 0 1 0 0 0 0 0 1 0 0 0 2 2 0 0 0 1 1 0 0 0 2 0 1 1 0 0 0 0 1 0 2 0 1 0 0 1 1 0 0 0 1 0 0 2 1 0 0 0 0 1 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 1 1 1 1 1 3 2 0 0 1 0 1 1 0 0 1 2 1 0 0 0 1 0 0 0 0 0 0 2 0 1 0 1 1 0 0 2 0 0 2 1 1 1 0 1 1 1 1 0 2 1 1 1 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 1 0 0 1 2 2 0 0 0 0 1 1 1 1 0 1 0 0 1 1 1 0 1 0 0 1 1 0 0 1 0 1 2 0 0 0 0 0 2 0 1 0 3 0 1 0 0 1 1 1 0 1 0 0 0 1 1 0 0 1 1 1 0 1 0 0 0 2 2 2 1 0 2 1 1 1 0 0 1 0 0 1 1 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 2 1 1 0 0 0 0 1 0 1 1 3 1 0 3 0 1 1 1 2 0 1 0 0 1 1 0 1 1 0 1 3 0 0 1 0 0 0 0 0 1 0 0 2 1 1 0 0 0 3 1 0 0 1 2 0 1 0 0 1 1 0 0 1 0 1 2 1 0 1 0 1 0 2 1 0 1 0 1 1 0 2 0 1 0 0 0 1 1 0 2 1 1 0 0 1 0 0 0 0 1 1 1 0 1 0 0 0 3 0 0 1 1 1 0 0 0 1 0 1 1 0 0 0 2 1 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 0 0 0 1 0 1 0 1 0 0 1 0 0 1 0 1 0 0 0 1 0 0 0 2 0 2 0 0 1 0 0 0 1 0 1 0 0 0 0 2 0 0 0 0 0 0 2 0 0 0 0 2 1 0 1 0 0 2 0 2 0 2 0 0 0 0 0 0 1 0 0 1 1 0 1 1 1 0 1 0 0 1 0 1 0 0 0 2 0 2 2 1 0 0 0 2 0 1 1 0 1 0 0 0 0 1 0 1 0 1 1 1 1 0 0 0 4 0 0 0 1 1 1 0 0 1 0 0 1 1 0 0 0 1 2 0 1 0 0 0 0 0 1 1 1 0 0 0 4 0 1 2 0 1 2 1 0 3 0 2 1 0 1 1 0 0 1 0 1 2 0 1 0 0 0 0 1 2 2 0 1 0 1 1 0 0 3 2 0 0 1 1 2 0 1 1 1 0 0 1 2 0 0 1 0 2 1 1 0 0 0 2 0 0 0 0 2 0 0 0 1 1 0 0 3 0 2 1 0 0 0 0 1 1 0 0 1 0 1 1 1 0 2 1 0 1 1 0 3 0 0 1 1 0 0 0 0 0 2 1 1 0 0 0 0 0 1 1 1 0 1 0 1 1 0 0 2 1 0 0 1 0 0 0 0 0 1 1 0 1 0 0 1 1 0 0 2 0 0 1 0 2 1 2 0 3 0 0 1 1 0 1 0 0 0 0 2 1 2 0 1 1 0 1 0 0 0 1 2 1 1 0 0 0 0 1 0 1 1 0 0 0 2 2 1 0 0 0 0 1 2 1 0 1 1 0 1 2 1 1 0 0 0 0 0 0 0 0 0 0 1 1 1 0 1 0 0 0 0 3 1 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 2 0 0 0 0 1 1 0 0 0 0 0 0 2 0 0 0 1 1 0 0 0 1 2 0 0 0 1 1 0 0 1 0 3 1 0 0 0 1 0 1 0 1 2 0 0 0 0 2 0 0 0 2 0 2 0 0 1 1 0 0 0 1 0 0 0 0 0 1 1 0 1 0 2 1 0 0 1 1 0 1 0 0 3 0 1 1 0 1 1 1 2 1 0 2 0 1 1 0 0 1 1 0 1 1 0 1 0 1 1 1 2 1 1 0 1 0 0 0 0 1 1 2 0 0 3 2 1 0 1 0 0 0 0 1 2 0 0 1 0 0 0 1 0 2 0 0 0 1 1 0 0 0 0 0 1 0 1 3 0 0 2 1 1 0 0 1 0 0 1 1 0 2 0 0 1 2 2 1 1 0 0 2 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 2 0 0 1 0 0 2 1 0 0 0 2 2 2 0 0 2 0 1 0 2 2 0 0 1 1 1 1 0 0 1 0 0 1 2 1 1 0 1 1 2 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 1 1 2 0 0 0 0 1 0 2 1 0 2 2 0 0 0 0 4 1 0 0 2 1 2 2 2 1 0 0 1 0 1 0 0 0 0 0 1 1 1 0 1 1 1 2 0 0 1 1 2 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 2 1 0 1 0 0 1 1 0 0 1 1 0 0 0 0 1 1 0 0 0 0 1 0 1 0 0 0 3 1 1 0 0 1 0 0 1 0 0 1 1 0 0 0 1 0 0 1 0 0 0 1 0 0 1 0 0 0 2 0 1 1 0 0 2 0 0 1 0 0 1 0 0 2 1 1 2 1 0 0 0 0 0 2 0 0 0 1 0 0 0 1 1 2 0 1 0 2 1 2 3 0 1 0 0 0 0 0 1 1 0 0 2 1 1 0 0 0 0 0 0 0 0 0 1 0 0 1 2 0 1 1 0 1 0 1 1 1 1 0 0 0 1 1 2 2 0 0 0 1 0 0 2 1 2 1 0 0 1 0 0 1 0 0 2 0 1 2 0 0 0 1 1 1 0 1 2 0 0 2 0 1 0 1 0 0 0 0 1 1 0 0 1 1 0 1 0 1 0 0 0 0 1 1 0 1 0 1 1 2 1 0 1 0 2 0 1 1 0 3 1 0 0 0 0 1 1 0 0 0 1 0 1 0 0 0 1 0 0 0 1 1 1 0 0 2 1 0 0 0 0 0 1 0 4 0 0 1 2 1 0 0 0 1 1 1 0 0 0 1 0 1 0 0 1 2 3 1 1 0 0 0 1 1 1 0 2 1 0 1 0 2 1 0 2 0 0 0 1 2 0 1 2 2 0 0 0 2 0 0 1 2 0 0 1 1 2 1 1 0 0 0 2 2 0 1 0 0 0 0 1 1 1 1 1 0 1 3 2 1 1 0 1 1 0 0 1 1 1 0 1 0 0 2 0 0 0 0 0 1 0 1 1 1 3 0 1 0 0 1 0 0 1 0 0 1 2 1 1 2 0 1 0 0 1 0 1 0 0 0 1 1 0 1 0 2 0 1 1 0 0 1 2 2 2 2 1 0 0 2 1 1 1 1 0 1 2 0 0 2 0 1 0 1 1 1 0 1 1 1 0 1 1 1 2 0 2 3 2 1 0 1 2 1 0 0 0 1 0 0 0 0 2 1 2 0 1 0 1 1 0 2 1 0 1 1 0 0 0 0 1 0 0 0 0 1 0 0 1 1 1 1 0 1 0 2 1 0 1 1 0 1 1 0 0 1 0 0 0 0 1 1 1 1 0 0 0 0 2 2 0 2 1 1 0 1 1 1 0 1 1 0 1 1 0 1 2 0 0 2 1 2 0 2 2 0 1 1 0 1 0 0 1 1 0 0 1 0 1 1 1 1 0 1 1 0 1 1 1 3 1 1 1 2 1 1 2 3 0 1 1 0 1 1 0 0 0 0 0 0 0 0 3 1 0 0 2 2 1 1 3 0 1 2 0 0 2 0 1 1 0 1 0 0 0 0 1 0 1 0 0 1 0 1 0 0 0 1 1 1 0 0 0 0 1 1 0 0 0 1 0 1 1 1 0 0 1 1 2 0 1 2 0 1 0 0 0 0 1 0 2 1 1 1 0 0 1 4 1 0 1 0 0 1 0 0 0 1 0 0 0 1 0 0 1 1 0 0 1 1 0 2 2 2 0 0 0 0 1 0 0 0 0 1 0 2 2 1 1 0 0 0 2 0 1 0 1 2 1 0 2 2 0 1 1 1 0 1 0 1 2 0 1 2 0 0 1 1 0 2 1 1 0 1 0 1 0 1 2 1 0 0 1 1 0 0 0 1 2 1 0 0 0 1 0 1 0 0 0 0 0 0 1 2 1 1 1 0 0 0 0 0 0 0 0 0 1 0 1 0 1 1 0 1 0 0 0 1 1 0 0 0 0 0 0 0 1 0 3 1 0 0 0 2 1 0 0 1 2 0 2 0 0 0 1 1 1 1 0 0 0 2 2 0 1 1 1 0 0 0 1 3 2 0 0 1 1 0 1 1 0 1 0 1 0 0 0 0 1 0 1 1 2 1 1 2 1 1 1 1 0 1 0 0 0 1 0 1 1 2 1 0 0 1 0 0 0 3 0 1 1 1 0 0 1 2 0 2 0 0 0 0 1 2 1 1 2 0 1 1 1 1 0 0 1 1 0 1 1 3 1 1 0 0 2 0 0 0 1 0 1 1 0 1 0 1 0 0 0 1 0 0 1 1 0 1 1 0 1 0 0 0 0 2 1 1 0 1 3 0 0 0 2 0 0 1 1 0 1 0 0 2 1 2 0 1 0 0 1 0 1 1 1 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 1 0 0 0 0 1 0 2 1 1 1 0 0 1 0 1 2 0 1 0 0 0 1 1 0 1 0 0 0 0 1 1 2 0 1 1 0 1 0 0 0 0 1 0 0 0 0 1 0 1 0 2 0 0 1 0 1 1 1 0 0 0 1 1 0 0 1 2 0 1 0 0 1 1 0 1 1 0 0 1 1 0 2 1 2 0 1 0 0 1 1 1 1 0 1 1 2 0 1 0 2 1 0 1 1 0 0 2 1 0 0 1 0 0 1 1 0 0 0 1 0 0 0 1 1 0 1 0 1 1 1 2 0 0 3 0 1 1 0 0 2 1 1 1 0 0 0 0 0 1 0 3 1 2 0 1 0 0 1 0 1 1 0 0 1 2 0 0 0 1 2 0 0 1 2 0 1 1 0 2 2 0 0 0 0 1 2 1 1 2 0 1 1 0 0 0 0 0 2 0 0 0 0 0 0 1 1 0 0 2 1 1 3 0 2 0 0 1 1 1 0 0 0 0 2 1 0 1 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 0 4 2 3 1 0 0 0 1 0 1 1 1 0 0 0 2 0 0 1 0 1 1 2 0 0 0 0 0 1 0 1 1 0 1 0 2 1 1 0 1 1 0 0 1 0 1 1 0 0 1 0 2 0 0 1 0 1 0 0 0 1 1 1 1 1 1 0 1 1 0 2 1 0 0 1 2 1 1 1 0 0 1 1 1 1 0 2 0 1 2 1 1 0 0 0 0 0 1 1 0 1 1 2 0 2 1 0 0 1 0 1 0 1 0 1 0 2 1 1 0 1 1 0 0 1 2 1 1 1 0 2 0 0 1 0 1 0 0 1 1 0 1 2 1 1 1 0 0 0 1 1 0 1 1 0 0 0 0 0 2 0 1 1 0 0 0 0 1 1 0 1 1 0 1 1 1 1 1 0 2 0 1 0 0 1 1 0 0 0 1 0 0 1 1 0 0 0 0 2 0 0 1 1 0 0 0 0 1 0 1 1 1 0 0 2 0 0 0 2 0 0 0 0 1 0 0 1 1 1 1 0 1 0 2 1 0 1 1 0 0 2 0 0 0 0 0 0 0 0 1 1 0 1 1 0 0 2 0 0 0 0 1 3 3 0 1 0 0 1 1 0 0 1 1 1 0 0 1 0 0 3 1 0 0 0 0 2 0 0 1 0 0 1 0 2 2 2 1 1 2 0 2 0 0 0 1 0 1 0 2 3 1 0 1 0 3 0 0 0 0 0 0 1 0 0 1 2 2 2 0 1 0 0 0 2 1 0 1 2 1 1 1 3 2 1 1 0 0 0 1 2 1 1 0 0 0 1 2 0 1 0 0 0 0 0 1 2 1 0 1 1 1 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0 0 3 0 0 2 0 1 1 1 0 0 1 2 0 0 2 0 0 2 0 0 1 0 1 0 0 0 0 0 1 1 1 0 0 0 1 1 1 1 0 1 1 1 1 0 0 1 1 0 2 0 0 0 0 0 0 2 0 0 1 0 0 1 0 2 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 2 1 0 1 1 0 1 0 0 1 0 0 0 2 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0 2 1 1 0 0 0 0 0 1 0 0 2 1 0 0 0 1 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 1 1 0 0 0 1 0 1 1 1 1 0 1 1 1 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 1 0 0 1 0 0 1 1 0 1 0 0 0 0 1 1 1 1 0 0 0 0 1 0 2 0 2 0 0 1 2 0 2 0 0 3 1 0 0 1 2 1 0 1 1 0 1 0 0 2 0 1 0 0 0 1 1 0 1 0 0 2 1 1 0 1 0 2 1 0 1 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0 2 2 0 0 0 0 0 0 0 2 0 1 1 1 1 1 1 0 1 1 0 2 1 3 0 1 0 0 0 0 0 2 0 1 0 0 0 1 1 0 0 0 1 1 2 0 1 1 0 2 1 1 0 0 0 1 1 3 1 1 1 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 1 1 0 0 0 0 1 0 0 0 1 1 0 0 0 0 1 0 0 0 0 1 0 0 1 1 1 2 0 0 3 1 0 0 2 1 0 0 0 1 1 0 0 0 1 0 0 0 0 0 1 1 1 1 0 1 1 1 0 0 0 1 0 1 0 0 1 0 0 0 2 0 0 1 0 0 0 2 0 1 0 0 0 0 2 0 0 0 0 1 0 1 1 1 0 0 0 2 0 0 0 1 2 1 2 0 0 0 1 1 0 1 0 0 0 1 0 1 0 1 0 2 0 0 1 1 3 1 2 1 0 0 2 0 0 2 1 1 2 0 0 0 0 1 0 0 1 0 1 1 0 0 1 0 0 0 1 0 0 0 0 1 1 0 0 0 0 1 0 0 1 0 0 0 1 1 0 0 2 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 2 2 0 0 0 2 1 1 0 2 0 0 0 2 0 0 2 0 0 0 0 0 1 1 1 0 0 0 1 1 1 0 0 1 1 1 0 0 2 0 0 1 0 2 0 1 2 0 0 0 0 1 1 0 1 1 1 1 0 0 0 0 1 1 1 0 0 0 0 2 0 1 1 0 0 0 0 1 0 1 0 1 1 0 2 1 2 1 0 2 0 0 0 0 0 0 1 1 1 1 0 1 0 1 1 0 2 0 2 1 0 0 1 0 0 0 0 0 0 2 2 1 0 0 1 1 1 0 1 2 0 0 1 0 2 1 0 1 0 0 3 1 1 1 0 1 0 0 1 2 0 0 0 0 1 0 1 0 2 1 1 1 0 0 0 0 1 1 1 0 1 2 0 1 0 1 1 1 1 1 1 1 0 0 1 2 0 0 2 2 1 0 0 0 0 0 0 0 3 1 0 0 0 1 0 0 0 1 2 2 0 0 0 0 0 0 1 1 1 0 0 0 0 1 0 0 0 1 2 0 0 1 0 1 1 1 0 3 0 0 0 2 0 2 0 0 1 0 2 2 0 2 0 0 0 2 0 0 0 0 1 1 3 1 0 1 0 0 1 2 1 1 0 0 0 0 0 0 1 1 1 0 0 0 0 1 1 0 1 1 2 0 0 0 2 0 1 2 1 0 1 0 0 2 1 0 0 1 0 1 1 0 0 2 1 0 1 1 1 1 0 0 2 1 0 0 1 0 0 1 1 1 1 0 1 0 0 1 1 0 1 1 2 0 1 1 0 0 2 1 1 0 1 0 1 1 1 0 0 0 0 1 0 1 1 1 0 1 0 0 0 1 0 0 1 0 0 1 0 1 1 0 0 0 1 1 1 0 0 4 1 1 0 0 1 1 1 0 1 0 1 0 1 0 1 1 1 0 1 1 0 2 1 0 0 2 1 0 1 0 0 2 1 2 1 2 0 1 0 0 1 1 1 0 0 0 0 0 1 0 1 0 0 1 1 0 0 0 0 0 0 0 2 2 1 1 1 1 0 0 0 0 0 0 0 0 0 2 1 0 1 0 0 1 1 0 1 1 1 1 2 0 1 0 0 0 0 1 2 1 0 0 2 1 1 0 1 1 0 1 1 1 3 0 0 0 1 0 1 3 1 2 3 1 2 0 0 1 1 0 0 0 0 0 2 2 1 1 0 2 0 0 0 1 0 0 1 0 0 0 0 1 1 1 0 2 2 0 1 2 0 1 0 2 1 1 1 1 3 0 1 0 1 0 2 0 0 0 0 0 0 1 1 0 2 1 1 2 0 0 1 0 0 0 1 0 0 0 1 0 1 0 1 0 1 0 0 0 1 0 1 0 0 0 0 1 2 0 1 0 0 2 1 0 0 1 1 0 0 0 0 0 2 0 0 0 0 0 0 2 0 2 0 0 0 0 0 2 0 0 1 1 1 0 0 2 0 2 1 0 2 0 0 2 1 0 1 2 0 1 2 2 1 0 0 0 0 1 1 1 1 0 0 2 2 0 1 1 0 1 1 0 2 0 1 0 2 0 1 1 0 2 2 0 2 1 0 1 0 2 0 2 0 0 1 0 0 1 1 0 2 0 1 1 0 0 0 0 1 0 1 0 0 1 0 1 1 1 1 0 3 1 1 0 1 0 1 2 0 0 1 2 0 0 1 2 0 2 2 2 2 1 0 2 0 1 1 0 1 0 0 1 1 0 1 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 1 1 0 0 1 3 1 0 0 0 0 0 0 0 0 2 0 2 0 0 0 2 0 0 0 2 0 0 1 0 2 0 1 2 0 1 0 1 1 1 0 0 2 0 2 1 1 1 0 0 0 1 1 1 3 0 0 0 0 0 0 1 2 1 1 1 0 1 1 0 0 1 1 1 1 0 1 1 0 2 0 1 0 1 1 1 1 0 0 0 1 0 2 1 2 0 0 1 2 0 0 0 1 0 1 2 0 0 2 2 0 0 0 0 0 0 1 0 0 1 0 2 0 0 1 0 0 0 0 0 1 0 1 0 1 2 0 0 0 0 0 0 0 0 0 1 2 1 0 0 0 0 0 0 1 0 3 1 0 0 2 0 1 0 1 0 1 1 1 0 0 1 2 3 0 0 1 0 2 1 0 1 0 1 0 1 0 0 1 1 0 1 0 2 0 0 0 0 0 1 1 1 2 1 0 0 1 1 1 1 0 0 2 1 1 1 0 0 0 0 0 0 0 1 2 2 1 0 1 0 2 1 3 0 0 1 1 1 0 0 0 0 0 1 0 2 0 0 2 0 1 2 1 4 0 1 0 0 0 1 1 0 0 1 1 0 1 0 1 0 0 1 2 1 0 1 0 0 1 1 0 0 0 0 1 0 1 0 0 1 1 1 0 0 1 0 1 0 1 0 2 0 0 2 1 1 0 1 0 2 1 0 0 1 1 2 1 0 0 0 1 0 0 1 0 1 0 0 0 2 0 0 0 0 0 1 0 2 0 3 1 0 1 1 0 1 1 0 0 1 2 1 0 0 0 2 2 1 0 1 0 0 0 1 0 0 0 1 1 0 1 1 0 0 0 0 0 2 0 3 0 1 0 0 1 2 0 2 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 1 1 1 0 0 1 1 1 0 3 1 1 0 0 0 0 2 0 1 4 0 0 1 1 1 0 1 0 0 0 0 0 1 0 0 0 1 2 1 1 1 0 2 0 0 2 1 0 1 0 2 1 0 2 1 0 0 1 1 1 0 0 2 0 2 0 0 0 1 0 1 3 0 0 1 2 1 0 1 0 2 2 1 3 1 1 1 0 1 1 0 2 0 0 2 2 1 0 1 0 1 1 0 0 0 2 0 1 0 0 1 0 1 0 0 0 2 0 0 1 0 2 0 1 0 0 0 0 0 1 0 0 0 0 1 0 2 1 3 2 1 0 0 1 1 0 1 1 0 0 1 0 0 0 0 2 2 2 0 1 1 1 1 0 0 0 2 1 0 1 1 0 1 0 2 0 1 2 0 0 1 1 1 1 1 0 0 1 1 1 3 1 0 1 1 2 0 1 0 1 0 0 0 0 1 0 0 1 2 2 1 1 2 1 3 0 2 0 1 0 0 2 1 2 0 0 0 0 2 0 1 0 0 0 0 0 0 2 0 0 0 1 0 0 1 0 1 0 1 0 0 1 1 0 1 0 0 0 0 0 1 0 0 1 2 1 0 0 0 0 1 0 2 1 2 0 2 1 1 0 1 0 0 0 2 2 0 1 1 0 0 0 1 1 2 0 0 2 1 1 0 0 1 0 1 2 0 0 0 0 0 2 0 2 0 0 2 2 0 0 0 0 0 1 0 1 0 2 0 0 1 0 0 1 1 0 0 1 1 0 0 0 1 0 0 0 0 2 0 0 0 1 1 0 0 1 0 0 1 0 0 0 0 1 1 1 0 2 3 0 0 1 1 1 0 0 0 2 1 1 0 0 1 0 0 2 0 0 0 1 0 0 0 0 1 0 1 2 0 0 0 0 1 0 1 0 0 1 1 1 0 0 2 1 1 1 0 0 0 0 0 1 1 1 0 0 1 0 0 1 0 1 0 0 1 1 0 0 2 1 1 1 2 0 0 0 0 0 0 0 3 0 0 0 0 2 0 0 1 3 1 0 2 3 0 0 0 2 2 0 2 0 0 0 0 2 3 0 1 0 2 0 0 0 1 0 0 1 1 0 2 2 0 0 0 0 0 0 1 0 0 0 1 0 1 0 1 1 1 0 0 3 2 1 1 1 1 0 1 1 0 1 1 0 0 0 0 0 3 0 0 0 0 0 0 0 0 1 2 0 1 1 0 1 0 0 2 1 1 0 0 1 0 1 0 1 1 0 0 2 2 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 1 0 0 0 0 0 0 1 0 1 1 0 2 0 1 1 1 1 1 0 1 2 0 0 2 1 1 1 1 0 0 1 1 1 0 0 1 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 1 1 0 1 3 0 1 1 0 0 0 0 0 1 0 2 0 2 0 1 0 0 0 1 1 1 0 1 0 1 0 0 0 1 0 0 0 1 1 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 1 1 1 1 1 1 2 0 0 0 0 0 2 0 1 1 1 1 1 0 0 0 0 1 2 0 1 1 0 0 0 0 0 1 0 1 0 1 1 0 1 0 1 2 0 0 0 0 2 1 1 0 1 2 2 0 0 1 0 0 0 1 1 0 0 0 3 0 0 0 2 0 0 0 0 1 0 3 1 0 1 0 2 0 0 1 1 0 1 3 1 1 0 0 2 0 0 0 2 1 1 1 1 0 1 0 0 0 1 0 0 2 1 0 1 0 1 0 0 2 1 0 0 0 0 3 1 1 0 0 0 1 0 1 0 1 0 0 1 2 1 1 1 0 0 0 2 1 0 2 1 1 0 0 0 1 0 1 0 0 0 1 1 0 0 0 0 0 0 0 1 2 0 1 0 0 1 0 1 0 1 1 0 0 2 0 0 0 0 0 0 0 1 0 1 1 0 0 1 0 1 0 0 0 0 0 0 1 1 2 2 1 0 1 2 1 0 0 0 2 0 2 0 1 0 1 0 1 1 0 1 1 0 1 1 0 0 1 0 2 0 0 2 2 0 1 0 0 0 1 0 0 1 1 2 1 0 1 0 0 1 0 1 0 0 0 1 1 0 0 2 1 0 0 2 1 0 1 0 0 0 0 0 0 0 1 0 0 1 2 0 1 0 0 0 1 1 0 1 0 0 0 2 2 0 2 0 0 0 0 1 2 3 0 0 1 0 0 1 1 0 2 2 1 0 0 1 1 1 1 0 1 1 1 0 1 1 2 1 0 1 0 1 0 1 1 1 1 2 1 1 0 0 1 0 1 0 1 2 0 1 0 1 2 0 1 0 1 0 0 1 0 0 1 1 0 1 0 1 0 1 0 1 1 1 0 0 0 0 1 1 0 1 0 1 0 1 0 0 1 0 0 2 0 2 0 1 2 0 1 0 0 0 0 0 0 1 1 1 1 3 0 0 0 1 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 1 0 0 0 1 0 2 0 0 0 0 1 2 0 0 0 1 1 0 0 1 1 1 1 1 0 0 1 0 0 3 0 0 3 0 0 1 0 1 0 4 0 1 1 0 0 0 1 2 0 0 2 1 0 1 0 3 0 0 0 2 0 0 0 0 2 3 1 1 0 0 0 0 0 0 2 3 2 0 0 0 0 1 1 0 1 2 0 1 3 0 0 1 0 0 0 0 2 1 0 1 1 0 1 4 0 1 0 1 1 1 0 0 1 0 1 0 0 2 0 1 1 0 2 1 1 0 1 0 0 1 0 1 0 1 0 2 0 1 2 0 1 0 1 2 1 1 0 0 0 1 0 1 1 0 0 0 1 3 0 1 1 1 0 0 0 0 0 0 1 0 2 1 0 1 0 1 0 2 1 0 1 1 1 0 0 0 0 0 2 1 1 1 1 1 0 0 0 0 0 0 1 0 1 1 0 1 0 2 0 0 0 2 1 0 1 0 0 1 0 0 0 0 1 1 0 0 0 0 0 1 1 1 0 0 1 0 0 1 1 2 1 0 1 2 0 0 0 0 1 0 0 0 0 2 1 3 3 0 0 1 0 2 0 0 0 0 0 0 1 2 1 0 1 1 0 0 0 1 0 0 2 1 1 1 1 0 2 1 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 1 0 1 0 0 0 0 2 1 0 2 1 1 2 0 2 2 0 0 0 2 1 0 1 1 1 0 0 1 0 1 0 2 0 0 1 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 3 1 0 0 1 2 0 0 0 0 1 0 1 2 0 0 1 0 1 0 0 0 0 0 1 0 0 1 1 0 1 1 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 1 1 0 1 0 1 2 0 0 0 1 1 0 2 0 1 0 0 1 1 3 0 0 2 0 1 0 1 1 1 1 0 0 1 2 0 0 1 1 1 0 2 0 0 2 1 1 2 0 0 0 0 1 0 1 1 1 2 0 1 0 1 0 1 0 0 0 0 0 0 1 1 0 2 1 1 1 2 0 0 0 0 1 0 0 0 1 0 1 0 1 0 1 0 1 1 1 0 1 0 0 0 1 0 1 1 1 0 1 1 0 0 0 1 0 0 1 1 0 1 0 1 0 1 0 0 0 1 1 0 1 0 2 3 0 0 0 0 3 1 1 3 0 0 0 0 0 0 0 0 0 1 1 1 0 1 1 1 0 0 0 1 0 1 0 0 0 1 2 1 0 1 0 0 2 1 0 1 1 0 1 1 1 0 0 1 1 0 0 2 0 0 1 1 1 0 0 1 0 1 1 0 0 0 0 0 2 2 0 1 2 0 0 0 0 2 0 1 0 1 1 0 0 1 1 0 0 3 0 0 1 1 1 0 1 2 1 1 1 1 0 1 0 3 1 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 2 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 2 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 1 1 0 1 1 1 0 3 1 0 1 0 1 1 0 1 1 1 1 0 1 0 0 0 0 0 0 0 1 1 2 0 0 0 1 0 3 2 0 0 0 0 0 0 1 2 1 2 1 1 0 0 0 0 0 0 1 1 0 1 1 0 0 0 1 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 1 0 0 2 3 1 1 1 0 1 1 0 2 0 2 1 0 1 0 2 0 1 0 1 0 0 0 1 0 1 1 0 0 1 0 1 0 2 0 0 0 0 2 0 1 1 0 0 1 0 0 0 0 1 0 0 1 0 0 0 1 1 2 1 0 2 0 0 0 1 0 0 0 0 1 2 0 2 0 1 0 1 0 0 1 1 0 1 1 1 1 0 1 0 1 1 0 1 1 0 0 0 0 0 0 0 0 3 1 0 1 0 1 2 1 0 0 0 0 1 0 0 0 0 1 1 0 1 0 0 0 1 1 1 0 0 2 1 0 1 1 0 0 2 0 0 0 0 1 0 2 1 1 0 0 0 1 0 0 1 1 0 0 1 1 0 0 1 1 2 0 1 3 1 0 1 1 1 0 4 0 1 0 0 1 0 1 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 2 2 0 0 0 1 2 0 0 2 1 1 0 2 0 2 1 0 0 0 0 0 0 1 0 0 1 1 2 0 1 1 1 1 1 0 0 0 0 1 0 0 2 0 1 0 0 0 0 1 1 0 0 1 1 0 1 1 0 0 1 0 1 1 0 0 1 0 2 0 0 0 0 0 1 0 0 2 0 0 0 0 1 0 0 0 0</t>
+    <t>JSB(2.3727377766064697, 3.0358441068954827, -16.71984429164371, 105.17709073314117)</t>
+  </si>
+  <si>
+    <t>21 6 14 17 10 8 16 12 30 27 10 26 31 24 23 24 17 25 27 10 17 24 23 13 20 26 6 7 15 20 15 24 26 32 23 6 31 20 10 16 18 17 14 16 17 23 27 26 24 6 25 30 25 13 16 13 21 24 17 14 23 16 17 10 10 20 14 11 6 24 10 24 7 7 18 12 9 24 15 31 3 10 7 13 13 6 23 3 13 6 27 13 6 28 17 24 27 13 13 13 16 7 23 20 24 0 10 23 12 17 21 15 13 7 20 16 27 21 16 13 16 21 16 20 30 37 17 14 17 17 9 30 38 14 10 10 34 13 23 13 31 17 14 16 10 20 7 26 24 20 6 17 27 17 16 27 10 12 27 12 24 26 5 13 26 13 27 24 14 20 28 19 18 16 16 13 7 10 10 19 10 21 20 19 24 25 34 26 17 24 24 29 6 27 0 14 16 17 9 12 14 0 10 37 17 27 26 16 13 18 12 6 13 7 16 25 17 20 14 19 22 18 18 22 3 13 3 13 16 6 29 13 14 7 6 16 13 16 27 23 17 10 22 13 15 15 37 16 19 28 17 3 19 24 6 27 14 15 9 16 20 3 23 15 17 24 6 3 3 30 16 10 23 9 20 10 10 20 23 20 21 6 9 26 26 13 34 10 20 17 19 13 38 13 9 10 24 20 27 33 10 7 9 16 3 24 19 28 20 12 26 37 20 21 27 23 3 7 13 27 6 27 13 24 34 34 21 21 20 16 17 6 17 21 10 21 22 10 13 11 26 17 20 23 19 9 20 21 13 10 16 21 27 9 23 20 24 16 13 28 20 13 21 31 17 10 14 16 23 13 28 7 24 24 20 28 24 31 6 13 31 14 28 14 20 19 21 13 13 24 13 10 22 12 3 20 13 23 10 7 17 15 17 5 33 17 17 27 13 16 24 34 23 35 24 17 21 20 14 26 38 20 9 12 13 10 10 15 13 23 16 20 10 20 20 24 30 15 17 20 27 20 17 13 18 20 12 17 16 24 24 17 6 27 20 14 26 20 7 28 13 6 16 13 31 7 19 17 24 27 16 12 21 24 20 20 0 13 24 14 3 3 26 13 7 21 10 20 12 16 16 24 33 13 21 10 22 17 19 28 24 16 13 33 10 20 14 10 9 17 16 23 10 19 26 16 20 9 13 16 17 14 3 13 13 3 19 17 13 10 17 6 3 18 6 10 23 16 3 16 23 30 24 14 6 23 10 33 10 21 19 6 17 7 23 18 12 9 19 27 20 20 24 20 17 19 23 31 10 17 21 13 20 14 27 6 23 37 6 22 19 13 6 13 10 9 6 17 10 3 13 20 14 14 13 7 19 18 26 17 9 34 13 10 9 24 12 37 25 30 12 20 17 21 30 21 16 17 16 3 31 27 23 21 37 30 14 31 6 19 17 31 19 16 16 21 15 11 9 17 15 17 26 14 20 17 21 16 10 16 31 17 23 16 17 16 26 20 6 19 24 16 20 21 24 28 19 17 3 16 20 16 10 17 23 14 13 22 24 12 23 12 0 9 23 17 14 24 24 20 14 20 5 13 17 13 20 13 21 9 17 13 37 13 9 13 17 23 33 30 36 13 12 22 28 19 17 29 16 20 23 10 13 3 9 17 20 14 31 14 23 31 17 23 15 23 23 10 27 16 10 30 14 13 12 31 24 3 19 24 14 10 33 17 17 10 19 14 24 7 12 10 23 10 10 3 10 20 14 6 17 16 24 24 8 20 17 17 10 13 15 7 18 19 11 26 14 13 24 20 33 19 13 13 22 10 24 10 26 17 9 3 17 20 24 6 27 16 16 17 27 10 16 10 16 10 6 13 14 10 13 12 19 10 20 17 14 30 15 12 16 17 13 37 13 21 14 10 11 10 24 17 12 13 10 17 17 17 7 27 20 21 12 16 24 6 20 28 10 16 6 20 27 14 20 9 9 24 13 22 10 7 24 18 13 12 9 20 24 37 14 17 17 10 15 14 31 21 10 19 22 14 13 20 20 17 17 27 17 6 16 27 9 16 22 17 24 6 31 20 13 17 3 11 20 13 6 13 10 24 17 36 31 23 17 27 20 24 17 3 14 7 27 30 9 34 0 13 21 20 17 13 8 22 24 20 10 15 19 9 3 20 20 9 20 20 6 10 13 24 17 7 20 10 10 20 25 17 9 10 17 21 10 15 19 13 3 6 9 17 24 10 20 27 6 17 13 13 3 20 10 29 20 16 10 20 18 27 16 13 3 26 16 16 13 18 10 21 30 21 6 24 17 13 20 16 6 10 20 9 10 10 25 20 23 14 22 10 6 6 26 31 23 18 23 20 24 20 20 17 14 27 12 10 16 24 27 17 17 20 7 27 19 9 16 31 17 38 13 25 12 20 19 10 17 16 20 20 13 13 25 16 10 23 18 16 13 17 28 21 16 13 9 17 20 13 15 13 20 14 10 21 16 14 7 29 14 24 13 22 13 17 0 21 21 16 19 15 23 16 17 12 20 16 13 31 24 17 14 20 3 10 27 27 20 23 14 26 13 27 16 13 23 20 10 26 20 21 26 34 13 24 7 7 20 13 14 3 17 17 20 17 24 13 15 6 13 10 17 17 12 19 17 20 23 25 17 16 34 13 19 13 6 24 20 7 3 33 7 23 6 19 21 24 11 17 13 20 33 21 13 21 6 31 20 17 28 7 6 21 9 18 37 7 20 8 10 23 24 10 3 20 17 30 7 14 27 20 21 15 17 6 17 10 23 20 23 16 10 13 13 13 21 32 24 10 12 10 24 28 10 10 7 16 24 7 23 10 9 20 10 16 10 13 24 20 10 20 10 3 23 9 24 0 27 21 30 20 20 3 20 31 9 3 20 17 14 25 13 16 13 14 24 26 10 13 21 13 6 23 30 26 10 16 10 16 21 9 7 7 34 10 30 27 13 13 20 26 21 26 27 19 13 20 13 27 24 16 6 23 9 31 6 34 31 16 14 13 17 10 17 3 23 13 7 10 23 7 17 13 14 12 27 21 9 6 17 16 16 10 31 17 27 10 10 16 20 3 24 24 17 23 27 0 10 6 23 13 9 13 16 20 6 14 21 17 6 24 10 11 14 10 20 19 10 6 16 31 7 24 16 7 14 17 17 21 15 31 31 14 14 8 12 10 14 20 23 27 16 12 16 13 10 28 12 13 27 13 10 21 24 14 27 24 13 14 6 6 10 17 9 19 33 10 34 15 21 31 10 14 10 21 20 21 20 35 21 14 10 27 24 20 23 9 23 27 16 24 13 9 15 17 38 6 24 20 12 27 22 13 9 24 19 0 17 24 16 13 13 14 19 17 17 13 21 30 17 7 27 23 31 24 29 13 0 28 17 24 31 17 13 10 14 21 14 20 35 21 17 17 31 13 26 10 30 6 9 26 13 16 13 23 17 21 16 6 22 24 27 10 13 17 10 14 24 20 7 26 18 14 27 14 22 18 17 10 27 10 24 21 6 13 0 14 14 10 20 17 16 7 21 34 21 9 16 14 17 19 7 24 26 6 16 35 10 17 7 21 10 10 6 19 18 11 6 31 3 11 17 14 20 16 19 18 19 18 20 16 10 14 15 15 17 3 20 19 9 20 6 17 9 30 13 20 16 20 14 20 6 14 28 16 21 20 7 9 20 14 17 26 24 17 13 13 20 13 13 13 6 21 34 10 17 28 37 10 14 31 13 20 6 10 13 18 3 27 27 0 14 23 21 10 23 10 27 9 13 17 12 3 13 14 7 16 9 13 16 22 17 6 10 9 7 26 6 17 13 26 7 12 38 0 17 10 10 24 15 24 17 10 7 9 31 13 20 6 10 3 21 21 30 3 13 18 24 20 18 3 21 15 24 12 10 28 27 19 17 24 20 23 27 7 12 27 24 21 31 19 16 17 29 6 19 20 14 10 16 9 10 18 23 10 17 31 6 23 13 12 18 10 17 10 24 20 16 0 13 22 13 10 17 16 27 29 24 30 9 21 11 27 13 41 15 21 27 18 13 20 26 28 14 13 9 7 23 7 13 10 24 6 7 13 6 9 14 27 8 21 13 17 13 17 20 6 17 27 9 27 20 19 15 7 21 20 17 7 13 3 23 16 19 22 25 30 10 24 10 20 17 15 17 20 9 23 17 23 20 31 13 13 6 16 24 12 9 17 12 21 20 27 10 14 21 6 7 9 10 23 13 10 13 16 14 21 17 27 23 24 9 12 22 12 13 10 9 10 17 22 14 13 3 14 14 10 33 17 24 13 40 21 17 16 20 23 25 13 28 5 37 20 6 29 13 20 23 16 16 16 13 31 19 7 19 6 10 13 16 17 3 13 24 35 10 13 10 13 10 21 14 11 15 8 6 9 21 17 7 6 24 9 17 23 14 24 13 10 14 12 18 20 24 24 10 20 28 19 10 10 24 18 24 14 7 10 21 6 20 10 27 3 17 44 13 9 14 14 10 14 18 13 6 15 3 17 17 19 14 13 9 17 6 26 10 10 15 16 17 10 10 31 10 8 30 23 19 34 20 26 23 17 20 34 6 21 13 28 23 13 6 19 15 21 24 27 14 3 24 16 14 23 26 17 17 13 7 22 13 13 24 6 16 9 11 21 20 13 17 20 20 6 10 23 20 24 10 22 13 14 27 0 6 14 10 24 21 28 13 10 13 17 13 14 11 10 16 13 14 20 30 20 8 9 25 14 19 14 24 15 27 20 3 24 19 19 16 27 3 11 10 3 21 11 19 6 23 20 10 21 24 17 19 13 30 14 14 24 9 10 9 13 6 20 24 20 17 11 35 17 11 10 20 13 6 0 17 23 27 8 20 20 27 13 30 13 6 17 10 23 14 17 14 6 13 12 34 21 16 16 27 16 31 12 28 22 13 19 17 17 24 3 15 14 7 21 6 7 20 24 14 20 19 15 10 21 20 10 17 7 16 9 23 21 6 12 23 28 6 37 16 16 27 14 23 20 23 7 16 15 20 16 13 17 20 13 14 24 13 20 13 6 23 20 16 30 13 10 20 16 16 17 23 10 6 17 19 20 10 31 12 9 16 17 21 12 14 27 10 22 27 10 20 24 16 5 17 16 3 23 9 7 13 13 11 20 27 23 17 14 17 14 23 20 28 16 7 14 19 19 20 13 10 10 21 19 9 24 16 21 24 15 27 3 20 9 21 16 12 23 19 24 13 10 33 19 16 24 16 19 13 19 13 9 19 16 9 13 13 12 17 16 7 20 17 10 16 3 12 18 7 35 16 24 19 16 20 10 10 17 20 16 28 13 20 16 14 17 23 3 12 19 3 10 16 20 16 17 23 7 10 6 10 27 21 20 23 0 19 23 21 15 7 16 10 12 38 17 14 9 21 27 14 17 24 10 3 13 13 28 20 38 24 34 13 14 23 20 3 17 13 12 13 16 10 23 9 20 13 9 20 16 27 19 20 13 20 19 3 24 7 24 19 17 7 6 6 13 6 17 23 14 26 19 13 27 13 15 13 41 16 23 23 31 27 14 10 19 26 20 15 3 19 30 24 12 23 28 22 17 16 3 13 16 23 16 12 17 14 10 20 38 7 6 9 19 31 20 19 15 6 16 9 30 27 14 13 20 28 20 14 16 24 18 24 3 20 26 3 20 10 13 7 20 13 14 3 13 18 10 37 6 16 21 15 3 10 10 10 19 16 24 10 36 19 14 10 13 6 31 13 14 14 10 13 11 10 16 24 10 19 10 3 23 17 3 37 10 13 20 23 13 15 12 27 37 24 27 10 27 14 13 6 20 26 16 20 19 12 6 12 19 20 20 13 26 13 20 6 13 35 8 13 30 21 20 17 16 19 14 28 19 14 25 16 20 26 13 7 24 20 24 16 16 9 13 20 21 24 14 16 5 10 10 10 14 14 24 25 6 14 21 17 30 7 13 10 28 7 11 9 21 15 21 12 16 30 3 20 12 7 17 13 21 7 20 20 7 20 13 14 23 20 13 14 31 27 3 13 16 24 23 26 20 14 24 23 10 21 13 17 14 24 10 11 17 7 13 15 14 31 14 24 16 24 16 19 7 9 20 22 6 14 16 15 13 17 16 3 27 20 16 13 20 17 12 30 17 17 16 14 28 21 25 13 23 28 34 0 12 16 10 17 0 15 20 24 13 23 3 17 15 27 14 31 20 14 26 14 17 6 9 10 13 17 20 16 27 25 19 24 23 8 17 31 21 13 13 22 3 10 13 19 35 21 16 28 17 7 19 17 13 28 28 27 13 24 19 16 16 17 10 24 13 13 12 17 10 23 19 27 23 17 23 9 20 3 23 16 16 14 7 13 16 14 26 21 10 18 17 19 15 23 16 7 23 14 17 15 19 13 13 14 21 23 17 24 22 23 9 10 10 19 27 24 19 22 13 14 21 10 17 27 13 17 31 6 13 27 23 20 13 3 0 15 9 17 23 17 16 17 7 27 6 10 7 17 20 6 24 26 27 10 13 7 17 9 6 13 22 17 24 28 16 27 6 17 22 10 30 20 33 11 31 21 17 7 12 13 28 13 10 19 17 10 10 6 10 11 23 16 16 10 24 10 20 6 14 9 3 16 21 19 18 14 13 23 12 13 24 13 17 13 22 10 21 18 17 7 17 21 11 7 3 22 14 34 20 31 0 16 3 7 0 21 21 24 29 30 19 6 25 11 0 12 10 14 13 10 14 23 12 13 28 34 3 17 14 22 27 18 16 27 17 20 13 15 12 17 26 31 13 27 13 19 25 22 10 6 10 6 16 17 13 33 21 20 26 20 3 31 15 17 16 17 14 16 10 19 21 13 27 20 27 21 24 10 21 11 16 27 6 20 17 13 24 9 17 20 16 8 17 16 24 16 21 10 24 6 23 12 27 17 17 15 9 28 17 20 12 3 13 12 27 10 22 7 37 23 24 13 20 19 14 8 24 21 16 28 9 17 9 17 6 20 27 10 24 20 12 16 17 6 0 23 11 16 17 33 16 22 21 25 24 19 20 20 13 16 6 20 19 3 12 6 31 17 30 27 16 14 17 25 9 7 16 10 16 17 18 19 10 19 12 10 13 14 9 19 15 24 25 6 23 10 14 15 17 27 23 20 3 23 17 11 25 10 26 13 17 20 12 20 20 10 16 0 13 20 27 9 18 21 34 9 23 20 20 29 12 10 17 26 20 31 12 6 23 7 17 13 20 7 13 20 17 23 21 20 9 14 17 7 20 23 14 13 17 7 21 26 7 17 10 20 3 21 21 6 16 10 6 15 6 27 30 14 17 10 17 17 20 10 6 17 24 17 3 19 21 22 16 10 20 26 25 16 7 13 24 19 25 21 19 16 22 17 9 16 9 9 31 13 24 10 10 30 16 6 21 27 27 20 17 16 10 16 34 13 17 9 17 12 17 27 22 27 10 21 9 16 27 13 10 6 3 27 20 16 34 19 26 17 24 14 17 19 13 0 10 14 9 7 10 6 10 10 13 7 13 15 10 10 7 3 33 9 3 3 31 14 17 6 15 34 10 13 17 6 24 9 17 7 23 20 17 17 6 17 24 17 27 12 26 20 10 28 16 20 23 12 27 3 30 14 20 17 17 13 7 18 18 28 17 20 3 16 24 14 13 12 27 9 20 27 10 31 17 21 3 31 14 17 21 13 7 20 16 20 6 24 17 17 10 15 20 17 22 14 14 20 29 29 13 31 20 26 15 14 31 10 3 13 18 27 9 23 13 10 10 17 13 24 21 20 17 21 30 31 24 15 10 6 23 6 16 29 16 6 17 16 20 15 9 14 9 10 17 10 16 3 22 23 10 13 23 17 15 10 10 16 17 9 7 27 21 24 3 20 16 3 30 13 6 13 16 7 9 9 20 13 26 10 23 20 28 13 17 30 31 23 9 11 17 23 26 7 22 14 21 19 16 7 28 21 9 10 20 14 18 17 14 3 13 23 7 14 24 7 30 14 19 17 9 16 24 31 13 19 14 16 3 15 13 17 23 20 3 0 26 31 34 20 0 25 10 17 16 27 21 9 32 20 27 27 9 24 16 13 17 17 7 24 7 13 16 14 9 24 17 13 24 9 17 20 29 9 20 19 20 13 6 7 20 6 0 17 6 19 12 14 26 12 10 17 13 28 20 24 13 7 17 14 22 31 5 10 17 28 10 10 31 17 9 24 6 14 14 15 23 17 24 10 20 20 24 10 24 13 7 6 20 10 6 17 16 31 34 17 16 26 17 27 13 26 8 9 23 31 27 37 14 13 13 24 20 24 20 20 22 9 10 17 20 24 27 13 13 13 24 13 13 26 17 19 16 24 17 29 17 17 20 22 31 10 13 21 35 0 24 9 12 7 10 18 9 22 22 17 17 14 10 24 7 32 10 22 17 10 21 6 37 10 10 12 17 13 17 23 20 25 17 24 13 24 28 20 15 20 24 22 17 10 20 3 17 10 23 16 17 3 13 19 27 22 28 15 13 20 10 13 24 16 29 21 14 13 19 24 10 21 20 20 21 10 6 24 14 15 16 16 13 24 8 7 21 13 16 27 16 31 23 17 27 10 29 17 29 13 9 13 27 14 24 17 21 20 23 16 3 15 22 16 23 16 9 21 21 24 23 24 26 23 24 20 33 27 26 34 9 23 10 19 10 17 18 7 16 31 10 31 20 16 13 19 9 23 7 14 17 27 13 16 21 30 17 14 13 13 12 10 3 17 17 17 17 17 13 13 13 17 14 7 20 10 27 10 24 10 13 19 35 24 7 27 10 13 9 24 23 16 24 20 14 31 17 17 17 23 6 15 28 26 18 17 22 10 13 24 19 6 25 10 24 26 20 9 6 13 21 20 10 18 27 10 16 16 17 24 27 24 14 31 20 9 27 6 23 24 24 20 6 20 14 15 21 29 25 11 13 24 31 14 3 7 15 44 14 6 22 10 7 22 17 14 17 31 13 10 13 27 20 21 37 13 3 6 23 16 13 18 14 13 17 20 23 23 22 10 10 16 28 17 17 14 14 20 14 13 10 17 14 27 21 27 37 23 17 6 20 13 9 10 21 21 17 19 17 0 9 27 26 16 28 17 27 6 13 20 28 17 0 13 10 10 17 21 21 13 10 27 17 10 27 24 10 28 23 10 17 6 21 23 17 27 3 17 13 17 7 10 13 16 24 10 19 0 7 23 19 3 17 7 14 10 10 24 22 24 7 6 16 32 13 20 7 7 19 14 6 23 17 15 27 10 13 23 24 17 22 37 30 14 19 44 14 10 11 23 14 16 31 13 8 24 16 30 20 27 20 13 16 13 14 13 19 23 10 20 14 31 24 16 10 16 10 23 31 27 17 6 26 13 15 0 14 26 14 14 7 10 17 30 19 23 24 13 27 0 26 9 9 3 22 7 15 26 13 16 19 13 13 17 14 17 10 13 13 19 19 34 17 19 13 9 20 21 13 21 15 17 21 7 17 19 19 6 11 21 17 21 14 17 17 16 13 30 27 7 20 21 23 22 14 12 13 14 17 24 10 16 17 18 27 13 20 21 31 10 16 23 9 26 17 14 6 13 17 21 21 13 30 25 20 20 20 13 7 16 24 13 6 17 10 18 17 14 24 20 18 13 13 17 16 19 3 23 9 18 16 16 30 25 24 31 10 11 6 9 12 27 28 21 10 21 21 9 14 10 17 14 31 13 16 7 26 10 14 24 34 3 20 28 12 13 20 20 16 14 3 10 13 27 11 10 22 17 36 13 14 14 19 10 20 10 10 22 10 13 14 27 6 21 13 34 22 19 27 9 3 10 10 11 17 20 3 10 3 21 13 14 19 10 9 24 7 10 26 10 23 7 15 16 21 27 14 9 23 23 6 14 17 14 13 14 30 27 10 7 3 13 20 24 29 13 24 9 10 17 14 30 3 11 17 14 37 10 14 20 14 22 31 13 17 14 30 9 10 20 13 3 10 30 22 15 0 17 9 15 8 27 20 17 20 16 16 19 7 27 20 17 12 24 33 15 14 16 27 13 23 15 13 10 12 16 16 15 42 3 20 34 17 16 24 17 17 41 21 21 10 16 16 10 24 27 10 19 17 7 10 17 13 7 14 16 17 14 13 10 13 23 10 7 20 12 23 13 6 3 20 22 16 13 21 21 13 17 17 7 7 9 13 17 15 20 24 10 17 20 11 10 27 14 23 7 20 9 13 9 30 20 10 9 16 20 13 28 20 27 24 14 21 35 23 17 7 13 22 17 9 20 10 31 7 9 12 10 26 13 26 6 13 20 15 20 17 17 20 10 3 31 10 28 13 17 6 16 13 28 12 0 3 13 3 13 28 28 10 6 13 13 16 34 12 22 6 7 13 5 16 10 12 21 6 21 24 20 13 20 31 9 16 14 30 19 19 13 7 23 3 17 20 14 9 13 3 17 38 16 14 17 23 20 21 10 17 7 19 6 38 6 19 15 16 11 31 10 19 33 20 3 16 21 24 27 14 10 20 19 10 17 9 7 13 10 24 17 16 0 23 3 23 17 22 29 27 17 10 3 10 6 24 8 22 3 3 6 22 18 11 26 24 10 17 28 13 13 20 10 13 13 7 21 24 31 31 16 17 16 3 23 24 17 14 37 16 14 3 23 13 14 24 6 6 13 24 17 6 16 20 13 19 27 14 20 21 27 21 29 17 20 13 17 22 12 17 10 6 27 10 9 17 20 13 13 12 20 14 3 10 24 17 25 13 27 17 23 31 13 16 23 6 25 3 15 13 17 24 24 13 24 10 13 20 21 32 17 14 10 17 30 17 13 20 23 7 10 13 17 15 27 10 13 10 14 27 17 20 25 25 13 30 17 6 9 17 22 15 9 49 10 20 21 17 17 20 16 16 7 15 9 17 24 9 37 21 33 19 27 20 20 21 17 16 24 14 23 16 13 10 14 13 16 33 7 13 24 20 9 24 6 16 7 10 10 14 23 17 24 7 20 6 31 19 10 7 10 17 10 17 3 13 17 20 20 0 24 28 25 44 13 23 9 9 20 13 15 23 17 10 31 13 6 24 16 38 14 16 14 14 14 7 24 35 21 17 26 13 20 25 20 3 26 20 19 24 23 9 24 12 21 23 12 20 23 16 10 13 8 10 6 27 10 17 20 15 7 15 9 10 27 10 20 12 27 18 7 17 17 20 3 23 14 26 6 31 19 13 23 23 14 22 16 12 41 24 13 24 24 0 3 17 3 15 20 6 16 28 24 13 24 8 16 7 16 23 10 27 26 13 25 24 16 27 7 3 19 20 19 23 13 19 24 20 10 28 17 20 34 10 13 9 13 27 30 14 23 19 10 10 37 13 13 14 10 17 23 27 12 13 19 10 16 24 20 13 24 13 9 20 11 12 17 13 6 14 31 20 16 20 19 17 3 10 24 24 14 24 16 40 23 20 14 13 20 16 10 13 26 26 13 13 12 16 24 17 27 10 17 16 20 21 13 6 10 13 24 15 13 17 24 10 14 17 20 20 3 20 18 24 3 6 13 9 10 21 10 10 17 27 10 20 15 24 17 21 17 17 7 17 33 17 20 24 24 27 0 20 17 22 15 27 16 16 17 14 20 24 10 23 10 21 31 24 16 13 26 24 21 19 14 19 16 23 14 20 6 30 20 27 17 36 19 13 10 20 12 16 15 18 17 14 32 3 3 28 16 27 21 23 27 14 9 9 35 20 19 17 17 9 17 10 24 9 24 13 17 20 13 10 21 6 3 9 3 6 14 6 18 13 24 14 17 21 26 13 24 17 16 9 19 20 20 10 10 20 13 12 9 23 24 26 19 6 24 30 26 24 23 23 9 14 7 23 20 13 27 27 26 20 30 23 22 10 17 13 17 23 10 17 17 24 30 8 17 19 20 18 13 22 17 10 6 20 17 7 16 22 19 15 27 27 17 14 6 7 27 23 27 3 10 7 14 24 13 11 17 6 3 13 24 7 10 6 3 20 17 10 15 10 16 30 17 6 6 19 13 6 28 25 20 20 9 24 17 13 17 17 20 20 16 13 12 16 5 0 27 23 13 13 13 26 20 21 13 7 16 20 12 14 37 13 24 17 7 13 23 24 10 7 17 30 14 20 17 9 6 17 16 20 21 23 24 10 7 13 10 9 6 17 34 18 10 16 27 27 27 13 14 21 43 16 24 37 20 20 17 10 13 10 9 21 13 13 23 26 20 14 11 3 26 10 16 16 20 17 14 24 14 9 13 35 13 19 11 0 23 16 10 27 7 19 7 20 11 17 16 19 14 17 19 14 22 7 10 20 20 21 24 14 31 21 10 20 7 16 14 17 12 20 0 21 20 14 23 6 12 28 16 20 27 20 10 24 9 24 23 13 22 7 16 19 20 28 13 20 13 10 20 17 13 16 28 17 20 26 13 13 27 22 6 3 27 16 17 6 15 17 17 16 10 10 20 13 17 10 24 16 17 13 17 20 17 10 20 10 11 3 20 23 23 14 11 10 13 16 13 20 3 10 30 13 20 21 26 20 28 23 24 17 20 16 3 27 10 14 13 23 6 14 17 21 17 15 19 27 24 10 17 10 21 21 13 26 3 15 13 0 20 17 7 19 23 19 27 34 34 33 27 27 24 16 15 27 17 20 6 38 9 23 17 27 13 16 14 13 13 23 7 11 20 17 11 27 13 16 20 23 13 27 35 21 29 7 0 12 15 21 10 14 13 24 10 16 15 24 17 17 13 19 7 18 9 12 23 31 10 19 14 24 30 16 3 31 24 16 21 21 16 24 23 24 16 12 13 13 10 33 10 17 16 16 13 17 8 10 17 17 16 23 20 27 14 16 13 16 3 3 12 23 13 20 20 16 14 10 24 15 15 17 7 14 17 20 6 7 17 13 10 10 17 9 19 9 24 0 21 13 20 20 3 20 13 8 27 20 20 10 10 17 22 28 23 7 26 30 19 16 17 17 10 11 19 14 17 10 17 13 11 13 23 27 24 28 19 6 10 30 21 10 34 10 7 23 24 9 23 20 20 11 17 16 24 17 24 26 10 23 7 22 20 20 17 10 15 18 17 16 20 24 18 23 17 17 6 17 17 27 9 24 25 17 27 17 12 6 10 9 18 16 19 15 13 20 24 26 24 7 7 13 6 3 14 17 15 13 22 10 20 13 6 17 7 12 16 24 19 7 10 18 10 23 17 26 0 13 21 7 23 10 30 13 3 19 20 20 14 20 6 17 13 21 0 20 6 9 17 22 18 27 17 10 6 20 13 28 19 13 16 13 14 12 26 12 17 31 25 13 17 16 9 20 19 19 16 23 23 26 10 12 3 23 21 18 16 9 3 17 20 30 17 13 10 31 15 12 26 6 16 20 13 24 10 13 17 6 6 20 21 28 25 17 20 22 16 17 17 19 20 12 28 20 31 11 0 16 9 6 10 13 14 9 24 24 16 10 13 8 38 26 19 23 15 12 6 20 9 10 17 17 9 17 10 28 19 12 19 20 16 27 17 20 27 29 17 21 9 13 15 13 16 19 18 26 12 16 9 28 31 17 24 20 23 13 12 14 38 20 7 7 12 7 19 17 20 13 10 17 3 16 17 6 24 20 20 3 9 17 17 12 20 16 12 24 17 10 24 16 24 17 19 13 21 17 16 22 23 6 20 15 18 2 6 10 9 12 30 27 14 20 6 26 7 23 22 14 13 24 17 13 7 31 10 16 24 17 16 17 17 10 30 3 13 21 14 27 14 9 14 26 3 36 27 10 24 6 16 7 17 9 7 6 17 10 31 13 16 22 13 9 20 20 16 17 14 21 17 21 13 17 6 17 13 3 17 10 22 17 33 20 13 19 23 26 14 17 20 18 21 20 21 33 5 34 13 21 24 15 10 13 33 13 26 23 20 12 16 17 14 22 17 24 17 10 33 20 10 17 27 21 0 7 19 13 9 17 10 20 9 16 6 16 9 20 11 20 15 24 19 16 24 16 20 30 30 6 6 14 15 21 17 23 35 14 13 17 24 7 7 16 3 7 27 16 13 26 10 9 17 20 7 6 9 20 27 17 16 7 17 31 16 20 13 7 24 27 16 14 17 20 20 34 3 37 13 8 35 17 13 19 16 7 20 26 24 6 13 3 28 17 26 20 7 24 21 27 9 31 17 17 10 20 16 20 9 13 3 17 14 15 17 18 14 10 12 23 6 17 23 16 16 19 26 17 13 23 20 31 20 8 9 23 19 27 27 14 20 0 14 27 20 19 17 14 23 14 16 10 21 24 17 12 20 8 6 21 20 34 26 10 13 12 20 9 27 21 17 27 16 6 13 13 23 7 31 23 14 3 13 13 16 14 19 19 24 16 10 20 19 16 19 30 10 9 14 19 24 7 27 17 10 24 13 17 17 3 14 6 17 10 11 13 20 16 23 0 13 24 17 16 10 10 9 16 0 14 16 21 17 7 6 13 24 20 40 26 6 17 13 10 22 13 14 6 7 21 19 14 16 15 15 17 13 20 14 13 10 6 21 10 16 18 14 27 7 19 13 7 9 13 7 23 20 6 7 17 30 28 20 16 17 24 14 14 25 17 19 20 13 19 21 14 23 14 17 0 23 11 8 26 23 10 17 3 17 3 23 21 31 24 10 9 24 0 12 20 9 10 17 10 10 23 23 10 3 24 11 17 23 9 16 10 17 14 24 20 19 15 10 10 17 27 20 16 10 24 24 13 14 6 24 9 10 16 17 13 23 10 13 3 27 20 10 9 10 20 25 12 30 29 9 17 21 3 34 7 21 10 13 3 13 19 21 9 17 16 12 23 13 16 26 13 13 17 21 20 14 17 20 9 17 3 3 19 17 21 10 10 20 7 18 17 13 3 10 19 6 26 3 26 9 20 7 14 16 6 21 10 16 20 16 10 21 23 3 21 16 21 18 13 27 10 13 7 13 13 6 24 14 10 14 13 23 22 19 21 20 17 13 26 6 17 9 17 25 17 16 12 20 16 17 10 24 13 14 19 9 19 11 24 9 13 6 17 12 20 7 24 17 16 19 35 20 23 20 13 24 19 10 16 21 14 20 20 24 17 12 10 9 14 12 17 9 13 16 15 23 24 17 24 23 28 23 22 17 6 17 19 15 20 26 6 16 9 16 38 13 18 13 17 14 13 27 24 16 17 10 13 15 3 23 23 23 20 36 17 12 20 10 13 10 9 3 13 20 10 27 16 23 33 27 31 16 31 18 6 14 16 13 14 7 23 27 13 17 23 13 17 7 6 21 20 23 20 17 30 15 16 25 24 12 16 34 13 17 31 28 14 6 17 3 23 20 9 21 13 21 20 28 9 20 18 27 31 38 9 28 13 10 10 29 14 17 16 6 24 28 13 10 10 19 7 17 18 17 7 16 27 23 14 28 28 3 17 10 3 20 20 28 23 10 3 20 36 9 9 10 21 20 10 16 11 20 7 24 23 24 20 16 23 20 13 20 10 6 20 13 17 20 20 7 24 3 12 17 7 20 10 13 21 20 13 9 18 20 17 23 14 31 24 17 17 17 34 6 15 17 27 13 6 17 13 16 14 14 7 3 27 17 20 9 17 10 14 21 10 25 16 12 10 9 10 13 20 16 24 25 3 31 10 10 9 3 14 12 24 18 16 14 10 30 20 20 18 13 10 30 9 14 13 20 27 23 15 19 20 20 10 19 8 17 13 13 16 13 27 6 17 21 20 9 13 13 16 6 10 7 10 28 16 34 22 10 13 16 20 32 20 16 16 14 17 6 13 13 19 10 17 22 25 17 7 20 13 12 10 3 20 17 3 14 24 17 13 19 13 11 20 31 17 14 17 10 34 17 10 20 10 24 13 10 14 16 13 25 20 9 31 32 20 23 13 24 22 7 17 23 10 3 30 28 27 26 12 3 24 20 13 20 18 14 33 20 17 13 19 20 9 34 13 13 14 21 10 17 13 24 19 13 10 10 21 7 14 10 24 13 19 9 22 23 7 3 20 12 10 25 17 14 17 9 15 22 6 23 6 9 12 17 16 29 14 22 25 14 22 15 23 20 12 20 17 20 27 17 23 14 23 13 25 32 5 10 27 14 13 10 16 0 16 10 16 14 16 13 23 24 13 13 20 25 17 20 6 16 8 17 12 6 7 31 21 27 20 3 17 20 20 3 23 24 21 10 21 10 11 30 13 24 30 24 3 13 13 16 17 3 24 20 31 14 26 16 23 24 7 17 20 16 10 31 14 21 13 7 24 27 23 24 26 17 13 13 24 20 12 38 23 6 16 26 28 9 10 24 21 17 19 19 7 6 13 24 20 15 29 17 12 25 21 20 18 17 17 19 17 13 30 6 10 24 10 17 17 16 10 22 0 17 21 14 13 10 24 24 6 19 13 30 16 9 26 14 17 17 13 14 13 0 3 25 9 24 14 7 24 3 13 7 14 24 16 19 16 6 13 0 13 22 9 19 6 6 6 3 13 10 9 24 9 17 23 20 20 17 16 12 26 20 3 23 20 20 14 35 17 19 13 17 13 24 16 9 29 20 26 23 10 17 20 27 10 9 17 14 6 18 24 9 18 17 17 31 20 23 24 24 17 17 31 24 31 16 23 13 31 24 13 13 9 13 13 13 13 24 17 17 30 17 10 13 13 17 22 17 37 10 13 6 31 13 10 13 27 24 19 10 6 24 20 14 17 17 14 31 14 20 20 7 11 20 28 9 12 13 18 13 20 23 15 19 9 12 21 6 17 0 24 13 21 13 10 14 17 13 3 12 21 23 25 17 16 17 21 13 6 21 24 10 13 20 17 26 20 24 14 14 13 24 13 33 13 30 17 14 17 24 13 0 13 14 18 17 23 22 20 17 10 34 14 13 23 31 16 10 16 28 13 20 17 20 12 13 27 14 21 21 10 10 17 28 21 16 24 13 18 10 23 24 16 13 13 9 14 27 7 17 10 10 11 0 21 17 16 21 10 19 16 17 15 28 14 17 9 23 13 12 13 14 34 20 16 13 6 17 3 16 17 17 3 8 23 9 14 12 15 9 27 13 7 13 19 14 20 20 30 23 13 24 6 17 6 13 23 24 7 24 0 10 17 20 17 15 31 12 14 17 10 6 13 9 21 27 17 13 17 17 21 14 38 30 10 6 16 9 10 7 9 16 22 12 23 10 13 17 27 9 16 10 10 19 16 21 16 14 23 6 14 24 13 35 26 17 28 13 19 6 28 27 10 20 12 9 16 10 7 21 16 27 17 24 14 23 17 22 20 24 26 14 16 14 17 13 10 3 11 0 20 27 17 24 23 17 15 23 16 13 10 14 15 6 28 6 10 13 13 14 15 22 28 10 16 17 13 20 10 3 14 24 27 31 10 17 3 21 9 13 9 14 20 17 17 27 3 13 19 17 14 13 6 16 11 6 13 31 14 16 20 10 7 20 9 11 15 10 10 14 8 6 20 17 7 34 21 21 16 24 26 10 21 21 18 20 30 21 17 6 17 27 17 14 11 6 27 14 17 24 27 37 21 11 17 12 18 14 10 0 24 13 13 27 13 17 20 20 13 12 16 19 0 10 13 12 21 32 6 20 3 20 19 14 19 16 20 6 23 0 14 20 9 27 7 16 7 0 17 38 17 9 13 7 10 16 13 12 10 20 20 27 6 24 14 10 7 17 16 14 17 19 9 14 24 12 24 9 13 23 19 7 9 24 23 6 24 23 16 24 13 19 7 10 19 13 16 13 9 7 7 13 14 16 7 14 23 0 10 17 14 21 15 20 16 7 24 6 10 23 45 20 16 14 17 10 15 10 21 6 13 16 21 13 24 13 3 11 30 18 10 24 7 10 3 34 9 20 13 28 12 23 13 6 9 30 17 9 13 16 6 13 13 9 22 21 17 24 15 13 27 9 10 21 27 6 6 20 3 27 12 17 10 17 22 15 24 21 13 15 27 13 3 13 20 22 17 23 23 29 17 16 21 9 13 14 20 9 17 16 9 21 20 20 31 24 13 20 10 14 27 11 16 17 17 17 21 17 14 24 13 10 20 20 16 7 16 6 27 17 15 21 16 19 7 13 3 23 23 16 6 31 13 9 0 20 21 15 9 26 15 22 27 20 21 30 17 21 10 13 13 10 23 22 17 16 14 17 24 14 22 16 23 17 17 31 9 10 7 13 7 16 31 12 17 15 24 16 9 13 13 23 7 10 3 6 19 24 29 7 9 10 9 17 10 20 41 17 19 18 10 21 14 7 9 20 21 28 17 18 6 10 17 14 7 6 13 23 17 12 23 15 17 10 13 38 15 20 28 20 30 13 9 17 31 16 3 24 10 26 3 15 19 16 14 13 14 21 15 23 26 18 17 24 6 3 6 19 20 31 13 16 37 14 28 6 24 8 10 10 17 27 19 23 20 14 16 16 16 27 14 10 28 10 23 9 17 6 23 14 17 3 26 13 14 21 20 22 13 17 7 10 9 9 35 27 9 10 14 23 24 13 3 17 7 20 19 19 13 25 20 21 17 27 26 19 10 10 10 14 27 27 24 26 16 13 16 6 19 29 24 20 10 13 19 16 14 24 23 10 23 9 27 20 17 9 20 20 13 10 17 24 7 3 23 13 20 10 19 38 20 34 10 26 10 19 3 13 10 10 17 16 17 20 6 13 6 10 12 16 16 10 7 6 10 30 0 9 7 24 17 34 17 24 16 16 10 14 27 6 19 18 18 11 14 10 27 7 10 23 37 13 11 10 16 17 20 22 20 16 13 16 26 20 3 17 16 9 16 16 13 9 13 16 22 3 14 16 14 20 23 7 10 14 23 34 16 13 7 7 9 28 14 13 6 20 14 26 10 13 24 16 6 26 19 18 7 17 13 9 7 17 10 11 16 23 24 16 21 13 19 16 7 6 17 14 14 10 16 22 17 12 23 20 16 7 24 16 6 27 3 38 10 12 27 25 26 13 15 23 7 9 3 13 14 17 10 21 12 23 23 17 16 20 10 16 31 10 13 20 20 17 26 8 24 21 10 13 26 24 13 20 10 19 18 13 13 21 17 13 17 6 27 20 10 10 10 23 15 7 23 16 13 21 20 17 13 9 19 16 17 16 6 27 24 17 13 23 16 17 34 19 20 24 6 16 7 16 17 13 17 19 23 3 10 23 24 17 17 14 3 31 40 21 11 3 34 10 10 24 29 17 15 24 13 12 19 27 6 17 17 19 20 13 13 17 27 6 10 20 16 20 16 30 27 19 3 16 31 0 25 22 13 16 27 27 10 9 21 27 9 24 13 20 13 0 9 17 7 14 6 16 23 24 7 28 19 26 17 3 17 20 7 6 10 13 13 22 10 19 18 12 3 24 13 21 6 20 6 10 16 13 20 16 21 14 20 19 17 19 29 16 23 10 20 20 24 17 21 31 14 13 33 16 0 17 17 27 17 22 23 23 16 14 24 13 13 32 9 24 6 0 20 33 17 16 27 29 3 3 23 7 21 27 34 9 16 10 21 17 24 20 3 15 20 6 20 9 13 17 20 13 20 20 17 20 16 12 10 23 19 16 20 16 17 10 16 17 38 15 0 13 10 20 23 29 14 13 10 28 9 10 12 17 19 10 0 22 20 22 13 23 21 23 3 10 12 19 28 10 26 24 24 14 13 24 13 17 23 10 13 23 17 10 20 15 7 7 33 10 6 27 20 14 16 23 9 19 27 27 19 19 6 13 6 31 20 24 13 13 14 30 27 28 3 27 14 23 14 19 27 12 17 14 22 15 19 21 10 13 20 16 15 10 17 15 6 14 34 17 26 6 12 10 7 13 14 22 28 16 16 24 8 10 14 10 20 14 13 12 16 13 17 30 23 25 12 13 22 7 9 7 13 10 20 13 10 26 17 13 17 6 20 31 24 0 19 20 11 24 20 14 12 17 27 27 24 19 16 31 27 13 10 13 16 14 26 9 24 12 16 31 14 9 17 24 13 10 20 17 10 23 24 14 12 10 14 27 7 17 20 9 22 9 14 23 36 7 13 7 19 10 3 24 23 28 13 10 20 10 30 20 34 20 24 13 9 22 24 12 20 21 16 20 10 13 10 13 13 9 20 14 17 3 6 21 28 13 19 16 21 10 20 6 12 18 21 17 31 13 17 3 17 7 23 24 19 7 19 6 3 13 24 9 6 24 26 14 17 22 17 16 10 17 10 6 22 20 10 33 19 10 20 23 17 30 6 15 34 23 27 17 17 35 26 10 21 20 22 6 24 23 14 19 16 13 10 28 6 19 31 7 14 13 38 35 13 9 24 14 30 13 14 6 21 42 7 24 13 22 9 21 10 21 14 34 24 6 23 31 9 9 23 10 6 13 24 38 20 23 6 31 13 3 9 16 6 24 17 24 12 14 24 6 37 9 17 9 26 10 20 43 23 13 14 10 17 22 27 25 17 6 23 0 13 24 23 17 10 13 18 23 14 30 13 26 23 20 23 14 17 27 14 9 35 13 20 14 10 36 13 20 14 16 14 23 13 17 17 30 10 26 20 23 12 15 30 10 19 24 13 16 17 14 31 10 17 16 9 27 20 0 17 7 27 9 30 7 24 16 10 14 10 21 35 3 35 7 16 17 27 17 7 20 3 9 17 10 16 9 38 23 18 6 13 16 10 20 9 20 16 7 16 10 13 33 10 16 0 10 19 9 45 15 26 17 9 13 10 24 6 23 17 13 27 27 11 16 25 31 17 7 14 17 3 24 20 27 17 14 20 23 14 28 19 7 23 13 13 4 9 25 20 3 21 17 9 17 11 9 14 6 27 17 10 22 10 10 13 14 23 17 14 9 13 16 14 27 34 7 17 24 6 8 20 14 17 10 6 23 20 3 12 35 13 16 15 13 24 18 20 24 23 22 14 23 9 10 16 20 10 24 21 12 9 3 27 21 17 20 21 13 22 27 21 10 23 28 3 27 10 16 16 17 34 3 19 13 10 24 12 24 9 20 28 17 12 13 20 22 31 21 13 13 23 7 17 34 21 16 24 20 27 24 9 24 20 13 20 13 3 26 20 12 22 6 3 20 23 31 6 23 19 16 16 20 10 13 13 23 17 6 28 12 16 24 15 30 3 13 19 14 16 10 10 23 6 12 27 23 19 23 24 26 20 10 16 27 21 26 35 21 13 6 9 10 16 23 10 0 20 34 9 10 27 12 17 23 17 20 10 19 12 9 10 20 13 14 27 31 16 14 16 16 3 19 13 13 28 6 17 30 17 21 23 14 15 24 17 12 17 10 22 21 6 16 28 9 27 19 17 34 13 20 20 17 13 30 7 10 18 24 26 19 13 11 13 13 21 16 10 33 27 12 27 28 16 17 13 17 23 21 58 6 20 13 21 10 6 21 16 0 16 16 10 6 13 14 27 35 7 6 20 10 17 24 10 17 16 14 9 13 3 12 18 10 10 10 16 6 20 17 19 27 31 6 28 13 10 10 21 0 6 24 24 20 10 17 17 27 6 19 6 20 23 18 21 17 3 3 3 20 16 16 16 20 27 10 23 14 3 24 13 16 15 24 17 17 29 24 6 6 13 13 19 26 7 23 7 7 17 16 16 3 14 19 17 20 7 21 23 13 7 17 13 14 13 20 16 9 10 7 7 16 15 7 24 10 14 34 16 21 17 9 23 15 19 20 27 38 24 16 17 13 13 13 38 19 34 24 17 10 13 13 3 10 25 26 20 27 24 26 17 17 10 3 3 38 10 19 13 24 6 20 13 20 17 21 27 13 23 16 13 0 23 6 16 6 3 20 14 27 13 19 10 17 9 9 34 9 22 14 17 22 16 30 17 16 13 7 10 15 15 24 10 26 7 15 13 20 17 17 27 6 17 13 9 13 20 20 16 24 6 9 20 14 23 13 27 17 13 20 27 22 24 23 13 17 17 3 24 6 20 20 21 28 15 25 34 16 23 37 13 20 14 9 13 6 10 7 16 30 17 19 17 11 16 14 20 6 23 23 17 21 17 24 14 17 16 19 10 9 14 27 10 14 17 24 24 10 17 10 19 20 20 27 17 23 3 10 23 9 15 15 23 10 17 31 10 19 18 20 6 23 26 21 13 17 11 24 10 9 17 21 10 17 7 3 28 24 16 13 31 16 13 28 21 30 20 6 20 16 9 6 27 12 3 17 16 25 23 10 21 7 24 27 30 24 16 31 6 24 13 20 20 19 27 16 7 9 24 9 16 10 24 0 17 27 17 14 12 14 15 12 17 18 17 7 21 3 10 10 32 16 13 10 17 10 13 14 13 13 13 9 22 15 17 16 14 18 14 39 10 21 28 3 6 0 35 25 19 14 16 20 10 20 10 13 20 24 20 6 13 9 14 20 16 10 15 34 12 27 27 30 23 9 19 21 10 7 3 23 23 20 17 13 24 10 12 10 16 16 10 17 3 13 7 27 29 13 8 26 24 10 10 12 31 32 12 20 12 7 23 10 14 3 31 13 6 26 19 9 17 10 13 9 6 33 13 19 19 13 29 13 24 10 20 13 16 19 13 17 22 26 24 17 27 17 17 26 13 10 24 20 14</t>
+  </si>
+  <si>
+    <t>EXN(0.4643591743746684, 20.40171725978329, 3.966711595149418)</t>
+  </si>
+  <si>
+    <t>30 20 24 23 23 20 18 30 32 24 20 28 21 19 21 20 21 23 27 16 19 28 20 21 20 16 24 20 30 26 23 19 25 17 32 23 26 25 19 19 20 22 26 23 14 24 25 22 23 18 25 28 23 23 19 24 28 25 16 22 25 16 17 29 15 14 27 21 23 23 17 16 23 16 16 18 23 27 24 22 25 21 28 14 21 13 21 12 23 19 27 21 26 20 23 26 22 18 24 23 13 24 22 15 21 20 20 24 26 26 25 17 16 26 29 18 26 28 23 22 12 21 28 16 25 26 26 43 23 25 25 19 31 28 28 16 19 18 27 30 32 25 27 21 21 27 26 22 30 24 21 28 24 22 23 23 11 19 17 22 26 25 17 19 25 19 21 23 23 24 22 15 25 23 30 27 22 19 21 22 20 26 30 26 25 19 22 28 23 22 19 24 18 18 16 13 22 22 18 23 25 18 11 28 23 25 24 27 21 21 18 18 22 19 27 26 20 24 20 23 18 20 18 26 18 17 18 20 21 23 29 16 30 16 22 21 14 16 22 23 19 21 23 16 23 20 28 23 21 19 27 14 28 25 22 19 20 26 21 20 28 18 29 27 19 27 17 16 17 27 27 14 25 21 26 26 21 24 21 21 22 28 22 23 20 24 31 21 26 18 16 15 22 19 23 21 29 28 26 28 20 24 20 22 13 27 23 21 27 28 24 23 22 20 20 29 10 13 15 24 21 31 27 23 28 27 26 27 19 18 28 23 29 26 22 30 31 21 19 16 19 27 24 29 26 17 24 21 22 32 19 25 28 17 21 28 24 23 18 25 17 15 28 19 27 19 19 26 23 22 23 23 23 24 22 27 26 22 23 25 14 18 27 23 20 30 26 25 30 24 19 17 23 25 16 23 17 31 21 19 21 26 20 17 28 24 25 26 21 26 25 30 30 30 28 29 30 21 26 27 27 24 19 25 29 21 21 25 14 20 21 19 17 21 23 21 27 29 24 24 23 22 19 18 17 26 28 16 22 35 18 14 21 26 23 17 24 17 21 25 23 19 25 17 31 17 19 30 18 24 21 25 18 27 22 23 20 18 30 22 17 18 19 20 18 21 21 27 15 27 17 24 27 24 25 18 24 24 23 28 22 22 17 28 22 25 23 18 25 29 20 30 11 30 28 24 21 18 17 23 24 17 23 21 25 18 20 21 18 24 22 18 25 22 21 15 28 21 20 15 17 26 17 25 20 23 23 25 21 19 23 15 28 15 23 22 15 21 32 26 24 18 27 24 24 21 22 25 18 27 25 21 25 21 20 25 29 35 25 27 29 18 11 21 31 14 15 24 24 21 21 25 23 21 18 16 29 29 21 19 19 20 25 19 21 17 22 26 29 21 26 30 27 27 32 17 23 18 17 23 25 25 23 19 24 25 19 20 27 27 20 21 19 22 25 28 27 22 20 18 28 17 18 21 16 17 22 23 20 20 26 20 24 25 29 23 25 22 21 23 20 22 17 20 22 25 22 25 22 20 16 24 14 17 20 20 23 20 23 12 27 25 27 24 21 16 24 16 25 21 16 23 21 16 16 20 27 15 21 19 27 21 25 24 24 23 28 21 28 30 32 21 17 23 27 23 29 24 29 23 21 19 24 24 19 32 20 19 26 22 23 24 15 20 21 22 16 22 30 20 22 16 21 21 19 26 23 26 19 25 22 22 23 25 18 17 19 20 20 20 21 21 24 16 27 16 21 17 24 19 27 18 22 25 24 18 18 16 22 23 20 22 23 20 19 26 25 20 30 19 29 23 25 23 21 24 27 20 28 18 23 24 19 25 26 17 20 23 25 28 30 24 22 22 23 17 19 16 30 16 19 27 16 23 19 27 26 25 21 22 23 22 19 21 25 17 16 16 19 17 18 22 19 25 22 28 16 29 15 25 21 23 17 22 28 30 14 32 20 16 22 24 27 28 21 21 20 24 24 22 23 16 19 27 22 17 18 26 23 21 26 29 21 20 26 19 29 31 19 21 23 27 26 23 19 22 21 24 22 20 11 26 19 26 25 21 30 14 30 25 21 21 19 21 24 25 24 19 31 23 20 25 28 29 28 26 21 18 21 24 20 10 20 35 25 23 22 21 29 25 21 27 21 30 19 19 18 18 24 27 17 26 32 16 16 26 15 21 28 25 18 20 23 18 20 27 21 24 21 21 32 24 30 23 20 18 23 27 14 17 20 32 20 25 17 21 19 18 24 25 18 30 19 30 33 28 28 23 17 25 18 30 25 25 25 26 29 20 39 20 24 12 19 22 26 22 22 15 17 19 18 22 20 18 25 26 25 16 22 26 23 24 26 26 25 27 20 22 24 27 19 28 16 20 19 18 17 21 23 28 19 23 25 24 21 30 29 32 22 23 25 28 20 25 20 18 23 24 22 21 28 24 18 21 14 25 15 24 21 22 21 25 23 19 26 22 29 16 20 22 24 22 24 17 15 24 15 22 23 19 19 21 18 22 24 17 28 21 20 18 31 25 26 21 21 25 20 21 23 21 12 26 21 23 28 23 21 17 20 21 20 19 29 21 26 25 22 20 20 34 22 24 33 18 26 20 19 30 16 22 16 17 27 21 22 22 18 20 31 14 20 18 28 20 26 30 25 22 30 16 33 26 24 21 15 23 14 25 22 28 21 24 28 17 22 18 27 18 25 20 26 21 17 30 22 18 24 13 18 30 25 24 24 13 22 21 25 25 23 20 22 25 20 33 15 18 24 20 26 17 19 28 34 17 18 28 26 23 16 24 20 22 20 19 22 15 19 25 24 27 22 21 18 25 20 14 28 25 27 23 18 22 20 23 26 32 16 18 20 17 27 16 25 15 25 23 21 25 22 19 21 26 19 18 20 24 15 21 16 23 30 20 22 22 23 24 22 20 19 19 19 16 22 27 18 28 13 22 19 19 27 19 23 26 20 22 21 30 23 25 22 26 24 21 23 24 22 23 17 32 13 22 25 23 32 16 23 21 22 22 26 15 28 24 18 18 27 20 22 21 27 18 27 24 19 18 23 26 16 25 29 19 16 15 32 25 24 15 27 31 22 13 26 25 22 15 27 28 24 21 17 24 13 27 28 15 22 30 20 15 18 21 20 20 28 26 23 27 22 19 20 23 20 20 21 22 21 25 27 20 25 27 22 19 19 24 23 28 17 21 26 19 23 25 22 23 27 19 21 28 24 25 21 22 21 14 21 21 20 20 30 25 26 21 21 25 27 32 17 25 22 18 24 23 16 25 24 16 21 24 24 26 22 15 21 25 20 22 29 16 9 20 19 14 27 16 23 23 22 23 25 31 17 21 21 25 21 24 19 16 26 18 16 23 31 27 19 11 19 23 24 30 30 22 16 18 15 27 26 20 18 23 24 21 25 26 26 20 29 22 24 21 26 25 25 22 15 21 19 22 24 23 22 27 26 20 26 29 36 23 17 21 23 25 20 28 14 25 25 17 29 24 29 22 28 19 22 20 18 21 19 22 17 23 22 18 25 22 31 25 18 22 23 19 23 20 23 25 25 25 21 29 27 21 19 23 16 26 14 22 16 19 30 26 23 27 22 26 23 22 24 24 23 29 24 16 21 18 20 20 18 19 28 20 12 20 29 26 24 17 25 21 27 22 22 21 18 22 21 22 22 25 21 20 13 24 23 24 21 25 19 25 20 24 25 14 21 25 25 19 23 22 25 27 23 23 27 21 25 23 18 21 18 23 22 19 22 19 20 29 23 20 22 26 26 18 14 27 23 24 26 17 17 24 20 25 26 20 25 20 26 29 19 18 22 15 23 23 18 19 28 15 20 17 15 25 23 31 23 22 18 23 26 20 22 26 21 17 31 17 26 32 19 19 23 20 17 20 22 22 32 23 27 23 27 21 17 27 22 26 35 10 21 26 17 26 26 22 24 22 18 17 23 18 20 12 20 19 25 26 23 23 22 27 21 26 21 26 23 18 19 16 16 21 22 18 20 21 25 17 26 19 28 28 25 17 19 16 26 19 27 24 22 20 23 24 20 22 26 30 22 20 23 32 24 16 24 16 22 17 17 26 16 20 27 28 23 21 15 20 27 23 24 17 22 22 17 22 26 16 26 24 27 24 18 17 14 23 29 25 22 21 26 25 21 20 18 26 22 21 20 28 20 27 21 21 18 25 26 23 23 14 21 26 11 23 15 21 26 24 15 21 27 31 23 16 22 30 19 18 23 22 22 19 14 32 29 21 13 21 21 12 29 18 24 22 21 24 18 30 18 15 25 19 19 17 26 25 24 27 17 19 20 23 18 18 24 25 26 30 15 28 20 23 25 26 20 21 23 22 19 22 20 22 19 31 19 19 16 22 21 17 25 16 11 23 17 21 29 33 24 20 11 25 20 22 23 23 23 24 23 28 27 24 24 14 20 20 18 22 21 23 17 26 20 22 19 22 32 27 23 17 20 20 20 25 17 22 30 18 18 26 22 25 20 28 14 23 21 25 18 21 22 25 30 24 23 25 22 28 22 18 18 22 24 22 24 20 18 26 21 20 24 28 29 23 25 25 23 17 16 22 17 24 19 26 21 24 25 18 28 24 22 29 32 14 22 24 21 26 20 20 21 20 12 26 21 17 29 17 29 20 32 17 14 19 16 21 24 14 20 15 32 32 18 18 14 21 23 22 14 17 22 21 28 32 20 25 20 17 20 24 20 28 21 23 23 24 33 22 17 21 25 20 22 19 22 23 28 24 12 20 24 20 21 26 13 26 30 25 21 19 19 20 31 29 17 23 24 22 29 20 25 18 25 30 16 22 20 26 9 25 24 28 21 17 32 26 22 20 27 19 20 14 29 26 23 15 25 20 24 17 21 21 21 23 22 28 30 22 24 16 18 27 21 24 24 23 24 25 22 18 27 25 21 24 23 20 21 14 29 22 20 24 25 16 30 28 22 26 24 26 25 21 28 20 21 16 17 18 26 22 23 27 26 27 20 25 22 27 27 21 25 26 15 20 20 19 21 20 27 18 21 26 24 16 20 24 27 18 18 21 19 27 25 25 27 17 19 20 21 20 21 26 25 25 19 28 22 19 20 22 24 12 22 26 21 25 25 17 24 17 26 16 26 16 29 21 20 18 22 24 15 25 27 24 27 19 18 19 18 18 17 30 26 26 30 17 20 16 19 16 20 23 22 25 16 24 25 22 27 16 21 23 16 22 26 27 24 24 17 21 29 20 17 18 27 20 24 23 23 24 20 22 15 26 18 14 14 26 16 22 20 20 19 20 17 21 23 28 21 22 34 26 23 16 25 16 25 19 20 23 26 28 20 18 24 24 25 21 14 19 29 22 20 26 17 23 18 13 16 26 23 21 26 14 18 23 27 22 19 24 16 27 27 22 22 18 18 21 20 22 28 24 15 19 24 27 28 26 21 26 17 35 26 19 19 22 18 20 26 32 18 25 19 28 18 25 20 20 19 24 28 25 21 23 20 19 24 18 25 21 18 22 24 16 14 14 26 22 29 24 26 28 21 23 24 25 25 20 19 24 23 22 16 23 21 25 21 11 20 23 23 22 27 29 20 27 17 17 23 24 23 18 25 23 22 16 16 21 17 18 21 23 27 17 24 21 21 17 19 27 22 17 17 29 23 22 29 24 20 18 24 16 27 19 23 28 21 20 19 28 26 20 18 24 20 19 28 11 27 21 29 25 19 21 24 19 20 27 27 25 23 19 16 22 20 25 25 17 16 20 21 24 21 23 21 23 27 15 18 32 22 18 28 17 20 30 27 30 27 17 25 21 15 23 17 27 17 17 17 26 20 21 19 27 16 11 31 19 21 32 16 21 23 29 25 21 27 24 25 23 24 26 18 25 22 13 28 27 20 26 23 19 21 22 21 25 24 22 21 24 14 21 23 19 22 21 20 20 15 23 23 28 27 27 24 20 22 20 23 21 16 17 16 29 23 22 22 19 17 27 20 21 25 20 22 19 22 28 15 23 16 16 21 25 21 23 24 18 22 24 19 22 20 15 17 24 22 28 24 27 26 20 25 17 29 15 19 29 23 24 26 20 19 16 23 18 22 23 25 15 19 16 24 27 15 27 28 20 26 26 28 27 15 24 9 14 27 20 20 23 14 37 22 23 19 19 17 29 28 20 25 26 20 22 16 22 18 21 20 18 25 25 24 22 25 15 28 22 25 26 25 22 19 20 22 20 20 17 22 18 20 18 21 29 30 25 19 22 33 30 23 30 17 16 21 8 26 29 23 27 22 24 20 25 26 27 24 16 26 24 28 23 19 24 17 24 24 19 19 19 19 25 21 18 33 24 30 23 20 21 20 24 21 19 24 20 15 16 18 22 27 22 21 19 22 23 24 17 22 17 20 23 27 18 27 22 22 25 24 21 24 19 24 27 17 16 27 21 27 21 21 24 18 22 30 25 24 24 22 26 20 26 16 27 24 21 25 20 26 22 22 20 20 30 29 32 22 16 28 10 28 23 26 25 25 18 25 20 19 22 15 18 13 15 23 24 27 18 22 25 30 24 22 24 18 26 21 29 26 23 25 21 22 24 16 23 22 18 26 16 22 19 31 21 21 32 22 17 23 23 23 22 24 26 19 19 23 20 22 21 25 22 22 14 15 24 21 22 28 32 18 20 32 20 19 20 17 23 16 14 15 22 29 23 31 14 22 22 17 16 22 21 28 24 24 19 19 24 27 15 21 21 16 24 18 22 23 30 30 24 22 20 23 19 23 21 20 22 29 17 19 23 20 25 21 21 22 23 32 27 18 21 20 18 14 29 23 27 26 23 28 17 18 28 24 21 18 25 26 19 25 21 25 22 29 30 23 23 18 22 24 24 21 18 23 16 26 23 23 16 23 22 13 25 22 23 19 20 26 25 23 26 24 19 20 25 29 19 22 18 23 14 24 21 21 26 10 25 15 24 23 25 19 18 23 22 21 12 28 21 24 28 24 23 19 23 17 18 13 18 17 20 11 20 28 27 13 18 16 20 24 18 25 27 26 19 26 24 24 17 25 23 18 18 22 16 32 24 19 20 12 23 28 26 34 17 28 19 20 23 32 26 30 21 23 17 24 26 26 24 18 28 17 23 24 25 29 19 19 21 26 23 21 19 16 31 22 16 25 29 18 21 20 24 28 22 20 25 16 22 25 17 13 21 28 19 17 25 22 23 22 27 27 19 27 24 22 16 22 24 20 22 15 22 34 24 18 21 28 23 23 20 25 24 27 20 19 23 18 24 29 22 28 19 21 23 30 17 16 13 17 13 21 22 12 25 25 20 25 19 20 27 16 28 12 26 23 21 12 30 20 28 26 25 27 23 19 22 20 20 19 40 24 20 20 26 21 42 29 23 24 30 23 26 25 18 19 26 17 16 19 23 14 15 23 21 26 27 31 15 27 24 23 23 15 23 23 19 21 22 30 26 19 17 19 23 24 19 25 23 15 16 23 23 24 28 23 26 22 20 31 23 27 17 23 18 19 15 28 22 23 24 23 20 19 23 22 24 24 17 19 21 17 19 23 23 24 26 11 25 29 26 18 19 23 24 25 18 17 27 21 18 25 16 33 25 20 19 24 28 19 25 26 21 17 29 17 23 8 31 20 25 18 28 17 18 17 33 18 19 23 22 21 26 20 25 29 28 20 22 28 17 35 22 23 22 33 20 21 22 19 16 21 22 19 16 25 17 23 24 25 30 22 28 16 18 20 24 30 20 27 31 31 17 18 29 23 21 25 25 29 16 20 17 19 25 24 27 29 20 19 25 26 31 26 26 21 15 21 20 23 23 25 27 27 21 25 22 26 20 23 21 28 17 17 21 20 21 24 24 24 30 22 22 12 15 23 20 23 22 23 24 31 17 22 19 20 30 27 13 20 27 19 29 14 24 25 21 27 22 24 24 29 21 22 33 20 14 25 17 26 27 18 26 27 14 17 22 20 24 17 19 13 19 22 24 34 20 20 15 28 17 21 25 24 27 21 23 26 29 24 22 24 31 20 19 24 28 21 32 20 18 19 17 20 23 27 23 19 16 19 15 30 25 19 25 25 27 19 25 28 24 18 21 19 19 17 15 22 21 19 20 20 16 29 26 17 19 23 22 27 23 17 19 19 28 17 13 20 22 16 13 16 12 17 19 20 25 24 17 28 17 26 20 18 13 20 25 18 21 24 19 23 21 27 24 27 27 23 21 17 13 21 23 20 20 23 19 14 26 27 25 16 25 27 19 14 23 23 20 27 22 25 21 17 26 21 19 25 20 23 25 15 21 23 25 28 24 22 24 21 24 25 23 12 23 17 22 21 26 28 20 20 28 23 27 16 24 27 22 20 22 25 21 25 18 21 19 24 27 17 26 21 29 15 28 24 25 23 17 30 16 24 22 23 29 21 27 22 23 26 15 29 17 21 18 18 31 23 23 17 28 16 20 24 22 20 17 24 17 21 26 20 25 15 28 27 14 23 17 12 19 18 25 14 24 24 21 23 25 23 23 25 26 31 27 24 25 21 22 13 25 20 26 29 21 21 25 24 18 15 20 20 24 22 22 20 15 27 28 20 21 16 22 23 22 32 25 21 32 17 23 29 22 28 29 29 22 20 18 17 21 27 25 24 25 23 22 22 23 25 29 22 28 18 22 24 20 31 24 26 29 29 24 27 22 29 21 19 14 16 19 13 22 24 22 24 12 22 24 29 21 34 19 24 21 26 20 25 23 28 24 23 18 25 12 16 23 20 18 20 19 27 17 23 26 21 16 11 23 16 22 24 24 19 16 23 27 18 30 31 22 23 27 27 27 22 25 22 22 33 26 28 26 20 20 26 26 24 32 22 22 23 27 26 22 20 21 15 25 25 30 16 15 16 28 27 21 22 29 24 18 14 27 19 23 18 24 26 15 28 22 17 26 21 32 28 14 18 27 14 32 24 19 28 25 27 18 22 21 23 20 32 19 16 23 24 18 28 17 23 23 28 17 25 23 29 23 30 31 17 18 26 22 25 22 27 20 31 25 20 21 27 24 19 21 27 20 16 26 20 27 21 17 17 22 28 22 25 21 26 25 20 20 27 19 25 24 19 28 28 18 28 19 27 23 31 26 23 18 22 27 14 29 23 27 26 25 30 17 20 22 18 27 14 12 22 25 20 25 19 20 24 24 29 24 20 23 26 20 22 20 27 19 22 24 21 23 13 23 16 22 14 21 21 21 18 27 25 14 16 24 25 26 23 15 16 20 22 23 22 19 22 28 19 20 22 22 26 19 20 21 19 34 18 22 21 29 20 22 27 21 18 28 22 22 25 23 22 18 21 17 21 19 23 20 25 25 29 23 14 24 24 14 24 25 29 27 24 19 26 20 27 24 26 27 28 20 19 25 18 16 25 15 20 24 21 19 26 12 21 20 19 25 13 26 22 25 24 29 22 23 26 19 17 21 28 24 24 30 19 17 28 22 20 25 24 22 28 17 21 21 20 21 19 24 14 14 23 21 21 16 23 17 20 19 23 18 25 24 22 24 22 28 19 24 26 21 28 18 17 25 20 16 25 19 18 17 18 25 19 23 21 36 15 19 27 19 32 25 25 23 24 28 28 19 25 26 21 21 15 28 16 18 30 37 25 20 24 19 17 33 16 28 28 23 23 24 21 22 33 18 25 29 26 21 18 26 24 25 26 23 27 24 28 25 20 29 22 18 27 26 25 28 25 23 25 28 19 20 15 26 19 21 21 25 15 23 24 16 20 24 17 24 17 18 22 24 25 23 18 23 23 29 25 22 25 29 22 18 17 18 17 21 22 17 25 25 25 17 25 22 21 29 24 20 17 21 22 19 22 23 13 29 27 18 26 22 27 18 22 20 20 26 20 18 36 22 29 25 31 16 18 24 17 20 22 21 26 17 14 23 25 20 16 25 14 26 30 23 23 19 24 16 21 16 25 14 23 23 24 25 19 19 25 26 27 26 22 21 25 31 24 26 21 15 20 21 27 24 23 22 25 19 28 20 20 27 21 25 24 20 15 14 17 18 20 17 25 34 26 26 20 27 23 24 29 19 27 20 27 19 21 34 23 32 29 27 19 20 30 26 25 23 25 21 16 22 19 25 29 27 26 18 26 21 23 21 19 15 24 21 21 24 20 18 28 21 15 19 18 18 19 26 26 23 24 26 20 25 15 23 25 24 19 19 23 20 15 20 28 25 20 22 19 19 15 23 17 20 23 21 28 21 21 23 22 19 16 20 21 18 29 26 27 23 24 24 28 23 16 21 14 24 14 14 16 25 19 23 22 23 14 20 16 22 18 22 22 24 26 23 20 22 27 16 27 22 26 23 21 30 26 21 15 32 16 32 18 23 26 22 27 19 22 24 33 23 24 22 26 14 17 22 18 21 16 24 16 17 26 21 19 14 22 27 18 28 26 29 13 23 20 17 28 14 24 28 21 24 23 20 24 23 19 24 22 31 15 24 15 26 26 16 18 29 19 23 20 26 25 30 22 22 25 21 16 24 29 22 23 29 16 16 24 15 29 22 17 21 24 22 15 16 19 24 18 24 22 26 20 28 19 25 11 23 13 24 19 24 20 19 21 22 24 22 21 26 21 27 28 16 17 16 19 23 16 21 22 20 26 21 17 23 22 15 25 24 19 16 30 19 19 23 18 17 19 23 19 16 25 23 20 24 28 21 22 19 19 20 21 21 19 21 23 22 23 26 26 29 19 26 26 25 21 24 22 22 26 18 21 26 26 28 22 20 25 22 27 17 27 21 24 20 18 22 25 24 22 19 19 23 31 24 21 27 21 26 24 23 23 26 26 20 26 20 29 24 21 25 23 22 31 27 21 17 25 14 26 21 27 23 26 23 33 25 17 28 23 25 19 17 32 24 28 29 16 27 25 16 21 28 21 22 16 21 20 24 32 24 28 25 23 26 24 19 18 24 23 21 19 18 27 18 16 22 22 26 21 22 23 14 18 22 25 19 20 17 32 13 20 21 32 11 27 20 28 19 29 17 23 16 21 28 24 17 25 30 23 21 18 22 23 26 25 40 18 32 23 21 24 20 27 22 23 18 19 18 25 26 21 20 20 30 16 21 20 21 25 22 27 22 27 21 26 27 18 14 24 25 29 25 25 16 25 18 23 15 25 21 21 26 22 16 21 28 23 24 12 24 27 21 19 27 25 25 27 21 25 22 27 18 16 27 13 21 24 22 23 28 25 29 16 14 30 20 19 25 19 26 24 25 21 19 27 18 23 22 20 22 20 17 24 26 22 24 22 25 20 23 18 24 22 27 17 21 21 25 19 18 24 15 22 26 26 18 14 18 15 22 15 18 20 25 31 16 30 26 17 26 22 23 22 22 19 16 23 24 19 23 19 25 25 28 20 23 24 17 24 26 28 20 19 30 14 18 25 22 23 25 18 28 25 18 21 23 22 27 18 24 29 16 24 15 15 32 25 23 24 18 26 23 22 24 18 32 28 13 23 21 27 27 31 24 22 29 24 23 23 15 25 22 26 28 19 17 31 15 22 18 21 26 17 25 24 24 21 29 22 19 21 30 25 23 24 25 24 27 15 23 24 17 29 26 21 19 36 21 30 26 18 25 15 15 23 25 16 19 16 18 31 27 23 21 26 30 24 26 26 30 15 17 25 21 24 20 22 24 30 19 22 28 22 31 25 35 14 31 26 25 21 16 18 17 18 22 21 29 21 21 26 27 25 27 29 19 21 32 17 17 15 23 23 23 29 23 23 19 26 21 37 17 18 27 24 26 30 13 28 25 14 22 27 21 26 25 26 17 24 24 21 23 17 25 30 22 23 26 25 21 22 26 27 26 16 25 30 25 26 14 23 23 21 23 26 22 27 15 24 18 14 22 25 29 28 31 23 23 23 17 19 30 26 23 23 18 18 22 29 23 21 23 21 15 24 27 16 25 23 25 27 17 26 30 20 20 25 26 14 25 14 17 25 21 22 18 22 18 20 23 20 22 23 17 16 23 27 23 26 24 21 22 28 23 30 18 27 25 22 15 18 20 23 26 22 20 21 20 30 26 31 16 21 11 20 22 23 21 25 23 21 17 27 28 20 16 21 30 24 22 26 21 32 24 19 19 21 16 26 18 18 18 25 16 21 16 23 34 20 19 24 20 19 22 21 22 16 23 21 26 27 31 23 13 25 23 25 22 25 19 28 25 26 26 25 36 25 20 25 29 17 26 20 28 25 20 18 21 22 23 23 24 25 25 22 21 30 27 18 18 21 19 27 25 28 20 22 23 26 20 20 17 22 24 20 21 19 19 14 18 23 20 30 31 25 26 26 21 20 25 22 26 19 23 21 21 24 17 19 18 21 27 23 27 22 20 19 18 25 19 24 18 20 24 23 24 21 22 18 28 22 25 26 26 18 16 26 21 23 34 15 15 23 34 27 16 24 26 22 19 19 27 22 20 28 25 29 20 22 24 19 22 22 23 19 24 23 16 29 18 16 26 22 28 24 20 20 24 30 24 36 19 21 23 22 27 24 16 20 21 19 24 20 20 19 21 31 19 18 22 24 27 24 21 27 24 18 17 18 31 27 18 17 17 23 25 22 21 28 29 19 27 21 21 26 23 19 25 21 30 18 28 18 24 26 20 25 27 26 20 19 28 32 27 22 31 27 24 22 27 27 27 25 30 23 21 19 19 21 19 23 18 22 26 20 27 26 24 26 19 14 21 18 19 21 28 25 20 21 23 13 16 22 21 22 27 19 20 18 18 17 22 21 22 21 21 20 24 14 19 22 21 19 27 21 22 28 17 20 29 22 29 21 23 21 24 18 25 25 23 18 38 25 21 18 25 26 23 24 20 20 22 24 22 18 23 20 27 26 21 25 18 19 19 25 23 23 26 20 24 21 25 21 22 19 23 13 20 26 26 21 24 22 15 19 23 28 28 18 17 18 19 26 20 23 23 12 23 31 18 17 28 18 18 14 25 24 29 33 16 24 21 19 19 16 21 22 34 24 20 20 21 22 26 29 21 20 31 22 21 21 23 17 24 19 18 29 17 16 30 24 19 24 30 21 27 24 22 21 27 23 21 26 21 24 29 18 23 31 19 19 23 21 25 23 25 25 30 28 18 24 16 28 25 18 26 25 26 26 21 24 24 19 20 28 19 21 21 16 19 22 17 21 17 23 13 15 18 18 23 27 25 22 28 24 22 22 23 22 19 32 24 27 17 22 29 27 19 22 16 18 18 28 18 22 17 32 25 24 22 28 26 21 25 17 15 21 27 16 27 12 27 22 21 21 22 20 24 19 20 23 25 21 17 29 21 22 24 28 16 25 29 26 22 13 21 18 19 21 22 32 22 26 23 16 25 17 23 22 23 27 23 20 25 22 22 22 20 25 25 28 19 17 20 14 25 13 26 18 20 25 20 19 20 21 21 25 25 22 25 21 9 24 23 18 25 29 23 29 24 19 20 20 22 22 22 22 29 25 27 19 18 15 14 27 25 21 25 19 26 18 25 22 23 25 27 22 24 18 23 25 17 28 21 16 31 28 23 24 29 21 23 24 21 25 21 31 15 26 29 22 24 19 19 20 25 23 25 18 27 22 18 24 18 20 22 23 28 19 22 23 14 13 15 20 22 23 25 23 28 21 17 21 24 22 22 23 23 19 24 25 17 18 15 30 18 26 30 19 28 18 22 22 21 29 21 28 10 10 18 18 21 28 20 25 21 18 21 17 21 29 17 23 20 19 29 22 31 24 27 34 19 18 20 23 15 27 20 22 19 20 27 19 19 20 31 15 20 26 24 22 16 23 15 20 14 20 16 18 23 25 19 21 21 19 24 20 25 20 19 22 17 23 27 16 22 18 24 13 20 21 21 21 17 30 22 22 25 22 20 20 29 24 17 22 20 25 33 24 25 18 28 21 20 26 17 28 28 26 19 23 30 23 21 29 18 20 24 18 25 27 29 19 24 23 20 23 16 22 21 17 27 18 19 21 19 19 20 22 21 19 21 25 23 30 13 28 21 16 25 24 23 24 15 23 21 27 19 29 26 12 22 16 16 24 23 17 19 27 22 16 20 25 26 21 23 19 23 23 19 16 14 22 26 17 24 26 20 23 15 25 23 21 21 26 23 25 21 23 27 26 25 33 23 23 26 24 18 31 26 25 16 22 22 38 21 18 23 19 25 31 21 21 28 21 20 17 27 22 20 19 26 17 25 23 24 20 16 22 26 18 22 16 21 26 26 28 22 30 20 13 40 20 21 25 17 22 20 20 22 18 23 24 21 21 24 23 16 18 19 27 21 20 18 29 26 20 22 23 21 24 21 25 31 23 24 17 30 23 21 25 25 22 21 26 21 19 25 24 17 22 33 26 11 27 19 20 29 26 18 24 35 18 24 26 27 22 32 24 24 16 24 26 26 21 17 29 20 15 28 24 20 16 20 24 20 28 20 21 24 24 18 18 15 23 22 20 17 15 22 21 23 29 23 29 17 18 15 18 21 26 25 19 17 14 22 26 18 12 19 20 26 26 21 21 23 23 21 22 26 27 26 15 13 27 27 22 23 21 31 17 23 31 22 17 15 21 25 23 29 17 25 23 26 20 23 21 29 20 25 30 26 24 21 27 25 22 20 28 23 25 20 21 20 17 26 28 19 25 13 18 20 24 21 19 28 16 17 19 17 19 29 19 18 35 20 17 21 19 18 13 36 17 26 28 24 24 29 24 21 24 24 21 23 22 17 21 22 25 31 21 25 20 23 18 11 23 21 16 33 27 19 25 29 15 24 21 17 19 25 22 27 31 19 19 27 24 21 24 14 28 17 15 12 22 19 19 28 25 36 21 22 21 15 26 25 23 23 20 30 17 28 22 31 22 16 27 21 18 20 18 31 22 12 33 24 21 20 20 13 21 21 22 23 23 26 11 29 25 22 16 24 24 20 27 15 20 20 20 22 19 19 30 22 23 25 27 22 25 24 23 21 16 18 23 22 24 24 24 23 23 25 22 25 16 26 16 21 21 22 18 25 19 18 21 23 21 20 21 22 24 20 18 25 15 24 19 24 21 26 19 28 23 12 17 25 24 26 29 27 19 19 28 25 22 24 18 23 22 29 25 33 21 32 21 26 20 29 21 26 25 28 19 28 19 32 31 32 26 22 24 23 22 22 20 25 23 23 17 18 15 23 20 20 23 22 22 16 21 20 22 23 26 27 17 25 24 24 21 19 29 17 24 25 21 30 19 21 16 20 23 23 27 22 21 25 26 20 18 29 19 25 29 26 24 23 17 22 26 22 27 37 24 22 21 21 18 14 25 26 12 26 24 24 22 21 28 19 19 21 16 22 28 21 21 17 26 21 16 22 18 23 27 28 23 20 19 22 26 27 31 26 20 33 21 20 26 21 22 30 25 21 26 23 26 12 29 19 26 31 20 13 28 20 20 14 23 21 27 15 30 18 31 24 24 17 19 20 20 22 22 22 27 31 28 26 21 21 23 19 33 23 27 28 28 23 23 20 20 20 17 19 24 17 19 21 17 23 20 18 21 17 28 20 20 29 20 22 23 23 21 17 25 22 24 21 24 19 25 28 25 25 25 26 19 22 17 16 23 17 24 21 24 21 26 20 24 25 23 27 27 12 32 18 30 24 24 21 22 23 25 23 18 19 28 22 21 25 18 20 28 26 20 24 29 28 28 23 21 25 22 26 23 15 20 26 28 26 20 19 22 26 27 17 23 29 22 27 21 14 24 24 17 11 26 28 25 21 16 19 16 26 23 23 17 24 28 30 22 31 26 26 35 30 21 23 29 17 19 18 19 23 19 20 32 37 22 19 22 20 21 14 24 17 27 20 23 27 16 20 25 19 21 29 23 19 20 19 27 23 22 29 25 18 23 22 18 25 27 16 31 19 25 25 24 26 20 25 31 19 18 21 16 26 16 32 28 23 22 19 22 25 20 18 22 22 17 22 24 24 26 25 17 23 28 22 20 16 32 21 25 13 28 24 26 20 16 27 18 29 19 26 31 21 14 23 21 17 31 21 30 21 26 23 29 24 23 14 22 26 32 21 20 25 32 23 25 25 25 22 26 24 21 17 22 18 21 24 25 26 22 19 22 37 17 21 24 22 20 25 19 19 19 20 18 23 20 26 23 17 25 25 29 25 18 17 25 25 18 23 23 23 24 28 20 18 28 20 19 21 26 23 23 23 20 22 31 21 19 28 16 20 24 23 26 28 23 14 28 31 20 26 14 24 16 29 26 21 36 26 20 19 18 24 30 19 18 14 29 20 30 22 29 28 25 27 23 17 18 27 26 17 27 22 22 34 28 26 22 22 21 28 21 21 22 17 22 20 17 26 28 19 22 23 21 18 19 24 19 14 26 21 21 27 13 16 20 26 22 20 30 18 18 19 17 29 16 32 19 20 22 25 19 24 31 20 17 24 17 26 26 25 26 24 20 24 21 20 23 25 22 20 15 21 22 20 17 21 17 17 22 22 15 18 33 19 30 18 23 22 18 20 19 19 25 22 17 24 22 20 25 17 21 26 26 17 19 23 22 24 17 21 17 16 22 23 18 20 22 31 24 31 25 25 22 20 26 22 25 18 21 24 23 21 26 21 20 22 24 18 20 19 25 27 20 24 23 23 27 27 24 19 17 18 24 24 19 21 18 20 21 16 25 34 21 19 15 22 13 22 22 29 17 16 24 21 20 22 17 28 29 24 26 17 24 14 19 21 21 20 33 21 23 38 26 30 28 26 17 33 23 22 16 21 24 27 17 23 20 21 18 24 17 18 23 20 23 24 19 23 19 15 12 27 21 19 26 18 25 28 18 19 18 21 22 25 21 24 23 33 31 17 26 18 18 17 24 15 24 26 13 22 24 27 23 24 14 16 26 16 24 24 23 26 22 29 19 24 27 20 27 21 29 20 24 24 14 18 25 24 23 25 16 20 18 16 21 25 25 18 21 25 26 25 30 20 20 16 25 28 26 15 22 24 19 29 16 24 22 17 26 18 25 33 25 19 18 25 23 13 21 21 19 14 18 22 21 25 24 15 18 19 23 21 22 15 19 24 17 19 22 26 21 21 26 17 26 27 26 23 21 23 28 18 17 26 24 15 18 23 25 20 12 26 18 20 27 22 24 29 22 22 23 13 18 22 27 23 27 21 22 18 22 22 18 31 20 24 25 22 23 18 19 18 21 24 23 19 16 14 24 22 19 26 24 15 19 20 16 24 23 22 24 25 22 20 21 30 19 25 17 15 22 18 24 21 19 22 19 23 24 26 26 17 27 20 27 22 22 11 28 28 32 24 19 23 25 23 29 29 12 20 22 25 20 25 28 24 26 22 20 24 29 19 31 24 17 22 29 24 25 19 20 18 19 17 23 21 24 26 18 26 25 26 21 23 25 23 17 15 8 15 16 17 20 15 23 26 19 18 19 14 22 25 20 18 16 25 21 19 20 18 25 17 18 16 23 17 19 29 22 25 29 19 14 18 20 24 29 17 20 25 23 30 18 25 23 23 30 22 20 18 18 19 26 28 24 28 22 28 23 22 21 31 32 22 22 26 15 24 21 17 22 23 23 20 24 18 26 20 18 19 18 23 22 15 23 12 31 21 26 24 18 18 26 23 24 24 23 23 18 18 20 12 26 20 28 16 26 17 24 20 24 25 29 22 22 23 22 20 21 17 15 27 14 20 19 26 20 14 19 23 19 26 23 17 19 26 18 21 24 16 30 18 14 25 25 24 16 26 22 26 25 25 21 19 16 24 22 16 23 18 22 20 15 22 18 19 26 23 15 24 13 11 18 31 17 21 20 22 17 18 28 34 27 20 22 28 20 30 26 24 21 26 20 21 33 17 19 18 19 26 30 17 16 14 26 17 22 18 22 20 23 21 29 23 18 18 23 20 20 13 27 17 28 19 22 27 20 29 15 28 26 21 26 19 27 22 20 13 24 16 24 19 21 28 20 18 24 23 25 20 25 20 25 18 18 15 20 26 22 24 21 26 18 23 26 20 19 24 22 18 24 21 20 34 25 18 27 24 25 17 21 30 24 24 18 21 16 28 23 21 20 27 16 22 13 26 18 18 17 28 25 22 21 21 20 18 19 26 22 23 24 14 26 19 24 14 23 25 22 12 26 24 25 18 27 23 24 23 20 27 21 26 18 22 26 19 28 13 25 24 16 31 24 21 23 24 24 18 27 14 25 24 17 28 15 17 28 25 19 14 20 20 19 25 27 17 19 21 22 21 21 26 15 23 23 23 24 26 18 19 28 24 29 23 20 22 19 20 20 26 28 22 17 25 16 24 19 20 25 21 23 24 26 19 15 23 30 23 26 25 18 25 13 14 17 25 22 21 26 23 15 27 19 20 15 21 24 20 21 26 27 21 32 17 27 25 17 22 30 24 28 21 21 29 20 23 20 23 18 23 29 19 18 23 27 26 22 11 17 20 25 14 20 27 15 27 22 17 25 20 21 25 25 20 22 22 18 23 34 25 23 18 29 24 18 25 32 24 21 25 31 25 23 16 19 24 21 22 21 28 20 18 24 19 31 28 30 18 20 14 22 21 26 21 27 23 23 21 16 19 28 28 26 20 26 20 17 13 26 22 23 18 18 22 26 19 16 21 20 19 30 21 29 25 19 29 29 20 14 32 24 21 27 19 29 19 24 14 17 13 22 16 24 17 23 19 23 23 17 18 18 19 28 16 20 23 24 18 27 21 19 24 25 18 27 23 17 15 25 28 21 21 23 24 25 18 20 25 21 28 20 33 26 25 20 18 20 22 27 20 17 22 24 25 18 23 17 16 15 31 16 24 19 26 18 21 19 23 23 19 21 29 21 20 22 25 26 21 24 18 16 16 26 20 22 30 24 17 21 22 15 24 28 20 17 21 24 20 18 21 21 18 22 28 22 20 20 24 23 21 21 23 31 24 16 24 25 22 23 24 26 26 20 28 19 23 18 21 23 18 30 25 33 19 20 31 30 30 18 23 25 22 20 18 23 25 27 25 20 19 24 27 25 23 23 28 27 25 16 11 22 19 18 26 21 29 17 21 18 29 23 20 21 22 24 23 27 23 15 26 21 19 23 21 18 17 24 20 25 26 20 25 29 15 18 25 22 16 21 28 29 19 17 19 22 23 26 15 24 17 24 21 20 21 18 17 19 14 25 25 24 22 23 24 19 18 28 42 24 18 18 19 24 25 23 20 21 21 22 13 21 27 25 21 23 25 20 28 30 21 31 27 28 24 23 24 25 26 25 17 14 22 22 23 29 24 25 22 18 19 13 29 25 17 21 30 27 20 24 19 18 23 20 23 13 19 17 26 22 17 22 20 20 29 20 14 22 22 21 21 23 19 24 19 16 19 23 19 20 24 19 19 23 19 25 22 18 20 26 17 24 25 19 23 27 23 23 21 26 22 29 28 20 29 27 19 29 21 24 21 21 14 17 32 21 21 17 18 25 19 24 24 17 19 19 23 20 18 25 24 19 13 17 25 26 17 15 23 29 22 17 25 14 28 25 27 23 27 22 25 20 21 25 16 21 23 17 25 19 18 21 16 17 17 25 19 30 17 21 23 18 28 22 22 27 20 22 12 20 31 23 21 20 28 19 24 26 21 19 27 28 14 22 24 30 18 19 15 24 17 27 23 20 26 30 14 18 27 23 25 21 22 24 21 23 21 32 23 22 27 15 24 26 24 20 19 19 22 8 28 25 17 26 25 19 15 21 25 26 21 29 21 18 21 24 13 29 21 22 31 22 26 29 26 19 18 19 27 16 26 21 22 18 22 23 23 15 21 22 18 18 19 20 19 22 22 20 23 23 24 17 26 18 17 19 18 26 16 33 22 22 31 13 19 18 20 30 21 19 19 27 21 19 28 28 17 23 19 28 19 19 25 12 18 18 24 16 21 28 22 21 23 26 24 20 22 20 22 20 24 27 22 15 19 23 25 34 30 25 26 23 24 19 18 17 17 15 16 21 22 21 21 29 21 27 21 26 15 20 21 27 25 23 22 23 24 18 16 26 20 19 19 15 24 29 24 20 32 23 17 18 19 20 16 21 29 28 13 27 23 27 28 19 23 25 24 24 15 19 29 20 19 30 26 28 17 25 22 23 23 17 29 23 31 24 22 19 25 25 22 18 21 26 18 22 19 22 19 20 24 19 16 14 25 23 21 26 23 33 20 19 16 23 24 21 18 19 23 20 23 27 20 19 18 25 16 24 25 28 16 32 25 12 23 25 21 27 17 23 25 23 28 25 22 30 15 18 22 24 25 18 25 24 22 23 21 21 21 28 20 23 23 20 22 21 29 26 21 21 29 32 22 20 26 16 20 22 24 32 16 27 14 19 26 22 14 25 23 20 26 26 24 26 28 25 19 23 26 33 28 19 24 25 23 14 16 21 23 22 35 23 21 20 23 22 25 24 25 16 23 31 25 32 21 24 22 19 28 24 23 24 23 22 25 16 15 23 18 22 17 20 18 24 13 26 28 24 17 29 26 21 18 19 29 19 25 21 22 15 14 23 28 23 17 29 16 17 25 26 22 27 26 35 21 23 17 20 28 14 25 19 16 21 19 25 30 19 15 19 26 22 23 12 20 21 24 21 33 20 18 21 18 23 27 28 27 20 21 13 16 22 18 21 13 23 26 19 21 26 29 21 27 30 17 17 18 24 19 25 20 27 15 24 24 16 25 26 21 20 14 32 33 25 36 21 27 29 16 18 16 25 17 30 20 19 24 23 22 25 22 22 21 23 23 18 24 31 31 26 23 17 22 16 17 25 16 22 24 25 18 15 21 26 19 12 19 23 21 21 27 13 25 25 26 19 29 17 24 21 24 16 25 21 24 20 22 31 20 24 28 25 23 23 30 19 29 18 19 17 22 20 18 18 25 28 16 25 27 24 26 28 23 23 19 18 24 21 18 22 21 22 15 18 26 22 24 18 25 19 16 20 24 15 25 22 21 19 29 26 20 21 20 19 20 17 24 16 24 21 21 26 23 27 15 21 22 27 24 20 34 21 27 24 15 23 16 22 22 29 19 35 24 20 25 31 35 25 20 22 17 17 20 26 27 21 17 21 14 25 24 28 22 21 15 27 26 31 24 21 21 22 20 21 21 22 20 28 28 22 16 23 22 19 17 21 33 19 16 19 31 21 26 25 22 26 40 24 17 18 22 30 27 29 20 19 28 18 23 23 19 21 28 32 15 30 24 22 25 24 17 24 20 25 17 26 30 30 16 19 29 25 16 22 23 19 18 26 23 22 17 24 31 23 30 24 26 22 16 20 16 15 21 25 27 23 16 24 30 23 29 18 24 26 26 20 23 22 21 23 22 22 21 22 30 22 22 24 21 16 17 16 25 19 22 24 29 18 18 16 21 23 37 22 26 10 26 25 17 24 12 30 21 22 19 15 17 24 21 24 29 25 14 27 18 21 24 26 24 22 26 26 21 16 22 22 24 18 11 18 18 20 22 19 23 26 26 13 23 21 25 14 30 22 22 25 27 25 16 26 23 25 14 22 27 23 23 20 22 20 14 19 17 20 24 25 23 21 21 20 22 20 20 18 18 21 23 29 24 24 21 25 16 24 28 28 29 20 15 19 19 13 26 21 21 21 24 20 21 31 17 23 18 24 16 22 22 24 23 18 28 16 22 22 20 23 16 14 26 24 26 36 30 30 25 16 28 33 27 21 25 23 21 27 20 29 20 19 24 24 28 18 23 18 28 17 18 20 27 22 25 27 24 25 18 25 25 14 16 30 18 26 22 25 20 23 18 23 22 23 19 18 24 17 23 19 26 21 26 22 19 21 22 19 26 23 21 23 22 21 25 21 24 24 23 29 19 20 22 22 20 25 25 26 21 26 23 25 28 18 18 22 23 29 28 18 27 27 20 21 24 18 23 15 26 13 32 25 26 26 24 22 24 22 26 22 29 21 22 16 17 15 16 16 24 21 19 23 21 31 18 26 27 22 22 23 20 16 17 27 14 21 20 26 22 27 23 26 16 23 28 24 29 22 24 24 28 17 24 14 32 25 18 19 15 29 19 19 24 23 16 26 21 15 22 18 23 23 19 22 21 10 24 24 20 21 24 21 16 28 19 25 20 19 23 21 33 21 19 19 15 25 23 18 22 20 14 25 21 17 24 27 18 18 32 17 21 31 17 24 20 22 23 18 12 27 18 24 14 24 25 29 24 23 24 16 26 30 25 22 22 35 19 23 22 28 31 19 26 25 23 29 24 16 29 18 24 15 20 19 21 16 22 20 28 24 19 24 20 16 23 19 24 25 26 20 23 24 24 20 20 19 18 18 17 26 24 22 29 21 32 31 27 29 23 19 24 15 13 16 29 22 20 24 25 23 17 27 30 17 22 14 22 26 20 25 25 24 24 26 12 29 15 24 29 25 26 23 18 17 22 32 17 21 29 23 31 17 25 14 15 18 21 19 19 27 16 16 30 27 16 22 22 26 24 24 21 23 29 21 26 27 22 17 21 28 28 24 23 19 18 23 22 23 24 19 14 15 22 29 20 28 28 26 23 16 24 16 21 25 25 26 22 19 21 25 20 27 27 29 24 21 22 18 23 20 17</t>
+  </si>
+  <si>
+    <t>JSU(-2.0993297934179926, 4.675117754667159, 21.49845141828125, 23.300690957143914)</t>
+  </si>
+  <si>
+    <t>39 32 37 32 32 32 27 39 42 36 31 37 34 27 33 29 33 32 35 24 25 36 24 33 30 33 37 30 48 32 36 26 36 34 39 33 34 35 31 31 31 30 40 29 21 30 34 36 35 31 32 36 30 36 31 35 35 31 28 33 36 28 25 42 25 24 41 31 35 33 27 24 39 30 26 28 38 33 34 32 33 31 40 27 32 18 31 19 34 26 36 32 46 25 30 36 29 25 38 31 32 33 31 24 35 30 29 36 42 35 36 27 24 34 41 26 39 36 31 30 18 27 37 27 35 32 36 58 34 40 39 33 45 39 40 23 26 28 46 43 39 33 34 26 30 43 39 31 47 38 29 31 29 32 35 32 20 33 30 37 35 36 23 31 35 28 28 33 34 34 33 33 39 39 43 42 26 33 31 27 29 38 40 37 39 29 32 36 27 29 33 32 31 28 30 24 31 36 29 38 39 24 20 40 31 34 38 36 29 32 28 25 27 34 37 38 28 36 28 31 28 27 24 35 35 27 31 29 40 37 41 23 42 24 31 28 25 29 30 31 25 37 33 27 36 36 41 37 25 30 39 30 34 33 37 25 29 48 37 35 36 29 41 44 28 35 22 27 29 34 40 19 39 28 39 38 31 32 23 31 26 38 33 35 31 44 45 27 40 24 29 25 27 30 39 33 42 37 36 42 28 37 31 35 25 35 30 31 34 41 29 35 36 31 30 37 32 27 21 26 39 38 36 35 36 40 32 35 27 33 40 36 37 34 38 34 42 31 26 26 23 37 33 42 39 31 32 29 35 55 30 32 40 26 27 35 30 32 23 33 26 24 36 24 38 28 24 37 30 31 27 39 31 33 31 31 33 24 34 38 24 29 35 35 28 42 35 40 44 35 28 31 33 34 25 35 26 43 31 40 39 34 26 29 38 31 31 36 29 39 33 39 41 42 35 39 39 27 37 35 35 30 38 35 38 35 35 34 21 31 27 29 29 31 36 32 39 42 33 32 35 29 27 27 24 34 39 27 27 40 22 27 33 36 36 28 35 29 30 32 42 29 38 30 40 25 30 38 24 33 32 39 31 31 28 32 36 34 36 30 29 33 27 31 29 27 35 38 23 36 22 31 37 31 32 26 31 33 30 35 31 26 29 33 37 34 32 29 33 38 28 39 30 42 41 35 28 32 30 30 38 25 33 30 35 32 30 32 28 34 28 29 41 32 30 23 35 25 31 23 22 34 32 33 29 29 35 36 37 27 35 27 41 21 36 32 35 28 46 32 39 27 36 36 37 31 35 32 30 34 36 33 31 31 29 31 40 41 37 36 40 26 21 32 44 29 24 37 31 39 29 40 29 33 35 24 42 38 34 31 25 30 35 32 31 28 34 38 41 29 32 43 39 39 39 26 31 31 27 33 32 33 28 27 30 44 27 29 38 35 32 31 27 34 36 37 42 30 34 30 39 26 28 33 23 26 26 32 31 25 37 31 31 36 36 35 34 30 33 31 32 29 26 29 34 30 30 36 32 33 25 39 26 26 28 25 38 30 32 21 38 35 39 33 30 25 36 24 34 27 36 32 32 23 26 37 36 34 32 29 30 28 35 30 34 33 37 32 38 41 41 31 30 34 34 30 35 29 33 27 33 30 35 39 29 48 27 25 34 36 30 28 19 32 32 32 25 36 42 33 32 25 31 27 35 35 28 33 27 37 28 30 33 34 26 28 31 29 26 27 35 32 38 22 33 30 35 26 31 32 37 28 33 29 35 29 25 22 34 35 33 30 37 33 29 42 40 26 41 27 38 30 38 37 29 38 39 31 35 33 35 35 27 37 34 28 25 31 40 38 47 36 38 33 35 29 29 29 38 27 29 32 26 36 33 36 45 39 34 33 41 27 30 30 31 28 26 26 29 31 32 29 32 35 32 42 26 38 21 32 30 35 26 33 34 40 18 40 29 24 35 31 40 37 26 40 32 31 34 37 35 30 27 39 34 27 32 37 30 29 40 34 27 35 36 28 37 40 36 26 35 35 38 26 27 37 28 28 35 32 24 33 30 45 33 25 39 26 33 40 29 32 41 40 33 34 40 30 43 31 32 30 36 36 38 34 34 25 30 41 31 19 27 49 36 35 40 34 42 31 34 38 35 38 25 29 30 27 31 42 36 34 37 31 29 38 25 32 34 40 27 27 27 35 33 32 31 35 34 34 45 34 46 33 29 31 33 41 30 29 27 49 36 33 28 31 26 24 40 30 28 43 33 46 42 44 42 31 23 34 29 36 37 38 38 42 44 38 54 28 35 19 27 38 35 32 25 25 24 32 30 29 29 33 33 39 33 27 34 34 30 34 37 33 32 33 28 30 34 34 27 37 27 32 24 30 23 33 29 39 33 33 32 37 34 43 56 40 31 34 38 37 35 35 25 29 29 34 36 31 36 36 26 37 26 36 24 37 30 31 35 33 33 27 39 29 43 30 30 29 40 35 42 32 27 33 27 29 33 28 27 31 24 26 29 26 38 24 30 25 42 43 33 32 30 34 31 38 32 35 24 38 28 35 40 31 25 26 29 31 34 30 45 28 38 34 31 28 29 41 37 35 46 29 38 32 26 48 25 29 24 29 38 36 29 32 20 36 45 23 41 24 35 32 31 40 36 35 40 25 44 37 37 27 24 43 23 33 41 35 33 32 36 22 37 30 39 21 33 28 42 32 30 36 35 25 28 24 26 36 39 39 35 30 31 31 40 30 35 34 31 33 31 40 29 27 33 25 33 25 26 36 41 30 24 35 37 33 20 33 27 31 28 30 29 28 32 40 30 37 31 41 27 33 33 23 40 33 43 33 26 33 28 32 36 42 20 30 28 27 38 26 35 27 37 29 28 35 34 26 32 32 28 37 28 35 24 32 27 39 39 31 33 34 30 38 34 32 30 28 27 19 26 43 25 40 22 32 25 31 36 28 35 37 32 28 32 44 40 39 29 34 34 30 30 31 30 27 24 41 28 36 43 38 40 28 35 33 27 38 37 24 42 32 33 28 36 34 30 32 40 28 39 35 34 28 38 34 26 45 35 28 23 23 52 34 37 32 34 40 27 21 41 42 34 26 38 37 40 34 24 34 22 36 41 27 30 36 33 22 29 37 31 30 42 40 39 36 32 31 32 34 30 35 29 31 32 35 36 28 30 38 38 26 27 34 36 34 29 35 35 22 40 34 36 32 39 30 31 48 39 30 33 31 32 21 34 33 36 35 47 32 36 34 30 28 39 41 31 34 37 26 29 30 26 34 33 27 32 32 36 33 32 25 30 35 30 26 49 26 23 30 29 26 40 21 32 31 31 41 33 45 20 33 32 35 27 38 29 20 42 25 32 32 39 40 30 19 30 28 31 44 43 33 29 28 25 33 37 28 24 31 32 30 31 39 34 35 41 33 27 30 35 41 32 38 22 26 30 32 38 34 29 39 35 31 35 46 48 37 30 36 36 31 28 37 24 32 42 33 37 39 42 37 41 32 28 27 23 27 34 31 26 35 29 24 37 35 45 37 23 29 34 27 31 32 39 27 36 40 36 36 37 24 31 27 28 36 28 35 32 27 36 40 36 34 32 37 31 30 34 31 29 44 37 25 37 29 32 26 33 34 37 30 18 31 42 37 36 29 32 31 39 29 30 35 28 28 30 36 32 38 33 29 26 38 34 36 34 33 28 29 31 32 38 26 30 31 33 28 31 28 31 39 31 35 38 31 39 30 32 29 27 35 37 26 29 31 31 42 27 29 32 45 35 32 20 35 34 35 40 26 27 36 40 38 39 28 33 31 35 37 28 24 26 21 37 32 34 33 33 30 31 25 20 37 35 43 37 27 26 30 41 26 28 37 34 33 43 19 35 45 34 30 25 27 28 34 31 35 41 34 43 35 35 26 29 30 34 39 43 17 27 36 26 31 37 32 32 31 28 27 34 30 28 22 35 25 40 45 35 31 27 31 34 36 34 33 33 25 28 28 20 27 31 31 37 28 39 31 31 32 37 38 33 26 29 21 39 29 40 34 29 34 33 36 27 34 37 40 31 30 29 46 34 27 38 26 28 28 25 38 32 34 33 39 33 30 25 25 39 36 32 34 29 27 27 30 35 27 35 36 36 39 30 30 18 39 42 31 27 30 32 34 34 33 31 41 36 31 32 40 36 41 35 33 26 28 40 42 36 26 26 36 18 36 23 24 39 26 25 29 33 39 37 23 34 36 30 29 35 32 32 27 23 38 41 37 24 27 26 25 34 27 39 33 32 28 25 48 37 22 31 30 26 29 36 39 33 32 25 28 28 33 31 26 32 35 34 38 24 38 30 30 34 30 33 28 34 32 31 36 31 36 31 42 23 23 32 28 28 23 38 29 17 32 28 23 39 52 45 34 24 34 25 33 38 36 34 43 30 35 49 31 35 28 29 30 23 32 31 32 25 35 23 34 24 29 45 34 33 25 33 30 30 33 26 36 35 28 29 32 33 41 31 38 21 28 27 38 27 28 37 30 37 31 34 31 39 48 31 26 39 35 45 32 33 30 30 31 30 33 32 32 42 27 33 38 29 27 28 28 28 34 25 31 29 38 41 28 42 33 28 36 45 24 29 34 33 38 33 29 31 37 28 31 35 24 39 35 44 34 54 28 24 30 29 31 39 18 32 26 41 39 27 27 27 31 31 36 23 26 34 31 37 43 34 39 31 32 27 35 28 48 26 32 29 29 40 33 22 35 36 29 29 25 29 32 35 33 26 25 33 31 34 40 20 39 40 42 28 27 30 30 46 36 25 29 29 28 35 29 35 30 35 39 22 27 33 39 19 33 34 38 34 23 37 33 33 32 41 31 29 40 40 37 36 28 38 27 37 20 31 27 35 36 26 42 41 28 38 29 32 38 29 31 41 30 38 32 34 24 34 37 32 35 35 32 32 24 43 34 27 29 39 24 38 40 39 30 29 35 37 31 42 35 26 22 25 30 39 33 37 33 37 34 32 37 31 34 37 33 33 38 23 34 31 33 31 30 38 26 25 38 30 23 32 34 37 36 28 33 28 34 41 36 38 33 34 29 26 26 34 32 32 33 31 33 34 36 27 36 35 23 31 36 34 37 32 30 35 28 37 25 39 26 44 30 28 33 36 36 25 30 43 35 40 31 27 31 29 26 27 43 41 39 39 23 30 27 32 27 28 33 37 30 26 25 33 27 42 25 28 34 25 31 32 37 36 33 23 28 46 38 32 26 34 33 37 37 41 41 27 26 25 43 29 26 25 33 27 31 32 30 30 32 34 30 40 37 32 37 44 46 35 25 37 23 32 28 24 30 33 43 29 26 34 33 38 29 21 27 43 30 31 40 28 35 32 29 27 37 37 30 33 28 30 36 41 31 32 39 21 33 34 36 30 26 30 32 28 29 30 36 29 29 42 40 36 35 30 37 27 47 33 27 34 33 25 30 37 40 31 37 31 34 29 39 30 31 28 34 41 37 29 28 31 26 35 29 38 29 33 29 38 24 25 18 33 25 40 38 34 36 33 33 37 32 36 30 35 29 28 34 35 38 28 31 30 21 25 37 31 34 33 37 31 41 31 24 40 42 28 26 37 32 32 25 27 29 29 27 28 28 32 32 38 24 30 28 31 39 28 26 23 40 30 31 40 34 27 28 37 28 40 25 34 38 33 32 29 44 38 26 35 33 36 33 33 25 45 32 42 36 25 29 46 28 32 33 39 42 32 34 33 38 37 34 33 25 26 32 31 30 30 36 31 39 35 21 37 40 33 28 34 26 26 41 34 37 33 29 33 25 27 28 27 40 32 24 36 36 33 32 34 37 26 23 48 28 32 49 29 36 39 42 36 29 34 35 33 34 37 32 30 35 35 20 35 34 29 32 34 27 36 32 34 36 33 30 34 36 25 32 31 23 31 29 30 34 23 35 32 44 40 36 34 30 27 29 34 28 28 30 21 40 37 37 33 29 31 37 31 31 35 33 33 34 36 37 25 31 26 23 29 38 31 37 35 25 35 37 27 27 30 33 33 37 29 43 39 39 37 29 33 29 38 24 28 33 30 34 45 28 32 27 32 28 28 42 41 26 23 29 35 39 22 35 40 27 41 35 43 32 18 39 19 21 37 35 31 35 24 50 36 31 30 32 27 37 37 27 33 35 24 33 33 28 29 34 28 30 37 42 34 31 36 22 33 32 37 36 45 26 36 33 34 28 35 28 34 26 33 30 30 36 41 32 25 33 45 44 32 36 26 26 30 14 40 42 29 36 32 39 25 35 41 37 34 26 33 28 33 33 29 29 27 30 37 35 28 29 33 37 32 30 49 32 41 33 27 29 36 30 26 27 33 32 22 25 28 33 37 36 29 30 33 29 40 22 33 30 29 30 37 26 46 34 34 39 36 38 32 28 30 32 27 29 35 30 39 29 26 32 28 29 47 34 33 34 31 38 34 40 26 42 32 31 36 22 43 43 29 31 30 39 39 44 30 25 43 21 36 30 33 31 38 26 36 31 27 24 32 27 22 22 39 32 36 25 32 33 34 35 32 35 27 36 31 42 43 34 29 37 33 37 24 32 27 29 32 28 33 28 48 34 31 35 29 30 35 33 31 36 33 40 31 29 31 27 28 30 40 39 30 20 24 32 33 32 39 38 27 28 46 32 35 30 26 32 22 25 27 35 38 27 37 25 32 37 31 34 31 31 38 31 34 34 32 36 36 25 31 36 29 32 29 29 31 38 38 32 32 34 35 27 36 31 30 34 42 28 26 34 34 34 34 30 31 30 35 43 27 28 36 28 27 36 35 42 36 33 33 22 22 39 30 27 32 34 42 30 38 33 34 36 40 43 28 35 28 32 28 26 28 25 33 29 36 35 29 25 42 33 24 34 35 36 27 29 36 34 42 36 35 26 33 34 36 28 28 24 38 20 34 32 33 38 21 34 30 34 34 34 27 28 32 30 37 17 39 34 42 37 35 40 25 36 34 24 23 29 30 27 20 28 38 38 23 28 33 35 32 33 39 37 35 28 39 35 31 27 34 35 24 30 33 30 42 34 32 35 21 29 35 34 43 36 39 27 24 34 49 35 44 30 32 24 31 41 38 40 30 41 22 28 33 42 42 33 31 34 33 35 32 27 25 47 37 37 38 34 35 34 35 35 35 34 31 35 24 31 35 27 25 29 39 35 27 37 28 33 30 38 39 31 35 35 31 25 29 33 31 34 28 25 47 40 32 33 39 27 36 27 33 35 43 29 29 37 31 37 48 31 41 23 26 32 38 25 27 29 23 27 28 26 26 43 35 32 35 35 29 41 22 33 26 35 35 35 20 52 29 33 35 37 39 27 34 37 35 31 28 58 39 28 32 31 33 48 41 39 35 38 35 38 40 27 26 33 25 28 35 37 23 24 34 34 34 36 50 22 39 34 36 33 25 35 25 27 33 39 36 34 30 28 26 39 32 27 37 32 26 31 33 35 41 36 37 37 39 30 41 34 33 32 37 26 25 29 37 36 35 33 35 28 26 36 37 34 29 24 29 29 32 32 32 30 39 44 25 32 40 44 24 27 36 36 43 25 28 39 34 28 42 29 48 38 26 33 33 37 31 37 37 30 28 38 35 34 22 42 29 41 24 39 27 27 26 45 23 26 25 29 29 35 33 33 36 34 30 33 37 25 42 30 33 41 37 26 25 27 30 31 33 32 26 30 32 26 36 37 31 37 34 37 26 34 30 36 37 27 34 46 40 30 27 37 35 33 40 35 40 22 29 27 42 38 34 44 37 22 24 37 29 43 31 35 28 20 33 29 36 36 35 44 43 35 34 31 39 38 33 29 35 30 25 34 27 29 31 36 30 33 31 33 23 25 35 30 40 28 28 32 36 27 37 25 39 36 33 28 29 35 30 54 22 35 34 29 41 36 30 38 38 29 30 40 26 27 37 27 37 36 30 34 39 22 27 29 35 38 31 29 27 28 38 35 57 28 28 24 39 22 31 40 45 36 35 33 38 43 35 30 32 46 33 30 32 42 37 39 33 23 29 27 30 33 35 33 29 29 29 21 34 31 25 35 38 36 26 32 35 37 26 29 27 23 27 26 35 29 27 33 38 23 47 36 35 28 37 25 39 29 28 27 30 35 29 28 30 35 26 25 29 19 31 28 33 34 32 30 42 22 33 31 27 20 22 35 25 26 35 31 35 33 37 32 42 37 32 33 24 27 31 28 36 28 28 23 27 43 35 30 30 38 41 29 33 32 29 33 35 28 35 31 28 37 25 28 32 32 33 34 24 29 33 36 36 35 33 37 30 38 32 40 23 29 28 30 32 36 43 26 35 35 35 42 25 36 32 33 30 31 33 30 28 21 32 33 35 33 24 39 29 39 28 36 40 33 36 29 45 32 33 27 29 36 27 35 33 34 36 19 38 25 33 23 30 45 31 33 26 38 21 32 31 35 34 26 30 24 40 43 23 29 28 42 30 25 30 23 25 25 40 34 27 36 40 25 37 33 28 31 35 38 42 41 34 33 28 27 18 37 28 38 45 32 27 30 35 23 24 29 25 35 32 39 28 28 31 42 32 23 24 41 32 29 40 40 26 40 30 30 37 32 39 47 37 34 28 30 25 27 42 35 35 39 30 30 36 28 31 47 28 34 19 29 31 31 39 28 38 41 34 31 36 33 40 31 30 21 25 25 16 31 33 32 33 26 26 30 35 37 46 33 31 30 36 30 35 28 36 32 33 28 38 16 36 33 25 22 28 30 42 33 41 38 26 27 13 35 27 29 36 34 32 30 35 34 26 44 41 34 37 33 36 41 35 36 34 38 42 34 42 35 28 37 35 37 34 42 30 37 32 35 29 29 36 33 33 30 39 35 31 25 23 31 31 38 30 33 36 31 21 35 27 34 26 39 35 27 38 30 30 30 30 42 39 27 28 36 23 45 31 26 43 42 36 26 37 36 35 30 39 26 24 31 33 25 36 24 38 30 41 37 36 32 37 29 38 43 28 24 35 31 33 35 37 29 38 34 28 26 41 38 25 28 38 26 31 41 32 37 30 25 26 38 40 35 33 30 32 31 30 34 32 31 31 37 30 33 34 26 34 29 42 40 36 42 29 29 26 36 24 43 36 35 35 39 42 31 31 32 25 33 22 20 36 38 37 37 23 26 36 37 39 32 26 32 38 32 33 30 35 29 34 36 33 34 25 32 21 33 18 34 30 31 33 35 33 26 25 35 36 31 29 26 27 32 29 39 35 28 42 41 27 27 35 29 35 29 25 30 29 43 31 30 27 41 29 28 35 29 30 41 27 39 36 33 41 29 25 25 33 28 35 31 38 33 35 32 27 31 39 22 34 37 38 36 28 29 38 28 38 40 37 38 42 26 25 35 28 22 34 29 32 38 35 30 36 19 34 25 31 32 30 41 30 32 36 40 34 32 37 26 29 26 34 36 34 39 34 23 36 29 34 35 30 32 42 25 34 33 29 31 27 37 30 24 36 30 40 21 41 25 30 30 38 30 35 32 32 36 30 35 28 37 40 33 37 26 28 32 30 30 41 30 30 30 29 39 28 33 29 52 24 33 36 33 41 31 39 41 38 40 44 24 38 31 27 28 26 38 23 33 49 47 38 33 40 35 21 47 31 36 33 35 37 37 30 35 40 35 35 49 38 32 28 33 32 39 32 37 38 35 38 36 30 35 28 36 35 32 28 40 40 31 32 36 32 39 29 38 35 27 29 37 30 34 33 23 38 42 24 32 28 28 32 29 36 38 24 30 35 37 40 36 33 39 35 29 28 39 24 35 32 24 35 36 34 27 32 29 34 41 33 31 27 34 28 36 29 35 25 48 35 29 42 32 38 30 31 31 31 33 32 29 47 31 42 37 42 24 28 34 31 36 34 31 36 32 28 30 32 30 25 33 30 34 41 34 36 29 36 29 33 23 32 25 34 35 31 29 26 26 32 37 40 34 35 34 38 40 39 39 30 24 32 33 35 34 36 44 33 28 41 29 28 33 33 35 35 31 27 26 23 29 33 34 33 42 40 38 33 33 30 31 38 26 45 29 41 40 33 43 37 52 35 40 31 26 42 37 35 35 34 38 28 36 31 33 39 41 37 25 37 39 32 34 25 23 43 31 34 38 29 33 35 38 30 25 32 27 28 32 40 32 39 40 28 35 20 34 35 34 32 30 31 33 29 38 38 32 40 27 31 26 20 37 21 26 36 29 37 33 33 36 35 34 30 28 29 28 37 31 39 39 36 29 35 37 23 34 28 35 21 24 25 36 25 37 35 37 32 32 32 31 24 32 29 41 35 36 28 33 41 24 36 34 33 35 31 44 41 29 24 43 33 40 29 32 34 33 34 26 32 40 46 35 34 39 33 27 31 35 29 28 23 37 23 26 30 27 28 19 35 36 36 38 34 39 26 30 31 28 38 30 39 41 35 32 31 30 34 26 34 33 26 36 27 31 28 44 40 24 32 34 31 36 32 37 37 35 28 35 31 27 33 36 38 37 31 43 28 27 39 28 40 36 32 33 37 29 25 27 29 36 37 35 27 33 35 33 29 38 18 40 23 32 34 32 32 35 34 29 39 34 30 36 30 40 35 31 25 24 34 31 27 36 37 27 36 33 29 35 33 26 33 34 32 37 38 29 30 40 26 21 27 29 27 19 41 27 27 40 38 30 28 30 30 26 30 32 22 27 35 31 33 37 37 42 25 39 37 34 24 33 34 33 36 32 32 35 36 32 41 32 33 28 43 30 31 29 31 25 27 33 36 36 37 35 28 38 47 37 32 43 33 33 32 30 32 34 30 32 35 25 39 32 24 33 29 32 50 37 32 27 30 25 36 31 38 28 38 30 45 37 32 33 33 36 34 27 42 40 42 38 29 37 31 27 27 38 34 30 29 30 36 42 45 38 41 42 33 41 35 26 21 30 33 30 29 25 40 28 28 35 33 40 33 31 39 21 29 33 38 29 32 30 48 23 33 29 44 20 34 27 36 33 43 28 36 27 28 39 31 24 39 40 36 36 26 38 32 33 33 51 24 40 36 38 30 28 44 29 36 31 24 28 40 32 29 31 29 43 24 28 22 27 33 24 35 28 37 33 34 35 27 26 31 36 40 34 32 28 44 29 30 26 32 34 33 38 36 25 36 44 33 37 22 36 35 31 32 42 35 37 35 33 32 35 35 29 32 34 22 30 34 30 33 42 31 38 25 21 39 29 23 34 24 36 31 34 30 32 38 34 28 33 36 34 28 32 36 37 27 30 27 36 27 33 26 30 32 39 24 33 34 32 32 33 37 37 29 31 33 30 24 33 25 32 26 20 35 37 38 25 39 39 28 44 30 31 27 34 35 32 30 38 35 33 26 37 35 42 28 30 29 30 35 34 38 26 24 38 24 24 38 34 32 42 31 37 33 24 32 30 32 40 30 33 36 18 28 26 23 39 36 33 28 27 40 27 32 36 27 43 33 27 30 34 40 33 36 33 27 40 28 29 32 27 33 32 32 45 27 28 40 27 33 30 27 34 30 35 34 33 36 39 32 31 28 40 38 39 34 36 34 41 29 29 39 27 39 38 35 29 46 29 44 35 25 32 27 24 37 39 23 25 28 26 43 36 36 31 40 38 46 31 38 39 26 27 36 29 33 30 26 34 40 27 28 40 31 40 38 47 21 39 43 34 32 23 33 25 28 33 33 38 30 38 43 38 35 36 36 33 27 38 33 25 25 30 35 28 37 38 32 31 40 32 44 24 24 38 38 32 41 21 41 37 28 38 31 34 36 38 36 27 35 32 28 32 24 32 40 34 33 32 38 32 40 33 44 36 23 34 39 38 39 23 34 34 30 32 38 28 35 21 37 24 26 36 30 40 39 41 29 32 33 25 25 36 41 37 33 26 24 28 41 32 30 31 26 23 32 41 23 36 44 36 40 27 34 40 30 37 42 36 23 40 28 29 38 29 35 41 29 28 29 29 28 35 30 30 31 36 39 33 42 34 35 28 36 31 48 28 34 32 31 25 30 30 31 34 29 29 28 31 41 35 52 23 29 20 31 29 35 32 37 34 28 32 35 36 39 24 36 40 28 30 31 35 44 35 30 24 31 24 31 26 31 26 38 22 26 32 37 43 24 27 34 30 29 29 27 32 21 35 37 38 41 42 34 20 39 33 36 32 36 31 40 33 40 36 32 49 31 29 36 37 26 33 28 45 37 34 33 27 34 28 35 32 37 33 34 30 39 39 27 29 30 31 47 31 41 35 33 32 39 29 29 30 31 37 29 29 35 28 24 26 34 24 48 44 38 34 38 30 30 36 36 35 28 34 30 29 30 26 25 29 27 42 29 39 36 31 33 24 34 32 33 27 34 34 31 30 25 31 32 37 31 35 43 41 29 26 36 30 35 41 24 26 36 43 36 19 34 38 35 26 27 35 36 32 36 37 36 31 31 29 27 29 36 35 29 32 34 27 40 27 25 37 32 39 29 29 33 33 39 35 53 33 29 31 35 37 31 25 32 29 37 32 31 28 30 31 47 32 32 28 44 31 32 38 37 32 25 25 29 39 44 27 32 23 40 32 30 33 48 46 25 36 28 30 35 31 23 34 28 44 28 42 30 36 34 31 47 39 40 35 24 40 43 34 32 44 41 34 37 34 36 43 34 34 31 28 25 28 31 30 32 26 35 37 32 40 35 43 39 28 21 27 26 35 27 37 32 27 28 35 32 28 31 28 37 44 32 26 32 24 33 29 31 27 35 39 31 32 27 29 36 29 38 39 35 28 40 29 32 39 28 42 27 32 30 34 28 32 30 37 25 47 33 35 26 36 40 36 34 29 35 31 34 33 28 31 35 33 32 34 28 26 30 30 32 34 34 35 24 31 31 32 29 32 30 36 25 29 33 37 35 33 30 24 26 38 40 33 27 38 25 34 40 39 33 35 26 30 38 25 33 40 28 27 29 38 38 36 41 26 32 28 27 29 25 30 39 48 39 33 27 30 33 46 43 31 25 42 31 31 29 37 27 36 32 33 45 30 24 36 31 26 26 40 28 47 37 36 29 41 33 29 43 29 43 38 26 38 33 27 31 36 33 38 35 33 33 42 34 28 34 27 41 38 24 44 36 33 39 36 33 38 26 32 36 27 31 36 30 26 33 24 26 31 33 20 28 32 27 31 43 40 34 38 32 34 34 32 32 30 46 32 39 30 36 43 36 27 28 24 29 30 40 29 33 28 43 39 35 33 38 40 33 32 23 26 35 36 30 38 24 44 33 32 30 37 33 40 33 28 38 33 29 24 38 29 30 36 40 27 32 39 35 32 28 27 34 24 30 29 49 32 37 27 28 32 28 34 28 29 32 30 28 31 28 27 31 31 30 36 36 28 27 34 24 34 21 38 33 33 30 41 27 29 25 24 32 37 27 37 30 15 33 36 29 38 39 35 39 36 33 30 30 38 27 31 31 45 36 32 34 29 23 24 35 41 33 31 31 34 31 38 28 29 30 39 34 36 26 28 33 31 40 28 26 36 33 30 30 52 28 43 34 35 34 28 45 27 36 38 34 34 28 26 25 35 28 36 31 42 41 34 28 24 35 33 37 52 23 32 30 29 27 26 27 32 34 43 32 39 31 34 40 26 29 34 29 34 29 28 34 27 27 22 39 30 37 44 28 37 30 35 33 29 46 34 38 19 21 27 27 32 38 37 32 30 29 29 21 29 35 23 38 22 29 43 29 32 28 38 46 26 30 27 33 22 32 34 37 27 31 31 29 35 27 40 30 28 43 36 32 28 34 27 26 23 28 28 25 40 28 32 31 27 29 28 29 33 29 26 32 23 33 34 25 35 27 33 26 33 36 31 27 27 42 33 39 32 37 29 30 40 32 24 35 36 33 41 38 33 29 32 25 23 36 30 36 40 32 30 28 40 36 31 34 25 28 32 38 36 33 37 31 32 31 32 32 32 30 29 28 39 38 35 33 25 30 35 37 29 27 34 38 34 37 24 32 29 28 39 28 40 34 27 38 27 40 29 41 35 22 32 19 28 40 31 34 30 31 32 37 31 46 39 29 33 29 35 36 32 25 16 36 34 24 29 37 26 29 20 37 35 32 33 32 30 31 28 35 38 37 37 43 33 29 33 36 33 39 34 33 28 34 36 46 30 33 32 30 31 34 33 30 38 27 26 24 41 31 27 29 32 32 38 29 37 33 26 32 40 24 38 24 34 36 37 36 33 35 34 25 61 26 30 34 26 34 31 26 31 27 36 35 35 29 31 29 27 26 28 37 30 33 32 46 41 33 30 30 31 36 27 42 38 38 28 24 38 29 39 43 38 35 26 32 32 27 37 30 26 31 39 40 24 42 31 30 40 34 28 34 56 30 31 37 43 31 45 33 38 26 35 39 42 28 25 42 28 23 37 35 37 29 31 34 24 40 32 31 34 31 31 27 20 29 29 34 30 25 29 33 33 42 30 41 28 33 23 27 26 33 36 36 26 25 29 35 31 29 36 36 39 29 36 29 28 35 32 34 37 33 34 25 21 37 44 38 33 26 35 27 34 44 33 27 30 32 35 32 51 22 30 32 31 30 33 33 35 30 35 37 37 41 26 47 37 32 27 42 33 33 26 30 32 29 35 39 32 37 26 32 35 36 30 22 37 22 33 26 36 28 40 36 28 47 29 28 34 30 27 25 45 32 37 35 32 40 39 34 27 31 29 37 33 33 21 25 32 37 41 34 35 23 35 27 17 40 31 32 51 34 33 32 38 28 45 32 24 32 33 37 43 43 28 32 37 35 30 30 21 36 29 20 23 31 34 33 34 35 48 39 28 33 20 40 37 31 39 39 41 25 34 30 46 37 32 43 37 33 34 29 36 31 25 47 37 33 32 30 27 33 30 35 36 31 38 17 39 34 32 26 33 42 28 34 22 29 32 32 29 31 39 38 29 35 37 36 40 38 35 32 32 30 25 36 37 37 35 35 31 31 30 32 39 23 37 28 35 31 36 29 35 29 32 29 35 28 29 31 34 34 35 30 34 24 34 28 36 29 36 30 35 38 18 30 33 39 32 36 37 31 33 35 39 32 34 24 36 31 38 31 57 37 48 31 32 37 42 31 39 44 35 33 38 27 38 43 43 36 34 33 35 36 30 29 32 31 33 26 34 22 28 32 33 26 26 32 25 33 33 34 28 40 35 22 43 35 41 31 29 34 24 39 31 36 42 25 34 28 30 33 36 36 31 31 35 35 23 30 38 25 40 39 35 35 35 29 35 37 33 35 52 33 36 27 34 25 20 37 36 19 39 31 34 34 28 34 34 29 31 22 35 34 27 33 30 42 35 25 36 26 37 34 37 35 38 25 41 32 33 46 40 30 50 36 24 37 33 32 44 39 29 31 28 41 21 43 33 35 42 33 30 42 23 29 26 32 29 37 22 39 38 39 34 31 22 35 29 30 31 35 33 37 36 43 31 29 29 33 34 40 36 37 41 33 29 29 33 26 26 30 32 35 31 37 25 25 31 38 28 29 23 41 24 35 39 26 28 27 34 26 32 31 29 32 32 33 29 36 33 37 38 34 33 26 30 26 28 36 25 38 31 42 32 35 23 37 32 32 36 39 21 44 29 44 32 41 38 37 34 36 30 29 27 39 30 33 41 29 29 44 37 26 29 36 42 35 29 31 36 34 44 30 30 26 39 34 36 32 29 30 37 43 29 35 36 32 37 33 22 29 32 27 19 35 40 34 33 26 30 24 33 35 33 22 32 40 39 34 43 28 37 43 41 30 33 42 24 29 30 26 31 26 31 47 51 38 28 31 29 32 34 40 26 32 30 33 39 32 31 44 34 34 39 29 30 36 28 45 36 30 35 33 32 29 30 28 34 40 27 36 28 35 31 34 33 27 40 38 31 27 32 26 31 31 45 40 31 31 32 32 29 32 26 30 28 24 33 32 32 39 36 31 35 39 32 31 24 43 35 31 23 36 33 39 29 25 35 28 43 32 35 41 27 21 33 31 24 47 33 40 33 37 33 40 32 38 22 30 44 38 30 33 32 40 28 32 34 37 31 34 35 35 31 33 31 28 37 34 33 30 29 30 45 25 29 31 30 30 34 32 29 36 30 35 34 30 39 31 29 38 34 34 38 24 30 36 39 29 33 37 33 30 38 32 34 42 31 27 29 34 33 29 32 33 28 39 32 29 33 25 30 34 30 36 44 26 21 38 41 35 38 26 30 30 35 35 38 56 42 32 26 32 34 39 27 28 22 37 26 44 28 41 37 30 31 33 29 32 32 38 31 36 30 38 47 41 35 30 29 28 40 28 29 36 26 31 34 22 37 39 27 31 34 27 25 28 34 30 25 34 27 32 38 21 21 27 35 34 30 39 30 21 30 26 37 25 40 25 26 32 36 29 34 39 31 30 38 26 39 38 37 38 35 35 32 36 36 30 36 32 29 26 33 34 31 29 33 26 25 35 32 21 25 39 29 40 31 38 36 28 32 30 30 33 31 28 31 37 31 35 29 32 41 36 32 29 36 33 34 25 29 26 21 35 33 26 31 32 37 37 40 34 32 31 28 34 28 34 30 27 41 27 34 45 29 25 35 28 26 32 27 32 38 34 34 32 27 35 38 36 29 24 31 32 35 27 29 37 30 29 23 33 42 33 35 30 30 22 33 37 36 26 26 35 27 31 37 38 41 43 40 44 28 28 22 29 24 31 30 40 43 30 51 40 52 43 37 28 46 36 37 23 32 35 37 26 35 29 26 29 33 28 24 33 27 33 33 31 38 27 25 23 40 29 29 44 23 34 35 32 32 26 27 33 33 30 36 31 38 39 24 39 31 28 35 34 27 32 32 21 32 31 42 39 42 22 25 34 29 32 32 34 36 30 43 35 33 36 29 35 40 42 29 34 37 22 27 33 31 39 37 23 29 32 24 32 36 39 23 26 33 38 34 40 29 29 26 40 37 34 30 29 38 31 40 32 36 34 26 38 29 36 41 36 27 29 39 33 23 29 32 26 26 22 28 32 39 34 27 28 32 32 30 38 28 34 30 28 33 38 38 38 28 43 32 35 44 34 29 33 30 37 28 25 47 26 23 39 31 39 32 18 46 34 29 47 26 30 35 31 36 36 22 30 36 42 29 36 30 37 27 35 33 25 34 29 33 38 34 38 28 32 26 31 35 34 34 30 19 34 30 32 34 32 28 31 26 25 36 32 31 38 33 34 29 25 42 29 35 28 26 30 31 34 29 29 27 33 34 34 45 41 28 35 33 35 30 33 19 35 43 40 32 36 35 36 30 37 40 24 35 40 37 29 32 34 37 35 36 32 38 40 31 49 33 28 30 44 32 32 25 25 24 29 22 35 34 29 36 27 41 43 35 30 41 30 30 24 22 16 31 38 27 38 22 29 41 24 37 31 29 34 32 28 29 26 41 29 26 23 25 31 25 32 23 32 27 27 37 36 38 42 26 26 27 27 32 44 25 25 37 37 37 30 32 26 34 40 30 30 23 31 25 32 41 32 34 37 36 32 31 26 38 42 37 33 35 29 31 26 23 29 31 33 30 32 27 37 30 26 26 24 33 32 26 35 20 38 30 40 35 28 34 35 30 37 35 31 37 30 21 32 22 33 31 37 32 38 28 39 26 31 32 41 37 34 28 32 35 38 29 20 46 22 35 39 36 31 22 29 34 30 35 32 24 29 30 29 29 40 26 39 31 25 39 30 32 27 34 28 36 34 36 35 26 30 35 35 24 32 28 41 30 24 29 30 25 38 38 27 35 20 27 26 44 30 34 35 31 31 27 41 45 39 33 29 39 32 45 43 37 32 41 37 32 47 25 26 32 34 39 46 24 31 26 33 25 34 33 31 22 29 30 39 33 29 29 35 34 38 23 35 25 44 32 35 33 25 40 24 43 45 32 37 33 33 27 31 23 30 34 30 30 30 44 36 27 39 34 35 33 32 28 33 33 24 24 34 37 26 38 29 37 29 33 29 35 33 33 41 25 40 31 26 55 33 26 38 32 39 30 31 40 41 36 28 34 21 40 31 36 28 38 25 33 20 35 34 24 28 36 42 38 31 32 36 29 25 34 35 26 32 27 41 32 31 32 36 38 39 19 35 32 36 27 35 36 31 32 25 37 30 41 30 32 35 26 37 21 32 26 24 39 35 33 35 35 29 30 35 24 39 38 23 35 20 22 40 29 28 24 29 30 26 33 42 29 29 33 31 30 30 37 29 34 36 37 31 34 24 32 42 32 37 32 37 38 26 34 31 30 44 37 31 30 19 38 32 30 34 30 30 31 36 32 22 39 38 31 38 37 31 29 25 26 25 30 34 31 36 30 24 52 31 32 28 33 41 33 26 42 37 29 45 26 38 37 35 39 38 32 36 33 31 38 30 34 29 35 28 40 41 26 25 32 39 36 33 19 18 31 34 24 37 35 26 47 32 23 32 27 34 28 37 26 28 34 26 33 52 36 36 25 43 40 22 32 41 44 33 40 41 33 29 22 28 33 27 38 30 34 33 25 36 25 41 33 41 25 34 23 38 29 38 31 35 32 33 32 23 36 38 38 31 35 33 29 23 23 29 38 35 27 28 25 34 26 29 35 26 30 40 31 39 40 25 43 41 32 24 41 28 27 34 26 39 29 36 24 25 23 32 26 31 25 40 33 40 38 26 31 24 28 48 27 39 36 31 31 36 40 28 33 36 30 36 34 28 27 38 36 33 27 34 34 38 27 26 40 37 42 34 38 38 41 26 27 26 30 39 31 23 29 31 33 29 30 24 25 27 44 28 38 33 33 37 28 30 33 32 29 34 40 33 30 29 36 31 31 35 26 22 29 32 25 28 39 33 24 34 33 24 37 33 28 28 29 29 31 23 31 32 28 33 44 33 33 28 30 37 31 32 34 46 35 24 34 40 27 33 37 33 37 27 36 34 32 34 27 35 28 41 39 40 27 33 39 39 40 26 36 35 35 31 30 35 34 37 36 27 37 34 38 33 34 34 33 42 31 26 22 28 27 31 41 34 42 23 30 23 41 28 32 33 33 32 36 35 32 23 38 32 27 34 25 23 26 37 30 32 43 36 37 39 19 28 44 35 30 34 39 38 28 27 30 31 37 33 26 37 25 32 30 29 30 26 29 26 23 36 33 34 31 38 32 28 25 38 50 32 30 32 27 34 32 34 32 34 32 34 24 27 33 33 31 34 34 29 41 34 35 42 35 37 41 39 31 40 41 35 29 24 30 30 27 38 34 36 38 30 26 33 40 38 27 29 36 35 33 32 32 26 38 26 34 21 34 35 36 41 23 34 39 27 38 29 28 28 31 27 29 35 34 33 30 28 27 28 28 24 37 29 30 34 31 34 33 26 31 36 24 32 38 29 29 35 32 30 33 34 29 43 40 27 43 45 30 39 25 35 35 32 24 23 46 37 32 27 26 34 23 33 35 25 32 24 25 27 29 30 30 27 24 28 29 35 23 27 35 34 39 24 30 19 45 35 35 48 35 35 30 33 31 36 28 27 33 32 35 31 27 29 33 19 29 32 28 42 25 29 40 31 37 31 31 37 36 37 31 27 36 40 38 33 39 34 40 31 32 22 34 39 24 32 36 44 26 31 27 33 28 36 36 25 38 41 27 31 33 33 34 40 34 31 34 31 36 43 32 32 37 25 32 36 32 28 32 31 32 17 39 33 28 35 32 24 21 35 33 33 32 36 32 30 28 38 25 36 33 35 45 28 33 35 32 27 28 26 35 26 34 25 28 32 34 32 30 24 31 28 24 29 33 25 29 36 33 29 38 27 27 25 35 29 35 30 31 37 26 47 34 35 39 23 29 28 34 48 38 25 25 39 29 31 39 35 29 35 31 37 31 36 44 27 28 30 31 22 31 40 24 33 32 38 29 31 25 29 34 27 31 35 33 20 33 30 36 41 37 45 40 27 36 27 30 26 26 23 23 33 31 38 34 39 38 37 32 39 25 32 28 40 36 35 31 38 41 28 24 34 39 29 24 21 37 43 33 27 43 31 28 32 27 31 29 25 38 35 20 37 34 32 40 25 30 32 32 29 24 27 39 31 30 36 34 34 26 34 30 31 31 27 38 38 37 40 31 24 35 40 31 27 32 44 29 34 33 32 23 31 31 29 28 31 39 32 32 35 34 49 26 29 31 35 29 34 35 24 37 28 33 40 28 28 27 40 22 33 30 37 26 43 37 22 35 38 32 38 23 40 30 34 39 37 31 36 24 28 36 38 38 34 37 37 33 36 34 28 31 34 33 31 35 26 32 28 36 34 27 27 33 40 33 31 36 33 34 31 36 42 28 33 25 29 40 30 23 32 32 35 37 30 32 30 41 32 34 33 34 44 37 29 38 34 38 29 23 31 44 27 51 33 35 31 34 44 42 34 35 26 31 40 32 36 34 31 37 29 39 34 34 34 36 37 32 36 24 28 22 28 31 30 25 36 20 35 43 34 27 34 38 35 25 28 37 32 32 34 34 36 29 30 44 29 30 37 22 26 32 33 30 33 37 59 26 32 28 31 33 27 35 29 25 31 28 35 36 42 26 32 38 34 33 22 26 34 35 30 43 30 23 30 26 35 41 36 34 36 28 26 25 31 30 24 23 37 35 35 31 36 41 30 32 40 23 31 34 32 28 36 38 34 25 42 34 31 37 39 33 29 28 53 45 37 44 33 40 37 25 31 30 30 23 40 31 23 28 29 30 39 32 29 28 35 29 26 34 37 38 29 36 22 34 26 30 36 28 32 33 35 24 31 26 38 26 17 30 27 27 31 36 27 36 36 34 25 43 27 37 34 36 31 37 31 34 35 28 41 30 31 34 42 38 30 46 32 38 28 31 32 32 25 28 30 34 36 25 39 37 34 36 37 34 33 35 26 33 29 28 32 32 36 37 29 34 33 39 34 32 28 31 25 28 22 36 36 28 31 38 41 26 27 32 30 30 27 29 28 34 37 39 35 29 42 25 32 29 35 37 29 38 27 30 34 26 38 22 33 38 38 25 52 30 29 30 41 54 35 28 27 25 28 40 35 38 34 24 39 28 37 29 34 31 31 23 34 36 42 38 30 33 33 29 34 31 33 32 37 41 36 24 38 26 26 22 33 49 30 37 22 35 32 36 33 27 37 60 35 32 25 36 41 29 42 29 30 42 30 27 31 31 29 36 39 27 50 31 36 38 38 24 35 29 32 38 35 46 43 24 31 36 31 20 34 39 29 29 40 28 34 28 40 44 27 46 33 39 34 25 30 26 20 25 37 42 28 27 32 40 36 35 22 30 32 31 28 32 36 31 30 39 37 31 31 37 31 33 31 31 26 22 29 40 27 27 32 39 29 33 19 34 32 48 31 36 22 38 39 24 32 25 37 32 35 27 26 36 35 29 39 37 31 26 36 26 35 34 34 38 31 41 37 38 26 34 37 35 27 20 26 32 37 26 30 42 33 30 24 29 26 37 31 40 41 38 38 29 32 24 40 30 34 24 32 46 28 35 31 29 28 28 31 29 25 29 30 32 30 28 36 30 29 34 20 28 34 31 38 30 33 28 32 30 34 39 41 36 25 24 27 27 27 39 32 37 32 35 30 31 37 29 33 27 40 24 36 30 32 35 27 38 23 32 32 29 36 26 29 35 32 45 48 42 42 36 33 33 51 39 33 33 27 29 40 29 38 30 27 36 34 36 27 29 22 39 31 34 33 36 35 34 37 36 38 26 34 35 30 24 35 36 39 38 32 31 29 31 32 36 33 28 26 33 21 36 27 36 28 35 33 27 34 37 25 36 30 31 35 33 34 35 34 35 31 35 39 27 27 26 32 27 37 38 41 30 36 37 35 36 29 26 30 31 42 38 28 38 40 35 37 34 28 38 20 43 20 53 41 36 41 34 41 34 34 40 38 35 28 34 24 27 27 25 23 38 29 31 31 31 42 28 37 41 34 37 32 27 27 24 42 29 29 32 29 33 38 32 39 27 30 47 36 40 29 38 35 38 28 35 24 49 33 29 29 24 37 26 32 33 36 30 38 33 27 30 23 30 34 26 29 32 23 43 35 30 30 34 27 21 36 28 40 31 28 36 30 41 29 26 26 23 30 35 26 29 28 26 35 28 29 32 36 28 29 36 30 36 41 24 29 27 35 30 28 25 37 24 36 23 34 33 38 35 32 33 21 39 42 37 31 30 46 28 34 33 37 48 30 30 41 33 38 33 32 42 24 36 22 25 26 27 26 36 32 37 34 22 39 32 28 30 35 40 41 32 33 30 36 34 30 27 33 27 31 19 34 32 31 41 30 42 50 34 42 36 28 30 22 26 30 34 32 29 33 34 28 29 37 48 26 26 24 38 41 28 33 37 33 33 40 21 39 25 30 43 34 42 34 26 28 30 47 30 30 39 30 44 27 33 23 24 25 32 29 29 36 32 25 42 38 27 29 37 34 34 35 34 33 33 29 40 35 35 35 29 34 34 38 29 32 29 31 30 39 37 31 35 31 34 36 26 39 44 36 32 23 31 23 34 41 34 39 31 30 29 36 31 39 39 34 31 33 34 26 32 31 25</t>
+  </si>
+  <si>
+    <t>JSB(9.78854900163768, 9.095155285487774, -340.60597997759635, 2204.8139009263823)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">294 190 243 237 223 200 182 276 319 253 189 277 208 211 215 218 204 270 271 154 165 289 175 229 184 140 215 190 319 249 246 210 245 197 323 233 255 253 219 223 181 229 237 231 128 236 206 229 245 163 238 274 249 254 190 205 279 239 155 253 250 141 150 289 123 152 261 204 220 210 161 161 251 157 175 210 206 285 229 233 223 194 253 142 215 135 237 131 226 188 239 216 254 191 211 270 234 186 235 256 113 221 192 194 180 179 218 209 263 225 216 178 169 230 274 183 257 292 224 214 116 206 246 165 254 269 236 409 241 271 225 204 284 260 310 148 195 192 291 283 321 248 283 178 201 278 257 233 293 246 200 253 269 200 242 232 120 193 204 224 279 247 157 178 216 191 209 223 215 258 265 146 233 235 252 260 231 178 187 232 196 263 279 259 240 186 232 267 188 234 207 241 183 203 175 121 225 274 177 225 255 178 99 244 250 283 265 280 232 202 191 161 179 203 281 237 201 244 201 212 222 216 206 250 149 173 160 187 225 213 257 156 283 129 197 204 143 181 233 213 192 223 233 159 196 201 282 209 227 186 307 129 270 243 238 186 187 241 198 204 286 182 289 287 187 276 177 171 201 231 282 146 253 208 234 233 216 237 186 215 225 283 197 252 239 250 314 213 273 150 182 179 242 205 237 216 300 277 250 309 198 278 190 218 106 247 228 214 272 265 214 228 195 225 191 268 97 128 166 225 215 301 284 222 280 300 257 302 186 181 267 225 284 249 213 292 265 194 188 133 189 282 245 318 240 184 238 217 234 341 213 235 271 150 226 263 289 269 188 242 196 143 276 159 239 156 197 242 222 230 243 188 238 239 227 246 247 225 213 255 149 161 289 215 193 313 277 262 326 256 167 146 226 232 160 229 167 304 212 212 221 261 198 160 294 211 228 252 210 259 251 314 276 320 266 323 306 230 264 289 259 250 190 235 260 220 206 252 138 201 210 169 171 177 228 225 267 276 242 232 255 204 201 178 151 243 251 134 231 330 191 117 178 286 224 183 227 160 213 269 237 176 226 192 312 166 182 301 173 237 159 251 172 246 230 209 187 206 318 217 164 181 206 211 152 229 190 280 141 252 165 250 260 236 229 182 242 248 229 308 233 199 192 275 218 273 235 160 252 284 208 293 103 273 245 224 218 179 176 215 233 167 224 220 237 203 195 230 208 235 226 169 257 229 185 163 276 196 184 136 192 288 177 215 205 243 289 259 240 201 225 164 264 140 219 230 138 198 333 242 264 176 270 219 255 198 227 264 173 281 211 187 209 221 212 256 250 374 260 273 290 197 130 193 293 152 155 209 242 207 231 253 230 212 160 168 293 298 213 169 203 216 243 201 216 162 215 254 279 250 252 287 253 251 333 191 248 178 163 227 255 264 277 178 272 244 199 220 272 272 189 206 173 227 285 265 275 200 183 157 273 186 206 202 148 185 186 232 183 199 229 197 229 232 298 222 270 235 224 200 235 194 168 218 213 240 258 253 213 222 167 247 128 155 219 217 215 175 222 122 283 223 263 255 227 130 240 162 284 243 175 260 210 165 152 220 267 136 199 186 256 204 253 254 283 224 285 218 312 295 286 206 185 212 271 266 295 242 268 206 217 182 235 223 180 325 178 175 285 227 207 224 161 234 231 227 189 228 288 213 211 167 208 206 184 278 223 251 189 225 196 175 220 231 182 189 200 170 198 217 219 202 249 147 233 163 198 217 199 193 206 162 186 227 253 186 199 180 220 238 204 226 228 213 158 270 278 175 271 189 320 224 247 216 216 225 280 174 259 214 211 263 210 229 253 175 205 251 268 255 293 216 237 190 222 175 179 158 290 154 201 244 153 252 185 252 262 248 212 210 204 223 209 219 261 182 139 149 212 145 178 206 199 248 222 267 172 307 162 253 194 222 135 220 248 311 146 334 171 146 213 212 270 287 205 249 190 242 272 236 214 158 187 249 213 163 160 259 245 194 244 262 173 211 270 187 264 287 187 219 260 267 245 216 169 220 214 281 210 187 141 280 177 245 256 202 297 157 286 234 189 230 188 233 244 264 230 210 291 228 193 231 253 287 292 286 205 220 235 212 202 116 187 352 220 241 216 216 281 262 210 278 194 269 160 176 187 181 241 276 136 259 319 167 136 257 124 186 274 272 195 170 238 172 197 277 205 206 204 215 291 248 299 269 201 167 216 267 158 181 225 296 243 260 176 203 174 193 234 240 162 296 176 297 339 266 280 237 174 216 176 319 256 256 240 241 275 174 362 220 226 119 191 248 293 195 219 147 172 202 193 194 226 199 254 254 262 157 209 221 242 237 260 263 264 265 199 226 238 273 166 291 133 229 188 180 162 207 225 256 175 210 262 227 240 309 283 362 182 224 233 293 223 248 209 207 238 224 188 198 266 236 173 190 134 223 140 235 212 220 186 233 211 187 250 206 284 131 195 214 232 241 237 143 147 235 170 242 221 211 179 207 149 230 248 174 269 188 201 169 315 252 240 232 210 235 163 213 241 215 116 257 196 265 253 239 185 168 209 179 188 189 260 232 246 244 223 177 187 352 214 229 310 190 258 215 212 293 150 207 162 175 264 227 208 212 169 154 321 124 225 176 282 185 238 305 231 171 286 174 294 252 209 180 152 228 136 248 225 286 221 249 243 171 222 185 262 171 260 181 303 233 165 294 233 178 247 111 200 295 252 239 246 126 219 169 227 261 216 219 197 233 180 357 132 176 242 183 300 165 199 310 347 157 167 295 220 232 147 221 205 227 194 210 206 138 169 246 228 265 221 217 143 282 220 130 285 244 271 217 178 218 230 245 278 307 157 206 217 160 236 158 234 139 267 230 200 260 193 179 228 280 175 179 192 239 136 208 169 252 287 197 228 234 192 226 208 203 187 194 188 157 221 258 175 276 138 196 202 192 261 185 255 253 211 215 190 322 210 262 189 266 237 194 235 231 223 215 136 311 106 251 228 232 344 169 244 232 219 218 237 133 246 223 157 173 261 205 215 219 307 201 258 246 195 173 247 253 181 248 294 180 159 166 308 226 256 141 269 334 216 155 273 228 211 161 227 272 249 215 164 217 121 268 298 164 194 268 197 141 174 224 195 230 261 262 212 250 206 179 219 242 196 228 205 204 184 304 265 197 251 213 225 176 159 229 237 280 169 194 264 180 243 231 236 229 299 233 187 273 218 233 217 208 221 140 222 219 206 198 325 251 260 176 210 284 286 320 169 244 199 149 223 223 140 284 226 159 223 243 229 260 244 166 212 280 170 227 298 151 121 216 188 126 260 165 205 227 230 223 265 341 197 204 213 206 209 238 175 156 266 176 161 221 324 264 195 110 218 234 225 268 311 221 166 182 149 251 284 191 162 217 262 239 270 270 249 185 262 229 246 192 233 277 272 227 152 220 187 197 273 228 175 283 230 193 270 254 352 227 194 245 191 276 179 290 124 272 270 175 300 224 309 212 278 195 232 188 163 199 206 217 153 231 253 183 248 239 299 250 169 213 216 192 239 218 226 259 250 242 242 238 253 190 198 234 151 254 120 208 173 182 293 215 234 295 219 252 228 198 230 242 233 303 237 183 195 176 212 221 208 191 283 188 115 198 276 244 240 157 244 177 259 223 199 211 167 220 194 217 208 230 182 192 126 233 213 248 181 253 189 230 188 256 257 146 241 249 256 189 219 219 244 274 257 230 273 200 277 220 180 188 165 197 223 197 232 224 224 300 226 153 220 290 284 193 130 242 214 231 261 165 199 259 198 230 261 191 241 200 255 306 183 197 221 140 222 215 192 183 292 170 200 173 135 232 226 313 220 238 163 211 258 173 218 262 223 149 287 147 256 329 195 196 207 213 182 209 238 222 350 229 258 236 270 244 165 256 226 284 349 83 197 266 162 217 267 201 191 232 174 153 225 169 192 125 177 189 253 248 233 224 216 251 204 280 215 281 239 170 184 167 158 226 231 176 198 192 260 159 242 167 298 241 227 180 188 160 247 192 283 217 205 173 196 238 184 216 251 302 253 205 225 299 266 140 256 151 254 167 186 234 139 220 247 263 215 217 124 210 267 243 215 193 193 231 148 213 236 177 261 233 269 266 189 185 147 212 297 227 235 196 258 253 234 183 191 254 217 184 201 295 169 262 182 221 160 250 259 246 203 159 219 311 114 217 142 222 240 268 170 180 301 301 237 168 221 299 210 171 225 227 220 187 103 291 317 181 147 215 203 121 272 166 227 217 232 270 177 333 159 137 244 203 212 161 272 230 256 268 187 147 218 247 191 163 243 247 286 304 131 269 211 254 259 261 217 215 212 245 196 191 158 210 190 278 153 182 153 205 201 198 277 169 119 240 150 173 293 292 259 176 115 225 194 231 215 207 232 244 248 266 271 243 224 139 176 190 186 243 230 223 157 268 204 211 199 217 325 251 241 155 200 201 208 246 186 231 308 186 157 299 206 248 192 270 171 255 189 264 184 228 223 233 280 291 212 230 213 307 214 193 179 213 215 223 243 195 176 283 218 192 269 301 295 218 228 288 223 181 167 211 162 212 191 214 198 245 252 179 317 262 227 275 284 138 215 235 209 255 214 200 204 163 126 243 197 180 246 157 291 220 301 177 156 203 160 176 262 139 201 155 304 296 144 189 170 218 220 207 153 186 220 199 269 327 176 203 196 161 202 202 213 228 222 215 224 256 359 223 169 202 248 195 216 188 224 225 302 201 106 203 236 164 210 257 127 274 280 228 214 188 193 171 274 267 157 218 251 218 282 177 235 185 247 287 152 222 197 251 82 232 233 272 200 165 321 244 201 201 269 167 201 189 256 238 207 134 228 178 254 184 242 181 217 227 252 254 292 238 244 161 168 267 212 252 258 226 266 251 213 166 263 255 192 254 219 211 172 121 311 207 194 211 250 156 340 322 220 251 241 269 240 184 283 194 204 161 147 186 265 217 219 251 249 291 182 235 222 247 312 213 260 246 160 211 205 179 170 220 278 151 213 234 254 155 196 194 287 173 183 180 191 271 221 234 270 163 178 181 244 196 167 246 263 267 178 315 210 226 161 237 217 108 235 251 216 247 249 165 257 207 276 156 245 148 282 227 170 198 239 240 137 244 290 236 273 187 187 193 193 194 162 300 256 254 330 172 209 146 181 160 199 210 205 245 150 246 269 234 278 141 188 259 159 237 254 274 236 232 176 208 281 190 180 174 273 177 245 265 255 249 203 220 159 258 185 140 144 224 153 230 190 191 203 216 171 234 248 319 184 234 315 255 246 156 242 148 241 193 191 225 282 266 222 148 255 230 290 216 120 207 278 225 198 255 176 226 207 129 175 258 222 187 245 119 165 242 283 191 182 230 157 313 257 251 210 147 165 224 200 254 251 236 147 178 246 254 271 258 213 299 150 321 221 171 188 213 192 217 283 309 197 259 196 295 200 252 176 217 184 203 293 248 189 235 225 192 207 190 232 226 159 186 234 164 144 146 268 206 335 232 236 267 215 248 267 258 236 200 165 215 259 230 165 220 228 212 191 100 194 241 262 188 251 318 190 259 160 178 224 235 207 193 253 187 206 168 148 188 149 169 187 190 247 190 231 222 190 162 167 282 186 157 154 274 206 205 256 262 201 185 245 164 257 198 253 257 192 189 206 276 245 189 162 242 243 160 292 114 252 217 320 259 189 187 228 191 188 266 285 250 199 236 134 225 215 226 266 163 150 199 186 210 236 245 198 228 301 143 166 401 208 174 254 167 230 277 287 269 255 175 265 198 182 236 171 265 148 176 153 265 210 217 201 257 141 120 274 176 206 333 189 242 210 271 221 201 275 227 229 234 227 253 181 248 226 122 304 262 228 286 232 161 223 236 190 261 245 254 225 250 123 219 189 192 206 191 193 233 136 218 261 240 239 277 262 197 203 200 204 221 150 172 139 251 218 194 223 196 159 268 219 225 280 227 254 168 224 279 168 214 149 152 211 242 196 205 261 184 226 242 214 213 190 149 174 221 240 319 263 258 264 192 283 176 270 126 175 281 204 256 275 185 182 142 251 185 242 218 241 146 173 155 245 238 154 286 276 202 217 253 267 256 157 237 97 171 259 205 192 234 140 364 253 222 201 192 170 301 264 198 218 243 209 192 143 211 191 209 188 188 244 262 259 183 264 123 279 224 249 271 283 205 183 241 219 208 179 179 216 175 207 212 227 272 339 234 185 203 328 334 249 286 169 163 195 90 256 308 228 289 228 243 174 272 251 242 253 169 283 241 280 211 181 228 164 217 221 200 191 194 197 213 233 178 323 243 298 230 186 250 199 223 178 180 250 200 163 172 187 212 254 213 211 181 205 239 231 184 229 167 212 254 250 173 295 214 216 221 264 217 224 204 244 268 176 153 266 247 296 205 221 264 198 228 332 277 239 211 232 253 217 262 176 249 215 213 251 196 217 194 199 205 201 317 324 324 206 164 265 94 255 239 271 234 239 173 254 195 202 195 148 214 167 148 220 245 262 176 199 268 311 251 207 253 149 272 211 276 286 219 241 220 216 215 140 247 245 178 262 170 248 157 314 232 194 271 220 163 227 224 187 227 212 250 185 212 203 215 226 221 264 239 219 121 143 264 179 219 241 293 169 190 298 181 201 196 196 223 158 139 158 186 279 232 285 128 206 227 172 171 208 214 280 252 249 205 164 240 238 146 187 198 174 256 184 204 209 280 265 260 230 216 229 193 244 212 195 215 320 156 188 213 174 254 226 202 264 240 316 280 194 232 176 174 160 249 230 273 263 249 283 167 183 268 224 219 196 244 255 203 263 196 210 221 308 338 214 230 161 212 251 236 192 161 242 166 274 226 262 113 206 249 136 227 212 218 165 195 265 235 196 253 224 211 200 261 276 165 234 213 232 126 245 222 211 261 95 279 179 222 217 264 184 214 216 230 223 111 295 232 235 250 212 234 197 235 182 173 103 153 156 227 92 215 259 294 108 165 159 172 277 178 250 272 260 202 261 250 229 178 237 239 160 174 199 147 293 256 186 169 130 224 316 272 320 147 243 187 221 214 315 294 283 202 236 169 249 267 268 227 199 294 166 204 242 200 320 199 158 229 236 215 203 165 162 290 235 162 277 283 193 213 185 240 266 225 185 230 147 214 271 186 131 227 261 195 149 273 201 217 215 272 285 190 278 258 215 172 210 233 197 219 156 216 294 230 188 205 290 234 260 205 234 237 287 196 195 213 169 198 279 213 264 193 215 259 313 167 164 128 175 155 202 217 138 263 248 190 284 186 226 276 148 296 145 239 217 202 119 282 193 274 242 252 254 217 171 192 229 205 190 392 244 170 180 274 213 404 257 204 241 308 219 228 228 198 179 265 155 161 164 220 140 164 214 195 234 274 312 146 253 249 205 244 131 247 218 211 203 225 298 282 192 171 182 209 263 174 232 216 143 173 214 216 237 297 206 245 192 216 323 233 249 175 253 218 205 147 302 208 230 195 206 242 193 234 222 247 213 151 186 228 157 195 210 234 239 282 121 242 284 263 164 203 256 244 253 172 166 281 204 172 242 171 328 255 229 201 221 291 216 221 279 238 188 308 166 193 78 303 195 256 170 314 163 186 183 319 184 178 217 235 200 225 191 265 285 269 207 198 262 171 331 232 248 238 300 172 201 229 222 175 222 232 204 153 269 174 225 251 267 300 219 283 146 177 216 254 314 219 230 328 287 159 187 304 215 211 277 263 259 145 208 160 195 205 248 252 290 220 221 245 262 341 309 261 176 164 197 175 212 253 240 242 275 207 290 215 271 190 211 208 264 167 167 207 205 217 218 242 243 285 203 208 123 135 262 228 256 189 273 231 280 174 227 178 179 319 282 147 199 281 166 329 134 230 251 228 272 227 261 246 303 203 197 335 187 150 237 173 259 308 189 300 239 139 157 220 198 226 175 183 127 210 203 210 326 218 185 148 244 201 202 250 237 289 246 218 276 270 252 228 271 311 218 181 230 246 231 293 246 183 203 213 175 251 261 227 199 149 178 149 250 228 192 256 235 276 207 256 274 244 203 233 189 165 189 147 206 193 168 212 184 196 294 241 173 148 222 217 255 213 149 160 214 291 175 132 214 237 190 127 166 112 193 168 160 260 208 160 285 159 244 184 195 124 191 233 204 205 269 170 221 196 318 234 297 226 196 189 165 136 188 188 182 213 203 169 121 264 274 258 208 212 253 189 154 202 204 196 270 232 248 215 175 239 211 197 262 179 207 243 134 206 209 254 278 213 222 208 246 267 248 226 122 280 181 186 213 256 284 212 199 278 215 285 158 258 287 233 202 222 221 201 293 186 213 197 240 289 165 247 227 320 118 295 219 248 217 169 273 157 248 206 209 273 192 270 249 219 266 156 266 160 211 165 197 301 224 254 207 260 199 221 224 210 228 168 241 172 258 268 202 224 152 281 291 118 244 188 122 177 159 250 162 233 231 207 217 242 243 246 248 269 331 282 217 280 226 236 128 266 243 255 295 194 230 221 253 166 116 183 194 246 225 217 187 146 269 262 208 219 160 240 224 205 330 249 223 297 147 251 286 205 301 285 287 218 195 206 176 215 271 257 204 268 242 232 226 225 263 275 228 293 173 205 241 205 328 256 228 320 305 238 247 224 271 196 187 109 149 191 138 234 224 199 221 128 197 217 272 223 321 176 194 195 255 189 243 207 285 240 212 167 213 112 144 200 202 173 212 179 246 162 240 260 202 152 86 236 168 201 205 254 207 166 220 298 194 258 322 187 237 260 289 273 236 268 200 202 289 233 258 275 159 219 257 262 286 295 209 191 205 258 265 200 207 179 148 241 266 279 167 157 188 268 250 206 227 293 252 173 134 240 198 254 149 234 244 149 246 209 181 234 214 316 265 126 198 249 151 336 216 200 308 223 277 202 210 203 226 180 337 187 152 250 251 197 280 152 256 229 278 212 231 232 273 221 286 299 175 169 283 238 223 231 266 189 300 218 201 188 244 261 149 197 267 178 185 226 200 265 197 192 174 229 291 206 229 199 252 250 224 176 274 180 246 263 162 276 259 176 277 191 222 253 280 264 236 201 218 267 126 318 238 284 259 271 303 146 184 205 180 267 136 113 244 243 216 265 190 200 219 278 283 241 191 235 255 195 208 189 260 170 227 214 201 230 140 209 149 227 157 183 214 182 214 261 248 149 164 241 233 251 245 146 177 211 215 250 226 209 222 300 218 214 219 243 267 194 177 210 241 369 172 242 213 290 204 247 273 212 186 292 198 191 250 224 201 155 224 179 234 167 239 212 250 235 269 277 154 209 271 142 248 245 257 265 227 195 276 177 264 190 275 271 301 207 212 247 166 148 207 136 174 247 205 206 244 111 202 186 202 225 129 257 205 236 234 296 216 249 272 171 166 214 272 210 237 273 211 152 236 191 215 289 224 198 286 170 209 212 200 202 172 251 153 151 206 223 202 122 231 147 193 171 197 169 275 259 248 257 194 261 183 236 233 220 297 159 179 264 227 157 251 181 187 146 164 234 196 224 209 379 139 203 282 168 302 236 229 222 222 268 283 187 213 231 183 202 157 292 165 168 275 314 227 203 246 203 152 336 156 273 270 263 240 237 190 202 333 201 245 270 262 223 179 279 248 241 259 227 213 244 242 220 177 340 200 157 277 261 245 253 254 223 251 287 160 180 128 268 189 210 200 248 161 220 248 137 194 289 197 223 152 179 229 228 264 238 168 236 231 322 251 215 281 303 197 157 174 182 170 227 214 156 250 225 248 180 245 216 240 269 207 192 151 205 209 186 225 254 125 266 244 195 284 235 250 176 192 213 196 254 202 190 336 259 321 259 303 156 200 249 192 191 251 226 221 172 131 224 262 207 134 259 132 285 286 208 234 210 236 140 207 156 264 113 207 242 196 276 211 187 245 238 313 248 208 203 276 284 239 255 202 145 199 243 250 240 219 233 256 174 260 211 190 302 207 248 246 202 162 125 165 191 228 167 224 331 276 278 201 276 211 234 251 176 213 195 276 234 205 353 218 326 313 232 205 191 298 250 249 237 252 175 174 232 203 239 273 271 226 198 295 196 235 223 200 152 268 242 208 231 172 167 283 193 140 188 221 182 193 238 222 245 257 274 190 269 133 233 250 231 157 187 254 175 169 235 262 235 195 209 176 186 146 182 169 210 212 211 275 220 199 251 237 198 148 212 201 188 308 232 274 235 241 215 260 237 161 201 145 217 164 157 171 241 195 257 197 219 140 207 168 216 209 216 175 254 268 227 210 235 264 151 244 187 254 228 186 286 238 188 152 309 192 343 175 211 247 223 273 178 192 222 289 262 226 226 254 122 195 240 159 205 128 225 148 137 237 218 198 128 210 285 179 246 272 284 141 248 179 187 252 158 278 289 197 260 229 201 207 228 183 201 215 366 154 250 147 247 251 153 165 255 255 275 203 252 245 308 186 224 255 185 144 222 303 217 242 323 137 163 198 168 248 225 184 192 278 219 168 165 181 231 162 230 187 258 256 296 187 240 115 223 132 256 203 231 181 205 237 255 239 217 241 286 251 261 256 174 197 160 168 227 186 193 220 221 310 224 187 246 214 148 281 241 186 164 285 174 196 199 194 160 177 264 206 146 277 239 182 243 300 257 191 196 204 220 213 215 205 194 242 204 241 252 248 264 203 240 266 248 219 212 214 199 248 193 172 282 268 298 193 177 267 227 284 173 266 207 221 221 186 198 243 221 197 190 223 222 300 238 223 246 199 252 247 248 237 232 230 198 261 184 321 236 228 243 231 228 326 249 211 175 237 150 246 219 235 236 234 221 341 260 145 298 261 222 214 193 317 277 216 330 156 256 267 175 207 312 200 197 154 230 205 264 327 243 280 279 218 285 234 180 169 235 267 176 199 196 264 165 166 235 230 250 250 188 265 125 203 238 247 174 175 170 260 140 213 189 301 106 255 218 259 206 320 173 238 154 197 269 246 169 239 272 251 224 166 193 221 258 269 386 185 348 205 198 278 175 248 206 213 166 220 179 233 231 206 212 178 305 168 207 193 191 239 201 272 204 277 230 267 285 191 154 232 275 266 255 250 185 257 179 197 190 253 203 210 247 230 177 182 288 252 256 124 234 270 212 199 254 225 270 264 211 244 229 276 166 172 275 143 184 235 199 222 264 270 288 160 133 301 190 186 251 213 251 230 247 201 202 266 191 190 191 195 226 233 146 210 245 204 250 247 222 223 252 195 237 209 291 184 218 239 194 217 210 208 145 199 245 264 152 124 186 144 205 147 193 186 260 319 165 295 265 174 296 231 234 207 226 170 185 251 236 159 192 218 236 245 270 192 221 253 184 268 243 286 172 214 308 155 161 246 197 214 235 193 276 269 207 203 237 221 293 162 253 277 156 224 168 148 353 220 267 229 179 241 212 204 249 182 340 235 109 262 200 246 293 359 237 239 291 224 223 251 148 221 230 276 257 191 165 316 154 236 208 213 228 155 244 237 224 218 286 218 184 197 271 236 217 239 236 246 290 170 220 224 186 275 249 207 174 346 191 325 296 177 241 164 177 254 265 151 169 176 182 324 301 274 218 269 303 242 245 261 269 170 159 244 212 257 190 193 254 327 192 236 318 207 330 255 351 143 288 260 273 206 176 190 181 167 192 203 287 225 173 272 268 228 283 307 196 186 308 173 156 163 213 234 231 286 225 235 181 247 211 345 172 189 237 234 238 266 142 252 224 133 192 282 188 260 239 277 155 233 234 225 251 188 226 309 216 207 280 258 193 204 275 305 261 176 234 288 282 229 153 235 245 235 255 281 209 278 162 228 180 153 194 246 283 302 285 225 212 229 159 194 285 279 242 228 161 164 207 282 221 209 223 226 167 266 277 151 251 216 230 283 195 256 330 203 204 248 255 123 275 159 174 263 234 213 158 222 169 178 222 202 216 215 165 172 236 271 217 258 256 206 210 291 214 304 194 263 229 221 139 209 201 224 230 189 182 196 204 275 281 285 144 191 111 189 227 244 203 252 236 223 156 260 262 205 149 203 322 251 219 246 217 353 236 189 185 260 168 253 182 163 179 277 170 220 154 231 300 221 178 271 198 179 232 189 220 178 218 194 238 296 302 233 112 269 247 286 220 257 188 288 259 237 238 237 360 275 185 246 289 186 249 201 292 250 214 207 213 223 223 228 219 232 269 236 169 266 247 178 180 219 217 278 244 297 219 195 219 237 166 208 154 239 274 193 190 201 207 119 202 233 199 305 277 238 253 309 226 224 255 233 247 225 207 212 214 246 203 186 193 182 256 238 286 191 215 215 190 279 176 253 157 210 200 225 253 193 215 165 276 214 247 252 238 188 155 219 236 250 331 132 170 224 265 279 165 238 245 260 170 198 258 225 199 332 261 271 171 234 245 223 222 250 208 178 227 220 146 335 193 151 240 219 247 221 205 222 231 268 220 291 213 226 217 201 242 221 174 196 240 174 248 212 183 188 220 310 206 200 224 243 254 241 235 284 252 196 183 188 315 239 173 179 183 239 280 203 218 297 294 166 301 192 219 259 203 188 266 219 321 162 253 181 222 256 199 263 304 248 189 171 261 304 264 201 307 265 242 210 282 261 288 241 274 200 197 201 176 219 188 208 170 202 266 211 274 241 244 263 211 187 200 180 202 227 270 240 212 174 212 120 171 220 208 209 273 169 189 199 178 166 219 200 217 184 215 193 252 128 216 216 210 199 253 249 199 260 178 203 289 233 312 204 218 208 266 189 265 246 214 188 379 222 220 188 220 269 214 255 226 200 241 223 203 176 250 206 256 220 249 223 174 158 185 238 264 225 281 224 212 204 257 209 210 184 237 131 200 282 296 202 239 224 121 189 238 330 305 200 181 162 160 257 214 230 210 106 238 310 188 182 273 200 162 136 237 269 271 307 185 228 232 192 197 170 247 240 311 241 192 193 194 214 278 267 219 208 349 233 204 196 209 159 261 195 204 303 184 167 306 243 196 243 311 202 294 214 239 229 247 198 196 297 204 232 233 215 199 299 195 183 201 184 229 214 272 280 309 270 205 195 154 265 260 161 284 275 284 257 198 244 230 167 197 281 215 215 199 136 175 237 163 203 189 235 139 146 153 168 210 289 247 220 301 224 185 246 227 196 189 307 223 295 172 216 263 293 212 198 169 155 187 279 201 201 188 305 213 206 216 279 255 184 218 181 120 198 245 159 288 103 242 235 227 206 233 197 252 193 207 250 233 193 151 277 228 237 250 241 189 240 274 274 217 118 199 153 183 193 192 300 213 274 261 151 233 187 244 205 204 255 214 155 229 198 217 219 195 260 257 305 216 163 220 122 252 123 244 155 176 235 193 183 213 227 211 233 246 224 267 215 80 251 241 173 279 326 230 274 219 180 204 190 173 211 223 215 259 240 250 188 177 152 134 242 259 228 314 170 250 155 237 211 205 237 273 199 218 172 224 254 200 251 180 147 279 278 202 256 305 211 226 219 198 272 216 322 153 261 313 224 237 204 201 187 235 244 220 182 285 256 184 271 189 194 215 246 279 228 211 214 125 118 172 223 236 228 241 210 262 204 172 215 227 206 210 227 235 207 216 250 193 179 169 278 151 264 297 211 274 173 242 244 214 340 219 273 84 115 186 174 186 257 200 210 212 150 200 151 188 274 145 232 226 189 268 190 301 219 268 333 188 175 184 216 161 259 180 227 174 194 288 167 184 182 302 157 250 251 225 207 136 228 139 175 140 172 182 171 223 250 203 238 202 178 218 215 244 206 211 225 173 240 279 159 224 183 233 140 211 271 178 214 190 295 239 212 273 225 206 184 244 219 171 214 209 256 351 234 248 171 285 196 202 245 191 274 212 264 205 222 298 231 195 285 175 200 230 183 275 227 281 191 260 255 188 220 166 175 193 147 272 178 175 215 163 163 218 200 215 175 220 239 233 274 123 268 249 159 275 259 221 224 145 229 218 256 205 289 259 119 209 150 168 213 223 155 170 248 222 137 194 287 263 187 258 193 226 185 212 146 123 207 251 179 232 267 199 215 145 233 227 221 222 278 243 281 221 252 285 235 265 334 214 210 259 239 188 306 287 263 155 225 221 373 197 182 249 202 263 309 216 226 277 213 190 169 296 211 198 179 242 178 261 223 229 185 162 222 225 199 223 161 179 289 261 240 242 265 221 116 327 219 210 242 170 248 194 205 221 165 216 229 212 201 228 225 164 166 164 298 217 205 168 298 275 239 222 214 195 278 212 258 319 250 232 168 312 245 231 252 257 231 247 258 183 185 281 218 190 242 338 238 112 276 196 218 277 238 186 238 362 171 261 284 276 214 303 223 268 202 243 240 266 209 164 287 202 127 235 241 191 170 172 229 196 279 226 198 225 298 184 186 148 249 241 203 173 165 208 226 285 261 229 277 176 186 135 201 219 287 266 217 161 135 230 256 193 100 219 173 257 235 216 215 264 244 226 230 276 261 231 172 134 254 306 200 246 219 310 149 221 305 228 154 128 204 276 228 276 172 261 243 273 176 245 210 278 153 274 290 255 234 194 232 249 205 169 294 215 284 202 210 216 162 265 272 183 206 103 179 236 205 231 177 291 144 178 197 185 164 312 212 190 329 195 172 214 185 156 121 356 158 237 279 240 259 276 237 216 220 216 193 255 203 143 205 220 269 290 209 225 224 200 139 121 241 209 172 334 279 181 230 287 140 228 224 153 175 219 205 260 313 179 201 282 223 203 234 166 273 159 142 104 237 187 194 326 259 352 192 199 256 131 275 209 253 252 204 316 185 281 216 271 233 164 260 212 202 199 166 280 216 135 308 212 251 216 183 156 206 251 226 244 212 288 126 297 213 186 128 267 254 182 271 140 225 181 225 239 200 193 285 207 224 243 275 199 260 267 226 242 159 199 229 209 249 255 240 239 220 268 232 262 148 248 164 161 213 221 199 296 190 200 245 224 229 191 221 190 216 196 198 240 154 238 180 254 201 273 197 281 216 108 163 243 249 257 319 249 195 191 250 287 201 232 171 226 245 283 236 300 199 323 200 250 189 254 219 279 282 268 194 277 190 310 295 301 249 239 256 208 219 243 179 199 213 221 203 178 150 245 198 161 218 198 204 135 218 206 234 222 239 248 173 248 224 264 200 170 293 155 266 238 197 287 180 207 166 191 247 240 251 223 207 253 224 197 184 321 169 227 317 249 223 219 169 218 274 191 297 377 213 207 208 226 196 135 249 240 127 279 254 234 235 214 233 209 220 220 159 198 273 185 229 191 259 218 170 214 177 240 260 284 214 181 178 218 266 274 335 264 192 321 213 227 263 191 248 304 268 210 257 254 237 123 305 174 265 312 213 138 286 241 195 157 232 271 265 167 272 175 274 224 277 181 207 197 219 202 192 202 324 304 295 260 207 209 198 196 317 228 270 278 255 209 214 233 201 190 156 217 258 209 214 196 186 206 179 193 228 174 260 217 198 292 198 218 218 238 208 176 255 205 245 201 192 179 241 311 246 269 270 261 191 201 190 178 227 176 256 245 246 221 282 227 246 218 238 243 274 122 280 169 283 251 247 216 194 218 238 212 168 197 284 200 219 210 147 179 254 271 189 199 306 282 256 219 217 272 233 243 228 152 214 264 287 245 170 212 203 249 274 152 211 280 228 277 201 140 258 233 150 88 267 251 261 180 131 194 182 234 230 224 200 222 271 317 240 282 231 260 335 267 209 227 283 173 181 148 184 256 177 206 331 391 236 178 238 234 179 135 250 155 281 186 237 298 157 196 250 179 187 311 208 173 218 193 260 216 193 294 237 182 217 180 192 246 300 153 300 205 265 307 233 279 237 290 305 192 198 221 161 237 141 332 278 232 200 195 225 272 211 173 212 248 169 237 220 231 242 236 166 230 302 236 192 160 302 207 274 126 275 264 266 196 164 246 175 274 211 299 307 238 133 225 211 157 275 223 285 189 258 242 276 240 233 118 214 276 349 193 179 221 305 223 239 231 270 218 244 250 227 161 212 197 187 255 225 274 212 184 239 350 179 200 243 205 178 252 182 175 189 212 175 228 206 257 214 172 241 231 274 214 167 178 242 256 183 229 254 229 221 254 176 196 254 229 179 219 270 237 251 215 236 212 293 204 182 269 133 185 209 205 270 295 185 106 294 289 241 320 146 217 145 307 212 197 326 254 178 165 198 247 286 181 156 145 277 177 290 231 255 321 277 242 218 158 185 248 279 184 249 221 241 320 319 272 209 233 211 314 199 214 213 165 204 202 185 237 263 211 220 223 208 179 215 222 172 149 259 200 214 267 131 158 195 267 204 216 296 152 203 183 152 269 156 370 181 192 226 258 172 273 300 212 170 241 164 273 240 252 233 238 192 213 204 191 225 275 220 197 125 211 229 190 168 174 174 182 222 218 158 197 313 177 308 161 215 211 166 200 207 157 237 211 168 251 195 208 250 183 201 261 294 161 212 222 235 256 177 215 192 151 207 243 168 214 199 287 215 275 232 261 202 196 212 197 215 163 231 224 203 227 264 208 191 191 241 171 201 178 259 251 193 257 248 227 284 249 214 192 176 219 239 246 181 202 200 212 218 129 269 340 236 214 148 223 122 210 212 284 167 168 266 174 199 212 158 272 278 216 234 159 272 148 194 194 195 166 331 215 251 365 211 306 290 253 188 313 226 214 151 219 227 249 160 242 235 182 210 254 176 196 233 179 223 217 187 225 188 149 142 275 221 182 252 166 246 310 195 201 165 210 211 249 190 224 239 320 317 158 263 198 181 160 245 164 237 259 122 215 247 264 204 236 142 170 247 175 213 259 251 254 211 297 202 233 276 179 281 208 266 181 212 234 138 183 235 254 229 253 167 202 184 161 230 256 234 171 218 260 254 240 278 223 198 184 294 282 274 159 228 253 205 271 158 258 227 161 252 170 263 320 250 191 166 210 203 140 232 206 177 142 165 204 209 253 229 146 183 185 224 236 207 135 174 254 178 174 231 222 205 243 248 174 282 243 247 202 210 257 231 197 166 218 209 167 189 218 225 182 126 226 164 182 299 217 216 275 216 247 202 146 165 247 252 225 261 178 220 185 237 192 203 311 239 273 258 223 211 177 203 169 210 241 255 179 153 144 253 220 190 241 261 148 179 237 161 233 237 246 231 237 247 169 219 273 172 235 179 144 203 189 264 185 200 243 206 219 226 258 268 181 287 207 263 201 230 93 284 268 289 253 166 241 241 207 248 260 114 207 206 283 177 240 291 217 265 244 219 278 315 170 323 224 175 212 271 222 248 189 162 182 228 165 169 224 224 252 150 268 272 255 217 237 236 231 189 126 89 170 160 190 213 155 260 216 179 198 193 121 221 245 203 194 166 234 209 178 230 164 230 173 183 161 221 167 162 281 210 259 315 195 124 198 210 223 309 160 191 238 201 286 185 273 244 221 300 203 231 186 190 168 225 306 261 268 230 284 212 198 203 302 332 247 205 267 148 226 209 164 193 225 249 178 246 176 304 225 184 167 187 225 217 150 236 110 317 199 278 242 188 159 273 223 257 223 232 211 173 179 198 117 252 218 233 133 292 162 247 196 256 285 286 247 250 208 205 226 224 165 160 302 181 210 197 224 179 124 195 222 174 275 238 164 194 252 162 200 235 176 313 199 142 243 239 226 174 242 229 231 225 223 194 169 162 231 205 141 235 192 185 208 142 191 185 207 231 237 153 232 138 112 227 278 170 208 207 205 172 180 276 313 271 196 206 295 181 298 254 223 198 267 207 209 312 185 185 182 178 252 288 195 154 140 250 160 207 185 201 202 248 191 266 236 188 199 297 190 227 124 263 164 270 163 250 250 231 304 169 295 266 200 259 179 254 209 220 109 242 154 243 179 246 252 204 193 229 243 241 193 276 215 241 188 200 166 233 243 212 270 217 229 189 235 273 185 225 251 222 180 235 206 181 361 251 191 240 265 230 193 218 290 259 238 191 184 130 245 204 216 165 250 161 207 121 254 172 183 162 274 257 239 234 228 229 153 182 245 242 225 216 154 273 196 261 158 229 264 219 104 273 239 275 189 254 235 243 236 195 252 233 274 169 231 260 189 255 116 269 268 158 310 225 219 224 225 298 190 277 143 206 248 161 262 151 180 299 255 189 122 182 235 212 238 281 129 207 221 212 219 219 268 158 183 236 208 270 255 175 189 273 224 283 247 221 242 186 187 202 243 308 200 145 252 163 210 196 190 248 223 213 266 249 190 120 241 280 238 248 280 183 273 141 176 162 289 224 212 291 204 152 245 209 172 152 227 234 217 195 233 241 217 312 191 288 245 174 219 330 229 250 243 196 303 240 230 186 212 149 251 252 209 200 228 279 229 200 88 183 188 256 145 178 233 170 311 215 176 254 189 214 220 240 224 221 246 172 258 315 252 220 162 255 243 170 283 290 243 228 238 264 286 </t>
+  </si>
+  <si>
+    <t>MIE(0.5516688684933849, 1.8970192399784436, -4.548668069624674e-30, 1.3548717168654445)</t>
+  </si>
+  <si>
+    <t>3 0 0 1 1 1 0 0 3 3 0 2 1 1 0 1 1 2 2 1 0 2 2 0 2 0 0 1 1 1 1 3 2 1 0 0 2 2 1 0 1 1 1 0 0 2 3 2 3 0 4 2 1 1 0 1 2 1 1 2 2 1 2 0 0 0 2 1 0 1 0 0 0 1 1 1 0 1 1 2 0 1 1 0 1 0 1 0 1 1 2 1 0 2 2 3 2 1 1 1 1 1 1 1 0 0 1 2 0 1 3 1 0 1 3 1 2 1 1 1 0 2 2 0 2 3 2 2 0 1 1 2 5 1 1 1 0 1 2 1 4 2 1 1 1 1 1 1 3 2 0 2 1 2 1 1 1 0 3 1 1 2 0 1 3 1 2 3 1 1 1 1 0 1 2 1 1 0 1 0 1 3 1 1 3 1 2 1 2 2 2 3 0 2 0 0 0 2 0 0 1 0 0 3 1 2 1 0 1 0 1 0 1 0 1 2 1 1 2 2 2 1 1 2 0 1 0 2 0 0 2 1 2 1 0 0 0 1 3 1 0 1 1 0 1 1 3 0 1 1 2 0 1 3 0 2 1 1 1 1 2 0 3 0 0 3 0 0 0 1 0 1 2 1 2 1 1 2 2 2 2 1 1 1 2 0 4 1 2 0 1 1 4 0 0 1 3 2 2 1 1 1 0 1 0 3 2 1 2 1 2 4 1 1 3 3 0 1 1 1 0 1 2 1 4 2 2 3 0 1 1 0 2 1 1 0 2 1 0 0 2 2 1 0 1 0 2 2 1 1 1 2 3 1 1 1 1 0 1 2 1 1 3 3 2 1 1 1 2 1 1 1 2 2 1 3 2 1 0 2 2 2 2 1 1 2 2 1 1 3 1 1 1 1 0 1 1 2 1 1 2 0 2 0 3 1 1 3 0 0 2 3 1 3 2 1 3 2 1 3 2 1 1 0 1 0 1 0 1 1 1 1 1 1 1 3 2 0 2 1 1 2 0 0 0 1 1 2 1 1 1 1 0 2 1 0 1 1 0 0 0 0 0 0 3 0 1 1 2 2 1 0 2 1 1 2 0 1 1 1 0 0 1 2 1 0 1 2 0 1 1 2 2 2 3 1 2 1 1 2 2 1 0 2 1 1 1 1 1 1 0 2 1 1 2 1 1 0 1 0 0 2 0 0 1 0 0 1 0 0 1 0 0 1 0 0 2 1 0 1 1 2 1 0 0 2 1 3 1 2 1 0 1 0 1 1 0 0 2 3 1 1 1 1 2 0 2 1 1 1 2 1 2 1 0 0 2 1 0 1 2 0 0 1 1 0 0 1 1 0 1 2 1 2 1 1 1 2 0 1 0 4 0 1 0 2 1 3 3 2 2 1 2 3 2 2 1 2 0 0 2 3 1 2 1 3 1 2 0 2 1 0 1 0 1 1 1 1 0 2 2 2 3 2 2 1 3 2 1 0 1 2 1 1 2 0 3 0 0 1 2 1 1 2 2 3 2 0 0 2 0 0 1 1 2 0 1 0 2 0 1 2 0 0 3 1 2 2 2 1 2 2 0 1 1 1 2 0 2 0 1 0 2 0 1 1 0 1 3 3 2 0 0 1 2 0 0 1 1 1 1 0 1 0 0 2 1 0 4 1 3 4 2 1 0 1 1 0 1 0 0 1 1 1 0 3 2 0 2 2 2 1 2 1 1 1 0 1 1 0 0 1 2 1 1 0 1 1 2 0 2 0 2 2 1 0 1 2 1 1 0 1 1 1 0 1 1 1 2 3 2 1 1 1 2 1 2 1 2 1 1 0 1 1 1 0 2 2 1 2 3 0 0 1 0 1 0 1 2 1 1 1 0 0 0 1 1 3 1 1 1 1 2 2 2 1 1 1 1 1 3 1 1 1 1 1 1 1 1 2 1 3 0 1 2 0 1 4 1 1 0 2 1 1 1 0 0 2 1 2 0 0 3 1 1 1 0 0 2 5 1 2 1 1 0 1 4 2 0 0 1 1 1 2 2 2 1 3 1 0 0 2 1 2 1 1 2 0 4 1 1 1 0 1 1 1 0 1 1 3 0 2 3 1 2 1 1 3 2 0 1 1 0 2 1 2 0 2 3 1 2 1 1 1 2 1 1 0 0 0 0 1 2 0 2 1 0 0 1 2 0 0 1 0 1 2 1 2 0 1 1 1 1 2 0 1 0 0 0 1 1 1 0 2 0 0 1 1 0 1 1 1 0 2 1 0 2 3 0 1 0 2 0 1 0 1 1 2 3 2 0 2 2 0 1 0 0 1 2 0 1 1 1 0 1 2 2 1 0 0 2 1 3 1 0 2 1 2 2 2 1 0 0 1 1 2 2 1 2 2 1 1 1 0 1 3 1 4 1 0 0 1 0 1 1 1 2 1 1 0 3 0 0 0 1 1 0 2 4 2 0 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 3 2 1 1 0 0 1 2 1 2 0 0 1 1 1 2 1 1 2 1 1 0 0 0 1 3 2 2 1 2 2 1 2 2 1 1 1 1 3 2 3 2 3 1 2 1 0 1 1 2 0 2 1 1 2 2 0 1 0 1 1 1 1 0 2 2 2 3 2 2 1 2 1 1 1 0 3 1 1 0 1 1 1 0 1 1 1 0 1 1 1 3 1 1 3 0 2 2 1 2 0 0 1 0 0 3 1 2 1 0 2 3 1 0 2 2 2 0 1 1 1 1 1 0 0 1 0 1 2 2 2 1 1 1 1 2 2 1 1 1 1 3 3 0 1 1 1 2 0 2 1 0 2 0 0 1 0 3 2 1 1 0 0 1 1 1 0 1 1 1 1 1 0 1 2 0 0 2 2 1 2 0 1 0 2 1 1 0 1 1 1 0 2 2 0 1 1 1 2 1 0 0 0 3 0 2 2 1 1 0 2 2 1 2 2 0 1 0 2 2 1 0 1 0 3 0 2 2 0 2 1 0 1 1 0 3 1 0 1 2 0 0 1 2 0 2 2 0 0 1 1 0 1 1 2 0 0 1 0 1 0 3 2 2 0 2 0 1 0 2 1 0 1 1 2 0 1 3 1 1 2 1 1 1 1 1 0 1 0 1 4 1 1 0 1 2 1 1 1 1 2 3 0 1 0 0 1 2 1 1 3 1 0 1 1 1 2 1 0 4 0 1 3 1 1 2 1 1 1 0 0 0 2 0 2 3 1 2 1 1 2 1 2 1 3 2 2 1 3 2 2 1 2 1 2 1 1 1 1 2 2 1 0 0 2 3 0 2 3 1 0 0 1 0 3 1 0 1 3 0 1 1 1 0 1 1 1 3 2 2 0 2 1 1 2 1 1 0 1 0 3 1 1 0 1 1 1 1 0 2 0 1 1 1 1 2 1 2 0 0 0 0 2 1 0 1 2 2 0 0 2 1 1 0 1 1 2 3 0 0 1 1 2 1 0 1 2 1 0 2 0 3 2 0 1 0 2 2 1 2 2 1 1 1 3 1 0 1 1 1 1 1 1 0 0 2 2 0 2 0 2 0 1 0 1 2 1 0 4 0 1 2 2 1 1 1 0 1 2 2 0 1 2 0 1 1 0 0 1 1 1 0 1 0 3 1 1 1 1 1 2 0 1 3 1 2 2 1 1 2 2 1 2 2 1 1 1 1 0 0 1 1 2 3 1 2 3 3 0 2 1 0 1 0 1 1 1 0 2 3 0 1 1 2 0 1 1 1 0 0 1 0 0 1 2 1 0 0 1 0 0 2 0 1 1 0 1 1 1 0 3 1 0 3 0 2 0 0 2 1 2 2 1 1 0 2 1 1 0 0 0 3 1 1 0 1 0 2 2 1 0 3 1 1 0 1 1 1 1 2 2 2 1 3 1 1 2 3 2 2 1 1 0 0 0 0 2 2 1 1 0 1 0 2 1 1 3 0 2 1 1 2 1 1 0 2 2 0 0 1 0 1 1 2 2 2 1 2 1 0 2 1 1 2 2 2 1 3 2 0 2 2 4 2 0 1 1 2 1 1 1 2 0 0 0 0 0 2 3 0 2 1 1 1 2 2 1 1 1 0 2 2 1 1 1 3 2 0 0 1 0 1 2 2 2 2 2 1 1 1 3 0 2 1 1 0 2 1 2 2 3 1 2 0 0 1 0 0 1 0 1 1 1 1 2 2 0 0 0 1 1 0 0 1 2 2 3 1 2 1 3 0 0 1 1 1 1 0 0 1 2 1 1 0 1 1 1 0 1 2 1 2 2 1 1 1 2 0 1 3 0 3 2 0 0 1 2 1 0 1 0 1 2 0 1 1 0 1 2 1 2 0 1 2 2 1 0 0 1 1 3 2 1 1 0 1 1 1 2 1 0 2 0 1 2 1 1 1 0 2 1 2 0 1 3 0 2 3 2 1 0 1 1 3 1 0 1 2 1 0 1 1 0 2 3 1 0 2 1 0 2 2 1 0 2 0 2 2 0 1 2 0 0 0 0 1 0 2 0 2 1 1 3 0 0 3 1 2 1 2 3 2 2 2 3 0 2 1 2 0 1 0 1 1 1 2 3 1 0 1 0 1 2 1 1 2 1 0 0 2 1 3 0 1 1 1 0 1 1 1 1 1 0 1 0 2 3 0 2 0 1 2 0 0 1 1 2 3 2 1 1 1 0 0 1 0 0 2 1 2 2 2 1 1 0 2 1 2 2 1 1 2 2 0 2 1 1 1 2 0 1 1 0 3 1 0 1 1 1 1 3 2 0 1 0 2 0 1 1 1 1 0 1 0 2 3 1 0 1 3 2 1 1 0 1 0 0 1 0 1 0 2 2 2 1 4 1 0 1 0 3 1 0 2 0 1 0 2 2 2 1 2 0 2 1 4 2 1 0 1 2 3 0 1 2 1 1 0 0 0 0 1 1 2 0 0 3 1 1 2 0 1 0 1 1 0 1 1 2 0 3 0 1 4 2 2 1 1 0 2 1 1 0 1 2 1 1 1 1 1 2 1 0 1 3 1 1 0 0 3 0 1 2 2 1 0 1 0 2 1 3 0 0 1 1 2 0 1 3 1 0 2 1 1 0 2 0 1 0 0 1 1 1 0 1 0 2 3 3 1 1 2 0 0 2 3 1 0 2 1 1 1 1 0 1 3 1 0 2 1 2 2 1 4 0 3 1 1 1 0 2 1 3 0 0 2 1 1 1 1 1 0 1 1 0 1 1 0 1 1 1 1 0 1 1 1 1 0 0 1 0 1 3 1 2 2 1 1 1 0 1 2 1 2 1 1 1 2 0 2 0 1 0 0 0 2 2 0 2 1 1 1 0 1 2 1 0 1 0 1 3 2 1 1 0 1 0 2 0 2 0 1 1 2 0 2 0 0 0 1 2 1 2 1 2 0 2 2 2 0 0 1 0 1 1 1 2 0 1 0 0 1 0 1 0 0 1 1 1 0 3 1 2 2 2 1 0 0 0 1 1 2 1 0 1 1 4 1 0 1 1 1 0 2 4 2 1 1 1 1 1 1 0 1 3 1 0 2 4 0 1 0 0 0 1 3 2 0 1 2 1 0 4 0 0 0 2 2 1 1 0 1 1 1 1 1 0 1 2 2 1 1 0 1 1 1 0 1 1 0 2 0 1 1 2 0 1 0 1 0 0 5 0 1 2 1 0 1 1 1 1 0 2 0 2 2 2 1 1 0 3 0 0 0 1 0 1 1 0 2 1 2 0 0 2 2 0 3 0 0 2 1 0 2 0 2 4 0 3 0 3 0 0 0 2 1 1 1 2 0 0 2 1 1 1 0 0 1 2 0 0 5 1 0 2 3 1 1 0 2 1 2 2 2 0 1 1 2 1 0 1 1 2 1 1 0 0 2 2 0 0 1 0 0 1 1 2 1 2 2 0 2 2 2 1 1 0 1 2 1 1 1 2 0 3 0 1 3 0 2 1 1 1 0 3 1 1 1 1 1 1 1 2 2 1 0 1 3 0 1 1 2 2 1 1 2 1 2 1 2 1 0 2 2 0 1 1 0 1 0 1 3 1 2 1 2 1 0 1 0 2 1 0 1 1 1 1 1 1 0 0 2 1 1 1 1 0 1 1 2 1 1 1 3 1 1 2 2 2 0 1 1 0 1 0 1 1 3 1 0 0 2 2 3 0 3 1 1 1 2 1 0 0 0 1 1 2 0 2 2 2 1 0 1 2 3 3 1 1 1 0 0 0 1 2 2 2 2 1 0 1 1 0 2 2 1 1 2 1 0 1 2 1 1 1 1 0 2 0 2 1 1 3 0 3 0 1 0 0 0 1 2 0 1 1 1 1 1 1 1 1 1 1 2 0 0 3 1 1 0 1 1 1 2 2 2 2 1 3 1 1 1 1 2 1 2 3 0 1 2 2 1 2 1 1 0 3 0 1 2 0 1 1 0 0 0 0 1 2 2 2 1 1 2 0 1 1 2 1 0 1 1 1 0 0 0 1 0 0 1 1 1 2 2 0 1 0 1 1 0 1 1 3 1 1 3 1 1 0 2 3 1 1 2 1 1 1 1 0 0 2 2 0 1 2 1 0 0 1 0 0 1 2 1 2 2 1 1 0 0 1 0 1 1 1 1 2 2 2 1 0 2 0 1 0 0 0 2 1 2 0 1 0 0 0 3 1 2 1 1 1 0 2 1 0 0 1 2 1 1 2 3 0 1 2 1 0 0 2 2 2 1 1 2 1 2 1 1 0 2 2 2 1 3 0 2 2 2 0 0 1 0 1 1 1 4 1 3 1 2 0 3 1 1 1 1 1 1 1 1 3 1 2 1 2 3 2 1 2 1 0 2 0 1 1 0 0 0 2 1 1 1 1 1 3 0 2 1 2 0 1 1 0 2 1 0 0 2 0 0 0 0 1 1 2 1 1 1 2 2 2 1 1 2 1 1 1 2 1 2 0 1 1 2 1 1 2 0 2 2 0 1 2 0 0 3 0 1 2 3 1 1 1 1 2 0 2 1 0 1 0 2 1 0 0 0 1 1 3 3 1 1 1 3 0 1 0 1 1 1 1 2 1 2 0 1 0 0 0 2 1 1 0 0 0 1 2 0 2 3 2 0 0 0 2 1 1 1 2 1 1 1 0 2 1 0 0 0 0 2 2 0 2 2 3 0 2 1 1 1 0 1 1 2 2 2 0 0 2 1 2 1 1 1 1 2 2 2 1 2 0 1 1 1 2 2 2 2 0 0 2 1 1 1 0 0 0 2 2 0 0 0 0 1 1 1 2 1 1 1 2 1 3 0 0 1 3 1 0 2 1 1 0 1 1 2 3 1 1 1 3 1 2 2 0 1 1 1 1 1 0 1 2 1 1 0 1 2 1 0 2 1 2 2 2 0 1 1 1 1 1 0 1 0 2 2 1 1 0 2 0 0 0 0 0 0 0 3 1 1 4 1 1 2 2 1 1 0 0 0 0 2 0 1 1 0 1 1 1 1 0 1 0 1 1 0 1 0 0 0 3 2 2 0 0 2 1 1 1 0 0 0 1 0 1 1 1 2 0 2 1 2 0 1 2 0 1 3 1 1 2 0 3 0 4 2 1 2 1 0 1 1 1 2 1 1 0 1 2 1 1 1 3 1 2 3 1 3 0 2 0 3 1 1 2 0 1 1 1 0 0 2 1 1 1 1 2 1 1 1 1 2 2 2 0 2 2 3 1 1 1 1 0 0 2 2 0 3 0 0 1 2 0 2 2 2 2 3 3 3 2 2 1 0 2 0 1 3 1 0 1 1 1 0 0 0 0 1 2 1 1 0 2 1 1 1 2 2 1 1 0 1 1 0 1 2 2 2 0 1 0 0 2 1 0 1 1 1 0 1 0 1 1 1 1 0 2 1 1 3 2 1 0 1 1 1 2 0 2 2 2 1 1 1 3 1 0 0 1 2 2 2 2 0 0 1 1 1 1 1 3 0 1 2 1 1 1 2 2 1 1 0 0 1 1 0 1 0 0 0 0 2 1 1 0 1 1 2 1 2 2 1 2 2 3 3 0 1 0 0 1 0 0 3 1 1 1 1 0 2 2 1 3 0 1 3 2 0 2 1 2 1 0 0 1 0 0 0 0 2 0 2 1 1 1 1 1 4 1 1 1 1 2 2 2 1 0 1 1 3 1 1 4 1 1 1 0 2 2 1 2 2 1 1 1 1 1 0 2 1 1 0 1 1 0 2 1 2 1 1 1 2 1 1 1 2 1 0 0 2 2 3 1 1 2 2 2 1 2 2 3 1 1 0 3 3 2 1 1 1 2 0 0 1 0 1 1 2 0 2 1 1 1 1 2 0 2 2 3 0 1 0 0 1 1 2 0 1 1 1 2 2 1 0 0 1 0 3 1 0 0 0 2 1 0 1 1 1 2 1 2 2 0 2 1 2 3 2 0 2 2 2 2 0 1 0 1 1 2 2 1 0 1 1 2 0 3 1 1 2 1 1 1 0 0 2 1 1 1 2 0 0 2 1 3 0 0 3 2 2 0 1 1 2 1 1 2 1 1 1 2 2 2 2 3 1 1 2 2 0 1 1 1 0 1 2 2 2 2 1 0 1 1 2 3 1 0 1 1 0 1 2 1 1 2 1 2 3 1 4 1 1 1 0 1 1 1 0 0 1 1 3 2 1 1 0 0 2 1 1 2 3 1 0 1 1 2 1 1 0 0 0 0 2 1 2 2 0 0 1 1 2 1 1 1 0 1 1 0 1 1 1 2 2 1 1 1 1 0 2 1 1 2 0 1 2 1 2 2 1 0 0 4 0 1 2 3 0 1 2 1 0 3 0 2 1 2 0 0 0 2 0 0 1 2 0 0 2 2 1 1 1 2 2 1 0 1 1 3 1 2 2 0 2 2 2 3 2 2 1 1 2 1 2 0 1 0 3 0 0 2 1 1 1 1 2 1 3 1 1 0 2 1 1 3 0 0 0 1 2 1 1 2 1 2 1 2 1 1 1 0 1 2 2 1 1 2 2 1 1 0 1 2 3 1 3 2 2 1 0 2 0 1 1 3 3 1 3 1 0 0 4 3 1 1 1 3 1 0 1 3 1 0 1 0 1 1 3 3 1 0 0 1 1 1 2 0 2 1 1 2 0 2 2 2 2 0 1 1 0 1 1 1 0 3 0 0 0 1 2 2 0 2 0 1 1 1 2 2 2 1 1 1 2 2 2 1 1 2 1 0 0 1 2 2 1 1 1 2 0 0 2 2 2 1 3 2 1 1 1 2 1 1 2 1 2 0 1 1 3 2 0 2 1 0 1 1 2 0 0 2 1 2 1 0 1 1 2 4 1 2 0 2 1 2 0 1 2 1 0 1 1 1 3 0 2 2 1 1 0 3 0 1 0 2 1 0 3 1 0 1 0 1 0 2 0 0 0 1 1 1 3 2 1 1 0 2 3 0 2 0 1 1 1 1 0 0 0 1 1 1 1 2 1 0 1 1 1 3 1 1 1 1 2 2 0 0 1 2 3 0 0 1 1 2 1 1 1 4 0 0 2 1 1 2 2 0 1 2 2 2 0 2 2 2 1 2 1 1 2 3 0 0 2 0 2 2 1 2 1 1 1 1 2 1 2 0 2 1 1 2 1 2 2 3 3 1 1 0 0 0 1 1 2 1 3 2 0 2 1 1 1 4 0 1 0 2 1 2 2 3 0 2 3 0 1 1 1 1 2 0 1 2 1 1 0 3 2 2 1 1 0 2 0 1 1 0 1 1 1 1 2 0 2 1 3 1 0 2 1 0 1 0 1 1 1 0 1 0 3 0 2 0 1 0 2 1 1 3 1 0 1 2 1 1 1 0 1 3 0 0 0 1 2 0 1 1 2 1 1 0 1 2 1 2 0 2 0 0 1 1 4 0 1 2 2 0 0 1 2 1 2 3 1 2 1 2 0 1 0 1 0 1 2 2 0 0 2 0 1 0 2 1 1 0 2 1 1 0 2 1 2 0 2 3 2 2 0 2 1 1 0 1 1 0 1 1 1 5 0 2 2 2 0 2 1 1 1 0 1 1 1 1 1 2 2 0 0 1 0 1 1 1 1 1 0 2 0 1 1 0 3 1 0 1 0 2 1 0 0 1 1 1 1 2 1 1 1 2 1 1 1 1 0 0 2 2 1 1 1 1 1 2 2 1 1 2 0 0 0 3 1 1 0 2 2 0 4 1 1 1 2 2 4 2 0 1 0 2 1 0 1 1 2 1 0 0 1 1 0 2 0 1 2 1 2 1 1 1 1 0 3 0 4 1 1 0 0 0 2 1 0 0 1 0 1 3 2 1 0 2 1 1 4 0 1 1 0 1 0 1 1 1 2 0 2 2 1 1 2 2 0 2 2 1 1 0 1 1 1 0 1 2 2 1 1 0 2 4 1 1 1 1 1 1 0 2 1 2 0 4 0 2 0 2 1 3 1 1 3 1 0 2 2 1 3 2 1 1 1 1 1 0 0 1 1 1 2 0 0 1 0 2 1 1 0 2 1 1 0 1 0 2 0 1 0 0 0 1 2 1 0 2 1 1 3 1 1 1 1 1 1 1 0 2 2 3 0 2 1 0 1 2 2 1 3 0 1 0 0 1 2 2 1 0 1 2 2 0 1 0 1 0 1 1 2 2 2 2 2 2 2 1 1 3 1 2 1 0 1 1 0 1 2 1 1 0 2 2 0 1 3 2 3 1 0 2 2 0 0 2 2 0 0 0 0 1 2 3 2 0 0 1 1 2 1 2 2 2 0 2 3 1 1 0 2 0 1 2 1 0 2 0 1 1 2 1 2 2 2 3 1 3 1 0 0 1 2 1 1 2 0 2 3 1 1 2 1 0 0 1 0 2 2 0 0 2 1 2 3 0 1 3 2 1 2 1 2 1 0 0 0 0 1 3 1 1 1 1 0 2 0 1 1 1 0 2 2 1 3 0 3 0 1 0 0 1 1 1 1 1 0 2 2 3 0 0 2 3 2 5 0 2 0 0 1 0 0 2 0 1 3 1 0 0 1 3 2 0 2 2 0 1 2 2 2 1 2 1 2 2 1 0 0 2 2 3 1 0 1 0 2 0 1 1 0 1 1 1 1 1 1 4 0 2 2 1 1 0 1 1 2 1 2 1 1 2 1 1 0 1 0 1 1 2 0 2 1 1 1 0 2 1 2 1 2 3 1 1 2 0 0 1 0 1 2 0 1 4 2 1 1 1 1 0 0 1 1 0 2 1 2 3 2 2 0 0 1 3 1 1 0 0 2 1 1 1 1 2 2 1 2 0 1 1 1 2 1 2 0 1 2 1 1 1 0 2 2 2 1 1 2 0 0 2 2 2 1 1 0 2 1 0 2 1 0 2 3 1 1 0 1 2 0 1 2 0 2 2 0 3 2 1 1 0 2 0 1 1 2 3 2 1 0 0 3 1 3 1 2 2 1 2 0 0 1 0 3 0 1 0 3 1 1 1 2 2 0 2 2 3 0 1 0 0 0 3 1 1 1 2 1 2 0 2 1 2 1 1 1 2 3 2 1 3 1 3 0 2 2 2 0 2 0 1 1 1 0 3 1 2 0 2 2 3 0 0 1 1 2 1 1 1 1 1 2 1 0 1 1 2 2 2 2 1 1 1 0 0 1 2 0 1 1 0 0 2 1 2 1 2 3 1 0 0 0 1 1 2 1 0 1 1 3 0 3 1 2 1 1 0 3 0 0 0 0 0 1 0 1 1 1 0 2 2 2 0 2 0 1 0 2 1 1 1 1 1 1 0 0 3 2 2 1 0 1 0 2 2 1 0 0 1 1 2 1 0 1 3 2 2 1 1 1 0 1 1 1 1 1 2 1 3 3 0 1 2 2 1 1 3 0 1 1 1 2 0 1 1 1 1 1 2 2 1 0 1 3 0 0 0 0 0 2 3 1 1 2 0 0 1 3 1 1 1 0 1 1 1 2 1 2 3 2 0 0 1 1 0 0 2 1 2 0 3 2 1 1 1 1 3 1 0 1 1 0 0 1 2 0 1 1 2 1 2 0 0 0 2 0 1 1 0 3 1 1 0 1 3 1 1 2 2 1 1 2 0 0 0 1 1 1 1 2 0 0 0 1 0 0 1 0 1 0 1 2 3 2 1 1 3 2 1 3 4 0 1 2 1 1 0 0 2 1 1 1 1 2 1 1 0 1 1 1 0 1 0 2 2 2 0 1 2 0 1 1 0 2 0 1 2 0 1 1 0 1 1 1 1 2 1 2 0 1 1 1 2 1 2 1 1 2 1 1 0 1 2 1 1 0 2 0 2 1 1 1 0 1 3 1 2 2 2 1 1 0 1 1 2 1 0 2 1 1 2 0 1 1 1 2 1 2 0 2 1 2 1 0 1 3 3 0 0 1 1 1 0 1 2 0 1 0 1 1 0 1 1 3 0 1 0 1 1 2 0 2 1 1 0 1 2 2 1 1 1 1 0 1 2 0 1 3 0 1 3 4 2 2 1 3 2 2 0 0 2 1 1 1 2 1 1 2 0 2 1 0 3 2 0 1 0 2 1 0 2 0 0 0 0 1 0 0 2 3 2 3 4 2 1 2 2 2 0 0 2 1 1 0 2 0 1 1 2 0 0 1 1 1 2 1 0 2 1 1 1 0 1 2 0 2 1 3 1 3 0 0 0 2 1 1 1 0 2 0 0 2 3 1 1 0 1 1 2 0 0 3 4 1 0 2 2 2 0 0 3 2 1 3 2 1 3 1 2 1 0 1 2 0 3 0 2 1 0 1 2 0 1 1 1 1 3 1 2 1 0 1 1 0 0 0 1 1 2 2 1 2 1 3 1 1 1 1 2 2 1 0 0 1 0 0 0 1 1 2 0 3 0 1 1 0 1 0 2 1 0 3 2 1 1 0 1 3 2 3 0 2 0 2 1 2 0 1 1 1 1 0 1 1 0 1 1 1 2 1 0 0 0 0 1 2 0 2 0 1 2 2 1 0 0 1 1 1 1 2 2 2 2 1 1 1 1 0 0 0 1 1 1 2 0 2 1 2 1 2 2 0 1 1 3 0 3 2 2 1 1 1 0 1 0 2 0 1 1 1 1 1 2 3 1 0 1 0 0 2 1 1 2 2 1 1 1 0 1 1 1 1 2 2 1 0 1 1 0 2 2 0 1 2 0 2 1 2 0 0 2 2 1 2 2 0 2 2 2 0 1 0 1 1 1 2 0 1 1 0 0 1 4 1 1 1 0 1 0 2 0 2 3 3 1 1 1 1 1 2 1 2 2 1 2 1 0 0 0 2 2 0 1 0 2 2 2 1 1 1 2 0 0 1 0 0 2 1 3 1 2 2 1 1 2 1 2 3 1 2 0 1 0 2 1 2 0 2 0 4 1 0 1 0 0 1 1 2 1 2 1 0 1 1 0 4 2 0 3 0 1 0 3 0 1 2 1 1 0 1 3 1 0 2 1 2 2 2 2 2 1 1 2 0 0 0 1 1 1 1 2 0 0 0 1 2 2 3 2 2 1 0 1 4 1 1 0 1 1 1 2 1 0 0 1 0 1 2 0 2 2 0 0 0 2 2 1 0 0 0 1 2 0 2 1 2 2 2 0 2 2 1 2 1 0 2 1 1 0 0 1 1 0 1 2 1 2 0 2 1 2 2 1 1 1 2 2 1 3 1 1 1 2 0 1 0 1 2 0 0 2 2 1 0 0 2 2 0 2 2 1 1 0 1 1 2 1 0 0 1 1 2 1 1 3 0 0 1 2 0 2 1 2 1 2 0 2 0 1 0 0 1 1 1 1 3 2 1 1 0 1 1 1 1 1 2 2 2 2 0 1 0 3 2 1 0 1 4 1 1 1 1 1 1 1 1 2 2 3 1 0 3 2 0 2 1 1 0 1 1 1 1 1 1 0 0 1 0 1 1 1 1 2 2 1 2 0 2 1 1 2 2 0 0 1 2 0 2 2 2 2 1 0 1 0 1 1 0 1 3 1 1 0 1 1 2 1 0 0 1 2 2 1 1 0 2 3 0 1 1 1 3 3 1 2 1 2 2 2 0 1 1 1 4 1 1 1 1 1 0 2 0 0 1 0 3 2 1 0 0 2 3 2 0 2 1 1 1 2 1 1 0 1 0 2 1 1 0 0 1 1 0 2 1 1 1 1 0 2 3 2 1 3 1 2 1 0 0 1 0 1 2 1 1 0 1 4 0 1 1 2 1 1 1 0 1 0 0 0 0 1 0 2 2 4 3 1 1 1 2 0 2 2 1 2 1 0 0 1 2 1 2 3 0 0 1 0 1 2 2 1 2 2 1 1 1 0 0 3 0 0 1 1 2 0 3 1 1 2 0 2 2 0 1 0 0 0 0 0 2 1 1 0 0 0 2 0 1 1 1 2 0 2 2 3 2 0 0 0 1 1 0 0 0 1 1 1 1 2 1 0 0 3 1 2 1 1 0 2 0 0 1 1 1 0 2 1 1 1 1 2 1 1 2 1 0 1 1 1 2 0 1 1 2 1 2 0 2 2 2 2 3 2 1 1 1 1 1 2 0 2 1 0 2 0 0 1 2 0 1 0 2 0 1 0 4 3 0 0 1 0 1 2 0 1 2 0 1 1 1 1 0 3 1 1 1 0 0 1 1 1 1 2 1 1 1 1 0 3 1 1 0 2 1 1 2 1 1 0 0 1 2 1 0 1 1 0 2 1 1 0 0 1 1 1 2 2 1 2 1 0 3 1 3 1 1 0 1 1 2 1 1 1 0 0 0 1 0 1 0 2 1 2 1 2 1 0 1 0 0 1 1 2 1 1 2 0 1 1 1 0 0 0 0 0 0 2 0 2 1 1 2 0 1 1 1 0 0 0 2 0 0 3 1 1 1 0 3 1 1 1 0 1 0 1 2 1 2 1 2 1 0 2 1 1 0 2 0 1 0 2 1 1 1 0 1 1 1 0 3 2 2 0 0 1 1 2 0 1 0 1 2 1 1 0 2 1 1 3 1 1 1 0 3 1 1 2 1 2 1 2 3 1 0 1 1 2 0 2 1 0 1 0 2 2 1 1 0 4 1 1 0 0 2 1 1 2 2 0 1 0 0 3 2 2 1 2 1 1 1 2 1 1 0 2 0 0 2 1 2 2 2 2 0 3 0 1 1 0 0 1 0 1 2 1 0 3 2 2 1 2 2 0 2 1 0 2 1 2 1 1 1 3 1 1 1 0 1 0 2 2 0 3 0 1 3 2 1 0 3 0 0 1 1 2 0 1 0 2 1 0 2 1 2 1 3 0 0 2 3 3 4 1 0 2 1 1 3 2 2 1 0 1 3 1 1 1 1 1 1 2 1 1 1 2 2 1 2 1 0 0 1 0 1 2 2 1 1 0 0 3 0 0 1 3 2 1 1 1 2 1 3 1 2 2 1 1 2 1 1 0 0 1 1 1 0 1 0 2 0 0 2 1 2 0 1 2 1 1 1 2 1 1 3 1 2 2 2 0 1 4 0 1 1 3 1 0 0 0 0 1 1 1 0 3 2 0 0 2 1 1 1 0 2 1 1 0 0 1 1 0 2 2 2 0 4 1 1 0 0 2 1 2 2 2 2 1 4 1 1 1 1 1 2 1 1 1 1 2 1 0 1 2 1 0 2 0 0 1 0 1 1 1 0 1 2 1 1 1 1 0 0 1 0 1 2 0 5 0 1 1 1 1 4 0 1 1 1 1 0 0 1 0 0 1 1 2 2 0 0 0 0 1 0 2 2 0 2 1 1 2 1 1 1 2 2 0 2 2 1 3 0 1 1 1 2 1 0 1 2 0 2 2 0 2 1 2 1 1 2 0 1 1 1 0 0 2 3 0 2 1 0 2 0 0 0 1 0 2 2 2 1 1 0 1 4 1 1 1 2 1 1 1 2 1 1 0 1 3 1 2 1 3 1 1 0 2 1 0 0 1 0 0 3 1 2 0 0 2 1 1 2 1 1 1 2 1 3 2 2 2 1 0 0 1 0 0 2 1 2 0 0 1 2 2 0 3 2 0 1 3 2 0 0 0 0 1 0 1 2 0 1 1 3 1 1 2 3 2 1 0 1 1 1 0 0 0 2 1 1 1 0 1 0 2 0 2 1 1 1 2 0 1 2 1 3 2 2 0 0 1 1 2 0 1 2 3 1 1 2 2 2 1 1 1 1 0 3 2 2 1 0 1 2 1 2 2 2 0 1 1 1 0 3 1 0 2 2 1 0 1 0 1 2 1 1 0 0 1 1 2 2 2 2 0 2 2 1 1 1 0 0 1 1 1 0 1 2 1 1 1 1 1 2 0 1 3 1 1 1 1 2 0 0 0 3 1 0 1 2 2 2 0 2 1 0 0 1 1 1 2 1 2 0 1 1 2 2 1 1 0 0 1 0 1 2 1 2 0 0 0 0 0 1 0 2 0 1 2 2 0 0 0 1 1 1 0 0 1 1 1 1 1 1 1 1 1 1 1 1 3 2 3 2 1 1 1 2 1 1 1 2 0 2 1 0 1 1 2 1 1 1 2 2 2 2 2 3 3 2 2 0 2 2 1 0 0 1 0 0 1 0 2 2 3 2 1 1 1 2 3 2 4 0 0 0 4 0 1 1 2 2 1 1 0 2 2 2 1 0 1 3 1 1 1 1 1 1 2 0 1 1 1 1 2 2 2 1 0 1 2 0 2 0 1 0 3 1 1 0 1 1 0 0 3 1 2 0 2 1 0 1 0 1 3 1 0 0 1 2 0 2 1 2 1 1 1 2 0 0 2 2 1 2 0 0 1 2 1 2 0 2 2 0 1 3 1 1 1 2 2 1 0 2 2 0 1 2 0 0 3 1 2 1 0 0 1 3 1 1 3 0 2 0 2 1 0 0 1 1 1 1 1 1 1 0 1 0 0 1 0 3 1 0 0 2 1 3 1 1 0 1 1 0 0 2 2 0 1 1 0 0 0 2 0 1 0 1 1 0 2 0 2 0 2 1 1 2 1 2 0 1 1 3 1 0 0 2 0 0 1 2 1 0 0 0 2 2 0 2 2 0 1 1 0 0 1 1 3 2 0 0 2 1 2 2 5 2 1 1 0 1 0 1 0 1 0 1 2 1 1 2 4 0 0 1 1 1 1 1 1 2 2 0 2 3 1 3 2 1 2 0 1 0 0 3 1 1 0 0 1 0 1 2 0 2 2 2 2 2 0 1 2 2 1 1 1 2 2 1 1 0 1 0 0 2 1 2 2 2 1 0 0 1 1 1 1 0 3 0 1 1 1 1 1 1 3 1 0 2 2 1 1 0 1 1 2 2 0 1 0 1 0 1 0 2 2 1 2 2 0 1 1 1 0 0 0 1 1 0 0 2 2 1 0 1 0 1 1 0 0 1 1 1 0 0 0 1 1 2 1 1 1 2 2 1 3 0 1 2 2 1 1 0 1 2 2 1 1 0 2 2 2 3 1 1 3 1 2 0 1 1 1 0 3 2 1 1 1 1 2 2 1 0 1 1 0 1 1 1 3 4 1 1 0 1 2 2 0 2 0 0 2 0 2 1 0 3 1 0 0 0 1 3 1 1 0 1 0 1 0 0 1 2 1 1 0 0 1 1 1 2 0 0 1 2 1 1 3 0 0 1 1 2 0 0 0 2 1 0 2 3 1 3 0 1 1 1 1 1 0 1 0 1 1 1 1 0 1 2 1 0 1 1 2 3 2 1 1 0 2 0 0 1 5 0 1 2 2 0 2 1 3 0 0 1 2 2 1 1 0 1 2 2 1 1 0 1 0 1 0 2 1 2 0 1 1 0 0 2 2 0 1 2 0 1 1 0 3 1 2 1 0 1 2 0 0 2 2 0 0 2 0 1 0 2 1 2 1 1 1 3 0 1 0 1 0 0 1 0 0 2 2 3 2 0 2 1 1 1 2 0 2 0 0 2 2 2 2 2 1 2 0 1 2 0 2 0 1 2 3 2 1 3 1 0 2 2 2 1 0 0 2 2 0 2 1 0 1 0 0 1 3 1 0 2 1 1 0 1 2 1 1 3 1 1 2 2 2 3 1 2 0 0 1 1 1 1 2 0 1 1 0 1 1 0 0 2 1 2 1 1 1 1 1 1 4 1 1 2 3 1 0 1 0 1 1 1 0 0 1 1 2 0 0 1 0 1 1 1 3 2 1 2 0 1 2 1 0 3 1 3 1 1 0 1 1 1 1 0 1 1 2 1 3 1 1 1 0 2 1 1 2 2 1 0 0 1 3 1 0 1 0 2 0 0 1 2 1 1 0 0 2 2 2 2 0 1 0 0 0 2 1 3 1 0 3 1 2 0 2 1 1 1 1 3 1 2 1 1 0 1 1 2 1 1 2 1 1 0 1 0 1 2 0 0 1 1 1 1 1 3 2 0 1 1 0 0 4 0 0 0 2 2 0 0 0 2 1 2 0 0 1 2 0 2 2 2 3 1 1 0 1 0 1 0 3 3 2 1 1 0 0 3 2 1 1 2 1 1 1 2 3 1 1 0 2 0 2 0 1 2 0 1 2 1 0 0 2 2 0 1 1 2 1 1 0 1 1 1 0 1 0 0 1 1 2 1 0 1 0 1 1 1 1 1 1 0 1 1 0 1 0 3 2 3 0 1 1 1 0 1 3 0 1 1 1 1 2 1 4 1 1 1 3 1 1 0 2 1 1 2 1 1 1 1 3 1 0 2 0 0 1 1 1 0 1 0 3 0 1 1 2 2 1 1 0 0 2 4 1 1 0 1 0 4 1 1 0 2 1 0 1 1 3 1 0 0 0 0 1 2 1 1 1 1 1 0 1 1 2 1 2 0 1 2 1 0 2 1 2 1 1 2 1 0 0 2 1 1 2 1 0 2 0 3 1 1 2 2 2 1 0 2 1 0 0 1 1 2 0 2 0 1 0 1 1 1 0 1 3 0 0 2 1 1 1 1 2 1 0 0 2 3 1 2 0 1 0 1 2 3 2 1 2 1 2 2 0 1 0 1 2 0 1 1 1 2 1 1 1 0 1 0 1 1 1 3 3 1 1 2 0 2 3 1 0 1 0 0 1 0 2 1 2 1 1 0 1 3 2 1 1 2 0 2 4 1 1 0 1 1 1 0 2 1 1 2 1 1 1 1 1 1 2 0 1 1 1 2 3 0 0 1 0 2 1 3 2 2 0 2 2 0 3 2 1 1 2 2 1 0 1 2 0 2 0 0 2 0 0 2 1 1 0 1 0 1 1 3 0 1 1 0 1 1 0 0 1 0 0 2 1 1 0 0 0 2 0 2 0 0 0 1 2 1 1 2 1 2 1 2 2 0 4 1 2 0 1 1 2 0 2 3 2 0 4 2 0 2 1 2 2 2 2 1 1 1 3 1 0 1 1 2 0 0 1 1 1 1 3 3 0 0 1 1 3 2 3 0 2 1 1 1 2 2 0 0 1 0 0 0 0 2 2 1 1 2 2 2 1 1 1 1 1 2 2 0 2 1 0 1 3 1 0 1 1 2 1 3 1 0 0 2 0 0 0 1 1 0 0 1 1 0 2 1 2 2 0 1 0 2 4 1 1 2 1 1 1 2 0 2 1 0 2 1 1 0 0 0 1 0 3 1 0 1 2 1 1 1 1 1 2 3 2 1 0 1 0 3 1 3 1 0 2 3 2 3 0 1 2 1 2 0 3 0 0 2 1 1 0 1 0 1 2 2 1 1 2 1 0 2 4 1 2 0 1 0 1 1 1 2 1 1 0 0 1 0 2 0 2 0 1 1 1 1 2 0 2 2 1 1 0 1 1 1 0 0 1 1 1 0 1 1 2 1 1 3 2 0 1 3 1 3 1 0 1 0 3 2 3 2 2 1 2 1 1 1 1 1 1 1 0 0 0 1 2 0 2 3 2 1 1 2 1 1 2 1 1 0 2 1 1 2 2 0 1 1 1 2 3 1 1 1 0 1 0 2 2 3 1 1 1 1 2 1 1 2 2 1 0 0 3 0 0 3 1 1 1 0 1 1 1 0 2 1 2 0 0 3 1 0 0 0 1 1 1 0 1 2 2 1 1 0 2 0 2 1 1 2 2 1 1 0 0 1 3 0 0 2 1 2 1 1 1 0 1 2 1 0 2 0 0 3 1 1 1 1 1 2 0 2 2 1 3 2 2 4 1 0 2 2 1 0 3 2 1 1 1 1 1 2 0 0 2 1 1 1 3 1 1 1 3 2 1 0 0 0 0 3 1 3 1 1 0 1 0 1 0 1 2 0 2 3 0 1 1 1 0 0 0 3 1 1 0 2 1 0 0 2 0 0 1 2 0 1 1 0 2 1 1 0 2 1 3 2 2 0 2 1 1 1 1 2 2 0 1 0 1 2 1 1 1 0 0 2 1 1 2 1 2 2 1 0 1 2 1 0 3 1 2 1 0 1 1 1 1 1 0 1 1 1 1 2 1 0 1 2 0 0 2 1 0 3 0 1 1 1 3 0 1 1 0 2 1 0 1 0 3 0 3 1 1 1 0 2 0 1 4 0 3 1 1 2 2 1 1 1 0 0 1 1 1 0 3 2 1 0 1 1 1 1 0 2 1 1 1 0 1 2 0 0 0 1 0 1 2 2 2 1 0 1 1 1 0 2 1 1 2 1 1 2 2 1 1 0 2 2 0 2 2 3 0 0 2 0 1 2 0 1 2 0 0 0 1 2 1 0 3 1 1 1 1 1 1 0 2 2 1 1 1 1 1 2 2 1 1 0 1 0 1 1 2 0 1 2 1 1 2 1 2 1 0 2 2 0 0 4 0 1 0 1 1 0 2 2 2 1 2 1 0 1 1 0 1 1 3 1 0 0 1 2 2 0 2 1 0 2 1 1 1 3 0 3 0 1 0 2 1 0 1 1 1 1 0 3 0 1 2 1 0 0 1 1 3 1 1 1 1 1 0 3 0 1 3 2 1 3 0 2 2 1 0 2 0 2 1 0 3 0 0 2 0 1 0 1 0 2 2 2 1 0 1 1 2 0 3 1 1 3 1 1 0 1 2 1 0 1 1 2 0 0 3 0 2 1 2 2 2 1 0 1 2 0 2 2 0 0 0 1 1 3 0 0 3 3 0 1 3 0 1 0 2 1 1 0 0 1 1 2 1 1 2 3 2 1 0 1 0 1 1 1 3 0 1 1 2 3 2 2 0 0 0 0 1 0 1 1 0 1 3 0 2 2 1 3 0 0 1 2 1 3 1 1 2 2 2 1 0 1 1 0 2 1 0 4 2 0 2 2 0 1 1 2 3 2 6 0 1 1 1 1 0 3 2 0 1 0 1 0 1 1 2 3 0 0 2 1 2 2 0 0 2 2 0 1 0 2 2 1 0 1 1 0 0 2 0 1 1 0 0 0 1 0 1 0 0 3 2 1 1 1 1 2 0 1 0 2 0 2 1 1 0 0 0 2 1 2 0 1 3 1 2 2 0 3 1 1 2 2 1 1 3 3 0 0 1 1 1 3 1 1 1 1 0 0 0 0 1 1 0 1 1 0 1 1 1 2 1 2 1 2 1 0 1 1 1 1 1 0 3 0 2 2 0 2 2 0 2 1 2 2 2 2 2 1 1 0 1 1 2 0 3 3 2 1 1 1 0 1 3 2 2 3 3 1 1 1 0 0 0 4 0 1 1 2 0 2 1 0 2 1 2 1 0 0 1 0 3 0 0 0 0 1 1 3 1 1 1 1 0 0 3 0 0 0 2 3 1 1 1 1 1 1 1 2 1 3 0 2 1 0 0 2 2 1 2 1 2 1 0 1 0 0 1 3 1 0 2 0 1 1 3 2 1 2 1 2 1 1 0 0 2 0 1 0 2 2 2 4 2 2 2 1 2 3 1 1 1 0 0 0 0 1 0 1 2 1 2 1 0 2 1 0 2 0 2 1 2 2 2 0 1 1 1 0 1 1 1 1 1 1 3 1 2 0 1 0 1 2 1 1 0 1 1 1 2 0 1 0 1 2 1 1 1 0 0 1 2 0 2 2 1 1 1 0 2 0 0 1 0 0 4 2 1 0 4 1 0 1 2 3 2 0 2 1 0 0 2 1 0 1 1 3 3 1 0 0 2 1 1 1 0 3 0 0 1 3 2 0 3 1 1 0 3 0 2 1 2 0 2 1 1 1 1 0 2 1 2 1 1 1 1 0 1 0 2 2 1 1 1 0 1 1 0 1 1 0 1 1 1 0 1 2 1 3 1 1 2 0 0 0 3 3 1 1 2 0 0 2 1 1 1 1 2 1 0 1 2 1 1 1 1 2 0 1 3 1 2 1 0 2 1 1 0 1 2 1 2 1 3 1 1 0 1 2 1 0 0 0 1 3 1 1 1 1 3 1 0 1 2 1 0 2 0 1 2 1 2 0 3 1 0 1 1 0 2 1 1 0 1 3 0 0 0 1 0 0 1 0 2 1 1 1 1 0 1 0 2 1 1 2 1 1 1 1 2 1 1</t>
+  </si>
+  <si>
+    <t>GAM(0.23204640386606323, -1.4823352764712683e-28, 0.3402155316286806)</t>
+  </si>
+  <si>
+    <t>1 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 3 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 1 0 1 1 0 1 0 1 0 1 0 1 1 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 2 1 2 0 1 1 1 0 0 0 0 0 1 0 0 2 0 0 1 0 0 0 0 1 0 0 2 1 0 0 0 0 0 0 0 0 1 1 0 0 1 1 0 0 1 0 0 1 0 0 1 0 1 1 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 3 0 0 1 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 1 0 0 0 0 1 0 1 0 1 1 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 1 1 0 1 1 0 0 0 0 0 1 3 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 1 1 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 1 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 2 2 0 1 0 0 1 0 1 0 0 1 2 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 2 2 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 2 1 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 1 1 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 1 0 0 0 0 0 0 0 0 1 0 2 0 0 1 0 0 0 1 0 0 1 0 0 0 1 0 2 1 1 0 0 0 0 0 0 1 0 1 1 0 2 0 1 1 0 0 0 1 1 0 0 1 0 0 0 0 0 2 0 0 0 0 0 1 1 0 1 2 1 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 1 1 2 0 0 0 0 0 0 2 0 0 0 1 0 0 1 0 1 0 2 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 1 0 0 1 0 0 0 2 0 0 0 0 0 0 0 2 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 1 1 1 1 0 2 1 0 0 1 0 1 0 0 0 1 1 0 1 1 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 1 1 1 0 0 0 0 1 0 0 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 1 0 1 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 2 1 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 2 0 0 1 0 0 1 1 0 0 0 0 1 0 0 0 1 0 2 2 0 1 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 1 0 2 1 1 0 0 0 1 0 0 1 0 0 0 1 0 0 2 0 1 1 0 1 0 1 0 0 0 0 2 0 1 1 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 1 0 1 1 0 0 1 1 1 1 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 3 1 3 0 1 0 0 0 2 0 0 2 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 2 0 0 0 0 0 0 0 0 1 0 0 2 0 0 0 0 2 1 1 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 1 0 0 0 1 2 0 0 0 2 1 0 1 0 0 1 2 1 0 1 0 0 0 2 0 2 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 1 0 2 0 0 2 0 1 0 1 1 1 0 0 0 0 0 2 0 1 0 1 1 0 0 0 1 0 1 0 0 0 1 2 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 1 0 1 0 0 0 0 0 1 1 0 1 1 0 0 0 0 0 0 1 0 0 1 0 2 0 0 0 2 1 1 0 0 0 0 0 0 1 1 1 0 1 0 0 0 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 1 1 1 0 0 0 2 3 0 0 1 0 0 1 0 0 1 1 0 0 1 0 1 0 0 0 1 0 0 0 1 0 1 1 0 0 0 0 1 1 1 0 2 1 0 0 1 0 0 0 1 0 1 1 0 1 0 0 0 0 1 0 2 0 0 1 0 0 0 0 0 1 1 2 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 1 0 1 0 2 0 0 0 1 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 2 0 0 1 1 1 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 2 0 1 1 0 1 0 1 0 1 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 1 0 1 0 1 0 1 0 0 0 2 0 0 1 2 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 2 0 0 0 0 1 1 0 1 0 0 0 2 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 2 0 0 1 0 1 0 0 0 0 0 2 0 0 0 0 1 1 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 2 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 2 0 2 0 0 0 0 0 0 0 0 0 0 2 2 0 0 2 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 2 1 0 0 1 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 1 0 0 1 1 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 2 0 0 0 1 0 0 1 2 0 1 0 0 0 0 1 0 0 0 1 1 0 0 1 0 0 0 0 2 0 2 0 0 0 1 0 0 1 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 2 0 0 1 1 1 0 0 1 0 1 0 1 1 2 0 0 1 0 0 0 0 1 0 0 1 2 1 0 1 0 0 1 0 2 0 0 0 1 1 1 2 0 1 0 0 0 1 0 0 0 1 2 0 0 1 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 1 0 2 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 1 0 0 0 3 0 0 0 0 0 0 0 0 1 1 1 0 1 0 0 0 0 0 0 0 0 1 0 0 1 1 0 1 0 0 1 1 1 0 2 1 1 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 1 0 0 1 0 0 0 1 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 1 0 0 0 0 0 0 1 4 1 0 0 0 0 1 1 0 0 0 0 2 0 1 0 0 0 1 1 0 0 1 1 0 0 0 1 0 1 0 0 0 1 0 1 0 0 0 0 0 3 0 0 0 0 0 0 0 0 1 0 1 1 0 1 0 0 1 2 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 1 1 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 1 1 1 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 1 0 0 2 0 0 0 0 1 0 1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 1 1 1 2 1 0 0 0 0 1 1 1 0 0 2 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 1 1 0 1 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 2 0 0 0 0 0 0 0 1 1 0 0 1 1 0 2 0 0 0 1 0 1 0 1 1 1 0 0 1 0 0 0 0 0 2 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 1 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 1 0 1 2 2 0 2 0 0 1 0 0 0 2 0 0 0 0 0 0 0 3 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 1 1 0 0 0 0 1 0 0 0 0 1 1 0 2 2 1 1 1 0 0 1 0 0 1 0 2 1 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 2 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 1 0 1 0 0 1 0 0 0 0 0 0 2 0 2 1 0 1 1 0 0 0 0 0 1 0 1 0 0 0 2 0 1 1 0 1 0 0 1 0 1 0 0 0 0 1 1 0 1 0 0 0 1 0 0 0 1 0 1 0 0 1 0 0 1 1 0 1 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 1 2 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 2 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 2 0 1 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 1 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 1 3 0 0 1 0 1 0 0 1 1 0 1 1 0 0 0 0 0 0 2 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 2 0 0 0 1 0 0 0 0 1 0 0 0 1 1 3 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 2 0 1 1 1 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 2 1 0 1 0 0 0 0 0 0 1 0 0 1 1 0 0 1 0 1 0 0 1 0 0 0 2 1 0 3 2 1 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 1 0 0 1 1 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 1 2 0 0 0 1 1 0 0 0 1 1 0 0 2 1 0 1 1 1 0 0 2 0 1 0 0 1 0 0 0 0 0 0 0 0 2 0 0 1 0 1 2 1 1 0 1 1 0 0 1 0 1 1 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 1 0 1 0 0 1 1 0 0 2 1 1 0 1 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 1 1 0 1 1 0 0 0 0 1 0 0 0 0 1 0 0 1 0 1 0 1 0 1 0 0 0 1 1 0 0 1 0 0 0 0 0 2 0 1 1 0 0 0 1 0 0 0 1 1 0 0 1 1 1 1 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 1 0 0 1 0 0 0 0 0 2 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 2 0 0 0 2 1 0 0 0 1 1 0 2 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 1 0 1 0 2 1 0 3 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 3 0 1 1 0 0 0 0 0 0 1 0 0 1 0 1 0 0 1 1 1 0 1 0 3 1 0 0 0 0 0 2 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 1 0 0 1 0 0 1 0 0 1 2 0 0 0 0 0 0 0 1 1 0 0 1 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 1 0 0 0 0 0 0 1 1 0 1 1 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 3 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 2 0 0 0 0 1 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 1 0 1 0 2 1 0 1 1 0 0 1 0 0 0 0 0 0 1 0 1 1 0 0 1 0 0 0 1 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 1 2 1 0 0 1 0 1 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0 0 1 1 0 0 0 2 0 0 1 1 0 0 0 0 2 1 0 0 1 0 1 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 1 3 0 0 0 0 0 1 0 1 0 2 0 1 0 1 0 0 2 1 0 0 1 1 0 0 1 0 0 0 0 0 2 0 2 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 2 0 0 0 0 0 0 1 0 0 2 0 1 2 0 1 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 1 3 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 1 1 0 0 0 1 0 1 1 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 1 0 1 0 0 1 0 0 0 1 1 1 0 1 0 1 0 0 1 0 0 0 0 1 1 0 0 0 0 1 1 1 1 2 0 0 0 0 0 1 0 0 0 1 0 1 0 0 1 1 1 0 1 0 0 0 0 0 2 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 1 1 0 0 1 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 1 0 0 0 0 0 1 2 1 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 1 0 0 1 1 0 1 0 0 0 2 0 0 1 0 0 0 0 1 1 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 1 0 1 0 0 0 1 0 0 1 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 1 0 1 1 0 0 1 1 0 0 0 0 1 0 0 0 1 1 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 1 1 2 0 0 0 0 1 1 1 0 2 0 0 0 1 0 0 1 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 1 0 1 2 0 0 0 1 1 0 0 0 1 0 1 0 0 0 0 0 0 1 0 1 0 0 1 0 0 2 0 1 1 0 1 0 0 0 1 0 1 0 1 0 0 0 0 0 1 0 0 0 1 0 1 1 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 1 1 1 0 1 0 0 1 2 0 0 2 0 0 0 1 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 2 1 1 0 1 0 0 0 0 0 0 1 0 1 0 0 1 1 0 0 1 0 1 0 0 0 0 1 1 2 0 1 0 0 1 1 1 1 1 0 0 0 0 2 0 1 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 1 3 1 0 0 0 1 1 0 0 0 0 2 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0 0 1 0 2 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 1 1 1 2 1 0 0 1 1 0 0 0 0 0 0 0 1 1 2 2 1 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 1 1 1 0 0 0 2 1 0 0 0 0 0 0 0 2 0 0 1 0 0 0 1 2 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 1 0 0 1 0 0 0 0 0 0 0 1 0 1 0 1 1 1 0 1 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 1 0 0 0 1 1 0 0 0 0 0 0 0 1 2 0 1 0 0 1 0 0 0 1 2 0 0 1 0 0 0 1 1 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 2 0 1 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 1 1 0 0 4 1 0 1 0 0 0 0 0 0 0 0 0 0 0 2 2 0 0 1 0 0 0 0 3 0 0 1 0 0 1 1 0 0 0 0 2 1 0 1 0 0 0 0 2 0 1 0 1 0 0 0 2 0 1 1 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 1 1 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 0 1 1 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 1 2 2 0 1 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 1 1 1 0 0 0 0 0 0 0 1 1 0 0 1 1 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 1 0 0 0 1 0 0 0 2 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 0 0 2 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 1 0 1 1 0 0 1 0 0 0 1 0 1 0 0 1 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 1 0 1 0 1 1 1 1 1 0 0 2 0 1 0 0 1 1 0 0 0 0 1 0 1 1 1 2 1 2 1 0 1 0 2 0 1 2 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 2 1 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 0 0 1 1 0 0 0 0 1 0 0 1 1 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 1 0 0 1 0 0 0 0 1 0 1 0 1 2 0 0 0 1 1 0 0 0 1 0 0 0 0 0 1 1 1 0 1 0 0 0 1 2 1 0 3 0 0 3 0 0 1 0 1 0 1 0 0 0 0 0 0 1 0 1 1 0 0 0 2 0 0 0 0 1 1 0 1 0 0 0 1 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 1 1 0 0 1 0 1 0 0 0 0 0 1 0 1 0 0 1 1 0 1 0 1 0 0 0 0 1 2 0 0 0 0 0 1 1 0 0 0 0 0 1 2 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 2 0 0 0 0 1 2 0 1 0 1 1 0 0 1 0 0 2 1 0 0 1 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 1 0 1 0 1 0 0 1 1 1 0 0 1 0 0 0 1 0 0 1 1 0 0 0 0 1 2 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 1 2 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 1 0 0 1 0 0 0 1 0 0 0 2 0 0 1 0 0 1 1 0 0 2 0 0 1 0 0 0 0 0 2 0 1 1 0 0 0 0 0 0 0 0 2 1 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 1 0 0 0 0 2 1 0 0 0 1 1 1 0 1 1 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 1 1 0 1 0 1 1 1 0 0 2 0 0 0 1 1 1 1 0 0 1 0 0 1 1 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 1 0 0 1 1 1 0 0 0 1 0 1 1 0 0 0 0 0 0 1 0 1 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 2 1 0 0 2 1 1 1 1 0 1 0 0 0 0 2 1 0 0 0 0 0 1 1 2 1 1 0 2 0 0 1 0 2 0 1 1 0 1 0 0 0 1 1 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 1 2 0 1 1 0 0 0 0 0 0 1 1 0 0 0 1 0 1 1 0 0 1 0 3 1 0 0 0 0 0 0 0 1 0 0 0 0 2 0 1 0 1 0 2 1 0 0 1 0 0 1 1 0 0 1 0 1 0 1 0 0 0 1 0 1 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 1 0 1 0 1 0 1 1 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 1 0 1 0 1 0 0 0 0 1 1 0 1 1 1 0 0 0 0 0 0 1 0 0 0 0 1 1 0 2 0 0 1 0 0 1 1 0 1 1 0 1 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 1 0 0 0 0 1 1 2 0 0 0 1 0 2 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 2 0 0 1 0 2 0 2 0 0 0 0 1 0 1 0 1 1 1 0 1 1 0 1 1 0 0 1 0 0 0 0 0 0 0 0 1 2 0 0 2 0 0 0 0 0 1 0 0 0 1 0 0 1 1 0 1 0 0 0 1 2 0 1 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 2 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 3 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0 0 2 0 0 0 1 0 1 1 0 2 1 1 0 0 0 0 0 0 0 1 0 1 0 1 0 0 2 2 0 0 0 0 0 1 1 1 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 1 2 1 0 1 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 1 1 2 0 0 0 0 0 0 0 0 0 1 2 1 0 1 1 0 1 0 0 0 1 0 1 0 0 2 0 0 1 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 1 1 1 0 0 0 1 1 2 0 0 0 0 0 1 1 0 0 1 1 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 2 2 1 2 0 2 0 1 0 0 0 2 0 0 0 0 0 1 2 0 0 0 0 0 2 0 0 1 0 1 1 0 0 0 0 0 2 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 1 0 0 1 1 0 0 0 0 0 0 2 0 0 1 0 0 0 1 1 1 0 1 1 1 2 0 0 0 1 0 0 2 0 0 0 0 1 1 0 1 0 1 0 0 0 0 1 1 2 2 0 1 0 1 0 0 0 1 0 1 0 0 1 1 1 1 1 0 1 1 0 2 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 1 0 0 1 0 1 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 1 1 1 1 1 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 1 0 0 1 0 0 3 0 0 1 0 0 1 0 0 0 0 1 0 1 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 1 0 0 0 1 0 0 0 2 0 1 0 0 2 2 0 0 0 0 1 2 1 0 1 2 2 0 0 0 0 0 0 0 1 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0 1 0 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 1 0 0 1 0 0 0 0 0 0 2 0 0 2 0 1 0 2 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 2 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 2 1 0 0 2 0 1 0 0 0 0 1 0 1 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 1 1 0 0 1 1 0 0 1 0 0 0 0 0 0 1 1 1 0 1 0 0 1 0 0 0 0 1 1 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 2 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 2 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 1 2 0 0 0 1 0 0 0 0 0 1 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 1 0 0 0 0 0 1 0 1 0 0 1 1 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0 1 0 1 0 1 1 0 0 2 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 2 1 0 1 0 0 0 0 0 0 1 0 0 1 1 0 1 0 0 1 1 0 0 0 0 0 2 1 0 1 0 0 0 1 1 2 1 0 1 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2 1 0 1 0 0 0 0 1 0 1 0 1 0 0 0 0 2 0 0 0 1 0 0 0 0 0 0 1 1 2 0 0 0 0 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 2 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 1 2 0 1 1 1 1 1 0 1 1 0 0 1 1 2 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 2 0 1 0 0 1 0 2 0 1 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 1 1 0 0 1 1 0 0 2 0 0 0 0 1 0 0 0 2 0 0 2 0 1 1 0 1 1 1 0 0 0 0 0 1 0 1 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 2 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 1 1 0 1 1 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 2 1 1 1 0 1 0 0 2 0 0 0 1 1 0 0 0 0 0 0 1 1 0 1 0 0 1 0 1 2 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 1 2 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 2 0 0 0 1 0 0 1 0 0 0 1 1 1 1 0 0 0 0 0 0 0 0 1 0 0 1 2 1 1 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 1 0 1 0 1 1 1 1 1 0 0 0 1 1 1 0 0 0 0 0 1 0 0 1 1 1 0 0 0 0 0 0 1 0 0 0 0 1 0 1 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 1 0 0 1 2 0 0 1 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 1 0 0 0 0 0 1 0 0 0 1 1 0 0 1 0 0 2 0 1 0 1 0 0 0 0 0 0 1 2 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 2 1 0 1 0 1 0 0 0 1 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 2 1 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 1 0 0 2 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 2 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 1 0 1 0 0 1 0 2 0 0 2 0 0 0 2 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 1 2 0 0 1 0 1 0 1 0 0 1 1 0 0 0 0 0 0 0 1 1 1 2 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 1 0 0 1 0 2 1 0 0 0 1 0 0 1 0 0 0 1 0 0 0 1 0 2 0 0 0 0 1 0 2 0 0 0 0 1 1 0 0 0 1 0 0 2 0 1 0 2 0 1 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 2 1 0 1 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 2 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 2 0 0 1 1 1 0 0 0 0 1 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 2 1 1 2 0 0 0 0 1 0 0 1 0 0 0 1 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 3 1 0 0 0 0 0 0 1 0 0 1 1 0 3 0 0 0 0 0 1 0 0 0 2 2 0 0 0 0 0 1 0 0 0 0 1 1 1 1 0 0 0 0 0 0 1 0 0 0 0 2 1 0 0 1 0 0 1 0 0 0 1 0 1 1 0 1 0 1 0 2 1 0 1 0 2 2 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 1 1 1 0 0 1 0 0 1 1 0 0 0 0 0 0 2 0 0 0 0 1 1 0 2 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 2 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 2 0 0 1 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 1 1 1 0 0 0 0 0 2 0 1 0 0 1 1 0 2 0 0 1 0 0 0 0 1 0 2 1 0 0 0 0 1 1 1 0 1 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 1 0 1 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 1 1 0 0 0 1 0 0 0 2 1 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 1 1 1 2 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 1 1 0 0 1 1 0 0 0 0 1 1 1 0 0 0 2 2 2 0 0 0 0 0 1 1 0 1 1 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 2 0 0 1 0 1 0 0 2 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 1 1 0 0 0 1 1 1 0 0 0 0 0 2 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 1 1 0 2 1 2 0 0 0 0 0 0 0 0 3 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 2 1 1 0 1 0 0 0 0 0 0 1 0 1 0 1 0 0 0 1 0 0 0 0 0 1 1 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 2 0 1 1 1 0 1 0 0 1 0 0 0 0 0 3 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 2 0 1 0 0 0 0 1 1 0 0 1 1 0 1 0 0 0 2 0 1 0 0 0 0 0 2 0 0 1 0 1 0 1 0 1 0 0 1 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 2 0 0 2 2 0 1 0 0 0 0 1 0 3 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2 1 0 0 0 1 0 0 0 0 1 1 0 1 0 0 0 0 1 0 2 1 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 2 0 1 0 0 1 0 0 1 0 1 2 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 1 1 0 0 1 1 0 0 0 1 0 0 1 1 1 0 1 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 1 0 2 0 0 1 0 0 0 0 0 0 1 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 2 1 2 1 0 0 0 0 1 1 0 0 1 0 0 0 0 0 1 0 0 1 0 1 1 0 0 0 0 0 0 2 0 1 0 1 1 0 0 0 0 0 1 0 0 1 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 3 2 1 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 1 2 0 0 1 2 1 0 0 1 0 0 1 0 3 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 1 1 1 0 1 0 0 0 0 0 0 1 1 0 1 0 0 1 0 0 1 0 0 0 1 1 0 1 0 1 0 1 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 1 1 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 1 1 0 0 1 0 0 1 0 0 0 1 1 0 0 0 0 0 0 1 0 0 1 0 2 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0</t>
+  </si>
+  <si>
+    <t>JSB(2.8656369863559945, 3.0431835674993266, -62.99639512173077, 576.2712963614413)</t>
+  </si>
+  <si>
+    <t>79 37 74 87 91 57 151 99 92 117 97 103 135 85 158 155 151 72 128 125 49 104 119 74 182 144 84 116 46 137 72 139 83 157 113 69 172 85 77 99 110 114 41 59 165 74 98 106 126 47 195 178 119 77 91 106 146 80 84 99 96 54 102 73 87 107 80 49 57 136 113 125 68 80 100 80 45 142 67 154 52 131 37 109 100 97 133 55 100 50 74 67 68 176 120 57 161 66 99 105 124 67 105 121 167 45 147 119 96 87 67 92 136 52 88 90 186 114 73 98 118 111 123 91 111 130 101 35 116 121 40 191 81 116 123 104 118 83 71 102 126 57 97 147 141 77 63 110 77 144 64 71 106 123 136 146 72 92 145 98 80 122 60 98 143 90 174 133 71 166 166 77 121 48 71 34 90 74 92 95 93 114 127 53 101 108 174 58 100 143 101 102 87 124 36 158 56 128 104 95 89 83 109 202 51 113 71 130 90 114 107 122 114 50 37 165 149 67 93 160 55 160 122 68 89 109 81 51 48 86 155 93 59 57 47 118 92 159 163 110 81 100 96 137 104 84 140 168 159 123 39 49 97 115 71 222 119 112 28 121 123 43 147 83 124 108 84 75 14 174 103 108 105 72 124 126 100 94 153 70 91 77 49 125 141 61 97 93 93 128 82 109 174 89 111 73 195 109 138 108 76 46 70 128 32 97 94 139 80 57 114 258 91 90 95 81 71 75 64 147 43 121 63 99 123 120 97 29 142 84 125 70 60 118 88 117 76 92 86 87 151 42 134 104 42 83 98 69 70 68 98 78 97 81 82 124 101 103 127 161 117 127 67 215 95 55 106 121 114 64 105 59 87 136 134 77 141 126 16 70 151 47 153 128 65 60 83 71 37 136 118 50 97 99 113 113 45 91 113 81 65 74 129 73 119 99 93 173 118 110 123 134 171 65 75 58 52 122 109 96 120 126 35 70 62 91 106 86 56 119 130 146 125 69 115 122 112 124 61 71 187 80 160 69 152 76 41 114 62 70 80 99 44 111 76 105 120 131 79 107 114 81 75 122 98 107 123 103 162 98 85 102 135 151 78 194 38 49 148 76 79 105 111 82 47 99 158 174 121 113 62 135 168 95 130 88 74 109 79 127 121 66 123 185 55 118 166 128 123 47 143 111 68 74 178 75 87 86 74 87 121 100 13 104 124 70 142 113 106 104 95 40 55 95 156 133 100 126 100 136 124 95 103 83 57 95 66 190 94 133 130 118 77 69 119 52 102 113 39 100 113 137 169 158 141 104 50 85 104 156 101 113 108 85 176 113 91 170 15 92 63 86 42 79 45 102 154 101 63 80 148 127 103 91 96 116 118 79 185 124 69 108 187 116 74 149 68 94 84 139 80 66 36 131 92 135 139 65 129 55 109 81 69 91 177 158 107 102 61 131 170 177 126 122 65 117 133 75 84 132 60 125 156 67 95 119 138 132 96 108 225 48 98 84 93 123 163 100 83 102 198 212 128 85 52 146 46 86 65 57 228 105 106 132 107 93 110 158 121 78 145 56 128 78 139 168 76 112 71 113 131 131 100 88 99 106 132 178 64 54 98 76 116 72 71 100 70 114 130 134 159 143 70 67 102 76 69 270 143 102 149 35 117 29 73 53 152 94 193 93 154 129 79 125 103 128 142 61 190 66 109 164 33 79 53 164 99 68 112 156 101 49 138 122 94 66 93 37 124 72 74 99 105 73 142 86 45 139 88 78 70 118 91 94 68 82 79 85 70 129 124 61 112 117 84 123 119 96 119 152 125 123 85 69 104 59 168 55 174 156 109 40 112 151 134 100 154 118 105 70 156 33 111 30 88 89 74 80 61 101 77 56 136 98 117 143 85 132 82 82 80 125 67 159 36 86 127 115 64 110 114 119 114 131 104 98 195 61 41 186 111 170 108 77 99 76 213 125 79 142 50 122 91 132 84 77 105 153 97 79 70 112 125 44 64 121 74 125 130 240 66 130 148 130 77 122 144 103 113 124 93 133 99 107 179 83 125 140 99 122 130 100 71 36 100 94 95 16 121 111 96 50 89 41 92 91 43 94 110 104 73 194 168 140 102 106 93 141 69 52 88 71 107 121 91 159 55 163 85 69 82 95 63 107 121 91 112 89 178 44 80 70 78 77 85 151 60 79 76 129 72 78 157 72 105 84 126 60 158 70 96 65 27 56 146 130 21 77 132 124 147 78 104 130 71 172 77 104 31 118 82 184 134 57 68 111 79 109 71 64 63 74 152 87 113 108 20 88 69 127 64 165 152 48 121 120 77 54 82 138 108 93 118 84 94 42 142 104 82 125 171 133 123 98 110 75 193 168 148 82 99 116 123 105 152 141 229 81 84 84 15 138 108 122 55 95 147 123 83 137 85 51 124 78 122 50 118 81 144 63 122 116 78 114 119 102 155 87 120 145 117 90 63 104 170 45 89 91 105 81 61 102 39 61 26 88 78 89 34 109 94 131 30 107 95 93 67 110 133 104 94 58 114 117 66 112 107 95 92 73 75 65 151 93 81 79 104 71 122 110 106 68 108 72 84 127 96 118 225 113 85 162 38 63 120 116 91 71 70 181 127 136 70 100 77 105 108 63 127 156 52 101 71 88 80 103 114 83 104 54 111 111 44 71 151 43 135 156 22 94 39 66 100 126 82 100 72 173 104 190 56 129 72 190 90 170 65 88 138 99 150 70 161 93 122 117 67 104 153 85 89 96 123 113 88 114 130 127 93 137 84 77 68 112 143 73 98 88 107 111 132 104 127 166 76 96 111 84 123 83 54 86 44 76 93 149 67 102 81 88 77 107 73 129 167 45 117 172 141 69 141 83 114 113 106 129 63 82 116 50 81 144 69 37 152 141 109 176 131 107 69 117 75 164 95 100 98 81 65 170 118 186 90 83 50 31 146 56 31 140 172 68 96 122 106 133 101 117 66 53 120 93 57 184 104 191 136 125 50 101 94 126 53 219 87 190 85 110 147 49 56 99 188 124 87 69 151 50 76 55 120 112 118 134 121 77 76 84 136 74 119 89 155 72 27 110 102 103 106 60 90 140 120 50 74 72 153 67 70 110 124 132 87 113 73 118 61 141 103 101 120 78 118 61 105 117 133 105 70 218 78 34 112 114 76 54 148 156 111 137 75 125 115 118 80 93 72 89 127 98 69 127 77 141 134 113 133 145 76 88 115 90 119 120 43 105 50 66 85 174 49 113 157 50 118 83 81 87 91 108 83 145 98 97 95 109 103 112 57 94 126 86 130 64 119 113 111 113 59 100 96 48 197 86 106 59 81 98 148 59 107 42 137 39 145 128 152 47 152 102 107 107 96 75 55 146 46 99 159 184 161 127 167 69 47 130 146 94 137 94 110 114 142 95 90 131 205 109 82 122 169 96 60 51 148 104 54 156 77 98 90 159 103 75 58 87 171 85 142 124 104 110 78 33 96 127 72 106 43 55 164 88 138 71 58 72 65 73 175 83 83 115 59 53 102 30 93 123 143 59 145 91 101 74 56 101 116 76 38 134 95 70 57 204 85 106 91 99 141 62 115 116 22 42 70 146 132 80 117 89 115 82 71 109 122 112 134 102 102 69 114 94 102 73 161 75 88 119 115 105 113 147 66 95 105 104 89 72 102 31 101 96 100 88 28 100 62 51 98 93 144 105 74 115 119 84 115 122 106 53 112 62 44 108 175 45 77 143 54 81 40 91 143 133 83 107 121 49 66 159 118 79 164 32 95 155 116 115 112 93 78 82 102 73 78 82 94 109 68 47 68 133 47 147 108 155 86 111 111 86 149 35 59 63 106 76 90 104 98 112 40 90 122 86 127 87 109 88 59 117 134 38 42 244 81 164 99 126 95 56 86 140 96 245 107 113 155 84 91 78 131 90 47 109 212 170 102 111 90 75 124 85 137 59 158 98 83 57 35 114 109 38 79 108 74 129 53 46 78 77 104 120 115 116 78 52 89 82 153 111 103 73 92 118 128 208 51 137 52 191 98 136 59 108 171 109 76 76 137 88 118 101 131 26 94 58 52 132 83 79 55 79 66 41 110 136 75 130 113 134 95 141 119 37 116 146 147 137 126 129 86 82 62 165 103 64 75 91 123 75 103 88 158 120 61 120 51 65 107 95 96 88 134 104 108 90 114 186 49 69 56 142 158 71 105 62 136 191 89 122 88 119 96 75 66 137 88 170 67 121 73 95 85 127 170 165 79 124 64 135 130 79 104 79 101 141 121 90 66 83 38 112 101 69 143 121 143 36 193 83 120 106 158 85 164 40 113 91 119 120 112 148 63 69 218 133 85 132 97 126 69 37 119 89 75 32 120 183 145 89 156 139 72 134 124 88 179 104 92 52 69 132 120 43 100 75 64 74 94 45 81 78 45 149 82 98 115 79 112 101 153 124 76 105 148 139 129 102 140 100 95 147 62 84 84 85 139 43 84 66 105 127 41 62 76 46 99 56 67 40 19 89 62 121 62 84 65 79 83 105 59 119 33 87 109 96 92 154 106 173 86 114 84 75 49 164 100 103 75 112 72 118 85 80 81 115 151 80 87 114 70 79 101 72 52 74 122 85 57 128 115 100 65 34 127 94 34 106 134 44 94 37 74 125 120 111 139 163 134 76 39 172 75 84 74 106 61 77 73 43 55 87 60 150 81 117 94 85 121 116 87 88 116 75 50 86 125 94 84 103 94 69 70 96 195 43 157 134 110 89 30 121 94 131 134 128 94 123 59 49 68 100 129 95 127 68 82 125 81 142 30 111 185 150 74 106 63 80 48 108 82 129 134 117 115 81 138 75 54 100 150 69 118 53 133 131 119 152 147 134 127 106 141 87 81 107 77 103 89 93 82 106 156 99 142 117 25 101 146 89 112 88 93 151 83 89 170 102 115 160 76 152 120 124 124 186 56 161 167 89 89 67 101 91 99 105 171 113 102 86 122 136 76 31 150 120 57 135 113 78 109 70 81 93 84 135 96 108 119 122 71 143 126 91 138 219 128 76 97 99 136 104 90 164 86 78 56 112 51 124 104 108 67 74 105 89 105 85 112 101 133 34 47 132 98 86 38 99 144 71 158 105 51 83 106 163 75 100 135 69 83 131 82 69 75 138 84 64 90 135 144 132 186 68 29 61 71 103 119 116 94 39 95 101 91 97 143 104 141 100 91 70 114 54 138 112 81 126 168 128 145 67 142 98 141 120 121 62 100 48 104 55 116 92 97 51 78 119 103 91 69 68 125 136 112 71 93 99 38 76 106 115 100 91 137 114 76 142 130 76 138 138 115 43 114 134 131 32 56 90 72 77 93 108 110 75 187 55 50 75 96 79 121 164 127 87 96 96 18 83 66 108 100 112 267 115 107 112 141 160 92 126 129 57 82 105 50 121 92 128 134 136 86 98 100 128 53 113 129 57 91 83 160 118 70 76 119 79 144 161 94 124 133 94 87 105 73 142 32 170 114 77 97 64 76 107 66 67 150 121 102 153 120 131 83 82 107 120 105 157 188 187 80 101 116 153 197 125 138 59 102 151 160 183 137 101 57 83 124 62 145 158 118 129 53 108 116 80 172 191 77 96 116 131 131 109 88 113 45 106 81 171 132 77 96 118 138 79 46 143 81 140 162 80 65 182 129 105 57 113 58 102 109 90 76 89 110 143 147 48 71 172 122 91 82 31 60 115 112 96 52 175 123 50 87 122 63 158 118 114 161 50 123 61 63 88 103 73 71 110 30 69 97 96 146 105 88 63 86 87 77 80 177 216 144 138 133 64 170 122 102 80 112 95 173 138 135 136 16 146 94 101 94 155 64 138 84 88 140 29 114 124 55 76 127 103 84 98 242 74 66 110 86 90 104 122 64 131 104 80 149 85 76 80 111 78 127 128 86 65 118 59 81 14 100 156 76 68 64 138 53 169 51 88 94 155 51 172 45 81 88 80 158 77 181 69 93 52 59 87 118 112 98 181 73 13 107 49 133 173 100 52 129 180 87 69 62 95 172 105 82 71 72 152 119 82 85 105 160 74 164 101 35 140 96 112 86 98 148 65 99 114 146 77 160 47 87 72 124 84 57 59 108 109 168 140 59 127 115 116 112 106 109 29 102 138 125 98 122 145 98 197 165 106 133 223 93 196 122 70 133 49 101 99 147 88 176 47 145 73 89 125 144 133 139 78 45 89 49 119 153 97 91 115 124 94 147 69 172 91 26 34 190 54 138 80 143 79 67 94 130 83 135 44 151 88 78 136 50 102 155 75 100 93 93 43 96 124 96 143 159 78 109 88 61 53 36 101 103 96 139 81 88 153 53 151 110 93 101 71 108 99 75 104 119 76 117 156 110 86 151 112 71 80 57 86 96 90 79 96 88 127 157 91 113 103 128 103 104 139 97 122 117 41 185 131 45 35 106 74 145 71 92 100 31 94 95 196 120 48 34 17 140 88 150 102 31 31 99 99 116 33 80 136 74 108 54 145 122 202 98 64 68 149 61 59 160 56 53 134 158 66 119 124 123 124 63 110 160 117 46 98 91 77 81 124 155 82 88 100 84 74 67 118 27 187 87 132 101 122 81 135 88 134 47 62 65 107 110 113 156 44 29 114 105 98 96 79 90 130 108 131 124 125 49 83 96 112 122 47 39 34 134 67 113 115 130 86 146 52 55 63 109 207 135 124 117 104 106 74 126 138 121 74 57 89 77 66 109 92 117 139 163 55 212 73 121 122 99 38 90 121 127 105 166 61 55 148 200 130 77 124 102 168 110 57 79 71 46 73 49 93 147 82 116 97 96 80 171 69 67 92 47 99 141 108 129 88 59 124 193 121 116 161 23 77 79 124 108 108 73 114 55 111 118 97 159 100 118 98 76 75 136 105 91 124 81 72 159 166 114 112 44 74 104 132 166 81 45 125 48 123 92 139 96 114 151 137 60 199 33 90 42 95 84 93 112 108 78 57 91 73 121 124 71 101 83 66 203 104 117 59 74 65 133 136 128 148 154 86 108 133 202 100 106 36 136 96 62 111 70 117 87 117 41 136 101 107 78 128 122 112 67 86 25 75 93 174 72 54 110 51 57 61 103 88 146 151 37 81 64 112 51 32 115 90 137 35 73 49 117 102 41 125 66 95 143 82 112 88 124 118 42 83 76 140 72 169 190 78 111 155 52 167 147 124 143 35 134 141 116 135 152 113 133 60 76 69 102 172 53 147 102 134 109 129 74 46 118 180 45 143 85 31 43 59 84 157 111 65 142 82 126 18 139 135 58 127 84 57 57 55 97 161 87 105 80 81 105 55 107 73 125 129 100 105 66 103 203 67 87 95 177 29 83 42 125 106 117 43 103 153 83 65 71 80 155 72 44 155 128 170 58 45 172 140 24 90 182 95 72 128 104 79 103 228 79 142 114 109 121 134 112 131 144 118 97 43 91 168 75 93 57 50 154 78 148 160 171 190 89 149 60 132 156 115 25 111 102 73 30 61 167 35 80 116 67 120 56 75 71 86 33 153 79 76 110 160 86 56 84 174 128 89 36 70 116 110 35 176 153 139 186 79 81 100 60 149 96 136 124 109 153 84 77 54 118 52 92 151 105 116 47 173 112 42 68 57 72 82 180 113 109 96 27 115 103 77 35 90 42 93 119 89 125 109 58 30 132 126 137 145 97 106 58 97 143 94 96 104 96 32 125 176 109 69 111 67 76 109 86 134 72 136 93 102 67 142 143 90 111 102 126 85 154 92 54 91 101 109 90 139 140 88 143 60 83 83 86 93 58 153 42 116 114 68 45 122 58 128 75 124 135 64 53 162 75 87 69 121 108 114 124 73 92 96 189 74 61 52 67 76 132 93 89 88 163 96 43 97 98 112 124 62 56 57 99 104 90 194 57 119 137 156 43 112 163 119 138 157 65 62 148 63 40 90 59 90 217 75 94 114 106 56 126 97 100 18 11 79 50 102 128 71 100 85 17 116 97 131 131 56 61 105 125 31 98 73 93 52 125 162 95 141 127 114 58 162 105 188 84 54 115 105 107 80 78 59 59 146 83 95 134 112 112 74 106 191 213 79 163 51 62 84 71 135 104 38 109 184 90 98 113 168 107 170 115 37 79 74 61 113 40 42 179 47 139 78 89 113 45 129 74 94 95 163 138 110 106 91 54 171 203 70 96 135 59 59 41 222 148 29 159 113 103 86 119 150 104 99 74 56 108 103 133 89 99 52 60 125 77 7 64 137 180 220 96 89 153 118 128 103 113 68 69 133 184 84 115 96 85 87 147 112 119 93 83 96 85 86 112 70 39 57 151 70 73 113 89 83 89 92 141 123 179 167 150 165 156 154 143 115 109 91 68 119 44 91 77 134 55 40 94 85 83 140 138 49 141 39 112 88 134 137 63 108 60 132 79 110 48 136 108 47 26 80 79 121 72 123 149 104 80 109 99 89 139 86 157 132 80 164 141 56 45 99 83 92 57 104 176 101 128 135 115 100 77 60 51 117 131 159 195 113 161 86 108 61 128 120 166 208 128 92 106 131 53 183 144 139 102 11 56 117 90 75 168 59 82 106 79 77 73 149 104 85 83 28 29 110 116 90 119 92 84 71 79 97 117 123 78 142 86 99 103 200 180 124 127 152 90 90 99 127 109 155 165 111 127 78 84 125 128 123 117 87 135 131 132 100 117 126 117 55 96 131 181 125 76 114 121 108 148 114 49 139 38 191 140 86 132 112 90 94 146 135 47 124 88 98 149 144 75 170 39 161 69 124 95 132 125 65 148 78 50 75 97 116 97 126 108 67 117 62 52 93 211 97 70 86 119 75 135 129 125 91 51 85 51 104 97 109 114 66 61 85 58 102 138 93 74 105 71 126 167 28 112 139 145 113 125 116 96 138 138 135 162 65 142 95 122 137 90 65 113 120 92 45 126 130 44 67 29 101 83 91 88 57 78 53 113 104 68 108 86 29 101 63 89 131 102 196 56 92 57 172 89 40 115 107 107 79 152 158 73 85 97 90 62 194 117 138 81 72 122 75 103 86 103 66 125 93 168 135 175 125 98 97 116 51 84 94 76 87 47 100 60 66 68 89 106 115 123 102 59 62 81 86 81 23 41 63 84 160 95 109 103 213 161 73 82 161 148 55 170 115 65 107 81 75 83 94 130 75 192 56 107 84 46 62 111 135 127 135 117 98 136 95 72 75 55 142 85 20 85 148 83 36 66 98 141 48 64 83 73 74 71 59 130 128 51 136 78 163 102 151 79 83 186 101 81 84 155 98 65 55 82 55 84 207 66 122 185 113 167 157 159 144 73 85 106 83 108 97 118 100 94 132 111 90 77 74 109 79 90 100 84 74 28 164 48 149 53 101 143 81 68 29 61 88 127 95 105 103 115 122 119 144 80 76 87 43 100 157 164 126 33 131 134 112 162 93 128 113 83 84 102 119 156 99 80 72 56 46 56 116 98 65 88 97 40 120 140 156 68 58 123 129 120 126 102 78 102 61 144 179 78 86 159 118 142 56 54 95 125 129 52 98 86 206 110 154 84 98 148 73 104 131 93 106 135 157 95 15 133 121 77 102 92 126 151 163 128 98 66 142 28 173 107 57 97 91 107 90 87 139 125 79 124 128 106 54 48 75 204 15 68 101 71 109 51 150 174 94 29 34 167 115 167 107 171 42 75 90 114 83 127 110 48 119 97 150 100 117 31 139 201 133 25 64 156 157 89 160 114 80 62 72 45 77 149 91 136 104 87 107 27 46 103 104 81 90 42 66 155 91 116 83 143 101 45 135 135 73 84 137 28 80 32 125 34 164 113 71 101 39 99 98 106 121 132 118 86 53 84 118 116 133 59 98 43 122 93 98 71 123 122 40 68 104 109 132 111 131 132 113 48 92 80 82 143 110 66 88 77 120 136 105 151 71 97 35 100 132 124 100 87 82 114 167 62 91 71 141 86 60 128 113 111 92 143 38 114 3 104 72 56 74 147 142 105 143 97 145 161 84 236 131 92 110 156 108 67 37 86 143 79 150 59 57 88 100 39 47 29 116 34 72 126 78 85 100 168 101 164 135 103 109 99 154 87 116 158 137 97 96 99 88 196 111 36 107 155 50 81 93 131 112 58 58 119 64 61 154 72 163 55 68 69 121 108 118 141 50 119 194 50 140 21 100 172 66 154 139 80 105 94 80 88 123 129 88 109 99 115 74 82 130 150 47 111 116 99 104 122 125 128 144 79 55 152 111 124 110 105 86 80 89 163 73 275 102 91 107 150 129 123 113 57 63 95 53 89 124 80 117 48 120 126 66 95 97 77 88 119 109 139 58 54 56 58 34 81 107 138 50 72 73 61 90 125 79 199 84 106 107 55 99 99 101 167 96 91 162 134 159 120 128 109 76 71 175 121 136 61 99 74 68 65 28 62 43 112 52 86 187 72 111 145 138 146 148 110 116 34 128 51 104 62 101 133 133 43 102 88 158 228 81 78 99 114 133 117 103 80 160 147 102 50 74 103 66 87 108 111 174 46 137 106 134 118 90 145 160 134 73 50 35 84 149 53 140 106 82 120 88 74 70 117 104 81 33 133 147 87 96 159 75 111 89 163 70 113 135 107 37 98 41 103 91 104 124 144 108 96 50 94 151 106 91 72 70 108 108 75 97 47 113 52 101 157 58 98 128 148 150 150 94 90 90 78 141 74 129 60 83 129 73 70 156 112 144 128 104 92 60 51 102 160 116 40 198 119 81 113 150 128 103 137 67 107 71 113 104 67 133 118 117 102 69 66 106 62 155 63 77 53 102 139 110 94 122 130 85 44 99 65 109 88 119 114 94 131 162 82 115 131 110 143 98 122 36 70 125 99 74 64 209 132 66 65 117 118 50 130 114 104 166 83 59 57 105 138 43 120 75 96 135 158 92 82 86 107 72 146 45 63 113 90 53 143 161 66 159 104 137 92 151 56 165 34 138 140 50 150 166 78 92 54 72 121 83 59 23 67 117 99 125 52 113 152 62 183 42 127 132 108 119 71 50 72 55 101 145 75 132 106 101 140 65 67 114 89 199 150 173 101 40 95 33 162 175 102 121 70 66 163 70 136 33 109 142 79 109 97 126 88 93 139 124 83 71 87 33 40 125 6 52 40 141 68 78 73 134 34 93 109 48 109 146 111 33 107 103 110 142 156 141 34 133 141 103 50 129 126 68 92 130 152 151 106 108 220 65 89 187 103 66 42 107 82 82 75 70 80 186 105 59 84 63 76 102 121 145 93 98 115 76 99 118 111 196 101 52 97 41 107 138 122 105 165 127 89 157 186 102 83 127 31 105 105 167 135 134 120 165 86 121 192 137 181 98 121 112 114 101 122 79 71 74 66 79 106 118 158 63 77 152 52 73 80 37 90 81 112 83 63 118 132 53 32 70 88 142 82 86 104 130 165 71 126 89 79 102 79 54 142 80 37 104 97 121 84 41 132 48 126 52 70 108 86 43 117 124 100 78 87 92 107 90 55 100 152 125 117 114 72 81 89 58 107 46 100 102 66 77 99 88 63 96 161 101 132 99 88 93 62 134 80 106 98 105 160 119 18 118 98 58 168 153 164 101 122 68 104 149 37 79 37 120 125 88 74 105 225 69 102 111 163 55 132 123 46 79 90 107 76 99 99 175 75 111 31 196 96 104 112 93 87 61 141 86 86 96 88 112 102 177 131 57 61 95 185 132 114 105 100 104 111 109 126 75 84 79 163 91 69 72 59 58 62 96 76 54 97 54 161 120 121 140 85 63 123 118 152 113 86 116 109 96 91 51 95 120 57 14 98 82 141 26 192 137 152 162 170 122 107 188 90 99 40 145 148 80 183 125 183 137 128 109 93 121 146 103 68 104 85 118 114 95 156 122 127 81 98 97 116 100 145 53 45 114 73 93 46 92 121 82 127 105 151 102 40 75 99 131 176 40 100 107 140 153 123 48 104 79 51 48 154 107 113 87 95 218 109 110 32 81 92 132 107 67 97 94 98 86 143 127 126 71 105 114 55 134 87 129 109 78 142 102 88 27 72 38 170 166 83 114 126 100 81 126 51 52 72 111 102 83 170 99 98 195 74 95 158 151 117 114 81 152 47 171 92 92 89 172 107 120 101 120 133 67 71 91 66 99 68 35 244 54 75 84 115 150 138 94 45 53 128 163 92 160 139 107 62 58 71 59 59 127 157 92 159 161 67 78 26 58 146 51 87 108 125 115 66 122 44 84 102 154 75 98 45 29 113 90 140 147 105 139 72 85 38 98 118 124 66 55 29 47 108 71 116 74 91 113 124 55 146 116 81 116 149 95 79 111 100 78 60 136 84 69 153 66 83 94 114 81 185 114 85 98 73 145 105 45 199 72 41 122 43 99 136 125 77 87 73 138 89 121 118 164 151 128 163 39 138 101 63 80 226 83 83 115 50 91 129 65 66 105 86 136 135 76 123 75 70 117 90 126 42 83 65 61 85 135 155 103 133 90 31 71 81 83 52 110 47 100 105 109 119 144 146 101 124 102 67 112 128 80 35 195 141 165 63 113 56 143 130 125 106 83 116 137 160 104 92 54 82 156 137 68 61 37 91 94 79 91 55 129 82 97 156 111 113 118 125 106 145 122 91 98 90 102 56 147 75 138 142 190 95 135 65 153 82 86 125 21 64 99 30 141 87 140 74 74 128 150 151 126 134 118 87 127 56 124 78 27 140 99 92 105 112 168 167 83 109 104 72 45 85 101 123 210 74 140 13 113 133 86 52 112 80 70 129 105 146 72 92 99 102 48 116 46 76 107 103 86 87 96 72 90 65 80 142 121 138 88 151 97 156 151 116 27 73 81 56 98 29 67 125 155 64 87 109 86 158 123 81 121 109 101 97 68 80 105 93 84 66 88 81 76 72 56 19 125 57 141 60 146 117 87 195 53 119 141 79 161 111 89 63 112 151 144 117 79 89 98 45 76 93 126 140 111 94 118 21 88 116 87 76 180 209 79 128 89 91 55 127 117 116 111 77 33 144 123 83 43 66 133 164 108 132 174 46 187 23 115 73 86 103 73 109 111 192 68 75 155 87 83 118 64 101 119 117 109 100 105 148 93 155 56 40 41 110 93 54 153 129 75 185 122 120 175 151 72 53 81 128 55 117 79 120 64 183 108 151 72 35 81 70 96 98 199 119 107 82 137 165 136 95 141 92 98 92 97 137 39 122 78 69 90 149 117 68 116 82 189 123 55 101 76 107 17 118 139 100 94 130 48 74 136 76 95 84 101 68 104 126 131 157 120 111 145 99 83 182 99 46 124 62 94 15 80 91 86 101 51 43 96 101 127 118 162 71 82 138 116 174 113 41 168 84 102 162 78 216 95 125 111 91 59 80 81 57 116 138 184 93 75 75 52 95 176 106 57 185 140 138 148 202 41 29 101 67 67 118 86 146 69 162 100 82 72 135 61 157 91 158 99 121 58 104 54 50 109 70 94 69 129 125 122 118 106 142 165 113 150 107 90 95 126 138 73 38 65 99 79 85 135 95 148 26 128 92 197 184 92 83 95 83 38 73 135 171 87 104 131 87 51 120 61 106 132 93 177 25 76 87 57 120 114 124 55 102 158 66 102 99 89 55 147 98 117 108 108 149 121 142 50 152 73 55 51 95 116 41 43 82 65 96 55 88 101 105 142 58 78 84 142 88 115 77 144 111 136 112 33 156 167 116 155 77 83 146 81 138 34 98 54 150 126 130 109 157 89 95 116 33 157 163 90 107 73 78 60 105 101 83 87 87 96 147 100 106 88 121 78 143 106 183 135 91 143 131 65 118 145 64 206 100 56 101 110 165 88 150 136 172 146 153 154 49 82 131 114 90 76 107 112 135 158 84 72 93 102 110 102 145 99 160 175 76 33 109 68 54 110 149 108 136 68 138 56 97 180 123 147 20 53 55 106 67 156 77 88 83 136 30 104 56 117 78 184 37 145 145 71 105 51 139 118 111 50 95 149 36 133 138 88 136 31 97 116 201 75 39 51 77 45 111 91 86 124 50 31 74 93 90 49 53 112 143 100 56 71 114 165 132 166 86 63 107 102 100 110 120 44 106 143 87 155 86 67 82 79 156 122 90 63 119 94 114 57 110 64 98 127 123 90 51 125 94 140 86 141 165 171 66 89 102 114 141 69 95 110 98 122 126 122 61 93 164 194 78 118 60 72 98 87 139 92 59 37 93 118 115 52 78 132 191 48 187 70 90 47 68 111 91 142 88 47 148 129 99 58 95 134 110 108 112 30 101 105 83 84 99 55 103 120 113 111 94 85 56 126 106 79 151 69 164 63 177 100 93 78 103 101 76 86 122 98 126 52 64 136 100 93 80 170 67 113 76 124 121 64 143 175 66 141 179 51 95 111 131 75 121 126 32 102 102 140 134 73 83 184 123 118 115 86 64 81 43 64 113 90 62 81 44 109 137 76 157 177 33 138 100 46 112 98 152 44 50 68 109 90 89 116 96 92 95 137 47 133 116 66 64 35 85 55 105 104 86 154 84 43 46 75 128 94 159 85 81 49 150 96 133 103 120 128 133 157 60 92 154 127 76 79 116 62 134 81 84 61 117 116 107 154 102 126 118 79 74 57 140 166 178 163 131 24 124 33 132 115 61 146 54 83 115 92 97 81 73 58 99 117 134 101 67 82 101 150 154 96 140 54 117 152 99 131 83 81 73 128 102 67 145 94 150 69 83 142 88 58 190 62 108 47 136 118 41 57 86 72 63 99 102 142 59 113 136 93 114 50 131 124 57 96 79 125 67 53 68 103 98 100 122 186 166 75 149 85 240 128 81 47 48 130 73 44 46 157 86 98 131 54 159 70 107 97 70 70 123 64 109 104 103 78 81 52 43 110 135 51 145 62 160 138 127 131 94 113 48 74 85 94 119 76 117 66 112 42 106 99 83 145 147 80 81 92 169 126 115 73 70 79 207 131 113 160 61 71 159 142 75 48 96 36 183 116 110 110 55 93 150 66 66 141 145 93 86 45 33 92 35 169 108 79 140 132 107 59 158 100 130 103 110 101 136 108 190 130 118 83 87 39 70 57 140 62 87 128 33 82 145 97 93 109 118 56 173 80 115 43 83 109 44 94 126 102 74 65 127 136 84 82 85 81 112 128 165 91 132 77 163 49 118 19 145 152 149 167 112 108 74 101 98 72 116 90 75 105 95 133 143 97 142 87 122 151 88 100 97 69 80 60 101 20 74 111 140 113 68 127 68 89 82 97 99 144 76 101 106 144 102 123 109 119 94 148 154 205 141 163 119 81 45 130 63 99 150 115 167 92 128 88 135 71 152 49 48 113 111 131 164 32 57 45 151 73 45 125 93 160 160 111 114 108 124 85 106 75 113 80 49 94 184 114 173 130 68 122 27 53 105 105 144 168 100 112 140 210 93 78 100 183 116 109 101 73 119 63 77 156 102 113 102 157 106 82 83 96 103 144 64 121 130 67 67 102 108 77 64 63 73 88 97 104 141 72 81 107 127 114 118 71 165 102 115 56 107 131 18 91 111 123 126 56 134 119 76 170 153 85 26 98 73 130 81 138 108 43 81 102 92 117 43 45 95 74 64 168 132 101 103 68 125 70 26 43 55 70 117 139 105 103 47 80 103 170 141 136 94 48 104 74 102 77 112 133 122 129 132 57 116 99 142 138 84 96 161 94 66 141 35 187 65 102 97 57 87 68 105 134 65 71 130 167 227 124 77 45 84 151 89 217 125 117 127 77 79 151 112 134 35 131 127 109 75 48 186 85 119 62 43 167 36 52 75 72 64 39 127 57 60 46 187 124 60 116 100 137 91 29 103 65 117 168 57 111 53 104 136 162 56 159 178 87 132 101 60 140 68 78 127 51 85 151 62 145 103 26 37 93 82 146 47 76 95 112 113 81 94 108 141 50 145 92 109 120 99 65 134 43 165 105 127 125 88 77 76 26 42 69 53 121 56 153 107 79 43 79 78 67 111 60 61 49 123 103 115 13 81 49 57 58 54 80 81 82 98 144 61 129 104 125 146 130 137 83 82 143 119 182 82 81 151 100 141 71 78 141 107 114 48 139 41 133 83 80 83 106 92 77 112 58 136 102 67 16 136 27 85 80 124 102 76 79 143 91 140 104 47 103 95 121 81 138 70 74 85 56 150 28 155 34 110 74 160 46 79 53 101 36 112 112 136 155 50 170 77 128 116 85 114 111 113 158 157 110 83 134 112 63 71 132 119 153 96 96 162 95 64 164 148 91 38 54 65 171 78 79 162 89 165 110 97 110 90 127 120 145 38 203 115 134 85 114 106 91 165 99 118 56 159 135 165 97 111 69 99 107 102 94 129 30 117 141 144 65 59 158 128 54 96 105 73 115 95 163 76 102 59 80 133 97 15 79 127 10 162 127 67 118 97 59 108 91 98 89 162 108 55 91 64 58 64 50 106 56 71 50 62 59 54 153 69 126 70 100 183 223 130 131 78 130 88 35 78 131 82 92 176 175 77 87 118 155 165 139 61 162 167 72 125 61 92 115 137 75 51 158 111 76 142 135 89 107 137 108 134 101 141 150 122 98 99 152 166 43 113 103 131 157 145 65 95 88 109 60 83 99 90 151 54 77 97 71 86 53 166 98 101 115 116 87 75 149 129 145 153 79 120 137 75 55 101 123 61 93 91 89 119 62 109 123 57 42 50 121 98 70 56 84 87 148 126 64 120 98 145 149 107 91 54 127 103 122 80 97 85 102 84 65 182 101 118 93 54 123 108 136 79 120 146 112 42 93 122 138 130 137 86 83 87 117 173 85 115 129 201 88 85 155 112 80 64 102 148 53 78 158 93 106 76 150 180 102 78 188 177 114 99 110 112 108 134 100 113 127 97 116 102 127 120 109 35 70 165 96 118 232 107 119 85 78 113 113 88 124 23 61 100 94 99 99 77 81 63 87 67 113 134 124 58 147 60 81 143 52 116 111 88 58 93 103 96 185 131 59 47 114 89 88 77 136 128 14 21 80 57 89 139 79 41 95 110 49 112 98 84 94 112 161 153 94 132 51 158 116 92 191 138 59 177 46 104 96 140 97 60 74 132 70 41 177 87 99 97 133 133 139 91 132 126 150 104 196 164 36 40 166 132 78 124 193 145 87 40 158 86 98 68 110 81 112 113 115 122 134 164 105 109 111 104 42 74 148 178 118 137 89 114 194 89 108 131 125 81 37 95 83 82 65 62 113 70 67 108 77 186 158 110 75 100 122 112 74 66 108 78 26 101 80 9 146 145 146 147 149 138 43 92 169 102 168 28 85 61 138 33 100 91 178 103 159 86 125 99 142 84 169 112 61 40 57 133 107 189 78 139 34 185 59 115 88 92 120 127 73 147 91 120 146 86 70 81 123 73 76 74 80 154 106 116 95 85 106 85 67 79 58 72 105 71 69 93 85 93 80 149 145 108 84 157 111 50 125 110 91 84 235 101 113 61 164 132 76 63 55 66 178 44 116 105 180 68 117 99 29 80 97 107 62 44 55 25 86 88 88 48 108 46 134 67 144 120 46 73 78 51 107 97 74 102 28 50 136 97 79 86 77 100 181 89 90 90 90 121 22 48 114 38 89 140 39 22 116 105 86 132 155 85 82 159 77 142 77 180 98 81 101 76 74 107 97 95 70 86 134 145 199 67 74 100 92 64 44 84 113 45 140 151 140 96 69 70 88 111 88 45 158 58 68 44 61 82 73 97 87 69 125 30 80 115 152 53 46 145 155 63 81 43 34 74 137 133 73 88 76 103 16 112 48 100 99 62 183 47 139 51 46 74 143 40 162 177 91 114 77 186 110 84 56 69 105 107 82 71 87 124 35 91 83 35 96 65 99 32 67 104 96 133 108 60 191 115 112 96 98 75 44 110 63 112 79 91 51 74 83 118 127 61 119 139 105 104 38 145 121 113 117 147 107 115 62 144 61 93 106 85 85 67 91 50 105 94 52 146 136 79 69 113 80 71 83 142 54 77 122 156 102 103 107 105 70 123 141 137 93 153 125 145 97 42 52 81 44 123 78 93 139 115 84 86 127 135 132 37 78 184 90 93 66 119 94 108 145 101 96 133 72 102 94 100 88 90 133 172 81 105 88 131 132 140 31 122 97 103 59 99 87 46 101 148 43 133 105 113 115 61 167 109 34 67 69 124 71 68 71 68 116 136 176 63 83 142 106 67 109 104 232 108 104 40 139 143 36 56 74 95 154 145 75 104 123 161 120 133 49 116 133 103 112 56 77 20 126 130 114 204 69 120 150 147 119 82 61 172 139 86 80 73 47 140 43 65 127 114 68 86 92 163 82 123 171 118 145 104 69 82 45 114 101 160 98 98 145 182 202 128 199 43 78 84 152 141 116 91 113 42 140 80 125 100 61 36 99 126 68 109 121 55 255 75 61 60 141 79 71 120 73 59 93 19 112 102 47 152 58 156 40 84 74 136 106 82 72 70 156 74 132 60 111 105 118 106 115 108 85 77 39 124 160 109 133 110 80 122 70 88 35 64 139 84 136 34 45 69 109 120 75 154 51 44 111 136 72 94 85 114 81 79 92 32 64 91 51 104 74 54 125 70 73 253 142 201 77 123 77 91 140 50 76 92 173 114 50 103 67 51 77 133 119 89 109 31 32 69 63 157 26 67 42 155 110 128 135 46 77 130 144 134 130 40 69 63 140 43 80 120 101 107 46 135 143 99 139 42 98 129 104 71 147 87 70 125 75 46 64 133 157 144 112 85 65 26 95 132 116 115 127 70 69 137 99 105 107 73 88 97 139 55 73 103 112 99 99 82 58 133 145 135 40 178 163 57 85 214 68 98 88 86 108 83 60 139 88 85 196 111 117 92 142 76 93 28 61 49 96 89 76 45 86 102 87 77 130 75 73 69 97 83 66 71 108 124 87 82 127 137 131 59 51 147 60 139 85 111 106 83 49 146 99 108 46 92 57 122 111 96 134 111 85 123 87 97 136 27 67 139 109 95 127 117 80 59 115 95 134 43 81 151 116 86 75 37 103 132 119 117 112 104 47 58 138 143 109 95 115 122 79 91 136 60 124 119 45 107 149 50 99 86 121 74 184 121 98 133 139 85 52 124 93 41 97 117 139 53 121 75 49 70 39 97 43 110 187 107 121 75 131 119 95 148 121 104 59 76 86 143 75 197 16 117 82 147 149 86 125 60 146 125 102 184 85 118 145 92 212 56 59 106 182 35 84 71 187 138 88 116 51 87 129 166 84 140 105 217 28 40 92 43 83 82 32 63 152 171 54 84 146 206 119 56 141 86 70 72 108 111 149 123 67 118 166 118 81 118 49 63 57 112 76 132 40 138 93 102 90 80 111 72 106 48 147 95 149 37 102 76 111 83 75 177 123 88 101 70 69 124 119 73 54 55 136 228 133 71 99 69 70 125 58 127 44 33 100 67 129 218 76 119 37 99 60 68 36 136 145 32 87 66 99 137 131 158 53 94 74 43 119 71 115 88 111 37 95 138 109 77 102 86 78 113 162 94 149 105 49 28 125 102 138 55 41 94 118 121 125 73 93 107 108 138 54 108 73 97 111 116 81 100 151 111 67 117 141 76 82 85 77 60 65 67 140 85 141 125 97 62 74 54 111 120 105 97 72 39 116 69 67 125 100 132 79 184 67 130 124 51 75 79 145 86 100 82 65 70 58 109 63 113 69 119 99 72 127 123 57 132 65 81 87 138 79 66 146 34 84 85 142 163 76 76 140 82 72 100 69 76 85 70 193 104 124 102 84 180 36 50 40 100 166 68 131 126 63 115 109 42 107 66 139 35 120 107 80 191 135 95 130 80 128 73 80 21 96 101 77 94 83 166 72 79 146 27 153 134 129 27 119 111 138 126 95 152 84 99 33 154 97 64 95 169 114 115 73 76 128 56 150 90 112 145 54 137 44 79 118 16 72 77 91 144 85 112 185 55 117 114 116 159 57 130 79 78 179 65 48 133 144 83 84 56 61 132 124 135 107 51 103 58 92 65 143 139 156 52 127 59 88 143 117 72 190 55 104 93 109 81 92 78 145 85 142 57 58 22 54 138 108 53 117 112 119 57 140 90 110 46 131 103 160 119 132 62 42 61 167 99 51 20 139 89 75 48 134 66 22 208 105 135 119 99 129 109 107 29 144 72 90 151 106 50 84 198 159 69 119 171 107 34 117 140 94 38 142 147 158 73 217 134 94 32 83 134 95 88 112 91 60 120 85 144 115 59 68 92 115 210 56 54 47 40 132 103 121 108 105 196 59 107 139 150 79 113 142 75 162 126 75 87 110 168 86 61 170 100 68 112 166 164 71 69 81 164 106 58 103 82 63 134 77 117 110 77 148 54 113 30 113 84 139 21 76 134 63 65 98 95 83 98 112 123 108 34 59 50 130 95 139 87 56 103 182 128 82 120 56 172 142 104 81 92 113 150 34 95 133 50 95 169 173 174 112 168 91 98 125 119 72 139 116 92 79 157 131 81 80 139 75 34 99 176 133 148 59 108 102 147 109 63 105 113 115 28 107 85 74 69 91 38 185 135 112 71 61 121 152 69 186 200 100 92 57 96 43 80 59 87 111 51 124 133 132 147 45 87 85 173 59 132 65 41 80 85 147 73 87 129 131 175 94 88 95 59 119 70 153 132 138 70 59 123 98 128 104 143 164 168 68 46 104 131 102 65 73 143 37 70 93 108 97 90 103 160 83 146 154 68 118 82 133 47 138 114 118 79 158 149 36 91 101 114 75 92 121 126 62 104 85 98 95 74 132 166 108 95 86 93 74 194 211 62 107 97 52 76 147 66 116 99 85 114 79 73 118 157 99 115 103 60 116 55 92 182 45 137 110 107 61 87 73 81 52 174 91 85 93 76 121 159 168 140 105 132 126 185 118 75 72 92 99 145 69 148 65 91 122 51 81 152 83 135 116 83 98 150 100 49 83 104 66 128 143 107 143 122 98 50 101 115 129 30 88 152 154 80 18 81 145 71 154 70 54 157 145 44 112 55 107 89 126 101 94 105 114 123 129 94 104 59 73 131 106 21 194 75 112 145 56 173 73 126 96 116 86 67 95 118 108 93 190 7</t>
+  </si>
+  <si>
+    <t>MIE(0.15135679336999946, 2.287747621001797, -1.589248804836128e-30, 0.8277613645944916)</t>
+  </si>
+  <si>
+    <t>0 0 2 1 0 0 1 1 0 1 1 1 2 2 2 1 1 1 1 0 1 1 0 1 0 2 1 0 1 1 0 0 1 2 2 0 2 0 0 2 1 1 1 2 2 0 0 0 0 0 0 2 2 0 1 0 1 2 1 0 1 0 0 1 1 2 0 0 0 2 1 3 1 0 1 0 0 2 1 2 0 0 0 1 0 0 1 0 0 0 1 0 0 2 0 0 1 0 0 0 0 0 1 1 3 0 0 0 0 1 0 0 1 0 0 0 1 2 0 0 1 1 0 2 1 1 0 0 2 1 0 2 0 1 0 0 4 0 1 0 0 0 1 0 0 1 0 1 0 0 0 0 2 0 0 2 0 0 1 0 2 1 0 0 0 0 1 0 0 1 2 0 0 0 0 0 0 1 0 1 0 0 1 0 0 2 2 1 0 1 1 1 0 1 0 2 1 0 0 0 0 0 1 1 1 1 1 1 0 0 0 0 0 1 0 0 1 1 0 0 0 1 1 0 0 0 0 0 1 1 1 0 0 0 0 1 1 0 0 2 2 0 2 1 0 1 2 1 0 2 0 0 0 0 0 1 1 1 0 0 0 0 0 0 2 0 1 0 0 1 1 0 0 0 0 0 0 1 0 0 1 0 0 1 0 1 0 0 0 2 0 0 1 1 0 0 0 0 1 2 0 0 0 0 0 0 1 2 0 0 1 0 1 1 0 0 0 0 0 3 0 2 0 2 0 2 1 0 2 0 1 0 0 2 0 3 0 0 1 0 1 0 1 2 1 0 0 0 0 0 0 1 1 0 1 1 2 1 0 2 1 0 0 1 0 0 1 0 1 0 3 0 1 1 1 0 1 3 0 0 2 0 1 1 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 1 1 1 1 1 2 1 0 0 0 1 0 3 1 0 0 0 1 0 1 1 1 1 1 0 1 1 0 1 0 0 1 2 0 2 1 1 1 0 0 1 2 2 1 0 1 1 2 1 1 1 4 1 0 1 1 1 1 1 1 1 1 0 0 1 2 1 0 0 0 2 1 0 0 1 0 0 1 0 0 0 0 0 1 1 0 0 0 1 1 1 2 1 1 1 2 0 1 1 0 0 1 1 0 0 1 0 0 1 0 0 1 2 0 0 1 0 0 1 1 1 1 1 0 0 1 0 1 0 0 0 0 1 1 2 0 0 1 0 1 0 1 0 0 0 1 1 1 0 0 0 0 1 1 2 1 0 1 1 3 0 1 1 0 0 1 2 0 0 3 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 3 1 0 0 1 0 0 0 0 1 0 1 0 1 0 0 1 1 0 0 1 0 2 0 1 1 3 1 1 2 0 0 1 4 1 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 3 0 1 0 0 2 0 2 0 1 1 1 1 1 1 1 0 2 0 0 2 1 0 1 1 2 0 2 0 0 2 0 0 0 0 1 0 1 1 1 0 0 0 0 1 0 0 1 1 0 1 1 2 1 0 0 1 1 0 0 2 1 0 1 2 1 2 2 1 1 2 1 0 0 0 0 1 1 0 0 0 0 0 1 0 1 1 1 2 1 1 2 1 0 0 1 1 0 0 0 0 0 2 1 1 0 1 0 2 1 0 0 0 0 0 0 0 1 0 0 0 1 1 1 0 2 1 0 0 0 0 0 1 1 1 1 1 0 1 0 1 0 0 1 1 0 1 0 1 1 0 0 1 1 2 0 1 0 1 0 0 1 1 0 1 0 0 0 0 0 0 0 1 1 2 1 0 0 1 0 0 1 0 2 0 2 1 0 0 0 0 1 0 0 0 1 1 1 0 1 1 0 0 0 1 0 1 0 0 1 0 0 1 1 1 0 0 1 0 1 1 1 0 1 0 0 0 2 1 0 1 0 1 0 1 1 0 1 1 2 1 1 0 0 0 0 1 0 1 0 1 1 0 0 2 1 1 0 0 1 0 1 0 0 1 1 0 1 0 0 2 3 1 1 0 2 1 0 0 0 0 0 3 1 0 2 0 0 0 1 0 0 0 0 1 1 0 0 2 0 0 1 0 0 0 1 0 1 0 1 2 1 1 1 0 0 0 0 0 0 1 2 0 0 1 0 0 0 0 1 1 0 2 1 0 2 0 0 0 1 0 1 2 0 0 1 0 0 1 0 0 1 1 1 2 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 2 2 1 0 0 0 0 0 1 2 0 1 3 0 2 0 0 0 1 3 0 0 1 1 1 1 0 0 0 2 1 0 1 1 1 1 0 2 0 1 1 0 1 0 0 1 0 1 0 1 1 2 1 0 1 0 0 1 1 1 0 1 1 0 0 0 1 1 1 1 1 1 0 2 1 0 0 0 0 2 0 2 1 0 0 1 2 1 1 0 0 0 0 2 2 1 2 2 0 0 0 1 0 1 0 0 0 1 0 0 1 1 0 0 0 0 1 1 0 1 0 1 1 0 0 0 0 1 1 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 2 0 1 0 1 2 2 1 1 0 1 0 2 0 0 0 2 0 1 1 1 0 2 1 0 1 0 0 0 1 1 0 0 0 0 0 1 1 1 2 1 2 0 2 0 1 1 1 0 0 0 0 0 0 0 1 1 1 0 0 0 0 1 1 0 0 1 1 1 0 0 0 0 1 1 0 1 0 0 0 1 1 0 0 0 2 0 2 2 3 1 1 0 1 2 0 0 1 0 1 1 1 1 1 0 2 1 1 0 2 0 0 0 1 3 0 0 0 0 1 0 1 1 1 1 1 1 1 0 2 0 0 2 2 0 1 1 1 1 1 1 0 1 0 1 0 2 2 1 0 0 2 0 0 0 0 0 1 0 0 1 2 0 0 0 1 1 0 0 0 0 1 0 3 0 3 1 0 1 1 0 0 1 0 2 1 0 0 0 1 0 0 0 0 0 0 1 0 1 0 1 0 0 1 0 1 1 0 0 0 0 0 2 1 0 0 1 1 1 0 2 1 2 1 0 0 0 0 1 1 0 1 1 0 0 0 2 0 1 0 1 0 0 2 1 1 2 0 1 0 0 1 0 0 0 1 0 2 1 1 2 0 0 0 0 0 1 1 2 1 0 0 1 2 0 1 0 1 2 0 1 0 0 1 0 2 0 1 0 0 3 1 0 0 0 1 0 1 0 1 0 0 1 1 1 1 0 0 1 0 1 1 1 3 0 2 0 0 3 2 0 3 1 1 0 1 2 1 2 2 1 1 0 3 0 1 0 1 0 0 3 2 0 0 2 1 1 0 0 1 1 2 0 1 1 0 0 0 1 1 1 1 0 3 0 1 0 1 1 1 1 0 1 0 0 0 0 0 0 1 0 1 0 2 2 2 0 0 1 1 0 0 2 2 0 0 3 1 0 1 1 1 0 1 1 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 2 0 0 0 1 1 0 2 0 0 1 0 1 0 0 0 1 0 1 0 0 0 0 1 0 1 0 0 0 0 0 1 1 1 1 0 0 1 1 1 0 0 1 1 0 0 1 1 1 0 3 1 1 0 0 0 0 0 1 0 0 1 1 1 1 1 0 2 1 1 1 0 0 0 0 0 1 0 0 1 1 0 0 0 0 1 1 0 1 1 0 0 0 2 0 0 1 1 1 1 1 0 0 0 0 2 0 1 0 1 0 0 2 2 0 0 0 1 1 1 0 0 1 2 0 0 3 3 1 0 1 0 1 0 0 0 1 0 1 2 0 0 2 3 0 2 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 1 0 1 0 0 2 0 0 0 0 1 1 1 2 0 1 0 2 0 3 0 2 0 0 1 0 1 0 0 1 0 0 0 0 0 0 1 0 1 2 0 0 0 0 1 1 0 1 0 0 0 0 1 2 0 1 0 0 1 0 0 0 2 1 0 0 1 0 0 0 0 1 0 2 0 0 2 0 1 1 0 1 0 0 0 1 0 0 0 1 2 0 0 1 0 2 1 2 0 0 1 0 1 0 0 1 1 1 0 0 0 0 1 1 1 0 0 0 1 0 0 0 0 1 1 0 1 0 0 1 1 0 3 1 1 0 3 1 1 0 1 0 2 0 1 0 1 0 0 3 0 0 1 1 0 1 0 2 1 0 1 0 0 0 0 0 0 0 1 2 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 2 0 1 0 0 0 2 2 0 1 0 1 0 0 1 2 1 0 1 1 0 1 0 2 0 2 0 0 3 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 2 0 2 0 1 0 1 0 0 0 1 1 0 1 2 0 3 0 0 1 0 0 1 0 1 0 1 2 0 0 0 0 1 1 0 1 0 2 1 1 0 1 1 0 0 1 1 0 0 0 0 0 0 0 1 1 0 1 1 0 0 0 2 0 0 1 0 2 1 1 0 0 1 0 1 0 1 0 0 0 2 1 0 1 1 0 0 0 0 1 1 0 0 0 1 0 0 2 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 1 1 0 0 1 2 0 1 2 2 1 2 0 0 0 0 0 0 0 1 2 0 2 0 0 0 2 0 0 0 1 2 2 0 0 1 1 0 0 0 0 1 1 0 1 2 0 0 0 0 2 1 0 1 1 1 2 1 0 0 0 2 1 0 0 0 0 0 0 0 0 1 2 1 0 1 0 0 1 0 1 0 0 1 0 0 1 2 0 0 1 2 0 1 1 0 0 0 1 1 1 1 0 0 1 1 0 0 1 0 1 2 0 0 0 0 1 0 0 2 1 1 0 1 0 0 0 0 0 1 1 0 0 1 0 0 1 1 1 1 1 0 0 1 1 0 1 3 0 0 1 1 0 1 0 0 1 0 0 0 0 0 1 1 0 1 2 0 1 1 1 0 1 0 1 1 1 0 0 0 0 1 0 1 1 0 0 0 0 0 2 0 0 0 0 0 1 1 1 0 0 2 0 0 1 1 0 0 1 0 0 0 0 0 1 1 0 1 1 0 1 0 0 0 0 2 0 1 0 0 1 0 1 1 0 1 2 0 1 0 0 2 0 0 0 2 0 1 0 0 1 0 1 0 0 0 0 1 1 2 1 0 1 0 1 0 0 1 0 0 3 2 0 0 2 2 0 2 1 1 0 1 0 2 2 3 2 2 1 0 0 1 0 2 0 0 0 0 0 0 0 1 1 1 1 1 2 1 1 0 1 0 0 0 0 1 0 0 0 0 0 1 0 1 0 1 3 0 0 0 0 1 0 4 0 2 0 0 1 0 0 1 1 1 0 0 1 0 2 0 0 0 2 1 1 0 1 0 0 0 0 0 0 0 2 1 1 0 0 0 2 1 1 1 0 0 0 2 2 2 0 0 1 1 1 1 2 1 2 0 1 1 0 0 1 0 0 0 1 1 0 0 0 1 0 0 1 1 0 0 0 0 0 0 1 1 1 2 0 0 0 0 0 1 1 2 2 0 1 0 0 1 1 0 0 1 0 0 0 0 1 1 1 0 1 1 0 0 1 1 3 1 1 1 2 1 0 0 1 0 0 0 0 0 0 1 1 1 1 2 0 0 0 1 0 0 1 1 0 1 1 1 0 1 2 0 0 2 0 1 0 0 1 2 1 1 0 0 0 1 0 1 3 1 0 0 1 0 0 0 0 1 1 0 0 1 0 3 0 1 0 2 0 0 0 1 1 0 0 0 0 0 0 0 0 1 1 0 0 1 1 0 1 1 1 1 0 1 2 3 0 0 0 0 1 0 1 1 0 2 1 0 1 0 2 0 1 1 0 1 1 0 1 0 1 1 1 0 1 0 1 0 0 0 0 0 1 1 1 0 1 0 0 3 0 1 0 1 1 1 1 1 0 1 1 3 0 1 0 0 2 2 0 0 0 1 1 0 0 1 0 0 2 0 0 0 1 2 1 1 1 1 0 1 0 0 1 0 1 0 1 1 0 0 2 2 0 0 1 0 0 0 1 0 1 1 0 3 1 0 2 1 1 0 1 1 2 2 2 0 1 0 2 1 0 0 2 0 0 0 0 1 1 0 1 0 2 0 0 1 0 2 1 0 0 1 0 0 1 2 2 0 0 1 0 1 0 1 1 0 1 1 1 1 0 0 0 1 0 0 2 0 1 0 0 0 0 2 1 0 1 0 0 1 0 0 2 0 2 1 0 0 1 2 1 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 1 0 2 1 2 1 1 1 0 0 0 0 2 1 1 2 2 2 0 1 2 1 2 1 0 0 3 0 0 0 0 0 1 0 0 0 1 0 0 0 1 1 0 0 1 0 1 0 2 0 1 0 0 1 0 1 0 0 0 1 0 1 2 1 1 0 1 0 1 0 0 0 2 1 1 0 0 1 1 2 1 2 0 1 0 1 0 0 2 1 2 2 0 0 1 0 0 0 0 0 0 0 0 0 1 0 2 3 0 2 0 0 1 1 0 1 1 0 0 0 0 0 0 2 0 0 1 0 0 0 1 0 0 0 0 1 0 0 2 0 1 0 0 1 0 1 0 1 1 0 0 0 0 0 1 1 1 0 1 0 1 0 1 1 0 2 1 1 2 0 0 1 0 0 1 0 0 1 1 0 1 0 1 0 3 0 1 0 0 2 2 2 0 0 0 0 1 0 0 0 2 0 1 0 1 0 1 0 1 1 0 2 0 1 0 0 0 1 1 1 1 0 1 1 0 0 0 0 1 0 0 1 0 0 2 2 1 2 0 1 1 0 0 0 0 0 0 0 3 0 1 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 1 2 0 0 0 1 1 0 2 0 0 0 0 0 1 3 0 2 0 0 2 0 0 0 1 1 0 0 1 1 1 0 1 0 1 0 0 1 1 0 0 1 1 2 0 0 1 1 0 2 1 0 1 0 0 0 1 0 1 0 0 0 1 0 1 0 1 0 0 0 0 0 2 1 1 1 0 1 1 1 0 1 1 0 1 1 0 0 0 2 1 1 1 0 0 1 0 1 0 1 0 1 0 0 2 0 1 0 2 0 0 0 0 0 0 0 1 0 1 1 1 1 0 0 0 0 2 0 2 1 0 1 1 1 0 1 1 0 0 1 0 1 3 0 1 0 1 0 0 1 1 2 1 1 0 1 3 1 1 0 0 1 1 0 0 0 1 0 1 1 1 1 1 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 2 0 0 0 1 0 0 0 1 2 0 0 1 0 2 0 1 1 1 1 1 0 0 0 2 0 3 0 1 2 0 1 0 1 0 0 0 0 0 0 1 0 1 1 0 0 1 2 1 1 0 0 1 1 0 0 0 0 0 0 0 1 2 0 0 1 1 1 1 1 0 1 0 2 0 1 1 1 0 0 0 1 1 1 1 0 0 1 1 1 0 0 1 1 3 0 0 1 0 1 0 0 1 1 0 0 1 1 1 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 1 0 1 0 0 2 1 0 0 0 0 0 1 1 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 1 1 0 1 0 0 0 0 0 0 0 2 0 1 0 1 2 2 0 1 0 2 1 1 0 1 1 1 1 0 0 1 0 0 0 0 2 0 1 1 0 0 0 0 0 1 1 0 1 2 0 0 2 0 0 0 0 2 2 0 1 1 1 0 0 0 2 2 2 0 0 2 2 3 1 0 2 0 0 0 1 1 0 2 0 0 0 1 2 1 1 1 2 0 0 0 0 1 0 0 1 0 0 0 0 1 0 2 1 0 0 0 0 0 1 1 0 0 2 0 0 0 0 1 0 0 1 0 0 1 2 0 0 0 0 1 3 0 0 1 0 0 0 0 0 0 2 0 0 0 0 0 0 2 0 0 1 2 1 1 0 0 0 1 0 0 0 0 2 3 1 0 1 0 2 0 1 0 1 2 2 1 1 0 0 0 1 0 2 0 0 0 0 0 1 0 0 1 1 0 0 1 1 1 1 2 0 0 1 2 1 1 1 1 1 2 1 0 1 2 0 2 0 0 0 0 0 0 1 1 1 0 0 0 2 1 3 1 0 1 1 3 0 2 0 1 0 0 0 0 0 0 1 2 1 0 1 1 1 1 0 1 0 0 1 1 0 1 0 0 0 1 0 0 0 1 2 1 0 0 0 0 0 2 2 2 1 1 0 0 1 1 3 0 1 0 1 1 0 0 0 1 0 0 1 0 0 1 0 1 2 0 2 1 0 0 0 1 0 1 1 0 1 2 2 2 0 1 0 0 0 0 0 1 0 0 0 0 2 2 3 1 1 1 1 1 1 1 0 2 0 0 1 0 1 0 1 1 1 1 2 0 1 0 0 0 1 0 0 0 1 0 0 0 1 2 2 0 0 0 1 0 1 0 0 1 0 0 1 1 0 0 0 1 0 1 1 2 0 3 0 0 1 3 1 0 2 0 0 0 1 1 1 1 2 0 2 1 0 0 2 0 1 0 3 1 0 0 1 0 1 1 0 0 1 1 1 0 0 0 1 1 2 1 0 1 1 1 0 0 2 2 2 0 2 1 0 2 0 0 2 1 0 0 0 0 0 0 1 1 0 0 0 3 0 0 0 1 2 2 0 1 0 0 0 1 0 1 1 0 0 1 1 1 1 1 1 0 0 1 0 0 0 0 0 0 1 0 1 0 0 1 0 2 0 1 1 0 0 1 0 1 1 0 0 2 0 2 1 1 0 0 1 0 0 0 0 1 0 1 0 0 0 1 1 3 1 0 0 1 1 1 1 0 0 1 0 1 0 0 0 1 3 1 0 2 1 1 2 2 0 0 0 1 0 0 1 0 1 0 2 0 0 0 1 0 1 1 0 0 0 1 0 0 1 1 0 0 1 0 1 0 0 1 1 0 0 0 0 0 0 0 2 1 0 1 0 0 1 1 2 2 2 1 0 1 3 0 0 0 1 0 0 3 0 0 1 1 2 1 0 0 1 0 0 2 0 0 0 1 2 0 3 1 1 1 0 0 1 0 2 0 0 1 0 0 0 1 1 1 2 0 0 1 0 1 0 1 0 2 0 0 0 0 0 1 0 1 0 0 1 2 1 0 2 0 2 1 1 0 0 1 1 0 1 0 0 0 0 1 1 0 1 1 0 1 2 1 0 0 2 1 1 0 1 2 0 0 2 1 0 1 1 1 0 0 0 1 1 0 0 1 1 1 1 2 0 1 1 0 1 1 0 0 1 0 0 0 0 0 0 1 1 2 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 1 0 0 0 0 1 0 0 0 0 1 0 0 2 1 0 1 0 0 0 0 1 1 3 1 0 0 1 0 0 0 1 1 0 1 0 1 1 0 0 1 1 0 0 1 1 0 0 1 0 0 0 0 0 2 0 1 0 0 2 0 1 2 0 1 2 0 1 1 0 0 1 1 0 1 0 1 0 1 1 0 0 0 1 0 1 1 0 0 0 0 1 0 1 0 0 1 0 0 0 0 2 0 0 0 2 2 2 0 0 2 0 1 1 0 1 1 2 1 0 0 0 0 0 1 0 1 1 0 1 1 1 0 0 0 0 0 4 1 1 0 1 0 1 0 0 1 1 0 0 2 0 0 0 1 0 1 0 0 0 1 0 1 1 1 2 0 0 0 1 1 1 0 0 1 1 0 0 1 1 0 1 0 0 0 0 1 1 0 1 0 0 2 0 1 1 1 1 4 3 2 0 0 0 0 1 1 1 1 1 1 0 1 0 0 1 1 0 2 0 0 1 0 0 1 1 0 0 0 0 0 1 0 0 0 1 2 0 1 0 0 0 0 0 2 0 0 1 0 1 1 0 0 1 0 1 0 0 1 1 0 0 1 0 0 0 0 1 0 1 2 2 0 0 1 0 2 0 1 0 1 0 1 0 2 0 0 0 0 1 1 1 0 0 0 0 0 1 1 1 0 0 1 1 0 0 0 0 1 1 2 0 0 0 1 0 0 1 2 0 0 0 0 1 0 0 1 0 1 0 0 1 0 0 1 0 1 1 1 0 0 2 0 0 0 2 0 1 0 0 1 0 1 0 0 0 0 0 0 1 0 1 1 1 0 2 1 0 0 0 0 1 0 0 2 0 0 1 0 0 1 1 0 0 1 2 0 0 0 1 0 0 1 0 1 0 0 2 0 1 0 1 0 0 1 1 2 2 1 0 0 0 0 1 0 1 0 0 0 0 0 0 3 1 0 0 1 0 1 1 0 1 0 0 0 1 2 1 2 0 0 0 1 1 0 1 2 1 1 0 2 0 0 1 0 0 0 1 0 0 0 2 0 1 2 1 0 1 1 1 0 0 0 0 1 0 0 0 0 0 3 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 3 0 0 4 1 0 1 0 2 0 0 0 0 0 1 1 3 0 0 1 2 2 0 0 1 0 0 1 0 2 1 1 0 0 1 1 1 1 0 0 0 2 0 0 1 0 0 1 1 0 0 1 0 0 0 5 1 0 0 1 1 0 0 1 1 1 0 0 1 0 4 0 3 0 0 2 1 0 0 0 1 0 0 0 1 1 2 1 0 1 0 1 2 1 0 1 0 0 0 0 1 0 0 1 0 1 0 0 3 1 1 0 0 1 0 1 0 0 0 0 2 0 1 1 1 1 1 0 0 0 1 1 1 0 1 0 1 0 0 3 0 2 0 1 0 0 1 0 0 3 1 1 1 0 0 1 1 0 2 0 0 0 2 0 2 1 1 2 1 1 2 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 3 0 0 1 2 1 0 2 1 1 0 2 1 0 1 2 0 1 0 0 3 0 0 2 1 0 0 1 0 0 0 0 0 0 1 0 2 0 0 1 1 1 0 3 1 0 1 0 0 1 1 0 0 0 1 1 1 1 1 1 0 3 1 0 2 0 0 0 0 2 1 0 1 0 1 0 2 0 0 1 1 0 0 1 0 0 0 1 1 1 0 0 2 0 0 0 0 0 0 0 0 0 1 1 0 2 0 0 0 0 1 3 0 1 1 2 1 1 1 1 0 1 0 0 1 0 0 0 0 1 0 1 1 0 0 0 1 1 1 0 0 1 0 0 0 2 0 0 1 1 1 1 0 0 0 0 0 0 1 0 1 0 0 0 1 1 0 0 0 1 1 1 1 0 0 0 1 0 1 0 2 0 0 0 0 1 0 1 1 1 1 1 2 0 0 0 1 1 2 0 1 1 2 2 1 1 1 0 1 1 0 1 0 2 0 1 0 2 0 0 0 1 0 1 0 0 2 1 2 0 0 2 1 1 1 0 0 0 0 0 5 2 0 0 1 0 1 0 0 0 0 0 0 1 1 1 0 1 0 0 0 0 1 0 0 0 2 2 0 1 1 1 1 2 0 0 0 1 1 0 0 1 0 1 0 0 1 0 1 0 2 3 0 1 1 3 0 1 0 0 1 1 2 0 0 0 2 1 1 1 1 0 1 2 0 0 1 0 0 0 1 0 0 0 0 0 2 0 0 1 0 1 0 0 0 0 2 1 0 0 0 0 0 3 3 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 3 0 1 0 1 0 0 0 1 1 1 0 0 1 0 1 0 0 2 1 1 0 0 1 1 1 1 1 1 0 0 1 3 1 0 1 0 2 1 0 0 0 0 2 1 1 0 0 0 2 0 1 2 1 1 1 1 1 0 0 0 0 4 1 1 1 1 0 1 0 1 0 3 0 0 0 1 1 0 0 0 1 0 1 0 0 2 2 1 1 0 0 1 0 0 1 1 2 0 1 0 0 0 3 1 0 0 0 0 1 0 1 1 0 0 2 0 1 0 0 0 0 0 2 0 0 0 0 1 1 2 1 2 2 0 2 0 0 1 1 0 0 0 1 1 1 1 0 0 1 0 0 2 0 0 2 0 2 1 0 0 1 0 0 1 2 1 1 0 0 0 1 0 1 1 1 0 1 1 0 0 0 0 0 2 0 1 0 0 0 2 1 1 0 1 1 1 0 0 1 1 1 1 1 0 1 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 1 1 0 0 1 1 2 0 0 0 2 0 1 0 1 0 1 0 1 0 2 0 1 2 1 1 1 1 1 1 2 1 0 0 1 1 0 1 1 1 0 0 0 0 0 2 2 1 1 1 1 1 1 1 1 0 3 0 1 1 1 1 1 0 0 0 0 0 1 0 0 0 2 1 1 0 2 0 2 2 1 1 1 0 0 0 2 0 0 1 1 1 2 0 0 1 1 1 1 0 0 0 0 0 0 0 1 0 1 1 1 0 1 1 1 0 1 1 0 1 1 0 0 0 0 1 0 1 0 0 1 0 0 1 0 0 1 0 0 1 1 1 1 0 1 0 0 0 1 0 0 0 0 0 0 0 1 1 1 0 0 0 1 0 1 1 1 1 1 1 0 0 1 0 0 1 0 2 1 0 0 1 0 0 0 1 0 1 1 0 2 0 1 0 3 0 1 0 2 0 0 1 1 2 0 1 1 0 0 1 1 2 4 1 0 1 2 1 1 2 1 0 0 1 0 2 2 1 0 1 0 1 0 1 0 0 1 0 1 2 2 2 0 0 0 0 1 0 2 0 1 0 0 0 1 1 0 0 0 1 0 2 1 0 0 0 0 0 1 0 0 0 1 2 1 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 1 0 0 1 1 0 2 0 2 0 0 1 1 0 0 2 1 0 0 0 2 0 1 0 0 0 1 0 1 0 0 1 0 0 3 1 0 0 2 0 0 0 0 0 1 1 1 0 1 0 1 0 0 0 0 0 1 0 0 0 1 1 1 0 1 0 2 1 0 1 0 0 0 0 2 1 1 0 2 0 1 2 0 1 0 0 0 0 0 0 0 0 0 2 2 0 1 0 1 0 2 0 1 0 0 1 2 0 0 0 0 0 0 0 0 0 0 1 2 1 0 0 1 1 0 1 0 0 0 0 0 0 0 0 1 0 2 0 1 0 0 0 1 0 2 0 0 1 2 1 0 0 1 1 0 0 0 1 1 0 1 0 3 2 0 0 1 0 0 0 1 1 1 0 1 0 0 0 0 1 1 1 1 0 0 0 0 1 0 2 0 0 0 0 0 2 1 1 2 0 1 1 1 1 0 0 1 1 0 0 1 2 0 0 1 1 0 0 0 0 0 3 1 1 0 0 0 0 0 0 1 0 2 0 0 0 1 0 0 2 0 2 0 2 0 1 0 1 1 0 2 1 0 0 1 0 2 1 0 2 0 0 0 0 0 1 0 1 0 2 0 1 0 1 0 1 0 1 0 1 1 1 1 1 0 0 1 1 0 1 0 1 1 1 0 0 0 2 1 1 0 1 1 1 0 1 1 0 3 1 0 1 0 1 1 0 0 1 1 1 0 0 1 0 1 0 0 1 1 1 0 1 0 2 2 0 0 1 0 0 1 0 2 0 0 0 0 0 1 0 0 0 1 0 1 1 0 1 1 1 0 0 1 0 3 0 0 3 0 0 2 2 1 0 0 0 0 0 0 0 2 0 0 0 1 1 0 0 0 1 1 0 1 0 1 1 1 0 0 0 0 0 0 1 0 0 2 0 3 0 0 1 1 0 1 0 0 2 1 3 0 0 0 1 0 2 2 1 1 0 1 0 2 1 1 0 0 0 1 0 0 0 0 1 0 2 2 1 0 0 0 0 1 1 0 1 0 0 0 0 0 1 2 1 0 0 2 2 3 1 1 1 0 1 0 2 1 1 0 1 1 0 1 1 3 2 0 3 0 0 1 0 1 0 0 0 0 0 0 1 1 1 1 1 0 1 1 1 0 2 0 1 0 0 1 0 0 0 0 1 0 0 1 0 1 1 1 1 0 1 0 1 1 0 1 0 1 1 0 0 0 1 0 2 1 1 1 0 0 1 0 1 3 0 2 0 0 0 0 0 0 0 0 0 1 0 1 2 1 4 2 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 1 1 1 0 1 0 0 0 0 0 1 0 0 0 1 1 3 0 1 0 1 0 0 0 0 0 1 0 1 1 0 2 0 1 0 0 0 0 1 1 1 1 0 0 0 1 1 0 0 1 0 2 0 1 0 0 0 0 1 0 1 1 0 0 0 0 1 1 1 1 0 1 1 2 0 0 0 0 0 2 0 1 0 1 1 2 0 0 0 2 0 1 0 0 1 3 0 0 0 1 1 0 0 1 1 2 0 1 0 0 0 2 0 1 0 0 0 0 0 0 0 1 0 1 0 0 3 1 0 3 0 1 0 2 0 1 0 1 1 1 0 0 1 1 1 0 0 0 1 0 1 0 0 1 1 0 2 0 1 0 1 0 0 0 0 2 0 1 2 1 1 1 2 0 0 0 2 1 1 0 0 0 0 1 0 0 2 0 0 0 1 0 1 1 1 1 1 1 0 0 1 0 0 2 1 1 0 1 0 1 1 0 0 0 1 0 1 0 1 0 0 0 0 0 1 0 3 0 1 0 2 1 1 1 1 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 1 2 2 0 1 2 2 0 0 1 0 1 1 0 0 0 1 2 0 0 0 0 0 0 2 1 0 1 1 0 1 0 0 0 0 0 2 0 1 0 1 0 0 0 0 0 2 0 1 0 2 0 1 2 0 2 0 0 0 0 1 0 0 0 2 0 1 0 0 0 0 0 2 2 0 0 2 1 1 0 0 1 0 2 1 1 2 1 1 0 0 0 0 0 1 0 0 1 1 1 1 0 2 0 0 1 1 0 4 0 0 0 0 0 0 0 0 2 1 0 0 0 0 0 1 0 1 0 0 1 0 1 2 3 0 2 0 0 1 0 2 1 0 0 2 1 0 0 0 0 0 0 0 0 0 0 0 2 1 0 1 1 0 0 1 1 1 1 0 1 2 1 1 1 0 0 0 0 0 1 0 1 1 0 0 0 1 1 0 1 2 0 0 2 1 0 0 0 1 0 0 0 2 1 1 1 1 0 0 0 0 2 0 0 0 0 2 1 0 0 0 1 0 0 0 2 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 2 0 1 0 1 1 1 1 0 0 1 1 0 0 2 0 1 0 0 2 0 1 1 0 0 0 0 1 0 0 1 0 2 1 0 2 0 0 1 1 0 2 0 1 0 1 0 1 0 3 1 1 1 0 0 1 2 1 0 0 0 0 0 0 0 2 1 0 0 0 0 0 2 2 0 0 0 1 2 0 1 0 1 0 1 0 0 1 1 0 0 2 2 0 1 0 1 2 0 1 1 1 0 1 1 3 0 0 0 1 2 1 2 1 2 1 1 0 0 0 2 0 0 1 0 1 1 0 1 0 1 1 0 1 0 0 0 0 0 0 0 1 0 0 1 1 0 1 1 1 0 1 0 2 0 0 2 0 0 0 0 0 0 0 1 0 0 1 1 2 1 1 2 0 1 1 0 3 2 1 0 1 1 0 1 0 0 0 0 1 1 1 0 1 1 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 1 2 1 2 1 0 1 2 1 0 0 2 2 0 1 1 0 1 0 0 1 1 0 1 0 0 0 0 2 0 1 1 2 0 0 1 0 1 1 1 1 1 0 0 0 1 2 1 1 1 1 0 1 0 2 1 0 2 1 0 0 1 3 0 0 1 2 0 0 0 1 0 0 2 0 0 1 0 1 1 1 1 0 1 2 2 1 0 2 0 0 1 0 1 1 0 0 1 0 1 0 1 0 0 1 1 0 1 1 1 1 0 3 0 0 0 1 0 1 0 0 1 0 2 0 0 1 0 0 0 0 1 0 1 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 2 1 1 0 1 1 0 2 1 1 1 4 1 1 1 1 0 2 1 0 0 0 0 0 0 1 1 1 0 0 1 0 0 0 2 0 0 1 0 3 1 1 1 1 0 0 2 0 1 0 0 1 2 1 0 1 0 0 1 1 0 3 0 0 1 0 0 0 0 0 0 0 1 1 1 0 0 1 0 0 1 1 1 0 0 1 0 0 1 2 1 1 1 1 1 0 0 1 2 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 2 1 0 0 0 1 1 0 0 0 0 1 1 2 0 1 2 0 0 2 0 0 1 2 1 0 1 1 1 0 0 2 0 1 1 3 0 0 1 1 1 0 0 0 1 0 2 1 0 2 0 1 1 0 1 2 0 0 1 2 0 2 1 0 1 1 0 0 1 1 1 1 1 1 2 0 0 1 0 1 0 2 1 1 0 0 1 2 0 1 0 1 0 0 3 1 1 0 0 1 1 0 1 1 1 1 0 2 0 1 1 0 2 2 1 0 0 2 0 0 2 1 0 0 2 0 0 0 0 0 1 0 0 0 0 0 2 1 2 0 0 3 0 0 0 1 1 1 0 3 0 1 0 0 2 0 2 0 1 1 1 0 0 0 0 1 2 1 0 1 1 0 0 1 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 2 0 0 0 0 0 0 0 2 1 1 2 1 0 0 2 1 0 1 0 0 1 1 0 1 1 2 0 1 0 0 2 1 0 1 1 0 1 0 0 0 0 0 0 0 2 1 1 1 0 0 1 2 1 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 1 2 1 2 1 1 0 2 0 0 1 0 0 1 0 1 0 0 0 1 1 1 0 0 0 0 1 2 0 0 2 0 1 1 0 1 1 0 0 0 1 0 2 1 0 2 1 2 1 1 1 0 0 3 0 0 2 2 1 0 1 1 0 1 0 0 2 0 0 0 2 4 0 0 0 0 1 1 0 0 0 0 1 2 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 1 0 0 1 0 2 0 1 0 0 1 0 0 0 1 1 0 0 2 1 0 1 0 1 1 1 0 0 0 1 2 0 3 0 0 0 0 1 2 1 0 0 0 0 0 3 0 0 0 1 1 0 1 1 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 1 0 0 1 0 0 0 1 0 1 1 0 1 1 1 1 0 0 0 1 0 0 0 0 1 0 0 0 2 0 0 0 1 0 0 2 1 0 0 3 0 1 0 2 0 2 0 0 0 2 0 0 0 0 0 0 0 0 0 2 0 2 0 0 1 1 1 1 1 0 0 0 0 2 0 0 0 0 2 0 2 0 1 0 3 0 0 1 1 2 2 1 1 1 0 1 1 0 0 1 0 0 0 1 0 1 0 0 2 1 0 0 1 1 1 0 0 2 1 0 0 0 1 0 0 1 1 0 0 0 1 0 1 0 0 0 0 2 0 1 0 1 0 0 0 1 0 0 0 1 1 0 0 0 1 2 2 0 1 0 1 1 1 1 0 0 1 0 0 1 1 1 3 1 1 1 2 0 1 2 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 2 1 1 0 0 0 1 0 1 2 0 0 0 1 1 0 0 0 0 1 1 1 0 0 0 1 1 0 0 0 1 0 0 0 1 1 0 1 3 0 1 2 0 3 1 0 1 1 0 0 2 1 1 0 0 0 0 1 0 2 3 0 0 0 0 2 2 0 0 0 0 1 1 0 1 1 1 2 0 1 0 0 0 1 0 1 0 1 1 1 0 0 1 1 0 2 0 1 0 1 0 1 0 2 0 2 0 1 2 1 0 0 1 0 0 0 0 1 3 0 1 0 0 3 1 0 0 0 0 1 1 0 1 2 0 0 1 1 1 0 1 0 1 2 2 0 0 0 0 0 0 1 1 1 1 0 0 0 0 1 1 0 0 1 0 1 2 0 0 1 0 1 0 0 2 1 0 0 0 2 0 0 3 1 3 1 1 0 0 0 0 1 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 3 0 0 1 0 0 1 2 1 0 0 1 0 0 0 1 1 1 0 0 0 0 0 0 1 1 0 0 1 0 1 2 1 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 1 2 1 1 0 0 1 0 0 0 1 1 0 0 1 2 0 0 0 1 0 2 1 1 0 0 0 0 0 1 0 1 1 1 1 0 1 1 1 0 0 0 0 1 0 0 0 1 1 0 2 0 0 0 1 0 0 1 0 2 0 0 1 0 1 0 0 0 0 0 0 0 1 0 1 1 0 1 2 1 0 1 1 1 1 1 1 0 2 1 1 0 1 2 1 1 0 0 0 0 1 1 1 0 0 0 0 0 0 0 1 1 1 0 1 1 0 1 2 1 0 1 1 1 0 0 1 1 0 0 0 0 0 1 0 0 1 0 1 1 2 2 0 1 0 1 0 0 0 0 1 0 0 0 1 1 1 0 0 2 1 2 0 0 3 0 0 3 0 1 0 1 0 0 1 2 0 1 0 1 1 0 0 0 0 0 1 2 1 0 0 0 1 0 0 0 2 0 0 0 0 1 1 1 0 0 2 1 0 1 1 2 0 0 0 0 0 1 0 1 2 2 0 1 1 2 1 0 1 1 1 0 0 1 1 1 0 1 2 0 0 1 1 1 0 2 0 0 0 0 1 0 2 0 1 0 0 1 0 0 1 1 1 1 1 2 1 1 0 1 0 0 0 0 1 1 0 1 0 1 0 1 0 0 1 2 0 1 0 0 1 3 1 0 0 0 0 0 1 0 0 1 1 1 0 0 2 1 1 0 0 1 2 0 2 0 1 0 0 0 1 1 0 0 0 0 0 2 0 0 0 1 0 0 1 1 2 0 0 0 0 0 1 0 1 1 1 2 0 1 1 1 1 1 0 0 1 2 0 2 1 0 0 0 0 1 0 0 1 1 2 0 0 1 1 0 1 1 0 1 1 1 2 0 0 1 1 0 0 2 0 1 1 0 0 0 1 0 0 0 0 0 0 1 1 0 0 1 0 0 1 1 0 2 0 1 0 1 0 0 2 0 2 1 1 2 1 0 0 0 1 0 0 0 0 0 0 1 1 0 0 1 0 0 1 0 3 1 1 3 0 1 0 1 0 2 0 0 1 1 0 3 0 1 0 0 2 0 0 0 1 1 1 0 0 2 1 0 0 0 0 1 1 0 0 0 0 0 1 2 0 2 0 1 0 0 0 3 1 0 0 0 0 1 1 0 3 0 1 3 0 0 0 0 0 0 1 0 0 1 1 0 0 1 0 2 0 0 0 0 1 0 1 0 1 0 1 0 1 0 0 1 0 1 0 0 1 0 1 1 3 0 1 0 0 1 0 1 2 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 3 1 2 2 2 0 1 0 0 0 1 1 3 1 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 1 1 0 1 0 1 1 0 0 0 0 0 2 1 1 0 0 1 1 1 1 0 0 2 1 0 0 0 1 1 1 0 0 2 0 0 0 1 0 1 0 0 1 0 1 1 0 1 0 2 2 0 0 0 0 2 1 2 0 3 3 0 0 0 1 1 2 1 2 2 3 1 0 0 1 0 0 1 0 0 1 3 2 1 1 0 2 0 0 0 0 0 3 0 1 1 1 2 0 2 0 1 0 1 0 0 4 0 1 0 0 1 0 3 0 0 0 1 0 1 1 1 1 0 1 1 0 1 2 0 1 0 0 1 2 1 1 0 0 2 0 0 1 1 3 1 1 1 0 2 1 0 1 1 1 0 3 1 0 1 0 2 0 1 0 1 0 1 0 1 1 1 0 0 1 1 0 1 1 0 0 0 0 2 0 1 0 1 2 1 0 2 0 0 0 1 1 0 1 0 0 1 0 0 0 2 0 1 0 0 0 0 1 0 0 1 0 0 1 0 1 1 1 0 0 1 0 4 0 0 1 0 0 0 2 0 0 1 0 1 2 0 0 0 3 1 1 0 0 0 1 0 1 2 2 0 2 1 2 1 0 0 1 1 0 0 0 1 0 0 1 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 1 0 0 1 1 1 2 3 1 1 1 0 0 0 1 0 0 0 1 0 0 0 1 1 0 1 1 2 1 0 1 0 1 0 1 0 0 0 2 0 2 0 0 0 0 2 1 0 2 1 0 2 1 2 0 1 1 0 0 1 0 1 0 3 0 1 0 0 2 0 0 0 1 1 1 0 1 1 0 1 2 0 0 2 0 2 1 3 1 0 0 2 0 0 1 1 0 2 0 0 0 1 1 0 0 0 0 2 3 0 1 2 0 0 0 0 1 0 1 0 0 1 0 0 0 0 2 0 0 0 1 1 0 0 0 0 1 1 2 0 1 1 0 0 0 1 2 1 2 3 0 1 0 0 0 1 0 1 0 0 1 0 0 1 1 1 2 0 1 0 1 0 0 0 0 0 1 1 1 0 1 2 1 0 0 0 0 1 0 0 2 0 0 0 0 0 3 2 0 1 1 1 2 0 0 1 0 1 0 1 2 1 3 1 0 1 1 0 0 0 1 1 1 1 0 1 1 1 0 1 0 2 1 1 2 1 1 0 0 0 1 1 0 1 0 2 0 0 0 0 0 1 1 0 0 0 1 1 2 1 0 1 0 0 1 1 1 0 0 0 0 0 0 0 0 1 0 0 0 2 0 1 2 3 0 4 1 0 1 2 0 0 0 1 1 0 1 1 1 0 1 0 1 2 0 2 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 1 1 1 0 0 0 0 0 0 0 0 2 0 0 2 2 1 0 0 1 2 1 0 3 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 2 1 1 0 0 0 0 0 0 1 3 1 0 1 1 1 1 3 2 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 0 0 1 1 0 0 1 0 1 0 2 0 1 1 0 2 1 1 0 0 0 1 0 0 1 1 0 0 0 0 1 0 0 1 0 2 2 0 0 0 2 1 0 0 0 0 0 0 0 1 1 0 0 1 0 0 1 1 0 0 0 0 0 2 3 0 0 0 0 0 2 1 0 0 0 0 1 2 1 1 1 1 2 0 0 2 0 0 0 1 0 0 1 2 0 1 1 0 1 1 0 1 0 1 0 1 2 0 1 0 0 1 0 1 0 0 2 0 2 0 1 0 2 0 0 0 0 1 2 0 1 1 2 0 0 0 1 0 2 1 1 1 1 0 0 1 0 0 0 1 1 1 2 0 0 0 2 0 2 1 1 0 0 0 1 0 0 0 3 1 1 1 0 0 1 0 1 0 0 1 3 1 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 3 1 1 2 1 2 1 1 0 3 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 2 1 1 0 2 0 0 0 1 1 0 2 0 0 1 2 0 0 0 1 1 0 0 1 0 0 1 1 0 1 1 0 0 0 2 0 2 2 0 0 0 2 0 0 0 0 2 1 0 0 0 1 2 0 0 1 0 0 1 0 0 1 2 0 3 0 2 0 0 1 1 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 2 0 1 0 0 1 0 0 2 0 0 1 0 2 2 0 0 1 0 1 0 0 0 1 0 0 2 0 0 0 0 0 0 0 0 1 1 1 0 4 1 2 1 0 0 0 1 0 2 0 2 0 1 2 0 1 1 0 0 1 1 1</t>
   </si>
   <si>
     <t>M.Ryan</t>
@@ -779,16 +779,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2">
-        <v>45</v>
+        <v>45.9</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="E2">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -806,10 +806,10 @@
         <v>14</v>
       </c>
       <c r="K2">
-        <v>5.49</v>
+        <v>5.43</v>
       </c>
       <c r="L2">
-        <v>4.43</v>
+        <v>4.42</v>
       </c>
     </row>
   </sheetData>
@@ -856,28 +856,28 @@
         <v>23</v>
       </c>
       <c r="B2">
-        <v>18</v>
+        <v>17.8</v>
       </c>
       <c r="C2">
         <v>23.7</v>
       </c>
       <c r="D2">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="E2">
-        <v>213.59</v>
+        <v>212.86</v>
       </c>
       <c r="F2">
         <v>1.14</v>
       </c>
       <c r="G2">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="H2">
-        <v>107.41</v>
+        <v>108.06</v>
       </c>
       <c r="I2">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1000,16 +1000,16 @@
         <v>23.7</v>
       </c>
       <c r="D2">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="E2">
-        <v>213.57</v>
+        <v>212.85</v>
       </c>
       <c r="F2">
         <v>1.14</v>
       </c>
       <c r="G2">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="H2">
         <v>0.03</v>
@@ -1018,7 +1018,7 @@
         <v>1.5</v>
       </c>
       <c r="J2">
-        <v>4.11</v>
+        <v>4.16</v>
       </c>
       <c r="K2">
         <v>0.03</v>
@@ -1168,34 +1168,34 @@
         <v>55</v>
       </c>
       <c r="C2">
-        <v>4.44</v>
+        <v>4.43</v>
       </c>
       <c r="D2">
-        <v>39.45</v>
+        <v>39.15</v>
       </c>
       <c r="E2">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="F2">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="G2">
         <v>11.6</v>
       </c>
       <c r="H2">
-        <v>50.58</v>
+        <v>51.31</v>
       </c>
       <c r="I2">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="J2">
         <v>0.01</v>
       </c>
       <c r="K2">
-        <v>16.61</v>
+        <v>16.6</v>
       </c>
       <c r="L2">
-        <v>12.16</v>
+        <v>12.17</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1206,16 +1206,16 @@
         <v>56</v>
       </c>
       <c r="C3">
-        <v>4.77</v>
+        <v>4.74</v>
       </c>
       <c r="D3">
-        <v>42.82</v>
+        <v>42.6</v>
       </c>
       <c r="E3">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="F3">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0.01</v>
       </c>
       <c r="K3">
-        <v>10.31</v>
+        <v>10.29</v>
       </c>
       <c r="L3">
         <v>5.54</v>
@@ -1244,10 +1244,10 @@
         <v>57</v>
       </c>
       <c r="C4">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="D4">
-        <v>13.47</v>
+        <v>13.16</v>
       </c>
       <c r="E4">
         <v>0.07000000000000001</v>
@@ -1259,7 +1259,7 @@
         <v>7.8</v>
       </c>
       <c r="H4">
-        <v>34.15</v>
+        <v>34.7</v>
       </c>
       <c r="I4">
         <v>0.25</v>
@@ -1268,10 +1268,10 @@
         <v>0.01</v>
       </c>
       <c r="K4">
-        <v>8.050000000000001</v>
+        <v>8.01</v>
       </c>
       <c r="L4">
-        <v>6.53</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1285,31 +1285,31 @@
         <v>3.21</v>
       </c>
       <c r="D5">
-        <v>28.68</v>
+        <v>28.75</v>
       </c>
       <c r="E5">
         <v>0.15</v>
       </c>
       <c r="F5">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G5">
         <v>0.1</v>
       </c>
       <c r="H5">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>7</v>
+        <v>6.99</v>
       </c>
       <c r="L5">
-        <v>3.79</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1320,13 +1320,13 @@
         <v>59</v>
       </c>
       <c r="C6">
-        <v>2.99</v>
+        <v>2.97</v>
       </c>
       <c r="D6">
-        <v>27.26</v>
+        <v>26.94</v>
       </c>
       <c r="E6">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="F6">
         <v>0.03</v>
@@ -1335,19 +1335,19 @@
         <v>0.3</v>
       </c>
       <c r="H6">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="I6">
         <v>0.01</v>
       </c>
       <c r="J6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>6.73</v>
+        <v>6.63</v>
       </c>
       <c r="L6">
-        <v>3.74</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1358,10 +1358,10 @@
         <v>60</v>
       </c>
       <c r="C7">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="D7">
-        <v>9.609999999999999</v>
+        <v>9.73</v>
       </c>
       <c r="E7">
         <v>0.05</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.29</v>
+        <v>2.31</v>
       </c>
       <c r="L7">
         <v>1.26</v>
@@ -1396,10 +1396,10 @@
         <v>61</v>
       </c>
       <c r="C8">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="D8">
-        <v>8.35</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="E8">
         <v>0.05</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="L8">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1434,10 +1434,10 @@
         <v>62</v>
       </c>
       <c r="C9">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="D9">
-        <v>7.96</v>
+        <v>8.18</v>
       </c>
       <c r="E9">
         <v>0.04</v>
@@ -1458,10 +1458,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="L9">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1475,7 +1475,7 @@
         <v>0.2</v>
       </c>
       <c r="D10">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="E10">
         <v>0.01</v>
@@ -1484,10 +1484,10 @@
         <v>0.02</v>
       </c>
       <c r="G10">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H10">
-        <v>9.65</v>
+        <v>9.25</v>
       </c>
       <c r="I10">
         <v>0.07000000000000001</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="L10">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1510,10 +1510,10 @@
         <v>64</v>
       </c>
       <c r="C11">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="D11">
-        <v>6.89</v>
+        <v>6.96</v>
       </c>
       <c r="E11">
         <v>0.04</v>
@@ -1548,10 +1548,10 @@
         <v>65</v>
       </c>
       <c r="C12">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="D12">
-        <v>6.51</v>
+        <v>6.62</v>
       </c>
       <c r="E12">
         <v>0.03</v>
@@ -1572,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="L12">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1589,7 +1589,7 @@
         <v>0.59</v>
       </c>
       <c r="D13">
-        <v>5.23</v>
+        <v>5.16</v>
       </c>
       <c r="E13">
         <v>0.03</v>
@@ -1601,7 +1601,7 @@
         <v>0.4</v>
       </c>
       <c r="H13">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="I13">
         <v>0.01</v>
@@ -1610,10 +1610,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="L13">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1627,7 +1627,7 @@
         <v>0.27</v>
       </c>
       <c r="D14">
-        <v>2.35</v>
+        <v>2.33</v>
       </c>
       <c r="E14">
         <v>0.01</v>
@@ -1639,7 +1639,7 @@
         <v>0.6</v>
       </c>
       <c r="H14">
-        <v>2.59</v>
+        <v>2.44</v>
       </c>
       <c r="I14">
         <v>0.02</v>
@@ -1648,10 +1648,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="L14">
-        <v>0.66</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1665,7 +1665,7 @@
         <v>0.4</v>
       </c>
       <c r="D15">
-        <v>3.63</v>
+        <v>3.57</v>
       </c>
       <c r="E15">
         <v>0.02</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="L15">
         <v>0.46</v>
@@ -1700,22 +1700,22 @@
         <v>67</v>
       </c>
       <c r="C16">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="D16">
-        <v>2.35</v>
+        <v>2.21</v>
       </c>
       <c r="E16">
         <v>0.01</v>
       </c>
       <c r="F16">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>0.2</v>
       </c>
       <c r="H16">
-        <v>0.68</v>
+        <v>0.66</v>
       </c>
       <c r="I16">
         <v>0.01</v>
@@ -1724,10 +1724,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="L16">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1741,7 +1741,7 @@
         <v>0.2</v>
       </c>
       <c r="D17">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="E17">
         <v>0.01</v>
@@ -1753,7 +1753,7 @@
         <v>0.2</v>
       </c>
       <c r="H17">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="I17">
         <v>0.01</v>
@@ -1762,10 +1762,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.59</v>
+        <v>0.57</v>
       </c>
       <c r="L17">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1776,10 +1776,10 @@
         <v>70</v>
       </c>
       <c r="C18">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="D18">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="E18">
         <v>0.01</v>
@@ -1814,10 +1814,10 @@
         <v>71</v>
       </c>
       <c r="C19">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="D19">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="E19">
         <v>0.01</v>
@@ -1838,10 +1838,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="L19">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1852,10 +1852,10 @@
         <v>72</v>
       </c>
       <c r="C20">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="D20">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="E20">
         <v>0.01</v>
@@ -1876,10 +1876,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="L20">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2008,22 +2008,22 @@
         <v>1.69</v>
       </c>
       <c r="D2">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="E2">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="F2">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="G2">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
       <c r="H2">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
       <c r="I2">
-        <v>7.12</v>
+        <v>7.06</v>
       </c>
     </row>
   </sheetData>
@@ -2073,25 +2073,25 @@
         <v>16.7</v>
       </c>
       <c r="C2">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="D2">
         <v>32.6</v>
       </c>
       <c r="E2">
-        <v>222.09</v>
+        <v>221.15</v>
       </c>
       <c r="F2">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="G2">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="H2">
-        <v>100.13</v>
+        <v>101.34</v>
       </c>
       <c r="I2">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2211,19 +2211,19 @@
         <v>98</v>
       </c>
       <c r="C2">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="D2">
         <v>32.6</v>
       </c>
       <c r="E2">
-        <v>222.09</v>
+        <v>221.15</v>
       </c>
       <c r="F2">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="G2">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="H2">
         <v>0.07000000000000001</v>
@@ -2232,16 +2232,16 @@
         <v>2.2</v>
       </c>
       <c r="J2">
-        <v>6.6</v>
+        <v>6.86</v>
       </c>
       <c r="K2">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="L2">
         <v>0.05</v>
       </c>
       <c r="M2">
-        <v>13.62</v>
+        <v>13.67</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2276,13 +2276,13 @@
         <v>0.93</v>
       </c>
       <c r="K3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2423,10 +2423,10 @@
         <v>102</v>
       </c>
       <c r="C2">
-        <v>3.35</v>
+        <v>3.34</v>
       </c>
       <c r="D2">
-        <v>33.36</v>
+        <v>33.44</v>
       </c>
       <c r="E2">
         <v>0.17</v>
@@ -2435,10 +2435,10 @@
         <v>0.25</v>
       </c>
       <c r="G2">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="H2">
-        <v>42.12</v>
+        <v>42.25</v>
       </c>
       <c r="I2">
         <v>0.24</v>
@@ -2447,10 +2447,10 @@
         <v>0.01</v>
       </c>
       <c r="K2">
-        <v>12.93</v>
+        <v>12.9</v>
       </c>
       <c r="L2">
-        <v>9.58</v>
+        <v>9.56</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2461,34 +2461,34 @@
         <v>103</v>
       </c>
       <c r="C3">
-        <v>3.01</v>
+        <v>3.03</v>
       </c>
       <c r="D3">
-        <v>29.46</v>
+        <v>29.58</v>
       </c>
       <c r="E3">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="F3">
         <v>0.22</v>
       </c>
       <c r="G3">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="H3">
-        <v>36.65</v>
+        <v>37.26</v>
       </c>
       <c r="I3">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="J3">
         <v>0.01</v>
       </c>
       <c r="K3">
-        <v>11.32</v>
+        <v>11.53</v>
       </c>
       <c r="L3">
-        <v>8.31</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2499,10 +2499,10 @@
         <v>104</v>
       </c>
       <c r="C4">
-        <v>4.31</v>
+        <v>4.3</v>
       </c>
       <c r="D4">
-        <v>43.94</v>
+        <v>43.64</v>
       </c>
       <c r="E4">
         <v>0.22</v>
@@ -2523,10 +2523,10 @@
         <v>0.01</v>
       </c>
       <c r="K4">
-        <v>9.890000000000001</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="L4">
-        <v>5.58</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2537,10 +2537,10 @@
         <v>105</v>
       </c>
       <c r="C5">
-        <v>4.28</v>
+        <v>4.24</v>
       </c>
       <c r="D5">
-        <v>42.54</v>
+        <v>42.25</v>
       </c>
       <c r="E5">
         <v>0.21</v>
@@ -2561,10 +2561,10 @@
         <v>0.01</v>
       </c>
       <c r="K5">
-        <v>9.68</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="L5">
-        <v>5.4</v>
+        <v>5.38</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2575,10 +2575,10 @@
         <v>106</v>
       </c>
       <c r="C6">
-        <v>2.16</v>
+        <v>2.15</v>
       </c>
       <c r="D6">
-        <v>21.55</v>
+        <v>21.3</v>
       </c>
       <c r="E6">
         <v>0.11</v>
@@ -2590,19 +2590,19 @@
         <v>0.1</v>
       </c>
       <c r="H6">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>4.94</v>
+        <v>4.89</v>
       </c>
       <c r="L6">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2613,13 +2613,13 @@
         <v>107</v>
       </c>
       <c r="C7">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="D7">
-        <v>17.68</v>
+        <v>17.74</v>
       </c>
       <c r="E7">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F7">
         <v>0.03</v>
@@ -2637,10 +2637,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>4.06</v>
+        <v>4.09</v>
       </c>
       <c r="L7">
-        <v>2.28</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2654,7 +2654,7 @@
         <v>1.65</v>
       </c>
       <c r="D8">
-        <v>16.2</v>
+        <v>16.09</v>
       </c>
       <c r="E8">
         <v>0.08</v>
@@ -2689,10 +2689,10 @@
         <v>109</v>
       </c>
       <c r="C9">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="D9">
-        <v>5.9</v>
+        <v>5.97</v>
       </c>
       <c r="E9">
         <v>0.03</v>
@@ -2704,7 +2704,7 @@
         <v>0.1</v>
       </c>
       <c r="H9">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2713,10 +2713,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="L9">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2727,13 +2727,13 @@
         <v>110</v>
       </c>
       <c r="C10">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="D10">
-        <v>2.88</v>
+        <v>2.85</v>
       </c>
       <c r="E10">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F10">
         <v>0.03</v>
@@ -2742,7 +2742,7 @@
         <v>1.3</v>
       </c>
       <c r="H10">
-        <v>5.27</v>
+        <v>5.25</v>
       </c>
       <c r="I10">
         <v>0.03</v>
@@ -2751,10 +2751,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="L10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2768,7 +2768,7 @@
         <v>0.13</v>
       </c>
       <c r="D11">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="E11">
         <v>0.01</v>
@@ -2780,7 +2780,7 @@
         <v>1.6</v>
       </c>
       <c r="H11">
-        <v>6.69</v>
+        <v>6.85</v>
       </c>
       <c r="I11">
         <v>0.04</v>
@@ -2789,10 +2789,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2803,10 +2803,10 @@
         <v>112</v>
       </c>
       <c r="C12">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="D12">
-        <v>2.97</v>
+        <v>2.83</v>
       </c>
       <c r="E12">
         <v>0.01</v>
@@ -2818,7 +2818,7 @@
         <v>0.2</v>
       </c>
       <c r="H12">
-        <v>0.95</v>
+        <v>1.02</v>
       </c>
       <c r="I12">
         <v>0.01</v>
@@ -2827,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="L12">
         <v>0.49</v>
@@ -2841,16 +2841,16 @@
         <v>113</v>
       </c>
       <c r="C13">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="D13">
-        <v>3.11</v>
+        <v>2.95</v>
       </c>
       <c r="E13">
         <v>0.02</v>
       </c>
       <c r="F13">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -2865,10 +2865,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="L13">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2882,10 +2882,10 @@
         <v>0.12</v>
       </c>
       <c r="D14">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -2903,10 +2903,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.26</v>
+        <v>0.28</v>
       </c>
       <c r="L14">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -3032,25 +3032,25 @@
         <v>117</v>
       </c>
       <c r="C2">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="D2">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="E2">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="G2">
-        <v>0.55</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H2">
         <v>0.66</v>
       </c>
       <c r="I2">
-        <v>7.35</v>
+        <v>7.31</v>
       </c>
     </row>
   </sheetData>
